--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" firstSheet="12" activeTab="22"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -700,7 +700,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="702">
   <si>
     <t>Fishing</t>
   </si>
@@ -2797,6 +2797,15 @@
   </si>
   <si>
     <t>Jump on to target unoccupied tile, ignores spear wall</t>
+  </si>
+  <si>
+    <t>Hazer</t>
+  </si>
+  <si>
+    <t>Orc, 3</t>
+  </si>
+  <si>
+    <t>Hitting a taunted target causes a HoT for 15% of dmg done over 5 turns</t>
   </si>
 </sst>
 </file>
@@ -6734,10 +6743,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7629,6 +7638,20 @@
       </c>
       <c r="G83" t="s">
         <v>689</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>699</v>
+      </c>
+      <c r="B84" t="s">
+        <v>700</v>
+      </c>
+      <c r="G84" t="s">
+        <v>701</v>
+      </c>
+      <c r="H84">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -7646,7 +7669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" firstSheet="12" activeTab="21"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" firstSheet="12" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -2840,7 +2840,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2862,6 +2862,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3097,7 +3103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3203,6 +3209,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6745,7 +6754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
@@ -7669,8 +7678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8439,7 +8448,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="39" t="s">
         <v>693</v>
       </c>
       <c r="B40" s="37" t="s">

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="789">
   <si>
     <t>Fishing</t>
   </si>
@@ -3062,6 +3062,12 @@
   </si>
   <si>
     <t>Void Staff</t>
+  </si>
+  <si>
+    <t>Yumi</t>
+  </si>
+  <si>
+    <t>Longbow</t>
   </si>
 </sst>
 </file>
@@ -3467,7 +3473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3591,14 +3597,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3903,11 +3908,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X294"/>
+  <dimension ref="A1:X297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J52" sqref="J52"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K129" sqref="K129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3965,7 +3970,7 @@
       <c r="J1" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="40" t="s">
         <v>731</v>
       </c>
       <c r="L1" s="40" t="s">
@@ -4024,7 +4029,7 @@
       <c r="E2" s="43">
         <v>0.92</v>
       </c>
-      <c r="F2" s="59">
+      <c r="F2" s="57">
         <v>1.05</v>
       </c>
       <c r="G2" s="43">
@@ -4090,7 +4095,7 @@
       <c r="E3" s="45">
         <v>0.93</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="58">
         <v>1.05</v>
       </c>
       <c r="G3" s="45">
@@ -4156,7 +4161,7 @@
       <c r="E4" s="45">
         <v>0.92</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="58">
         <v>1.05</v>
       </c>
       <c r="G4" s="45">
@@ -4222,7 +4227,7 @@
       <c r="E5" s="45">
         <v>0.95</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="58">
         <v>1.05</v>
       </c>
       <c r="G5" s="45">
@@ -4354,7 +4359,7 @@
       <c r="E7" s="45">
         <v>0.72</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="58">
         <v>1.1499999999999999</v>
       </c>
       <c r="G7" s="45">
@@ -4398,7 +4403,7 @@
       <c r="U7" s="45" t="s">
         <v>722</v>
       </c>
-      <c r="V7" s="60" t="s">
+      <c r="V7" s="58" t="s">
         <v>751</v>
       </c>
       <c r="W7" s="45"/>
@@ -4420,7 +4425,7 @@
       <c r="E8" s="45">
         <v>0.73</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="58">
         <v>1.1499999999999999</v>
       </c>
       <c r="G8" s="45">
@@ -4464,7 +4469,7 @@
       <c r="U8" s="45" t="s">
         <v>722</v>
       </c>
-      <c r="V8" s="60" t="s">
+      <c r="V8" s="58" t="s">
         <v>751</v>
       </c>
       <c r="W8" s="45"/>
@@ -4486,7 +4491,7 @@
       <c r="E9" s="45">
         <v>0.75</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="58">
         <v>1.1499999999999999</v>
       </c>
       <c r="G9" s="45">
@@ -4530,7 +4535,7 @@
       <c r="U9" s="45" t="s">
         <v>722</v>
       </c>
-      <c r="V9" s="60" t="s">
+      <c r="V9" s="58" t="s">
         <v>751</v>
       </c>
       <c r="W9" s="45"/>
@@ -4552,7 +4557,7 @@
       <c r="E10" s="45">
         <v>0.76</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="58">
         <v>1.1499999999999999</v>
       </c>
       <c r="G10" s="45">
@@ -4596,7 +4601,7 @@
       <c r="U10" s="45" t="s">
         <v>722</v>
       </c>
-      <c r="V10" s="60" t="s">
+      <c r="V10" s="58" t="s">
         <v>751</v>
       </c>
       <c r="W10" s="45"/>
@@ -4649,7 +4654,7 @@
       <c r="P11" s="45">
         <v>0.1</v>
       </c>
-      <c r="Q11" s="60">
+      <c r="Q11" s="58">
         <v>0.9</v>
       </c>
       <c r="R11" s="45">
@@ -4662,7 +4667,7 @@
       <c r="U11" s="45" t="s">
         <v>719</v>
       </c>
-      <c r="V11" s="60" t="s">
+      <c r="V11" s="58" t="s">
         <v>726</v>
       </c>
       <c r="W11" s="45" t="s">
@@ -4689,7 +4694,7 @@
       <c r="F12" s="45">
         <v>1.08</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="58">
         <v>0.99</v>
       </c>
       <c r="H12" s="45">
@@ -4755,7 +4760,7 @@
       <c r="F13" s="45">
         <v>1.07</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="58">
         <v>0.99</v>
       </c>
       <c r="H13" s="45">
@@ -4821,7 +4826,7 @@
       <c r="F14" s="45">
         <v>1.06</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="58">
         <v>0.98</v>
       </c>
       <c r="H14" s="45">
@@ -4887,7 +4892,7 @@
       <c r="F15" s="45">
         <v>1.05</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="58">
         <v>0.98</v>
       </c>
       <c r="H15" s="45">
@@ -4908,10 +4913,10 @@
       <c r="M15" s="45">
         <v>30</v>
       </c>
-      <c r="N15" s="60">
+      <c r="N15" s="58">
         <v>0.83</v>
       </c>
-      <c r="O15" s="60"/>
+      <c r="O15" s="58"/>
       <c r="P15" s="45">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -5305,7 +5310,7 @@
       <c r="L21" s="45">
         <v>1</v>
       </c>
-      <c r="M21" s="60">
+      <c r="M21" s="58">
         <v>10</v>
       </c>
       <c r="N21" s="45">
@@ -5331,7 +5336,7 @@
       <c r="V21" s="45" t="s">
         <v>720</v>
       </c>
-      <c r="W21" s="60" t="s">
+      <c r="W21" s="58" t="s">
         <v>583</v>
       </c>
       <c r="X21" s="46"/>
@@ -5373,7 +5378,7 @@
       <c r="L22" s="45">
         <v>1</v>
       </c>
-      <c r="M22" s="60">
+      <c r="M22" s="58">
         <v>15</v>
       </c>
       <c r="N22" s="45">
@@ -5399,7 +5404,7 @@
       <c r="V22" s="45" t="s">
         <v>720</v>
       </c>
-      <c r="W22" s="60" t="s">
+      <c r="W22" s="58" t="s">
         <v>583</v>
       </c>
       <c r="X22" s="46"/>
@@ -5441,7 +5446,7 @@
       <c r="L23" s="45">
         <v>1</v>
       </c>
-      <c r="M23" s="60">
+      <c r="M23" s="58">
         <v>20</v>
       </c>
       <c r="N23" s="45">
@@ -5467,7 +5472,7 @@
       <c r="V23" s="45" t="s">
         <v>720</v>
       </c>
-      <c r="W23" s="60" t="s">
+      <c r="W23" s="58" t="s">
         <v>583</v>
       </c>
       <c r="X23" s="46"/>
@@ -5485,7 +5490,7 @@
       <c r="D24" s="45">
         <v>2</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="58">
         <v>1.05</v>
       </c>
       <c r="F24" s="45">
@@ -5509,7 +5514,7 @@
       <c r="L24" s="45">
         <v>1</v>
       </c>
-      <c r="M24" s="60">
+      <c r="M24" s="58">
         <v>24</v>
       </c>
       <c r="N24" s="45">
@@ -5535,7 +5540,7 @@
       <c r="V24" s="45" t="s">
         <v>720</v>
       </c>
-      <c r="W24" s="60" t="s">
+      <c r="W24" s="58" t="s">
         <v>583</v>
       </c>
       <c r="X24" s="46"/>
@@ -5577,7 +5582,7 @@
       <c r="L25" s="45">
         <v>1</v>
       </c>
-      <c r="M25" s="60">
+      <c r="M25" s="58">
         <v>28</v>
       </c>
       <c r="N25" s="45">
@@ -5622,35 +5627,35 @@
       <c r="E26" s="45">
         <v>0.93</v>
       </c>
-      <c r="F26" s="60">
-        <v>1</v>
-      </c>
-      <c r="G26" s="60">
+      <c r="F26" s="58">
+        <v>1</v>
+      </c>
+      <c r="G26" s="58">
         <v>0.96</v>
       </c>
-      <c r="H26" s="60">
+      <c r="H26" s="58">
         <v>0.96</v>
       </c>
-      <c r="I26" s="60">
+      <c r="I26" s="58">
         <v>0</v>
       </c>
-      <c r="J26" s="60">
+      <c r="J26" s="58">
         <v>39</v>
       </c>
-      <c r="K26" s="60">
+      <c r="K26" s="58">
         <v>1.01</v>
       </c>
-      <c r="L26" s="60">
+      <c r="L26" s="58">
         <v>0.96</v>
       </c>
-      <c r="M26" s="60">
+      <c r="M26" s="58">
         <v>45</v>
       </c>
-      <c r="N26" s="60">
+      <c r="N26" s="58">
         <v>1.1200000000000001</v>
       </c>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60">
+      <c r="O26" s="58"/>
+      <c r="P26" s="58">
         <v>0</v>
       </c>
       <c r="Q26" s="45">
@@ -5688,35 +5693,35 @@
       <c r="E27" s="45">
         <v>0.95</v>
       </c>
-      <c r="F27" s="60">
-        <v>1</v>
-      </c>
-      <c r="G27" s="60">
+      <c r="F27" s="58">
+        <v>1</v>
+      </c>
+      <c r="G27" s="58">
         <v>0.95</v>
       </c>
-      <c r="H27" s="60">
+      <c r="H27" s="58">
         <v>0.95</v>
       </c>
-      <c r="I27" s="60">
+      <c r="I27" s="58">
         <v>0</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="58">
         <v>50</v>
       </c>
-      <c r="K27" s="60">
-        <v>1</v>
-      </c>
-      <c r="L27" s="60">
+      <c r="K27" s="58">
+        <v>1</v>
+      </c>
+      <c r="L27" s="58">
         <v>0.97</v>
       </c>
-      <c r="M27" s="60">
+      <c r="M27" s="58">
         <v>50</v>
       </c>
-      <c r="N27" s="60">
+      <c r="N27" s="58">
         <v>1.1499999999999999</v>
       </c>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60">
+      <c r="O27" s="58"/>
+      <c r="P27" s="58">
         <v>0</v>
       </c>
       <c r="Q27" s="45">
@@ -5751,41 +5756,41 @@
       <c r="D28" s="45">
         <v>1</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E28" s="58">
         <v>1.05</v>
       </c>
-      <c r="F28" s="60">
+      <c r="F28" s="58">
         <v>0.95</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="58">
         <v>0.85</v>
       </c>
-      <c r="H28" s="60">
+      <c r="H28" s="58">
         <v>0.97</v>
       </c>
-      <c r="I28" s="60">
+      <c r="I28" s="58">
         <v>0.22</v>
       </c>
-      <c r="J28" s="60">
+      <c r="J28" s="58">
         <v>88</v>
       </c>
-      <c r="K28" s="60">
+      <c r="K28" s="58">
         <v>0.95</v>
       </c>
-      <c r="L28" s="60">
+      <c r="L28" s="58">
         <v>0.9</v>
       </c>
-      <c r="M28" s="60">
+      <c r="M28" s="58">
         <v>35</v>
       </c>
-      <c r="N28" s="60">
+      <c r="N28" s="58">
         <v>1.05</v>
       </c>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60">
+      <c r="O28" s="58"/>
+      <c r="P28" s="58">
         <v>0.15</v>
       </c>
-      <c r="Q28" s="60">
+      <c r="Q28" s="58">
         <v>0.95</v>
       </c>
       <c r="R28" s="45">
@@ -5819,41 +5824,41 @@
       <c r="D29" s="45">
         <v>5</v>
       </c>
-      <c r="E29" s="60">
-        <v>1</v>
-      </c>
-      <c r="F29" s="60">
+      <c r="E29" s="58">
+        <v>1</v>
+      </c>
+      <c r="F29" s="58">
         <v>0.95</v>
       </c>
-      <c r="G29" s="60">
+      <c r="G29" s="58">
         <v>0.92</v>
       </c>
-      <c r="H29" s="60">
-        <v>1</v>
-      </c>
-      <c r="I29" s="60">
+      <c r="H29" s="58">
+        <v>1</v>
+      </c>
+      <c r="I29" s="58">
         <v>0</v>
       </c>
-      <c r="J29" s="60">
+      <c r="J29" s="58">
         <v>58</v>
       </c>
-      <c r="K29" s="60">
+      <c r="K29" s="58">
         <v>1.05</v>
       </c>
-      <c r="L29" s="60">
+      <c r="L29" s="58">
         <v>0.88</v>
       </c>
-      <c r="M29" s="60">
+      <c r="M29" s="58">
         <v>10</v>
       </c>
-      <c r="N29" s="60">
+      <c r="N29" s="58">
         <v>1.01</v>
       </c>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60">
+      <c r="O29" s="58"/>
+      <c r="P29" s="58">
         <v>0</v>
       </c>
-      <c r="Q29" s="60">
+      <c r="Q29" s="58">
         <v>0.92</v>
       </c>
       <c r="R29" s="45">
@@ -5887,41 +5892,41 @@
       <c r="D30" s="45">
         <v>4</v>
       </c>
-      <c r="E30" s="60">
+      <c r="E30" s="58">
         <v>1.01</v>
       </c>
-      <c r="F30" s="60">
+      <c r="F30" s="58">
         <v>0.93</v>
       </c>
-      <c r="G30" s="60">
+      <c r="G30" s="58">
         <v>0.93</v>
       </c>
-      <c r="H30" s="60">
-        <v>1</v>
-      </c>
-      <c r="I30" s="60">
+      <c r="H30" s="58">
+        <v>1</v>
+      </c>
+      <c r="I30" s="58">
         <v>0</v>
       </c>
-      <c r="J30" s="60">
+      <c r="J30" s="58">
         <v>64</v>
       </c>
-      <c r="K30" s="60">
+      <c r="K30" s="58">
         <v>1.04</v>
       </c>
-      <c r="L30" s="60">
+      <c r="L30" s="58">
         <v>0.89</v>
       </c>
-      <c r="M30" s="60">
+      <c r="M30" s="58">
         <v>15</v>
       </c>
-      <c r="N30" s="60">
+      <c r="N30" s="58">
         <v>1.02</v>
       </c>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60">
+      <c r="O30" s="58"/>
+      <c r="P30" s="58">
         <v>0</v>
       </c>
-      <c r="Q30" s="60">
+      <c r="Q30" s="58">
         <v>0.93</v>
       </c>
       <c r="R30" s="45">
@@ -5955,41 +5960,41 @@
       <c r="D31" s="45">
         <v>3</v>
       </c>
-      <c r="E31" s="60">
+      <c r="E31" s="58">
         <v>1.02</v>
       </c>
-      <c r="F31" s="60">
+      <c r="F31" s="58">
         <v>0.92</v>
       </c>
-      <c r="G31" s="60">
+      <c r="G31" s="58">
         <v>0.92</v>
       </c>
-      <c r="H31" s="60">
-        <v>1</v>
-      </c>
-      <c r="I31" s="60">
+      <c r="H31" s="58">
+        <v>1</v>
+      </c>
+      <c r="I31" s="58">
         <v>0</v>
       </c>
-      <c r="J31" s="60">
+      <c r="J31" s="58">
         <v>68</v>
       </c>
-      <c r="K31" s="60">
+      <c r="K31" s="58">
         <v>1.03</v>
       </c>
-      <c r="L31" s="60">
+      <c r="L31" s="58">
         <v>0.9</v>
       </c>
-      <c r="M31" s="60">
+      <c r="M31" s="58">
         <v>22</v>
       </c>
-      <c r="N31" s="60">
+      <c r="N31" s="58">
         <v>1.04</v>
       </c>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60">
+      <c r="O31" s="58"/>
+      <c r="P31" s="58">
         <v>0</v>
       </c>
-      <c r="Q31" s="60">
+      <c r="Q31" s="58">
         <v>0.94</v>
       </c>
       <c r="R31" s="45">
@@ -6023,41 +6028,41 @@
       <c r="D32" s="45">
         <v>2</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="58">
         <v>1.03</v>
       </c>
-      <c r="F32" s="60">
+      <c r="F32" s="58">
         <v>0.91</v>
       </c>
-      <c r="G32" s="60">
+      <c r="G32" s="58">
         <v>0.91</v>
       </c>
-      <c r="H32" s="60">
-        <v>1</v>
-      </c>
-      <c r="I32" s="60">
+      <c r="H32" s="58">
+        <v>1</v>
+      </c>
+      <c r="I32" s="58">
         <v>0</v>
       </c>
-      <c r="J32" s="60">
+      <c r="J32" s="58">
         <v>73</v>
       </c>
-      <c r="K32" s="60">
+      <c r="K32" s="58">
         <v>1.02</v>
       </c>
-      <c r="L32" s="60">
+      <c r="L32" s="58">
         <v>0.9</v>
       </c>
-      <c r="M32" s="60">
+      <c r="M32" s="58">
         <v>25</v>
       </c>
-      <c r="N32" s="60">
+      <c r="N32" s="58">
         <v>1.05</v>
       </c>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60">
+      <c r="O32" s="58"/>
+      <c r="P32" s="58">
         <v>0</v>
       </c>
-      <c r="Q32" s="60">
+      <c r="Q32" s="58">
         <v>0.95</v>
       </c>
       <c r="R32" s="45">
@@ -6091,41 +6096,41 @@
       <c r="D33" s="45">
         <v>5</v>
       </c>
-      <c r="E33" s="60">
-        <v>1</v>
-      </c>
-      <c r="F33" s="60">
+      <c r="E33" s="58">
+        <v>1</v>
+      </c>
+      <c r="F33" s="58">
         <v>0.9</v>
       </c>
-      <c r="G33" s="60">
-        <v>1</v>
-      </c>
-      <c r="H33" s="60">
+      <c r="G33" s="58">
+        <v>1</v>
+      </c>
+      <c r="H33" s="58">
         <v>0.95</v>
       </c>
-      <c r="I33" s="60">
+      <c r="I33" s="58">
         <v>0</v>
       </c>
-      <c r="J33" s="60">
+      <c r="J33" s="58">
         <v>20</v>
       </c>
-      <c r="K33" s="60">
+      <c r="K33" s="58">
         <v>0.92</v>
       </c>
-      <c r="L33" s="60">
+      <c r="L33" s="58">
         <v>1.05</v>
       </c>
-      <c r="M33" s="60">
+      <c r="M33" s="58">
         <v>10</v>
       </c>
-      <c r="N33" s="60">
+      <c r="N33" s="58">
         <v>1.02</v>
       </c>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60">
+      <c r="O33" s="58"/>
+      <c r="P33" s="58">
         <v>0</v>
       </c>
-      <c r="Q33" s="60">
+      <c r="Q33" s="58">
         <v>1</v>
       </c>
       <c r="R33" s="45">
@@ -6141,7 +6146,7 @@
       <c r="V33" s="45" t="s">
         <v>723</v>
       </c>
-      <c r="W33" s="60" t="s">
+      <c r="W33" s="58" t="s">
         <v>735</v>
       </c>
       <c r="X33" s="46"/>
@@ -6159,41 +6164,41 @@
       <c r="D34" s="45">
         <v>4</v>
       </c>
-      <c r="E34" s="60">
-        <v>1</v>
-      </c>
-      <c r="F34" s="60">
+      <c r="E34" s="58">
+        <v>1</v>
+      </c>
+      <c r="F34" s="58">
         <v>0.9</v>
       </c>
-      <c r="G34" s="60">
-        <v>1</v>
-      </c>
-      <c r="H34" s="60">
+      <c r="G34" s="58">
+        <v>1</v>
+      </c>
+      <c r="H34" s="58">
         <v>0.94</v>
       </c>
-      <c r="I34" s="60">
+      <c r="I34" s="58">
         <v>0</v>
       </c>
-      <c r="J34" s="60">
+      <c r="J34" s="58">
         <v>22</v>
       </c>
-      <c r="K34" s="60">
+      <c r="K34" s="58">
         <v>0.91</v>
       </c>
-      <c r="L34" s="60">
+      <c r="L34" s="58">
         <v>1.06</v>
       </c>
-      <c r="M34" s="60">
+      <c r="M34" s="58">
         <v>12</v>
       </c>
-      <c r="N34" s="60">
+      <c r="N34" s="58">
         <v>1.03</v>
       </c>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60">
+      <c r="O34" s="58"/>
+      <c r="P34" s="58">
         <v>0</v>
       </c>
-      <c r="Q34" s="60">
+      <c r="Q34" s="58">
         <v>1</v>
       </c>
       <c r="R34" s="45">
@@ -6209,7 +6214,7 @@
       <c r="V34" s="45" t="s">
         <v>723</v>
       </c>
-      <c r="W34" s="60" t="s">
+      <c r="W34" s="58" t="s">
         <v>735</v>
       </c>
       <c r="X34" s="46"/>
@@ -6227,41 +6232,41 @@
       <c r="D35" s="45">
         <v>3</v>
       </c>
-      <c r="E35" s="60">
-        <v>1</v>
-      </c>
-      <c r="F35" s="60">
+      <c r="E35" s="58">
+        <v>1</v>
+      </c>
+      <c r="F35" s="58">
         <v>0.9</v>
       </c>
-      <c r="G35" s="60">
-        <v>1</v>
-      </c>
-      <c r="H35" s="60">
+      <c r="G35" s="58">
+        <v>1</v>
+      </c>
+      <c r="H35" s="58">
         <v>0.93</v>
       </c>
-      <c r="I35" s="60">
+      <c r="I35" s="58">
         <v>0</v>
       </c>
-      <c r="J35" s="60">
+      <c r="J35" s="58">
         <v>24</v>
       </c>
-      <c r="K35" s="60">
+      <c r="K35" s="58">
         <v>0.9</v>
       </c>
-      <c r="L35" s="60">
+      <c r="L35" s="58">
         <v>1.07</v>
       </c>
-      <c r="M35" s="60">
+      <c r="M35" s="58">
         <v>15</v>
       </c>
-      <c r="N35" s="60">
+      <c r="N35" s="58">
         <v>1.02</v>
       </c>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60">
+      <c r="O35" s="58"/>
+      <c r="P35" s="58">
         <v>0</v>
       </c>
-      <c r="Q35" s="60">
+      <c r="Q35" s="58">
         <v>1</v>
       </c>
       <c r="R35" s="45">
@@ -6277,7 +6282,7 @@
       <c r="V35" s="45" t="s">
         <v>723</v>
       </c>
-      <c r="W35" s="60" t="s">
+      <c r="W35" s="58" t="s">
         <v>735</v>
       </c>
       <c r="X35" s="46"/>
@@ -6295,41 +6300,41 @@
       <c r="D36" s="45">
         <v>2</v>
       </c>
-      <c r="E36" s="60">
-        <v>1</v>
-      </c>
-      <c r="F36" s="60">
+      <c r="E36" s="58">
+        <v>1</v>
+      </c>
+      <c r="F36" s="58">
         <v>0.9</v>
       </c>
-      <c r="G36" s="60">
-        <v>1</v>
-      </c>
-      <c r="H36" s="60">
+      <c r="G36" s="58">
+        <v>1</v>
+      </c>
+      <c r="H36" s="58">
         <v>0.92</v>
       </c>
-      <c r="I36" s="60">
+      <c r="I36" s="58">
         <v>0</v>
       </c>
-      <c r="J36" s="60">
+      <c r="J36" s="58">
         <v>27</v>
       </c>
-      <c r="K36" s="60">
+      <c r="K36" s="58">
         <v>0.89</v>
       </c>
-      <c r="L36" s="60">
+      <c r="L36" s="58">
         <v>1.08</v>
       </c>
-      <c r="M36" s="60">
+      <c r="M36" s="58">
         <v>22</v>
       </c>
-      <c r="N36" s="60">
+      <c r="N36" s="58">
         <v>1.06</v>
       </c>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60">
+      <c r="O36" s="58"/>
+      <c r="P36" s="58">
         <v>0</v>
       </c>
-      <c r="Q36" s="60">
+      <c r="Q36" s="58">
         <v>1</v>
       </c>
       <c r="R36" s="45">
@@ -6345,7 +6350,7 @@
       <c r="V36" s="45" t="s">
         <v>723</v>
       </c>
-      <c r="W36" s="60" t="s">
+      <c r="W36" s="58" t="s">
         <v>735</v>
       </c>
       <c r="X36" s="46"/>
@@ -6413,7 +6418,7 @@
       <c r="V37" s="45" t="s">
         <v>735</v>
       </c>
-      <c r="W37" s="60" t="s">
+      <c r="W37" s="58" t="s">
         <v>720</v>
       </c>
       <c r="X37" s="46"/>
@@ -6767,41 +6772,41 @@
       <c r="D43" s="45">
         <v>5</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="58">
         <v>0.73</v>
       </c>
-      <c r="F43" s="60">
+      <c r="F43" s="58">
         <v>1.38</v>
       </c>
-      <c r="G43" s="60">
+      <c r="G43" s="58">
         <v>0.77</v>
       </c>
-      <c r="H43" s="60">
+      <c r="H43" s="58">
         <v>0.77</v>
       </c>
-      <c r="I43" s="60">
+      <c r="I43" s="58">
         <v>0.15</v>
       </c>
-      <c r="J43" s="60">
+      <c r="J43" s="58">
         <v>55</v>
       </c>
-      <c r="K43" s="60">
+      <c r="K43" s="58">
         <v>1.28</v>
       </c>
-      <c r="L43" s="60">
+      <c r="L43" s="58">
         <v>0.62</v>
       </c>
-      <c r="M43" s="60">
+      <c r="M43" s="58">
         <v>25</v>
       </c>
-      <c r="N43" s="60">
+      <c r="N43" s="58">
         <v>0.22</v>
       </c>
-      <c r="O43" s="60"/>
-      <c r="P43" s="60">
+      <c r="O43" s="58"/>
+      <c r="P43" s="58">
         <v>0.22</v>
       </c>
-      <c r="Q43" s="60">
+      <c r="Q43" s="58">
         <v>0.7</v>
       </c>
       <c r="R43" s="45">
@@ -6833,41 +6838,41 @@
       <c r="D44" s="45">
         <v>4</v>
       </c>
-      <c r="E44" s="60">
+      <c r="E44" s="58">
         <v>0.74</v>
       </c>
-      <c r="F44" s="60">
+      <c r="F44" s="58">
         <v>1.36</v>
       </c>
-      <c r="G44" s="60">
+      <c r="G44" s="58">
         <v>0.76</v>
       </c>
-      <c r="H44" s="60">
+      <c r="H44" s="58">
         <v>0.76</v>
       </c>
-      <c r="I44" s="60">
+      <c r="I44" s="58">
         <v>0.16</v>
       </c>
-      <c r="J44" s="60">
+      <c r="J44" s="58">
         <v>60</v>
       </c>
-      <c r="K44" s="60">
+      <c r="K44" s="58">
         <v>1.27</v>
       </c>
-      <c r="L44" s="60">
+      <c r="L44" s="58">
         <v>0.63</v>
       </c>
-      <c r="M44" s="60">
+      <c r="M44" s="58">
         <v>30</v>
       </c>
-      <c r="N44" s="60">
+      <c r="N44" s="58">
         <v>0.24</v>
       </c>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60">
+      <c r="O44" s="58"/>
+      <c r="P44" s="58">
         <v>0.23</v>
       </c>
-      <c r="Q44" s="60">
+      <c r="Q44" s="58">
         <v>0.72</v>
       </c>
       <c r="R44" s="45">
@@ -6899,41 +6904,41 @@
       <c r="D45" s="45">
         <v>3</v>
       </c>
-      <c r="E45" s="60">
+      <c r="E45" s="58">
         <v>0.75</v>
       </c>
-      <c r="F45" s="60">
+      <c r="F45" s="58">
         <v>1.35</v>
       </c>
-      <c r="G45" s="60">
+      <c r="G45" s="58">
         <v>0.75</v>
       </c>
-      <c r="H45" s="60">
+      <c r="H45" s="58">
         <v>0.75</v>
       </c>
-      <c r="I45" s="60">
+      <c r="I45" s="58">
         <v>0.17</v>
       </c>
-      <c r="J45" s="60">
+      <c r="J45" s="58">
         <v>65</v>
       </c>
-      <c r="K45" s="60">
+      <c r="K45" s="58">
         <v>1.26</v>
       </c>
-      <c r="L45" s="60">
+      <c r="L45" s="58">
         <v>0.64</v>
       </c>
-      <c r="M45" s="60">
+      <c r="M45" s="58">
         <v>35</v>
       </c>
-      <c r="N45" s="60">
+      <c r="N45" s="58">
         <v>0.25</v>
       </c>
-      <c r="O45" s="60"/>
-      <c r="P45" s="60">
+      <c r="O45" s="58"/>
+      <c r="P45" s="58">
         <v>0.24</v>
       </c>
-      <c r="Q45" s="60">
+      <c r="Q45" s="58">
         <v>0.73</v>
       </c>
       <c r="R45" s="45">
@@ -6965,41 +6970,41 @@
       <c r="D46" s="45">
         <v>2</v>
       </c>
-      <c r="E46" s="60">
+      <c r="E46" s="58">
         <v>0.76</v>
       </c>
-      <c r="F46" s="60">
+      <c r="F46" s="58">
         <v>1.34</v>
       </c>
-      <c r="G46" s="60">
+      <c r="G46" s="58">
         <v>0.74</v>
       </c>
-      <c r="H46" s="60">
+      <c r="H46" s="58">
         <v>0.74</v>
       </c>
-      <c r="I46" s="60">
+      <c r="I46" s="58">
         <v>0.18</v>
       </c>
-      <c r="J46" s="60">
+      <c r="J46" s="58">
         <v>70</v>
       </c>
-      <c r="K46" s="60">
+      <c r="K46" s="58">
         <v>1.25</v>
       </c>
-      <c r="L46" s="60">
+      <c r="L46" s="58">
         <v>0.65</v>
       </c>
-      <c r="M46" s="60">
+      <c r="M46" s="58">
         <v>40</v>
       </c>
-      <c r="N46" s="60">
+      <c r="N46" s="58">
         <v>0.26</v>
       </c>
-      <c r="O46" s="60"/>
-      <c r="P46" s="60">
+      <c r="O46" s="58"/>
+      <c r="P46" s="58">
         <v>0.25</v>
       </c>
-      <c r="Q46" s="60">
+      <c r="Q46" s="58">
         <v>0.75</v>
       </c>
       <c r="R46" s="45">
@@ -7031,37 +7036,37 @@
       <c r="D47" s="45">
         <v>5</v>
       </c>
-      <c r="E47" s="60">
+      <c r="E47" s="58">
         <v>0.68</v>
       </c>
-      <c r="F47" s="60">
+      <c r="F47" s="58">
         <v>1.05</v>
       </c>
-      <c r="G47" s="60">
+      <c r="G47" s="58">
         <v>0.84</v>
       </c>
-      <c r="H47" s="60">
+      <c r="H47" s="58">
         <v>0.66</v>
       </c>
-      <c r="I47" s="60">
+      <c r="I47" s="58">
         <v>0.02</v>
       </c>
-      <c r="J47" s="60">
+      <c r="J47" s="58">
         <v>45</v>
       </c>
-      <c r="K47" s="60">
+      <c r="K47" s="58">
         <v>1.08</v>
       </c>
-      <c r="L47" s="60">
+      <c r="L47" s="58">
         <v>0.82</v>
       </c>
-      <c r="M47" s="60">
+      <c r="M47" s="58">
         <v>20</v>
       </c>
-      <c r="N47" s="60">
+      <c r="N47" s="58">
         <v>0.72</v>
       </c>
-      <c r="O47" s="60"/>
+      <c r="O47" s="58"/>
       <c r="P47" s="45">
         <v>0.05</v>
       </c>
@@ -7099,37 +7104,37 @@
       <c r="D48" s="45">
         <v>4</v>
       </c>
-      <c r="E48" s="60">
+      <c r="E48" s="58">
         <v>0.7</v>
       </c>
-      <c r="F48" s="60">
+      <c r="F48" s="58">
         <v>1.04</v>
       </c>
-      <c r="G48" s="60">
+      <c r="G48" s="58">
         <v>0.82</v>
       </c>
-      <c r="H48" s="60">
+      <c r="H48" s="58">
         <v>0.64</v>
       </c>
-      <c r="I48" s="60">
+      <c r="I48" s="58">
         <v>0.02</v>
       </c>
-      <c r="J48" s="60">
+      <c r="J48" s="58">
         <v>48</v>
       </c>
-      <c r="K48" s="60">
+      <c r="K48" s="58">
         <v>1.07</v>
       </c>
-      <c r="L48" s="60">
+      <c r="L48" s="58">
         <v>0.83</v>
       </c>
-      <c r="M48" s="60">
+      <c r="M48" s="58">
         <v>22</v>
       </c>
-      <c r="N48" s="60">
+      <c r="N48" s="58">
         <v>0.74</v>
       </c>
-      <c r="O48" s="60"/>
+      <c r="O48" s="58"/>
       <c r="P48" s="45">
         <v>0.06</v>
       </c>
@@ -7167,41 +7172,41 @@
       <c r="D49" s="45">
         <v>3</v>
       </c>
-      <c r="E49" s="60">
+      <c r="E49" s="58">
         <v>0.71</v>
       </c>
-      <c r="F49" s="60">
+      <c r="F49" s="58">
         <v>1.03</v>
       </c>
-      <c r="G49" s="60">
+      <c r="G49" s="58">
         <v>0.8</v>
       </c>
-      <c r="H49" s="60">
+      <c r="H49" s="58">
         <v>0.62</v>
       </c>
-      <c r="I49" s="60">
+      <c r="I49" s="58">
         <v>0.02</v>
       </c>
-      <c r="J49" s="60">
+      <c r="J49" s="58">
         <v>52</v>
       </c>
-      <c r="K49" s="60">
+      <c r="K49" s="58">
         <v>1.06</v>
       </c>
-      <c r="L49" s="60">
+      <c r="L49" s="58">
         <v>0.85</v>
       </c>
-      <c r="M49" s="60">
+      <c r="M49" s="58">
         <v>24</v>
       </c>
-      <c r="N49" s="60">
+      <c r="N49" s="58">
         <v>0.75</v>
       </c>
-      <c r="O49" s="60"/>
-      <c r="P49" s="60">
+      <c r="O49" s="58"/>
+      <c r="P49" s="58">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q49" s="60">
+      <c r="Q49" s="58">
         <v>0.85</v>
       </c>
       <c r="R49" s="45">
@@ -7235,41 +7240,41 @@
       <c r="D50" s="45">
         <v>2</v>
       </c>
-      <c r="E50" s="60">
+      <c r="E50" s="58">
         <v>0.72</v>
       </c>
-      <c r="F50" s="60">
+      <c r="F50" s="58">
         <v>1.02</v>
       </c>
-      <c r="G50" s="60">
+      <c r="G50" s="58">
         <v>0.78</v>
       </c>
-      <c r="H50" s="60">
+      <c r="H50" s="58">
         <v>0.6</v>
       </c>
-      <c r="I50" s="60">
+      <c r="I50" s="58">
         <v>0.03</v>
       </c>
-      <c r="J50" s="60">
+      <c r="J50" s="58">
         <v>55</v>
       </c>
-      <c r="K50" s="60">
+      <c r="K50" s="58">
         <v>1.05</v>
       </c>
-      <c r="L50" s="60">
+      <c r="L50" s="58">
         <v>0.85</v>
       </c>
-      <c r="M50" s="60">
+      <c r="M50" s="58">
         <v>28</v>
       </c>
-      <c r="N50" s="60">
+      <c r="N50" s="58">
         <v>0.75</v>
       </c>
-      <c r="O50" s="60"/>
-      <c r="P50" s="60">
+      <c r="O50" s="58"/>
+      <c r="P50" s="58">
         <v>0.08</v>
       </c>
-      <c r="Q50" s="60">
+      <c r="Q50" s="58">
         <v>0.85</v>
       </c>
       <c r="R50" s="45">
@@ -7303,41 +7308,41 @@
       <c r="D51" s="45">
         <v>1</v>
       </c>
-      <c r="E51" s="60">
+      <c r="E51" s="58">
         <v>0.82</v>
       </c>
-      <c r="F51" s="60">
+      <c r="F51" s="58">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G51" s="60">
+      <c r="G51" s="58">
         <v>0.25</v>
       </c>
-      <c r="H51" s="60">
+      <c r="H51" s="58">
         <v>0.8</v>
       </c>
-      <c r="I51" s="60">
+      <c r="I51" s="58">
         <v>0.11</v>
       </c>
-      <c r="J51" s="60">
+      <c r="J51" s="58">
         <v>90</v>
       </c>
-      <c r="K51" s="60">
+      <c r="K51" s="58">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L51" s="60">
+      <c r="L51" s="58">
         <v>0.75</v>
       </c>
-      <c r="M51" s="60">
+      <c r="M51" s="58">
         <v>135</v>
       </c>
-      <c r="N51" s="60">
+      <c r="N51" s="58">
         <v>1.06</v>
       </c>
-      <c r="O51" s="60"/>
-      <c r="P51" s="60">
+      <c r="O51" s="58"/>
+      <c r="P51" s="58">
         <v>0.75</v>
       </c>
-      <c r="Q51" s="60">
+      <c r="Q51" s="58">
         <v>0.75</v>
       </c>
       <c r="R51" s="45">
@@ -7371,41 +7376,41 @@
       <c r="D52" s="45">
         <v>5</v>
       </c>
-      <c r="E52" s="60">
+      <c r="E52" s="58">
         <v>0.75</v>
       </c>
-      <c r="F52" s="60">
+      <c r="F52" s="58">
         <v>1.22</v>
       </c>
-      <c r="G52" s="60">
+      <c r="G52" s="58">
         <v>0.6</v>
       </c>
-      <c r="H52" s="60">
+      <c r="H52" s="58">
         <v>0.6</v>
       </c>
-      <c r="I52" s="60">
+      <c r="I52" s="58">
         <v>0.15</v>
       </c>
-      <c r="J52" s="60">
+      <c r="J52" s="58">
         <v>55</v>
       </c>
-      <c r="K52" s="60">
+      <c r="K52" s="58">
         <v>1.22</v>
       </c>
-      <c r="L52" s="60">
+      <c r="L52" s="58">
         <v>0.6</v>
       </c>
-      <c r="M52" s="60">
+      <c r="M52" s="58">
         <v>30</v>
       </c>
-      <c r="N52" s="60">
+      <c r="N52" s="58">
         <v>0.15</v>
       </c>
-      <c r="O52" s="60"/>
-      <c r="P52" s="60">
+      <c r="O52" s="58"/>
+      <c r="P52" s="58">
         <v>0.25</v>
       </c>
-      <c r="Q52" s="60">
+      <c r="Q52" s="58">
         <v>0.7</v>
       </c>
       <c r="R52" s="45">
@@ -7439,41 +7444,41 @@
       <c r="D53" s="45">
         <v>4</v>
       </c>
-      <c r="E53" s="60">
+      <c r="E53" s="58">
         <v>0.78</v>
       </c>
-      <c r="F53" s="60">
+      <c r="F53" s="58">
         <v>1.21</v>
       </c>
-      <c r="G53" s="60">
+      <c r="G53" s="58">
         <v>0.59</v>
       </c>
-      <c r="H53" s="60">
+      <c r="H53" s="58">
         <v>0.59</v>
       </c>
-      <c r="I53" s="60">
+      <c r="I53" s="58">
         <v>0.16</v>
       </c>
-      <c r="J53" s="60">
+      <c r="J53" s="58">
         <v>60</v>
       </c>
-      <c r="K53" s="60">
+      <c r="K53" s="58">
         <v>1.21</v>
       </c>
-      <c r="L53" s="60">
+      <c r="L53" s="58">
         <v>0.61</v>
       </c>
-      <c r="M53" s="60">
+      <c r="M53" s="58">
         <v>32</v>
       </c>
-      <c r="N53" s="60">
+      <c r="N53" s="58">
         <v>0.16</v>
       </c>
-      <c r="O53" s="60"/>
-      <c r="P53" s="60">
+      <c r="O53" s="58"/>
+      <c r="P53" s="58">
         <v>0.26</v>
       </c>
-      <c r="Q53" s="60">
+      <c r="Q53" s="58">
         <v>0.71</v>
       </c>
       <c r="R53" s="45">
@@ -7507,41 +7512,41 @@
       <c r="D54" s="45">
         <v>3</v>
       </c>
-      <c r="E54" s="60">
+      <c r="E54" s="58">
         <v>0.8</v>
       </c>
-      <c r="F54" s="60">
+      <c r="F54" s="58">
         <v>1.2</v>
       </c>
-      <c r="G54" s="60">
+      <c r="G54" s="58">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H54" s="60">
+      <c r="H54" s="58">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I54" s="60">
+      <c r="I54" s="58">
         <v>0.17</v>
       </c>
-      <c r="J54" s="60">
+      <c r="J54" s="58">
         <v>65</v>
       </c>
-      <c r="K54" s="60">
+      <c r="K54" s="58">
         <v>1.2</v>
       </c>
-      <c r="L54" s="60">
+      <c r="L54" s="58">
         <v>0.62</v>
       </c>
-      <c r="M54" s="60">
+      <c r="M54" s="58">
         <v>35</v>
       </c>
-      <c r="N54" s="60">
+      <c r="N54" s="58">
         <v>0.17</v>
       </c>
-      <c r="O54" s="60"/>
-      <c r="P54" s="60">
+      <c r="O54" s="58"/>
+      <c r="P54" s="58">
         <v>0.27</v>
       </c>
-      <c r="Q54" s="60">
+      <c r="Q54" s="58">
         <v>0.72</v>
       </c>
       <c r="R54" s="45">
@@ -7575,41 +7580,41 @@
       <c r="D55" s="45">
         <v>2</v>
       </c>
-      <c r="E55" s="60">
+      <c r="E55" s="58">
         <v>0.8</v>
       </c>
-      <c r="F55" s="60">
+      <c r="F55" s="58">
         <v>1.18</v>
       </c>
-      <c r="G55" s="60">
+      <c r="G55" s="58">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H55" s="60">
+      <c r="H55" s="58">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I55" s="60">
+      <c r="I55" s="58">
         <v>0.18</v>
       </c>
-      <c r="J55" s="60">
+      <c r="J55" s="58">
         <v>70</v>
       </c>
-      <c r="K55" s="60">
+      <c r="K55" s="58">
         <v>1.18</v>
       </c>
-      <c r="L55" s="60">
+      <c r="L55" s="58">
         <v>0.63</v>
       </c>
-      <c r="M55" s="60">
+      <c r="M55" s="58">
         <v>38</v>
       </c>
-      <c r="N55" s="60">
+      <c r="N55" s="58">
         <v>0.18</v>
       </c>
-      <c r="O55" s="60"/>
-      <c r="P55" s="60">
+      <c r="O55" s="58"/>
+      <c r="P55" s="58">
         <v>0.28000000000000003</v>
       </c>
-      <c r="Q55" s="60">
+      <c r="Q55" s="58">
         <v>0.74</v>
       </c>
       <c r="R55" s="45">
@@ -7643,41 +7648,41 @@
       <c r="D56" s="45">
         <v>5</v>
       </c>
-      <c r="E56" s="60">
+      <c r="E56" s="58">
         <v>0.97</v>
       </c>
-      <c r="F56" s="60">
-        <v>1</v>
-      </c>
-      <c r="G56" s="60">
+      <c r="F56" s="58">
+        <v>1</v>
+      </c>
+      <c r="G56" s="58">
         <v>0.99</v>
       </c>
-      <c r="H56" s="60">
+      <c r="H56" s="58">
         <v>0.99</v>
       </c>
-      <c r="I56" s="60">
+      <c r="I56" s="58">
         <v>0</v>
       </c>
-      <c r="J56" s="60">
+      <c r="J56" s="58">
         <v>24</v>
       </c>
-      <c r="K56" s="60">
+      <c r="K56" s="58">
         <v>0.98</v>
       </c>
-      <c r="L56" s="60">
-        <v>1</v>
-      </c>
-      <c r="M56" s="60">
+      <c r="L56" s="58">
+        <v>1</v>
+      </c>
+      <c r="M56" s="58">
         <v>25</v>
       </c>
-      <c r="N56" s="60">
+      <c r="N56" s="58">
         <v>0.78</v>
       </c>
-      <c r="O56" s="60"/>
-      <c r="P56" s="60">
+      <c r="O56" s="58"/>
+      <c r="P56" s="58">
         <v>0.05</v>
       </c>
-      <c r="Q56" s="60">
+      <c r="Q56" s="58">
         <v>1</v>
       </c>
       <c r="R56" s="45">
@@ -7707,41 +7712,41 @@
       <c r="D57" s="45">
         <v>4</v>
       </c>
-      <c r="E57" s="60">
+      <c r="E57" s="58">
         <v>0.98</v>
       </c>
-      <c r="F57" s="60">
-        <v>1</v>
-      </c>
-      <c r="G57" s="60">
+      <c r="F57" s="58">
+        <v>1</v>
+      </c>
+      <c r="G57" s="58">
         <v>0.98</v>
       </c>
-      <c r="H57" s="60">
+      <c r="H57" s="58">
         <v>0.98</v>
       </c>
-      <c r="I57" s="60">
+      <c r="I57" s="58">
         <v>0</v>
       </c>
-      <c r="J57" s="60">
+      <c r="J57" s="58">
         <v>26</v>
       </c>
-      <c r="K57" s="60">
+      <c r="K57" s="58">
         <v>0.97</v>
       </c>
-      <c r="L57" s="60">
-        <v>1</v>
-      </c>
-      <c r="M57" s="60">
+      <c r="L57" s="58">
+        <v>1</v>
+      </c>
+      <c r="M57" s="58">
         <v>30</v>
       </c>
-      <c r="N57" s="60">
+      <c r="N57" s="58">
         <v>0.79</v>
       </c>
-      <c r="O57" s="60"/>
-      <c r="P57" s="60">
+      <c r="O57" s="58"/>
+      <c r="P57" s="58">
         <v>0.05</v>
       </c>
-      <c r="Q57" s="60">
+      <c r="Q57" s="58">
         <v>1</v>
       </c>
       <c r="R57" s="45">
@@ -7771,41 +7776,41 @@
       <c r="D58" s="45">
         <v>3</v>
       </c>
-      <c r="E58" s="60">
+      <c r="E58" s="58">
         <v>0.99</v>
       </c>
-      <c r="F58" s="60">
-        <v>1</v>
-      </c>
-      <c r="G58" s="60">
+      <c r="F58" s="58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="58">
         <v>0.97</v>
       </c>
-      <c r="H58" s="60">
+      <c r="H58" s="58">
         <v>0.97</v>
       </c>
-      <c r="I58" s="60">
+      <c r="I58" s="58">
         <v>0</v>
       </c>
-      <c r="J58" s="60">
+      <c r="J58" s="58">
         <v>29</v>
       </c>
-      <c r="K58" s="60">
+      <c r="K58" s="58">
         <v>0.96</v>
       </c>
-      <c r="L58" s="60">
-        <v>1</v>
-      </c>
-      <c r="M58" s="60">
+      <c r="L58" s="58">
+        <v>1</v>
+      </c>
+      <c r="M58" s="58">
         <v>40</v>
       </c>
-      <c r="N58" s="60">
+      <c r="N58" s="58">
         <v>0.8</v>
       </c>
-      <c r="O58" s="60"/>
-      <c r="P58" s="60">
+      <c r="O58" s="58"/>
+      <c r="P58" s="58">
         <v>0.05</v>
       </c>
-      <c r="Q58" s="60">
+      <c r="Q58" s="58">
         <v>1</v>
       </c>
       <c r="R58" s="45">
@@ -7835,41 +7840,41 @@
       <c r="D59" s="45">
         <v>2</v>
       </c>
-      <c r="E59" s="60">
-        <v>1</v>
-      </c>
-      <c r="F59" s="60">
-        <v>1</v>
-      </c>
-      <c r="G59" s="60">
+      <c r="E59" s="58">
+        <v>1</v>
+      </c>
+      <c r="F59" s="58">
+        <v>1</v>
+      </c>
+      <c r="G59" s="58">
         <v>0.96</v>
       </c>
-      <c r="H59" s="60">
+      <c r="H59" s="58">
         <v>0.96</v>
       </c>
-      <c r="I59" s="60">
+      <c r="I59" s="58">
         <v>0</v>
       </c>
-      <c r="J59" s="60">
+      <c r="J59" s="58">
         <v>35</v>
       </c>
-      <c r="K59" s="60">
+      <c r="K59" s="58">
         <v>0.95</v>
       </c>
-      <c r="L59" s="60">
-        <v>1</v>
-      </c>
-      <c r="M59" s="60">
+      <c r="L59" s="58">
+        <v>1</v>
+      </c>
+      <c r="M59" s="58">
         <v>50</v>
       </c>
-      <c r="N59" s="60">
+      <c r="N59" s="58">
         <v>0.8</v>
       </c>
-      <c r="O59" s="60"/>
-      <c r="P59" s="60">
+      <c r="O59" s="58"/>
+      <c r="P59" s="58">
         <v>0.05</v>
       </c>
-      <c r="Q59" s="60">
+      <c r="Q59" s="58">
         <v>1</v>
       </c>
       <c r="R59" s="45">
@@ -8171,44 +8176,44 @@
       <c r="D64" s="45">
         <v>1</v>
       </c>
-      <c r="E64" s="60">
+      <c r="E64" s="58">
         <v>0.8</v>
       </c>
-      <c r="F64" s="60">
+      <c r="F64" s="58">
         <v>0.85</v>
       </c>
-      <c r="G64" s="60">
+      <c r="G64" s="58">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H64" s="60">
+      <c r="H64" s="58">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I64" s="60">
+      <c r="I64" s="58">
         <v>0.2</v>
       </c>
-      <c r="J64" s="60">
+      <c r="J64" s="58">
         <v>75</v>
       </c>
-      <c r="K64" s="60">
+      <c r="K64" s="58">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L64" s="60">
+      <c r="L64" s="58">
         <v>0.8</v>
       </c>
-      <c r="M64" s="60">
+      <c r="M64" s="58">
         <v>50</v>
       </c>
-      <c r="N64" s="60">
+      <c r="N64" s="58">
         <v>0.2</v>
       </c>
-      <c r="O64" s="60"/>
-      <c r="P64" s="60">
+      <c r="O64" s="58"/>
+      <c r="P64" s="58">
         <v>0.35</v>
       </c>
-      <c r="Q64" s="60">
+      <c r="Q64" s="58">
         <v>0.7</v>
       </c>
-      <c r="R64" s="60">
+      <c r="R64" s="58">
         <v>2500</v>
       </c>
       <c r="S64" s="45"/>
@@ -8235,44 +8240,44 @@
       <c r="D65" s="45">
         <v>5</v>
       </c>
-      <c r="E65" s="60">
+      <c r="E65" s="58">
         <v>0.7</v>
       </c>
-      <c r="F65" s="60">
+      <c r="F65" s="58">
         <v>1.38</v>
       </c>
-      <c r="G65" s="60">
+      <c r="G65" s="58">
         <v>0.18</v>
       </c>
-      <c r="H65" s="60">
+      <c r="H65" s="58">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I65" s="60">
+      <c r="I65" s="58">
         <v>0.85</v>
       </c>
-      <c r="J65" s="60">
+      <c r="J65" s="58">
         <v>92</v>
       </c>
-      <c r="K65" s="60">
+      <c r="K65" s="58">
         <v>1.33</v>
       </c>
-      <c r="L65" s="60">
+      <c r="L65" s="58">
         <v>0.62</v>
       </c>
-      <c r="M65" s="60">
+      <c r="M65" s="58">
         <v>85</v>
       </c>
-      <c r="N65" s="60">
+      <c r="N65" s="58">
         <v>0</v>
       </c>
-      <c r="O65" s="60"/>
-      <c r="P65" s="60">
+      <c r="O65" s="58"/>
+      <c r="P65" s="58">
         <v>0.88</v>
       </c>
-      <c r="Q65" s="60">
+      <c r="Q65" s="58">
         <v>0.7</v>
       </c>
-      <c r="R65" s="60">
+      <c r="R65" s="58">
         <v>300</v>
       </c>
       <c r="S65" s="45"/>
@@ -8282,7 +8287,7 @@
       <c r="U65" s="45" t="s">
         <v>752</v>
       </c>
-      <c r="V65" s="56" t="s">
+      <c r="V65" s="55" t="s">
         <v>63</v>
       </c>
       <c r="W65" s="45"/>
@@ -8301,54 +8306,54 @@
       <c r="D66" s="45">
         <v>4</v>
       </c>
-      <c r="E66" s="60">
+      <c r="E66" s="58">
         <v>0.7</v>
       </c>
-      <c r="F66" s="60">
+      <c r="F66" s="58">
         <v>1.37</v>
       </c>
-      <c r="G66" s="60">
+      <c r="G66" s="58">
         <v>0.17</v>
       </c>
-      <c r="H66" s="60">
+      <c r="H66" s="58">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I66" s="60">
+      <c r="I66" s="58">
         <v>0.85</v>
       </c>
-      <c r="J66" s="60">
+      <c r="J66" s="58">
         <v>95</v>
       </c>
-      <c r="K66" s="60">
+      <c r="K66" s="58">
         <v>1.31</v>
       </c>
-      <c r="L66" s="60">
+      <c r="L66" s="58">
         <v>0.63</v>
       </c>
-      <c r="M66" s="60">
+      <c r="M66" s="58">
         <v>88</v>
       </c>
-      <c r="N66" s="60">
+      <c r="N66" s="58">
         <v>0</v>
       </c>
-      <c r="O66" s="60"/>
-      <c r="P66" s="60">
+      <c r="O66" s="58"/>
+      <c r="P66" s="58">
         <v>0.9</v>
       </c>
-      <c r="Q66" s="60">
+      <c r="Q66" s="58">
         <v>0.71</v>
       </c>
-      <c r="R66" s="60">
+      <c r="R66" s="58">
         <v>300</v>
       </c>
-      <c r="S66" s="60"/>
+      <c r="S66" s="58"/>
       <c r="T66" s="45" t="s">
         <v>730</v>
       </c>
       <c r="U66" s="45" t="s">
         <v>752</v>
       </c>
-      <c r="V66" s="56" t="s">
+      <c r="V66" s="55" t="s">
         <v>63</v>
       </c>
       <c r="W66" s="45"/>
@@ -8367,54 +8372,54 @@
       <c r="D67" s="45">
         <v>3</v>
       </c>
-      <c r="E67" s="60">
+      <c r="E67" s="58">
         <v>0.7</v>
       </c>
-      <c r="F67" s="60">
+      <c r="F67" s="58">
         <v>1.36</v>
       </c>
-      <c r="G67" s="60">
+      <c r="G67" s="58">
         <v>0.16</v>
       </c>
-      <c r="H67" s="60">
+      <c r="H67" s="58">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I67" s="60">
+      <c r="I67" s="58">
         <v>0.85</v>
       </c>
-      <c r="J67" s="60">
+      <c r="J67" s="58">
         <v>98</v>
       </c>
-      <c r="K67" s="60">
+      <c r="K67" s="58">
         <v>1.29</v>
       </c>
-      <c r="L67" s="60">
+      <c r="L67" s="58">
         <v>0.64</v>
       </c>
-      <c r="M67" s="60">
+      <c r="M67" s="58">
         <v>92</v>
       </c>
-      <c r="N67" s="60">
+      <c r="N67" s="58">
         <v>0</v>
       </c>
-      <c r="O67" s="60"/>
-      <c r="P67" s="60">
+      <c r="O67" s="58"/>
+      <c r="P67" s="58">
         <v>0.92</v>
       </c>
-      <c r="Q67" s="60">
+      <c r="Q67" s="58">
         <v>0.72</v>
       </c>
-      <c r="R67" s="60">
+      <c r="R67" s="58">
         <v>300</v>
       </c>
-      <c r="S67" s="60"/>
+      <c r="S67" s="58"/>
       <c r="T67" s="45" t="s">
         <v>730</v>
       </c>
       <c r="U67" s="45" t="s">
         <v>752</v>
       </c>
-      <c r="V67" s="56" t="s">
+      <c r="V67" s="55" t="s">
         <v>63</v>
       </c>
       <c r="W67" s="45"/>
@@ -8433,54 +8438,54 @@
       <c r="D68" s="45">
         <v>2</v>
       </c>
-      <c r="E68" s="60">
+      <c r="E68" s="58">
         <v>0.7</v>
       </c>
-      <c r="F68" s="60">
+      <c r="F68" s="58">
         <v>1.35</v>
       </c>
-      <c r="G68" s="60">
+      <c r="G68" s="58">
         <v>0.15</v>
       </c>
-      <c r="H68" s="60">
+      <c r="H68" s="58">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I68" s="60">
+      <c r="I68" s="58">
         <v>0.85</v>
       </c>
-      <c r="J68" s="60">
+      <c r="J68" s="58">
         <v>102</v>
       </c>
-      <c r="K68" s="60">
+      <c r="K68" s="58">
         <v>1.28</v>
       </c>
-      <c r="L68" s="60">
+      <c r="L68" s="58">
         <v>0.65</v>
       </c>
-      <c r="M68" s="60">
+      <c r="M68" s="58">
         <v>95</v>
       </c>
-      <c r="N68" s="60">
+      <c r="N68" s="58">
         <v>0</v>
       </c>
-      <c r="O68" s="60"/>
-      <c r="P68" s="60">
+      <c r="O68" s="58"/>
+      <c r="P68" s="58">
         <v>0.94</v>
       </c>
-      <c r="Q68" s="60">
+      <c r="Q68" s="58">
         <v>0.74</v>
       </c>
-      <c r="R68" s="60">
+      <c r="R68" s="58">
         <v>300</v>
       </c>
-      <c r="S68" s="60"/>
+      <c r="S68" s="58"/>
       <c r="T68" s="45" t="s">
         <v>730</v>
       </c>
       <c r="U68" s="45" t="s">
         <v>752</v>
       </c>
-      <c r="V68" s="56" t="s">
+      <c r="V68" s="55" t="s">
         <v>63</v>
       </c>
       <c r="W68" s="45"/>
@@ -8499,10 +8504,10 @@
       <c r="D69" s="45">
         <v>5</v>
       </c>
-      <c r="E69" s="60">
+      <c r="E69" s="58">
         <v>0.82</v>
       </c>
-      <c r="F69" s="60">
+      <c r="F69" s="58">
         <v>1.1399999999999999</v>
       </c>
       <c r="G69" s="45">
@@ -8567,41 +8572,41 @@
       <c r="D70" s="45">
         <v>4</v>
       </c>
-      <c r="E70" s="60">
+      <c r="E70" s="58">
         <v>0.83</v>
       </c>
-      <c r="F70" s="60">
+      <c r="F70" s="58">
         <v>1.1299999999999999</v>
       </c>
-      <c r="G70" s="60">
+      <c r="G70" s="58">
         <v>0.74</v>
       </c>
-      <c r="H70" s="60">
+      <c r="H70" s="58">
         <v>0.91</v>
       </c>
-      <c r="I70" s="60">
+      <c r="I70" s="58">
         <v>0.22</v>
       </c>
-      <c r="J70" s="60">
+      <c r="J70" s="58">
         <v>48</v>
       </c>
-      <c r="K70" s="60">
+      <c r="K70" s="58">
         <v>1.07</v>
       </c>
-      <c r="L70" s="60">
+      <c r="L70" s="58">
         <v>0.85</v>
       </c>
-      <c r="M70" s="60">
+      <c r="M70" s="58">
         <v>38</v>
       </c>
-      <c r="N70" s="60">
+      <c r="N70" s="58">
         <v>0.56000000000000005</v>
       </c>
-      <c r="O70" s="60"/>
-      <c r="P70" s="60">
+      <c r="O70" s="58"/>
+      <c r="P70" s="58">
         <v>0.25</v>
       </c>
-      <c r="Q70" s="60">
+      <c r="Q70" s="58">
         <v>0.85</v>
       </c>
       <c r="R70" s="45">
@@ -8635,41 +8640,41 @@
       <c r="D71" s="45">
         <v>3</v>
       </c>
-      <c r="E71" s="60">
+      <c r="E71" s="58">
         <v>0.84</v>
       </c>
-      <c r="F71" s="60">
+      <c r="F71" s="58">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G71" s="60">
+      <c r="G71" s="58">
         <v>0.73</v>
       </c>
-      <c r="H71" s="60">
+      <c r="H71" s="58">
         <v>0.9</v>
       </c>
-      <c r="I71" s="60">
+      <c r="I71" s="58">
         <v>0.24</v>
       </c>
-      <c r="J71" s="60">
+      <c r="J71" s="58">
         <v>51</v>
       </c>
-      <c r="K71" s="60">
+      <c r="K71" s="58">
         <v>1.06</v>
       </c>
-      <c r="L71" s="60">
+      <c r="L71" s="58">
         <v>0.85</v>
       </c>
-      <c r="M71" s="60">
+      <c r="M71" s="58">
         <v>42</v>
       </c>
-      <c r="N71" s="60">
+      <c r="N71" s="58">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O71" s="60"/>
-      <c r="P71" s="60">
+      <c r="O71" s="58"/>
+      <c r="P71" s="58">
         <v>0.3</v>
       </c>
-      <c r="Q71" s="60">
+      <c r="Q71" s="58">
         <v>0.86</v>
       </c>
       <c r="R71" s="45">
@@ -8703,44 +8708,44 @@
       <c r="D72" s="45">
         <v>2</v>
       </c>
-      <c r="E72" s="60">
+      <c r="E72" s="58">
         <v>0.85</v>
       </c>
-      <c r="F72" s="60">
+      <c r="F72" s="58">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G72" s="60">
+      <c r="G72" s="58">
         <v>0.72</v>
       </c>
-      <c r="H72" s="60">
+      <c r="H72" s="58">
         <v>0.89</v>
       </c>
-      <c r="I72" s="60">
+      <c r="I72" s="58">
         <v>0.26</v>
       </c>
-      <c r="J72" s="60">
+      <c r="J72" s="58">
         <v>54</v>
       </c>
-      <c r="K72" s="60">
+      <c r="K72" s="58">
         <v>1.05</v>
       </c>
-      <c r="L72" s="60">
+      <c r="L72" s="58">
         <v>0.85</v>
       </c>
-      <c r="M72" s="60">
+      <c r="M72" s="58">
         <v>45</v>
       </c>
-      <c r="N72" s="60">
+      <c r="N72" s="58">
         <v>0.57999999999999996</v>
       </c>
-      <c r="O72" s="60"/>
-      <c r="P72" s="60">
+      <c r="O72" s="58"/>
+      <c r="P72" s="58">
         <v>0.35</v>
       </c>
-      <c r="Q72" s="60">
+      <c r="Q72" s="58">
         <v>0.87</v>
       </c>
-      <c r="R72" s="60">
+      <c r="R72" s="58">
         <v>900</v>
       </c>
       <c r="S72" s="45"/>
@@ -8771,44 +8776,44 @@
       <c r="D73" s="45">
         <v>5</v>
       </c>
-      <c r="E73" s="60">
+      <c r="E73" s="58">
         <v>0.9</v>
       </c>
-      <c r="F73" s="60">
+      <c r="F73" s="58">
         <v>0.95</v>
       </c>
-      <c r="G73" s="60">
+      <c r="G73" s="58">
         <v>0.81</v>
       </c>
-      <c r="H73" s="60">
-        <v>1</v>
-      </c>
-      <c r="I73" s="60">
+      <c r="H73" s="58">
+        <v>1</v>
+      </c>
+      <c r="I73" s="58">
         <v>0.13</v>
       </c>
-      <c r="J73" s="60">
+      <c r="J73" s="58">
         <v>39</v>
       </c>
-      <c r="K73" s="60">
-        <v>1</v>
-      </c>
-      <c r="L73" s="60">
+      <c r="K73" s="58">
+        <v>1</v>
+      </c>
+      <c r="L73" s="58">
         <v>0.89</v>
       </c>
-      <c r="M73" s="60">
+      <c r="M73" s="58">
         <v>30</v>
       </c>
-      <c r="N73" s="60">
+      <c r="N73" s="58">
         <v>0.2</v>
       </c>
-      <c r="O73" s="60"/>
-      <c r="P73" s="60">
+      <c r="O73" s="58"/>
+      <c r="P73" s="58">
         <v>0.13</v>
       </c>
-      <c r="Q73" s="60">
+      <c r="Q73" s="58">
         <v>0.91</v>
       </c>
-      <c r="R73" s="60">
+      <c r="R73" s="58">
         <v>350</v>
       </c>
       <c r="S73" s="45"/>
@@ -8837,44 +8842,44 @@
       <c r="D74" s="45">
         <v>4</v>
       </c>
-      <c r="E74" s="60">
+      <c r="E74" s="58">
         <v>0.91</v>
       </c>
-      <c r="F74" s="60">
+      <c r="F74" s="58">
         <v>0.94</v>
       </c>
-      <c r="G74" s="60">
+      <c r="G74" s="58">
         <v>0.8</v>
       </c>
-      <c r="H74" s="60">
-        <v>1</v>
-      </c>
-      <c r="I74" s="60">
+      <c r="H74" s="58">
+        <v>1</v>
+      </c>
+      <c r="I74" s="58">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J74" s="60">
+      <c r="J74" s="58">
         <v>42</v>
       </c>
-      <c r="K74" s="60">
-        <v>1</v>
-      </c>
-      <c r="L74" s="60">
+      <c r="K74" s="58">
+        <v>1</v>
+      </c>
+      <c r="L74" s="58">
         <v>0.9</v>
       </c>
-      <c r="M74" s="60">
+      <c r="M74" s="58">
         <v>32</v>
       </c>
-      <c r="N74" s="60">
+      <c r="N74" s="58">
         <v>0.22</v>
       </c>
-      <c r="O74" s="60"/>
-      <c r="P74" s="60">
+      <c r="O74" s="58"/>
+      <c r="P74" s="58">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q74" s="60">
+      <c r="Q74" s="58">
         <v>0.91</v>
       </c>
-      <c r="R74" s="60">
+      <c r="R74" s="58">
         <v>400</v>
       </c>
       <c r="S74" s="45"/>
@@ -8903,44 +8908,44 @@
       <c r="D75" s="45">
         <v>3</v>
       </c>
-      <c r="E75" s="60">
+      <c r="E75" s="58">
         <v>0.92</v>
       </c>
-      <c r="F75" s="60">
+      <c r="F75" s="58">
         <v>0.93</v>
       </c>
-      <c r="G75" s="60">
+      <c r="G75" s="58">
         <v>0.79</v>
       </c>
-      <c r="H75" s="60">
-        <v>1</v>
-      </c>
-      <c r="I75" s="60">
+      <c r="H75" s="58">
+        <v>1</v>
+      </c>
+      <c r="I75" s="58">
         <v>0.15</v>
       </c>
-      <c r="J75" s="60">
+      <c r="J75" s="58">
         <v>46</v>
       </c>
-      <c r="K75" s="60">
-        <v>1</v>
-      </c>
-      <c r="L75" s="60">
+      <c r="K75" s="58">
+        <v>1</v>
+      </c>
+      <c r="L75" s="58">
         <v>0.91</v>
       </c>
-      <c r="M75" s="60">
+      <c r="M75" s="58">
         <v>34</v>
       </c>
-      <c r="N75" s="60">
+      <c r="N75" s="58">
         <v>0.24</v>
       </c>
-      <c r="O75" s="60"/>
-      <c r="P75" s="60">
+      <c r="O75" s="58"/>
+      <c r="P75" s="58">
         <v>0.15</v>
       </c>
-      <c r="Q75" s="60">
+      <c r="Q75" s="58">
         <v>0.92</v>
       </c>
-      <c r="R75" s="60">
+      <c r="R75" s="58">
         <v>550</v>
       </c>
       <c r="S75" s="45"/>
@@ -8969,44 +8974,44 @@
       <c r="D76" s="45">
         <v>5</v>
       </c>
-      <c r="E76" s="60">
+      <c r="E76" s="58">
         <v>0.93</v>
       </c>
-      <c r="F76" s="60">
+      <c r="F76" s="58">
         <v>0.92</v>
       </c>
-      <c r="G76" s="60">
+      <c r="G76" s="58">
         <v>0.78</v>
       </c>
-      <c r="H76" s="60">
-        <v>1</v>
-      </c>
-      <c r="I76" s="60">
+      <c r="H76" s="58">
+        <v>1</v>
+      </c>
+      <c r="I76" s="58">
         <v>0.16</v>
       </c>
-      <c r="J76" s="60">
+      <c r="J76" s="58">
         <v>50</v>
       </c>
-      <c r="K76" s="60">
-        <v>1</v>
-      </c>
-      <c r="L76" s="60">
+      <c r="K76" s="58">
+        <v>1</v>
+      </c>
+      <c r="L76" s="58">
         <v>0.92</v>
       </c>
-      <c r="M76" s="60">
+      <c r="M76" s="58">
         <v>36</v>
       </c>
-      <c r="N76" s="60">
+      <c r="N76" s="58">
         <v>0.26</v>
       </c>
-      <c r="O76" s="60"/>
-      <c r="P76" s="60">
+      <c r="O76" s="58"/>
+      <c r="P76" s="58">
         <v>0.16</v>
       </c>
-      <c r="Q76" s="60">
+      <c r="Q76" s="58">
         <v>0.93</v>
       </c>
-      <c r="R76" s="60">
+      <c r="R76" s="58">
         <v>650</v>
       </c>
       <c r="S76" s="45"/>
@@ -9035,44 +9040,44 @@
       <c r="D77" s="45">
         <v>1</v>
       </c>
-      <c r="E77" s="60">
+      <c r="E77" s="58">
         <v>0.95</v>
       </c>
-      <c r="F77" s="60">
+      <c r="F77" s="58">
         <v>0.92</v>
       </c>
-      <c r="G77" s="60">
+      <c r="G77" s="58">
         <v>0.72</v>
       </c>
-      <c r="H77" s="60">
+      <c r="H77" s="58">
         <v>0.95</v>
       </c>
-      <c r="I77" s="60">
+      <c r="I77" s="58">
         <v>0.18</v>
       </c>
-      <c r="J77" s="60">
+      <c r="J77" s="58">
         <v>54</v>
       </c>
-      <c r="K77" s="60">
-        <v>1</v>
-      </c>
-      <c r="L77" s="60">
+      <c r="K77" s="58">
+        <v>1</v>
+      </c>
+      <c r="L77" s="58">
         <v>0.93</v>
       </c>
-      <c r="M77" s="60">
+      <c r="M77" s="58">
         <v>38</v>
       </c>
-      <c r="N77" s="60">
+      <c r="N77" s="58">
         <v>0.28000000000000003</v>
       </c>
-      <c r="O77" s="60"/>
-      <c r="P77" s="60">
+      <c r="O77" s="58"/>
+      <c r="P77" s="58">
         <v>0.17</v>
       </c>
-      <c r="Q77" s="60">
+      <c r="Q77" s="58">
         <v>0.94</v>
       </c>
-      <c r="R77" s="60">
+      <c r="R77" s="58">
         <v>1500</v>
       </c>
       <c r="S77" s="45"/>
@@ -9101,42 +9106,44 @@
       <c r="D78" s="45">
         <v>5</v>
       </c>
-      <c r="E78" s="60">
+      <c r="E78" s="58">
         <v>0.48</v>
       </c>
-      <c r="F78" s="60">
-        <v>1</v>
-      </c>
-      <c r="G78" s="60">
-        <v>1</v>
-      </c>
-      <c r="H78" s="60">
-        <v>1</v>
-      </c>
-      <c r="I78" s="60">
+      <c r="F78" s="58">
+        <v>1</v>
+      </c>
+      <c r="G78" s="58">
+        <v>1</v>
+      </c>
+      <c r="H78" s="58">
+        <v>1</v>
+      </c>
+      <c r="I78" s="58">
         <v>0</v>
       </c>
-      <c r="J78" s="60">
+      <c r="J78" s="58">
         <v>5</v>
       </c>
-      <c r="K78" s="60"/>
-      <c r="L78" s="60">
-        <v>1</v>
-      </c>
-      <c r="M78" s="60">
+      <c r="K78" s="58">
+        <v>1</v>
+      </c>
+      <c r="L78" s="58">
+        <v>1</v>
+      </c>
+      <c r="M78" s="58">
         <v>8</v>
       </c>
-      <c r="N78" s="60">
+      <c r="N78" s="58">
         <v>0.15</v>
       </c>
-      <c r="O78" s="60"/>
-      <c r="P78" s="60">
+      <c r="O78" s="58"/>
+      <c r="P78" s="58">
         <v>0</v>
       </c>
-      <c r="Q78" s="60">
-        <v>1</v>
-      </c>
-      <c r="R78" s="60">
+      <c r="Q78" s="58">
+        <v>1</v>
+      </c>
+      <c r="R78" s="58">
         <v>250</v>
       </c>
       <c r="S78" s="45" t="s">
@@ -9163,42 +9170,44 @@
       <c r="D79" s="45">
         <v>4</v>
       </c>
-      <c r="E79" s="60">
+      <c r="E79" s="58">
         <v>0.52</v>
       </c>
-      <c r="F79" s="60">
-        <v>1</v>
-      </c>
-      <c r="G79" s="60">
-        <v>1</v>
-      </c>
-      <c r="H79" s="60">
-        <v>1</v>
-      </c>
-      <c r="I79" s="60">
+      <c r="F79" s="58">
+        <v>1</v>
+      </c>
+      <c r="G79" s="58">
+        <v>1</v>
+      </c>
+      <c r="H79" s="58">
+        <v>1</v>
+      </c>
+      <c r="I79" s="58">
         <v>0</v>
       </c>
-      <c r="J79" s="60">
+      <c r="J79" s="58">
         <v>8</v>
       </c>
-      <c r="K79" s="60"/>
-      <c r="L79" s="60">
-        <v>1</v>
-      </c>
-      <c r="M79" s="60">
+      <c r="K79" s="58">
+        <v>1</v>
+      </c>
+      <c r="L79" s="58">
+        <v>1</v>
+      </c>
+      <c r="M79" s="58">
         <v>15</v>
       </c>
-      <c r="N79" s="60">
+      <c r="N79" s="58">
         <v>0.15</v>
       </c>
-      <c r="O79" s="60"/>
-      <c r="P79" s="60">
+      <c r="O79" s="58"/>
+      <c r="P79" s="58">
         <v>0</v>
       </c>
-      <c r="Q79" s="60">
-        <v>1</v>
-      </c>
-      <c r="R79" s="60">
+      <c r="Q79" s="58">
+        <v>1</v>
+      </c>
+      <c r="R79" s="58">
         <v>550</v>
       </c>
       <c r="S79" s="45" t="s">
@@ -9225,42 +9234,44 @@
       <c r="D80" s="45">
         <v>3</v>
       </c>
-      <c r="E80" s="60">
+      <c r="E80" s="58">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F80" s="60">
-        <v>1</v>
-      </c>
-      <c r="G80" s="60">
-        <v>1</v>
-      </c>
-      <c r="H80" s="60">
-        <v>1</v>
-      </c>
-      <c r="I80" s="60">
+      <c r="F80" s="58">
+        <v>1</v>
+      </c>
+      <c r="G80" s="58">
+        <v>1</v>
+      </c>
+      <c r="H80" s="58">
+        <v>1</v>
+      </c>
+      <c r="I80" s="58">
         <v>0</v>
       </c>
-      <c r="J80" s="60">
+      <c r="J80" s="58">
         <v>18</v>
       </c>
-      <c r="K80" s="60"/>
-      <c r="L80" s="60">
-        <v>1</v>
-      </c>
-      <c r="M80" s="60">
+      <c r="K80" s="58">
+        <v>1</v>
+      </c>
+      <c r="L80" s="58">
+        <v>1</v>
+      </c>
+      <c r="M80" s="58">
         <v>8</v>
       </c>
-      <c r="N80" s="60">
+      <c r="N80" s="58">
         <v>0.15</v>
       </c>
-      <c r="O80" s="60"/>
-      <c r="P80" s="60">
+      <c r="O80" s="58"/>
+      <c r="P80" s="58">
         <v>0</v>
       </c>
-      <c r="Q80" s="60">
-        <v>1</v>
-      </c>
-      <c r="R80" s="60">
+      <c r="Q80" s="58">
+        <v>1</v>
+      </c>
+      <c r="R80" s="58">
         <v>800</v>
       </c>
       <c r="S80" s="45" t="s">
@@ -9305,7 +9316,9 @@
       <c r="J81" s="45">
         <v>24</v>
       </c>
-      <c r="K81" s="45"/>
+      <c r="K81" s="45">
+        <v>1</v>
+      </c>
       <c r="L81" s="45">
         <v>1</v>
       </c>
@@ -9352,7 +9365,7 @@
       <c r="E82" s="45">
         <v>0.82</v>
       </c>
-      <c r="F82" s="60">
+      <c r="F82" s="58">
         <v>0.96</v>
       </c>
       <c r="G82" s="45">
@@ -9367,7 +9380,9 @@
       <c r="J82" s="45">
         <v>49</v>
       </c>
-      <c r="K82" s="45"/>
+      <c r="K82" s="45">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="L82" s="45">
         <v>0.92</v>
       </c>
@@ -9402,7 +9417,7 @@
       <c r="W82" s="45" t="s">
         <v>769</v>
       </c>
-      <c r="X82" s="58" t="s">
+      <c r="X82" s="56" t="s">
         <v>770</v>
       </c>
     </row>
@@ -9437,7 +9452,9 @@
       <c r="J83" s="45">
         <v>52</v>
       </c>
-      <c r="K83" s="45"/>
+      <c r="K83" s="45">
+        <v>1.1399999999999999</v>
+      </c>
       <c r="L83" s="45">
         <v>0.93</v>
       </c>
@@ -9472,7 +9489,7 @@
       <c r="W83" s="45" t="s">
         <v>769</v>
       </c>
-      <c r="X83" s="58" t="s">
+      <c r="X83" s="56" t="s">
         <v>770</v>
       </c>
     </row>
@@ -9507,7 +9524,9 @@
       <c r="J84" s="45">
         <v>53</v>
       </c>
-      <c r="K84" s="45"/>
+      <c r="K84" s="45">
+        <v>1.1299999999999999</v>
+      </c>
       <c r="L84" s="45">
         <v>0.94</v>
       </c>
@@ -9542,7 +9561,7 @@
       <c r="W84" s="45" t="s">
         <v>769</v>
       </c>
-      <c r="X84" s="58" t="s">
+      <c r="X84" s="56" t="s">
         <v>770</v>
       </c>
     </row>
@@ -9571,13 +9590,15 @@
       <c r="H85" s="45">
         <v>0.85</v>
       </c>
-      <c r="I85" s="60">
+      <c r="I85" s="58">
         <v>0</v>
       </c>
       <c r="J85" s="45">
         <v>56</v>
       </c>
-      <c r="K85" s="45"/>
+      <c r="K85" s="45">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="L85" s="45">
         <v>0.95</v>
       </c>
@@ -9612,7 +9633,7 @@
       <c r="W85" s="45" t="s">
         <v>769</v>
       </c>
-      <c r="X85" s="58" t="s">
+      <c r="X85" s="56" t="s">
         <v>770</v>
       </c>
     </row>
@@ -9647,7 +9668,9 @@
       <c r="J86" s="45">
         <v>22</v>
       </c>
-      <c r="K86" s="45"/>
+      <c r="K86" s="45">
+        <v>0.95</v>
+      </c>
       <c r="L86" s="45">
         <v>1</v>
       </c>
@@ -9709,7 +9732,9 @@
       <c r="J87" s="45">
         <v>28</v>
       </c>
-      <c r="K87" s="45"/>
+      <c r="K87" s="45">
+        <v>0.95</v>
+      </c>
       <c r="L87" s="45">
         <v>1</v>
       </c>
@@ -9771,7 +9796,9 @@
       <c r="J88" s="45">
         <v>35</v>
       </c>
-      <c r="K88" s="45"/>
+      <c r="K88" s="45">
+        <v>0.95</v>
+      </c>
       <c r="L88" s="45">
         <v>1</v>
       </c>
@@ -9818,7 +9845,7 @@
       <c r="E89" s="45">
         <v>0.98</v>
       </c>
-      <c r="F89" s="60">
+      <c r="F89" s="58">
         <v>1</v>
       </c>
       <c r="G89" s="45">
@@ -9833,7 +9860,9 @@
       <c r="J89" s="45">
         <v>40</v>
       </c>
-      <c r="K89" s="45"/>
+      <c r="K89" s="45">
+        <v>0.95</v>
+      </c>
       <c r="L89" s="45">
         <v>1</v>
       </c>
@@ -9880,7 +9909,7 @@
       <c r="E90" s="45">
         <v>0.95</v>
       </c>
-      <c r="F90" s="60">
+      <c r="F90" s="58">
         <v>1</v>
       </c>
       <c r="G90" s="45">
@@ -9895,7 +9924,9 @@
       <c r="J90" s="45">
         <v>15</v>
       </c>
-      <c r="K90" s="45"/>
+      <c r="K90" s="45">
+        <v>0.95</v>
+      </c>
       <c r="L90" s="45">
         <v>1</v>
       </c>
@@ -9944,7 +9975,7 @@
       <c r="E91" s="45">
         <v>0.9</v>
       </c>
-      <c r="F91" s="60">
+      <c r="F91" s="58">
         <v>1</v>
       </c>
       <c r="G91" s="45">
@@ -9959,7 +9990,9 @@
       <c r="J91" s="45">
         <v>60</v>
       </c>
-      <c r="K91" s="45"/>
+      <c r="K91" s="45">
+        <v>1</v>
+      </c>
       <c r="L91" s="45">
         <v>1</v>
       </c>
@@ -10006,7 +10039,7 @@
       <c r="E92" s="45">
         <v>0.84</v>
       </c>
-      <c r="F92" s="60">
+      <c r="F92" s="58">
         <v>1.03</v>
       </c>
       <c r="G92" s="45">
@@ -10021,7 +10054,9 @@
       <c r="J92" s="45">
         <v>28</v>
       </c>
-      <c r="K92" s="45"/>
+      <c r="K92" s="45">
+        <v>1</v>
+      </c>
       <c r="L92" s="45">
         <v>1</v>
       </c>
@@ -10072,7 +10107,7 @@
       <c r="E93" s="45">
         <v>0.86</v>
       </c>
-      <c r="F93" s="60">
+      <c r="F93" s="58">
         <v>1.02</v>
       </c>
       <c r="G93" s="45">
@@ -10087,7 +10122,9 @@
       <c r="J93" s="45">
         <v>30</v>
       </c>
-      <c r="K93" s="45"/>
+      <c r="K93" s="45">
+        <v>1</v>
+      </c>
       <c r="L93" s="45">
         <v>1</v>
       </c>
@@ -10138,7 +10175,7 @@
       <c r="E94" s="45">
         <v>0.88</v>
       </c>
-      <c r="F94" s="60">
+      <c r="F94" s="58">
         <v>1.01</v>
       </c>
       <c r="G94" s="45">
@@ -10153,7 +10190,9 @@
       <c r="J94" s="45">
         <v>34</v>
       </c>
-      <c r="K94" s="45"/>
+      <c r="K94" s="45">
+        <v>1</v>
+      </c>
       <c r="L94" s="45">
         <v>1</v>
       </c>
@@ -10204,7 +10243,7 @@
       <c r="E95" s="45">
         <v>0.9</v>
       </c>
-      <c r="F95" s="60">
+      <c r="F95" s="58">
         <v>1</v>
       </c>
       <c r="G95" s="45">
@@ -10219,7 +10258,9 @@
       <c r="J95" s="45">
         <v>40</v>
       </c>
-      <c r="K95" s="45"/>
+      <c r="K95" s="45">
+        <v>1</v>
+      </c>
       <c r="L95" s="45">
         <v>1</v>
       </c>
@@ -10270,7 +10311,7 @@
       <c r="E96" s="45">
         <v>1.05</v>
       </c>
-      <c r="F96" s="60">
+      <c r="F96" s="58">
         <v>1</v>
       </c>
       <c r="G96" s="45">
@@ -10285,7 +10326,9 @@
       <c r="J96" s="45">
         <v>50</v>
       </c>
-      <c r="K96" s="45"/>
+      <c r="K96" s="45">
+        <v>1</v>
+      </c>
       <c r="L96" s="45">
         <v>1</v>
       </c>
@@ -10349,7 +10392,9 @@
       <c r="J97" s="45">
         <v>80</v>
       </c>
-      <c r="K97" s="45"/>
+      <c r="K97" s="45">
+        <v>1</v>
+      </c>
       <c r="L97" s="45">
         <v>1</v>
       </c>
@@ -10413,7 +10458,9 @@
       <c r="J98" s="45">
         <v>60</v>
       </c>
-      <c r="K98" s="45"/>
+      <c r="K98" s="45">
+        <v>1</v>
+      </c>
       <c r="L98" s="45">
         <v>1</v>
       </c>
@@ -10481,7 +10528,9 @@
       <c r="J99" s="45">
         <v>45</v>
       </c>
-      <c r="K99" s="45"/>
+      <c r="K99" s="45">
+        <v>1</v>
+      </c>
       <c r="L99" s="45">
         <v>1</v>
       </c>
@@ -10547,7 +10596,9 @@
       <c r="J100" s="45">
         <v>48</v>
       </c>
-      <c r="K100" s="45"/>
+      <c r="K100" s="45">
+        <v>1</v>
+      </c>
       <c r="L100" s="45">
         <v>1</v>
       </c>
@@ -10613,7 +10664,9 @@
       <c r="J101" s="45">
         <v>52</v>
       </c>
-      <c r="K101" s="45"/>
+      <c r="K101" s="45">
+        <v>1</v>
+      </c>
       <c r="L101" s="45">
         <v>1</v>
       </c>
@@ -10679,7 +10732,9 @@
       <c r="J102" s="45">
         <v>54</v>
       </c>
-      <c r="K102" s="45"/>
+      <c r="K102" s="45">
+        <v>1</v>
+      </c>
       <c r="L102" s="45">
         <v>1</v>
       </c>
@@ -10745,7 +10800,9 @@
       <c r="J103" s="45">
         <v>33</v>
       </c>
-      <c r="K103" s="45"/>
+      <c r="K103" s="45">
+        <v>1</v>
+      </c>
       <c r="L103" s="45">
         <v>1</v>
       </c>
@@ -10809,7 +10866,9 @@
       <c r="J104" s="45">
         <v>35</v>
       </c>
-      <c r="K104" s="45"/>
+      <c r="K104" s="45">
+        <v>1</v>
+      </c>
       <c r="L104" s="45">
         <v>1</v>
       </c>
@@ -10873,7 +10932,9 @@
       <c r="J105" s="45">
         <v>35</v>
       </c>
-      <c r="K105" s="45"/>
+      <c r="K105" s="45">
+        <v>1</v>
+      </c>
       <c r="L105" s="45">
         <v>1</v>
       </c>
@@ -10937,7 +10998,9 @@
       <c r="J106" s="45">
         <v>38</v>
       </c>
-      <c r="K106" s="45"/>
+      <c r="K106" s="45">
+        <v>1</v>
+      </c>
       <c r="L106" s="45">
         <v>1</v>
       </c>
@@ -11001,7 +11064,9 @@
       <c r="J107" s="45">
         <v>50</v>
       </c>
-      <c r="K107" s="45"/>
+      <c r="K107" s="45">
+        <v>1</v>
+      </c>
       <c r="L107" s="45">
         <v>1</v>
       </c>
@@ -11065,7 +11130,9 @@
       <c r="J108" s="45">
         <v>24</v>
       </c>
-      <c r="K108" s="45"/>
+      <c r="K108" s="45">
+        <v>1</v>
+      </c>
       <c r="L108" s="45">
         <v>1</v>
       </c>
@@ -11129,7 +11196,9 @@
       <c r="J109" s="45">
         <v>27</v>
       </c>
-      <c r="K109" s="45"/>
+      <c r="K109" s="45">
+        <v>1</v>
+      </c>
       <c r="L109" s="45">
         <v>1</v>
       </c>
@@ -11193,7 +11262,9 @@
       <c r="J110" s="45">
         <v>30</v>
       </c>
-      <c r="K110" s="45"/>
+      <c r="K110" s="45">
+        <v>1</v>
+      </c>
       <c r="L110" s="45">
         <v>1</v>
       </c>
@@ -11257,7 +11328,9 @@
       <c r="J111" s="45">
         <v>33</v>
       </c>
-      <c r="K111" s="45"/>
+      <c r="K111" s="45">
+        <v>1</v>
+      </c>
       <c r="L111" s="45">
         <v>1</v>
       </c>
@@ -11292,44 +11365,46 @@
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="50" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="B112" s="45" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="C112" s="45" t="s">
         <v>725</v>
       </c>
       <c r="D112" s="45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E112" s="45">
-        <v>1.1499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F112" s="45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G112" s="45">
         <v>1</v>
       </c>
       <c r="H112" s="45">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="I112" s="45">
         <v>0</v>
       </c>
       <c r="J112" s="45">
-        <v>55</v>
-      </c>
-      <c r="K112" s="45"/>
+        <v>35</v>
+      </c>
+      <c r="K112" s="45">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="L112" s="45">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="M112" s="45">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N112" s="45">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="O112" s="45">
         <v>1</v>
@@ -11338,62 +11413,68 @@
         <v>0</v>
       </c>
       <c r="Q112" s="45">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="R112" s="45">
-        <v>3500</v>
+        <v>180</v>
       </c>
       <c r="S112" s="45"/>
       <c r="T112" s="45" t="s">
         <v>766</v>
       </c>
-      <c r="U112" s="45"/>
+      <c r="U112" s="45" t="s">
+        <v>773</v>
+      </c>
       <c r="V112" s="45"/>
       <c r="W112" s="45"/>
       <c r="X112" s="46"/>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="50" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B113" s="45" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="C113" s="45" t="s">
         <v>725</v>
       </c>
       <c r="D113" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E113" s="45">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="F113" s="45">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G113" s="45">
         <v>1</v>
       </c>
       <c r="H113" s="45">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="I113" s="45">
         <v>0</v>
       </c>
       <c r="J113" s="45">
-        <v>10</v>
-      </c>
-      <c r="K113" s="45"/>
+        <v>37</v>
+      </c>
+      <c r="K113" s="45">
+        <v>1.08</v>
+      </c>
       <c r="L113" s="45">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="M113" s="45">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N113" s="45">
-        <v>1</v>
-      </c>
-      <c r="O113" s="45"/>
+        <v>0.15</v>
+      </c>
+      <c r="O113" s="45">
+        <v>1</v>
+      </c>
       <c r="P113" s="45">
         <v>0</v>
       </c>
@@ -11401,59 +11482,65 @@
         <v>1</v>
       </c>
       <c r="R113" s="45">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S113" s="45"/>
       <c r="T113" s="45" t="s">
-        <v>730</v>
-      </c>
-      <c r="U113" s="45"/>
+        <v>766</v>
+      </c>
+      <c r="U113" s="45" t="s">
+        <v>773</v>
+      </c>
       <c r="V113" s="45"/>
       <c r="W113" s="45"/>
       <c r="X113" s="46"/>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="50" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B114" s="45" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="C114" s="45" t="s">
         <v>725</v>
       </c>
       <c r="D114" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E114" s="45">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="F114" s="45">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G114" s="45">
         <v>1</v>
       </c>
       <c r="H114" s="45">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I114" s="45">
         <v>0</v>
       </c>
       <c r="J114" s="45">
-        <v>12</v>
-      </c>
-      <c r="K114" s="45"/>
+        <v>40</v>
+      </c>
+      <c r="K114" s="45">
+        <v>1.07</v>
+      </c>
       <c r="L114" s="45">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="M114" s="45">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N114" s="45">
-        <v>1</v>
-      </c>
-      <c r="O114" s="45"/>
+        <v>0.15</v>
+      </c>
+      <c r="O114" s="45">
+        <v>1</v>
+      </c>
       <c r="P114" s="45">
         <v>0</v>
       </c>
@@ -11465,55 +11552,61 @@
       </c>
       <c r="S114" s="45"/>
       <c r="T114" s="45" t="s">
-        <v>730</v>
-      </c>
-      <c r="U114" s="45"/>
+        <v>766</v>
+      </c>
+      <c r="U114" s="45" t="s">
+        <v>773</v>
+      </c>
       <c r="V114" s="45"/>
       <c r="W114" s="45"/>
       <c r="X114" s="46"/>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="50" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B115" s="45" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="C115" s="45" t="s">
         <v>725</v>
       </c>
       <c r="D115" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E115" s="45">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="F115" s="45">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G115" s="45">
         <v>1</v>
       </c>
       <c r="H115" s="45">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="I115" s="45">
         <v>0</v>
       </c>
       <c r="J115" s="45">
-        <v>15</v>
-      </c>
-      <c r="K115" s="45"/>
+        <v>42</v>
+      </c>
+      <c r="K115" s="45">
+        <v>1.06</v>
+      </c>
       <c r="L115" s="45">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="M115" s="45">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N115" s="45">
-        <v>1</v>
-      </c>
-      <c r="O115" s="45"/>
+        <v>0.15</v>
+      </c>
+      <c r="O115" s="45">
+        <v>1</v>
+      </c>
       <c r="P115" s="45">
         <v>0</v>
       </c>
@@ -11521,20 +11614,22 @@
         <v>1</v>
       </c>
       <c r="R115" s="45">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="S115" s="45"/>
       <c r="T115" s="45" t="s">
-        <v>730</v>
-      </c>
-      <c r="U115" s="45"/>
+        <v>766</v>
+      </c>
+      <c r="U115" s="45" t="s">
+        <v>773</v>
+      </c>
       <c r="V115" s="45"/>
       <c r="W115" s="45"/>
       <c r="X115" s="46"/>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="50" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B116" s="45" t="s">
         <v>783</v>
@@ -11543,13 +11638,13 @@
         <v>725</v>
       </c>
       <c r="D116" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116" s="45">
-        <v>0.84</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F116" s="45">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G116" s="45">
         <v>1</v>
@@ -11561,31 +11656,35 @@
         <v>0</v>
       </c>
       <c r="J116" s="45">
-        <v>18</v>
-      </c>
-      <c r="K116" s="45"/>
+        <v>55</v>
+      </c>
+      <c r="K116" s="45">
+        <v>1.2</v>
+      </c>
       <c r="L116" s="45">
-        <v>0.78</v>
+        <v>1.2</v>
       </c>
       <c r="M116" s="45">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N116" s="45">
         <v>1</v>
       </c>
-      <c r="O116" s="45"/>
+      <c r="O116" s="45">
+        <v>1</v>
+      </c>
       <c r="P116" s="45">
         <v>0</v>
       </c>
       <c r="Q116" s="45">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="R116" s="45">
-        <v>550</v>
+        <v>3500</v>
       </c>
       <c r="S116" s="45"/>
       <c r="T116" s="45" t="s">
-        <v>730</v>
+        <v>766</v>
       </c>
       <c r="U116" s="45"/>
       <c r="V116" s="45"/>
@@ -11594,7 +11693,7 @@
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="50" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B117" s="45" t="s">
         <v>783</v>
@@ -11606,10 +11705,10 @@
         <v>5</v>
       </c>
       <c r="E117" s="45">
+        <v>0.78</v>
+      </c>
+      <c r="F117" s="45">
         <v>0.85</v>
-      </c>
-      <c r="F117" s="45">
-        <v>0.88</v>
       </c>
       <c r="G117" s="45">
         <v>1</v>
@@ -11621,14 +11720,16 @@
         <v>0</v>
       </c>
       <c r="J117" s="45">
-        <v>8</v>
-      </c>
-      <c r="K117" s="45"/>
+        <v>10</v>
+      </c>
+      <c r="K117" s="45">
+        <v>1.08</v>
+      </c>
       <c r="L117" s="45">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="M117" s="45">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N117" s="45">
         <v>1</v>
@@ -11641,11 +11742,11 @@
         <v>1</v>
       </c>
       <c r="R117" s="45">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="S117" s="45"/>
       <c r="T117" s="45" t="s">
-        <v>766</v>
+        <v>730</v>
       </c>
       <c r="U117" s="45"/>
       <c r="V117" s="45"/>
@@ -11654,7 +11755,7 @@
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="50" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B118" s="45" t="s">
         <v>783</v>
@@ -11666,10 +11767,10 @@
         <v>4</v>
       </c>
       <c r="E118" s="45">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F118" s="45">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="G118" s="45">
         <v>1</v>
@@ -11681,14 +11782,16 @@
         <v>0</v>
       </c>
       <c r="J118" s="45">
+        <v>12</v>
+      </c>
+      <c r="K118" s="45">
+        <v>1.06</v>
+      </c>
+      <c r="L118" s="45">
+        <v>0.74</v>
+      </c>
+      <c r="M118" s="45">
         <v>10</v>
-      </c>
-      <c r="K118" s="45"/>
-      <c r="L118" s="45">
-        <v>0.79</v>
-      </c>
-      <c r="M118" s="45">
-        <v>18</v>
       </c>
       <c r="N118" s="45">
         <v>1</v>
@@ -11701,11 +11804,11 @@
         <v>1</v>
       </c>
       <c r="R118" s="45">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="S118" s="45"/>
       <c r="T118" s="45" t="s">
-        <v>766</v>
+        <v>730</v>
       </c>
       <c r="U118" s="45"/>
       <c r="V118" s="45"/>
@@ -11714,7 +11817,7 @@
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="50" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B119" s="45" t="s">
         <v>783</v>
@@ -11726,10 +11829,10 @@
         <v>3</v>
       </c>
       <c r="E119" s="45">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="F119" s="45">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="G119" s="45">
         <v>1</v>
@@ -11741,14 +11844,16 @@
         <v>0</v>
       </c>
       <c r="J119" s="45">
-        <v>12</v>
-      </c>
-      <c r="K119" s="45"/>
+        <v>15</v>
+      </c>
+      <c r="K119" s="45">
+        <v>1.04</v>
+      </c>
       <c r="L119" s="45">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="M119" s="45">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N119" s="45">
         <v>1</v>
@@ -11761,11 +11866,11 @@
         <v>1</v>
       </c>
       <c r="R119" s="45">
-        <v>650</v>
+        <v>355</v>
       </c>
       <c r="S119" s="45"/>
       <c r="T119" s="45" t="s">
-        <v>766</v>
+        <v>730</v>
       </c>
       <c r="U119" s="45"/>
       <c r="V119" s="45"/>
@@ -11774,7 +11879,7 @@
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="50" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B120" s="45" t="s">
         <v>783</v>
@@ -11786,7 +11891,7 @@
         <v>2</v>
       </c>
       <c r="E120" s="45">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="F120" s="45">
         <v>0.9</v>
@@ -11801,14 +11906,16 @@
         <v>0</v>
       </c>
       <c r="J120" s="45">
+        <v>18</v>
+      </c>
+      <c r="K120" s="45">
+        <v>1.03</v>
+      </c>
+      <c r="L120" s="45">
+        <v>0.78</v>
+      </c>
+      <c r="M120" s="45">
         <v>15</v>
-      </c>
-      <c r="K120" s="45"/>
-      <c r="L120" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="M120" s="45">
-        <v>28</v>
       </c>
       <c r="N120" s="45">
         <v>1</v>
@@ -11821,11 +11928,11 @@
         <v>1</v>
       </c>
       <c r="R120" s="45">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="S120" s="45"/>
       <c r="T120" s="45" t="s">
-        <v>766</v>
+        <v>730</v>
       </c>
       <c r="U120" s="45"/>
       <c r="V120" s="45"/>
@@ -11834,7 +11941,7 @@
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="50" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B121" s="45" t="s">
         <v>783</v>
@@ -11846,10 +11953,10 @@
         <v>5</v>
       </c>
       <c r="E121" s="45">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F121" s="45">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G121" s="45">
         <v>1</v>
@@ -11861,14 +11968,16 @@
         <v>0</v>
       </c>
       <c r="J121" s="45">
-        <v>20</v>
-      </c>
-      <c r="K121" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="K121" s="45">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="L121" s="45">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="M121" s="45">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N121" s="45">
         <v>1</v>
@@ -11881,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="R121" s="45">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="S121" s="45"/>
       <c r="T121" s="45" t="s">
@@ -11894,7 +12003,7 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="50" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B122" s="45" t="s">
         <v>783</v>
@@ -11906,10 +12015,10 @@
         <v>4</v>
       </c>
       <c r="E122" s="45">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="F122" s="45">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G122" s="45">
         <v>1</v>
@@ -11921,14 +12030,16 @@
         <v>0</v>
       </c>
       <c r="J122" s="45">
-        <v>25</v>
-      </c>
-      <c r="K122" s="45"/>
+        <v>10</v>
+      </c>
+      <c r="K122" s="45">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="L122" s="45">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="M122" s="45">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N122" s="45">
         <v>1</v>
@@ -11941,7 +12052,7 @@
         <v>1</v>
       </c>
       <c r="R122" s="45">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S122" s="45"/>
       <c r="T122" s="45" t="s">
@@ -11954,7 +12065,7 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="50" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B123" s="45" t="s">
         <v>783</v>
@@ -11966,10 +12077,10 @@
         <v>3</v>
       </c>
       <c r="E123" s="45">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="F123" s="45">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G123" s="45">
         <v>1</v>
@@ -11981,14 +12092,16 @@
         <v>0</v>
       </c>
       <c r="J123" s="45">
-        <v>40</v>
-      </c>
-      <c r="K123" s="45"/>
+        <v>12</v>
+      </c>
+      <c r="K123" s="45">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="L123" s="45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M123" s="45">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N123" s="45">
         <v>1</v>
@@ -12001,7 +12114,7 @@
         <v>1</v>
       </c>
       <c r="R123" s="45">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="S123" s="45"/>
       <c r="T123" s="45" t="s">
@@ -12014,7 +12127,7 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="50" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B124" s="45" t="s">
         <v>783</v>
@@ -12026,10 +12139,10 @@
         <v>2</v>
       </c>
       <c r="E124" s="45">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F124" s="45">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G124" s="45">
         <v>1</v>
@@ -12041,14 +12154,16 @@
         <v>0</v>
       </c>
       <c r="J124" s="45">
-        <v>50</v>
-      </c>
-      <c r="K124" s="45"/>
+        <v>15</v>
+      </c>
+      <c r="K124" s="45">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="L124" s="45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M124" s="45">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N124" s="45">
         <v>1</v>
@@ -12061,7 +12176,7 @@
         <v>1</v>
       </c>
       <c r="R124" s="45">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="S124" s="45"/>
       <c r="T124" s="45" t="s">
@@ -12073,104 +12188,248 @@
       <c r="X124" s="46"/>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A125" s="50"/>
-      <c r="B125" s="45"/>
-      <c r="C125" s="45"/>
-      <c r="D125" s="45"/>
-      <c r="E125" s="45"/>
-      <c r="F125" s="45"/>
-      <c r="G125" s="45"/>
-      <c r="H125" s="45"/>
-      <c r="I125" s="45"/>
-      <c r="J125" s="45"/>
-      <c r="K125" s="45"/>
-      <c r="L125" s="45"/>
-      <c r="M125" s="45"/>
-      <c r="N125" s="45"/>
+      <c r="A125" s="50" t="s">
+        <v>786</v>
+      </c>
+      <c r="B125" s="45" t="s">
+        <v>783</v>
+      </c>
+      <c r="C125" s="45" t="s">
+        <v>725</v>
+      </c>
+      <c r="D125" s="45">
+        <v>5</v>
+      </c>
+      <c r="E125" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F125" s="45">
+        <v>1</v>
+      </c>
+      <c r="G125" s="45">
+        <v>1</v>
+      </c>
+      <c r="H125" s="45">
+        <v>1</v>
+      </c>
+      <c r="I125" s="45">
+        <v>0</v>
+      </c>
+      <c r="J125" s="45">
+        <v>20</v>
+      </c>
+      <c r="K125" s="45">
+        <v>1</v>
+      </c>
+      <c r="L125" s="45">
+        <v>1</v>
+      </c>
+      <c r="M125" s="45">
+        <v>20</v>
+      </c>
+      <c r="N125" s="45">
+        <v>1</v>
+      </c>
       <c r="O125" s="45"/>
-      <c r="P125" s="45"/>
-      <c r="Q125" s="45"/>
-      <c r="R125" s="45"/>
+      <c r="P125" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="45">
+        <v>1</v>
+      </c>
+      <c r="R125" s="45">
+        <v>100</v>
+      </c>
       <c r="S125" s="45"/>
-      <c r="T125" s="45"/>
+      <c r="T125" s="45" t="s">
+        <v>766</v>
+      </c>
       <c r="U125" s="45"/>
       <c r="V125" s="45"/>
       <c r="W125" s="45"/>
       <c r="X125" s="46"/>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A126" s="50"/>
-      <c r="B126" s="45"/>
-      <c r="C126" s="45"/>
-      <c r="D126" s="45"/>
-      <c r="E126" s="45"/>
-      <c r="F126" s="45"/>
-      <c r="G126" s="45"/>
-      <c r="H126" s="45"/>
-      <c r="I126" s="45"/>
-      <c r="J126" s="45"/>
-      <c r="K126" s="45"/>
-      <c r="L126" s="45"/>
-      <c r="M126" s="45"/>
-      <c r="N126" s="45"/>
+      <c r="A126" s="50" t="s">
+        <v>786</v>
+      </c>
+      <c r="B126" s="45" t="s">
+        <v>783</v>
+      </c>
+      <c r="C126" s="45" t="s">
+        <v>725</v>
+      </c>
+      <c r="D126" s="45">
+        <v>4</v>
+      </c>
+      <c r="E126" s="45">
+        <v>0.82</v>
+      </c>
+      <c r="F126" s="45">
+        <v>1</v>
+      </c>
+      <c r="G126" s="45">
+        <v>1</v>
+      </c>
+      <c r="H126" s="45">
+        <v>1</v>
+      </c>
+      <c r="I126" s="45">
+        <v>0</v>
+      </c>
+      <c r="J126" s="45">
+        <v>25</v>
+      </c>
+      <c r="K126" s="45">
+        <v>1</v>
+      </c>
+      <c r="L126" s="45">
+        <v>1</v>
+      </c>
+      <c r="M126" s="45">
+        <v>25</v>
+      </c>
+      <c r="N126" s="45">
+        <v>1</v>
+      </c>
       <c r="O126" s="45"/>
-      <c r="P126" s="45"/>
-      <c r="Q126" s="45"/>
-      <c r="R126" s="45"/>
+      <c r="P126" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="45">
+        <v>1</v>
+      </c>
+      <c r="R126" s="45">
+        <v>200</v>
+      </c>
       <c r="S126" s="45"/>
-      <c r="T126" s="45"/>
+      <c r="T126" s="45" t="s">
+        <v>766</v>
+      </c>
       <c r="U126" s="45"/>
       <c r="V126" s="45"/>
       <c r="W126" s="45"/>
       <c r="X126" s="46"/>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A127" s="50"/>
-      <c r="B127" s="45"/>
-      <c r="C127" s="45"/>
-      <c r="D127" s="45"/>
-      <c r="E127" s="45"/>
-      <c r="F127" s="45"/>
-      <c r="G127" s="45"/>
-      <c r="H127" s="45"/>
-      <c r="I127" s="45"/>
-      <c r="J127" s="45"/>
-      <c r="K127" s="45"/>
-      <c r="L127" s="45"/>
-      <c r="M127" s="45"/>
-      <c r="N127" s="45"/>
+      <c r="A127" s="50" t="s">
+        <v>786</v>
+      </c>
+      <c r="B127" s="45" t="s">
+        <v>783</v>
+      </c>
+      <c r="C127" s="45" t="s">
+        <v>725</v>
+      </c>
+      <c r="D127" s="45">
+        <v>3</v>
+      </c>
+      <c r="E127" s="45">
+        <v>0.85</v>
+      </c>
+      <c r="F127" s="45">
+        <v>1</v>
+      </c>
+      <c r="G127" s="45">
+        <v>1</v>
+      </c>
+      <c r="H127" s="45">
+        <v>1</v>
+      </c>
+      <c r="I127" s="45">
+        <v>0</v>
+      </c>
+      <c r="J127" s="45">
+        <v>40</v>
+      </c>
+      <c r="K127" s="45">
+        <v>1</v>
+      </c>
+      <c r="L127" s="45">
+        <v>1</v>
+      </c>
+      <c r="M127" s="45">
+        <v>30</v>
+      </c>
+      <c r="N127" s="45">
+        <v>1</v>
+      </c>
       <c r="O127" s="45"/>
-      <c r="P127" s="45"/>
-      <c r="Q127" s="45"/>
-      <c r="R127" s="45"/>
+      <c r="P127" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="45">
+        <v>1</v>
+      </c>
+      <c r="R127" s="45">
+        <v>400</v>
+      </c>
       <c r="S127" s="45"/>
-      <c r="T127" s="45"/>
+      <c r="T127" s="45" t="s">
+        <v>766</v>
+      </c>
       <c r="U127" s="45"/>
       <c r="V127" s="45"/>
       <c r="W127" s="45"/>
       <c r="X127" s="46"/>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A128" s="50"/>
-      <c r="B128" s="45"/>
-      <c r="C128" s="45"/>
-      <c r="D128" s="45"/>
-      <c r="E128" s="45"/>
-      <c r="F128" s="45"/>
-      <c r="G128" s="45"/>
-      <c r="H128" s="45"/>
-      <c r="I128" s="45"/>
-      <c r="J128" s="45"/>
-      <c r="K128" s="45"/>
-      <c r="L128" s="45"/>
-      <c r="M128" s="45"/>
-      <c r="N128" s="45"/>
+      <c r="A128" s="50" t="s">
+        <v>786</v>
+      </c>
+      <c r="B128" s="45" t="s">
+        <v>783</v>
+      </c>
+      <c r="C128" s="45" t="s">
+        <v>725</v>
+      </c>
+      <c r="D128" s="45">
+        <v>2</v>
+      </c>
+      <c r="E128" s="45">
+        <v>0.92</v>
+      </c>
+      <c r="F128" s="45">
+        <v>1</v>
+      </c>
+      <c r="G128" s="45">
+        <v>1</v>
+      </c>
+      <c r="H128" s="45">
+        <v>1</v>
+      </c>
+      <c r="I128" s="45">
+        <v>0</v>
+      </c>
+      <c r="J128" s="45">
+        <v>50</v>
+      </c>
+      <c r="K128" s="45">
+        <v>1</v>
+      </c>
+      <c r="L128" s="45">
+        <v>1</v>
+      </c>
+      <c r="M128" s="45">
+        <v>50</v>
+      </c>
+      <c r="N128" s="45">
+        <v>1</v>
+      </c>
       <c r="O128" s="45"/>
-      <c r="P128" s="45"/>
-      <c r="Q128" s="45"/>
-      <c r="R128" s="45"/>
+      <c r="P128" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="45">
+        <v>1</v>
+      </c>
+      <c r="R128" s="45">
+        <v>1000</v>
+      </c>
       <c r="S128" s="45"/>
-      <c r="T128" s="45"/>
+      <c r="T128" s="45" t="s">
+        <v>766</v>
+      </c>
       <c r="U128" s="45"/>
       <c r="V128" s="45"/>
       <c r="W128" s="45"/>
@@ -15583,45 +15842,131 @@
       <c r="X259" s="46"/>
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A260" s="51"/>
-      <c r="B260" s="47"/>
-      <c r="C260" s="47"/>
-      <c r="D260" s="47"/>
-      <c r="E260" s="47"/>
-      <c r="F260" s="47"/>
-      <c r="G260" s="47"/>
-      <c r="H260" s="47"/>
-      <c r="I260" s="47"/>
-      <c r="J260" s="47"/>
-      <c r="K260" s="47"/>
-      <c r="L260" s="47"/>
-      <c r="M260" s="47"/>
-      <c r="N260" s="47"/>
-      <c r="O260" s="47"/>
-      <c r="P260" s="47"/>
-      <c r="Q260" s="47"/>
-      <c r="R260" s="47"/>
-      <c r="S260" s="47"/>
-      <c r="T260" s="47"/>
-      <c r="U260" s="47"/>
-      <c r="V260" s="47"/>
-      <c r="W260" s="47"/>
-      <c r="X260" s="48"/>
+      <c r="A260" s="50"/>
+      <c r="B260" s="45"/>
+      <c r="C260" s="45"/>
+      <c r="D260" s="45"/>
+      <c r="E260" s="45"/>
+      <c r="F260" s="45"/>
+      <c r="G260" s="45"/>
+      <c r="H260" s="45"/>
+      <c r="I260" s="45"/>
+      <c r="J260" s="45"/>
+      <c r="K260" s="45"/>
+      <c r="L260" s="45"/>
+      <c r="M260" s="45"/>
+      <c r="N260" s="45"/>
+      <c r="O260" s="45"/>
+      <c r="P260" s="45"/>
+      <c r="Q260" s="45"/>
+      <c r="R260" s="45"/>
+      <c r="S260" s="45"/>
+      <c r="T260" s="45"/>
+      <c r="U260" s="45"/>
+      <c r="V260" s="45"/>
+      <c r="W260" s="45"/>
+      <c r="X260" s="46"/>
     </row>
     <row r="261" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A261" s="52"/>
-      <c r="X261" s="42"/>
+      <c r="A261" s="50"/>
+      <c r="B261" s="45"/>
+      <c r="C261" s="45"/>
+      <c r="D261" s="45"/>
+      <c r="E261" s="45"/>
+      <c r="F261" s="45"/>
+      <c r="G261" s="45"/>
+      <c r="H261" s="45"/>
+      <c r="I261" s="45"/>
+      <c r="J261" s="45"/>
+      <c r="K261" s="45"/>
+      <c r="L261" s="45"/>
+      <c r="M261" s="45"/>
+      <c r="N261" s="45"/>
+      <c r="O261" s="45"/>
+      <c r="P261" s="45"/>
+      <c r="Q261" s="45"/>
+      <c r="R261" s="45"/>
+      <c r="S261" s="45"/>
+      <c r="T261" s="45"/>
+      <c r="U261" s="45"/>
+      <c r="V261" s="45"/>
+      <c r="W261" s="45"/>
+      <c r="X261" s="46"/>
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A262" s="52"/>
-      <c r="X262" s="42"/>
+      <c r="A262" s="50"/>
+      <c r="B262" s="45"/>
+      <c r="C262" s="45"/>
+      <c r="D262" s="45"/>
+      <c r="E262" s="45"/>
+      <c r="F262" s="45"/>
+      <c r="G262" s="45"/>
+      <c r="H262" s="45"/>
+      <c r="I262" s="45"/>
+      <c r="J262" s="45"/>
+      <c r="K262" s="45"/>
+      <c r="L262" s="45"/>
+      <c r="M262" s="45"/>
+      <c r="N262" s="45"/>
+      <c r="O262" s="45"/>
+      <c r="P262" s="45"/>
+      <c r="Q262" s="45"/>
+      <c r="R262" s="45"/>
+      <c r="S262" s="45"/>
+      <c r="T262" s="45"/>
+      <c r="U262" s="45"/>
+      <c r="V262" s="45"/>
+      <c r="W262" s="45"/>
+      <c r="X262" s="46"/>
     </row>
     <row r="263" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A263" s="52"/>
-      <c r="X263" s="42"/>
+      <c r="A263" s="50"/>
+      <c r="B263" s="45"/>
+      <c r="C263" s="45"/>
+      <c r="D263" s="45"/>
+      <c r="E263" s="45"/>
+      <c r="F263" s="45"/>
+      <c r="G263" s="45"/>
+      <c r="H263" s="45"/>
+      <c r="I263" s="45"/>
+      <c r="J263" s="45"/>
+      <c r="K263" s="45"/>
+      <c r="L263" s="45"/>
+      <c r="M263" s="45"/>
+      <c r="N263" s="45"/>
+      <c r="O263" s="45"/>
+      <c r="P263" s="45"/>
+      <c r="Q263" s="45"/>
+      <c r="R263" s="45"/>
+      <c r="S263" s="45"/>
+      <c r="T263" s="45"/>
+      <c r="U263" s="45"/>
+      <c r="V263" s="47"/>
+      <c r="W263" s="47"/>
+      <c r="X263" s="48"/>
     </row>
     <row r="264" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A264" s="52"/>
+      <c r="A264" s="51"/>
+      <c r="B264" s="47"/>
+      <c r="C264" s="47"/>
+      <c r="D264" s="47"/>
+      <c r="E264" s="47"/>
+      <c r="F264" s="47"/>
+      <c r="G264" s="47"/>
+      <c r="H264" s="47"/>
+      <c r="I264" s="47"/>
+      <c r="J264" s="47"/>
+      <c r="K264" s="47"/>
+      <c r="L264" s="47"/>
+      <c r="M264" s="47"/>
+      <c r="N264" s="47"/>
+      <c r="O264" s="47"/>
+      <c r="P264" s="47"/>
+      <c r="Q264" s="47"/>
+      <c r="R264" s="47"/>
+      <c r="S264" s="47"/>
+      <c r="T264" s="47"/>
+      <c r="U264" s="47"/>
       <c r="X264" s="42"/>
     </row>
     <row r="265" spans="1:24" x14ac:dyDescent="0.25">
@@ -15705,15 +16050,19 @@
       <c r="X284" s="42"/>
     </row>
     <row r="285" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A285" s="52"/>
       <c r="X285" s="42"/>
     </row>
     <row r="286" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A286" s="52"/>
       <c r="X286" s="42"/>
     </row>
     <row r="287" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A287" s="52"/>
       <c r="X287" s="42"/>
     </row>
     <row r="288" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A288" s="52"/>
       <c r="X288" s="42"/>
     </row>
     <row r="289" spans="24:24" x14ac:dyDescent="0.25">
@@ -15733,6 +16082,15 @@
     </row>
     <row r="294" spans="24:24" x14ac:dyDescent="0.25">
       <c r="X294" s="42"/>
+    </row>
+    <row r="295" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X295" s="42"/>
+    </row>
+    <row r="296" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X296" s="42"/>
+    </row>
+    <row r="297" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X297" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17374,30 +17732,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="N1" s="57" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="N1" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
     </row>
     <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -19265,13 +19623,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>434</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -20190,13 +20548,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="59" t="s">
         <v>434</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
       <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -21532,18 +21890,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>419</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" firstSheet="12" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="36" r:id="rId1"/>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="795">
   <si>
     <t>Fishing</t>
   </si>
@@ -1717,12 +1717,6 @@
     <t xml:space="preserve">Armor specialties </t>
   </si>
   <si>
-    <t>Spell-songs.  Buffs allies or debuffs enemies, jack of all trades otherwise.</t>
-  </si>
-  <si>
-    <t>Generic character that has several abilities to work with pet.  Gets to choose pet at beginning.</t>
-  </si>
-  <si>
     <t>Cleave (hit additional tile 25% of time)</t>
   </si>
   <si>
@@ -3068,6 +3062,30 @@
   </si>
   <si>
     <t>Longbow</t>
+  </si>
+  <si>
+    <t>Lich</t>
+  </si>
+  <si>
+    <t>Warden</t>
+  </si>
+  <si>
+    <t>Unlock</t>
+  </si>
+  <si>
+    <t>Lycanthrope 1</t>
+  </si>
+  <si>
+    <t>Unlocks Wereween</t>
+  </si>
+  <si>
+    <t>White Walker</t>
+  </si>
+  <si>
+    <t>Necromancer 3, Cryomancer 3</t>
+  </si>
+  <si>
+    <t>Spell Level</t>
   </si>
 </sst>
 </file>
@@ -3473,7 +3491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3601,6 +3619,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3910,7 +3931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X297"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K129" sqref="K129"/>
     </sheetView>
@@ -3941,87 +3962,87 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>306</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>701</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>702</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>703</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>704</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>705</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>706</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>707</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>708</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>282</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="L1" s="40" t="s">
+        <v>707</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>708</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>709</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="O1" s="40" t="s">
+        <v>763</v>
+      </c>
+      <c r="P1" s="40" t="s">
         <v>710</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="Q1" s="40" t="s">
         <v>711</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="R1" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="S1" s="40" t="s">
         <v>765</v>
       </c>
-      <c r="P1" s="40" t="s">
-        <v>712</v>
-      </c>
-      <c r="Q1" s="40" t="s">
+      <c r="T1" s="40" t="s">
         <v>713</v>
       </c>
-      <c r="R1" s="40" t="s">
-        <v>716</v>
-      </c>
-      <c r="S1" s="40" t="s">
-        <v>767</v>
-      </c>
-      <c r="T1" s="40" t="s">
-        <v>715</v>
-      </c>
       <c r="U1" s="40" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="V1" s="40" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="W1" s="40" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="X1" s="41" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D2" s="43">
         <v>5</v>
@@ -4068,26 +4089,26 @@
       </c>
       <c r="S2" s="43"/>
       <c r="T2" s="43" t="s">
+        <v>716</v>
+      </c>
+      <c r="U2" s="43" t="s">
+        <v>717</v>
+      </c>
+      <c r="V2" s="43" t="s">
         <v>718</v>
-      </c>
-      <c r="U2" s="43" t="s">
-        <v>719</v>
-      </c>
-      <c r="V2" s="43" t="s">
-        <v>720</v>
       </c>
       <c r="W2" s="43"/>
       <c r="X2" s="44"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D3" s="45">
         <v>4</v>
@@ -4134,26 +4155,26 @@
       </c>
       <c r="S3" s="45"/>
       <c r="T3" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U3" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V3" s="45" t="s">
         <v>718</v>
-      </c>
-      <c r="U3" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V3" s="45" t="s">
-        <v>720</v>
       </c>
       <c r="W3" s="45"/>
       <c r="X3" s="46"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D4" s="45">
         <v>3</v>
@@ -4200,26 +4221,26 @@
       </c>
       <c r="S4" s="45"/>
       <c r="T4" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U4" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V4" s="45" t="s">
         <v>718</v>
-      </c>
-      <c r="U4" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V4" s="45" t="s">
-        <v>720</v>
       </c>
       <c r="W4" s="45"/>
       <c r="X4" s="46"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D5" s="45">
         <v>2</v>
@@ -4266,26 +4287,26 @@
       </c>
       <c r="S5" s="45"/>
       <c r="T5" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U5" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V5" s="45" t="s">
         <v>718</v>
-      </c>
-      <c r="U5" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V5" s="45" t="s">
-        <v>720</v>
       </c>
       <c r="W5" s="45"/>
       <c r="X5" s="46"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D6" s="45">
         <v>1</v>
@@ -4332,26 +4353,26 @@
       </c>
       <c r="S6" s="45"/>
       <c r="T6" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U6" s="45" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="V6" s="45" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="W6" s="45"/>
       <c r="X6" s="46"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D7" s="45">
         <v>5</v>
@@ -4398,26 +4419,26 @@
       </c>
       <c r="S7" s="45"/>
       <c r="T7" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U7" s="45" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="V7" s="58" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="W7" s="45"/>
       <c r="X7" s="46"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D8" s="45">
         <v>4</v>
@@ -4464,26 +4485,26 @@
       </c>
       <c r="S8" s="45"/>
       <c r="T8" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U8" s="45" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="V8" s="58" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="W8" s="45"/>
       <c r="X8" s="46"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D9" s="45">
         <v>3</v>
@@ -4530,26 +4551,26 @@
       </c>
       <c r="S9" s="45"/>
       <c r="T9" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U9" s="45" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="V9" s="58" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="W9" s="45"/>
       <c r="X9" s="46"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D10" s="45">
         <v>2</v>
@@ -4596,26 +4617,26 @@
       </c>
       <c r="S10" s="45"/>
       <c r="T10" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U10" s="45" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="V10" s="58" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="W10" s="45"/>
       <c r="X10" s="46"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D11" s="45">
         <v>3</v>
@@ -4662,28 +4683,28 @@
       </c>
       <c r="S11" s="45"/>
       <c r="T11" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U11" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V11" s="58" t="s">
+        <v>724</v>
+      </c>
+      <c r="W11" s="45" t="s">
         <v>718</v>
-      </c>
-      <c r="U11" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V11" s="58" t="s">
-        <v>726</v>
-      </c>
-      <c r="W11" s="45" t="s">
-        <v>720</v>
       </c>
       <c r="X11" s="46"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D12" s="45">
         <v>5</v>
@@ -4730,26 +4751,26 @@
       </c>
       <c r="S12" s="45"/>
       <c r="T12" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U12" s="45" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="V12" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="W12" s="45"/>
       <c r="X12" s="46"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D13" s="45">
         <v>4</v>
@@ -4796,26 +4817,26 @@
       </c>
       <c r="S13" s="45"/>
       <c r="T13" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U13" s="45" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="V13" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="W13" s="45"/>
       <c r="X13" s="46"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D14" s="45">
         <v>3</v>
@@ -4862,26 +4883,26 @@
       </c>
       <c r="S14" s="45"/>
       <c r="T14" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U14" s="45" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="V14" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="W14" s="45"/>
       <c r="X14" s="46"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D15" s="45">
         <v>2</v>
@@ -4928,26 +4949,26 @@
       </c>
       <c r="S15" s="45"/>
       <c r="T15" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U15" s="45" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="V15" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="W15" s="45"/>
       <c r="X15" s="46"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D16" s="45">
         <v>1</v>
@@ -4994,26 +5015,26 @@
       </c>
       <c r="S16" s="45"/>
       <c r="T16" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U16" s="45" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="V16" s="45" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="W16" s="45"/>
       <c r="X16" s="46"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D17" s="45">
         <v>3</v>
@@ -5060,26 +5081,26 @@
       </c>
       <c r="S17" s="45"/>
       <c r="T17" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U17" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="V17" s="45" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="W17" s="45"/>
       <c r="X17" s="46"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D18" s="45">
         <v>1</v>
@@ -5126,28 +5147,28 @@
       </c>
       <c r="S18" s="45"/>
       <c r="T18" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U18" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V18" s="45" t="s">
+        <v>733</v>
+      </c>
+      <c r="W18" s="45" t="s">
         <v>718</v>
-      </c>
-      <c r="U18" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V18" s="45" t="s">
-        <v>735</v>
-      </c>
-      <c r="W18" s="45" t="s">
-        <v>720</v>
       </c>
       <c r="X18" s="46"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D19" s="45">
         <v>1</v>
@@ -5194,26 +5215,26 @@
       </c>
       <c r="S19" s="45"/>
       <c r="T19" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U19" s="45" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="V19" s="45" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="W19" s="45"/>
       <c r="X19" s="46"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D20" s="45">
         <v>1</v>
@@ -5260,28 +5281,28 @@
       </c>
       <c r="S20" s="45"/>
       <c r="T20" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U20" s="45" t="s">
+        <v>724</v>
+      </c>
+      <c r="V20" s="45" t="s">
         <v>718</v>
       </c>
-      <c r="U20" s="45" t="s">
-        <v>726</v>
-      </c>
-      <c r="V20" s="45" t="s">
-        <v>720</v>
-      </c>
       <c r="W20" s="45" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="X20" s="46"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D21" s="45">
         <v>5</v>
@@ -5328,28 +5349,28 @@
       </c>
       <c r="S21" s="45"/>
       <c r="T21" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U21" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V21" s="45" t="s">
         <v>718</v>
       </c>
-      <c r="U21" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V21" s="45" t="s">
-        <v>720</v>
-      </c>
       <c r="W21" s="58" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="X21" s="46"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D22" s="45">
         <v>4</v>
@@ -5396,28 +5417,28 @@
       </c>
       <c r="S22" s="45"/>
       <c r="T22" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U22" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V22" s="45" t="s">
         <v>718</v>
       </c>
-      <c r="U22" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V22" s="45" t="s">
-        <v>720</v>
-      </c>
       <c r="W22" s="58" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="X22" s="46"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D23" s="45">
         <v>3</v>
@@ -5464,28 +5485,28 @@
       </c>
       <c r="S23" s="45"/>
       <c r="T23" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U23" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V23" s="45" t="s">
         <v>718</v>
       </c>
-      <c r="U23" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V23" s="45" t="s">
-        <v>720</v>
-      </c>
       <c r="W23" s="58" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="X23" s="46"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D24" s="45">
         <v>2</v>
@@ -5532,28 +5553,28 @@
       </c>
       <c r="S24" s="45"/>
       <c r="T24" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U24" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V24" s="45" t="s">
         <v>718</v>
       </c>
-      <c r="U24" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V24" s="45" t="s">
-        <v>720</v>
-      </c>
       <c r="W24" s="58" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="X24" s="46"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D25" s="45">
         <v>1</v>
@@ -5600,26 +5621,26 @@
       </c>
       <c r="S25" s="45"/>
       <c r="T25" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U25" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V25" s="45" t="s">
         <v>718</v>
-      </c>
-      <c r="U25" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V25" s="45" t="s">
-        <v>720</v>
       </c>
       <c r="W25" s="45"/>
       <c r="X25" s="46"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D26" s="45">
         <v>4</v>
@@ -5666,26 +5687,26 @@
       </c>
       <c r="S26" s="45"/>
       <c r="T26" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U26" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V26" s="45" t="s">
         <v>718</v>
-      </c>
-      <c r="U26" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V26" s="45" t="s">
-        <v>720</v>
       </c>
       <c r="W26" s="45"/>
       <c r="X26" s="46"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D27" s="45">
         <v>3</v>
@@ -5732,26 +5753,26 @@
       </c>
       <c r="S27" s="45"/>
       <c r="T27" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U27" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V27" s="45" t="s">
         <v>718</v>
-      </c>
-      <c r="U27" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V27" s="45" t="s">
-        <v>720</v>
       </c>
       <c r="W27" s="45"/>
       <c r="X27" s="46"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D28" s="45">
         <v>1</v>
@@ -5798,28 +5819,28 @@
       </c>
       <c r="S28" s="45"/>
       <c r="T28" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U28" s="45" t="s">
+        <v>724</v>
+      </c>
+      <c r="V28" s="45" t="s">
         <v>718</v>
       </c>
-      <c r="U28" s="45" t="s">
-        <v>726</v>
-      </c>
-      <c r="V28" s="45" t="s">
-        <v>720</v>
-      </c>
       <c r="W28" s="45" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="X28" s="46"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D29" s="45">
         <v>5</v>
@@ -5866,28 +5887,28 @@
       </c>
       <c r="S29" s="45"/>
       <c r="T29" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U29" s="45" t="s">
+        <v>724</v>
+      </c>
+      <c r="V29" s="45" t="s">
         <v>718</v>
       </c>
-      <c r="U29" s="45" t="s">
-        <v>726</v>
-      </c>
-      <c r="V29" s="45" t="s">
-        <v>720</v>
-      </c>
       <c r="W29" s="45" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="X29" s="46"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D30" s="45">
         <v>4</v>
@@ -5934,28 +5955,28 @@
       </c>
       <c r="S30" s="45"/>
       <c r="T30" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U30" s="45" t="s">
+        <v>724</v>
+      </c>
+      <c r="V30" s="45" t="s">
         <v>718</v>
       </c>
-      <c r="U30" s="45" t="s">
-        <v>726</v>
-      </c>
-      <c r="V30" s="45" t="s">
-        <v>720</v>
-      </c>
       <c r="W30" s="45" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="X30" s="46"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D31" s="45">
         <v>3</v>
@@ -6002,28 +6023,28 @@
       </c>
       <c r="S31" s="45"/>
       <c r="T31" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U31" s="45" t="s">
+        <v>724</v>
+      </c>
+      <c r="V31" s="45" t="s">
         <v>718</v>
       </c>
-      <c r="U31" s="45" t="s">
-        <v>726</v>
-      </c>
-      <c r="V31" s="45" t="s">
-        <v>720</v>
-      </c>
       <c r="W31" s="45" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="X31" s="46"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D32" s="45">
         <v>2</v>
@@ -6070,28 +6091,28 @@
       </c>
       <c r="S32" s="45"/>
       <c r="T32" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U32" s="45" t="s">
+        <v>724</v>
+      </c>
+      <c r="V32" s="45" t="s">
         <v>718</v>
       </c>
-      <c r="U32" s="45" t="s">
-        <v>726</v>
-      </c>
-      <c r="V32" s="45" t="s">
-        <v>720</v>
-      </c>
       <c r="W32" s="45" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="X32" s="46"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D33" s="45">
         <v>5</v>
@@ -6138,28 +6159,28 @@
       </c>
       <c r="S33" s="45"/>
       <c r="T33" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U33" s="45" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="V33" s="45" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="W33" s="58" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="X33" s="46"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D34" s="45">
         <v>4</v>
@@ -6206,28 +6227,28 @@
       </c>
       <c r="S34" s="45"/>
       <c r="T34" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U34" s="45" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="V34" s="45" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="W34" s="58" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="X34" s="46"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D35" s="45">
         <v>3</v>
@@ -6274,28 +6295,28 @@
       </c>
       <c r="S35" s="45"/>
       <c r="T35" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U35" s="45" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="V35" s="45" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="W35" s="58" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="X35" s="46"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D36" s="45">
         <v>2</v>
@@ -6342,28 +6363,28 @@
       </c>
       <c r="S36" s="45"/>
       <c r="T36" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U36" s="45" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="V36" s="45" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="W36" s="58" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="X36" s="46"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D37" s="45">
         <v>5</v>
@@ -6410,28 +6431,28 @@
       </c>
       <c r="S37" s="45"/>
       <c r="T37" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U37" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V37" s="45" t="s">
+        <v>733</v>
+      </c>
+      <c r="W37" s="58" t="s">
         <v>718</v>
-      </c>
-      <c r="U37" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V37" s="45" t="s">
-        <v>735</v>
-      </c>
-      <c r="W37" s="58" t="s">
-        <v>720</v>
       </c>
       <c r="X37" s="46"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D38" s="45">
         <v>4</v>
@@ -6478,28 +6499,28 @@
       </c>
       <c r="S38" s="45"/>
       <c r="T38" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U38" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V38" s="45" t="s">
+        <v>733</v>
+      </c>
+      <c r="W38" s="45" t="s">
         <v>718</v>
-      </c>
-      <c r="U38" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V38" s="45" t="s">
-        <v>735</v>
-      </c>
-      <c r="W38" s="45" t="s">
-        <v>720</v>
       </c>
       <c r="X38" s="46"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D39" s="45">
         <v>3</v>
@@ -6546,28 +6567,28 @@
       </c>
       <c r="S39" s="45"/>
       <c r="T39" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U39" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V39" s="45" t="s">
+        <v>733</v>
+      </c>
+      <c r="W39" s="45" t="s">
         <v>718</v>
-      </c>
-      <c r="U39" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V39" s="45" t="s">
-        <v>735</v>
-      </c>
-      <c r="W39" s="45" t="s">
-        <v>720</v>
       </c>
       <c r="X39" s="46"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D40" s="45">
         <v>2</v>
@@ -6614,28 +6635,28 @@
       </c>
       <c r="S40" s="45"/>
       <c r="T40" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U40" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V40" s="45" t="s">
+        <v>733</v>
+      </c>
+      <c r="W40" s="45" t="s">
         <v>718</v>
-      </c>
-      <c r="U40" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V40" s="45" t="s">
-        <v>735</v>
-      </c>
-      <c r="W40" s="45" t="s">
-        <v>720</v>
       </c>
       <c r="X40" s="46"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D41" s="45">
         <v>1</v>
@@ -6682,26 +6703,26 @@
       </c>
       <c r="S41" s="45"/>
       <c r="T41" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U41" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V41" s="45" t="s">
         <v>718</v>
-      </c>
-      <c r="U41" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V41" s="45" t="s">
-        <v>720</v>
       </c>
       <c r="W41" s="45"/>
       <c r="X41" s="46"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D42" s="45">
         <v>1</v>
@@ -6748,26 +6769,26 @@
       </c>
       <c r="S42" s="45"/>
       <c r="T42" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U42" s="45" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="V42" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="W42" s="45"/>
       <c r="X42" s="46"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D43" s="45">
         <v>5</v>
@@ -6814,26 +6835,26 @@
       </c>
       <c r="S43" s="45"/>
       <c r="T43" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U43" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V43" s="45" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="W43" s="45"/>
       <c r="X43" s="46"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D44" s="45">
         <v>4</v>
@@ -6880,26 +6901,26 @@
       </c>
       <c r="S44" s="45"/>
       <c r="T44" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U44" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V44" s="45" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="W44" s="45"/>
       <c r="X44" s="46"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D45" s="45">
         <v>3</v>
@@ -6946,26 +6967,26 @@
       </c>
       <c r="S45" s="45"/>
       <c r="T45" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U45" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V45" s="45" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="W45" s="45"/>
       <c r="X45" s="46"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D46" s="45">
         <v>2</v>
@@ -7012,26 +7033,26 @@
       </c>
       <c r="S46" s="45"/>
       <c r="T46" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U46" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V46" s="45" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="W46" s="45"/>
       <c r="X46" s="46"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B47" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D47" s="45">
         <v>5</v>
@@ -7078,28 +7099,28 @@
       </c>
       <c r="S47" s="45"/>
       <c r="T47" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U47" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V47" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="W47" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="X47" s="46"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B48" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D48" s="45">
         <v>4</v>
@@ -7146,28 +7167,28 @@
       </c>
       <c r="S48" s="45"/>
       <c r="T48" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U48" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V48" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="W48" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="X48" s="46"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B49" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D49" s="45">
         <v>3</v>
@@ -7214,28 +7235,28 @@
       </c>
       <c r="S49" s="45"/>
       <c r="T49" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U49" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V49" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="W49" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="X49" s="46"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="50" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B50" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D50" s="45">
         <v>2</v>
@@ -7282,28 +7303,28 @@
       </c>
       <c r="S50" s="45"/>
       <c r="T50" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U50" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V50" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="W50" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="X50" s="46"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B51" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D51" s="45">
         <v>1</v>
@@ -7350,28 +7371,28 @@
       </c>
       <c r="S51" s="45"/>
       <c r="T51" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U51" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V51" s="45" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="W51" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="X51" s="46"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B52" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D52" s="45">
         <v>5</v>
@@ -7418,28 +7439,28 @@
       </c>
       <c r="S52" s="45"/>
       <c r="T52" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U52" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V52" s="45" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="W52" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="X52" s="46"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B53" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C53" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D53" s="45">
         <v>4</v>
@@ -7486,28 +7507,28 @@
       </c>
       <c r="S53" s="45"/>
       <c r="T53" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U53" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V53" s="45" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="W53" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="X53" s="46"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="50" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B54" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D54" s="45">
         <v>3</v>
@@ -7554,28 +7575,28 @@
       </c>
       <c r="S54" s="45"/>
       <c r="T54" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U54" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V54" s="45" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="W54" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="X54" s="46"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="50" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B55" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D55" s="45">
         <v>2</v>
@@ -7622,28 +7643,28 @@
       </c>
       <c r="S55" s="45"/>
       <c r="T55" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U55" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V55" s="45" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="W55" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="X55" s="46"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="50" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B56" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D56" s="45">
         <v>5</v>
@@ -7690,10 +7711,10 @@
       </c>
       <c r="S56" s="45"/>
       <c r="T56" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U56" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V56" s="45"/>
       <c r="W56" s="45"/>
@@ -7701,13 +7722,13 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B57" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C57" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D57" s="45">
         <v>4</v>
@@ -7754,10 +7775,10 @@
       </c>
       <c r="S57" s="45"/>
       <c r="T57" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U57" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V57" s="45"/>
       <c r="W57" s="45"/>
@@ -7765,13 +7786,13 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="50" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B58" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D58" s="45">
         <v>3</v>
@@ -7818,10 +7839,10 @@
       </c>
       <c r="S58" s="45"/>
       <c r="T58" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U58" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V58" s="45"/>
       <c r="W58" s="45"/>
@@ -7829,13 +7850,13 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="50" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B59" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D59" s="45">
         <v>2</v>
@@ -7882,10 +7903,10 @@
       </c>
       <c r="S59" s="45"/>
       <c r="T59" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U59" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V59" s="45"/>
       <c r="W59" s="45"/>
@@ -7893,13 +7914,13 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="50" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B60" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D60" s="45">
         <v>5</v>
@@ -7948,26 +7969,26 @@
       </c>
       <c r="S60" s="45"/>
       <c r="T60" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U60" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V60" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="W60" s="45"/>
       <c r="X60" s="46"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="50" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B61" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D61" s="45">
         <v>4</v>
@@ -8016,26 +8037,26 @@
       </c>
       <c r="S61" s="45"/>
       <c r="T61" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U61" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V61" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="W61" s="45"/>
       <c r="X61" s="46"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="50" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B62" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C62" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D62" s="45">
         <v>3</v>
@@ -8084,26 +8105,26 @@
       </c>
       <c r="S62" s="45"/>
       <c r="T62" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U62" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V62" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="W62" s="45"/>
       <c r="X62" s="46"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="50" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B63" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D63" s="45">
         <v>2</v>
@@ -8152,26 +8173,26 @@
       </c>
       <c r="S63" s="45"/>
       <c r="T63" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U63" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V63" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="W63" s="45"/>
       <c r="X63" s="46"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="50" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B64" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D64" s="45">
         <v>1</v>
@@ -8218,10 +8239,10 @@
       </c>
       <c r="S64" s="45"/>
       <c r="T64" s="45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U64" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V64" s="45"/>
       <c r="W64" s="45"/>
@@ -8229,13 +8250,13 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="50" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B65" s="45" t="s">
         <v>63</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D65" s="45">
         <v>5</v>
@@ -8282,10 +8303,10 @@
       </c>
       <c r="S65" s="45"/>
       <c r="T65" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U65" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="V65" s="55" t="s">
         <v>63</v>
@@ -8295,13 +8316,13 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="50" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B66" s="45" t="s">
         <v>63</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D66" s="45">
         <v>4</v>
@@ -8348,10 +8369,10 @@
       </c>
       <c r="S66" s="58"/>
       <c r="T66" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U66" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="V66" s="55" t="s">
         <v>63</v>
@@ -8361,13 +8382,13 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="50" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B67" s="45" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D67" s="45">
         <v>3</v>
@@ -8414,10 +8435,10 @@
       </c>
       <c r="S67" s="58"/>
       <c r="T67" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U67" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="V67" s="55" t="s">
         <v>63</v>
@@ -8427,13 +8448,13 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="50" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B68" s="45" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D68" s="45">
         <v>2</v>
@@ -8480,10 +8501,10 @@
       </c>
       <c r="S68" s="58"/>
       <c r="T68" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U68" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="V68" s="55" t="s">
         <v>63</v>
@@ -8493,13 +8514,13 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="50" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B69" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D69" s="45">
         <v>5</v>
@@ -8546,28 +8567,28 @@
       </c>
       <c r="S69" s="45"/>
       <c r="T69" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U69" s="45" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="V69" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="W69" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="X69" s="46"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="50" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B70" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D70" s="45">
         <v>4</v>
@@ -8614,28 +8635,28 @@
       </c>
       <c r="S70" s="45"/>
       <c r="T70" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U70" s="45" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="V70" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="W70" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="X70" s="46"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="50" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B71" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D71" s="45">
         <v>3</v>
@@ -8682,28 +8703,28 @@
       </c>
       <c r="S71" s="45"/>
       <c r="T71" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U71" s="45" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="V71" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="W71" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="X71" s="46"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="50" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B72" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D72" s="45">
         <v>2</v>
@@ -8750,28 +8771,28 @@
       </c>
       <c r="S72" s="45"/>
       <c r="T72" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U72" s="45" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="V72" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="W72" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="X72" s="46"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="50" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B73" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C73" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D73" s="45">
         <v>5</v>
@@ -8818,26 +8839,26 @@
       </c>
       <c r="S73" s="45"/>
       <c r="T73" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U73" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="V73" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="W73" s="45"/>
       <c r="X73" s="46"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="50" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B74" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C74" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D74" s="45">
         <v>4</v>
@@ -8884,26 +8905,26 @@
       </c>
       <c r="S74" s="45"/>
       <c r="T74" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U74" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="V74" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="W74" s="45"/>
       <c r="X74" s="46"/>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="50" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B75" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C75" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D75" s="45">
         <v>3</v>
@@ -8950,26 +8971,26 @@
       </c>
       <c r="S75" s="45"/>
       <c r="T75" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U75" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="V75" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="W75" s="45"/>
       <c r="X75" s="46"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="50" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B76" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D76" s="45">
         <v>5</v>
@@ -9016,26 +9037,26 @@
       </c>
       <c r="S76" s="45"/>
       <c r="T76" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U76" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="V76" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="W76" s="45"/>
       <c r="X76" s="46"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="50" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B77" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C77" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D77" s="45">
         <v>1</v>
@@ -9082,26 +9103,26 @@
       </c>
       <c r="S77" s="45"/>
       <c r="T77" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U77" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="V77" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="W77" s="45"/>
       <c r="X77" s="46"/>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="50" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D78" s="45">
         <v>5</v>
@@ -9147,10 +9168,10 @@
         <v>250</v>
       </c>
       <c r="S78" s="45" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="T78" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U78" s="45"/>
       <c r="V78" s="45"/>
@@ -9159,13 +9180,13 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="50" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C79" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D79" s="45">
         <v>4</v>
@@ -9211,10 +9232,10 @@
         <v>550</v>
       </c>
       <c r="S79" s="45" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="T79" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U79" s="45"/>
       <c r="V79" s="45"/>
@@ -9223,13 +9244,13 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="50" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C80" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D80" s="45">
         <v>3</v>
@@ -9275,10 +9296,10 @@
         <v>800</v>
       </c>
       <c r="S80" s="45" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="T80" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U80" s="45"/>
       <c r="V80" s="45"/>
@@ -9287,13 +9308,13 @@
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="50" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C81" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D81" s="45">
         <v>2</v>
@@ -9339,10 +9360,10 @@
         <v>1200</v>
       </c>
       <c r="S81" s="45" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="T81" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U81" s="45"/>
       <c r="V81" s="45"/>
@@ -9357,7 +9378,7 @@
         <v>61</v>
       </c>
       <c r="C82" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D82" s="45">
         <v>5</v>
@@ -9406,19 +9427,19 @@
       </c>
       <c r="S82" s="45"/>
       <c r="T82" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U82" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V82" s="45" t="s">
         <v>718</v>
       </c>
-      <c r="U82" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V82" s="45" t="s">
-        <v>720</v>
-      </c>
       <c r="W82" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="X82" s="56" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
@@ -9429,7 +9450,7 @@
         <v>61</v>
       </c>
       <c r="C83" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D83" s="45">
         <v>4</v>
@@ -9478,19 +9499,19 @@
       </c>
       <c r="S83" s="45"/>
       <c r="T83" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U83" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V83" s="45" t="s">
         <v>718</v>
       </c>
-      <c r="U83" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V83" s="45" t="s">
-        <v>720</v>
-      </c>
       <c r="W83" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="X83" s="56" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
@@ -9501,7 +9522,7 @@
         <v>61</v>
       </c>
       <c r="C84" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D84" s="45">
         <v>3</v>
@@ -9550,19 +9571,19 @@
       </c>
       <c r="S84" s="45"/>
       <c r="T84" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U84" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V84" s="45" t="s">
         <v>718</v>
       </c>
-      <c r="U84" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V84" s="45" t="s">
-        <v>720</v>
-      </c>
       <c r="W84" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="X84" s="56" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
@@ -9573,7 +9594,7 @@
         <v>61</v>
       </c>
       <c r="C85" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D85" s="45">
         <v>2</v>
@@ -9622,30 +9643,30 @@
       </c>
       <c r="S85" s="45"/>
       <c r="T85" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="U85" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="V85" s="45" t="s">
         <v>718</v>
       </c>
-      <c r="U85" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="V85" s="45" t="s">
-        <v>720</v>
-      </c>
       <c r="W85" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="X85" s="56" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="50" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B86" s="45" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C86" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D86" s="45">
         <v>5</v>
@@ -9692,10 +9713,10 @@
       </c>
       <c r="S86" s="45"/>
       <c r="T86" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U86" s="45" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="V86" s="45"/>
       <c r="W86" s="45"/>
@@ -9703,13 +9724,13 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="50" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C87" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D87" s="45">
         <v>4</v>
@@ -9756,10 +9777,10 @@
       </c>
       <c r="S87" s="45"/>
       <c r="T87" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U87" s="45" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="V87" s="45"/>
       <c r="W87" s="45"/>
@@ -9767,13 +9788,13 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="50" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B88" s="45" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C88" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D88" s="45">
         <v>3</v>
@@ -9820,10 +9841,10 @@
       </c>
       <c r="S88" s="45"/>
       <c r="T88" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U88" s="45" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="V88" s="45"/>
       <c r="W88" s="45"/>
@@ -9831,13 +9852,13 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="50" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D89" s="45">
         <v>2</v>
@@ -9884,10 +9905,10 @@
       </c>
       <c r="S89" s="45"/>
       <c r="T89" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U89" s="45" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="V89" s="45"/>
       <c r="W89" s="45"/>
@@ -9895,13 +9916,13 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="50" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D90" s="45">
         <v>1</v>
@@ -9950,10 +9971,10 @@
       </c>
       <c r="S90" s="45"/>
       <c r="T90" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U90" s="45" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="V90" s="45"/>
       <c r="W90" s="45"/>
@@ -9961,13 +9982,13 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="50" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B91" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D91" s="45">
         <v>1</v>
@@ -10014,10 +10035,10 @@
       </c>
       <c r="S91" s="45"/>
       <c r="T91" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U91" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="V91" s="45"/>
       <c r="W91" s="45"/>
@@ -10025,13 +10046,13 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="50" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B92" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D92" s="45">
         <v>5</v>
@@ -10080,26 +10101,26 @@
       </c>
       <c r="S92" s="45"/>
       <c r="T92" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U92" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="V92" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="W92" s="45"/>
       <c r="X92" s="46"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="50" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B93" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D93" s="45">
         <v>4</v>
@@ -10148,26 +10169,26 @@
       </c>
       <c r="S93" s="45"/>
       <c r="T93" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U93" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="V93" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="W93" s="45"/>
       <c r="X93" s="46"/>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="50" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B94" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D94" s="45">
         <v>3</v>
@@ -10216,26 +10237,26 @@
       </c>
       <c r="S94" s="45"/>
       <c r="T94" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U94" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="V94" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="W94" s="45"/>
       <c r="X94" s="46"/>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="50" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B95" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D95" s="45">
         <v>2</v>
@@ -10284,26 +10305,26 @@
       </c>
       <c r="S95" s="45"/>
       <c r="T95" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U95" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="V95" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="W95" s="45"/>
       <c r="X95" s="46"/>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="50" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B96" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D96" s="45">
         <v>1</v>
@@ -10350,26 +10371,26 @@
       </c>
       <c r="S96" s="45"/>
       <c r="T96" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U96" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="V96" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="W96" s="45"/>
       <c r="X96" s="46"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="50" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B97" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C97" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D97" s="45">
         <v>1</v>
@@ -10416,26 +10437,26 @@
       </c>
       <c r="S97" s="45"/>
       <c r="T97" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U97" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="V97" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="W97" s="45"/>
       <c r="X97" s="46"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="50" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B98" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C98" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D98" s="45">
         <v>1</v>
@@ -10484,28 +10505,28 @@
       </c>
       <c r="S98" s="45"/>
       <c r="T98" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U98" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="V98" s="45" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="W98" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="X98" s="46"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="50" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B99" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C99" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D99" s="45">
         <v>5</v>
@@ -10552,28 +10573,28 @@
       </c>
       <c r="S99" s="45"/>
       <c r="T99" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U99" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="V99" s="45" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="W99" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="X99" s="46"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="50" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B100" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D100" s="45">
         <v>4</v>
@@ -10620,28 +10641,28 @@
       </c>
       <c r="S100" s="45"/>
       <c r="T100" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U100" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="V100" s="45" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="W100" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="X100" s="46"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="50" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B101" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C101" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D101" s="45">
         <v>3</v>
@@ -10688,28 +10709,28 @@
       </c>
       <c r="S101" s="45"/>
       <c r="T101" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U101" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="V101" s="45" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="W101" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="X101" s="46"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="50" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B102" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C102" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D102" s="45">
         <v>2</v>
@@ -10756,16 +10777,16 @@
       </c>
       <c r="S102" s="45"/>
       <c r="T102" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U102" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="V102" s="45" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="W102" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="X102" s="46"/>
     </row>
@@ -10777,7 +10798,7 @@
         <v>56</v>
       </c>
       <c r="C103" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D103" s="45">
         <v>5</v>
@@ -10824,13 +10845,13 @@
       </c>
       <c r="S103" s="45"/>
       <c r="T103" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U103" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="V103" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="W103" s="45"/>
       <c r="X103" s="46"/>
@@ -10843,7 +10864,7 @@
         <v>56</v>
       </c>
       <c r="C104" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D104" s="45">
         <v>4</v>
@@ -10890,13 +10911,13 @@
       </c>
       <c r="S104" s="45"/>
       <c r="T104" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U104" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="V104" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="W104" s="45"/>
       <c r="X104" s="46"/>
@@ -10909,7 +10930,7 @@
         <v>56</v>
       </c>
       <c r="C105" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D105" s="45">
         <v>3</v>
@@ -10956,13 +10977,13 @@
       </c>
       <c r="S105" s="45"/>
       <c r="T105" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U105" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="V105" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="W105" s="45"/>
       <c r="X105" s="46"/>
@@ -10975,7 +10996,7 @@
         <v>56</v>
       </c>
       <c r="C106" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D106" s="45">
         <v>2</v>
@@ -11022,26 +11043,26 @@
       </c>
       <c r="S106" s="45"/>
       <c r="T106" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U106" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="V106" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="W106" s="45"/>
       <c r="X106" s="46"/>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="50" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B107" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C107" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D107" s="45">
         <v>1</v>
@@ -11088,13 +11109,13 @@
       </c>
       <c r="S107" s="45"/>
       <c r="T107" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U107" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="V107" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="W107" s="45"/>
       <c r="X107" s="46"/>
@@ -11107,7 +11128,7 @@
         <v>56</v>
       </c>
       <c r="C108" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D108" s="45">
         <v>5</v>
@@ -11154,13 +11175,13 @@
       </c>
       <c r="S108" s="45"/>
       <c r="T108" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U108" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="V108" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="W108" s="45"/>
       <c r="X108" s="46"/>
@@ -11173,7 +11194,7 @@
         <v>56</v>
       </c>
       <c r="C109" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D109" s="45">
         <v>4</v>
@@ -11220,13 +11241,13 @@
       </c>
       <c r="S109" s="45"/>
       <c r="T109" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U109" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="V109" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="W109" s="45"/>
       <c r="X109" s="46"/>
@@ -11239,7 +11260,7 @@
         <v>56</v>
       </c>
       <c r="C110" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D110" s="45">
         <v>3</v>
@@ -11286,13 +11307,13 @@
       </c>
       <c r="S110" s="45"/>
       <c r="T110" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U110" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="V110" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="W110" s="45"/>
       <c r="X110" s="46"/>
@@ -11305,7 +11326,7 @@
         <v>56</v>
       </c>
       <c r="C111" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D111" s="45">
         <v>2</v>
@@ -11352,26 +11373,26 @@
       </c>
       <c r="S111" s="45"/>
       <c r="T111" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U111" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="V111" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="W111" s="45"/>
       <c r="X111" s="46"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="50" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B112" s="45" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C112" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D112" s="45">
         <v>5</v>
@@ -11420,10 +11441,10 @@
       </c>
       <c r="S112" s="45"/>
       <c r="T112" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U112" s="45" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="V112" s="45"/>
       <c r="W112" s="45"/>
@@ -11431,13 +11452,13 @@
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="50" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B113" s="45" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C113" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D113" s="45">
         <v>4</v>
@@ -11486,10 +11507,10 @@
       </c>
       <c r="S113" s="45"/>
       <c r="T113" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U113" s="45" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="V113" s="45"/>
       <c r="W113" s="45"/>
@@ -11497,13 +11518,13 @@
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="50" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B114" s="45" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C114" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D114" s="45">
         <v>3</v>
@@ -11552,10 +11573,10 @@
       </c>
       <c r="S114" s="45"/>
       <c r="T114" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U114" s="45" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="V114" s="45"/>
       <c r="W114" s="45"/>
@@ -11563,13 +11584,13 @@
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="50" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B115" s="45" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C115" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D115" s="45">
         <v>2</v>
@@ -11618,10 +11639,10 @@
       </c>
       <c r="S115" s="45"/>
       <c r="T115" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U115" s="45" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="V115" s="45"/>
       <c r="W115" s="45"/>
@@ -11629,13 +11650,13 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="50" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B116" s="45" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C116" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D116" s="45">
         <v>1</v>
@@ -11684,7 +11705,7 @@
       </c>
       <c r="S116" s="45"/>
       <c r="T116" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U116" s="45"/>
       <c r="V116" s="45"/>
@@ -11693,13 +11714,13 @@
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="50" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B117" s="45" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C117" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D117" s="45">
         <v>5</v>
@@ -11746,7 +11767,7 @@
       </c>
       <c r="S117" s="45"/>
       <c r="T117" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U117" s="45"/>
       <c r="V117" s="45"/>
@@ -11755,13 +11776,13 @@
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="50" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B118" s="45" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C118" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D118" s="45">
         <v>4</v>
@@ -11808,7 +11829,7 @@
       </c>
       <c r="S118" s="45"/>
       <c r="T118" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U118" s="45"/>
       <c r="V118" s="45"/>
@@ -11817,13 +11838,13 @@
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="50" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B119" s="45" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C119" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D119" s="45">
         <v>3</v>
@@ -11870,7 +11891,7 @@
       </c>
       <c r="S119" s="45"/>
       <c r="T119" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U119" s="45"/>
       <c r="V119" s="45"/>
@@ -11879,13 +11900,13 @@
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="50" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B120" s="45" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C120" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D120" s="45">
         <v>2</v>
@@ -11932,7 +11953,7 @@
       </c>
       <c r="S120" s="45"/>
       <c r="T120" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U120" s="45"/>
       <c r="V120" s="45"/>
@@ -11941,13 +11962,13 @@
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="50" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B121" s="45" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C121" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D121" s="45">
         <v>5</v>
@@ -11994,7 +12015,7 @@
       </c>
       <c r="S121" s="45"/>
       <c r="T121" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U121" s="45"/>
       <c r="V121" s="45"/>
@@ -12003,13 +12024,13 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="50" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B122" s="45" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C122" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D122" s="45">
         <v>4</v>
@@ -12056,7 +12077,7 @@
       </c>
       <c r="S122" s="45"/>
       <c r="T122" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U122" s="45"/>
       <c r="V122" s="45"/>
@@ -12065,13 +12086,13 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="50" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B123" s="45" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C123" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D123" s="45">
         <v>3</v>
@@ -12118,7 +12139,7 @@
       </c>
       <c r="S123" s="45"/>
       <c r="T123" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U123" s="45"/>
       <c r="V123" s="45"/>
@@ -12127,13 +12148,13 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="50" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B124" s="45" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C124" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D124" s="45">
         <v>2</v>
@@ -12180,7 +12201,7 @@
       </c>
       <c r="S124" s="45"/>
       <c r="T124" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U124" s="45"/>
       <c r="V124" s="45"/>
@@ -12189,13 +12210,13 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="50" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B125" s="45" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C125" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D125" s="45">
         <v>5</v>
@@ -12242,7 +12263,7 @@
       </c>
       <c r="S125" s="45"/>
       <c r="T125" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U125" s="45"/>
       <c r="V125" s="45"/>
@@ -12251,13 +12272,13 @@
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="50" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B126" s="45" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C126" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D126" s="45">
         <v>4</v>
@@ -12304,7 +12325,7 @@
       </c>
       <c r="S126" s="45"/>
       <c r="T126" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U126" s="45"/>
       <c r="V126" s="45"/>
@@ -12313,13 +12334,13 @@
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="50" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B127" s="45" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D127" s="45">
         <v>3</v>
@@ -12366,7 +12387,7 @@
       </c>
       <c r="S127" s="45"/>
       <c r="T127" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U127" s="45"/>
       <c r="V127" s="45"/>
@@ -12375,13 +12396,13 @@
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="50" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B128" s="45" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C128" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D128" s="45">
         <v>2</v>
@@ -12428,7 +12449,7 @@
       </c>
       <c r="S128" s="45"/>
       <c r="T128" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U128" s="45"/>
       <c r="V128" s="45"/>
@@ -16137,7 +16158,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B2" s="19">
         <v>400</v>
@@ -16557,7 +16578,7 @@
     </row>
     <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
@@ -16572,22 +16593,22 @@
     </row>
     <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
@@ -16597,12 +16618,12 @@
     </row>
     <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
@@ -16672,7 +16693,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
@@ -17732,30 +17753,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="N1" s="59" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="N1" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
     </row>
     <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -18731,13 +18752,13 @@
         <v>278</v>
       </c>
       <c r="J1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="P1">
         <v>550</v>
@@ -18745,7 +18766,7 @@
     </row>
     <row r="2" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B2" s="7">
         <v>0.2</v>
@@ -18770,7 +18791,7 @@
         <v>1000</v>
       </c>
       <c r="O2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P2">
         <v>450</v>
@@ -18778,7 +18799,7 @@
     </row>
     <row r="3" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B3" s="16">
         <v>0.2</v>
@@ -18801,7 +18822,7 @@
         <v>1000</v>
       </c>
       <c r="O3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -18832,7 +18853,7 @@
         <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P4">
         <f xml:space="preserve"> 10%</f>
@@ -18841,7 +18862,7 @@
     </row>
     <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B5" s="10">
         <v>0.4</v>
@@ -18866,7 +18887,7 @@
         <v>1000</v>
       </c>
       <c r="O5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -18971,7 +18992,7 @@
     </row>
     <row r="10" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B10" s="10">
         <v>0.4</v>
@@ -19116,7 +19137,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B16" s="10">
         <v>0.4</v>
@@ -19336,7 +19357,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -19354,7 +19375,7 @@
         <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H1" t="s">
         <v>56</v>
@@ -19362,25 +19383,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H2" t="s">
         <v>66</v>
@@ -19388,25 +19409,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -19414,7 +19435,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -19423,129 +19444,129 @@
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E4" t="s">
         <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -19553,28 +19574,28 @@
         <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -19582,22 +19603,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -19609,8 +19630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19623,17 +19644,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
-        <v>434</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="60" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -19651,38 +19672,38 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
@@ -19690,7 +19711,7 @@
         <v>335</v>
       </c>
       <c r="G6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H6" s="32">
         <v>1</v>
@@ -19698,10 +19719,10 @@
     </row>
     <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H7" s="31"/>
     </row>
@@ -19710,43 +19731,43 @@
         <v>145</v>
       </c>
       <c r="G8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G9" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G10" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H12" s="31">
         <v>5</v>
@@ -19754,10 +19775,10 @@
     </row>
     <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H13" s="31">
         <v>3</v>
@@ -19765,10 +19786,10 @@
     </row>
     <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H14" s="32"/>
     </row>
@@ -19777,10 +19798,10 @@
         <v>323</v>
       </c>
       <c r="B15" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G15" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H15" s="32">
         <v>3</v>
@@ -19788,37 +19809,37 @@
     </row>
     <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B16" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G16" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B17" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C17" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H18" s="32"/>
     </row>
@@ -19827,27 +19848,27 @@
         <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H19" s="31"/>
     </row>
     <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B20" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G20" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G21" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H21" s="31">
         <v>10</v>
@@ -19855,16 +19876,16 @@
     </row>
     <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B22" t="s">
         <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G22" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H22" s="32">
         <v>5</v>
@@ -19872,10 +19893,10 @@
     </row>
     <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G23" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H23" s="31">
         <v>3</v>
@@ -19883,10 +19904,10 @@
     </row>
     <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G24" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H24" s="31"/>
     </row>
@@ -19895,22 +19916,22 @@
         <v>316</v>
       </c>
       <c r="G25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B26" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C26" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G26" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H26" s="31">
         <v>3</v>
@@ -19918,19 +19939,19 @@
     </row>
     <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G27" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H27" s="31"/>
     </row>
     <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G28" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H28" s="32">
         <v>3</v>
@@ -19938,69 +19959,69 @@
     </row>
     <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B29" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G29" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G30" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H30" s="31"/>
     </row>
     <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G31" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G32" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H32" s="31"/>
     </row>
     <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G33" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H33" s="32"/>
     </row>
     <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H34" s="31"/>
     </row>
     <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B35" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G35" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H35" s="31">
         <v>5</v>
@@ -20008,37 +20029,37 @@
     </row>
     <row r="36" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G36" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G37" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H37" s="31"/>
     </row>
     <row r="38" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G38" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H38" s="31"/>
     </row>
     <row r="39" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G39" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H39" s="31">
         <v>3</v>
@@ -20046,22 +20067,22 @@
     </row>
     <row r="40" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G40" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H40" s="32"/>
     </row>
     <row r="41" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>597</v>
+      </c>
+      <c r="B41" t="s">
+        <v>598</v>
+      </c>
+      <c r="G41" t="s">
         <v>599</v>
-      </c>
-      <c r="B41" t="s">
-        <v>600</v>
-      </c>
-      <c r="G41" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
@@ -20069,7 +20090,7 @@
         <v>150</v>
       </c>
       <c r="G42" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H42" s="32">
         <v>3</v>
@@ -20077,30 +20098,30 @@
     </row>
     <row r="43" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G43" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>533</v>
+      </c>
+      <c r="B44" t="s">
+        <v>534</v>
+      </c>
+      <c r="G44" t="s">
         <v>535</v>
-      </c>
-      <c r="B44" t="s">
-        <v>536</v>
-      </c>
-      <c r="G44" t="s">
-        <v>537</v>
       </c>
       <c r="H44" s="31"/>
     </row>
     <row r="45" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G45" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H45" s="31">
         <v>3</v>
@@ -20108,10 +20129,10 @@
     </row>
     <row r="46" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G46" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -20119,13 +20140,13 @@
     </row>
     <row r="47" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>632</v>
+      </c>
+      <c r="B47" t="s">
+        <v>633</v>
+      </c>
+      <c r="G47" t="s">
         <v>634</v>
-      </c>
-      <c r="B47" t="s">
-        <v>635</v>
-      </c>
-      <c r="G47" t="s">
-        <v>636</v>
       </c>
       <c r="H47">
         <v>5</v>
@@ -20133,69 +20154,69 @@
     </row>
     <row r="48" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G48" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G49" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G50" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G51" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H51" s="31"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G52" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H52" s="31"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B53" t="s">
         <v>174</v>
       </c>
       <c r="C53" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D53" t="s">
         <v>328</v>
       </c>
       <c r="G53" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G54" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H54">
         <v>5</v>
@@ -20203,10 +20224,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G55" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H55" s="31">
         <v>3</v>
@@ -20214,10 +20235,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G56" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H56" s="31">
         <v>3</v>
@@ -20225,48 +20246,48 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G57" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H57" s="36"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G58" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G59" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H59" s="35"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G60" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H60" s="36"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B61" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G61" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -20274,19 +20295,19 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G62" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H62" s="36"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G63" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H63" s="36">
         <v>3</v>
@@ -20294,100 +20315,100 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G64" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H64" s="36"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>627</v>
+      </c>
+      <c r="B65" t="s">
+        <v>628</v>
+      </c>
+      <c r="G65" t="s">
         <v>629</v>
-      </c>
-      <c r="B65" t="s">
-        <v>630</v>
-      </c>
-      <c r="G65" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G66" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H66" s="36"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G68" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="34" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B69" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G69" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H69" s="36"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G70" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H70" s="36"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G71" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H71" s="36"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>520</v>
+      </c>
+      <c r="B72" t="s">
         <v>522</v>
       </c>
-      <c r="B72" t="s">
-        <v>524</v>
-      </c>
       <c r="G72" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H72" s="36"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>635</v>
+      </c>
+      <c r="B73" t="s">
+        <v>636</v>
+      </c>
+      <c r="G73" t="s">
         <v>637</v>
-      </c>
-      <c r="B73" t="s">
-        <v>638</v>
-      </c>
-      <c r="G73" t="s">
-        <v>639</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -20395,10 +20416,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G74" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H74" s="36">
         <v>5</v>
@@ -20406,21 +20427,21 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G75" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>610</v>
+      </c>
+      <c r="B76" t="s">
+        <v>611</v>
+      </c>
+      <c r="G76" t="s">
         <v>612</v>
-      </c>
-      <c r="B76" t="s">
-        <v>613</v>
-      </c>
-      <c r="G76" t="s">
-        <v>614</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -20428,38 +20449,38 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G77" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H77" s="36"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G78" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>605</v>
+      </c>
+      <c r="B79" t="s">
+        <v>606</v>
+      </c>
+      <c r="G79" t="s">
         <v>607</v>
-      </c>
-      <c r="B79" t="s">
-        <v>608</v>
-      </c>
-      <c r="G79" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G80" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H80">
         <v>5</v>
@@ -20467,27 +20488,27 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B81" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G81" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B82" t="s">
+        <v>677</v>
+      </c>
+      <c r="C82" t="s">
+        <v>678</v>
+      </c>
+      <c r="G82" t="s">
         <v>679</v>
-      </c>
-      <c r="C82" t="s">
-        <v>680</v>
-      </c>
-      <c r="G82" t="s">
-        <v>681</v>
       </c>
       <c r="H82">
         <v>5</v>
@@ -20495,24 +20516,24 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>685</v>
+      </c>
+      <c r="B83" t="s">
+        <v>686</v>
+      </c>
+      <c r="G83" t="s">
         <v>687</v>
-      </c>
-      <c r="B83" t="s">
-        <v>688</v>
-      </c>
-      <c r="G83" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>697</v>
+      </c>
+      <c r="B84" t="s">
+        <v>698</v>
+      </c>
+      <c r="G84" t="s">
         <v>699</v>
-      </c>
-      <c r="B84" t="s">
-        <v>700</v>
-      </c>
-      <c r="G84" t="s">
-        <v>701</v>
       </c>
       <c r="H84">
         <v>5</v>
@@ -20531,815 +20552,858 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="87.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="35"/>
+    <col min="2" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="87.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="D1" s="59" t="s">
-        <v>434</v>
-      </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>432</v>
+      </c>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>454</v>
-      </c>
-      <c r="C2" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="D2" s="31">
-        <v>1</v>
-      </c>
       <c r="E2" s="31">
+        <v>1</v>
+      </c>
+      <c r="F2" s="31">
         <v>2</v>
       </c>
-      <c r="F2" s="31">
+      <c r="G2" s="31">
         <v>3</v>
       </c>
-      <c r="G2" s="31">
+      <c r="H2" s="31">
         <v>4</v>
       </c>
-      <c r="H2" s="31">
+      <c r="I2" s="31">
         <v>5</v>
       </c>
-      <c r="I2" s="31" t="s">
-        <v>445</v>
-      </c>
       <c r="J2" s="31" t="s">
-        <v>433</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>443</v>
-      </c>
-      <c r="C3" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="D3" s="31"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="31" t="s">
+        <v>439</v>
+      </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
-      <c r="I3" s="31">
+      <c r="I3" s="31"/>
+      <c r="J3" s="31">
         <v>4</v>
       </c>
-      <c r="J3" s="31" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K3" s="31" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>443</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>451</v>
-      </c>
-      <c r="D4" s="31"/>
+        <v>441</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="31" t="s">
+        <v>449</v>
+      </c>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
-      <c r="I4" s="31">
+      <c r="I4" s="31"/>
+      <c r="J4" s="31">
         <v>4</v>
       </c>
-      <c r="J4" s="31" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K4" s="31" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>442</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>489</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="K5" s="35">
+      <c r="K5" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="L5" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="I6" s="33">
+        <v>440</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="J6" s="33">
         <v>6</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="K6" s="33" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="J7" s="33">
+        <v>6</v>
+      </c>
+      <c r="K7" s="33" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="C7" s="33" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>561</v>
-      </c>
-      <c r="I7" s="33">
-        <v>6</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>563</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>491</v>
-      </c>
+      <c r="C8" s="59"/>
       <c r="D8" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="I8" s="33">
+        <v>489</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="J8" s="33">
         <v>6</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="K8" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="L8" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="K8" s="35">
+      <c r="E9" t="s">
+        <v>554</v>
+      </c>
+      <c r="J9" s="33">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="D9" t="s">
-        <v>556</v>
-      </c>
-      <c r="I9" s="33">
-        <v>3</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K9" s="33" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="J10" s="33">
+        <v>5</v>
+      </c>
+      <c r="K10" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="I10" s="33">
-        <v>5</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>561</v>
-      </c>
-      <c r="I11" s="33">
+      <c r="C11" s="59"/>
+      <c r="D11" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="J11" s="33">
         <v>6</v>
       </c>
-      <c r="J11" s="33" t="s">
-        <v>649</v>
-      </c>
-      <c r="K11" s="35">
+      <c r="K11" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="L11" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>451</v>
-      </c>
+      <c r="C12" s="59"/>
       <c r="D12" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="I12" s="33">
+        <v>449</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="J12" s="33">
         <v>3</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="K12" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="L12" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
         <v>570</v>
-      </c>
-      <c r="K12" s="35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>572</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>491</v>
-      </c>
-      <c r="I13" s="33">
+      <c r="C13" s="59"/>
+      <c r="D13" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="J13" s="33">
         <v>4</v>
       </c>
-      <c r="J13" s="33" t="s">
-        <v>573</v>
-      </c>
-      <c r="K13" s="35">
+      <c r="K13" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="L13" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>561</v>
-      </c>
+      <c r="C14" s="59"/>
       <c r="D14" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="J14" s="33">
+        <v>4</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
         <v>575</v>
-      </c>
-      <c r="I14" s="33">
-        <v>4</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>577</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>561</v>
-      </c>
+      <c r="C15" s="59"/>
       <c r="D15" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="I15" s="33">
+        <v>559</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="J15" s="33">
         <v>6</v>
       </c>
-      <c r="J15" s="33" t="s">
-        <v>578</v>
-      </c>
-      <c r="K15" s="35">
+      <c r="K15" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="L15" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>561</v>
-      </c>
-      <c r="I16" s="33">
+      <c r="C16" s="59"/>
+      <c r="D16" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="J16" s="33">
         <v>5</v>
       </c>
-      <c r="J16" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="K16" s="35">
+      <c r="K16" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="L16" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="I17" s="33">
-        <v>1</v>
-      </c>
-      <c r="J17" s="33" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="J17" s="33">
+        <v>1</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>582</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
-        <v>584</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>561</v>
-      </c>
-      <c r="I18" s="33">
+      <c r="C18" s="59"/>
+      <c r="D18" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="J18" s="33">
         <v>5</v>
       </c>
-      <c r="J18" s="33" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K18" s="33" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>561</v>
-      </c>
-      <c r="I19" s="33">
+      <c r="C19" s="59"/>
+      <c r="D19" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="J19" s="33">
         <v>3</v>
       </c>
-      <c r="J19" s="33" t="s">
-        <v>587</v>
-      </c>
-      <c r="K19" s="35">
+      <c r="K19" s="33" t="s">
+        <v>585</v>
+      </c>
+      <c r="L19" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>561</v>
-      </c>
-      <c r="I20" s="33">
+      <c r="C20" s="59"/>
+      <c r="D20" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="J20" s="33">
         <v>3</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="K20" s="33" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>588</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="C21" s="59"/>
+      <c r="D21" s="35" t="s">
+        <v>564</v>
+      </c>
+      <c r="E21" s="35" t="s">
         <v>590</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="J21" s="35">
+        <v>1</v>
+      </c>
+      <c r="K21" s="35" t="s">
         <v>591</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>566</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>592</v>
-      </c>
-      <c r="I21" s="35">
-        <v>1</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
+        <v>615</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="J22" t="s">
+        <v>616</v>
+      </c>
+      <c r="K22" s="36" t="s">
         <v>617</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>566</v>
-      </c>
-      <c r="I22" t="s">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
         <v>618</v>
       </c>
-      <c r="J22" s="36" t="s">
+      <c r="B23" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="J23" s="36">
+        <v>5</v>
+      </c>
+      <c r="K23" s="36" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
         <v>620</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="I23" s="36">
-        <v>5</v>
-      </c>
-      <c r="J23" s="36" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
-        <v>622</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="I24" s="36">
+      <c r="C24" s="59"/>
+      <c r="D24" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="J24" s="36">
         <v>4</v>
       </c>
-      <c r="J24" s="36" t="s">
+      <c r="K24" s="36" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>622</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="J25" s="36">
+        <v>5</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>688</v>
+      </c>
+      <c r="L25" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="B26" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="J26" s="36">
+        <v>4</v>
+      </c>
+      <c r="K26" s="36" t="s">
         <v>624</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="I25" s="36">
-        <v>5</v>
-      </c>
-      <c r="J25" s="36" t="s">
-        <v>690</v>
-      </c>
-      <c r="K25" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
         <v>625</v>
       </c>
-      <c r="B26" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="I26" s="36">
+      <c r="B27" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="J27" s="36">
         <v>4</v>
       </c>
-      <c r="J26" s="36" t="s">
+      <c r="K27" s="36" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
-        <v>627</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="I27" s="36">
-        <v>4</v>
-      </c>
-      <c r="J27" s="36" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="I28" s="36">
+      <c r="C28" s="59"/>
+      <c r="D28" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="J28" s="36">
         <v>7</v>
       </c>
-      <c r="J28" s="36" t="s">
-        <v>648</v>
-      </c>
-      <c r="K28" s="35">
+      <c r="K28" s="36" t="s">
+        <v>646</v>
+      </c>
+      <c r="L28" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B29" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="I29" s="36">
+      <c r="C29" s="59"/>
+      <c r="D29" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="J29" s="36">
         <v>0</v>
       </c>
-      <c r="J29" s="36" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K29" s="36" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B30" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="I30" s="36">
+      <c r="C30" s="59"/>
+      <c r="D30" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="J30" s="36">
         <v>3</v>
       </c>
-      <c r="J30" s="36" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K30" s="36" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="I31" s="36">
+      <c r="C31" s="59"/>
+      <c r="D31" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="J31" s="36">
         <v>4</v>
       </c>
-      <c r="J31" s="36" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K31" s="36" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
+        <v>669</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>674</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="J32" s="36">
+        <v>1</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
         <v>671</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B33" s="36" t="s">
+        <v>674</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="J33" s="36">
+        <v>0</v>
+      </c>
+      <c r="K33" s="36" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>674</v>
+      </c>
+      <c r="C34" s="59"/>
+      <c r="D34" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="J34" s="36">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>550</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>674</v>
+      </c>
+      <c r="C35" s="59"/>
+      <c r="D35" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>532</v>
+      </c>
+      <c r="J35" s="36">
+        <v>0</v>
+      </c>
+      <c r="K35" s="36" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>536</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>674</v>
+      </c>
+      <c r="C36" s="59"/>
+      <c r="D36" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="J36" s="36">
+        <v>0</v>
+      </c>
+      <c r="K36" s="36" t="s">
         <v>676</v>
       </c>
-      <c r="C32" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="I32" s="36">
-        <v>1</v>
-      </c>
-      <c r="J32" s="36" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
-        <v>673</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>676</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="I33" s="36">
-        <v>0</v>
-      </c>
-      <c r="J33" s="36" t="s">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>537</v>
+      </c>
+      <c r="B37" s="36" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>676</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="I34" s="36">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
-        <v>552</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>676</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="D35" s="36" t="s">
+      <c r="C37" s="59"/>
+      <c r="D37" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="K37" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>674</v>
+      </c>
+      <c r="C38" s="59"/>
+      <c r="D38" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>683</v>
+      </c>
+      <c r="K38" s="36" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
+        <v>689</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>674</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="E39" s="37" t="s">
         <v>534</v>
       </c>
-      <c r="I35" s="36">
-        <v>0</v>
-      </c>
-      <c r="J35" s="36" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
-        <v>538</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>676</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>527</v>
-      </c>
-      <c r="I36" s="36">
-        <v>0</v>
-      </c>
-      <c r="J36" s="36" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>539</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>676</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>527</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>540</v>
-      </c>
-      <c r="J37" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>683</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>676</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>684</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>685</v>
-      </c>
-      <c r="J38" s="36" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
+      <c r="K39" s="37" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
         <v>691</v>
       </c>
-      <c r="B39" s="37" t="s">
-        <v>676</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>536</v>
-      </c>
-      <c r="J39" s="37" t="s">
+      <c r="B40" s="37" t="s">
+        <v>674</v>
+      </c>
+      <c r="C40" s="59"/>
+      <c r="D40" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="K40" s="37" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
         <v>693</v>
       </c>
-      <c r="B40" s="37" t="s">
-        <v>676</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="J40" s="37" t="s">
+      <c r="B41" s="37" t="s">
+        <v>674</v>
+      </c>
+      <c r="C41" s="59"/>
+      <c r="E41" s="37" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="F41" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="B41" s="37" t="s">
-        <v>676</v>
-      </c>
-      <c r="D41" s="37" t="s">
+      <c r="K41" s="37" t="s">
         <v>696</v>
       </c>
-      <c r="E41" s="37" t="s">
-        <v>697</v>
-      </c>
-      <c r="J41" s="37" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I43" s="32"/>
-      <c r="K43"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J43" s="32"/>
+      <c r="L43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="E1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
@@ -21689,10 +21753,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21701,88 +21765,82 @@
     <col min="2" max="2" width="85.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
@@ -21868,41 +21926,41 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:K47"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
-        <v>419</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="30"/>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C1" s="60" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>
       <c r="O1" s="30"/>
@@ -21911,312 +21969,384 @@
       <c r="R1" s="30"/>
       <c r="S1" s="30"/>
       <c r="T1" s="30"/>
-    </row>
-    <row r="2" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>1</v>
+      <c r="U1" s="30"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>789</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>7</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C59" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -22224,7 +22354,7 @@
     <sortCondition ref="A1:A57"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="C1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22234,7 +22364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -22400,27 +22530,27 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
@@ -22430,7 +22560,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="949">
   <si>
     <t>Fishing</t>
   </si>
@@ -3277,9 +3277,6 @@
     <t>Finish Trollish</t>
   </si>
   <si>
-    <t>Lash</t>
-  </si>
-  <si>
     <t>Weapon Abilities</t>
   </si>
   <si>
@@ -3542,6 +3539,15 @@
   </si>
   <si>
     <t>Bottlenecks</t>
+  </si>
+  <si>
+    <t>Shield Bash</t>
+  </si>
+  <si>
+    <t>Pull</t>
+  </si>
+  <si>
+    <t>Poke</t>
   </si>
 </sst>
 </file>
@@ -4721,24 +4727,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4758,6 +4746,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5109,10 +5115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5127,29 +5133,29 @@
       <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="132" t="s">
         <v>847</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="140"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="134"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="116">
         <v>1</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="135" t="s">
         <v>848</v>
       </c>
-      <c r="C3" s="142"/>
+      <c r="C3" s="136"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="117">
         <v>2</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="139" t="s">
         <v>849</v>
       </c>
-      <c r="C4" s="133"/>
+      <c r="C4" s="140"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="117"/>
@@ -5172,7 +5178,7 @@
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="117"/>
       <c r="B7" s="121" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C7" s="122" t="s">
         <v>112</v>
@@ -5182,54 +5188,54 @@
       <c r="A8" s="117">
         <v>3</v>
       </c>
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="141" t="s">
         <v>850</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="142"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="117">
         <v>4</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="143" t="s">
         <v>851</v>
       </c>
-      <c r="C9" s="137"/>
+      <c r="C9" s="144"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="117">
         <v>5</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="143" t="s">
         <v>852</v>
       </c>
-      <c r="C10" s="137"/>
+      <c r="C10" s="144"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="118">
         <v>6</v>
       </c>
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="137" t="s">
         <v>857</v>
       </c>
-      <c r="C11" s="144"/>
+      <c r="C11" s="138"/>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="132" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="140"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="134"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="116">
         <v>1</v>
       </c>
-      <c r="B14" s="141" t="s">
-        <v>859</v>
-      </c>
-      <c r="C14" s="142"/>
+      <c r="B14" s="135" t="s">
+        <v>858</v>
+      </c>
+      <c r="C14" s="136"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="117"/>
@@ -5237,7 +5243,7 @@
         <v>853</v>
       </c>
       <c r="C15" s="120" t="s">
-        <v>858</v>
+        <v>946</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5246,22 +5252,22 @@
         <v>854</v>
       </c>
       <c r="C16" s="126" t="s">
-        <v>63</v>
+        <v>695</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="117"/>
       <c r="B17" s="125" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C17" s="126" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="117"/>
       <c r="B18" s="125" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C18" s="126" t="s">
         <v>735</v>
@@ -5269,1082 +5275,1158 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="117"/>
-      <c r="B19" s="121" t="s">
-        <v>865</v>
-      </c>
-      <c r="C19" s="122" t="s">
+      <c r="B19" s="128" t="s">
+        <v>864</v>
+      </c>
+      <c r="C19" s="129" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="117"/>
+      <c r="B20" s="128" t="s">
+        <v>895</v>
+      </c>
+      <c r="C20" s="129" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="117"/>
+      <c r="B21" s="128" t="s">
+        <v>897</v>
+      </c>
+      <c r="C21" s="129" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="117"/>
+      <c r="B22" s="128" t="s">
+        <v>899</v>
+      </c>
+      <c r="C22" s="129" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="117"/>
+      <c r="B23" s="121" t="s">
+        <v>900</v>
+      </c>
+      <c r="C23" s="122" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="132" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="138" t="s">
+      <c r="B25" s="133"/>
+      <c r="C25" s="134"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="116">
+        <v>1</v>
+      </c>
+      <c r="B26" s="135" t="s">
+        <v>847</v>
+      </c>
+      <c r="C26" s="136"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="117"/>
+      <c r="B27" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C27" s="120" t="s">
         <v>862</v>
       </c>
-      <c r="B21" s="139"/>
-      <c r="C21" s="140"/>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="116">
-        <v>1</v>
-      </c>
-      <c r="B22" s="141" t="s">
-        <v>847</v>
-      </c>
-      <c r="C22" s="142"/>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="117"/>
-      <c r="B23" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C23" s="120" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="117"/>
-      <c r="B24" s="125" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="117"/>
+      <c r="B28" s="125" t="s">
         <v>854</v>
       </c>
-      <c r="C24" s="126" t="s">
+      <c r="C28" s="126" t="s">
         <v>856</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="117"/>
-      <c r="B25" s="125" t="s">
-        <v>860</v>
-      </c>
-      <c r="C25" s="126" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="117"/>
-      <c r="B26" s="121" t="s">
-        <v>864</v>
-      </c>
-      <c r="C26" s="122" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="117">
-        <v>2</v>
-      </c>
-      <c r="B27" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="133"/>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="117"/>
-      <c r="B28" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C28" s="120" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="117"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="122"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B29" s="125" t="s">
+        <v>859</v>
+      </c>
+      <c r="C29" s="126" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="117"/>
+      <c r="B30" s="121" t="s">
+        <v>863</v>
+      </c>
+      <c r="C30" s="122" t="s">
+        <v>867</v>
+      </c>
+    </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="138" t="s">
+      <c r="A31" s="117">
+        <v>2</v>
+      </c>
+      <c r="B31" s="139" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="140"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="117"/>
+      <c r="B32" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C32" s="120" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="117"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="122"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="132" t="s">
+        <v>869</v>
+      </c>
+      <c r="B35" s="133"/>
+      <c r="C35" s="134"/>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="116">
+        <v>1</v>
+      </c>
+      <c r="B36" s="135" t="s">
         <v>870</v>
       </c>
-      <c r="B31" s="139"/>
-      <c r="C31" s="140"/>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="116">
-        <v>1</v>
-      </c>
-      <c r="B32" s="141" t="s">
+      <c r="C36" s="136"/>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="117"/>
+      <c r="B37" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C37" s="120" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="117"/>
+      <c r="B38" s="125" t="s">
+        <v>854</v>
+      </c>
+      <c r="C38" s="126" t="s">
         <v>871</v>
       </c>
-      <c r="C32" s="142"/>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="117"/>
-      <c r="B33" s="119" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="117"/>
+      <c r="B39" s="125" t="s">
+        <v>859</v>
+      </c>
+      <c r="C39" s="126" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="117"/>
+      <c r="B40" s="121" t="s">
+        <v>863</v>
+      </c>
+      <c r="C40" s="122" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="132" t="s">
+        <v>874</v>
+      </c>
+      <c r="B42" s="133"/>
+      <c r="C42" s="134"/>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="116">
+        <v>1</v>
+      </c>
+      <c r="B43" s="135" t="s">
+        <v>875</v>
+      </c>
+      <c r="C43" s="136"/>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="117"/>
+      <c r="B44" s="119" t="s">
         <v>853</v>
       </c>
-      <c r="C33" s="120" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="117"/>
-      <c r="B34" s="125" t="s">
+      <c r="C44" s="120" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="127"/>
+      <c r="B45" s="121" t="s">
         <v>854</v>
       </c>
-      <c r="C34" s="126" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="117"/>
-      <c r="B35" s="125" t="s">
-        <v>860</v>
-      </c>
-      <c r="C35" s="126" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="117"/>
-      <c r="B36" s="121" t="s">
-        <v>864</v>
-      </c>
-      <c r="C36" s="122" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="138" t="s">
-        <v>875</v>
-      </c>
-      <c r="B38" s="139"/>
-      <c r="C38" s="140"/>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="116">
-        <v>1</v>
-      </c>
-      <c r="B39" s="141" t="s">
-        <v>876</v>
-      </c>
-      <c r="C39" s="142"/>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="117"/>
-      <c r="B40" s="119" t="s">
+      <c r="C45" s="122" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="116">
+        <v>1</v>
+      </c>
+      <c r="B46" s="135" t="s">
+        <v>877</v>
+      </c>
+      <c r="C46" s="136"/>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="117"/>
+      <c r="B47" s="119" t="s">
         <v>853</v>
       </c>
-      <c r="C40" s="120" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="127"/>
-      <c r="B41" s="121" t="s">
+      <c r="C47" s="120" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="117"/>
+      <c r="B48" s="125" t="s">
         <v>854</v>
       </c>
-      <c r="C41" s="122" t="s">
+      <c r="C48" s="126" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="117"/>
+      <c r="B49" s="125" t="s">
+        <v>859</v>
+      </c>
+      <c r="C49" s="126" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="117"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="122"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="132" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" s="133"/>
+      <c r="C52" s="134"/>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="116">
+        <v>1</v>
+      </c>
+      <c r="B53" s="135" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="116">
-        <v>1</v>
-      </c>
-      <c r="B42" s="141" t="s">
-        <v>878</v>
-      </c>
-      <c r="C42" s="142"/>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="117"/>
-      <c r="B43" s="119" t="s">
+      <c r="C53" s="136"/>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="132" t="s">
+        <v>855</v>
+      </c>
+      <c r="B55" s="133"/>
+      <c r="C55" s="134"/>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="116">
+        <v>1</v>
+      </c>
+      <c r="B56" s="141" t="s">
+        <v>848</v>
+      </c>
+      <c r="C56" s="142"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="117">
+        <v>2</v>
+      </c>
+      <c r="B57" s="145" t="s">
+        <v>849</v>
+      </c>
+      <c r="C57" s="146"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="117">
+        <v>3</v>
+      </c>
+      <c r="B58" s="143" t="s">
+        <v>850</v>
+      </c>
+      <c r="C58" s="144"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="117">
+        <v>4</v>
+      </c>
+      <c r="B59" s="143" t="s">
+        <v>851</v>
+      </c>
+      <c r="C59" s="144"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="117">
+        <v>5</v>
+      </c>
+      <c r="B60" s="143" t="s">
+        <v>852</v>
+      </c>
+      <c r="C60" s="144"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="118">
+        <v>6</v>
+      </c>
+      <c r="B61" s="137" t="s">
+        <v>857</v>
+      </c>
+      <c r="C61" s="138"/>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="132" t="s">
+        <v>883</v>
+      </c>
+      <c r="B63" s="133"/>
+      <c r="C63" s="134"/>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="116">
+        <v>1</v>
+      </c>
+      <c r="B64" s="141" t="s">
+        <v>848</v>
+      </c>
+      <c r="C64" s="142"/>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="117">
+        <v>2</v>
+      </c>
+      <c r="B65" s="145" t="s">
+        <v>849</v>
+      </c>
+      <c r="C65" s="146"/>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="117">
+        <v>3</v>
+      </c>
+      <c r="B66" s="143" t="s">
+        <v>850</v>
+      </c>
+      <c r="C66" s="144"/>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="117">
+        <v>4</v>
+      </c>
+      <c r="B67" s="143" t="s">
+        <v>851</v>
+      </c>
+      <c r="C67" s="144"/>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="117">
+        <v>5</v>
+      </c>
+      <c r="B68" s="143" t="s">
+        <v>852</v>
+      </c>
+      <c r="C68" s="144"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="118">
+        <v>6</v>
+      </c>
+      <c r="B69" s="137" t="s">
+        <v>857</v>
+      </c>
+      <c r="C69" s="138"/>
+    </row>
+    <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="132" t="s">
+        <v>884</v>
+      </c>
+      <c r="B71" s="133"/>
+      <c r="C71" s="134"/>
+    </row>
+    <row r="72" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="116">
+        <v>1</v>
+      </c>
+      <c r="B72" s="141" t="s">
+        <v>848</v>
+      </c>
+      <c r="C72" s="142"/>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="117">
+        <v>2</v>
+      </c>
+      <c r="B73" s="145" t="s">
+        <v>849</v>
+      </c>
+      <c r="C73" s="146"/>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="117">
+        <v>3</v>
+      </c>
+      <c r="B74" s="143" t="s">
+        <v>850</v>
+      </c>
+      <c r="C74" s="144"/>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="117">
+        <v>4</v>
+      </c>
+      <c r="B75" s="143" t="s">
+        <v>851</v>
+      </c>
+      <c r="C75" s="144"/>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="117">
+        <v>5</v>
+      </c>
+      <c r="B76" s="143" t="s">
+        <v>852</v>
+      </c>
+      <c r="C76" s="144"/>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="118">
+        <v>6</v>
+      </c>
+      <c r="B77" s="137" t="s">
+        <v>857</v>
+      </c>
+      <c r="C77" s="138"/>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="132" t="s">
+        <v>934</v>
+      </c>
+      <c r="B79" s="133"/>
+      <c r="C79" s="134"/>
+    </row>
+    <row r="80" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="116">
+        <v>1</v>
+      </c>
+      <c r="B80" s="135" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="136"/>
+    </row>
+    <row r="81" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="127"/>
+      <c r="B81" s="119" t="s">
         <v>853</v>
       </c>
-      <c r="C43" s="120" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="117"/>
-      <c r="B44" s="125" t="s">
-        <v>854</v>
-      </c>
-      <c r="C44" s="126" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="117"/>
-      <c r="B45" s="125" t="s">
-        <v>860</v>
-      </c>
-      <c r="C45" s="126" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="117"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="122"/>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="138" t="s">
-        <v>213</v>
-      </c>
-      <c r="B48" s="139"/>
-      <c r="C48" s="140"/>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="116">
-        <v>1</v>
-      </c>
-      <c r="B49" s="141" t="s">
-        <v>883</v>
-      </c>
-      <c r="C49" s="142"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="138" t="s">
-        <v>855</v>
-      </c>
-      <c r="B51" s="139"/>
-      <c r="C51" s="140"/>
-    </row>
-    <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="116">
-        <v>1</v>
-      </c>
-      <c r="B52" s="134" t="s">
-        <v>848</v>
-      </c>
-      <c r="C52" s="135"/>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="117">
-        <v>2</v>
-      </c>
-      <c r="B53" s="145" t="s">
-        <v>849</v>
-      </c>
-      <c r="C53" s="146"/>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="117">
-        <v>3</v>
-      </c>
-      <c r="B54" s="136" t="s">
-        <v>850</v>
-      </c>
-      <c r="C54" s="137"/>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="117">
-        <v>4</v>
-      </c>
-      <c r="B55" s="136" t="s">
-        <v>851</v>
-      </c>
-      <c r="C55" s="137"/>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="117">
-        <v>5</v>
-      </c>
-      <c r="B56" s="136" t="s">
-        <v>852</v>
-      </c>
-      <c r="C56" s="137"/>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="118">
-        <v>6</v>
-      </c>
-      <c r="B57" s="143" t="s">
-        <v>857</v>
-      </c>
-      <c r="C57" s="144"/>
-    </row>
-    <row r="58" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="138" t="s">
-        <v>884</v>
-      </c>
-      <c r="B59" s="139"/>
-      <c r="C59" s="140"/>
-    </row>
-    <row r="60" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="116">
-        <v>1</v>
-      </c>
-      <c r="B60" s="134" t="s">
-        <v>848</v>
-      </c>
-      <c r="C60" s="135"/>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="117">
-        <v>2</v>
-      </c>
-      <c r="B61" s="145" t="s">
-        <v>849</v>
-      </c>
-      <c r="C61" s="146"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="117">
-        <v>3</v>
-      </c>
-      <c r="B62" s="136" t="s">
-        <v>850</v>
-      </c>
-      <c r="C62" s="137"/>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="117">
-        <v>4</v>
-      </c>
-      <c r="B63" s="136" t="s">
-        <v>851</v>
-      </c>
-      <c r="C63" s="137"/>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="117">
-        <v>5</v>
-      </c>
-      <c r="B64" s="136" t="s">
-        <v>852</v>
-      </c>
-      <c r="C64" s="137"/>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="118">
-        <v>6</v>
-      </c>
-      <c r="B65" s="143" t="s">
-        <v>857</v>
-      </c>
-      <c r="C65" s="144"/>
-    </row>
-    <row r="66" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="138" t="s">
-        <v>885</v>
-      </c>
-      <c r="B67" s="139"/>
-      <c r="C67" s="140"/>
-    </row>
-    <row r="68" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="116">
-        <v>1</v>
-      </c>
-      <c r="B68" s="134" t="s">
-        <v>848</v>
-      </c>
-      <c r="C68" s="135"/>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="117">
-        <v>2</v>
-      </c>
-      <c r="B69" s="145" t="s">
-        <v>849</v>
-      </c>
-      <c r="C69" s="146"/>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="117">
-        <v>3</v>
-      </c>
-      <c r="B70" s="136" t="s">
-        <v>850</v>
-      </c>
-      <c r="C70" s="137"/>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="117">
-        <v>4</v>
-      </c>
-      <c r="B71" s="136" t="s">
-        <v>851</v>
-      </c>
-      <c r="C71" s="137"/>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="117">
-        <v>5</v>
-      </c>
-      <c r="B72" s="136" t="s">
-        <v>852</v>
-      </c>
-      <c r="C72" s="137"/>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="118">
-        <v>6</v>
-      </c>
-      <c r="B73" s="143" t="s">
-        <v>857</v>
-      </c>
-      <c r="C73" s="144"/>
-    </row>
-    <row r="74" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="138" t="s">
-        <v>935</v>
-      </c>
-      <c r="B75" s="139"/>
-      <c r="C75" s="140"/>
-    </row>
-    <row r="76" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="116">
-        <v>1</v>
-      </c>
-      <c r="B76" s="141" t="s">
-        <v>102</v>
-      </c>
-      <c r="C76" s="142"/>
-    </row>
-    <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="127"/>
-      <c r="B77" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C77" s="120" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="127"/>
-      <c r="B78" s="130" t="s">
-        <v>854</v>
-      </c>
-      <c r="C78" s="131" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="127"/>
-      <c r="B79" s="130" t="s">
-        <v>860</v>
-      </c>
-      <c r="C79" s="131" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="127"/>
-      <c r="B80" s="130" t="s">
-        <v>864</v>
-      </c>
-      <c r="C80" s="131" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="127"/>
-      <c r="B81" s="130" t="s">
-        <v>865</v>
-      </c>
-      <c r="C81" s="131" t="s">
-        <v>916</v>
+      <c r="C81" s="120" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="127"/>
       <c r="B82" s="130" t="s">
-        <v>896</v>
+        <v>854</v>
       </c>
       <c r="C82" s="131" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="127"/>
       <c r="B83" s="130" t="s">
-        <v>898</v>
+        <v>859</v>
       </c>
       <c r="C83" s="131" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="127"/>
       <c r="B84" s="130" t="s">
-        <v>900</v>
+        <v>863</v>
       </c>
       <c r="C84" s="131" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="127"/>
       <c r="B85" s="130" t="s">
-        <v>901</v>
+        <v>864</v>
       </c>
       <c r="C85" s="131" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="117"/>
-      <c r="B86" s="125" t="s">
-        <v>902</v>
-      </c>
-      <c r="C86" s="126" t="s">
-        <v>921</v>
+      <c r="A86" s="127"/>
+      <c r="B86" s="130" t="s">
+        <v>895</v>
+      </c>
+      <c r="C86" s="131" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="117"/>
-      <c r="B87" s="125" t="s">
-        <v>903</v>
-      </c>
-      <c r="C87" s="126" t="s">
-        <v>922</v>
+      <c r="A87" s="127"/>
+      <c r="B87" s="130" t="s">
+        <v>897</v>
+      </c>
+      <c r="C87" s="131" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="117"/>
-      <c r="B88" s="125" t="s">
-        <v>904</v>
-      </c>
-      <c r="C88" s="126" t="s">
-        <v>923</v>
+      <c r="A88" s="127"/>
+      <c r="B88" s="130" t="s">
+        <v>899</v>
+      </c>
+      <c r="C88" s="131" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="117"/>
-      <c r="B89" s="125" t="s">
-        <v>905</v>
-      </c>
-      <c r="C89" s="126" t="s">
-        <v>924</v>
+      <c r="A89" s="127"/>
+      <c r="B89" s="130" t="s">
+        <v>900</v>
+      </c>
+      <c r="C89" s="131" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="117"/>
       <c r="B90" s="125" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C90" s="126" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="117"/>
       <c r="B91" s="125" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="C91" s="126" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="117"/>
       <c r="B92" s="125" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="C92" s="126" t="s">
-        <v>35</v>
+        <v>922</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="117"/>
       <c r="B93" s="125" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="C93" s="126" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="117"/>
       <c r="B94" s="125" t="s">
-        <v>910</v>
-      </c>
-      <c r="C94" s="126"/>
+        <v>905</v>
+      </c>
+      <c r="C94" s="126" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="117"/>
-      <c r="B95" s="121" t="s">
-        <v>911</v>
-      </c>
-      <c r="C95" s="122"/>
-    </row>
-    <row r="96" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="117">
-        <v>2</v>
-      </c>
-      <c r="B96" s="132" t="s">
-        <v>886</v>
-      </c>
-      <c r="C96" s="133"/>
-    </row>
-    <row r="97" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="125" t="s">
+        <v>906</v>
+      </c>
+      <c r="C95" s="126" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="117"/>
+      <c r="B96" s="125" t="s">
+        <v>907</v>
+      </c>
+      <c r="C96" s="126" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="117"/>
-      <c r="B97" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C97" s="120" t="s">
-        <v>899</v>
+      <c r="B97" s="125" t="s">
+        <v>908</v>
+      </c>
+      <c r="C97" s="126" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="117"/>
       <c r="B98" s="125" t="s">
-        <v>854</v>
-      </c>
-      <c r="C98" s="126" t="s">
-        <v>928</v>
-      </c>
+        <v>909</v>
+      </c>
+      <c r="C98" s="126"/>
     </row>
     <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="117"/>
-      <c r="B99" s="125" t="s">
-        <v>860</v>
-      </c>
-      <c r="C99" s="126" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="117"/>
-      <c r="B100" s="125" t="s">
-        <v>864</v>
-      </c>
-      <c r="C100" s="126" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="121" t="s">
+        <v>910</v>
+      </c>
+      <c r="C99" s="122"/>
+    </row>
+    <row r="100" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="117">
+        <v>2</v>
+      </c>
+      <c r="B100" s="139" t="s">
+        <v>885</v>
+      </c>
+      <c r="C100" s="140"/>
+    </row>
+    <row r="101" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="117"/>
-      <c r="B101" s="125" t="s">
-        <v>865</v>
-      </c>
-      <c r="C101" s="126" t="s">
-        <v>931</v>
+      <c r="B101" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C101" s="120" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="117"/>
-      <c r="B102" s="128" t="s">
-        <v>896</v>
-      </c>
-      <c r="C102" s="129" t="s">
-        <v>932</v>
+      <c r="B102" s="125" t="s">
+        <v>854</v>
+      </c>
+      <c r="C102" s="126" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="117"/>
-      <c r="B103" s="128" t="s">
-        <v>898</v>
-      </c>
-      <c r="C103" s="129" t="s">
-        <v>933</v>
+      <c r="B103" s="125" t="s">
+        <v>859</v>
+      </c>
+      <c r="C103" s="126" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="117"/>
-      <c r="B104" s="121" t="s">
-        <v>900</v>
-      </c>
-      <c r="C104" s="122" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="117">
-        <v>3</v>
-      </c>
-      <c r="B105" s="134" t="s">
-        <v>887</v>
-      </c>
-      <c r="C105" s="135"/>
-    </row>
-    <row r="106" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="125" t="s">
+        <v>863</v>
+      </c>
+      <c r="C104" s="126" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="117"/>
+      <c r="B105" s="125" t="s">
+        <v>864</v>
+      </c>
+      <c r="C105" s="126" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="117"/>
-      <c r="B106" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C106" s="120" t="s">
-        <v>893</v>
+      <c r="B106" s="128" t="s">
+        <v>895</v>
+      </c>
+      <c r="C106" s="129" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="117"/>
-      <c r="B107" s="125" t="s">
-        <v>854</v>
-      </c>
-      <c r="C107" s="126" t="s">
-        <v>894</v>
+      <c r="B107" s="128" t="s">
+        <v>897</v>
+      </c>
+      <c r="C107" s="129" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="117"/>
-      <c r="B108" s="125" t="s">
-        <v>860</v>
-      </c>
-      <c r="C108" s="126" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="117"/>
-      <c r="B109" s="128" t="s">
-        <v>864</v>
-      </c>
-      <c r="C109" s="129" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="121" t="s">
+        <v>899</v>
+      </c>
+      <c r="C108" s="122" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="117">
+        <v>3</v>
+      </c>
+      <c r="B109" s="141" t="s">
+        <v>886</v>
+      </c>
+      <c r="C109" s="142"/>
+    </row>
+    <row r="110" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="117"/>
-      <c r="B110" s="128" t="s">
-        <v>865</v>
-      </c>
-      <c r="C110" s="129" t="s">
-        <v>897</v>
+      <c r="B110" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C110" s="120" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="117"/>
-      <c r="B111" s="121"/>
-      <c r="C111" s="122"/>
-    </row>
-    <row r="112" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="116">
-        <v>4</v>
-      </c>
-      <c r="B112" s="136" t="s">
-        <v>888</v>
-      </c>
-      <c r="C112" s="137"/>
-    </row>
-    <row r="113" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="127"/>
-      <c r="B113" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C113" s="120" t="s">
-        <v>889</v>
+      <c r="B111" s="125" t="s">
+        <v>854</v>
+      </c>
+      <c r="C111" s="126" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="117"/>
+      <c r="B112" s="125" t="s">
+        <v>859</v>
+      </c>
+      <c r="C112" s="126" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="117"/>
+      <c r="B113" s="128" t="s">
+        <v>863</v>
+      </c>
+      <c r="C113" s="129" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="117"/>
-      <c r="B114" s="125" t="s">
-        <v>854</v>
-      </c>
-      <c r="C114" s="126" t="s">
-        <v>890</v>
+      <c r="B114" s="128" t="s">
+        <v>864</v>
+      </c>
+      <c r="C114" s="129" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="117"/>
-      <c r="B115" s="125" t="s">
-        <v>860</v>
-      </c>
-      <c r="C115" s="126" t="s">
+      <c r="B115" s="121"/>
+      <c r="C115" s="122"/>
+    </row>
+    <row r="116" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="116">
+        <v>4</v>
+      </c>
+      <c r="B116" s="143" t="s">
+        <v>887</v>
+      </c>
+      <c r="C116" s="144"/>
+    </row>
+    <row r="117" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="127"/>
+      <c r="B117" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C117" s="120" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="117"/>
+      <c r="B118" s="125" t="s">
+        <v>854</v>
+      </c>
+      <c r="C118" s="126" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="117"/>
+      <c r="B119" s="125" t="s">
+        <v>859</v>
+      </c>
+      <c r="C119" s="126" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="117"/>
+      <c r="B120" s="121" t="s">
+        <v>863</v>
+      </c>
+      <c r="C120" s="122" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="117"/>
-      <c r="B116" s="121" t="s">
-        <v>864</v>
-      </c>
-      <c r="C116" s="122" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="138" t="s">
+    <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="132" t="s">
+        <v>935</v>
+      </c>
+      <c r="B122" s="133"/>
+      <c r="C122" s="134"/>
+    </row>
+    <row r="123" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="116">
+        <v>1</v>
+      </c>
+      <c r="B123" s="135" t="s">
         <v>936</v>
       </c>
-      <c r="B118" s="139"/>
-      <c r="C118" s="140"/>
-    </row>
-    <row r="119" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="116">
-        <v>1</v>
-      </c>
-      <c r="B119" s="141" t="s">
-        <v>937</v>
-      </c>
-      <c r="C119" s="142"/>
-    </row>
-    <row r="120" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="127"/>
-      <c r="B120" s="119" t="s">
+      <c r="C123" s="136"/>
+    </row>
+    <row r="124" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="127"/>
+      <c r="B124" s="119" t="s">
         <v>853</v>
       </c>
-      <c r="C120" s="120" t="s">
+      <c r="C124" s="120" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="127"/>
-      <c r="B121" s="130" t="s">
-        <v>854</v>
-      </c>
-      <c r="C121" s="131" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="127"/>
-      <c r="B122" s="130" t="s">
-        <v>860</v>
-      </c>
-      <c r="C122" s="131" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="127"/>
-      <c r="B123" s="130" t="s">
-        <v>864</v>
-      </c>
-      <c r="C123" s="131" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="127"/>
-      <c r="B124" s="130" t="s">
-        <v>865</v>
-      </c>
-      <c r="C124" s="131"/>
     </row>
     <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="127"/>
       <c r="B125" s="130" t="s">
-        <v>896</v>
-      </c>
-      <c r="C125" s="131"/>
+        <v>854</v>
+      </c>
+      <c r="C125" s="131" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="127"/>
       <c r="B126" s="130" t="s">
-        <v>898</v>
-      </c>
-      <c r="C126" s="131"/>
+        <v>859</v>
+      </c>
+      <c r="C126" s="131" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="127"/>
       <c r="B127" s="130" t="s">
-        <v>900</v>
-      </c>
-      <c r="C127" s="131"/>
+        <v>863</v>
+      </c>
+      <c r="C127" s="131" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="127"/>
       <c r="B128" s="130" t="s">
-        <v>901</v>
+        <v>864</v>
       </c>
       <c r="C128" s="131"/>
     </row>
     <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="117"/>
-      <c r="B129" s="125" t="s">
-        <v>902</v>
-      </c>
-      <c r="C129" s="126"/>
+      <c r="A129" s="127"/>
+      <c r="B129" s="130" t="s">
+        <v>895</v>
+      </c>
+      <c r="C129" s="131"/>
     </row>
     <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="117"/>
-      <c r="B130" s="125" t="s">
-        <v>903</v>
-      </c>
-      <c r="C130" s="126"/>
+      <c r="A130" s="127"/>
+      <c r="B130" s="130" t="s">
+        <v>897</v>
+      </c>
+      <c r="C130" s="131"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="117"/>
-      <c r="B131" s="125" t="s">
-        <v>904</v>
-      </c>
-      <c r="C131" s="126"/>
+      <c r="A131" s="127"/>
+      <c r="B131" s="130" t="s">
+        <v>899</v>
+      </c>
+      <c r="C131" s="131"/>
     </row>
     <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="117"/>
-      <c r="B132" s="125" t="s">
-        <v>905</v>
-      </c>
-      <c r="C132" s="126"/>
+      <c r="A132" s="127"/>
+      <c r="B132" s="130" t="s">
+        <v>900</v>
+      </c>
+      <c r="C132" s="131"/>
     </row>
     <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="117"/>
       <c r="B133" s="125" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C133" s="126"/>
     </row>
     <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="117"/>
       <c r="B134" s="125" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="C134" s="126"/>
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="117"/>
       <c r="B135" s="125" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="C135" s="126"/>
     </row>
     <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="117"/>
       <c r="B136" s="125" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="C136" s="126"/>
     </row>
     <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="117"/>
       <c r="B137" s="125" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C137" s="126"/>
     </row>
     <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="117"/>
-      <c r="B138" s="121" t="s">
-        <v>911</v>
-      </c>
-      <c r="C138" s="122"/>
-    </row>
-    <row r="139" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="117">
-        <v>2</v>
-      </c>
-      <c r="B139" s="132" t="s">
-        <v>938</v>
-      </c>
-      <c r="C139" s="133"/>
-    </row>
-    <row r="140" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="125" t="s">
+        <v>906</v>
+      </c>
+      <c r="C138" s="126"/>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="117"/>
+      <c r="B139" s="125" t="s">
+        <v>907</v>
+      </c>
+      <c r="C139" s="126"/>
+    </row>
+    <row r="140" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="117"/>
-      <c r="B140" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C140" s="120" t="s">
-        <v>266</v>
-      </c>
+      <c r="B140" s="125" t="s">
+        <v>908</v>
+      </c>
+      <c r="C140" s="126"/>
     </row>
     <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="117"/>
       <c r="B141" s="125" t="s">
-        <v>854</v>
-      </c>
-      <c r="C141" s="126" t="s">
-        <v>940</v>
-      </c>
+        <v>909</v>
+      </c>
+      <c r="C141" s="126"/>
     </row>
     <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="117"/>
-      <c r="B142" s="125" t="s">
-        <v>860</v>
-      </c>
-      <c r="C142" s="126" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="117"/>
-      <c r="B143" s="125" t="s">
-        <v>864</v>
-      </c>
-      <c r="C143" s="126" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="121" t="s">
+        <v>910</v>
+      </c>
+      <c r="C142" s="122"/>
+    </row>
+    <row r="143" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="117">
+        <v>2</v>
+      </c>
+      <c r="B143" s="139" t="s">
+        <v>937</v>
+      </c>
+      <c r="C143" s="140"/>
+    </row>
+    <row r="144" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="117"/>
-      <c r="B144" s="125" t="s">
-        <v>865</v>
-      </c>
-      <c r="C144" s="126"/>
+      <c r="B144" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C144" s="120" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="117"/>
-      <c r="B145" s="128" t="s">
-        <v>896</v>
-      </c>
-      <c r="C145" s="129"/>
+      <c r="B145" s="125" t="s">
+        <v>854</v>
+      </c>
+      <c r="C145" s="126" t="s">
+        <v>939</v>
+      </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="117"/>
-      <c r="B146" s="128" t="s">
-        <v>898</v>
-      </c>
-      <c r="C146" s="129"/>
+      <c r="B146" s="125" t="s">
+        <v>859</v>
+      </c>
+      <c r="C146" s="126" t="s">
+        <v>940</v>
+      </c>
     </row>
     <row r="147" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="117"/>
-      <c r="B147" s="121" t="s">
-        <v>900</v>
-      </c>
-      <c r="C147" s="122"/>
-    </row>
-    <row r="148" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="117">
-        <v>3</v>
-      </c>
-      <c r="B148" s="134" t="s">
-        <v>939</v>
-      </c>
-      <c r="C148" s="135"/>
-    </row>
-    <row r="149" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="125" t="s">
+        <v>863</v>
+      </c>
+      <c r="C147" s="126" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="117"/>
+      <c r="B148" s="125" t="s">
+        <v>864</v>
+      </c>
+      <c r="C148" s="126"/>
+    </row>
+    <row r="149" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="117"/>
-      <c r="B149" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C149" s="120" t="s">
-        <v>944</v>
-      </c>
+      <c r="B149" s="128" t="s">
+        <v>895</v>
+      </c>
+      <c r="C149" s="129"/>
     </row>
     <row r="150" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="117"/>
-      <c r="B150" s="125" t="s">
-        <v>854</v>
-      </c>
-      <c r="C150" s="126" t="s">
-        <v>943</v>
-      </c>
+      <c r="B150" s="128" t="s">
+        <v>897</v>
+      </c>
+      <c r="C150" s="129"/>
     </row>
     <row r="151" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="117"/>
-      <c r="B151" s="125" t="s">
-        <v>860</v>
-      </c>
-      <c r="C151" s="126" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="117"/>
-      <c r="B152" s="128" t="s">
-        <v>864</v>
-      </c>
-      <c r="C152" s="129" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="121" t="s">
+        <v>899</v>
+      </c>
+      <c r="C151" s="122"/>
+    </row>
+    <row r="152" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="117">
+        <v>3</v>
+      </c>
+      <c r="B152" s="141" t="s">
+        <v>938</v>
+      </c>
+      <c r="C152" s="142"/>
+    </row>
+    <row r="153" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="117"/>
-      <c r="B153" s="128" t="s">
-        <v>865</v>
-      </c>
-      <c r="C153" s="129"/>
+      <c r="B153" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C153" s="120" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="117"/>
-      <c r="B154" s="121" t="s">
-        <v>896</v>
-      </c>
-      <c r="C154" s="122"/>
+      <c r="B154" s="125" t="s">
+        <v>854</v>
+      </c>
+      <c r="C154" s="126" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="117"/>
+      <c r="B155" s="125" t="s">
+        <v>859</v>
+      </c>
+      <c r="C155" s="126" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="117"/>
+      <c r="B156" s="128" t="s">
+        <v>863</v>
+      </c>
+      <c r="C156" s="129" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="117"/>
+      <c r="B157" s="128" t="s">
+        <v>864</v>
+      </c>
+      <c r="C157" s="129"/>
+    </row>
+    <row r="158" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="117"/>
+      <c r="B158" s="121" t="s">
+        <v>895</v>
+      </c>
+      <c r="C158" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B11:C11"/>
@@ -6354,46 +6436,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="B119:C119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -8885,9 +8927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V63" sqref="V63:V66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13132,9 +13174,7 @@
       <c r="U63" s="44" t="s">
         <v>715</v>
       </c>
-      <c r="V63" s="44" t="s">
-        <v>718</v>
-      </c>
+      <c r="V63" s="44"/>
       <c r="W63" s="44"/>
       <c r="X63" s="45"/>
     </row>
@@ -13200,9 +13240,7 @@
       <c r="U64" s="44" t="s">
         <v>715</v>
       </c>
-      <c r="V64" s="44" t="s">
-        <v>718</v>
-      </c>
+      <c r="V64" s="44"/>
       <c r="W64" s="44"/>
       <c r="X64" s="45"/>
     </row>
@@ -13268,9 +13306,7 @@
       <c r="U65" s="44" t="s">
         <v>715</v>
       </c>
-      <c r="V65" s="44" t="s">
-        <v>718</v>
-      </c>
+      <c r="V65" s="44"/>
       <c r="W65" s="44"/>
       <c r="X65" s="45"/>
     </row>
@@ -13336,9 +13372,7 @@
       <c r="U66" s="44" t="s">
         <v>715</v>
       </c>
-      <c r="V66" s="44" t="s">
-        <v>718</v>
-      </c>
+      <c r="V66" s="44"/>
       <c r="W66" s="44"/>
       <c r="X66" s="45"/>
     </row>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716"/>
   </bookViews>
   <sheets>
     <sheet name="TODO - Quick Battle" sheetId="37" r:id="rId1"/>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="948">
   <si>
     <t>Fishing</t>
   </si>
@@ -3269,9 +3269,6 @@
   </si>
   <si>
     <t>Perks</t>
-  </si>
-  <si>
-    <t>Dead Eyes on Critters</t>
   </si>
   <si>
     <t>Finish Trollish</t>
@@ -4727,6 +4724,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4746,24 +4761,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5115,10 +5112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5133,29 +5130,29 @@
       <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="138" t="s">
         <v>847</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="134"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="140"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="116">
         <v>1</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="141" t="s">
         <v>848</v>
       </c>
-      <c r="C3" s="136"/>
+      <c r="C3" s="142"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="117">
         <v>2</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="132" t="s">
         <v>849</v>
       </c>
-      <c r="C4" s="140"/>
+      <c r="C4" s="133"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="117"/>
@@ -5178,7 +5175,7 @@
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="117"/>
       <c r="B7" s="121" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C7" s="122" t="s">
         <v>112</v>
@@ -5188,54 +5185,54 @@
       <c r="A8" s="117">
         <v>3</v>
       </c>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="134" t="s">
         <v>850</v>
       </c>
-      <c r="C8" s="142"/>
+      <c r="C8" s="135"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="117">
         <v>4</v>
       </c>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="136" t="s">
         <v>851</v>
       </c>
-      <c r="C9" s="144"/>
+      <c r="C9" s="137"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="117">
         <v>5</v>
       </c>
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="136" t="s">
         <v>852</v>
       </c>
-      <c r="C10" s="144"/>
+      <c r="C10" s="137"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="118">
         <v>6</v>
       </c>
-      <c r="B11" s="137" t="s">
-        <v>857</v>
-      </c>
-      <c r="C11" s="138"/>
+      <c r="B11" s="143" t="s">
+        <v>856</v>
+      </c>
+      <c r="C11" s="144"/>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="138" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="133"/>
-      <c r="C13" s="134"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="140"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="116">
         <v>1</v>
       </c>
-      <c r="B14" s="135" t="s">
-        <v>858</v>
-      </c>
-      <c r="C14" s="136"/>
+      <c r="B14" s="141" t="s">
+        <v>857</v>
+      </c>
+      <c r="C14" s="142"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="117"/>
@@ -5243,7 +5240,7 @@
         <v>853</v>
       </c>
       <c r="C15" s="120" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5258,16 +5255,16 @@
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="117"/>
       <c r="B17" s="125" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C17" s="126" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="117"/>
       <c r="B18" s="125" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C18" s="126" t="s">
         <v>735</v>
@@ -5276,7 +5273,7 @@
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="117"/>
       <c r="B19" s="128" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C19" s="129" t="s">
         <v>718</v>
@@ -5285,7 +5282,7 @@
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="117"/>
       <c r="B20" s="128" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C20" s="129" t="s">
         <v>549</v>
@@ -5294,46 +5291,46 @@
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="117"/>
       <c r="B21" s="128" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C21" s="129" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="117"/>
       <c r="B22" s="128" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C22" s="129" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="117"/>
       <c r="B23" s="121" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C23" s="122" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="132" t="s">
-        <v>861</v>
-      </c>
-      <c r="B25" s="133"/>
-      <c r="C25" s="134"/>
+      <c r="A25" s="138" t="s">
+        <v>860</v>
+      </c>
+      <c r="B25" s="139"/>
+      <c r="C25" s="140"/>
     </row>
     <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="116">
         <v>1</v>
       </c>
-      <c r="B26" s="135" t="s">
+      <c r="B26" s="141" t="s">
         <v>847</v>
       </c>
-      <c r="C26" s="136"/>
+      <c r="C26" s="142"/>
     </row>
     <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="117"/>
@@ -5341,89 +5338,89 @@
         <v>853</v>
       </c>
       <c r="C27" s="120" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="117"/>
       <c r="B28" s="125" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C28" s="126" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="117"/>
-      <c r="B29" s="125" t="s">
-        <v>859</v>
-      </c>
-      <c r="C29" s="126" t="s">
+      <c r="B29" s="121" t="s">
+        <v>862</v>
+      </c>
+      <c r="C29" s="122" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="117"/>
-      <c r="B30" s="121" t="s">
-        <v>863</v>
-      </c>
-      <c r="C30" s="122" t="s">
+    <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="117">
+        <v>2</v>
+      </c>
+      <c r="B30" s="132" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="133"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="117"/>
+      <c r="B31" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C31" s="120" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="117">
-        <v>2</v>
-      </c>
-      <c r="B31" s="139" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="140"/>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="117"/>
-      <c r="B32" s="119" t="s">
+      <c r="B32" s="121"/>
+      <c r="C32" s="122"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="138" t="s">
+        <v>868</v>
+      </c>
+      <c r="B34" s="139"/>
+      <c r="C34" s="140"/>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="116">
+        <v>1</v>
+      </c>
+      <c r="B35" s="141" t="s">
+        <v>869</v>
+      </c>
+      <c r="C35" s="142"/>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="117"/>
+      <c r="B36" s="119" t="s">
         <v>853</v>
       </c>
-      <c r="C32" s="120" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="117"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="122"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="132" t="s">
-        <v>869</v>
-      </c>
-      <c r="B35" s="133"/>
-      <c r="C35" s="134"/>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="116">
-        <v>1</v>
-      </c>
-      <c r="B36" s="135" t="s">
+      <c r="C36" s="120" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="117"/>
+      <c r="B37" s="125" t="s">
+        <v>854</v>
+      </c>
+      <c r="C37" s="126" t="s">
         <v>870</v>
-      </c>
-      <c r="C36" s="136"/>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="117"/>
-      <c r="B37" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C37" s="120" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="117"/>
       <c r="B38" s="125" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C38" s="126" t="s">
         <v>871</v>
@@ -5431,79 +5428,79 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="117"/>
-      <c r="B39" s="125" t="s">
-        <v>859</v>
-      </c>
-      <c r="C39" s="126" t="s">
+      <c r="B39" s="121" t="s">
+        <v>862</v>
+      </c>
+      <c r="C39" s="122" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="117"/>
-      <c r="B40" s="121" t="s">
-        <v>863</v>
-      </c>
-      <c r="C40" s="122" t="s">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="138" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="140"/>
+    </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="132" t="s">
+      <c r="A42" s="116">
+        <v>1</v>
+      </c>
+      <c r="B42" s="141" t="s">
         <v>874</v>
       </c>
-      <c r="B42" s="133"/>
-      <c r="C42" s="134"/>
+      <c r="C42" s="142"/>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="116">
-        <v>1</v>
-      </c>
-      <c r="B43" s="135" t="s">
+      <c r="A43" s="117"/>
+      <c r="B43" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C43" s="120" t="s">
         <v>875</v>
       </c>
-      <c r="C43" s="136"/>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="117"/>
-      <c r="B44" s="119" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="127"/>
+      <c r="B44" s="121" t="s">
+        <v>854</v>
+      </c>
+      <c r="C44" s="122" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="116">
+        <v>1</v>
+      </c>
+      <c r="B45" s="141" t="s">
+        <v>876</v>
+      </c>
+      <c r="C45" s="142"/>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="117"/>
+      <c r="B46" s="119" t="s">
         <v>853</v>
       </c>
-      <c r="C44" s="120" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="127"/>
-      <c r="B45" s="121" t="s">
+      <c r="C46" s="120" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="117"/>
+      <c r="B47" s="125" t="s">
         <v>854</v>
       </c>
-      <c r="C45" s="122" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="116">
-        <v>1</v>
-      </c>
-      <c r="B46" s="135" t="s">
-        <v>877</v>
-      </c>
-      <c r="C46" s="136"/>
-    </row>
-    <row r="47" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="117"/>
-      <c r="B47" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C47" s="120" t="s">
+      <c r="C47" s="126" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="117"/>
       <c r="B48" s="125" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C48" s="126" t="s">
         <v>879</v>
@@ -5511,251 +5508,251 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="117"/>
-      <c r="B49" s="125" t="s">
-        <v>859</v>
-      </c>
-      <c r="C49" s="126" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="117"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="122"/>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="122"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="138" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" s="139"/>
+      <c r="C51" s="140"/>
+    </row>
     <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="132" t="s">
-        <v>213</v>
-      </c>
-      <c r="B52" s="133"/>
-      <c r="C52" s="134"/>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="116">
-        <v>1</v>
-      </c>
-      <c r="B53" s="135" t="s">
-        <v>882</v>
-      </c>
-      <c r="C53" s="136"/>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A52" s="116">
+        <v>1</v>
+      </c>
+      <c r="B52" s="141" t="s">
+        <v>881</v>
+      </c>
+      <c r="C52" s="142"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="138" t="s">
+        <v>855</v>
+      </c>
+      <c r="B54" s="139"/>
+      <c r="C54" s="140"/>
+    </row>
     <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="132" t="s">
-        <v>855</v>
-      </c>
-      <c r="B55" s="133"/>
-      <c r="C55" s="134"/>
-    </row>
-    <row r="56" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="116">
-        <v>1</v>
-      </c>
-      <c r="B56" s="141" t="s">
+      <c r="A55" s="116">
+        <v>1</v>
+      </c>
+      <c r="B55" s="134" t="s">
         <v>848</v>
       </c>
-      <c r="C56" s="142"/>
+      <c r="C55" s="135"/>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="117">
+        <v>2</v>
+      </c>
+      <c r="B56" s="145" t="s">
+        <v>849</v>
+      </c>
+      <c r="C56" s="146"/>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="117">
-        <v>2</v>
-      </c>
-      <c r="B57" s="145" t="s">
-        <v>849</v>
-      </c>
-      <c r="C57" s="146"/>
+        <v>3</v>
+      </c>
+      <c r="B57" s="136" t="s">
+        <v>850</v>
+      </c>
+      <c r="C57" s="137"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="117">
-        <v>3</v>
-      </c>
-      <c r="B58" s="143" t="s">
-        <v>850</v>
-      </c>
-      <c r="C58" s="144"/>
+        <v>4</v>
+      </c>
+      <c r="B58" s="136" t="s">
+        <v>851</v>
+      </c>
+      <c r="C58" s="137"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="117">
-        <v>4</v>
-      </c>
-      <c r="B59" s="143" t="s">
-        <v>851</v>
-      </c>
-      <c r="C59" s="144"/>
+        <v>5</v>
+      </c>
+      <c r="B59" s="136" t="s">
+        <v>852</v>
+      </c>
+      <c r="C59" s="137"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="117">
-        <v>5</v>
+      <c r="A60" s="118">
+        <v>6</v>
       </c>
       <c r="B60" s="143" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C60" s="144"/>
     </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="118">
-        <v>6</v>
-      </c>
-      <c r="B61" s="137" t="s">
-        <v>857</v>
-      </c>
-      <c r="C61" s="138"/>
-    </row>
-    <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="138" t="s">
+        <v>882</v>
+      </c>
+      <c r="B62" s="139"/>
+      <c r="C62" s="140"/>
+    </row>
     <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="132" t="s">
-        <v>883</v>
-      </c>
-      <c r="B63" s="133"/>
-      <c r="C63" s="134"/>
-    </row>
-    <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="116">
-        <v>1</v>
-      </c>
-      <c r="B64" s="141" t="s">
+      <c r="A63" s="116">
+        <v>1</v>
+      </c>
+      <c r="B63" s="134" t="s">
         <v>848</v>
       </c>
-      <c r="C64" s="142"/>
+      <c r="C63" s="135"/>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="117">
+        <v>2</v>
+      </c>
+      <c r="B64" s="145" t="s">
+        <v>849</v>
+      </c>
+      <c r="C64" s="146"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="117">
-        <v>2</v>
-      </c>
-      <c r="B65" s="145" t="s">
-        <v>849</v>
-      </c>
-      <c r="C65" s="146"/>
+        <v>3</v>
+      </c>
+      <c r="B65" s="136" t="s">
+        <v>850</v>
+      </c>
+      <c r="C65" s="137"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="117">
-        <v>3</v>
-      </c>
-      <c r="B66" s="143" t="s">
-        <v>850</v>
-      </c>
-      <c r="C66" s="144"/>
+        <v>4</v>
+      </c>
+      <c r="B66" s="136" t="s">
+        <v>851</v>
+      </c>
+      <c r="C66" s="137"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="117">
-        <v>4</v>
-      </c>
-      <c r="B67" s="143" t="s">
-        <v>851</v>
-      </c>
-      <c r="C67" s="144"/>
+        <v>5</v>
+      </c>
+      <c r="B67" s="136" t="s">
+        <v>852</v>
+      </c>
+      <c r="C67" s="137"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="117">
-        <v>5</v>
+      <c r="A68" s="118">
+        <v>6</v>
       </c>
       <c r="B68" s="143" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C68" s="144"/>
     </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="118">
-        <v>6</v>
-      </c>
-      <c r="B69" s="137" t="s">
-        <v>857</v>
-      </c>
-      <c r="C69" s="138"/>
-    </row>
-    <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="138" t="s">
+        <v>883</v>
+      </c>
+      <c r="B70" s="139"/>
+      <c r="C70" s="140"/>
+    </row>
     <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="132" t="s">
-        <v>884</v>
-      </c>
-      <c r="B71" s="133"/>
-      <c r="C71" s="134"/>
-    </row>
-    <row r="72" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="116">
-        <v>1</v>
-      </c>
-      <c r="B72" s="141" t="s">
+      <c r="A71" s="116">
+        <v>1</v>
+      </c>
+      <c r="B71" s="134" t="s">
         <v>848</v>
       </c>
-      <c r="C72" s="142"/>
+      <c r="C71" s="135"/>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="117">
+        <v>2</v>
+      </c>
+      <c r="B72" s="145" t="s">
+        <v>849</v>
+      </c>
+      <c r="C72" s="146"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="117">
-        <v>2</v>
-      </c>
-      <c r="B73" s="145" t="s">
-        <v>849</v>
-      </c>
-      <c r="C73" s="146"/>
+        <v>3</v>
+      </c>
+      <c r="B73" s="136" t="s">
+        <v>850</v>
+      </c>
+      <c r="C73" s="137"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="117">
-        <v>3</v>
-      </c>
-      <c r="B74" s="143" t="s">
-        <v>850</v>
-      </c>
-      <c r="C74" s="144"/>
+        <v>4</v>
+      </c>
+      <c r="B74" s="136" t="s">
+        <v>851</v>
+      </c>
+      <c r="C74" s="137"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="117">
-        <v>4</v>
-      </c>
-      <c r="B75" s="143" t="s">
-        <v>851</v>
-      </c>
-      <c r="C75" s="144"/>
+        <v>5</v>
+      </c>
+      <c r="B75" s="136" t="s">
+        <v>852</v>
+      </c>
+      <c r="C75" s="137"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="117">
-        <v>5</v>
+      <c r="A76" s="118">
+        <v>6</v>
       </c>
       <c r="B76" s="143" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C76" s="144"/>
     </row>
-    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="118">
-        <v>6</v>
-      </c>
-      <c r="B77" s="137" t="s">
-        <v>857</v>
-      </c>
-      <c r="C77" s="138"/>
-    </row>
-    <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="138" t="s">
+        <v>933</v>
+      </c>
+      <c r="B78" s="139"/>
+      <c r="C78" s="140"/>
+    </row>
     <row r="79" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="132" t="s">
-        <v>934</v>
-      </c>
-      <c r="B79" s="133"/>
-      <c r="C79" s="134"/>
+      <c r="A79" s="116">
+        <v>1</v>
+      </c>
+      <c r="B79" s="141" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="142"/>
     </row>
     <row r="80" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="116">
-        <v>1</v>
-      </c>
-      <c r="B80" s="135" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" s="136"/>
-    </row>
-    <row r="81" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="127"/>
+      <c r="B80" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C80" s="120" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="127"/>
-      <c r="B81" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C81" s="120" t="s">
+      <c r="B81" s="130" t="s">
+        <v>854</v>
+      </c>
+      <c r="C81" s="131" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="127"/>
       <c r="B82" s="130" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C82" s="131" t="s">
         <v>912</v>
@@ -5764,7 +5761,7 @@
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="127"/>
       <c r="B83" s="130" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C83" s="131" t="s">
         <v>913</v>
@@ -5782,7 +5779,7 @@
     <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="127"/>
       <c r="B85" s="130" t="s">
-        <v>864</v>
+        <v>894</v>
       </c>
       <c r="C85" s="131" t="s">
         <v>915</v>
@@ -5791,7 +5788,7 @@
     <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="127"/>
       <c r="B86" s="130" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C86" s="131" t="s">
         <v>916</v>
@@ -5800,7 +5797,7 @@
     <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="127"/>
       <c r="B87" s="130" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C87" s="131" t="s">
         <v>917</v>
@@ -5816,11 +5813,11 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="127"/>
-      <c r="B89" s="130" t="s">
+      <c r="A89" s="117"/>
+      <c r="B89" s="125" t="s">
         <v>900</v>
       </c>
-      <c r="C89" s="131" t="s">
+      <c r="C89" s="126" t="s">
         <v>919</v>
       </c>
     </row>
@@ -5875,7 +5872,7 @@
         <v>906</v>
       </c>
       <c r="C95" s="126" t="s">
-        <v>925</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5884,7 +5881,7 @@
         <v>907</v>
       </c>
       <c r="C96" s="126" t="s">
-        <v>35</v>
+        <v>925</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5892,46 +5889,46 @@
       <c r="B97" s="125" t="s">
         <v>908</v>
       </c>
-      <c r="C97" s="126" t="s">
-        <v>926</v>
-      </c>
+      <c r="C97" s="126"/>
     </row>
     <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="117"/>
-      <c r="B98" s="125" t="s">
+      <c r="B98" s="121" t="s">
         <v>909</v>
       </c>
-      <c r="C98" s="126"/>
-    </row>
-    <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="117"/>
-      <c r="B99" s="121" t="s">
-        <v>910</v>
-      </c>
-      <c r="C99" s="122"/>
+      <c r="C98" s="122"/>
+    </row>
+    <row r="99" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="117">
+        <v>2</v>
+      </c>
+      <c r="B99" s="132" t="s">
+        <v>884</v>
+      </c>
+      <c r="C99" s="133"/>
     </row>
     <row r="100" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="117">
-        <v>2</v>
-      </c>
-      <c r="B100" s="139" t="s">
-        <v>885</v>
-      </c>
-      <c r="C100" s="140"/>
-    </row>
-    <row r="101" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="117"/>
+      <c r="B100" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C100" s="120" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="117"/>
-      <c r="B101" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C101" s="120" t="s">
-        <v>898</v>
+      <c r="B101" s="125" t="s">
+        <v>854</v>
+      </c>
+      <c r="C101" s="126" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="117"/>
       <c r="B102" s="125" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C102" s="126" t="s">
         <v>927</v>
@@ -5940,7 +5937,7 @@
     <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="117"/>
       <c r="B103" s="125" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C103" s="126" t="s">
         <v>928</v>
@@ -5957,17 +5954,17 @@
     </row>
     <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="117"/>
-      <c r="B105" s="125" t="s">
-        <v>864</v>
-      </c>
-      <c r="C105" s="126" t="s">
+      <c r="B105" s="128" t="s">
+        <v>894</v>
+      </c>
+      <c r="C105" s="129" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="117"/>
       <c r="B106" s="128" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C106" s="129" t="s">
         <v>931</v>
@@ -5975,56 +5972,56 @@
     </row>
     <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="117"/>
-      <c r="B107" s="128" t="s">
-        <v>897</v>
-      </c>
-      <c r="C107" s="129" t="s">
+      <c r="B107" s="121" t="s">
+        <v>898</v>
+      </c>
+      <c r="C107" s="122" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="117"/>
-      <c r="B108" s="121" t="s">
-        <v>899</v>
-      </c>
-      <c r="C108" s="122" t="s">
-        <v>933</v>
-      </c>
+    <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="117">
+        <v>3</v>
+      </c>
+      <c r="B108" s="134" t="s">
+        <v>885</v>
+      </c>
+      <c r="C108" s="135"/>
     </row>
     <row r="109" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="117">
-        <v>3</v>
-      </c>
-      <c r="B109" s="141" t="s">
-        <v>886</v>
-      </c>
-      <c r="C109" s="142"/>
-    </row>
-    <row r="110" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="117"/>
+      <c r="B109" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C109" s="120" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="117"/>
-      <c r="B110" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C110" s="120" t="s">
+      <c r="B110" s="125" t="s">
+        <v>854</v>
+      </c>
+      <c r="C110" s="126" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="117"/>
       <c r="B111" s="125" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C111" s="126" t="s">
-        <v>893</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="117"/>
-      <c r="B112" s="125" t="s">
-        <v>859</v>
-      </c>
-      <c r="C112" s="126" t="s">
-        <v>90</v>
+      <c r="B112" s="128" t="s">
+        <v>862</v>
+      </c>
+      <c r="C112" s="129" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6033,45 +6030,45 @@
         <v>863</v>
       </c>
       <c r="C113" s="129" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="117"/>
-      <c r="B114" s="128" t="s">
-        <v>864</v>
-      </c>
-      <c r="C114" s="129" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="117"/>
-      <c r="B115" s="121"/>
-      <c r="C115" s="122"/>
+      <c r="B114" s="121"/>
+      <c r="C114" s="122"/>
+    </row>
+    <row r="115" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="116">
+        <v>4</v>
+      </c>
+      <c r="B115" s="136" t="s">
+        <v>886</v>
+      </c>
+      <c r="C115" s="137"/>
     </row>
     <row r="116" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="116">
-        <v>4</v>
-      </c>
-      <c r="B116" s="143" t="s">
+      <c r="A116" s="127"/>
+      <c r="B116" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C116" s="120" t="s">
         <v>887</v>
       </c>
-      <c r="C116" s="144"/>
-    </row>
-    <row r="117" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="127"/>
-      <c r="B117" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C117" s="120" t="s">
+    </row>
+    <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="117"/>
+      <c r="B117" s="125" t="s">
+        <v>854</v>
+      </c>
+      <c r="C117" s="126" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="117"/>
       <c r="B118" s="125" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C118" s="126" t="s">
         <v>889</v>
@@ -6079,52 +6076,52 @@
     </row>
     <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="117"/>
-      <c r="B119" s="125" t="s">
-        <v>859</v>
-      </c>
-      <c r="C119" s="126" t="s">
+      <c r="B119" s="121" t="s">
+        <v>862</v>
+      </c>
+      <c r="C119" s="122" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="117"/>
-      <c r="B120" s="121" t="s">
-        <v>863</v>
-      </c>
-      <c r="C120" s="122" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="138" t="s">
+        <v>934</v>
+      </c>
+      <c r="B121" s="139"/>
+      <c r="C121" s="140"/>
+    </row>
     <row r="122" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="132" t="s">
+      <c r="A122" s="116">
+        <v>1</v>
+      </c>
+      <c r="B122" s="141" t="s">
         <v>935</v>
       </c>
-      <c r="B122" s="133"/>
-      <c r="C122" s="134"/>
+      <c r="C122" s="142"/>
     </row>
     <row r="123" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="116">
-        <v>1</v>
-      </c>
-      <c r="B123" s="135" t="s">
-        <v>936</v>
-      </c>
-      <c r="C123" s="136"/>
-    </row>
-    <row r="124" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="127"/>
+      <c r="B123" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C123" s="120" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="127"/>
-      <c r="B124" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C124" s="120" t="s">
-        <v>102</v>
+      <c r="B124" s="130" t="s">
+        <v>854</v>
+      </c>
+      <c r="C124" s="131" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="127"/>
       <c r="B125" s="130" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C125" s="131" t="s">
         <v>885</v>
@@ -6133,7 +6130,7 @@
     <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="127"/>
       <c r="B126" s="130" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C126" s="131" t="s">
         <v>886</v>
@@ -6144,28 +6141,26 @@
       <c r="B127" s="130" t="s">
         <v>863</v>
       </c>
-      <c r="C127" s="131" t="s">
-        <v>887</v>
-      </c>
+      <c r="C127" s="131"/>
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="127"/>
       <c r="B128" s="130" t="s">
-        <v>864</v>
+        <v>894</v>
       </c>
       <c r="C128" s="131"/>
     </row>
     <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="127"/>
       <c r="B129" s="130" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C129" s="131"/>
     </row>
     <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="127"/>
       <c r="B130" s="130" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C130" s="131"/>
     </row>
@@ -6177,11 +6172,11 @@
       <c r="C131" s="131"/>
     </row>
     <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="127"/>
-      <c r="B132" s="130" t="s">
+      <c r="A132" s="117"/>
+      <c r="B132" s="125" t="s">
         <v>900</v>
       </c>
-      <c r="C132" s="131"/>
+      <c r="C132" s="126"/>
     </row>
     <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="117"/>
@@ -6241,40 +6236,42 @@
     </row>
     <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="117"/>
-      <c r="B141" s="125" t="s">
+      <c r="B141" s="121" t="s">
         <v>909</v>
       </c>
-      <c r="C141" s="126"/>
-    </row>
-    <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="117"/>
-      <c r="B142" s="121" t="s">
-        <v>910</v>
-      </c>
-      <c r="C142" s="122"/>
+      <c r="C141" s="122"/>
+    </row>
+    <row r="142" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="117">
+        <v>2</v>
+      </c>
+      <c r="B142" s="132" t="s">
+        <v>936</v>
+      </c>
+      <c r="C142" s="133"/>
     </row>
     <row r="143" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="117">
-        <v>2</v>
-      </c>
-      <c r="B143" s="139" t="s">
-        <v>937</v>
-      </c>
-      <c r="C143" s="140"/>
-    </row>
-    <row r="144" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="117"/>
+      <c r="B143" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C143" s="120" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="117"/>
-      <c r="B144" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C144" s="120" t="s">
-        <v>266</v>
+      <c r="B144" s="125" t="s">
+        <v>854</v>
+      </c>
+      <c r="C144" s="126" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="117"/>
       <c r="B145" s="125" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C145" s="126" t="s">
         <v>939</v>
@@ -6283,7 +6280,7 @@
     <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="117"/>
       <c r="B146" s="125" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C146" s="126" t="s">
         <v>940</v>
@@ -6294,71 +6291,71 @@
       <c r="B147" s="125" t="s">
         <v>863</v>
       </c>
-      <c r="C147" s="126" t="s">
-        <v>941</v>
-      </c>
+      <c r="C147" s="126"/>
     </row>
     <row r="148" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="117"/>
-      <c r="B148" s="125" t="s">
-        <v>864</v>
-      </c>
-      <c r="C148" s="126"/>
+      <c r="B148" s="128" t="s">
+        <v>894</v>
+      </c>
+      <c r="C148" s="129"/>
     </row>
     <row r="149" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="117"/>
       <c r="B149" s="128" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C149" s="129"/>
     </row>
     <row r="150" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="117"/>
-      <c r="B150" s="128" t="s">
-        <v>897</v>
-      </c>
-      <c r="C150" s="129"/>
-    </row>
-    <row r="151" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="117"/>
-      <c r="B151" s="121" t="s">
-        <v>899</v>
-      </c>
-      <c r="C151" s="122"/>
+      <c r="B150" s="121" t="s">
+        <v>898</v>
+      </c>
+      <c r="C150" s="122"/>
+    </row>
+    <row r="151" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="117">
+        <v>3</v>
+      </c>
+      <c r="B151" s="134" t="s">
+        <v>937</v>
+      </c>
+      <c r="C151" s="135"/>
     </row>
     <row r="152" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="117">
-        <v>3</v>
-      </c>
-      <c r="B152" s="141" t="s">
-        <v>938</v>
-      </c>
-      <c r="C152" s="142"/>
-    </row>
-    <row r="153" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="117"/>
+      <c r="B152" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C152" s="120" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="117"/>
-      <c r="B153" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C153" s="120" t="s">
-        <v>943</v>
+      <c r="B153" s="125" t="s">
+        <v>854</v>
+      </c>
+      <c r="C153" s="126" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="117"/>
       <c r="B154" s="125" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C154" s="126" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="117"/>
-      <c r="B155" s="125" t="s">
-        <v>859</v>
-      </c>
-      <c r="C155" s="126" t="s">
+      <c r="B155" s="128" t="s">
+        <v>862</v>
+      </c>
+      <c r="C155" s="129" t="s">
         <v>944</v>
       </c>
     </row>
@@ -6367,66 +6364,17 @@
       <c r="B156" s="128" t="s">
         <v>863</v>
       </c>
-      <c r="C156" s="129" t="s">
-        <v>945</v>
-      </c>
+      <c r="C156" s="129"/>
     </row>
     <row r="157" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="117"/>
-      <c r="B157" s="128" t="s">
-        <v>864</v>
-      </c>
-      <c r="C157" s="129"/>
-    </row>
-    <row r="158" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="117"/>
-      <c r="B158" s="121" t="s">
-        <v>895</v>
-      </c>
-      <c r="C158" s="122"/>
+      <c r="B157" s="121" t="s">
+        <v>894</v>
+      </c>
+      <c r="C157" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B11:C11"/>
@@ -6436,6 +6384,46 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="B122:C122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -8927,7 +8915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="V63" sqref="V63:V66"/>
     </sheetView>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" firstSheet="12" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="TODO - Quick Battle" sheetId="37" r:id="rId1"/>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="979">
   <si>
     <t>Fishing</t>
   </si>
@@ -3545,6 +3545,99 @@
   </si>
   <si>
     <t>Poke</t>
+  </si>
+  <si>
+    <t>Weenomancer</t>
+  </si>
+  <si>
+    <t>Dead Critter Eyes</t>
+  </si>
+  <si>
+    <t>Lockdown</t>
+  </si>
+  <si>
+    <t>Deal Damage to enemy any time enemy does action and is within distance</t>
+  </si>
+  <si>
+    <t>Protect</t>
+  </si>
+  <si>
+    <t>Take damage for target so long as target is adjacent</t>
+  </si>
+  <si>
+    <t>Get immediate retaliatory attack when hit in melee</t>
+  </si>
+  <si>
+    <t>Decrepify</t>
+  </si>
+  <si>
+    <t>Wimpiness</t>
+  </si>
+  <si>
+    <t>Bandage</t>
+  </si>
+  <si>
+    <t>Remove bleeding effects on target</t>
+  </si>
+  <si>
+    <t>Soldier, 1</t>
+  </si>
+  <si>
+    <t>Hold The Line</t>
+  </si>
+  <si>
+    <t>AoE Morale Heal each turn</t>
+  </si>
+  <si>
+    <t>Grit</t>
+  </si>
+  <si>
+    <t>Blocked melee attacks result in resolve buff</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Fighting, 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target gains a shield </t>
+  </si>
+  <si>
+    <t>Recharge</t>
+  </si>
+  <si>
+    <t>Fighting, 4</t>
+  </si>
+  <si>
+    <t>All shields on target are brought back to 100% of their original health</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>Fighting, 2</t>
+  </si>
+  <si>
+    <t>Shields on target gain additional duration</t>
+  </si>
+  <si>
+    <t>Shield Augemntation</t>
+  </si>
+  <si>
+    <t>Fighting, 5</t>
+  </si>
+  <si>
+    <t>Can only use on target with shield.  Creates powerful shield on target.</t>
+  </si>
+  <si>
+    <t>Shield Absorb</t>
+  </si>
+  <si>
+    <t>Fighting, 3</t>
+  </si>
+  <si>
+    <t>Absorb all shields on target, gain +might for each point of shield absorbed</t>
   </si>
 </sst>
 </file>
@@ -3644,7 +3737,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -4388,28 +4481,6 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
       <right style="thick">
         <color auto="1"/>
       </right>
@@ -4423,7 +4494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4699,19 +4770,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4724,23 +4789,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4761,6 +4811,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5112,10 +5180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="J151" sqref="J151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5130,29 +5198,29 @@
       <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="131" t="s">
         <v>847</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="140"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="133"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="116">
         <v>1</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="134" t="s">
         <v>848</v>
       </c>
-      <c r="C3" s="142"/>
+      <c r="C3" s="135"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="117">
         <v>2</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="138" t="s">
         <v>849</v>
       </c>
-      <c r="C4" s="133"/>
+      <c r="C4" s="139"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="117"/>
@@ -5174,65 +5242,75 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="117"/>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="123" t="s">
         <v>858</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="124" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="117">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="117"/>
+      <c r="B8" s="123" t="s">
+        <v>862</v>
+      </c>
+      <c r="C8" s="124" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="117"/>
+      <c r="B9" s="121" t="s">
+        <v>863</v>
+      </c>
+      <c r="C9" s="122" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="117">
         <v>3</v>
       </c>
-      <c r="B8" s="134" t="s">
+      <c r="B10" s="140" t="s">
         <v>850</v>
       </c>
-      <c r="C8" s="135"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="117">
+      <c r="C10" s="141"/>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="117"/>
+      <c r="B11" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C11" s="120" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="117">
         <v>4</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B12" s="142" t="s">
         <v>851</v>
       </c>
-      <c r="C9" s="137"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="117">
+      <c r="C12" s="143"/>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="117"/>
+      <c r="B13" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C13" s="120" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="117">
         <v>5</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B14" s="142" t="s">
         <v>852</v>
       </c>
-      <c r="C10" s="137"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
-        <v>6</v>
-      </c>
-      <c r="B11" s="143" t="s">
-        <v>856</v>
-      </c>
-      <c r="C11" s="144"/>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="138" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="140"/>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="116">
-        <v>1</v>
-      </c>
-      <c r="B14" s="141" t="s">
-        <v>857</v>
-      </c>
-      <c r="C14" s="142"/>
+      <c r="C14" s="143"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="117"/>
@@ -5240,1190 +5318,1234 @@
         <v>853</v>
       </c>
       <c r="C15" s="120" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="118">
+        <v>6</v>
+      </c>
+      <c r="B16" s="136" t="s">
+        <v>856</v>
+      </c>
+      <c r="C16" s="137"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="117"/>
+      <c r="B17" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C17" s="120" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="131" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="132"/>
+      <c r="C19" s="133"/>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="116">
+        <v>1</v>
+      </c>
+      <c r="B20" s="134" t="s">
+        <v>857</v>
+      </c>
+      <c r="C20" s="135"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="117"/>
+      <c r="B21" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C21" s="120" t="s">
         <v>945</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="117"/>
-      <c r="B16" s="125" t="s">
-        <v>854</v>
-      </c>
-      <c r="C16" s="126" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="117"/>
-      <c r="B17" s="125" t="s">
-        <v>858</v>
-      </c>
-      <c r="C17" s="126" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="117"/>
-      <c r="B18" s="125" t="s">
-        <v>862</v>
-      </c>
-      <c r="C18" s="126" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="117"/>
-      <c r="B19" s="128" t="s">
-        <v>863</v>
-      </c>
-      <c r="C19" s="129" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="117"/>
-      <c r="B20" s="128" t="s">
-        <v>894</v>
-      </c>
-      <c r="C20" s="129" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="117"/>
-      <c r="B21" s="128" t="s">
-        <v>896</v>
-      </c>
-      <c r="C21" s="129" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="117"/>
-      <c r="B22" s="128" t="s">
-        <v>898</v>
-      </c>
-      <c r="C22" s="129" t="s">
-        <v>946</v>
+      <c r="B22" s="123" t="s">
+        <v>854</v>
+      </c>
+      <c r="C22" s="124" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="117"/>
-      <c r="B23" s="121" t="s">
-        <v>899</v>
-      </c>
-      <c r="C23" s="122" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="138" t="s">
-        <v>860</v>
-      </c>
-      <c r="B25" s="139"/>
-      <c r="C25" s="140"/>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="116">
-        <v>1</v>
-      </c>
-      <c r="B26" s="141" t="s">
-        <v>847</v>
-      </c>
-      <c r="C26" s="142"/>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="123" t="s">
+        <v>858</v>
+      </c>
+      <c r="C23" s="124" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="117"/>
+      <c r="B24" s="123" t="s">
+        <v>862</v>
+      </c>
+      <c r="C24" s="124" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="117"/>
+      <c r="B25" s="126" t="s">
+        <v>863</v>
+      </c>
+      <c r="C25" s="127" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="117"/>
+      <c r="B26" s="126" t="s">
+        <v>894</v>
+      </c>
+      <c r="C26" s="127" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="117"/>
-      <c r="B27" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C27" s="120" t="s">
-        <v>861</v>
+      <c r="B27" s="126" t="s">
+        <v>896</v>
+      </c>
+      <c r="C27" s="127" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="117"/>
-      <c r="B28" s="125" t="s">
-        <v>858</v>
-      </c>
-      <c r="C28" s="126" t="s">
-        <v>865</v>
+      <c r="B28" s="126" t="s">
+        <v>898</v>
+      </c>
+      <c r="C28" s="127" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="117"/>
       <c r="B29" s="121" t="s">
+        <v>899</v>
+      </c>
+      <c r="C29" s="122" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="131" t="s">
+        <v>860</v>
+      </c>
+      <c r="B31" s="132"/>
+      <c r="C31" s="133"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="116">
+        <v>1</v>
+      </c>
+      <c r="B32" s="134" t="s">
+        <v>847</v>
+      </c>
+      <c r="C32" s="135"/>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="117"/>
+      <c r="B33" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C33" s="120" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="117"/>
+      <c r="B34" s="123" t="s">
+        <v>858</v>
+      </c>
+      <c r="C34" s="124" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="117"/>
+      <c r="B35" s="121" t="s">
         <v>862</v>
       </c>
-      <c r="C29" s="122" t="s">
+      <c r="C35" s="122" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="117">
+    <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="117">
         <v>2</v>
       </c>
-      <c r="B30" s="132" t="s">
+      <c r="B36" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="133"/>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="117"/>
-      <c r="B31" s="119" t="s">
+      <c r="C36" s="139"/>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="117"/>
+      <c r="B37" s="119" t="s">
         <v>853</v>
       </c>
-      <c r="C31" s="120" t="s">
+      <c r="C37" s="120" t="s">
         <v>867</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="117"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="122"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="138" t="s">
-        <v>868</v>
-      </c>
-      <c r="B34" s="139"/>
-      <c r="C34" s="140"/>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="116">
-        <v>1</v>
-      </c>
-      <c r="B35" s="141" t="s">
-        <v>869</v>
-      </c>
-      <c r="C35" s="142"/>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="117"/>
-      <c r="B36" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C36" s="120" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="117"/>
-      <c r="B37" s="125" t="s">
-        <v>854</v>
-      </c>
-      <c r="C37" s="126" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="117"/>
-      <c r="B38" s="125" t="s">
+      <c r="B38" s="121"/>
+      <c r="C38" s="122"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="131" t="s">
+        <v>868</v>
+      </c>
+      <c r="B40" s="132"/>
+      <c r="C40" s="133"/>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="116">
+        <v>1</v>
+      </c>
+      <c r="B41" s="134" t="s">
+        <v>869</v>
+      </c>
+      <c r="C41" s="135"/>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="117"/>
+      <c r="B42" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C42" s="120" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="117"/>
+      <c r="B43" s="123" t="s">
+        <v>854</v>
+      </c>
+      <c r="C43" s="124" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="117"/>
+      <c r="B44" s="123" t="s">
         <v>858</v>
       </c>
-      <c r="C38" s="126" t="s">
+      <c r="C44" s="124" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="117"/>
-      <c r="B39" s="121" t="s">
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="117"/>
+      <c r="B45" s="121" t="s">
         <v>862</v>
       </c>
-      <c r="C39" s="122" t="s">
+      <c r="C45" s="122" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="138" t="s">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="131" t="s">
         <v>873</v>
       </c>
-      <c r="B41" s="139"/>
-      <c r="C41" s="140"/>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="116">
-        <v>1</v>
-      </c>
-      <c r="B42" s="141" t="s">
+      <c r="B47" s="132"/>
+      <c r="C47" s="133"/>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="116">
+        <v>1</v>
+      </c>
+      <c r="B48" s="134" t="s">
         <v>874</v>
       </c>
-      <c r="C42" s="142"/>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="117"/>
-      <c r="B43" s="119" t="s">
+      <c r="C48" s="135"/>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="117"/>
+      <c r="B49" s="119" t="s">
         <v>853</v>
       </c>
-      <c r="C43" s="120" t="s">
+      <c r="C49" s="120" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="127"/>
-      <c r="B44" s="121" t="s">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="125"/>
+      <c r="B50" s="121" t="s">
         <v>854</v>
       </c>
-      <c r="C44" s="122" t="s">
+      <c r="C50" s="122" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="116">
-        <v>1</v>
-      </c>
-      <c r="B45" s="141" t="s">
+    <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="116">
+        <v>1</v>
+      </c>
+      <c r="B51" s="134" t="s">
         <v>876</v>
       </c>
-      <c r="C45" s="142"/>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="117"/>
-      <c r="B46" s="119" t="s">
+      <c r="C51" s="135"/>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="117"/>
+      <c r="B52" s="119" t="s">
         <v>853</v>
       </c>
-      <c r="C46" s="120" t="s">
+      <c r="C52" s="120" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="117"/>
-      <c r="B47" s="125" t="s">
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="117"/>
+      <c r="B53" s="123" t="s">
         <v>854</v>
       </c>
-      <c r="C47" s="126" t="s">
+      <c r="C53" s="124" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="117"/>
-      <c r="B48" s="125" t="s">
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="117"/>
+      <c r="B54" s="123" t="s">
         <v>858</v>
       </c>
-      <c r="C48" s="126" t="s">
+      <c r="C54" s="124" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="117"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="122"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="138" t="s">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="117"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="122"/>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="131" t="s">
         <v>213</v>
       </c>
-      <c r="B51" s="139"/>
-      <c r="C51" s="140"/>
-    </row>
-    <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="116">
-        <v>1</v>
-      </c>
-      <c r="B52" s="141" t="s">
+      <c r="B57" s="132"/>
+      <c r="C57" s="133"/>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="116">
+        <v>1</v>
+      </c>
+      <c r="B58" s="134" t="s">
         <v>881</v>
       </c>
-      <c r="C52" s="142"/>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="138" t="s">
+      <c r="C58" s="135"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="131" t="s">
         <v>855</v>
       </c>
-      <c r="B54" s="139"/>
-      <c r="C54" s="140"/>
-    </row>
-    <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="116">
-        <v>1</v>
-      </c>
-      <c r="B55" s="134" t="s">
+      <c r="B60" s="132"/>
+      <c r="C60" s="133"/>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="116">
+        <v>1</v>
+      </c>
+      <c r="B61" s="140" t="s">
         <v>848</v>
       </c>
-      <c r="C55" s="135"/>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="117">
+      <c r="C61" s="141"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="117">
         <v>2</v>
       </c>
-      <c r="B56" s="145" t="s">
+      <c r="B62" s="144" t="s">
         <v>849</v>
       </c>
-      <c r="C56" s="146"/>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="117">
+      <c r="C62" s="145"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="117">
         <v>3</v>
       </c>
-      <c r="B57" s="136" t="s">
+      <c r="B63" s="142" t="s">
         <v>850</v>
       </c>
-      <c r="C57" s="137"/>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="117">
-        <v>4</v>
-      </c>
-      <c r="B58" s="136" t="s">
-        <v>851</v>
-      </c>
-      <c r="C58" s="137"/>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="117">
-        <v>5</v>
-      </c>
-      <c r="B59" s="136" t="s">
-        <v>852</v>
-      </c>
-      <c r="C59" s="137"/>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="118">
-        <v>6</v>
-      </c>
-      <c r="B60" s="143" t="s">
-        <v>856</v>
-      </c>
-      <c r="C60" s="144"/>
-    </row>
-    <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="138" t="s">
-        <v>882</v>
-      </c>
-      <c r="B62" s="139"/>
-      <c r="C62" s="140"/>
-    </row>
-    <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="116">
-        <v>1</v>
-      </c>
-      <c r="B63" s="134" t="s">
-        <v>848</v>
-      </c>
-      <c r="C63" s="135"/>
+      <c r="C63" s="143"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="117">
-        <v>2</v>
-      </c>
-      <c r="B64" s="145" t="s">
-        <v>849</v>
-      </c>
-      <c r="C64" s="146"/>
+        <v>4</v>
+      </c>
+      <c r="B64" s="142" t="s">
+        <v>851</v>
+      </c>
+      <c r="C64" s="143"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="117">
+        <v>5</v>
+      </c>
+      <c r="B65" s="142" t="s">
+        <v>852</v>
+      </c>
+      <c r="C65" s="143"/>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="118">
+        <v>6</v>
+      </c>
+      <c r="B66" s="136" t="s">
+        <v>856</v>
+      </c>
+      <c r="C66" s="137"/>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="131" t="s">
+        <v>882</v>
+      </c>
+      <c r="B68" s="132"/>
+      <c r="C68" s="133"/>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="116">
+        <v>1</v>
+      </c>
+      <c r="B69" s="140" t="s">
+        <v>848</v>
+      </c>
+      <c r="C69" s="141"/>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="117">
+        <v>2</v>
+      </c>
+      <c r="B70" s="144" t="s">
+        <v>849</v>
+      </c>
+      <c r="C70" s="145"/>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="117">
         <v>3</v>
       </c>
-      <c r="B65" s="136" t="s">
+      <c r="B71" s="142" t="s">
         <v>850</v>
       </c>
-      <c r="C65" s="137"/>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="117">
-        <v>4</v>
-      </c>
-      <c r="B66" s="136" t="s">
-        <v>851</v>
-      </c>
-      <c r="C66" s="137"/>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="117">
-        <v>5</v>
-      </c>
-      <c r="B67" s="136" t="s">
-        <v>852</v>
-      </c>
-      <c r="C67" s="137"/>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="118">
-        <v>6</v>
-      </c>
-      <c r="B68" s="143" t="s">
-        <v>856</v>
-      </c>
-      <c r="C68" s="144"/>
-    </row>
-    <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="138" t="s">
-        <v>883</v>
-      </c>
-      <c r="B70" s="139"/>
-      <c r="C70" s="140"/>
-    </row>
-    <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="116">
-        <v>1</v>
-      </c>
-      <c r="B71" s="134" t="s">
-        <v>848</v>
-      </c>
-      <c r="C71" s="135"/>
+      <c r="C71" s="143"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="117">
-        <v>2</v>
-      </c>
-      <c r="B72" s="145" t="s">
-        <v>849</v>
-      </c>
-      <c r="C72" s="146"/>
+        <v>4</v>
+      </c>
+      <c r="B72" s="142" t="s">
+        <v>851</v>
+      </c>
+      <c r="C72" s="143"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="117">
+        <v>5</v>
+      </c>
+      <c r="B73" s="142" t="s">
+        <v>852</v>
+      </c>
+      <c r="C73" s="143"/>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="118">
+        <v>6</v>
+      </c>
+      <c r="B74" s="136" t="s">
+        <v>856</v>
+      </c>
+      <c r="C74" s="137"/>
+    </row>
+    <row r="75" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="131" t="s">
+        <v>883</v>
+      </c>
+      <c r="B76" s="132"/>
+      <c r="C76" s="133"/>
+    </row>
+    <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="116">
+        <v>1</v>
+      </c>
+      <c r="B77" s="140" t="s">
+        <v>848</v>
+      </c>
+      <c r="C77" s="141"/>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="117">
+        <v>2</v>
+      </c>
+      <c r="B78" s="144" t="s">
+        <v>849</v>
+      </c>
+      <c r="C78" s="145"/>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="117">
         <v>3</v>
       </c>
-      <c r="B73" s="136" t="s">
+      <c r="B79" s="142" t="s">
         <v>850</v>
       </c>
-      <c r="C73" s="137"/>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="117">
+      <c r="C79" s="143"/>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="117">
         <v>4</v>
       </c>
-      <c r="B74" s="136" t="s">
+      <c r="B80" s="142" t="s">
         <v>851</v>
       </c>
-      <c r="C74" s="137"/>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="117">
+      <c r="C80" s="143"/>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="117">
         <v>5</v>
       </c>
-      <c r="B75" s="136" t="s">
+      <c r="B81" s="142" t="s">
         <v>852</v>
       </c>
-      <c r="C75" s="137"/>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="118">
+      <c r="C81" s="143"/>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="118">
         <v>6</v>
       </c>
-      <c r="B76" s="143" t="s">
+      <c r="B82" s="136" t="s">
         <v>856</v>
       </c>
-      <c r="C76" s="144"/>
-    </row>
-    <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="138" t="s">
+      <c r="C82" s="137"/>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="131" t="s">
         <v>933</v>
       </c>
-      <c r="B78" s="139"/>
-      <c r="C78" s="140"/>
-    </row>
-    <row r="79" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="116">
-        <v>1</v>
-      </c>
-      <c r="B79" s="141" t="s">
+      <c r="B84" s="132"/>
+      <c r="C84" s="133"/>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="116">
+        <v>1</v>
+      </c>
+      <c r="B85" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="C79" s="142"/>
-    </row>
-    <row r="80" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="127"/>
-      <c r="B80" s="119" t="s">
+      <c r="C85" s="135"/>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="125"/>
+      <c r="B86" s="119" t="s">
         <v>853</v>
       </c>
-      <c r="C80" s="120" t="s">
+      <c r="C86" s="120" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="127"/>
-      <c r="B81" s="130" t="s">
+    <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="125"/>
+      <c r="B87" s="128" t="s">
         <v>854</v>
       </c>
-      <c r="C81" s="131" t="s">
+      <c r="C87" s="129" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="127"/>
-      <c r="B82" s="130" t="s">
+    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="125"/>
+      <c r="B88" s="128" t="s">
         <v>858</v>
       </c>
-      <c r="C82" s="131" t="s">
+      <c r="C88" s="129" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="127"/>
-      <c r="B83" s="130" t="s">
+    <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="125"/>
+      <c r="B89" s="128" t="s">
         <v>862</v>
       </c>
-      <c r="C83" s="131" t="s">
+      <c r="C89" s="129" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="127"/>
-      <c r="B84" s="130" t="s">
+    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="125"/>
+      <c r="B90" s="128" t="s">
         <v>863</v>
       </c>
-      <c r="C84" s="131" t="s">
+      <c r="C90" s="129" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="127"/>
-      <c r="B85" s="130" t="s">
+    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="125"/>
+      <c r="B91" s="128" t="s">
         <v>894</v>
       </c>
-      <c r="C85" s="131" t="s">
+      <c r="C91" s="129" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="127"/>
-      <c r="B86" s="130" t="s">
+    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="125"/>
+      <c r="B92" s="128" t="s">
         <v>896</v>
       </c>
-      <c r="C86" s="131" t="s">
+      <c r="C92" s="129" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="127"/>
-      <c r="B87" s="130" t="s">
+    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="125"/>
+      <c r="B93" s="128" t="s">
         <v>898</v>
       </c>
-      <c r="C87" s="131" t="s">
+      <c r="C93" s="129" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="127"/>
-      <c r="B88" s="130" t="s">
+    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="125"/>
+      <c r="B94" s="128" t="s">
         <v>899</v>
       </c>
-      <c r="C88" s="131" t="s">
+      <c r="C94" s="129" t="s">
         <v>918</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="117"/>
-      <c r="B89" s="125" t="s">
-        <v>900</v>
-      </c>
-      <c r="C89" s="126" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="117"/>
-      <c r="B90" s="125" t="s">
-        <v>901</v>
-      </c>
-      <c r="C90" s="126" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="117"/>
-      <c r="B91" s="125" t="s">
-        <v>902</v>
-      </c>
-      <c r="C91" s="126" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="117"/>
-      <c r="B92" s="125" t="s">
-        <v>903</v>
-      </c>
-      <c r="C92" s="126" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="117"/>
-      <c r="B93" s="125" t="s">
-        <v>904</v>
-      </c>
-      <c r="C93" s="126" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="117"/>
-      <c r="B94" s="125" t="s">
-        <v>905</v>
-      </c>
-      <c r="C94" s="126" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="117"/>
-      <c r="B95" s="125" t="s">
-        <v>906</v>
-      </c>
-      <c r="C95" s="126" t="s">
-        <v>35</v>
+      <c r="B95" s="123" t="s">
+        <v>900</v>
+      </c>
+      <c r="C95" s="124" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="117"/>
-      <c r="B96" s="125" t="s">
-        <v>907</v>
-      </c>
-      <c r="C96" s="126" t="s">
-        <v>925</v>
+      <c r="B96" s="123" t="s">
+        <v>901</v>
+      </c>
+      <c r="C96" s="124" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="117"/>
-      <c r="B97" s="125" t="s">
-        <v>908</v>
-      </c>
-      <c r="C97" s="126"/>
+      <c r="B97" s="123" t="s">
+        <v>902</v>
+      </c>
+      <c r="C97" s="124" t="s">
+        <v>921</v>
+      </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="117"/>
-      <c r="B98" s="121" t="s">
-        <v>909</v>
-      </c>
-      <c r="C98" s="122"/>
-    </row>
-    <row r="99" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="117">
-        <v>2</v>
-      </c>
-      <c r="B99" s="132" t="s">
-        <v>884</v>
-      </c>
-      <c r="C99" s="133"/>
-    </row>
-    <row r="100" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="123" t="s">
+        <v>903</v>
+      </c>
+      <c r="C98" s="124" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="117"/>
+      <c r="B99" s="123" t="s">
+        <v>904</v>
+      </c>
+      <c r="C99" s="124" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="117"/>
-      <c r="B100" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C100" s="120" t="s">
-        <v>897</v>
+      <c r="B100" s="123" t="s">
+        <v>905</v>
+      </c>
+      <c r="C100" s="124" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="117"/>
-      <c r="B101" s="125" t="s">
-        <v>854</v>
-      </c>
-      <c r="C101" s="126" t="s">
-        <v>926</v>
+      <c r="B101" s="123" t="s">
+        <v>906</v>
+      </c>
+      <c r="C101" s="124" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="117"/>
-      <c r="B102" s="125" t="s">
-        <v>858</v>
-      </c>
-      <c r="C102" s="126" t="s">
-        <v>927</v>
+      <c r="B102" s="123" t="s">
+        <v>907</v>
+      </c>
+      <c r="C102" s="124" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="117"/>
-      <c r="B103" s="125" t="s">
-        <v>862</v>
-      </c>
-      <c r="C103" s="126" t="s">
-        <v>928</v>
-      </c>
+      <c r="B103" s="123" t="s">
+        <v>908</v>
+      </c>
+      <c r="C103" s="124"/>
     </row>
     <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="117"/>
-      <c r="B104" s="125" t="s">
-        <v>863</v>
-      </c>
-      <c r="C104" s="126" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="117"/>
-      <c r="B105" s="128" t="s">
-        <v>894</v>
-      </c>
-      <c r="C105" s="129" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="121" t="s">
+        <v>909</v>
+      </c>
+      <c r="C104" s="122"/>
+    </row>
+    <row r="105" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="117">
+        <v>2</v>
+      </c>
+      <c r="B105" s="138" t="s">
+        <v>884</v>
+      </c>
+      <c r="C105" s="139"/>
+    </row>
+    <row r="106" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="117"/>
-      <c r="B106" s="128" t="s">
-        <v>896</v>
-      </c>
-      <c r="C106" s="129" t="s">
-        <v>931</v>
+      <c r="B106" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C106" s="120" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="117"/>
-      <c r="B107" s="121" t="s">
-        <v>898</v>
-      </c>
-      <c r="C107" s="122" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="117">
-        <v>3</v>
-      </c>
-      <c r="B108" s="134" t="s">
-        <v>885</v>
-      </c>
-      <c r="C108" s="135"/>
-    </row>
-    <row r="109" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="123" t="s">
+        <v>854</v>
+      </c>
+      <c r="C107" s="124" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="117"/>
+      <c r="B108" s="123" t="s">
+        <v>858</v>
+      </c>
+      <c r="C108" s="124" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="117"/>
-      <c r="B109" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C109" s="120" t="s">
-        <v>891</v>
+      <c r="B109" s="123" t="s">
+        <v>862</v>
+      </c>
+      <c r="C109" s="124" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="117"/>
-      <c r="B110" s="125" t="s">
-        <v>854</v>
-      </c>
-      <c r="C110" s="126" t="s">
-        <v>892</v>
+      <c r="B110" s="123" t="s">
+        <v>863</v>
+      </c>
+      <c r="C110" s="124" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="117"/>
-      <c r="B111" s="125" t="s">
-        <v>858</v>
-      </c>
-      <c r="C111" s="126" t="s">
-        <v>90</v>
+      <c r="B111" s="126" t="s">
+        <v>894</v>
+      </c>
+      <c r="C111" s="127" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="117"/>
-      <c r="B112" s="128" t="s">
-        <v>862</v>
-      </c>
-      <c r="C112" s="129" t="s">
-        <v>893</v>
+      <c r="B112" s="126" t="s">
+        <v>896</v>
+      </c>
+      <c r="C112" s="127" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="117"/>
-      <c r="B113" s="128" t="s">
-        <v>863</v>
-      </c>
-      <c r="C113" s="129" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="117"/>
-      <c r="B114" s="121"/>
-      <c r="C114" s="122"/>
+      <c r="B113" s="121" t="s">
+        <v>898</v>
+      </c>
+      <c r="C113" s="122" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="117">
+        <v>3</v>
+      </c>
+      <c r="B114" s="140" t="s">
+        <v>885</v>
+      </c>
+      <c r="C114" s="141"/>
     </row>
     <row r="115" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="116">
-        <v>4</v>
-      </c>
-      <c r="B115" s="136" t="s">
-        <v>886</v>
-      </c>
-      <c r="C115" s="137"/>
-    </row>
-    <row r="116" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="127"/>
-      <c r="B116" s="119" t="s">
+      <c r="A115" s="117"/>
+      <c r="B115" s="119" t="s">
         <v>853</v>
       </c>
-      <c r="C116" s="120" t="s">
-        <v>887</v>
+      <c r="C115" s="120" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="117"/>
+      <c r="B116" s="123" t="s">
+        <v>854</v>
+      </c>
+      <c r="C116" s="124" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="117"/>
-      <c r="B117" s="125" t="s">
-        <v>854</v>
-      </c>
-      <c r="C117" s="126" t="s">
-        <v>888</v>
+      <c r="B117" s="123" t="s">
+        <v>858</v>
+      </c>
+      <c r="C117" s="124" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="117"/>
-      <c r="B118" s="125" t="s">
-        <v>858</v>
-      </c>
-      <c r="C118" s="126" t="s">
-        <v>889</v>
+      <c r="B118" s="126" t="s">
+        <v>862</v>
+      </c>
+      <c r="C118" s="127" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="117"/>
-      <c r="B119" s="121" t="s">
+      <c r="B119" s="126" t="s">
+        <v>863</v>
+      </c>
+      <c r="C119" s="127" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="117"/>
+      <c r="B120" s="121"/>
+      <c r="C120" s="122"/>
+    </row>
+    <row r="121" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="116">
+        <v>4</v>
+      </c>
+      <c r="B121" s="142" t="s">
+        <v>886</v>
+      </c>
+      <c r="C121" s="143"/>
+    </row>
+    <row r="122" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="125"/>
+      <c r="B122" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C122" s="120" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="117"/>
+      <c r="B123" s="123" t="s">
+        <v>854</v>
+      </c>
+      <c r="C123" s="124" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="117"/>
+      <c r="B124" s="123" t="s">
+        <v>858</v>
+      </c>
+      <c r="C124" s="124" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="117"/>
+      <c r="B125" s="121" t="s">
         <v>862</v>
       </c>
-      <c r="C119" s="122" t="s">
+      <c r="C125" s="122" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="138" t="s">
+    <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="131" t="s">
         <v>934</v>
       </c>
-      <c r="B121" s="139"/>
-      <c r="C121" s="140"/>
-    </row>
-    <row r="122" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="116">
-        <v>1</v>
-      </c>
-      <c r="B122" s="141" t="s">
+      <c r="B127" s="132"/>
+      <c r="C127" s="133"/>
+    </row>
+    <row r="128" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="116">
+        <v>1</v>
+      </c>
+      <c r="B128" s="134" t="s">
         <v>935</v>
       </c>
-      <c r="C122" s="142"/>
-    </row>
-    <row r="123" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="127"/>
-      <c r="B123" s="119" t="s">
+      <c r="C128" s="135"/>
+    </row>
+    <row r="129" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="125"/>
+      <c r="B129" s="119" t="s">
         <v>853</v>
       </c>
-      <c r="C123" s="120" t="s">
+      <c r="C129" s="120" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="127"/>
-      <c r="B124" s="130" t="s">
+    <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="125"/>
+      <c r="B130" s="128" t="s">
         <v>854</v>
       </c>
-      <c r="C124" s="131" t="s">
+      <c r="C130" s="129" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="127"/>
-      <c r="B125" s="130" t="s">
+    <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="125"/>
+      <c r="B131" s="128" t="s">
         <v>858</v>
       </c>
-      <c r="C125" s="131" t="s">
+      <c r="C131" s="129" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="127"/>
-      <c r="B126" s="130" t="s">
+    <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="125"/>
+      <c r="B132" s="128" t="s">
         <v>862</v>
       </c>
-      <c r="C126" s="131" t="s">
+      <c r="C132" s="129" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="127"/>
-      <c r="B127" s="130" t="s">
+    <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="125"/>
+      <c r="B133" s="128" t="s">
         <v>863</v>
       </c>
-      <c r="C127" s="131"/>
-    </row>
-    <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="127"/>
-      <c r="B128" s="130" t="s">
+      <c r="C133" s="129"/>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="125"/>
+      <c r="B134" s="128" t="s">
         <v>894</v>
       </c>
-      <c r="C128" s="131"/>
-    </row>
-    <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="127"/>
-      <c r="B129" s="130" t="s">
+      <c r="C134" s="129"/>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="125"/>
+      <c r="B135" s="128" t="s">
         <v>896</v>
       </c>
-      <c r="C129" s="131"/>
-    </row>
-    <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="127"/>
-      <c r="B130" s="130" t="s">
+      <c r="C135" s="129"/>
+    </row>
+    <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="125"/>
+      <c r="B136" s="128" t="s">
         <v>898</v>
       </c>
-      <c r="C130" s="131"/>
-    </row>
-    <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="127"/>
-      <c r="B131" s="130" t="s">
+      <c r="C136" s="129"/>
+    </row>
+    <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="125"/>
+      <c r="B137" s="128" t="s">
         <v>899</v>
       </c>
-      <c r="C131" s="131"/>
-    </row>
-    <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="117"/>
-      <c r="B132" s="125" t="s">
-        <v>900</v>
-      </c>
-      <c r="C132" s="126"/>
-    </row>
-    <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="117"/>
-      <c r="B133" s="125" t="s">
-        <v>901</v>
-      </c>
-      <c r="C133" s="126"/>
-    </row>
-    <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="117"/>
-      <c r="B134" s="125" t="s">
-        <v>902</v>
-      </c>
-      <c r="C134" s="126"/>
-    </row>
-    <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="117"/>
-      <c r="B135" s="125" t="s">
-        <v>903</v>
-      </c>
-      <c r="C135" s="126"/>
-    </row>
-    <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="117"/>
-      <c r="B136" s="125" t="s">
-        <v>904</v>
-      </c>
-      <c r="C136" s="126"/>
-    </row>
-    <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="117"/>
-      <c r="B137" s="125" t="s">
-        <v>905</v>
-      </c>
-      <c r="C137" s="126"/>
+      <c r="C137" s="129"/>
     </row>
     <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="117"/>
-      <c r="B138" s="125" t="s">
-        <v>906</v>
-      </c>
-      <c r="C138" s="126"/>
+      <c r="B138" s="123" t="s">
+        <v>900</v>
+      </c>
+      <c r="C138" s="124"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="117"/>
-      <c r="B139" s="125" t="s">
-        <v>907</v>
-      </c>
-      <c r="C139" s="126"/>
+      <c r="B139" s="123" t="s">
+        <v>901</v>
+      </c>
+      <c r="C139" s="124"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="117"/>
-      <c r="B140" s="125" t="s">
-        <v>908</v>
-      </c>
-      <c r="C140" s="126"/>
+      <c r="B140" s="123" t="s">
+        <v>902</v>
+      </c>
+      <c r="C140" s="124"/>
     </row>
     <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="117"/>
-      <c r="B141" s="121" t="s">
-        <v>909</v>
-      </c>
-      <c r="C141" s="122"/>
-    </row>
-    <row r="142" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="117">
-        <v>2</v>
-      </c>
-      <c r="B142" s="132" t="s">
-        <v>936</v>
-      </c>
-      <c r="C142" s="133"/>
-    </row>
-    <row r="143" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="123" t="s">
+        <v>903</v>
+      </c>
+      <c r="C141" s="124"/>
+    </row>
+    <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="117"/>
+      <c r="B142" s="123" t="s">
+        <v>904</v>
+      </c>
+      <c r="C142" s="124"/>
+    </row>
+    <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="117"/>
-      <c r="B143" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C143" s="120" t="s">
-        <v>266</v>
-      </c>
+      <c r="B143" s="123" t="s">
+        <v>905</v>
+      </c>
+      <c r="C143" s="124"/>
     </row>
     <row r="144" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="117"/>
-      <c r="B144" s="125" t="s">
-        <v>854</v>
-      </c>
-      <c r="C144" s="126" t="s">
-        <v>938</v>
-      </c>
+      <c r="B144" s="123" t="s">
+        <v>906</v>
+      </c>
+      <c r="C144" s="124"/>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="117"/>
-      <c r="B145" s="125" t="s">
-        <v>858</v>
-      </c>
-      <c r="C145" s="126" t="s">
-        <v>939</v>
-      </c>
+      <c r="B145" s="123" t="s">
+        <v>907</v>
+      </c>
+      <c r="C145" s="124"/>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="117"/>
-      <c r="B146" s="125" t="s">
-        <v>862</v>
-      </c>
-      <c r="C146" s="126" t="s">
-        <v>940</v>
-      </c>
+      <c r="B146" s="123" t="s">
+        <v>908</v>
+      </c>
+      <c r="C146" s="124"/>
     </row>
     <row r="147" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="117"/>
-      <c r="B147" s="125" t="s">
-        <v>863</v>
-      </c>
-      <c r="C147" s="126"/>
-    </row>
-    <row r="148" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="117"/>
-      <c r="B148" s="128" t="s">
-        <v>894</v>
-      </c>
-      <c r="C148" s="129"/>
-    </row>
-    <row r="149" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="121" t="s">
+        <v>909</v>
+      </c>
+      <c r="C147" s="122"/>
+    </row>
+    <row r="148" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="117">
+        <v>2</v>
+      </c>
+      <c r="B148" s="138" t="s">
+        <v>936</v>
+      </c>
+      <c r="C148" s="139"/>
+    </row>
+    <row r="149" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="117"/>
-      <c r="B149" s="128" t="s">
-        <v>896</v>
-      </c>
-      <c r="C149" s="129"/>
+      <c r="B149" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C149" s="120" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="150" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="117"/>
-      <c r="B150" s="121" t="s">
-        <v>898</v>
-      </c>
-      <c r="C150" s="122"/>
-    </row>
-    <row r="151" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="117">
-        <v>3</v>
-      </c>
-      <c r="B151" s="134" t="s">
-        <v>937</v>
-      </c>
-      <c r="C151" s="135"/>
-    </row>
-    <row r="152" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="123" t="s">
+        <v>854</v>
+      </c>
+      <c r="C150" s="124" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="117"/>
+      <c r="B151" s="123" t="s">
+        <v>858</v>
+      </c>
+      <c r="C151" s="124" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="117"/>
-      <c r="B152" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C152" s="120" t="s">
-        <v>942</v>
+      <c r="B152" s="123" t="s">
+        <v>862</v>
+      </c>
+      <c r="C152" s="124" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="117"/>
-      <c r="B153" s="125" t="s">
-        <v>854</v>
-      </c>
-      <c r="C153" s="126" t="s">
-        <v>941</v>
-      </c>
+      <c r="B153" s="123" t="s">
+        <v>863</v>
+      </c>
+      <c r="C153" s="124"/>
     </row>
     <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="117"/>
-      <c r="B154" s="125" t="s">
-        <v>858</v>
-      </c>
-      <c r="C154" s="126" t="s">
-        <v>943</v>
-      </c>
+      <c r="B154" s="126" t="s">
+        <v>894</v>
+      </c>
+      <c r="C154" s="127"/>
     </row>
     <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="117"/>
-      <c r="B155" s="128" t="s">
-        <v>862</v>
-      </c>
-      <c r="C155" s="129" t="s">
-        <v>944</v>
-      </c>
+      <c r="B155" s="126" t="s">
+        <v>896</v>
+      </c>
+      <c r="C155" s="127"/>
     </row>
     <row r="156" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="117"/>
-      <c r="B156" s="128" t="s">
+      <c r="B156" s="121" t="s">
+        <v>898</v>
+      </c>
+      <c r="C156" s="122"/>
+    </row>
+    <row r="157" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="117">
+        <v>3</v>
+      </c>
+      <c r="B157" s="140" t="s">
+        <v>937</v>
+      </c>
+      <c r="C157" s="141"/>
+    </row>
+    <row r="158" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="117"/>
+      <c r="B158" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C158" s="120" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="117"/>
+      <c r="B159" s="123" t="s">
+        <v>854</v>
+      </c>
+      <c r="C159" s="124" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="117"/>
+      <c r="B160" s="123" t="s">
+        <v>858</v>
+      </c>
+      <c r="C160" s="124" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="117"/>
+      <c r="B161" s="126" t="s">
+        <v>862</v>
+      </c>
+      <c r="C161" s="127" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="117"/>
+      <c r="B162" s="126" t="s">
         <v>863</v>
       </c>
-      <c r="C156" s="129"/>
-    </row>
-    <row r="157" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="117"/>
-      <c r="B157" s="121" t="s">
+      <c r="C162" s="127"/>
+    </row>
+    <row r="163" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="117"/>
+      <c r="B163" s="121" t="s">
         <v>894</v>
       </c>
-      <c r="C157" s="122"/>
+      <c r="C163" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
     <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -8054,31 +8176,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="149" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="153" t="s">
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="152" t="s">
         <v>208</v>
       </c>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="155"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="153"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="154"/>
     </row>
     <row r="2" spans="1:22" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K2" s="67" t="s">
@@ -22213,10 +22335,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22235,17 +22357,17 @@
       <c r="A1" s="82" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="155" t="s">
         <v>401</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="158"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="157"/>
       <c r="K1" s="92" t="s">
         <v>400</v>
       </c>
@@ -22805,11 +22927,9 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="84" t="s">
-        <v>665</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>666</v>
-      </c>
+        <v>962</v>
+      </c>
+      <c r="B30" s="49"/>
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
       <c r="E30" s="44"/>
@@ -22819,17 +22939,19 @@
       <c r="I30" s="44"/>
       <c r="J30" s="45"/>
       <c r="K30" s="90" t="s">
-        <v>667</v>
-      </c>
-      <c r="L30" s="45">
-        <v>5</v>
+        <v>963</v>
+      </c>
+      <c r="L30" s="88">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="84" t="s">
-        <v>464</v>
-      </c>
-      <c r="B31" s="49"/>
+        <v>665</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>666</v>
+      </c>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
       <c r="E31" s="44"/>
@@ -22839,19 +22961,17 @@
       <c r="I31" s="44"/>
       <c r="J31" s="45"/>
       <c r="K31" s="90" t="s">
-        <v>487</v>
-      </c>
-      <c r="L31" s="88">
-        <v>3</v>
+        <v>667</v>
+      </c>
+      <c r="L31" s="45">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="84" t="s">
-        <v>606</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>604</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="B32" s="49"/>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
       <c r="E32" s="44"/>
@@ -22861,15 +22981,19 @@
       <c r="I32" s="44"/>
       <c r="J32" s="45"/>
       <c r="K32" s="90" t="s">
-        <v>607</v>
-      </c>
-      <c r="L32" s="45"/>
+        <v>487</v>
+      </c>
+      <c r="L32" s="88">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
-        <v>524</v>
-      </c>
-      <c r="B33" s="49"/>
+        <v>606</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>604</v>
+      </c>
       <c r="C33" s="44"/>
       <c r="D33" s="44"/>
       <c r="E33" s="44"/>
@@ -22879,13 +23003,13 @@
       <c r="I33" s="44"/>
       <c r="J33" s="45"/>
       <c r="K33" s="90" t="s">
-        <v>525</v>
-      </c>
-      <c r="L33" s="88"/>
+        <v>607</v>
+      </c>
+      <c r="L33" s="45"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="84" t="s">
-        <v>395</v>
+        <v>524</v>
       </c>
       <c r="B34" s="49"/>
       <c r="C34" s="44"/>
@@ -22897,17 +23021,15 @@
       <c r="I34" s="44"/>
       <c r="J34" s="45"/>
       <c r="K34" s="90" t="s">
-        <v>403</v>
+        <v>525</v>
       </c>
       <c r="L34" s="88"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="84" t="s">
-        <v>818</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>816</v>
-      </c>
+        <v>960</v>
+      </c>
+      <c r="B35" s="49"/>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
       <c r="E35" s="44"/>
@@ -22917,13 +23039,13 @@
       <c r="I35" s="44"/>
       <c r="J35" s="45"/>
       <c r="K35" s="90" t="s">
-        <v>819</v>
+        <v>961</v>
       </c>
       <c r="L35" s="88"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="84" t="s">
-        <v>477</v>
+        <v>395</v>
       </c>
       <c r="B36" s="49"/>
       <c r="C36" s="44"/>
@@ -22935,15 +23057,17 @@
       <c r="I36" s="44"/>
       <c r="J36" s="45"/>
       <c r="K36" s="90" t="s">
-        <v>478</v>
+        <v>403</v>
       </c>
       <c r="L36" s="88"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="84" t="s">
-        <v>492</v>
-      </c>
-      <c r="B37" s="49"/>
+        <v>818</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>816</v>
+      </c>
       <c r="C37" s="44"/>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -22953,13 +23077,13 @@
       <c r="I37" s="44"/>
       <c r="J37" s="45"/>
       <c r="K37" s="90" t="s">
-        <v>493</v>
+        <v>819</v>
       </c>
       <c r="L37" s="88"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="84" t="s">
-        <v>398</v>
+        <v>477</v>
       </c>
       <c r="B38" s="49"/>
       <c r="C38" s="44"/>
@@ -22971,17 +23095,15 @@
       <c r="I38" s="44"/>
       <c r="J38" s="45"/>
       <c r="K38" s="90" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="L38" s="88"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="84" t="s">
-        <v>468</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>494</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="B39" s="49"/>
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
       <c r="E39" s="44"/>
@@ -22991,15 +23113,13 @@
       <c r="I39" s="44"/>
       <c r="J39" s="45"/>
       <c r="K39" s="90" t="s">
-        <v>469</v>
-      </c>
-      <c r="L39" s="88">
-        <v>5</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="L39" s="88"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="84" t="s">
-        <v>462</v>
+        <v>398</v>
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="44"/>
@@ -23011,15 +23131,17 @@
       <c r="I40" s="44"/>
       <c r="J40" s="45"/>
       <c r="K40" s="90" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="L40" s="88"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="84" t="s">
-        <v>460</v>
-      </c>
-      <c r="B41" s="49"/>
+        <v>468</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>494</v>
+      </c>
       <c r="C41" s="44"/>
       <c r="D41" s="44"/>
       <c r="E41" s="44"/>
@@ -23029,13 +23151,15 @@
       <c r="I41" s="44"/>
       <c r="J41" s="45"/>
       <c r="K41" s="90" t="s">
-        <v>461</v>
-      </c>
-      <c r="L41" s="88"/>
+        <v>469</v>
+      </c>
+      <c r="L41" s="88">
+        <v>5</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="84" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="B42" s="49"/>
       <c r="C42" s="44"/>
@@ -23047,13 +23171,13 @@
       <c r="I42" s="44"/>
       <c r="J42" s="45"/>
       <c r="K42" s="90" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="L42" s="88"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="84" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="B43" s="49"/>
       <c r="C43" s="44"/>
@@ -23065,15 +23189,13 @@
       <c r="I43" s="44"/>
       <c r="J43" s="45"/>
       <c r="K43" s="90" t="s">
-        <v>426</v>
-      </c>
-      <c r="L43" s="88">
-        <v>3</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="L43" s="88"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="84" t="s">
-        <v>516</v>
+        <v>447</v>
       </c>
       <c r="B44" s="49"/>
       <c r="C44" s="44"/>
@@ -23085,17 +23207,15 @@
       <c r="I44" s="44"/>
       <c r="J44" s="45"/>
       <c r="K44" s="90" t="s">
-        <v>517</v>
+        <v>448</v>
       </c>
       <c r="L44" s="88"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="84" t="s">
-        <v>565</v>
-      </c>
-      <c r="B45" s="49" t="s">
-        <v>566</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="B45" s="49"/>
       <c r="C45" s="44"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
@@ -23105,13 +23225,15 @@
       <c r="I45" s="44"/>
       <c r="J45" s="45"/>
       <c r="K45" s="90" t="s">
-        <v>567</v>
-      </c>
-      <c r="L45" s="45"/>
+        <v>426</v>
+      </c>
+      <c r="L45" s="88">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="84" t="s">
-        <v>150</v>
+        <v>516</v>
       </c>
       <c r="B46" s="49"/>
       <c r="C46" s="44"/>
@@ -23123,17 +23245,17 @@
       <c r="I46" s="44"/>
       <c r="J46" s="45"/>
       <c r="K46" s="90" t="s">
-        <v>471</v>
-      </c>
-      <c r="L46" s="88">
-        <v>3</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="L46" s="88"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="84" t="s">
-        <v>628</v>
-      </c>
-      <c r="B47" s="49"/>
+        <v>565</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>566</v>
+      </c>
       <c r="C47" s="44"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
@@ -23143,17 +23265,15 @@
       <c r="I47" s="44"/>
       <c r="J47" s="45"/>
       <c r="K47" s="90" t="s">
-        <v>629</v>
+        <v>567</v>
       </c>
       <c r="L47" s="45"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="84" t="s">
-        <v>502</v>
-      </c>
-      <c r="B48" s="49" t="s">
-        <v>503</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B48" s="49"/>
       <c r="C48" s="44"/>
       <c r="D48" s="44"/>
       <c r="E48" s="44"/>
@@ -23163,13 +23283,15 @@
       <c r="I48" s="44"/>
       <c r="J48" s="45"/>
       <c r="K48" s="90" t="s">
-        <v>504</v>
-      </c>
-      <c r="L48" s="88"/>
+        <v>471</v>
+      </c>
+      <c r="L48" s="88">
+        <v>3</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="84" t="s">
-        <v>479</v>
+        <v>628</v>
       </c>
       <c r="B49" s="49"/>
       <c r="C49" s="44"/>
@@ -23181,17 +23303,17 @@
       <c r="I49" s="44"/>
       <c r="J49" s="45"/>
       <c r="K49" s="90" t="s">
-        <v>480</v>
-      </c>
-      <c r="L49" s="88">
-        <v>3</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="L49" s="45"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="84" t="s">
-        <v>611</v>
-      </c>
-      <c r="B50" s="49"/>
+        <v>502</v>
+      </c>
+      <c r="B50" s="49" t="s">
+        <v>503</v>
+      </c>
       <c r="C50" s="44"/>
       <c r="D50" s="44"/>
       <c r="E50" s="44"/>
@@ -23201,19 +23323,15 @@
       <c r="I50" s="44"/>
       <c r="J50" s="45"/>
       <c r="K50" s="90" t="s">
-        <v>612</v>
-      </c>
-      <c r="L50" s="45">
-        <v>3</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="L50" s="88"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="84" t="s">
-        <v>600</v>
-      </c>
-      <c r="B51" s="49" t="s">
-        <v>601</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="B51" s="49"/>
       <c r="C51" s="44"/>
       <c r="D51" s="44"/>
       <c r="E51" s="44"/>
@@ -23223,15 +23341,15 @@
       <c r="I51" s="44"/>
       <c r="J51" s="45"/>
       <c r="K51" s="90" t="s">
-        <v>602</v>
-      </c>
-      <c r="L51" s="45">
-        <v>5</v>
+        <v>480</v>
+      </c>
+      <c r="L51" s="88">
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="84" t="s">
-        <v>562</v>
+        <v>611</v>
       </c>
       <c r="B52" s="49"/>
       <c r="C52" s="44"/>
@@ -23243,15 +23361,19 @@
       <c r="I52" s="44"/>
       <c r="J52" s="45"/>
       <c r="K52" s="90" t="s">
-        <v>563</v>
-      </c>
-      <c r="L52" s="45"/>
+        <v>612</v>
+      </c>
+      <c r="L52" s="45">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="84" t="s">
-        <v>618</v>
-      </c>
-      <c r="B53" s="49"/>
+        <v>600</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>601</v>
+      </c>
       <c r="C53" s="44"/>
       <c r="D53" s="44"/>
       <c r="E53" s="44"/>
@@ -23261,13 +23383,15 @@
       <c r="I53" s="44"/>
       <c r="J53" s="45"/>
       <c r="K53" s="90" t="s">
-        <v>619</v>
-      </c>
-      <c r="L53" s="45"/>
+        <v>602</v>
+      </c>
+      <c r="L53" s="45">
+        <v>5</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="84" t="s">
-        <v>616</v>
+        <v>562</v>
       </c>
       <c r="B54" s="49"/>
       <c r="C54" s="44"/>
@@ -23279,13 +23403,13 @@
       <c r="I54" s="44"/>
       <c r="J54" s="45"/>
       <c r="K54" s="90" t="s">
-        <v>617</v>
+        <v>563</v>
       </c>
       <c r="L54" s="45"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="84" t="s">
-        <v>441</v>
+        <v>618</v>
       </c>
       <c r="B55" s="49"/>
       <c r="C55" s="44"/>
@@ -23297,17 +23421,15 @@
       <c r="I55" s="44"/>
       <c r="J55" s="45"/>
       <c r="K55" s="90" t="s">
-        <v>442</v>
-      </c>
-      <c r="L55" s="88"/>
+        <v>619</v>
+      </c>
+      <c r="L55" s="45"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="84" t="s">
-        <v>500</v>
-      </c>
-      <c r="B56" s="49" t="s">
-        <v>501</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="B56" s="49"/>
       <c r="C56" s="44"/>
       <c r="D56" s="44"/>
       <c r="E56" s="44"/>
@@ -23317,13 +23439,13 @@
       <c r="I56" s="44"/>
       <c r="J56" s="45"/>
       <c r="K56" s="90" t="s">
-        <v>521</v>
+        <v>617</v>
       </c>
       <c r="L56" s="45"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="84" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="B57" s="49"/>
       <c r="C57" s="44"/>
@@ -23335,41 +23457,33 @@
       <c r="I57" s="44"/>
       <c r="J57" s="45"/>
       <c r="K57" s="90" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="L57" s="88"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="84" t="s">
-        <v>571</v>
+        <v>500</v>
       </c>
       <c r="B58" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="C58" s="44" t="s">
-        <v>805</v>
-      </c>
-      <c r="D58" s="44" t="s">
-        <v>503</v>
-      </c>
-      <c r="E58" s="44" t="s">
-        <v>805</v>
-      </c>
-      <c r="F58" s="44" t="s">
-        <v>297</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
       <c r="G58" s="44"/>
       <c r="H58" s="44"/>
       <c r="I58" s="44"/>
       <c r="J58" s="45"/>
       <c r="K58" s="90" t="s">
-        <v>572</v>
+        <v>521</v>
       </c>
       <c r="L58" s="45"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="84" t="s">
-        <v>626</v>
+        <v>466</v>
       </c>
       <c r="B59" s="49"/>
       <c r="C59" s="44"/>
@@ -23381,35 +23495,41 @@
       <c r="I59" s="44"/>
       <c r="J59" s="45"/>
       <c r="K59" s="90" t="s">
-        <v>627</v>
-      </c>
-      <c r="L59" s="45">
-        <v>5</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="L59" s="88"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="84" t="s">
-        <v>453</v>
-      </c>
-      <c r="B60" s="49"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
+        <v>571</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>805</v>
+      </c>
+      <c r="D60" s="44" t="s">
+        <v>503</v>
+      </c>
+      <c r="E60" s="44" t="s">
+        <v>805</v>
+      </c>
+      <c r="F60" s="44" t="s">
+        <v>297</v>
+      </c>
       <c r="G60" s="44"/>
       <c r="H60" s="44"/>
       <c r="I60" s="44"/>
       <c r="J60" s="45"/>
       <c r="K60" s="90" t="s">
-        <v>454</v>
-      </c>
-      <c r="L60" s="88">
-        <v>3</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="L60" s="45"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="84" t="s">
-        <v>431</v>
+        <v>626</v>
       </c>
       <c r="B61" s="49"/>
       <c r="C61" s="44"/>
@@ -23421,15 +23541,15 @@
       <c r="I61" s="44"/>
       <c r="J61" s="45"/>
       <c r="K61" s="90" t="s">
-        <v>432</v>
-      </c>
-      <c r="L61" s="88">
-        <v>3</v>
+        <v>627</v>
+      </c>
+      <c r="L61" s="45">
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="84" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="B62" s="49"/>
       <c r="C62" s="44"/>
@@ -23441,13 +23561,15 @@
       <c r="I62" s="44"/>
       <c r="J62" s="45"/>
       <c r="K62" s="90" t="s">
-        <v>404</v>
-      </c>
-      <c r="L62" s="88"/>
+        <v>454</v>
+      </c>
+      <c r="L62" s="88">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="84" t="s">
-        <v>632</v>
+        <v>431</v>
       </c>
       <c r="B63" s="49"/>
       <c r="C63" s="44"/>
@@ -23459,13 +23581,15 @@
       <c r="I63" s="44"/>
       <c r="J63" s="45"/>
       <c r="K63" s="90" t="s">
-        <v>633</v>
-      </c>
-      <c r="L63" s="45"/>
+        <v>432</v>
+      </c>
+      <c r="L63" s="88">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="84" t="s">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="B64" s="49"/>
       <c r="C64" s="44"/>
@@ -23477,13 +23601,13 @@
       <c r="I64" s="44"/>
       <c r="J64" s="45"/>
       <c r="K64" s="90" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="L64" s="88"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="84" t="s">
-        <v>449</v>
+        <v>632</v>
       </c>
       <c r="B65" s="49"/>
       <c r="C65" s="44"/>
@@ -23495,23 +23619,17 @@
       <c r="I65" s="44"/>
       <c r="J65" s="45"/>
       <c r="K65" s="90" t="s">
-        <v>450</v>
-      </c>
-      <c r="L65" s="88"/>
+        <v>633</v>
+      </c>
+      <c r="L65" s="45"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="84" t="s">
-        <v>648</v>
-      </c>
-      <c r="B66" s="49" t="s">
-        <v>645</v>
-      </c>
-      <c r="C66" s="44" t="s">
-        <v>805</v>
-      </c>
-      <c r="D66" s="44" t="s">
-        <v>646</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="B66" s="49"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
       <c r="E66" s="44"/>
       <c r="F66" s="44"/>
       <c r="G66" s="44"/>
@@ -23519,19 +23637,15 @@
       <c r="I66" s="44"/>
       <c r="J66" s="45"/>
       <c r="K66" s="90" t="s">
-        <v>647</v>
-      </c>
-      <c r="L66" s="45">
-        <v>5</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="L66" s="88"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="84" t="s">
-        <v>568</v>
-      </c>
-      <c r="B67" s="49" t="s">
-        <v>569</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="B67" s="49"/>
       <c r="C67" s="44"/>
       <c r="D67" s="44"/>
       <c r="E67" s="44"/>
@@ -23541,19 +23655,23 @@
       <c r="I67" s="44"/>
       <c r="J67" s="45"/>
       <c r="K67" s="90" t="s">
-        <v>641</v>
-      </c>
-      <c r="L67" s="45">
-        <v>1</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="L67" s="88"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="84" t="s">
-        <v>416</v>
-      </c>
-      <c r="B68" s="49"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
+        <v>648</v>
+      </c>
+      <c r="B68" s="49" t="s">
+        <v>645</v>
+      </c>
+      <c r="C68" s="44" t="s">
+        <v>805</v>
+      </c>
+      <c r="D68" s="44" t="s">
+        <v>646</v>
+      </c>
       <c r="E68" s="44"/>
       <c r="F68" s="44"/>
       <c r="G68" s="44"/>
@@ -23561,15 +23679,19 @@
       <c r="I68" s="44"/>
       <c r="J68" s="45"/>
       <c r="K68" s="90" t="s">
-        <v>488</v>
-      </c>
-      <c r="L68" s="88"/>
+        <v>647</v>
+      </c>
+      <c r="L68" s="45">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="84" t="s">
-        <v>570</v>
-      </c>
-      <c r="B69" s="49"/>
+        <v>568</v>
+      </c>
+      <c r="B69" s="49" t="s">
+        <v>569</v>
+      </c>
       <c r="C69" s="44"/>
       <c r="D69" s="44"/>
       <c r="E69" s="44"/>
@@ -23579,15 +23701,15 @@
       <c r="I69" s="44"/>
       <c r="J69" s="45"/>
       <c r="K69" s="90" t="s">
-        <v>564</v>
-      </c>
-      <c r="L69" s="88">
-        <v>3</v>
+        <v>641</v>
+      </c>
+      <c r="L69" s="45">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="84" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="B70" s="49"/>
       <c r="C70" s="44"/>
@@ -23599,17 +23721,15 @@
       <c r="I70" s="44"/>
       <c r="J70" s="45"/>
       <c r="K70" s="90" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="L70" s="88"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="84" t="s">
-        <v>595</v>
-      </c>
-      <c r="B71" s="49" t="s">
-        <v>596</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="B71" s="49"/>
       <c r="C71" s="44"/>
       <c r="D71" s="44"/>
       <c r="E71" s="44"/>
@@ -23619,13 +23739,15 @@
       <c r="I71" s="44"/>
       <c r="J71" s="45"/>
       <c r="K71" s="90" t="s">
-        <v>597</v>
-      </c>
-      <c r="L71" s="45"/>
+        <v>564</v>
+      </c>
+      <c r="L71" s="88">
+        <v>3</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="84" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="B72" s="49"/>
       <c r="C72" s="44"/>
@@ -23637,15 +23759,17 @@
       <c r="I72" s="44"/>
       <c r="J72" s="45"/>
       <c r="K72" s="90" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="L72" s="88"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="84" t="s">
-        <v>560</v>
-      </c>
-      <c r="B73" s="49"/>
+        <v>595</v>
+      </c>
+      <c r="B73" s="49" t="s">
+        <v>596</v>
+      </c>
       <c r="C73" s="44"/>
       <c r="D73" s="44"/>
       <c r="E73" s="44"/>
@@ -23655,13 +23779,13 @@
       <c r="I73" s="44"/>
       <c r="J73" s="45"/>
       <c r="K73" s="90" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="L73" s="45"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="84" t="s">
-        <v>581</v>
+        <v>481</v>
       </c>
       <c r="B74" s="49"/>
       <c r="C74" s="44"/>
@@ -23673,17 +23797,15 @@
       <c r="I74" s="44"/>
       <c r="J74" s="45"/>
       <c r="K74" s="90" t="s">
-        <v>582</v>
-      </c>
-      <c r="L74" s="45"/>
+        <v>482</v>
+      </c>
+      <c r="L74" s="88"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="85" t="s">
-        <v>497</v>
-      </c>
-      <c r="B75" s="49" t="s">
-        <v>491</v>
-      </c>
+      <c r="A75" s="84" t="s">
+        <v>560</v>
+      </c>
+      <c r="B75" s="49"/>
       <c r="C75" s="44"/>
       <c r="D75" s="44"/>
       <c r="E75" s="44"/>
@@ -23693,13 +23815,13 @@
       <c r="I75" s="44"/>
       <c r="J75" s="45"/>
       <c r="K75" s="90" t="s">
-        <v>498</v>
-      </c>
-      <c r="L75" s="88"/>
+        <v>561</v>
+      </c>
+      <c r="L75" s="45"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="84" t="s">
-        <v>423</v>
+        <v>581</v>
       </c>
       <c r="B76" s="49"/>
       <c r="C76" s="44"/>
@@ -23711,15 +23833,17 @@
       <c r="I76" s="44"/>
       <c r="J76" s="45"/>
       <c r="K76" s="90" t="s">
-        <v>424</v>
-      </c>
-      <c r="L76" s="88"/>
+        <v>582</v>
+      </c>
+      <c r="L76" s="45"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="84" t="s">
-        <v>514</v>
-      </c>
-      <c r="B77" s="49"/>
+      <c r="A77" s="85" t="s">
+        <v>497</v>
+      </c>
+      <c r="B77" s="49" t="s">
+        <v>491</v>
+      </c>
       <c r="C77" s="44"/>
       <c r="D77" s="44"/>
       <c r="E77" s="44"/>
@@ -23729,23 +23853,17 @@
       <c r="I77" s="44"/>
       <c r="J77" s="45"/>
       <c r="K77" s="90" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="L77" s="88"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="84" t="s">
-        <v>811</v>
-      </c>
-      <c r="B78" s="49" t="s">
-        <v>807</v>
-      </c>
-      <c r="C78" s="44" t="s">
-        <v>805</v>
-      </c>
-      <c r="D78" s="44" t="s">
-        <v>806</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="B78" s="49"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
       <c r="E78" s="44"/>
       <c r="F78" s="44"/>
       <c r="G78" s="44"/>
@@ -23753,17 +23871,15 @@
       <c r="I78" s="44"/>
       <c r="J78" s="45"/>
       <c r="K78" s="90" t="s">
-        <v>810</v>
-      </c>
-      <c r="L78" s="45"/>
+        <v>424</v>
+      </c>
+      <c r="L78" s="88"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="84" t="s">
-        <v>489</v>
-      </c>
-      <c r="B79" s="49" t="s">
-        <v>491</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="B79" s="49"/>
       <c r="C79" s="44"/>
       <c r="D79" s="44"/>
       <c r="E79" s="44"/>
@@ -23773,19 +23889,23 @@
       <c r="I79" s="44"/>
       <c r="J79" s="45"/>
       <c r="K79" s="90" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="L79" s="88"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="84" t="s">
-        <v>603</v>
+        <v>811</v>
       </c>
       <c r="B80" s="49" t="s">
-        <v>604</v>
-      </c>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
+        <v>807</v>
+      </c>
+      <c r="C80" s="44" t="s">
+        <v>805</v>
+      </c>
+      <c r="D80" s="44" t="s">
+        <v>806</v>
+      </c>
       <c r="E80" s="44"/>
       <c r="F80" s="44"/>
       <c r="G80" s="44"/>
@@ -23793,17 +23913,17 @@
       <c r="I80" s="44"/>
       <c r="J80" s="45"/>
       <c r="K80" s="90" t="s">
-        <v>605</v>
-      </c>
-      <c r="L80" s="45">
-        <v>3</v>
-      </c>
+        <v>810</v>
+      </c>
+      <c r="L80" s="45"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="84" t="s">
-        <v>433</v>
-      </c>
-      <c r="B81" s="49"/>
+        <v>489</v>
+      </c>
+      <c r="B81" s="49" t="s">
+        <v>491</v>
+      </c>
       <c r="C81" s="44"/>
       <c r="D81" s="44"/>
       <c r="E81" s="44"/>
@@ -23813,17 +23933,17 @@
       <c r="I81" s="44"/>
       <c r="J81" s="45"/>
       <c r="K81" s="90" t="s">
-        <v>434</v>
-      </c>
-      <c r="L81" s="88">
-        <v>5</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="L81" s="88"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="84" t="s">
-        <v>630</v>
-      </c>
-      <c r="B82" s="49"/>
+        <v>603</v>
+      </c>
+      <c r="B82" s="49" t="s">
+        <v>604</v>
+      </c>
       <c r="C82" s="44"/>
       <c r="D82" s="44"/>
       <c r="E82" s="44"/>
@@ -23833,17 +23953,17 @@
       <c r="I82" s="44"/>
       <c r="J82" s="45"/>
       <c r="K82" s="90" t="s">
-        <v>631</v>
-      </c>
-      <c r="L82" s="45"/>
+        <v>605</v>
+      </c>
+      <c r="L82" s="45">
+        <v>3</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="84" t="s">
-        <v>578</v>
-      </c>
-      <c r="B83" s="49" t="s">
-        <v>579</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="B83" s="49"/>
       <c r="C83" s="44"/>
       <c r="D83" s="44"/>
       <c r="E83" s="44"/>
@@ -23853,19 +23973,17 @@
       <c r="I83" s="44"/>
       <c r="J83" s="45"/>
       <c r="K83" s="90" t="s">
-        <v>580</v>
-      </c>
-      <c r="L83" s="45">
-        <v>3</v>
+        <v>434</v>
+      </c>
+      <c r="L83" s="88">
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="84" t="s">
-        <v>653</v>
-      </c>
-      <c r="B84" s="49" t="s">
-        <v>654</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="B84" s="49"/>
       <c r="C84" s="44"/>
       <c r="D84" s="44"/>
       <c r="E84" s="44"/>
@@ -23875,15 +23993,17 @@
       <c r="I84" s="44"/>
       <c r="J84" s="45"/>
       <c r="K84" s="90" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="L84" s="45"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="84" t="s">
-        <v>405</v>
-      </c>
-      <c r="B85" s="49"/>
+        <v>578</v>
+      </c>
+      <c r="B85" s="49" t="s">
+        <v>579</v>
+      </c>
       <c r="C85" s="44"/>
       <c r="D85" s="44"/>
       <c r="E85" s="44"/>
@@ -23893,15 +24013,19 @@
       <c r="I85" s="44"/>
       <c r="J85" s="45"/>
       <c r="K85" s="90" t="s">
-        <v>406</v>
-      </c>
-      <c r="L85" s="88"/>
+        <v>580</v>
+      </c>
+      <c r="L85" s="45">
+        <v>3</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="84" t="s">
-        <v>620</v>
-      </c>
-      <c r="B86" s="49"/>
+        <v>653</v>
+      </c>
+      <c r="B86" s="49" t="s">
+        <v>654</v>
+      </c>
       <c r="C86" s="44"/>
       <c r="D86" s="44"/>
       <c r="E86" s="44"/>
@@ -23911,17 +24035,15 @@
       <c r="I86" s="44"/>
       <c r="J86" s="45"/>
       <c r="K86" s="90" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="L86" s="45"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="84" t="s">
-        <v>573</v>
-      </c>
-      <c r="B87" s="49" t="s">
-        <v>574</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="B87" s="49"/>
       <c r="C87" s="44"/>
       <c r="D87" s="44"/>
       <c r="E87" s="44"/>
@@ -23931,31 +24053,69 @@
       <c r="I87" s="44"/>
       <c r="J87" s="45"/>
       <c r="K87" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="L87" s="88"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="84" t="s">
+        <v>620</v>
+      </c>
+      <c r="B88" s="49"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="45"/>
+      <c r="K88" s="90" t="s">
+        <v>621</v>
+      </c>
+      <c r="L88" s="45"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="84" t="s">
+        <v>573</v>
+      </c>
+      <c r="B89" s="49" t="s">
+        <v>574</v>
+      </c>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="45"/>
+      <c r="K89" s="90" t="s">
         <v>575</v>
       </c>
-      <c r="L87" s="45"/>
-    </row>
-    <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="86" t="s">
+      <c r="L89" s="45"/>
+    </row>
+    <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="86" t="s">
         <v>608</v>
       </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="65"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="65"/>
-      <c r="J88" s="66"/>
-      <c r="K88" s="91" t="s">
+      <c r="B90" s="64"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="65"/>
+      <c r="I90" s="65"/>
+      <c r="J90" s="66"/>
+      <c r="K90" s="91" t="s">
         <v>609</v>
       </c>
-      <c r="L88" s="66">
+      <c r="L90" s="66">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A3:L85">
     <sortCondition ref="A3:A85"/>
@@ -23969,36 +24129,39 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="87.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="34"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="87.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>761</v>
       </c>
-      <c r="E1" s="159" t="s">
+      <c r="E1" s="158" t="s">
         <v>401</v>
       </c>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>399</v>
       </c>
@@ -24012,29 +24175,31 @@
       <c r="E2" s="31">
         <v>1</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="130"/>
+      <c r="G2" s="31">
         <v>2</v>
       </c>
-      <c r="G2" s="31">
+      <c r="H2" s="130"/>
+      <c r="I2" s="31">
         <v>3</v>
       </c>
-      <c r="H2" s="31">
+      <c r="J2" s="31">
         <v>4</v>
       </c>
-      <c r="I2" s="31">
+      <c r="K2" s="31">
         <v>5</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="L2" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="M2" s="31" t="s">
         <v>400</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="N2" s="34" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>407</v>
       </c>
@@ -24045,19 +24210,23 @@
       <c r="D3" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="31" t="s">
+        <v>965</v>
+      </c>
+      <c r="F3" s="130"/>
       <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="H3" s="130"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="31">
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31">
         <v>4</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="M3" s="31" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>417</v>
       </c>
@@ -24068,19 +24237,23 @@
       <c r="D4" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="E4" s="31" t="s">
+        <v>977</v>
+      </c>
+      <c r="F4" s="130"/>
       <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="H4" s="130"/>
       <c r="I4" s="31"/>
-      <c r="J4" s="31">
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31">
         <v>4</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="M4" s="31" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>457</v>
       </c>
@@ -24096,17 +24269,19 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
         <v>4</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="L5" s="34">
+      <c r="N5" s="34">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>414</v>
       </c>
@@ -24117,14 +24292,14 @@
       <c r="D6" s="33" t="s">
         <v>408</v>
       </c>
-      <c r="J6" s="33">
+      <c r="L6" s="33">
         <v>6</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="M6" s="33" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>415</v>
       </c>
@@ -24135,14 +24310,14 @@
       <c r="D7" s="33" t="s">
         <v>527</v>
       </c>
-      <c r="J7" s="33">
+      <c r="L7" s="33">
         <v>6</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="M7" s="33" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>529</v>
       </c>
@@ -24156,17 +24331,18 @@
       <c r="E8" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="J8" s="33">
+      <c r="F8" s="130"/>
+      <c r="L8" s="33">
         <v>6</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="M8" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="L8" s="34">
+      <c r="N8" s="34">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>413</v>
       </c>
@@ -24180,14 +24356,14 @@
       <c r="E9" t="s">
         <v>522</v>
       </c>
-      <c r="J9" s="33">
+      <c r="L9" s="33">
         <v>3</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="M9" s="33" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>533</v>
       </c>
@@ -24201,14 +24377,15 @@
       <c r="E10" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="J10" s="33">
+      <c r="F10" s="130"/>
+      <c r="L10" s="33">
         <v>5</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="M10" s="33" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>535</v>
       </c>
@@ -24219,17 +24396,17 @@
       <c r="D11" s="33" t="s">
         <v>527</v>
       </c>
-      <c r="J11" s="33">
+      <c r="L11" s="33">
         <v>6</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="M11" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="L11" s="34">
+      <c r="N11" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>537</v>
       </c>
@@ -24243,17 +24420,18 @@
       <c r="E12" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="J12" s="33">
+      <c r="F12" s="130"/>
+      <c r="L12" s="33">
         <v>3</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="M12" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="L12" s="34">
+      <c r="N12" s="34">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>538</v>
       </c>
@@ -24264,17 +24442,17 @@
       <c r="D13" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="J13" s="33">
+      <c r="L13" s="33">
         <v>4</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="M13" s="33" t="s">
         <v>539</v>
       </c>
-      <c r="L13" s="34">
+      <c r="N13" s="34">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>540</v>
       </c>
@@ -24288,14 +24466,15 @@
       <c r="E14" s="33" t="s">
         <v>541</v>
       </c>
-      <c r="J14" s="33">
+      <c r="F14" s="130"/>
+      <c r="L14" s="33">
         <v>4</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="M14" s="33" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>543</v>
       </c>
@@ -24309,17 +24488,18 @@
       <c r="E15" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="J15" s="33">
+      <c r="F15" s="130"/>
+      <c r="L15" s="33">
         <v>6</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="M15" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="L15" s="34">
+      <c r="N15" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>545</v>
       </c>
@@ -24330,17 +24510,17 @@
       <c r="D16" s="33" t="s">
         <v>527</v>
       </c>
-      <c r="J16" s="33">
+      <c r="L16" s="33">
         <v>5</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="M16" s="33" t="s">
         <v>546</v>
       </c>
-      <c r="L16" s="34">
+      <c r="N16" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>547</v>
       </c>
@@ -24351,14 +24531,14 @@
       <c r="D17" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="J17" s="33">
-        <v>1</v>
-      </c>
-      <c r="K17" s="33" t="s">
+      <c r="L17" s="33">
+        <v>1</v>
+      </c>
+      <c r="M17" s="33" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>550</v>
       </c>
@@ -24369,14 +24549,14 @@
       <c r="D18" s="33" t="s">
         <v>527</v>
       </c>
-      <c r="J18" s="33">
+      <c r="L18" s="33">
         <v>5</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="M18" s="33" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>552</v>
       </c>
@@ -24387,17 +24567,17 @@
       <c r="D19" s="33" t="s">
         <v>527</v>
       </c>
-      <c r="J19" s="33">
+      <c r="L19" s="33">
         <v>3</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="M19" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="L19" s="34">
+      <c r="N19" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>554</v>
       </c>
@@ -24408,14 +24588,14 @@
       <c r="D20" s="33" t="s">
         <v>527</v>
       </c>
-      <c r="J20" s="33">
+      <c r="L20" s="33">
         <v>3</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="M20" s="33" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>556</v>
       </c>
@@ -24429,14 +24609,15 @@
       <c r="E21" s="34" t="s">
         <v>558</v>
       </c>
-      <c r="J21" s="34">
-        <v>1</v>
-      </c>
-      <c r="K21" s="34" t="s">
+      <c r="F21" s="130"/>
+      <c r="L21" s="34">
+        <v>1</v>
+      </c>
+      <c r="M21" s="34" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>583</v>
       </c>
@@ -24447,14 +24628,14 @@
       <c r="D22" s="35" t="s">
         <v>532</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>584</v>
       </c>
-      <c r="K22" s="35" t="s">
+      <c r="M22" s="35" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>586</v>
       </c>
@@ -24465,14 +24646,14 @@
       <c r="D23" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="J23" s="35">
+      <c r="L23" s="35">
         <v>5</v>
       </c>
-      <c r="K23" s="35" t="s">
+      <c r="M23" s="35" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>588</v>
       </c>
@@ -24483,14 +24664,14 @@
       <c r="D24" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="J24" s="35">
+      <c r="L24" s="35">
         <v>4</v>
       </c>
-      <c r="K24" s="35" t="s">
+      <c r="M24" s="35" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>590</v>
       </c>
@@ -24501,17 +24682,17 @@
       <c r="D25" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="J25" s="35">
+      <c r="L25" s="35">
         <v>5</v>
       </c>
-      <c r="K25" s="35" t="s">
+      <c r="M25" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="L25" s="34">
+      <c r="N25" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>591</v>
       </c>
@@ -24522,14 +24703,14 @@
       <c r="D26" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="J26" s="35">
+      <c r="L26" s="35">
         <v>4</v>
       </c>
-      <c r="K26" s="35" t="s">
+      <c r="M26" s="35" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>593</v>
       </c>
@@ -24540,14 +24721,14 @@
       <c r="D27" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="J27" s="35">
+      <c r="L27" s="35">
         <v>4</v>
       </c>
-      <c r="K27" s="35" t="s">
+      <c r="M27" s="35" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>613</v>
       </c>
@@ -24558,17 +24739,17 @@
       <c r="D28" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="J28" s="35">
+      <c r="L28" s="35">
         <v>7</v>
       </c>
-      <c r="K28" s="35" t="s">
+      <c r="M28" s="35" t="s">
         <v>614</v>
       </c>
-      <c r="L28" s="34">
+      <c r="N28" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
         <v>622</v>
       </c>
@@ -24579,14 +24760,14 @@
       <c r="D29" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="J29" s="35">
+      <c r="L29" s="35">
         <v>0</v>
       </c>
-      <c r="K29" s="35" t="s">
+      <c r="M29" s="35" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>624</v>
       </c>
@@ -24597,14 +24778,14 @@
       <c r="D30" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="J30" s="35">
+      <c r="L30" s="35">
         <v>3</v>
       </c>
-      <c r="K30" s="35" t="s">
+      <c r="M30" s="35" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
         <v>625</v>
       </c>
@@ -24615,14 +24796,14 @@
       <c r="D31" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="J31" s="35">
+      <c r="L31" s="35">
         <v>4</v>
       </c>
-      <c r="K31" s="35" t="s">
+      <c r="M31" s="35" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>637</v>
       </c>
@@ -24633,14 +24814,14 @@
       <c r="D32" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="J32" s="35">
-        <v>1</v>
-      </c>
-      <c r="K32" s="35" t="s">
+      <c r="L32" s="35">
+        <v>1</v>
+      </c>
+      <c r="M32" s="35" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
         <v>639</v>
       </c>
@@ -24651,14 +24832,14 @@
       <c r="D33" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="J33" s="35">
+      <c r="L33" s="35">
         <v>0</v>
       </c>
-      <c r="K33" s="35" t="s">
+      <c r="M33" s="35" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
         <v>509</v>
       </c>
@@ -24669,14 +24850,14 @@
       <c r="D34" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="J34" s="35">
+      <c r="L34" s="35">
         <v>0</v>
       </c>
-      <c r="K34" t="s">
+      <c r="M34" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
         <v>518</v>
       </c>
@@ -24690,14 +24871,15 @@
       <c r="E35" s="35" t="s">
         <v>501</v>
       </c>
-      <c r="J35" s="35">
+      <c r="F35" s="130"/>
+      <c r="L35" s="35">
         <v>0</v>
       </c>
-      <c r="K35" s="35" t="s">
+      <c r="M35" s="35" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
         <v>505</v>
       </c>
@@ -24711,14 +24893,15 @@
       <c r="E36" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="J36" s="35">
+      <c r="F36" s="130"/>
+      <c r="L36" s="35">
         <v>0</v>
       </c>
-      <c r="K36" s="35" t="s">
+      <c r="M36" s="35" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
         <v>506</v>
       </c>
@@ -24732,14 +24915,18 @@
       <c r="E37" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="130" t="s">
+        <v>805</v>
+      </c>
+      <c r="G37" s="35" t="s">
         <v>507</v>
       </c>
-      <c r="K37" t="s">
+      <c r="H37" s="130"/>
+      <c r="M37" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
         <v>649</v>
       </c>
@@ -24753,17 +24940,23 @@
       <c r="E38" s="35" t="s">
         <v>491</v>
       </c>
-      <c r="F38" s="35" t="s">
+      <c r="F38" s="130" t="s">
+        <v>805</v>
+      </c>
+      <c r="G38" s="35" t="s">
         <v>650</v>
       </c>
-      <c r="G38" s="35" t="s">
+      <c r="H38" s="130" t="s">
+        <v>805</v>
+      </c>
+      <c r="I38" s="35" t="s">
         <v>651</v>
       </c>
-      <c r="K38" s="35" t="s">
+      <c r="M38" s="35" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
         <v>657</v>
       </c>
@@ -24777,11 +24970,12 @@
       <c r="E39" s="36" t="s">
         <v>503</v>
       </c>
-      <c r="K39" s="36" t="s">
+      <c r="F39" s="130"/>
+      <c r="M39" s="36" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
         <v>659</v>
       </c>
@@ -24792,11 +24986,11 @@
       <c r="D40" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="K40" s="36" t="s">
+      <c r="M40" s="36" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
         <v>661</v>
       </c>
@@ -24804,23 +24998,188 @@
         <v>642</v>
       </c>
       <c r="C41" s="58"/>
+      <c r="D41" s="130" t="s">
+        <v>527</v>
+      </c>
       <c r="E41" s="36" t="s">
         <v>662</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F41" s="130" t="s">
+        <v>805</v>
+      </c>
+      <c r="G41" s="36" t="s">
         <v>663</v>
       </c>
-      <c r="K41" s="36" t="s">
+      <c r="H41" s="130"/>
+      <c r="M41" s="36" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J43" s="32"/>
-      <c r="L43"/>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="130" t="s">
+        <v>950</v>
+      </c>
+      <c r="B42" s="130" t="s">
+        <v>642</v>
+      </c>
+      <c r="D42" s="130" t="s">
+        <v>527</v>
+      </c>
+      <c r="M42" s="130" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="130" t="s">
+        <v>952</v>
+      </c>
+      <c r="B43" s="130" t="s">
+        <v>642</v>
+      </c>
+      <c r="D43" s="130" t="s">
+        <v>527</v>
+      </c>
+      <c r="L43" s="32"/>
+      <c r="M43" s="130" t="s">
+        <v>953</v>
+      </c>
+      <c r="N43"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="130" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="130" t="s">
+        <v>642</v>
+      </c>
+      <c r="D44" s="130" t="s">
+        <v>527</v>
+      </c>
+      <c r="M44" s="130" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="130" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="130" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="130" t="s">
+        <v>957</v>
+      </c>
+      <c r="B47" s="130" t="s">
+        <v>642</v>
+      </c>
+      <c r="D47" s="130" t="s">
+        <v>527</v>
+      </c>
+      <c r="E47" s="130" t="s">
+        <v>959</v>
+      </c>
+      <c r="M47" s="130" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="130" t="s">
+        <v>964</v>
+      </c>
+      <c r="B48" s="130" t="s">
+        <v>410</v>
+      </c>
+      <c r="D48" s="130" t="s">
+        <v>527</v>
+      </c>
+      <c r="E48" s="130" t="s">
+        <v>965</v>
+      </c>
+      <c r="M48" s="130" t="s">
+        <v>966</v>
+      </c>
+      <c r="N48" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="130" t="s">
+        <v>967</v>
+      </c>
+      <c r="B49" s="130" t="s">
+        <v>410</v>
+      </c>
+      <c r="D49" s="130" t="s">
+        <v>527</v>
+      </c>
+      <c r="E49" s="130" t="s">
+        <v>968</v>
+      </c>
+      <c r="M49" s="130" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="130" t="s">
+        <v>970</v>
+      </c>
+      <c r="B50" s="130" t="s">
+        <v>410</v>
+      </c>
+      <c r="D50" s="130" t="s">
+        <v>527</v>
+      </c>
+      <c r="E50" s="130" t="s">
+        <v>971</v>
+      </c>
+      <c r="M50" s="130" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="130" t="s">
+        <v>973</v>
+      </c>
+      <c r="B51" s="130" t="s">
+        <v>410</v>
+      </c>
+      <c r="D51" s="130" t="s">
+        <v>527</v>
+      </c>
+      <c r="E51" s="130" t="s">
+        <v>974</v>
+      </c>
+      <c r="M51" s="130" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="130" t="s">
+        <v>976</v>
+      </c>
+      <c r="B52" s="130" t="s">
+        <v>410</v>
+      </c>
+      <c r="D52" s="130" t="s">
+        <v>527</v>
+      </c>
+      <c r="E52" s="130" t="s">
+        <v>977</v>
+      </c>
+      <c r="M52" s="130" t="s">
+        <v>978</v>
+      </c>
+      <c r="N52" s="34">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
@@ -25567,24 +25926,24 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="101"/>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="148" t="s">
         <v>762</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="102"/>
-      <c r="F1" s="147" t="s">
+      <c r="F1" s="146" t="s">
         <v>386</v>
       </c>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="148"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="147"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
       <c r="R1" s="30"/>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" firstSheet="12" activeTab="23"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716"/>
   </bookViews>
   <sheets>
     <sheet name="TODO - Quick Battle" sheetId="37" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="Abilities" sheetId="35" r:id="rId24"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -701,7 +702,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="980">
   <si>
     <t>Fishing</t>
   </si>
@@ -3280,9 +3281,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>Whirlwind</t>
-  </si>
-  <si>
     <t>Combat</t>
   </si>
   <si>
@@ -3638,6 +3636,12 @@
   </si>
   <si>
     <t>Absorb all shields on target, gain +might for each point of shield absorbed</t>
+  </si>
+  <si>
+    <t>Living Shield</t>
+  </si>
+  <si>
+    <t>Heals Create a shield on this target for 25% of the heal</t>
   </si>
 </sst>
 </file>
@@ -4886,9 +4890,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -5180,10 +5181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="J151" sqref="J151"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5252,16 +5253,16 @@
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="117"/>
       <c r="B8" s="123" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C8" s="124" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="117"/>
       <c r="B9" s="121" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C9" s="122" t="s">
         <v>760</v>
@@ -5282,7 +5283,7 @@
         <v>853</v>
       </c>
       <c r="C11" s="120" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5300,7 +5301,7 @@
         <v>853</v>
       </c>
       <c r="C13" s="120" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5318,7 +5319,7 @@
         <v>853</v>
       </c>
       <c r="C15" s="120" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5336,7 +5337,7 @@
         <v>853</v>
       </c>
       <c r="C17" s="120" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5362,7 +5363,7 @@
         <v>853</v>
       </c>
       <c r="C21" s="120" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5380,13 +5381,13 @@
         <v>858</v>
       </c>
       <c r="C23" s="124" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="117"/>
       <c r="B24" s="123" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C24" s="124" t="s">
         <v>735</v>
@@ -5395,7 +5396,7 @@
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="117"/>
       <c r="B25" s="126" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C25" s="127" t="s">
         <v>718</v>
@@ -5404,7 +5405,7 @@
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="117"/>
       <c r="B26" s="126" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C26" s="127" t="s">
         <v>549</v>
@@ -5413,127 +5414,127 @@
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="117"/>
       <c r="B27" s="126" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C27" s="127" t="s">
-        <v>859</v>
+        <v>945</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="117"/>
-      <c r="B28" s="126" t="s">
+      <c r="B28" s="121" t="s">
         <v>898</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="122" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="117"/>
-      <c r="B29" s="121" t="s">
-        <v>899</v>
-      </c>
-      <c r="C29" s="122" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="131" t="s">
+        <v>859</v>
+      </c>
+      <c r="B30" s="132"/>
+      <c r="C30" s="133"/>
+    </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="131" t="s">
+      <c r="A31" s="116">
+        <v>1</v>
+      </c>
+      <c r="B31" s="134" t="s">
+        <v>847</v>
+      </c>
+      <c r="C31" s="135"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="117"/>
+      <c r="B32" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C32" s="120" t="s">
         <v>860</v>
       </c>
-      <c r="B31" s="132"/>
-      <c r="C31" s="133"/>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="116">
-        <v>1</v>
-      </c>
-      <c r="B32" s="134" t="s">
-        <v>847</v>
-      </c>
-      <c r="C32" s="135"/>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="117"/>
-      <c r="B33" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C33" s="120" t="s">
-        <v>861</v>
+      <c r="B33" s="123" t="s">
+        <v>858</v>
+      </c>
+      <c r="C33" s="124" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="117"/>
-      <c r="B34" s="123" t="s">
-        <v>858</v>
-      </c>
-      <c r="C34" s="124" t="s">
+      <c r="B34" s="121" t="s">
+        <v>861</v>
+      </c>
+      <c r="C34" s="122" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="117"/>
-      <c r="B35" s="121" t="s">
-        <v>862</v>
-      </c>
-      <c r="C35" s="122" t="s">
+    <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="117">
+        <v>2</v>
+      </c>
+      <c r="B35" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="139"/>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="117"/>
+      <c r="B36" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C36" s="120" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="117">
-        <v>2</v>
-      </c>
-      <c r="B36" s="138" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="139"/>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="117"/>
-      <c r="B37" s="119" t="s">
+      <c r="B37" s="121"/>
+      <c r="C37" s="122"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="131" t="s">
+        <v>867</v>
+      </c>
+      <c r="B39" s="132"/>
+      <c r="C39" s="133"/>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="116">
+        <v>1</v>
+      </c>
+      <c r="B40" s="134" t="s">
+        <v>868</v>
+      </c>
+      <c r="C40" s="135"/>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="117"/>
+      <c r="B41" s="119" t="s">
         <v>853</v>
       </c>
-      <c r="C37" s="120" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="117"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="122"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="131" t="s">
-        <v>868</v>
-      </c>
-      <c r="B40" s="132"/>
-      <c r="C40" s="133"/>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="116">
-        <v>1</v>
-      </c>
-      <c r="B41" s="134" t="s">
+      <c r="C41" s="120" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="117"/>
+      <c r="B42" s="123" t="s">
+        <v>854</v>
+      </c>
+      <c r="C42" s="124" t="s">
         <v>869</v>
-      </c>
-      <c r="C41" s="135"/>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="117"/>
-      <c r="B42" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C42" s="120" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="117"/>
       <c r="B43" s="123" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C43" s="124" t="s">
         <v>870</v>
@@ -5541,79 +5542,79 @@
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="117"/>
-      <c r="B44" s="123" t="s">
-        <v>858</v>
-      </c>
-      <c r="C44" s="124" t="s">
+      <c r="B44" s="121" t="s">
+        <v>861</v>
+      </c>
+      <c r="C44" s="122" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="117"/>
-      <c r="B45" s="121" t="s">
-        <v>862</v>
-      </c>
-      <c r="C45" s="122" t="s">
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="131" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B46" s="132"/>
+      <c r="C46" s="133"/>
+    </row>
     <row r="47" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="131" t="s">
+      <c r="A47" s="116">
+        <v>1</v>
+      </c>
+      <c r="B47" s="134" t="s">
         <v>873</v>
       </c>
-      <c r="B47" s="132"/>
-      <c r="C47" s="133"/>
+      <c r="C47" s="135"/>
     </row>
     <row r="48" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="116">
-        <v>1</v>
-      </c>
-      <c r="B48" s="134" t="s">
+      <c r="A48" s="117"/>
+      <c r="B48" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C48" s="120" t="s">
         <v>874</v>
       </c>
-      <c r="C48" s="135"/>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="117"/>
-      <c r="B49" s="119" t="s">
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="125"/>
+      <c r="B49" s="121" t="s">
+        <v>854</v>
+      </c>
+      <c r="C49" s="122" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="116">
+        <v>1</v>
+      </c>
+      <c r="B50" s="134" t="s">
+        <v>875</v>
+      </c>
+      <c r="C50" s="135"/>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="117"/>
+      <c r="B51" s="119" t="s">
         <v>853</v>
       </c>
-      <c r="C49" s="120" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="125"/>
-      <c r="B50" s="121" t="s">
+      <c r="C51" s="120" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="117"/>
+      <c r="B52" s="123" t="s">
         <v>854</v>
       </c>
-      <c r="C50" s="122" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="116">
-        <v>1</v>
-      </c>
-      <c r="B51" s="134" t="s">
-        <v>876</v>
-      </c>
-      <c r="C51" s="135"/>
-    </row>
-    <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="117"/>
-      <c r="B52" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C52" s="120" t="s">
+      <c r="C52" s="124" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="117"/>
       <c r="B53" s="123" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C53" s="124" t="s">
         <v>878</v>
@@ -5621,251 +5622,251 @@
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="117"/>
-      <c r="B54" s="123" t="s">
-        <v>858</v>
-      </c>
-      <c r="C54" s="124" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="117"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="122"/>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="122"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="131" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" s="132"/>
+      <c r="C56" s="133"/>
+    </row>
     <row r="57" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="131" t="s">
-        <v>213</v>
-      </c>
-      <c r="B57" s="132"/>
-      <c r="C57" s="133"/>
-    </row>
-    <row r="58" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="116">
-        <v>1</v>
-      </c>
-      <c r="B58" s="134" t="s">
-        <v>881</v>
-      </c>
-      <c r="C58" s="135"/>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A57" s="116">
+        <v>1</v>
+      </c>
+      <c r="B57" s="134" t="s">
+        <v>880</v>
+      </c>
+      <c r="C57" s="135"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="131" t="s">
+        <v>855</v>
+      </c>
+      <c r="B59" s="132"/>
+      <c r="C59" s="133"/>
+    </row>
     <row r="60" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="131" t="s">
-        <v>855</v>
-      </c>
-      <c r="B60" s="132"/>
-      <c r="C60" s="133"/>
-    </row>
-    <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="116">
-        <v>1</v>
-      </c>
-      <c r="B61" s="140" t="s">
+      <c r="A60" s="116">
+        <v>1</v>
+      </c>
+      <c r="B60" s="140" t="s">
         <v>848</v>
       </c>
-      <c r="C61" s="141"/>
+      <c r="C60" s="141"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="117">
+        <v>2</v>
+      </c>
+      <c r="B61" s="144" t="s">
+        <v>849</v>
+      </c>
+      <c r="C61" s="145"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="117">
-        <v>2</v>
-      </c>
-      <c r="B62" s="144" t="s">
-        <v>849</v>
-      </c>
-      <c r="C62" s="145"/>
+        <v>3</v>
+      </c>
+      <c r="B62" s="142" t="s">
+        <v>850</v>
+      </c>
+      <c r="C62" s="143"/>
     </row>
     <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63" s="142" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C63" s="143"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="117">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B64" s="142" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C64" s="143"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="117">
-        <v>5</v>
-      </c>
-      <c r="B65" s="142" t="s">
-        <v>852</v>
-      </c>
-      <c r="C65" s="143"/>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="118">
+      <c r="A65" s="118">
         <v>6</v>
       </c>
-      <c r="B66" s="136" t="s">
+      <c r="B65" s="136" t="s">
         <v>856</v>
       </c>
-      <c r="C66" s="137"/>
-    </row>
-    <row r="67" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C65" s="137"/>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="131" t="s">
+        <v>881</v>
+      </c>
+      <c r="B67" s="132"/>
+      <c r="C67" s="133"/>
+    </row>
     <row r="68" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="131" t="s">
-        <v>882</v>
-      </c>
-      <c r="B68" s="132"/>
-      <c r="C68" s="133"/>
-    </row>
-    <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="116">
-        <v>1</v>
-      </c>
-      <c r="B69" s="140" t="s">
+      <c r="A68" s="116">
+        <v>1</v>
+      </c>
+      <c r="B68" s="140" t="s">
         <v>848</v>
       </c>
-      <c r="C69" s="141"/>
+      <c r="C68" s="141"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="117">
+        <v>2</v>
+      </c>
+      <c r="B69" s="144" t="s">
+        <v>849</v>
+      </c>
+      <c r="C69" s="145"/>
     </row>
     <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="117">
-        <v>2</v>
-      </c>
-      <c r="B70" s="144" t="s">
-        <v>849</v>
-      </c>
-      <c r="C70" s="145"/>
+        <v>3</v>
+      </c>
+      <c r="B70" s="142" t="s">
+        <v>850</v>
+      </c>
+      <c r="C70" s="143"/>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B71" s="142" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C71" s="143"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="117">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B72" s="142" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C72" s="143"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="117">
-        <v>5</v>
-      </c>
-      <c r="B73" s="142" t="s">
-        <v>852</v>
-      </c>
-      <c r="C73" s="143"/>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="118">
+      <c r="A73" s="118">
         <v>6</v>
       </c>
-      <c r="B74" s="136" t="s">
+      <c r="B73" s="136" t="s">
         <v>856</v>
       </c>
-      <c r="C74" s="137"/>
-    </row>
-    <row r="75" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C73" s="137"/>
+    </row>
+    <row r="74" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="131" t="s">
+        <v>882</v>
+      </c>
+      <c r="B75" s="132"/>
+      <c r="C75" s="133"/>
+    </row>
     <row r="76" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="131" t="s">
-        <v>883</v>
-      </c>
-      <c r="B76" s="132"/>
-      <c r="C76" s="133"/>
-    </row>
-    <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="116">
-        <v>1</v>
-      </c>
-      <c r="B77" s="140" t="s">
+      <c r="A76" s="116">
+        <v>1</v>
+      </c>
+      <c r="B76" s="140" t="s">
         <v>848</v>
       </c>
-      <c r="C77" s="141"/>
+      <c r="C76" s="141"/>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="117">
+        <v>2</v>
+      </c>
+      <c r="B77" s="144" t="s">
+        <v>849</v>
+      </c>
+      <c r="C77" s="145"/>
     </row>
     <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="117">
-        <v>2</v>
-      </c>
-      <c r="B78" s="144" t="s">
-        <v>849</v>
-      </c>
-      <c r="C78" s="145"/>
+        <v>3</v>
+      </c>
+      <c r="B78" s="142" t="s">
+        <v>850</v>
+      </c>
+      <c r="C78" s="143"/>
     </row>
     <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B79" s="142" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C79" s="143"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="117">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B80" s="142" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C80" s="143"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="117">
-        <v>5</v>
-      </c>
-      <c r="B81" s="142" t="s">
-        <v>852</v>
-      </c>
-      <c r="C81" s="143"/>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="118">
+      <c r="A81" s="118">
         <v>6</v>
       </c>
-      <c r="B82" s="136" t="s">
+      <c r="B81" s="136" t="s">
         <v>856</v>
       </c>
-      <c r="C82" s="137"/>
-    </row>
-    <row r="83" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C81" s="137"/>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="131" t="s">
+        <v>932</v>
+      </c>
+      <c r="B83" s="132"/>
+      <c r="C83" s="133"/>
+    </row>
     <row r="84" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="131" t="s">
-        <v>933</v>
-      </c>
-      <c r="B84" s="132"/>
-      <c r="C84" s="133"/>
+      <c r="A84" s="116">
+        <v>1</v>
+      </c>
+      <c r="B84" s="134" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="135"/>
     </row>
     <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="116">
-        <v>1</v>
-      </c>
-      <c r="B85" s="134" t="s">
-        <v>102</v>
-      </c>
-      <c r="C85" s="135"/>
-    </row>
-    <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="125"/>
+      <c r="B85" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C85" s="120" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="125"/>
-      <c r="B86" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C86" s="120" t="s">
+      <c r="B86" s="128" t="s">
+        <v>854</v>
+      </c>
+      <c r="C86" s="129" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="125"/>
       <c r="B87" s="128" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C87" s="129" t="s">
         <v>911</v>
@@ -5874,7 +5875,7 @@
     <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="125"/>
       <c r="B88" s="128" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C88" s="129" t="s">
         <v>912</v>
@@ -5892,7 +5893,7 @@
     <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="125"/>
       <c r="B90" s="128" t="s">
-        <v>863</v>
+        <v>893</v>
       </c>
       <c r="C90" s="129" t="s">
         <v>914</v>
@@ -5901,7 +5902,7 @@
     <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="125"/>
       <c r="B91" s="128" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C91" s="129" t="s">
         <v>915</v>
@@ -5910,7 +5911,7 @@
     <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="125"/>
       <c r="B92" s="128" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C92" s="129" t="s">
         <v>916</v>
@@ -5926,11 +5927,11 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="125"/>
-      <c r="B94" s="128" t="s">
+      <c r="A94" s="117"/>
+      <c r="B94" s="123" t="s">
         <v>899</v>
       </c>
-      <c r="C94" s="129" t="s">
+      <c r="C94" s="124" t="s">
         <v>918</v>
       </c>
     </row>
@@ -5985,7 +5986,7 @@
         <v>905</v>
       </c>
       <c r="C100" s="124" t="s">
-        <v>924</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5994,7 +5995,7 @@
         <v>906</v>
       </c>
       <c r="C101" s="124" t="s">
-        <v>35</v>
+        <v>924</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6002,46 +6003,46 @@
       <c r="B102" s="123" t="s">
         <v>907</v>
       </c>
-      <c r="C102" s="124" t="s">
-        <v>925</v>
-      </c>
+      <c r="C102" s="124"/>
     </row>
     <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="117"/>
-      <c r="B103" s="123" t="s">
+      <c r="B103" s="121" t="s">
         <v>908</v>
       </c>
-      <c r="C103" s="124"/>
-    </row>
-    <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="117"/>
-      <c r="B104" s="121" t="s">
-        <v>909</v>
-      </c>
-      <c r="C104" s="122"/>
+      <c r="C103" s="122"/>
+    </row>
+    <row r="104" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="117">
+        <v>2</v>
+      </c>
+      <c r="B104" s="138" t="s">
+        <v>883</v>
+      </c>
+      <c r="C104" s="139"/>
     </row>
     <row r="105" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="117">
-        <v>2</v>
-      </c>
-      <c r="B105" s="138" t="s">
-        <v>884</v>
-      </c>
-      <c r="C105" s="139"/>
-    </row>
-    <row r="106" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="117"/>
+      <c r="B105" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C105" s="120" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="117"/>
-      <c r="B106" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C106" s="120" t="s">
-        <v>897</v>
+      <c r="B106" s="123" t="s">
+        <v>854</v>
+      </c>
+      <c r="C106" s="124" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="117"/>
       <c r="B107" s="123" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C107" s="124" t="s">
         <v>926</v>
@@ -6050,7 +6051,7 @@
     <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="117"/>
       <c r="B108" s="123" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C108" s="124" t="s">
         <v>927</v>
@@ -6067,17 +6068,17 @@
     </row>
     <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="117"/>
-      <c r="B110" s="123" t="s">
-        <v>863</v>
-      </c>
-      <c r="C110" s="124" t="s">
+      <c r="B110" s="126" t="s">
+        <v>893</v>
+      </c>
+      <c r="C110" s="127" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="117"/>
       <c r="B111" s="126" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C111" s="127" t="s">
         <v>930</v>
@@ -6085,56 +6086,56 @@
     </row>
     <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="117"/>
-      <c r="B112" s="126" t="s">
-        <v>896</v>
-      </c>
-      <c r="C112" s="127" t="s">
+      <c r="B112" s="121" t="s">
+        <v>897</v>
+      </c>
+      <c r="C112" s="122" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="117"/>
-      <c r="B113" s="121" t="s">
-        <v>898</v>
-      </c>
-      <c r="C113" s="122" t="s">
-        <v>932</v>
-      </c>
+    <row r="113" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="117">
+        <v>3</v>
+      </c>
+      <c r="B113" s="140" t="s">
+        <v>884</v>
+      </c>
+      <c r="C113" s="141"/>
     </row>
     <row r="114" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="117">
-        <v>3</v>
-      </c>
-      <c r="B114" s="140" t="s">
-        <v>885</v>
-      </c>
-      <c r="C114" s="141"/>
-    </row>
-    <row r="115" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="117"/>
+      <c r="B114" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C114" s="120" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="117"/>
-      <c r="B115" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C115" s="120" t="s">
+      <c r="B115" s="123" t="s">
+        <v>854</v>
+      </c>
+      <c r="C115" s="124" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="117"/>
       <c r="B116" s="123" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C116" s="124" t="s">
-        <v>892</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="117"/>
-      <c r="B117" s="123" t="s">
-        <v>858</v>
-      </c>
-      <c r="C117" s="124" t="s">
-        <v>90</v>
+      <c r="B117" s="126" t="s">
+        <v>861</v>
+      </c>
+      <c r="C117" s="127" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6143,45 +6144,45 @@
         <v>862</v>
       </c>
       <c r="C118" s="127" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="117"/>
-      <c r="B119" s="126" t="s">
-        <v>863</v>
-      </c>
-      <c r="C119" s="127" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="117"/>
-      <c r="B120" s="121"/>
-      <c r="C120" s="122"/>
+      <c r="B119" s="121"/>
+      <c r="C119" s="122"/>
+    </row>
+    <row r="120" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="116">
+        <v>4</v>
+      </c>
+      <c r="B120" s="142" t="s">
+        <v>885</v>
+      </c>
+      <c r="C120" s="143"/>
     </row>
     <row r="121" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="116">
-        <v>4</v>
-      </c>
-      <c r="B121" s="142" t="s">
+      <c r="A121" s="125"/>
+      <c r="B121" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C121" s="120" t="s">
         <v>886</v>
       </c>
-      <c r="C121" s="143"/>
-    </row>
-    <row r="122" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="125"/>
-      <c r="B122" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C122" s="120" t="s">
+    </row>
+    <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="117"/>
+      <c r="B122" s="123" t="s">
+        <v>854</v>
+      </c>
+      <c r="C122" s="124" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="117"/>
       <c r="B123" s="123" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C123" s="124" t="s">
         <v>888</v>
@@ -6189,52 +6190,52 @@
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="117"/>
-      <c r="B124" s="123" t="s">
-        <v>858</v>
-      </c>
-      <c r="C124" s="124" t="s">
+      <c r="B124" s="121" t="s">
+        <v>861</v>
+      </c>
+      <c r="C124" s="122" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="117"/>
-      <c r="B125" s="121" t="s">
-        <v>862</v>
-      </c>
-      <c r="C125" s="122" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="131" t="s">
+        <v>933</v>
+      </c>
+      <c r="B126" s="132"/>
+      <c r="C126" s="133"/>
+    </row>
     <row r="127" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="131" t="s">
+      <c r="A127" s="116">
+        <v>1</v>
+      </c>
+      <c r="B127" s="134" t="s">
         <v>934</v>
       </c>
-      <c r="B127" s="132"/>
-      <c r="C127" s="133"/>
+      <c r="C127" s="135"/>
     </row>
     <row r="128" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="116">
-        <v>1</v>
-      </c>
-      <c r="B128" s="134" t="s">
-        <v>935</v>
-      </c>
-      <c r="C128" s="135"/>
-    </row>
-    <row r="129" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="125"/>
+      <c r="B128" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C128" s="120" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="125"/>
-      <c r="B129" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C129" s="120" t="s">
-        <v>102</v>
+      <c r="B129" s="128" t="s">
+        <v>854</v>
+      </c>
+      <c r="C129" s="129" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="125"/>
       <c r="B130" s="128" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C130" s="129" t="s">
         <v>884</v>
@@ -6243,7 +6244,7 @@
     <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="125"/>
       <c r="B131" s="128" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C131" s="129" t="s">
         <v>885</v>
@@ -6254,28 +6255,26 @@
       <c r="B132" s="128" t="s">
         <v>862</v>
       </c>
-      <c r="C132" s="129" t="s">
-        <v>886</v>
-      </c>
+      <c r="C132" s="129"/>
     </row>
     <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="125"/>
       <c r="B133" s="128" t="s">
-        <v>863</v>
+        <v>893</v>
       </c>
       <c r="C133" s="129"/>
     </row>
     <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="125"/>
       <c r="B134" s="128" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C134" s="129"/>
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="125"/>
       <c r="B135" s="128" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C135" s="129"/>
     </row>
@@ -6287,11 +6286,11 @@
       <c r="C136" s="129"/>
     </row>
     <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="125"/>
-      <c r="B137" s="128" t="s">
+      <c r="A137" s="117"/>
+      <c r="B137" s="123" t="s">
         <v>899</v>
       </c>
-      <c r="C137" s="129"/>
+      <c r="C137" s="124"/>
     </row>
     <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="117"/>
@@ -6351,40 +6350,42 @@
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="117"/>
-      <c r="B146" s="123" t="s">
+      <c r="B146" s="121" t="s">
         <v>908</v>
       </c>
-      <c r="C146" s="124"/>
-    </row>
-    <row r="147" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="117"/>
-      <c r="B147" s="121" t="s">
-        <v>909</v>
-      </c>
-      <c r="C147" s="122"/>
+      <c r="C146" s="122"/>
+    </row>
+    <row r="147" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="117">
+        <v>2</v>
+      </c>
+      <c r="B147" s="138" t="s">
+        <v>935</v>
+      </c>
+      <c r="C147" s="139"/>
     </row>
     <row r="148" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="117">
-        <v>2</v>
-      </c>
-      <c r="B148" s="138" t="s">
-        <v>936</v>
-      </c>
-      <c r="C148" s="139"/>
-    </row>
-    <row r="149" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="117"/>
+      <c r="B148" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C148" s="120" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="117"/>
-      <c r="B149" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C149" s="120" t="s">
-        <v>266</v>
+      <c r="B149" s="123" t="s">
+        <v>854</v>
+      </c>
+      <c r="C149" s="124" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="117"/>
       <c r="B150" s="123" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C150" s="124" t="s">
         <v>938</v>
@@ -6393,7 +6394,7 @@
     <row r="151" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="117"/>
       <c r="B151" s="123" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C151" s="124" t="s">
         <v>939</v>
@@ -6404,71 +6405,71 @@
       <c r="B152" s="123" t="s">
         <v>862</v>
       </c>
-      <c r="C152" s="124" t="s">
-        <v>940</v>
-      </c>
+      <c r="C152" s="124"/>
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="117"/>
-      <c r="B153" s="123" t="s">
-        <v>863</v>
-      </c>
-      <c r="C153" s="124"/>
+      <c r="B153" s="126" t="s">
+        <v>893</v>
+      </c>
+      <c r="C153" s="127"/>
     </row>
     <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="117"/>
       <c r="B154" s="126" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C154" s="127"/>
     </row>
     <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="117"/>
-      <c r="B155" s="126" t="s">
-        <v>896</v>
-      </c>
-      <c r="C155" s="127"/>
-    </row>
-    <row r="156" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="117"/>
-      <c r="B156" s="121" t="s">
-        <v>898</v>
-      </c>
-      <c r="C156" s="122"/>
+      <c r="B155" s="121" t="s">
+        <v>897</v>
+      </c>
+      <c r="C155" s="122"/>
+    </row>
+    <row r="156" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="117">
+        <v>3</v>
+      </c>
+      <c r="B156" s="140" t="s">
+        <v>936</v>
+      </c>
+      <c r="C156" s="141"/>
     </row>
     <row r="157" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="117">
-        <v>3</v>
-      </c>
-      <c r="B157" s="140" t="s">
-        <v>937</v>
-      </c>
-      <c r="C157" s="141"/>
-    </row>
-    <row r="158" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="117"/>
+      <c r="B157" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="C157" s="120" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="117"/>
-      <c r="B158" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="C158" s="120" t="s">
-        <v>942</v>
+      <c r="B158" s="123" t="s">
+        <v>854</v>
+      </c>
+      <c r="C158" s="124" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="117"/>
       <c r="B159" s="123" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C159" s="124" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="117"/>
-      <c r="B160" s="123" t="s">
-        <v>858</v>
-      </c>
-      <c r="C160" s="124" t="s">
+      <c r="B160" s="126" t="s">
+        <v>861</v>
+      </c>
+      <c r="C160" s="127" t="s">
         <v>943</v>
       </c>
     </row>
@@ -6477,66 +6478,57 @@
       <c r="B161" s="126" t="s">
         <v>862</v>
       </c>
-      <c r="C161" s="127" t="s">
-        <v>944</v>
-      </c>
+      <c r="C161" s="127"/>
     </row>
     <row r="162" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="117"/>
-      <c r="B162" s="126" t="s">
-        <v>863</v>
-      </c>
-      <c r="C162" s="127"/>
-    </row>
-    <row r="163" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="117"/>
-      <c r="B163" s="121" t="s">
-        <v>894</v>
-      </c>
-      <c r="C163" s="122"/>
+      <c r="B162" s="121" t="s">
+        <v>893</v>
+      </c>
+      <c r="C162" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="B84:C84"/>
     <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="B85:C85"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A59:C59"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A60:C60"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B16:C16"/>
@@ -6569,7 +6561,7 @@
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>265</v>
       </c>
@@ -6589,7 +6581,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>314</v>
       </c>
@@ -6616,7 +6608,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>290</v>
       </c>
@@ -6643,7 +6635,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>286</v>
       </c>
@@ -6670,7 +6662,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>164</v>
       </c>
@@ -6697,7 +6689,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
@@ -6724,7 +6716,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>169</v>
       </c>
@@ -6751,7 +6743,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>163</v>
       </c>
@@ -6778,7 +6770,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>166</v>
       </c>
@@ -6805,7 +6797,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>167</v>
       </c>
@@ -6832,7 +6824,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>165</v>
       </c>
@@ -6859,14 +6851,14 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="29">
-        <f xml:space="preserve"> SUM(B3:B11)</f>
+        <f t="shared" ref="B12:G12" si="1" xml:space="preserve"> SUM(B3:B11)</f>
         <v>5150</v>
       </c>
       <c r="C12" s="29">
-        <f t="shared" ref="C12:G12" si="1" xml:space="preserve"> SUM(C3:C11)</f>
+        <f t="shared" si="1"/>
         <v>5050</v>
       </c>
       <c r="D12" s="29">
@@ -6886,31 +6878,31 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="13" spans="1:8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -6999,107 +6991,107 @@
     <col min="1" max="1" width="30.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>281</v>
       </c>
@@ -7247,73 +7239,73 @@
     <col min="1" max="1" width="30.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -7391,107 +7383,107 @@
     <col min="1" max="1" width="30.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -7554,88 +7546,88 @@
     <col min="1" max="1" width="30.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -7713,69 +7705,69 @@
     <col min="1" max="1" width="30.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -7853,82 +7845,82 @@
     <col min="1" max="1" width="30.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -8003,90 +7995,90 @@
     <col min="1" max="1" width="30.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -8157,7 +8149,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M23" sqref="M23"/>
+      <selection pane="topRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8898,77 +8890,77 @@
     <col min="1" max="1" width="30.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -21439,7 +21431,7 @@
     <col min="15" max="15" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>265</v>
       </c>
@@ -21471,7 +21463,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>318</v>
       </c>
@@ -21488,7 +21480,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
       <c r="H2" s="6">
-        <f t="shared" ref="H2:H4" si="0" xml:space="preserve"> SUM(B2:G2)</f>
+        <f xml:space="preserve"> SUM(B2:G2)</f>
         <v>1</v>
       </c>
       <c r="J2">
@@ -21504,7 +21496,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>319</v>
       </c>
@@ -21519,7 +21511,7 @@
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> SUM(B3:G3)</f>
         <v>1</v>
       </c>
       <c r="J3">
@@ -21535,7 +21527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -21550,7 +21542,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
       <c r="H4" s="6">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> SUM(B4:G4)</f>
         <v>1</v>
       </c>
       <c r="J4">
@@ -21567,7 +21559,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>315</v>
       </c>
@@ -21584,7 +21576,7 @@
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H20" si="1" xml:space="preserve"> SUM(B5:G5)</f>
+        <f t="shared" ref="H5:H20" si="0" xml:space="preserve"> SUM(B5:G5)</f>
         <v>1</v>
       </c>
       <c r="J5">
@@ -21597,7 +21589,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -21612,7 +21604,7 @@
         <v>0.6</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J6">
@@ -21622,7 +21614,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>268</v>
       </c>
@@ -21637,7 +21629,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
       <c r="H7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J7">
@@ -21647,7 +21639,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>269</v>
       </c>
@@ -21662,7 +21654,7 @@
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J8">
@@ -21672,7 +21664,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>293</v>
       </c>
@@ -21687,7 +21679,7 @@
         <v>0.2</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J9">
@@ -21697,7 +21689,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>316</v>
       </c>
@@ -21712,7 +21704,7 @@
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J10">
@@ -21722,7 +21714,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>295</v>
       </c>
@@ -21737,7 +21729,7 @@
         <v>0.6</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J11">
@@ -21747,7 +21739,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>271</v>
       </c>
@@ -21762,7 +21754,7 @@
         <v>0.4</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J12">
@@ -21772,7 +21764,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>273</v>
       </c>
@@ -21787,7 +21779,7 @@
         <v>0.2</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J13">
@@ -21797,7 +21789,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -21814,7 +21806,7 @@
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J14">
@@ -21824,7 +21816,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>256</v>
       </c>
@@ -21842,7 +21834,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>317</v>
       </c>
@@ -21859,7 +21851,7 @@
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J16">
@@ -21869,7 +21861,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>270</v>
       </c>
@@ -21884,7 +21876,7 @@
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J17">
@@ -21894,7 +21886,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>294</v>
       </c>
@@ -21909,7 +21901,7 @@
         <v>0.2</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J18">
@@ -21919,7 +21911,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>274</v>
       </c>
@@ -21936,7 +21928,7 @@
         <v>0.2</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J19">
@@ -21946,7 +21938,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>272</v>
       </c>
@@ -21961,7 +21953,7 @@
         <v>0.8</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J20">
@@ -21971,29 +21963,29 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
-        <f t="shared" ref="B21:G21" si="2" xml:space="preserve"> SUM(B2:B20)</f>
+        <f t="shared" ref="B21:G21" si="1" xml:space="preserve"> SUM(B2:B20)</f>
         <v>3.9</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.1</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.9000000000000004</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.7</v>
       </c>
     </row>
@@ -22012,7 +22004,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22020,7 +22012,7 @@
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>280</v>
       </c>
@@ -22033,7 +22025,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>284</v>
       </c>
@@ -22048,7 +22040,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22062,7 +22054,7 @@
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>329</v>
       </c>
@@ -22088,7 +22080,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>325</v>
       </c>
@@ -22114,7 +22106,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>326</v>
       </c>
@@ -22140,7 +22132,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>327</v>
       </c>
@@ -22163,7 +22155,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>328</v>
       </c>
@@ -22186,7 +22178,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>330</v>
       </c>
@@ -22206,7 +22198,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>331</v>
       </c>
@@ -22223,7 +22215,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>332</v>
       </c>
@@ -22240,7 +22232,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>333</v>
       </c>
@@ -22254,7 +22246,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>334</v>
       </c>
@@ -22265,7 +22257,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>335</v>
       </c>
@@ -22276,7 +22268,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -22284,7 +22276,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>337</v>
       </c>
@@ -22292,7 +22284,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>341</v>
       </c>
@@ -22300,7 +22292,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>368</v>
       </c>
@@ -22308,22 +22300,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>385</v>
       </c>
@@ -22335,10 +22327,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22927,7 +22919,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="84" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B30" s="49"/>
       <c r="C30" s="44"/>
@@ -22939,7 +22931,7 @@
       <c r="I30" s="44"/>
       <c r="J30" s="45"/>
       <c r="K30" s="90" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L30" s="88">
         <v>3</v>
@@ -23027,7 +23019,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="84" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B35" s="49"/>
       <c r="C35" s="44"/>
@@ -23039,7 +23031,7 @@
       <c r="I35" s="44"/>
       <c r="J35" s="45"/>
       <c r="K35" s="90" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="L35" s="88"/>
     </row>
@@ -23195,7 +23187,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="84" t="s">
-        <v>447</v>
+        <v>978</v>
       </c>
       <c r="B44" s="49"/>
       <c r="C44" s="44"/>
@@ -23207,13 +23199,15 @@
       <c r="I44" s="44"/>
       <c r="J44" s="45"/>
       <c r="K44" s="90" t="s">
-        <v>448</v>
-      </c>
-      <c r="L44" s="88"/>
+        <v>979</v>
+      </c>
+      <c r="L44" s="88">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="84" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="B45" s="49"/>
       <c r="C45" s="44"/>
@@ -23225,15 +23219,13 @@
       <c r="I45" s="44"/>
       <c r="J45" s="45"/>
       <c r="K45" s="90" t="s">
-        <v>426</v>
-      </c>
-      <c r="L45" s="88">
-        <v>3</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="L45" s="88"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="84" t="s">
-        <v>516</v>
+        <v>425</v>
       </c>
       <c r="B46" s="49"/>
       <c r="C46" s="44"/>
@@ -23245,17 +23237,17 @@
       <c r="I46" s="44"/>
       <c r="J46" s="45"/>
       <c r="K46" s="90" t="s">
-        <v>517</v>
-      </c>
-      <c r="L46" s="88"/>
+        <v>426</v>
+      </c>
+      <c r="L46" s="88">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="84" t="s">
-        <v>565</v>
-      </c>
-      <c r="B47" s="49" t="s">
-        <v>566</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="B47" s="49"/>
       <c r="C47" s="44"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
@@ -23265,15 +23257,17 @@
       <c r="I47" s="44"/>
       <c r="J47" s="45"/>
       <c r="K47" s="90" t="s">
-        <v>567</v>
-      </c>
-      <c r="L47" s="45"/>
+        <v>517</v>
+      </c>
+      <c r="L47" s="88"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="B48" s="49"/>
+        <v>565</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>566</v>
+      </c>
       <c r="C48" s="44"/>
       <c r="D48" s="44"/>
       <c r="E48" s="44"/>
@@ -23283,15 +23277,13 @@
       <c r="I48" s="44"/>
       <c r="J48" s="45"/>
       <c r="K48" s="90" t="s">
-        <v>471</v>
-      </c>
-      <c r="L48" s="88">
-        <v>3</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="L48" s="45"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="84" t="s">
-        <v>628</v>
+        <v>150</v>
       </c>
       <c r="B49" s="49"/>
       <c r="C49" s="44"/>
@@ -23303,17 +23295,17 @@
       <c r="I49" s="44"/>
       <c r="J49" s="45"/>
       <c r="K49" s="90" t="s">
-        <v>629</v>
-      </c>
-      <c r="L49" s="45"/>
+        <v>471</v>
+      </c>
+      <c r="L49" s="88">
+        <v>3</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="84" t="s">
-        <v>502</v>
-      </c>
-      <c r="B50" s="49" t="s">
-        <v>503</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="B50" s="49"/>
       <c r="C50" s="44"/>
       <c r="D50" s="44"/>
       <c r="E50" s="44"/>
@@ -23323,15 +23315,17 @@
       <c r="I50" s="44"/>
       <c r="J50" s="45"/>
       <c r="K50" s="90" t="s">
-        <v>504</v>
-      </c>
-      <c r="L50" s="88"/>
+        <v>629</v>
+      </c>
+      <c r="L50" s="45"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="B51" s="49"/>
+        <v>502</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>503</v>
+      </c>
       <c r="C51" s="44"/>
       <c r="D51" s="44"/>
       <c r="E51" s="44"/>
@@ -23341,15 +23335,13 @@
       <c r="I51" s="44"/>
       <c r="J51" s="45"/>
       <c r="K51" s="90" t="s">
-        <v>480</v>
-      </c>
-      <c r="L51" s="88">
-        <v>3</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="L51" s="88"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="84" t="s">
-        <v>611</v>
+        <v>479</v>
       </c>
       <c r="B52" s="49"/>
       <c r="C52" s="44"/>
@@ -23361,19 +23353,17 @@
       <c r="I52" s="44"/>
       <c r="J52" s="45"/>
       <c r="K52" s="90" t="s">
-        <v>612</v>
-      </c>
-      <c r="L52" s="45">
+        <v>480</v>
+      </c>
+      <c r="L52" s="88">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="84" t="s">
-        <v>600</v>
-      </c>
-      <c r="B53" s="49" t="s">
-        <v>601</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="B53" s="49"/>
       <c r="C53" s="44"/>
       <c r="D53" s="44"/>
       <c r="E53" s="44"/>
@@ -23383,17 +23373,19 @@
       <c r="I53" s="44"/>
       <c r="J53" s="45"/>
       <c r="K53" s="90" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="L53" s="45">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="84" t="s">
-        <v>562</v>
-      </c>
-      <c r="B54" s="49"/>
+        <v>600</v>
+      </c>
+      <c r="B54" s="49" t="s">
+        <v>601</v>
+      </c>
       <c r="C54" s="44"/>
       <c r="D54" s="44"/>
       <c r="E54" s="44"/>
@@ -23403,13 +23395,15 @@
       <c r="I54" s="44"/>
       <c r="J54" s="45"/>
       <c r="K54" s="90" t="s">
-        <v>563</v>
-      </c>
-      <c r="L54" s="45"/>
+        <v>602</v>
+      </c>
+      <c r="L54" s="45">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="84" t="s">
-        <v>618</v>
+        <v>562</v>
       </c>
       <c r="B55" s="49"/>
       <c r="C55" s="44"/>
@@ -23421,13 +23415,13 @@
       <c r="I55" s="44"/>
       <c r="J55" s="45"/>
       <c r="K55" s="90" t="s">
-        <v>619</v>
+        <v>563</v>
       </c>
       <c r="L55" s="45"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="84" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B56" s="49"/>
       <c r="C56" s="44"/>
@@ -23439,13 +23433,13 @@
       <c r="I56" s="44"/>
       <c r="J56" s="45"/>
       <c r="K56" s="90" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L56" s="45"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="84" t="s">
-        <v>441</v>
+        <v>616</v>
       </c>
       <c r="B57" s="49"/>
       <c r="C57" s="44"/>
@@ -23457,17 +23451,15 @@
       <c r="I57" s="44"/>
       <c r="J57" s="45"/>
       <c r="K57" s="90" t="s">
-        <v>442</v>
-      </c>
-      <c r="L57" s="88"/>
+        <v>617</v>
+      </c>
+      <c r="L57" s="45"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="84" t="s">
-        <v>500</v>
-      </c>
-      <c r="B58" s="49" t="s">
-        <v>501</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="B58" s="49"/>
       <c r="C58" s="44"/>
       <c r="D58" s="44"/>
       <c r="E58" s="44"/>
@@ -23477,15 +23469,17 @@
       <c r="I58" s="44"/>
       <c r="J58" s="45"/>
       <c r="K58" s="90" t="s">
-        <v>521</v>
-      </c>
-      <c r="L58" s="45"/>
+        <v>442</v>
+      </c>
+      <c r="L58" s="88"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="84" t="s">
-        <v>466</v>
-      </c>
-      <c r="B59" s="49"/>
+        <v>500</v>
+      </c>
+      <c r="B59" s="49" t="s">
+        <v>501</v>
+      </c>
       <c r="C59" s="44"/>
       <c r="D59" s="44"/>
       <c r="E59" s="44"/>
@@ -23495,61 +23489,59 @@
       <c r="I59" s="44"/>
       <c r="J59" s="45"/>
       <c r="K59" s="90" t="s">
-        <v>467</v>
-      </c>
-      <c r="L59" s="88"/>
+        <v>521</v>
+      </c>
+      <c r="L59" s="45"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="84" t="s">
-        <v>571</v>
-      </c>
-      <c r="B60" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="C60" s="44" t="s">
-        <v>805</v>
-      </c>
-      <c r="D60" s="44" t="s">
-        <v>503</v>
-      </c>
-      <c r="E60" s="44" t="s">
-        <v>805</v>
-      </c>
-      <c r="F60" s="44" t="s">
-        <v>297</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="B60" s="49"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
       <c r="G60" s="44"/>
       <c r="H60" s="44"/>
       <c r="I60" s="44"/>
       <c r="J60" s="45"/>
       <c r="K60" s="90" t="s">
-        <v>572</v>
-      </c>
-      <c r="L60" s="45"/>
+        <v>467</v>
+      </c>
+      <c r="L60" s="88"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="84" t="s">
-        <v>626</v>
-      </c>
-      <c r="B61" s="49"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
+        <v>571</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>805</v>
+      </c>
+      <c r="D61" s="44" t="s">
+        <v>503</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>805</v>
+      </c>
+      <c r="F61" s="44" t="s">
+        <v>297</v>
+      </c>
       <c r="G61" s="44"/>
       <c r="H61" s="44"/>
       <c r="I61" s="44"/>
       <c r="J61" s="45"/>
       <c r="K61" s="90" t="s">
-        <v>627</v>
-      </c>
-      <c r="L61" s="45">
-        <v>5</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="L61" s="45"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="84" t="s">
-        <v>453</v>
+        <v>626</v>
       </c>
       <c r="B62" s="49"/>
       <c r="C62" s="44"/>
@@ -23561,15 +23553,15 @@
       <c r="I62" s="44"/>
       <c r="J62" s="45"/>
       <c r="K62" s="90" t="s">
-        <v>454</v>
-      </c>
-      <c r="L62" s="88">
-        <v>3</v>
+        <v>627</v>
+      </c>
+      <c r="L62" s="45">
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="84" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="B63" s="49"/>
       <c r="C63" s="44"/>
@@ -23581,7 +23573,7 @@
       <c r="I63" s="44"/>
       <c r="J63" s="45"/>
       <c r="K63" s="90" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="L63" s="88">
         <v>3</v>
@@ -23589,7 +23581,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="84" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="B64" s="49"/>
       <c r="C64" s="44"/>
@@ -23601,13 +23593,15 @@
       <c r="I64" s="44"/>
       <c r="J64" s="45"/>
       <c r="K64" s="90" t="s">
-        <v>404</v>
-      </c>
-      <c r="L64" s="88"/>
+        <v>432</v>
+      </c>
+      <c r="L64" s="88">
+        <v>3</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="84" t="s">
-        <v>632</v>
+        <v>397</v>
       </c>
       <c r="B65" s="49"/>
       <c r="C65" s="44"/>
@@ -23619,13 +23613,13 @@
       <c r="I65" s="44"/>
       <c r="J65" s="45"/>
       <c r="K65" s="90" t="s">
-        <v>633</v>
-      </c>
-      <c r="L65" s="45"/>
+        <v>404</v>
+      </c>
+      <c r="L65" s="88"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="84" t="s">
-        <v>443</v>
+        <v>632</v>
       </c>
       <c r="B66" s="49"/>
       <c r="C66" s="44"/>
@@ -23637,13 +23631,13 @@
       <c r="I66" s="44"/>
       <c r="J66" s="45"/>
       <c r="K66" s="90" t="s">
-        <v>444</v>
-      </c>
-      <c r="L66" s="88"/>
+        <v>633</v>
+      </c>
+      <c r="L66" s="45"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="84" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B67" s="49"/>
       <c r="C67" s="44"/>
@@ -23655,23 +23649,17 @@
       <c r="I67" s="44"/>
       <c r="J67" s="45"/>
       <c r="K67" s="90" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="L67" s="88"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="84" t="s">
-        <v>648</v>
-      </c>
-      <c r="B68" s="49" t="s">
-        <v>645</v>
-      </c>
-      <c r="C68" s="44" t="s">
-        <v>805</v>
-      </c>
-      <c r="D68" s="44" t="s">
-        <v>646</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="B68" s="49"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
       <c r="E68" s="44"/>
       <c r="F68" s="44"/>
       <c r="G68" s="44"/>
@@ -23679,21 +23667,23 @@
       <c r="I68" s="44"/>
       <c r="J68" s="45"/>
       <c r="K68" s="90" t="s">
-        <v>647</v>
-      </c>
-      <c r="L68" s="45">
-        <v>5</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="L68" s="88"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="84" t="s">
-        <v>568</v>
+        <v>648</v>
       </c>
       <c r="B69" s="49" t="s">
-        <v>569</v>
-      </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
+        <v>645</v>
+      </c>
+      <c r="C69" s="44" t="s">
+        <v>805</v>
+      </c>
+      <c r="D69" s="44" t="s">
+        <v>646</v>
+      </c>
       <c r="E69" s="44"/>
       <c r="F69" s="44"/>
       <c r="G69" s="44"/>
@@ -23701,17 +23691,19 @@
       <c r="I69" s="44"/>
       <c r="J69" s="45"/>
       <c r="K69" s="90" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="L69" s="45">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="84" t="s">
-        <v>416</v>
-      </c>
-      <c r="B70" s="49"/>
+        <v>568</v>
+      </c>
+      <c r="B70" s="49" t="s">
+        <v>569</v>
+      </c>
       <c r="C70" s="44"/>
       <c r="D70" s="44"/>
       <c r="E70" s="44"/>
@@ -23721,13 +23713,15 @@
       <c r="I70" s="44"/>
       <c r="J70" s="45"/>
       <c r="K70" s="90" t="s">
-        <v>488</v>
-      </c>
-      <c r="L70" s="88"/>
+        <v>641</v>
+      </c>
+      <c r="L70" s="45">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="84" t="s">
-        <v>570</v>
+        <v>416</v>
       </c>
       <c r="B71" s="49"/>
       <c r="C71" s="44"/>
@@ -23739,15 +23733,13 @@
       <c r="I71" s="44"/>
       <c r="J71" s="45"/>
       <c r="K71" s="90" t="s">
-        <v>564</v>
-      </c>
-      <c r="L71" s="88">
-        <v>3</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="L71" s="88"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="84" t="s">
-        <v>455</v>
+        <v>570</v>
       </c>
       <c r="B72" s="49"/>
       <c r="C72" s="44"/>
@@ -23759,17 +23751,17 @@
       <c r="I72" s="44"/>
       <c r="J72" s="45"/>
       <c r="K72" s="90" t="s">
-        <v>456</v>
-      </c>
-      <c r="L72" s="88"/>
+        <v>564</v>
+      </c>
+      <c r="L72" s="88">
+        <v>3</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="84" t="s">
-        <v>595</v>
-      </c>
-      <c r="B73" s="49" t="s">
-        <v>596</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="B73" s="49"/>
       <c r="C73" s="44"/>
       <c r="D73" s="44"/>
       <c r="E73" s="44"/>
@@ -23779,15 +23771,17 @@
       <c r="I73" s="44"/>
       <c r="J73" s="45"/>
       <c r="K73" s="90" t="s">
-        <v>597</v>
-      </c>
-      <c r="L73" s="45"/>
+        <v>456</v>
+      </c>
+      <c r="L73" s="88"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="84" t="s">
-        <v>481</v>
-      </c>
-      <c r="B74" s="49"/>
+        <v>595</v>
+      </c>
+      <c r="B74" s="49" t="s">
+        <v>596</v>
+      </c>
       <c r="C74" s="44"/>
       <c r="D74" s="44"/>
       <c r="E74" s="44"/>
@@ -23797,13 +23791,13 @@
       <c r="I74" s="44"/>
       <c r="J74" s="45"/>
       <c r="K74" s="90" t="s">
-        <v>482</v>
-      </c>
-      <c r="L74" s="88"/>
+        <v>597</v>
+      </c>
+      <c r="L74" s="45"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="84" t="s">
-        <v>560</v>
+        <v>481</v>
       </c>
       <c r="B75" s="49"/>
       <c r="C75" s="44"/>
@@ -23815,13 +23809,13 @@
       <c r="I75" s="44"/>
       <c r="J75" s="45"/>
       <c r="K75" s="90" t="s">
-        <v>561</v>
-      </c>
-      <c r="L75" s="45"/>
+        <v>482</v>
+      </c>
+      <c r="L75" s="88"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="84" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="B76" s="49"/>
       <c r="C76" s="44"/>
@@ -23833,17 +23827,15 @@
       <c r="I76" s="44"/>
       <c r="J76" s="45"/>
       <c r="K76" s="90" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="L76" s="45"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="85" t="s">
-        <v>497</v>
-      </c>
-      <c r="B77" s="49" t="s">
-        <v>491</v>
-      </c>
+      <c r="A77" s="84" t="s">
+        <v>581</v>
+      </c>
+      <c r="B77" s="49"/>
       <c r="C77" s="44"/>
       <c r="D77" s="44"/>
       <c r="E77" s="44"/>
@@ -23853,15 +23845,17 @@
       <c r="I77" s="44"/>
       <c r="J77" s="45"/>
       <c r="K77" s="90" t="s">
-        <v>498</v>
-      </c>
-      <c r="L77" s="88"/>
+        <v>582</v>
+      </c>
+      <c r="L77" s="45"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="84" t="s">
-        <v>423</v>
-      </c>
-      <c r="B78" s="49"/>
+      <c r="A78" s="85" t="s">
+        <v>497</v>
+      </c>
+      <c r="B78" s="49" t="s">
+        <v>491</v>
+      </c>
       <c r="C78" s="44"/>
       <c r="D78" s="44"/>
       <c r="E78" s="44"/>
@@ -23871,13 +23865,13 @@
       <c r="I78" s="44"/>
       <c r="J78" s="45"/>
       <c r="K78" s="90" t="s">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="L78" s="88"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="84" t="s">
-        <v>514</v>
+        <v>423</v>
       </c>
       <c r="B79" s="49"/>
       <c r="C79" s="44"/>
@@ -23889,23 +23883,17 @@
       <c r="I79" s="44"/>
       <c r="J79" s="45"/>
       <c r="K79" s="90" t="s">
-        <v>515</v>
+        <v>424</v>
       </c>
       <c r="L79" s="88"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="84" t="s">
-        <v>811</v>
-      </c>
-      <c r="B80" s="49" t="s">
-        <v>807</v>
-      </c>
-      <c r="C80" s="44" t="s">
-        <v>805</v>
-      </c>
-      <c r="D80" s="44" t="s">
-        <v>806</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="B80" s="49"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
       <c r="E80" s="44"/>
       <c r="F80" s="44"/>
       <c r="G80" s="44"/>
@@ -23913,19 +23901,23 @@
       <c r="I80" s="44"/>
       <c r="J80" s="45"/>
       <c r="K80" s="90" t="s">
-        <v>810</v>
-      </c>
-      <c r="L80" s="45"/>
+        <v>515</v>
+      </c>
+      <c r="L80" s="88"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="84" t="s">
-        <v>489</v>
+        <v>811</v>
       </c>
       <c r="B81" s="49" t="s">
-        <v>491</v>
-      </c>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
+        <v>807</v>
+      </c>
+      <c r="C81" s="44" t="s">
+        <v>805</v>
+      </c>
+      <c r="D81" s="44" t="s">
+        <v>806</v>
+      </c>
       <c r="E81" s="44"/>
       <c r="F81" s="44"/>
       <c r="G81" s="44"/>
@@ -23933,16 +23925,16 @@
       <c r="I81" s="44"/>
       <c r="J81" s="45"/>
       <c r="K81" s="90" t="s">
-        <v>490</v>
-      </c>
-      <c r="L81" s="88"/>
+        <v>810</v>
+      </c>
+      <c r="L81" s="45"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="84" t="s">
-        <v>603</v>
+        <v>489</v>
       </c>
       <c r="B82" s="49" t="s">
-        <v>604</v>
+        <v>491</v>
       </c>
       <c r="C82" s="44"/>
       <c r="D82" s="44"/>
@@ -23953,17 +23945,17 @@
       <c r="I82" s="44"/>
       <c r="J82" s="45"/>
       <c r="K82" s="90" t="s">
-        <v>605</v>
-      </c>
-      <c r="L82" s="45">
-        <v>3</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="L82" s="88"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="84" t="s">
-        <v>433</v>
-      </c>
-      <c r="B83" s="49"/>
+        <v>603</v>
+      </c>
+      <c r="B83" s="49" t="s">
+        <v>604</v>
+      </c>
       <c r="C83" s="44"/>
       <c r="D83" s="44"/>
       <c r="E83" s="44"/>
@@ -23973,15 +23965,15 @@
       <c r="I83" s="44"/>
       <c r="J83" s="45"/>
       <c r="K83" s="90" t="s">
-        <v>434</v>
-      </c>
-      <c r="L83" s="88">
-        <v>5</v>
+        <v>605</v>
+      </c>
+      <c r="L83" s="45">
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="84" t="s">
-        <v>630</v>
+        <v>433</v>
       </c>
       <c r="B84" s="49"/>
       <c r="C84" s="44"/>
@@ -23993,17 +23985,17 @@
       <c r="I84" s="44"/>
       <c r="J84" s="45"/>
       <c r="K84" s="90" t="s">
-        <v>631</v>
-      </c>
-      <c r="L84" s="45"/>
+        <v>434</v>
+      </c>
+      <c r="L84" s="88">
+        <v>5</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="84" t="s">
-        <v>578</v>
-      </c>
-      <c r="B85" s="49" t="s">
-        <v>579</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="B85" s="49"/>
       <c r="C85" s="44"/>
       <c r="D85" s="44"/>
       <c r="E85" s="44"/>
@@ -24013,18 +24005,16 @@
       <c r="I85" s="44"/>
       <c r="J85" s="45"/>
       <c r="K85" s="90" t="s">
-        <v>580</v>
-      </c>
-      <c r="L85" s="45">
-        <v>3</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="L85" s="45"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="84" t="s">
-        <v>653</v>
+        <v>578</v>
       </c>
       <c r="B86" s="49" t="s">
-        <v>654</v>
+        <v>579</v>
       </c>
       <c r="C86" s="44"/>
       <c r="D86" s="44"/>
@@ -24035,15 +24025,19 @@
       <c r="I86" s="44"/>
       <c r="J86" s="45"/>
       <c r="K86" s="90" t="s">
-        <v>655</v>
-      </c>
-      <c r="L86" s="45"/>
+        <v>580</v>
+      </c>
+      <c r="L86" s="45">
+        <v>3</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="84" t="s">
-        <v>405</v>
-      </c>
-      <c r="B87" s="49"/>
+        <v>653</v>
+      </c>
+      <c r="B87" s="49" t="s">
+        <v>654</v>
+      </c>
       <c r="C87" s="44"/>
       <c r="D87" s="44"/>
       <c r="E87" s="44"/>
@@ -24053,13 +24047,13 @@
       <c r="I87" s="44"/>
       <c r="J87" s="45"/>
       <c r="K87" s="90" t="s">
-        <v>406</v>
-      </c>
-      <c r="L87" s="88"/>
+        <v>655</v>
+      </c>
+      <c r="L87" s="45"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="84" t="s">
-        <v>620</v>
+        <v>405</v>
       </c>
       <c r="B88" s="49"/>
       <c r="C88" s="44"/>
@@ -24071,17 +24065,15 @@
       <c r="I88" s="44"/>
       <c r="J88" s="45"/>
       <c r="K88" s="90" t="s">
-        <v>621</v>
-      </c>
-      <c r="L88" s="45"/>
+        <v>406</v>
+      </c>
+      <c r="L88" s="88"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="84" t="s">
-        <v>573</v>
-      </c>
-      <c r="B89" s="49" t="s">
-        <v>574</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="B89" s="49"/>
       <c r="C89" s="44"/>
       <c r="D89" s="44"/>
       <c r="E89" s="44"/>
@@ -24091,31 +24083,51 @@
       <c r="I89" s="44"/>
       <c r="J89" s="45"/>
       <c r="K89" s="90" t="s">
+        <v>621</v>
+      </c>
+      <c r="L89" s="45"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="84" t="s">
+        <v>573</v>
+      </c>
+      <c r="B90" s="49" t="s">
+        <v>574</v>
+      </c>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="45"/>
+      <c r="K90" s="90" t="s">
         <v>575</v>
       </c>
-      <c r="L89" s="45"/>
-    </row>
-    <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="86" t="s">
+      <c r="L90" s="45"/>
+    </row>
+    <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="86" t="s">
         <v>608</v>
       </c>
-      <c r="B90" s="64"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="65"/>
-      <c r="J90" s="66"/>
-      <c r="K90" s="91" t="s">
+      <c r="B91" s="64"/>
+      <c r="C91" s="65"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="65"/>
+      <c r="H91" s="65"/>
+      <c r="I91" s="65"/>
+      <c r="J91" s="66"/>
+      <c r="K91" s="91" t="s">
         <v>609</v>
       </c>
-      <c r="L90" s="66">
+      <c r="L91" s="66">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A3:L85">
     <sortCondition ref="A3:A85"/>
@@ -24131,8 +24143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24211,7 +24223,7 @@
         <v>408</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F3" s="130"/>
       <c r="G3" s="31"/>
@@ -24238,7 +24250,7 @@
         <v>418</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F4" s="130"/>
       <c r="G4" s="31"/>
@@ -25017,7 +25029,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="130" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B42" s="130" t="s">
         <v>642</v>
@@ -25026,12 +25038,12 @@
         <v>527</v>
       </c>
       <c r="M42" s="130" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="130" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B43" s="130" t="s">
         <v>642</v>
@@ -25041,7 +25053,7 @@
       </c>
       <c r="L43" s="32"/>
       <c r="M43" s="130" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="N43"/>
     </row>
@@ -25056,22 +25068,22 @@
         <v>527</v>
       </c>
       <c r="M44" s="130" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="130" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="130" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="130" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B47" s="130" t="s">
         <v>642</v>
@@ -25080,15 +25092,15 @@
         <v>527</v>
       </c>
       <c r="E47" s="130" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="M47" s="130" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="130" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B48" s="130" t="s">
         <v>410</v>
@@ -25097,10 +25109,10 @@
         <v>527</v>
       </c>
       <c r="E48" s="130" t="s">
+        <v>964</v>
+      </c>
+      <c r="M48" s="130" t="s">
         <v>965</v>
-      </c>
-      <c r="M48" s="130" t="s">
-        <v>966</v>
       </c>
       <c r="N48" s="34">
         <v>5</v>
@@ -25108,7 +25120,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="130" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B49" s="130" t="s">
         <v>410</v>
@@ -25117,15 +25129,15 @@
         <v>527</v>
       </c>
       <c r="E49" s="130" t="s">
+        <v>967</v>
+      </c>
+      <c r="M49" s="130" t="s">
         <v>968</v>
-      </c>
-      <c r="M49" s="130" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="130" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B50" s="130" t="s">
         <v>410</v>
@@ -25134,15 +25146,15 @@
         <v>527</v>
       </c>
       <c r="E50" s="130" t="s">
+        <v>970</v>
+      </c>
+      <c r="M50" s="130" t="s">
         <v>971</v>
-      </c>
-      <c r="M50" s="130" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="130" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B51" s="130" t="s">
         <v>410</v>
@@ -25151,15 +25163,15 @@
         <v>527</v>
       </c>
       <c r="E51" s="130" t="s">
+        <v>973</v>
+      </c>
+      <c r="M51" s="130" t="s">
         <v>974</v>
-      </c>
-      <c r="M51" s="130" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="130" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B52" s="130" t="s">
         <v>410</v>
@@ -25168,10 +25180,10 @@
         <v>527</v>
       </c>
       <c r="E52" s="130" t="s">
+        <v>976</v>
+      </c>
+      <c r="M52" s="130" t="s">
         <v>977</v>
-      </c>
-      <c r="M52" s="130" t="s">
-        <v>978</v>
       </c>
       <c r="N52" s="34">
         <v>5</v>
@@ -25199,107 +25211,107 @@
     <col min="1" max="1" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -25406,96 +25418,96 @@
     <col min="1" max="1" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -25567,12 +25579,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -25595,78 +25607,78 @@
     <col min="1" max="1" width="30.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -25748,94 +25760,94 @@
     <col min="2" max="2" width="85.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -27138,107 +27150,107 @@
     <col min="1" max="1" width="30.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>277</v>
       </c>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -4918,6 +4918,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4937,24 +4955,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5305,8 +5305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5321,29 +5321,29 @@
       <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="145" t="s">
         <v>803</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="141"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="147"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="116">
         <v>1</v>
       </c>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="148" t="s">
         <v>804</v>
       </c>
-      <c r="C3" s="143"/>
+      <c r="C3" s="149"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="117">
         <v>2</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="139" t="s">
         <v>805</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="140"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="117"/>
@@ -5394,10 +5394,10 @@
       <c r="A10" s="117">
         <v>3</v>
       </c>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="141" t="s">
         <v>806</v>
       </c>
-      <c r="C10" s="149"/>
+      <c r="C10" s="142"/>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="117"/>
@@ -5412,10 +5412,10 @@
       <c r="A12" s="117">
         <v>4</v>
       </c>
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="143" t="s">
         <v>807</v>
       </c>
-      <c r="C12" s="151"/>
+      <c r="C12" s="144"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="117"/>
@@ -5430,10 +5430,10 @@
       <c r="A14" s="117">
         <v>5</v>
       </c>
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="143" t="s">
         <v>808</v>
       </c>
-      <c r="C14" s="151"/>
+      <c r="C14" s="144"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="117"/>
@@ -5448,10 +5448,10 @@
       <c r="A16" s="118">
         <v>6</v>
       </c>
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="150" t="s">
         <v>812</v>
       </c>
-      <c r="C16" s="145"/>
+      <c r="C16" s="151"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="117"/>
@@ -5466,36 +5466,36 @@
       <c r="A18" s="118">
         <v>7</v>
       </c>
-      <c r="B18" s="144" t="s">
+      <c r="B18" s="150" t="s">
         <v>944</v>
       </c>
-      <c r="C18" s="145"/>
+      <c r="C18" s="151"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="134">
         <v>8</v>
       </c>
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="150" t="s">
         <v>945</v>
       </c>
-      <c r="C19" s="145"/>
+      <c r="C19" s="151"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="139" t="s">
+      <c r="A21" s="145" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="140"/>
-      <c r="C21" s="141"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="147"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="116">
         <v>1</v>
       </c>
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="148" t="s">
         <v>813</v>
       </c>
-      <c r="C22" s="143"/>
+      <c r="C22" s="149"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="117"/>
@@ -5571,20 +5571,20 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="139" t="s">
+      <c r="A32" s="145" t="s">
         <v>815</v>
       </c>
-      <c r="B32" s="140"/>
-      <c r="C32" s="141"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="147"/>
     </row>
     <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="116">
         <v>1</v>
       </c>
-      <c r="B33" s="142" t="s">
+      <c r="B33" s="148" t="s">
         <v>803</v>
       </c>
-      <c r="C33" s="143"/>
+      <c r="C33" s="149"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="117"/>
@@ -5597,10 +5597,10 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="117"/>
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="123" t="s">
         <v>816</v>
       </c>
-      <c r="C35" s="122" t="s">
+      <c r="C35" s="124" t="s">
         <v>820</v>
       </c>
     </row>
@@ -5608,10 +5608,10 @@
       <c r="A36" s="117">
         <v>2</v>
       </c>
-      <c r="B36" s="146" t="s">
+      <c r="B36" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="147"/>
+      <c r="C36" s="140"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="117"/>
@@ -5631,10 +5631,10 @@
       <c r="A39" s="117">
         <v>2</v>
       </c>
-      <c r="B39" s="146" t="s">
+      <c r="B39" s="139" t="s">
         <v>941</v>
       </c>
-      <c r="C39" s="147"/>
+      <c r="C39" s="140"/>
     </row>
     <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="117"/>
@@ -5656,20 +5656,20 @@
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="139" t="s">
+      <c r="A43" s="145" t="s">
         <v>822</v>
       </c>
-      <c r="B43" s="140"/>
-      <c r="C43" s="141"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="147"/>
     </row>
     <row r="44" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="116">
         <v>1</v>
       </c>
-      <c r="B44" s="142" t="s">
+      <c r="B44" s="148" t="s">
         <v>823</v>
       </c>
-      <c r="C44" s="143"/>
+      <c r="C44" s="149"/>
     </row>
     <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="117"/>
@@ -5709,20 +5709,20 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="139" t="s">
+      <c r="A50" s="145" t="s">
         <v>827</v>
       </c>
-      <c r="B50" s="140"/>
-      <c r="C50" s="141"/>
+      <c r="B50" s="146"/>
+      <c r="C50" s="147"/>
     </row>
     <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="116">
         <v>1</v>
       </c>
-      <c r="B51" s="142" t="s">
+      <c r="B51" s="148" t="s">
         <v>828</v>
       </c>
-      <c r="C51" s="143"/>
+      <c r="C51" s="149"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="117"/>
@@ -5746,10 +5746,10 @@
       <c r="A54" s="116">
         <v>1</v>
       </c>
-      <c r="B54" s="142" t="s">
+      <c r="B54" s="148" t="s">
         <v>830</v>
       </c>
-      <c r="C54" s="143"/>
+      <c r="C54" s="149"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="117"/>
@@ -5785,37 +5785,37 @@
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="139" t="s">
+      <c r="A60" s="145" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="140"/>
-      <c r="C60" s="141"/>
+      <c r="B60" s="146"/>
+      <c r="C60" s="147"/>
     </row>
     <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="116">
         <v>1</v>
       </c>
-      <c r="B61" s="142" t="s">
+      <c r="B61" s="148" t="s">
         <v>835</v>
       </c>
-      <c r="C61" s="143"/>
+      <c r="C61" s="149"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="139" t="s">
+      <c r="A63" s="145" t="s">
         <v>811</v>
       </c>
-      <c r="B63" s="140"/>
-      <c r="C63" s="141"/>
+      <c r="B63" s="146"/>
+      <c r="C63" s="147"/>
     </row>
     <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="116">
         <v>1</v>
       </c>
-      <c r="B64" s="148" t="s">
+      <c r="B64" s="141" t="s">
         <v>804</v>
       </c>
-      <c r="C64" s="149"/>
+      <c r="C64" s="142"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="117">
@@ -5830,54 +5830,54 @@
       <c r="A66" s="117">
         <v>3</v>
       </c>
-      <c r="B66" s="150" t="s">
+      <c r="B66" s="143" t="s">
         <v>806</v>
       </c>
-      <c r="C66" s="151"/>
+      <c r="C66" s="144"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="117">
         <v>4</v>
       </c>
-      <c r="B67" s="150" t="s">
+      <c r="B67" s="143" t="s">
         <v>807</v>
       </c>
-      <c r="C67" s="151"/>
+      <c r="C67" s="144"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="117">
         <v>5</v>
       </c>
-      <c r="B68" s="150" t="s">
+      <c r="B68" s="143" t="s">
         <v>808</v>
       </c>
-      <c r="C68" s="151"/>
+      <c r="C68" s="144"/>
     </row>
     <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="118">
         <v>6</v>
       </c>
-      <c r="B69" s="144" t="s">
+      <c r="B69" s="150" t="s">
         <v>812</v>
       </c>
-      <c r="C69" s="145"/>
+      <c r="C69" s="151"/>
     </row>
     <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="139" t="s">
+      <c r="A71" s="145" t="s">
         <v>836</v>
       </c>
-      <c r="B71" s="140"/>
-      <c r="C71" s="141"/>
+      <c r="B71" s="146"/>
+      <c r="C71" s="147"/>
     </row>
     <row r="72" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="116">
         <v>1</v>
       </c>
-      <c r="B72" s="148" t="s">
+      <c r="B72" s="141" t="s">
         <v>804</v>
       </c>
-      <c r="C72" s="149"/>
+      <c r="C72" s="142"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="117">
@@ -5892,54 +5892,54 @@
       <c r="A74" s="117">
         <v>3</v>
       </c>
-      <c r="B74" s="150" t="s">
+      <c r="B74" s="143" t="s">
         <v>806</v>
       </c>
-      <c r="C74" s="151"/>
+      <c r="C74" s="144"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="117">
         <v>4</v>
       </c>
-      <c r="B75" s="150" t="s">
+      <c r="B75" s="143" t="s">
         <v>807</v>
       </c>
-      <c r="C75" s="151"/>
+      <c r="C75" s="144"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="117">
         <v>5</v>
       </c>
-      <c r="B76" s="150" t="s">
+      <c r="B76" s="143" t="s">
         <v>808</v>
       </c>
-      <c r="C76" s="151"/>
+      <c r="C76" s="144"/>
     </row>
     <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="118">
         <v>6</v>
       </c>
-      <c r="B77" s="144" t="s">
+      <c r="B77" s="150" t="s">
         <v>812</v>
       </c>
-      <c r="C77" s="145"/>
+      <c r="C77" s="151"/>
     </row>
     <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="139" t="s">
+      <c r="A79" s="145" t="s">
         <v>837</v>
       </c>
-      <c r="B79" s="140"/>
-      <c r="C79" s="141"/>
+      <c r="B79" s="146"/>
+      <c r="C79" s="147"/>
     </row>
     <row r="80" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="116">
         <v>1</v>
       </c>
-      <c r="B80" s="148" t="s">
+      <c r="B80" s="141" t="s">
         <v>804</v>
       </c>
-      <c r="C80" s="149"/>
+      <c r="C80" s="142"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="117">
@@ -5954,54 +5954,54 @@
       <c r="A82" s="117">
         <v>3</v>
       </c>
-      <c r="B82" s="150" t="s">
+      <c r="B82" s="143" t="s">
         <v>806</v>
       </c>
-      <c r="C82" s="151"/>
+      <c r="C82" s="144"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="117">
         <v>4</v>
       </c>
-      <c r="B83" s="150" t="s">
+      <c r="B83" s="143" t="s">
         <v>807</v>
       </c>
-      <c r="C83" s="151"/>
+      <c r="C83" s="144"/>
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="117">
         <v>5</v>
       </c>
-      <c r="B84" s="150" t="s">
+      <c r="B84" s="143" t="s">
         <v>808</v>
       </c>
-      <c r="C84" s="151"/>
+      <c r="C84" s="144"/>
     </row>
     <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="118">
         <v>6</v>
       </c>
-      <c r="B85" s="144" t="s">
+      <c r="B85" s="150" t="s">
         <v>812</v>
       </c>
-      <c r="C85" s="145"/>
+      <c r="C85" s="151"/>
     </row>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="139" t="s">
+      <c r="A87" s="145" t="s">
         <v>887</v>
       </c>
-      <c r="B87" s="140"/>
-      <c r="C87" s="141"/>
+      <c r="B87" s="146"/>
+      <c r="C87" s="147"/>
     </row>
     <row r="88" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="116">
         <v>1</v>
       </c>
-      <c r="B88" s="142" t="s">
+      <c r="B88" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="C88" s="143"/>
+      <c r="C88" s="149"/>
     </row>
     <row r="89" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="125"/>
@@ -6174,10 +6174,10 @@
       <c r="A108" s="117">
         <v>2</v>
       </c>
-      <c r="B108" s="146" t="s">
+      <c r="B108" s="139" t="s">
         <v>838</v>
       </c>
-      <c r="C108" s="147"/>
+      <c r="C108" s="140"/>
     </row>
     <row r="109" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="117"/>
@@ -6255,10 +6255,10 @@
       <c r="A117" s="117">
         <v>3</v>
       </c>
-      <c r="B117" s="148" t="s">
+      <c r="B117" s="141" t="s">
         <v>839</v>
       </c>
-      <c r="C117" s="149"/>
+      <c r="C117" s="142"/>
     </row>
     <row r="118" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="117"/>
@@ -6314,10 +6314,10 @@
       <c r="A124" s="116">
         <v>4</v>
       </c>
-      <c r="B124" s="150" t="s">
+      <c r="B124" s="143" t="s">
         <v>840</v>
       </c>
-      <c r="C124" s="151"/>
+      <c r="C124" s="144"/>
     </row>
     <row r="125" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="125"/>
@@ -6357,20 +6357,20 @@
     </row>
     <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="139" t="s">
+      <c r="A130" s="145" t="s">
         <v>888</v>
       </c>
-      <c r="B130" s="140"/>
-      <c r="C130" s="141"/>
+      <c r="B130" s="146"/>
+      <c r="C130" s="147"/>
     </row>
     <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="116">
         <v>1</v>
       </c>
-      <c r="B131" s="142" t="s">
+      <c r="B131" s="148" t="s">
         <v>889</v>
       </c>
-      <c r="C131" s="143"/>
+      <c r="C131" s="149"/>
     </row>
     <row r="132" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="125"/>
@@ -6517,10 +6517,10 @@
       <c r="A151" s="117">
         <v>2</v>
       </c>
-      <c r="B151" s="146" t="s">
+      <c r="B151" s="139" t="s">
         <v>890</v>
       </c>
-      <c r="C151" s="147"/>
+      <c r="C151" s="140"/>
     </row>
     <row r="152" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="117"/>
@@ -6590,10 +6590,10 @@
       <c r="A160" s="117">
         <v>3</v>
       </c>
-      <c r="B160" s="148" t="s">
+      <c r="B160" s="141" t="s">
         <v>891</v>
       </c>
-      <c r="C160" s="149"/>
+      <c r="C160" s="142"/>
     </row>
     <row r="161" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="117"/>
@@ -6647,12 +6647,40 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
     <mergeCell ref="B108:C108"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -6665,40 +6693,12 @@
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="B131:C131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1033">
   <si>
     <t>Fishing</t>
   </si>
@@ -3101,12 +3101,6 @@
     <t>Area Suppression</t>
   </si>
   <si>
-    <t>Height Bonuses/Penalties</t>
-  </si>
-  <si>
-    <t>Surrounded bonuses/penalties</t>
-  </si>
-  <si>
     <t>Implement</t>
   </si>
   <si>
@@ -3744,6 +3738,9 @@
   </si>
   <si>
     <t>Soul Farmer</t>
+  </si>
+  <si>
+    <t>attack of opportunity</t>
   </si>
 </sst>
 </file>
@@ -4918,24 +4915,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4955,6 +4934,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5305,8 +5302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5321,29 +5318,29 @@
       <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="139" t="s">
         <v>803</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="147"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="141"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="116">
         <v>1</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="142" t="s">
         <v>804</v>
       </c>
-      <c r="C3" s="149"/>
+      <c r="C3" s="143"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="117">
         <v>2</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="146" t="s">
         <v>805</v>
       </c>
-      <c r="C4" s="140"/>
+      <c r="C4" s="147"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="117"/>
@@ -5378,7 +5375,7 @@
         <v>816</v>
       </c>
       <c r="C8" s="124" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5394,10 +5391,10 @@
       <c r="A10" s="117">
         <v>3</v>
       </c>
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="148" t="s">
         <v>806</v>
       </c>
-      <c r="C10" s="142"/>
+      <c r="C10" s="149"/>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="117"/>
@@ -5405,17 +5402,17 @@
         <v>809</v>
       </c>
       <c r="C11" s="120" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="117">
         <v>4</v>
       </c>
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="150" t="s">
         <v>807</v>
       </c>
-      <c r="C12" s="144"/>
+      <c r="C12" s="151"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="117"/>
@@ -5423,17 +5420,17 @@
         <v>809</v>
       </c>
       <c r="C13" s="120" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="117">
         <v>5</v>
       </c>
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="150" t="s">
         <v>808</v>
       </c>
-      <c r="C14" s="144"/>
+      <c r="C14" s="151"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="117"/>
@@ -5441,17 +5438,17 @@
         <v>809</v>
       </c>
       <c r="C15" s="120" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="118">
         <v>6</v>
       </c>
-      <c r="B16" s="150" t="s">
+      <c r="B16" s="144" t="s">
         <v>812</v>
       </c>
-      <c r="C16" s="151"/>
+      <c r="C16" s="145"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="117"/>
@@ -5459,43 +5456,43 @@
         <v>809</v>
       </c>
       <c r="C17" s="120" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="118">
         <v>7</v>
       </c>
-      <c r="B18" s="150" t="s">
-        <v>944</v>
-      </c>
-      <c r="C18" s="151"/>
+      <c r="B18" s="144" t="s">
+        <v>942</v>
+      </c>
+      <c r="C18" s="145"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="134">
         <v>8</v>
       </c>
-      <c r="B19" s="150" t="s">
-        <v>945</v>
-      </c>
-      <c r="C19" s="151"/>
+      <c r="B19" s="144" t="s">
+        <v>943</v>
+      </c>
+      <c r="C19" s="145"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="145" t="s">
+      <c r="A21" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="146"/>
-      <c r="C21" s="147"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="141"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="116">
         <v>1</v>
       </c>
-      <c r="B22" s="148" t="s">
+      <c r="B22" s="142" t="s">
         <v>813</v>
       </c>
-      <c r="C22" s="149"/>
+      <c r="C22" s="143"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="117"/>
@@ -5503,7 +5500,7 @@
         <v>809</v>
       </c>
       <c r="C23" s="120" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5545,7 +5542,7 @@
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="117"/>
       <c r="B28" s="126" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C28" s="127" t="s">
         <v>510</v>
@@ -5554,64 +5551,60 @@
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="117"/>
       <c r="B29" s="126" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C29" s="127" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="117"/>
       <c r="B30" s="121" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C30" s="122" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="145" t="s">
+      <c r="A32" s="139" t="s">
         <v>815</v>
       </c>
-      <c r="B32" s="146"/>
-      <c r="C32" s="147"/>
+      <c r="B32" s="140"/>
+      <c r="C32" s="141"/>
     </row>
     <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="116">
         <v>1</v>
       </c>
-      <c r="B33" s="148" t="s">
+      <c r="B33" s="142" t="s">
         <v>803</v>
       </c>
-      <c r="C33" s="149"/>
+      <c r="C33" s="143"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="117"/>
       <c r="B34" s="123" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C34" s="124" t="s">
-        <v>819</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="117"/>
-      <c r="B35" s="123" t="s">
-        <v>816</v>
-      </c>
-      <c r="C35" s="124" t="s">
-        <v>820</v>
-      </c>
+      <c r="B35" s="123"/>
+      <c r="C35" s="124"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="117">
         <v>2</v>
       </c>
-      <c r="B36" s="139" t="s">
+      <c r="B36" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="140"/>
+      <c r="C36" s="147"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="117"/>
@@ -5619,7 +5612,7 @@
         <v>809</v>
       </c>
       <c r="C37" s="120" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5631,10 +5624,10 @@
       <c r="A39" s="117">
         <v>2</v>
       </c>
-      <c r="B39" s="139" t="s">
-        <v>941</v>
-      </c>
-      <c r="C39" s="140"/>
+      <c r="B39" s="146" t="s">
+        <v>939</v>
+      </c>
+      <c r="C39" s="147"/>
     </row>
     <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="117"/>
@@ -5642,7 +5635,7 @@
         <v>809</v>
       </c>
       <c r="C40" s="120" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5651,25 +5644,25 @@
         <v>810</v>
       </c>
       <c r="C41" s="132" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="145" t="s">
-        <v>822</v>
-      </c>
-      <c r="B43" s="146"/>
-      <c r="C43" s="147"/>
+      <c r="A43" s="139" t="s">
+        <v>820</v>
+      </c>
+      <c r="B43" s="140"/>
+      <c r="C43" s="141"/>
     </row>
     <row r="44" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="116">
         <v>1</v>
       </c>
-      <c r="B44" s="148" t="s">
-        <v>823</v>
-      </c>
-      <c r="C44" s="149"/>
+      <c r="B44" s="142" t="s">
+        <v>821</v>
+      </c>
+      <c r="C44" s="143"/>
     </row>
     <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="117"/>
@@ -5686,7 +5679,7 @@
         <v>810</v>
       </c>
       <c r="C46" s="124" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5695,7 +5688,7 @@
         <v>814</v>
       </c>
       <c r="C47" s="124" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5704,25 +5697,25 @@
         <v>816</v>
       </c>
       <c r="C48" s="122" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="145" t="s">
-        <v>827</v>
-      </c>
-      <c r="B50" s="146"/>
-      <c r="C50" s="147"/>
+      <c r="A50" s="139" t="s">
+        <v>825</v>
+      </c>
+      <c r="B50" s="140"/>
+      <c r="C50" s="141"/>
     </row>
     <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="116">
         <v>1</v>
       </c>
-      <c r="B51" s="148" t="s">
-        <v>828</v>
-      </c>
-      <c r="C51" s="149"/>
+      <c r="B51" s="142" t="s">
+        <v>826</v>
+      </c>
+      <c r="C51" s="143"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="117"/>
@@ -5730,7 +5723,7 @@
         <v>809</v>
       </c>
       <c r="C52" s="120" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5739,17 +5732,17 @@
         <v>810</v>
       </c>
       <c r="C53" s="122" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="116">
         <v>1</v>
       </c>
-      <c r="B54" s="148" t="s">
-        <v>830</v>
-      </c>
-      <c r="C54" s="149"/>
+      <c r="B54" s="142" t="s">
+        <v>828</v>
+      </c>
+      <c r="C54" s="143"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="117"/>
@@ -5757,7 +5750,7 @@
         <v>809</v>
       </c>
       <c r="C55" s="120" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5766,7 +5759,7 @@
         <v>810</v>
       </c>
       <c r="C56" s="124" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5775,7 +5768,7 @@
         <v>814</v>
       </c>
       <c r="C57" s="124" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5785,37 +5778,37 @@
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="145" t="s">
+      <c r="A60" s="139" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="146"/>
-      <c r="C60" s="147"/>
+      <c r="B60" s="140"/>
+      <c r="C60" s="141"/>
     </row>
     <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="116">
         <v>1</v>
       </c>
-      <c r="B61" s="148" t="s">
-        <v>835</v>
-      </c>
-      <c r="C61" s="149"/>
+      <c r="B61" s="142" t="s">
+        <v>833</v>
+      </c>
+      <c r="C61" s="143"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="145" t="s">
+      <c r="A63" s="139" t="s">
         <v>811</v>
       </c>
-      <c r="B63" s="146"/>
-      <c r="C63" s="147"/>
+      <c r="B63" s="140"/>
+      <c r="C63" s="141"/>
     </row>
     <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="116">
         <v>1</v>
       </c>
-      <c r="B64" s="141" t="s">
+      <c r="B64" s="148" t="s">
         <v>804</v>
       </c>
-      <c r="C64" s="142"/>
+      <c r="C64" s="149"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="117">
@@ -5830,54 +5823,54 @@
       <c r="A66" s="117">
         <v>3</v>
       </c>
-      <c r="B66" s="143" t="s">
+      <c r="B66" s="150" t="s">
         <v>806</v>
       </c>
-      <c r="C66" s="144"/>
+      <c r="C66" s="151"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="117">
         <v>4</v>
       </c>
-      <c r="B67" s="143" t="s">
+      <c r="B67" s="150" t="s">
         <v>807</v>
       </c>
-      <c r="C67" s="144"/>
+      <c r="C67" s="151"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="117">
         <v>5</v>
       </c>
-      <c r="B68" s="143" t="s">
+      <c r="B68" s="150" t="s">
         <v>808</v>
       </c>
-      <c r="C68" s="144"/>
+      <c r="C68" s="151"/>
     </row>
     <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="118">
         <v>6</v>
       </c>
-      <c r="B69" s="150" t="s">
+      <c r="B69" s="144" t="s">
         <v>812</v>
       </c>
-      <c r="C69" s="151"/>
+      <c r="C69" s="145"/>
     </row>
     <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="145" t="s">
-        <v>836</v>
-      </c>
-      <c r="B71" s="146"/>
-      <c r="C71" s="147"/>
+      <c r="A71" s="139" t="s">
+        <v>834</v>
+      </c>
+      <c r="B71" s="140"/>
+      <c r="C71" s="141"/>
     </row>
     <row r="72" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="116">
         <v>1</v>
       </c>
-      <c r="B72" s="141" t="s">
+      <c r="B72" s="148" t="s">
         <v>804</v>
       </c>
-      <c r="C72" s="142"/>
+      <c r="C72" s="149"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="117">
@@ -5892,54 +5885,54 @@
       <c r="A74" s="117">
         <v>3</v>
       </c>
-      <c r="B74" s="143" t="s">
+      <c r="B74" s="150" t="s">
         <v>806</v>
       </c>
-      <c r="C74" s="144"/>
+      <c r="C74" s="151"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="117">
         <v>4</v>
       </c>
-      <c r="B75" s="143" t="s">
+      <c r="B75" s="150" t="s">
         <v>807</v>
       </c>
-      <c r="C75" s="144"/>
+      <c r="C75" s="151"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="117">
         <v>5</v>
       </c>
-      <c r="B76" s="143" t="s">
+      <c r="B76" s="150" t="s">
         <v>808</v>
       </c>
-      <c r="C76" s="144"/>
+      <c r="C76" s="151"/>
     </row>
     <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="118">
         <v>6</v>
       </c>
-      <c r="B77" s="150" t="s">
+      <c r="B77" s="144" t="s">
         <v>812</v>
       </c>
-      <c r="C77" s="151"/>
+      <c r="C77" s="145"/>
     </row>
     <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="145" t="s">
-        <v>837</v>
-      </c>
-      <c r="B79" s="146"/>
-      <c r="C79" s="147"/>
+      <c r="A79" s="139" t="s">
+        <v>835</v>
+      </c>
+      <c r="B79" s="140"/>
+      <c r="C79" s="141"/>
     </row>
     <row r="80" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="116">
         <v>1</v>
       </c>
-      <c r="B80" s="141" t="s">
+      <c r="B80" s="148" t="s">
         <v>804</v>
       </c>
-      <c r="C80" s="142"/>
+      <c r="C80" s="149"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="117">
@@ -5954,54 +5947,54 @@
       <c r="A82" s="117">
         <v>3</v>
       </c>
-      <c r="B82" s="143" t="s">
+      <c r="B82" s="150" t="s">
         <v>806</v>
       </c>
-      <c r="C82" s="144"/>
+      <c r="C82" s="151"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="117">
         <v>4</v>
       </c>
-      <c r="B83" s="143" t="s">
+      <c r="B83" s="150" t="s">
         <v>807</v>
       </c>
-      <c r="C83" s="144"/>
+      <c r="C83" s="151"/>
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="117">
         <v>5</v>
       </c>
-      <c r="B84" s="143" t="s">
+      <c r="B84" s="150" t="s">
         <v>808</v>
       </c>
-      <c r="C84" s="144"/>
+      <c r="C84" s="151"/>
     </row>
     <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="118">
         <v>6</v>
       </c>
-      <c r="B85" s="150" t="s">
+      <c r="B85" s="144" t="s">
         <v>812</v>
       </c>
-      <c r="C85" s="151"/>
+      <c r="C85" s="145"/>
     </row>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="145" t="s">
-        <v>887</v>
-      </c>
-      <c r="B87" s="146"/>
-      <c r="C87" s="147"/>
+      <c r="A87" s="139" t="s">
+        <v>885</v>
+      </c>
+      <c r="B87" s="140"/>
+      <c r="C87" s="141"/>
     </row>
     <row r="88" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="116">
         <v>1</v>
       </c>
-      <c r="B88" s="148" t="s">
+      <c r="B88" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="C88" s="149"/>
+      <c r="C88" s="143"/>
     </row>
     <row r="89" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="125"/>
@@ -6009,7 +6002,7 @@
         <v>809</v>
       </c>
       <c r="C89" s="120" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6018,7 +6011,7 @@
         <v>810</v>
       </c>
       <c r="C90" s="129" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6027,7 +6020,7 @@
         <v>814</v>
       </c>
       <c r="C91" s="129" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6036,7 +6029,7 @@
         <v>816</v>
       </c>
       <c r="C92" s="129" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6045,103 +6038,103 @@
         <v>817</v>
       </c>
       <c r="C93" s="129" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="125"/>
       <c r="B94" s="128" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C94" s="129" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="125"/>
       <c r="B95" s="128" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C95" s="129" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="125"/>
       <c r="B96" s="128" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C96" s="129" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="125"/>
       <c r="B97" s="128" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C97" s="129" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="117"/>
       <c r="B98" s="123" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C98" s="124" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="117"/>
       <c r="B99" s="123" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C99" s="124" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="117"/>
       <c r="B100" s="123" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C100" s="124" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="117"/>
       <c r="B101" s="123" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C101" s="124" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="117"/>
       <c r="B102" s="123" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C102" s="124" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="117"/>
       <c r="B103" s="123" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C103" s="124" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="117"/>
       <c r="B104" s="123" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C104" s="124" t="s">
         <v>35</v>
@@ -6150,23 +6143,23 @@
     <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="117"/>
       <c r="B105" s="123" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C105" s="124" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="117"/>
       <c r="B106" s="123" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C106" s="124"/>
     </row>
     <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="117"/>
       <c r="B107" s="121" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C107" s="122"/>
     </row>
@@ -6174,10 +6167,10 @@
       <c r="A108" s="117">
         <v>2</v>
       </c>
-      <c r="B108" s="139" t="s">
-        <v>838</v>
-      </c>
-      <c r="C108" s="140"/>
+      <c r="B108" s="146" t="s">
+        <v>836</v>
+      </c>
+      <c r="C108" s="147"/>
     </row>
     <row r="109" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="117"/>
@@ -6185,7 +6178,7 @@
         <v>809</v>
       </c>
       <c r="C109" s="120" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6194,7 +6187,7 @@
         <v>810</v>
       </c>
       <c r="C110" s="124" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6203,7 +6196,7 @@
         <v>814</v>
       </c>
       <c r="C111" s="124" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6212,7 +6205,7 @@
         <v>816</v>
       </c>
       <c r="C112" s="124" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6221,44 +6214,44 @@
         <v>817</v>
       </c>
       <c r="C113" s="124" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="117"/>
       <c r="B114" s="126" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C114" s="127" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="117"/>
       <c r="B115" s="126" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C115" s="127" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="117"/>
       <c r="B116" s="121" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C116" s="122" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="117">
         <v>3</v>
       </c>
-      <c r="B117" s="141" t="s">
-        <v>839</v>
-      </c>
-      <c r="C117" s="142"/>
+      <c r="B117" s="148" t="s">
+        <v>837</v>
+      </c>
+      <c r="C117" s="149"/>
     </row>
     <row r="118" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="117"/>
@@ -6266,7 +6259,7 @@
         <v>809</v>
       </c>
       <c r="C118" s="120" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6275,7 +6268,7 @@
         <v>810</v>
       </c>
       <c r="C119" s="124" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6293,7 +6286,7 @@
         <v>816</v>
       </c>
       <c r="C121" s="127" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6302,7 +6295,7 @@
         <v>817</v>
       </c>
       <c r="C122" s="127" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6314,10 +6307,10 @@
       <c r="A124" s="116">
         <v>4</v>
       </c>
-      <c r="B124" s="143" t="s">
-        <v>840</v>
-      </c>
-      <c r="C124" s="144"/>
+      <c r="B124" s="150" t="s">
+        <v>838</v>
+      </c>
+      <c r="C124" s="151"/>
     </row>
     <row r="125" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="125"/>
@@ -6325,7 +6318,7 @@
         <v>809</v>
       </c>
       <c r="C125" s="120" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6334,7 +6327,7 @@
         <v>810</v>
       </c>
       <c r="C126" s="124" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6343,7 +6336,7 @@
         <v>814</v>
       </c>
       <c r="C127" s="124" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6352,25 +6345,25 @@
         <v>816</v>
       </c>
       <c r="C128" s="122" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="145" t="s">
-        <v>888</v>
-      </c>
-      <c r="B130" s="146"/>
-      <c r="C130" s="147"/>
+      <c r="A130" s="139" t="s">
+        <v>886</v>
+      </c>
+      <c r="B130" s="140"/>
+      <c r="C130" s="141"/>
     </row>
     <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="116">
         <v>1</v>
       </c>
-      <c r="B131" s="148" t="s">
-        <v>889</v>
-      </c>
-      <c r="C131" s="149"/>
+      <c r="B131" s="142" t="s">
+        <v>887</v>
+      </c>
+      <c r="C131" s="143"/>
     </row>
     <row r="132" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="125"/>
@@ -6387,7 +6380,7 @@
         <v>810</v>
       </c>
       <c r="C133" s="129" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6396,7 +6389,7 @@
         <v>814</v>
       </c>
       <c r="C134" s="129" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6405,7 +6398,7 @@
         <v>816</v>
       </c>
       <c r="C135" s="129" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6418,98 +6411,98 @@
     <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="125"/>
       <c r="B137" s="128" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C137" s="129"/>
     </row>
     <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="125"/>
       <c r="B138" s="128" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C138" s="129"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="125"/>
       <c r="B139" s="128" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C139" s="129"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="125"/>
       <c r="B140" s="128" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C140" s="129"/>
     </row>
     <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="117"/>
       <c r="B141" s="123" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C141" s="124"/>
     </row>
     <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="117"/>
       <c r="B142" s="123" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C142" s="124"/>
     </row>
     <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="117"/>
       <c r="B143" s="123" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C143" s="124"/>
     </row>
     <row r="144" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="117"/>
       <c r="B144" s="123" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C144" s="124"/>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="117"/>
       <c r="B145" s="123" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C145" s="124"/>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="117"/>
       <c r="B146" s="123" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C146" s="124"/>
     </row>
     <row r="147" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="117"/>
       <c r="B147" s="123" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C147" s="124"/>
     </row>
     <row r="148" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="117"/>
       <c r="B148" s="123" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C148" s="124"/>
     </row>
     <row r="149" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="117"/>
       <c r="B149" s="123" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C149" s="124"/>
     </row>
     <row r="150" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="117"/>
       <c r="B150" s="121" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C150" s="122"/>
     </row>
@@ -6517,10 +6510,10 @@
       <c r="A151" s="117">
         <v>2</v>
       </c>
-      <c r="B151" s="139" t="s">
-        <v>890</v>
-      </c>
-      <c r="C151" s="140"/>
+      <c r="B151" s="146" t="s">
+        <v>888</v>
+      </c>
+      <c r="C151" s="147"/>
     </row>
     <row r="152" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="117"/>
@@ -6537,7 +6530,7 @@
         <v>810</v>
       </c>
       <c r="C153" s="124" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6546,7 +6539,7 @@
         <v>814</v>
       </c>
       <c r="C154" s="124" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6555,7 +6548,7 @@
         <v>816</v>
       </c>
       <c r="C155" s="124" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6568,21 +6561,21 @@
     <row r="157" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="117"/>
       <c r="B157" s="126" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C157" s="127"/>
     </row>
     <row r="158" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="117"/>
       <c r="B158" s="126" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C158" s="127"/>
     </row>
     <row r="159" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="117"/>
       <c r="B159" s="121" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C159" s="122"/>
     </row>
@@ -6590,10 +6583,10 @@
       <c r="A160" s="117">
         <v>3</v>
       </c>
-      <c r="B160" s="141" t="s">
-        <v>891</v>
-      </c>
-      <c r="C160" s="142"/>
+      <c r="B160" s="148" t="s">
+        <v>889</v>
+      </c>
+      <c r="C160" s="149"/>
     </row>
     <row r="161" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="117"/>
@@ -6601,7 +6594,7 @@
         <v>809</v>
       </c>
       <c r="C161" s="120" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6610,7 +6603,7 @@
         <v>810</v>
       </c>
       <c r="C162" s="124" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6619,7 +6612,7 @@
         <v>814</v>
       </c>
       <c r="C163" s="124" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6628,7 +6621,7 @@
         <v>816</v>
       </c>
       <c r="C164" s="127" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6641,34 +6634,30 @@
     <row r="166" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="117"/>
       <c r="B166" s="121" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C166" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="A63:C63"/>
@@ -6681,24 +6670,28 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -12998,7 +12991,7 @@
         <v>679</v>
       </c>
       <c r="X54" s="45" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
@@ -13068,7 +13061,7 @@
         <v>679</v>
       </c>
       <c r="X55" s="45" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
@@ -13138,7 +13131,7 @@
         <v>679</v>
       </c>
       <c r="X56" s="45" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
@@ -13208,7 +13201,7 @@
         <v>679</v>
       </c>
       <c r="X57" s="45" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
@@ -13278,7 +13271,7 @@
         <v>679</v>
       </c>
       <c r="X58" s="45" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
@@ -22361,10 +22354,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="84" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
@@ -22375,7 +22368,7 @@
       <c r="I16" s="44"/>
       <c r="J16" s="45"/>
       <c r="K16" s="90" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="L16" s="88"/>
     </row>
@@ -22643,7 +22636,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="84" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B30" s="49"/>
       <c r="C30" s="44"/>
@@ -22655,7 +22648,7 @@
       <c r="I30" s="44"/>
       <c r="J30" s="45"/>
       <c r="K30" s="90" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="L30" s="88">
         <v>3</v>
@@ -22743,7 +22736,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="84" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B35" s="49"/>
       <c r="C35" s="44"/>
@@ -22755,13 +22748,13 @@
       <c r="I35" s="44"/>
       <c r="J35" s="45"/>
       <c r="K35" s="90" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="L35" s="88"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="84" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B36" s="49"/>
       <c r="C36" s="44"/>
@@ -22773,7 +22766,7 @@
       <c r="I36" s="44"/>
       <c r="J36" s="45"/>
       <c r="K36" s="90" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="L36" s="88"/>
     </row>
@@ -22911,7 +22904,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="84" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B44" s="49"/>
       <c r="C44" s="44"/>
@@ -22929,7 +22922,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="84" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B45" s="49"/>
       <c r="C45" s="44"/>
@@ -22941,7 +22934,7 @@
       <c r="I45" s="44"/>
       <c r="J45" s="45"/>
       <c r="K45" s="90" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="L45" s="88">
         <v>3</v>
@@ -23607,7 +23600,7 @@
       <c r="I79" s="44"/>
       <c r="J79" s="45"/>
       <c r="K79" s="90" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="L79" s="88"/>
     </row>
@@ -23965,7 +23958,7 @@
         <v>372</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F3" s="130"/>
       <c r="G3" s="31"/>
@@ -23992,7 +23985,7 @@
         <v>382</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F4" s="130"/>
       <c r="G4" s="31"/>
@@ -24108,7 +24101,7 @@
         <v>493</v>
       </c>
       <c r="E9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F9" s="135" t="s">
         <v>766</v>
@@ -24423,7 +24416,7 @@
         <v>488</v>
       </c>
       <c r="E24" s="135" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="L24" s="35">
         <v>4</v>
@@ -24501,7 +24494,7 @@
         <v>372</v>
       </c>
       <c r="E28" s="135" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="L28" s="35">
         <v>7</v>
@@ -24525,7 +24518,7 @@
         <v>422</v>
       </c>
       <c r="E29" s="135" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="L29" s="35">
         <v>0</v>
@@ -24546,13 +24539,13 @@
         <v>382</v>
       </c>
       <c r="E30" s="135" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="L30" s="35">
         <v>3</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -24787,7 +24780,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="130" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B42" s="130" t="s">
         <v>603</v>
@@ -24796,12 +24789,12 @@
         <v>488</v>
       </c>
       <c r="M42" s="130" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="130" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B43" s="130" t="s">
         <v>603</v>
@@ -24811,7 +24804,7 @@
       </c>
       <c r="L43" s="32"/>
       <c r="M43" s="130" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="N43"/>
     </row>
@@ -24826,22 +24819,22 @@
         <v>488</v>
       </c>
       <c r="M44" s="130" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="130" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="130" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="130" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B47" s="130" t="s">
         <v>603</v>
@@ -24850,15 +24843,15 @@
         <v>488</v>
       </c>
       <c r="E47" s="130" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="M47" s="130" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="130" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B48" s="130" t="s">
         <v>374</v>
@@ -24867,10 +24860,10 @@
         <v>488</v>
       </c>
       <c r="E48" s="130" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="M48" s="130" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="N48" s="34">
         <v>5</v>
@@ -24878,7 +24871,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="130" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B49" s="130" t="s">
         <v>374</v>
@@ -24887,15 +24880,15 @@
         <v>488</v>
       </c>
       <c r="E49" s="130" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="M49" s="130" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="130" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B50" s="130" t="s">
         <v>374</v>
@@ -24904,15 +24897,15 @@
         <v>488</v>
       </c>
       <c r="E50" s="130" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="M50" s="130" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="130" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B51" s="130" t="s">
         <v>374</v>
@@ -24921,15 +24914,15 @@
         <v>488</v>
       </c>
       <c r="E51" s="130" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="M51" s="130" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="130" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B52" s="130" t="s">
         <v>374</v>
@@ -24938,10 +24931,10 @@
         <v>488</v>
       </c>
       <c r="E52" s="130" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="M52" s="130" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="N52" s="34">
         <v>5</v>
@@ -24958,12 +24951,12 @@
         <v>488</v>
       </c>
       <c r="M53" s="131" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="131" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B54" s="131" t="s">
         <v>603</v>
@@ -24972,41 +24965,41 @@
         <v>488</v>
       </c>
       <c r="M54" s="131" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="131" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B55" s="131" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D55" s="131" t="s">
         <v>488</v>
       </c>
       <c r="E55" s="131" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="M55" s="131" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="131" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B56" s="131" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D56" s="131" t="s">
         <v>488</v>
       </c>
       <c r="E56" s="131" t="s">
+        <v>955</v>
+      </c>
+      <c r="M56" s="131" t="s">
         <v>957</v>
-      </c>
-      <c r="M56" s="131" t="s">
-        <v>959</v>
       </c>
       <c r="N56" s="34">
         <v>3</v>
@@ -25014,7 +25007,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="133" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B57" s="133" t="s">
         <v>374</v>
@@ -25023,10 +25016,10 @@
         <v>488</v>
       </c>
       <c r="E57" s="133" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="M57" s="133" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="N57" s="34">
         <v>3</v>
@@ -25034,7 +25027,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="133" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B58" s="133" t="s">
         <v>374</v>
@@ -25043,10 +25036,10 @@
         <v>488</v>
       </c>
       <c r="E58" s="133" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="M58" s="133" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="N58" s="34">
         <v>3</v>
@@ -25054,7 +25047,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="133" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B59" s="133" t="s">
         <v>374</v>
@@ -25063,10 +25056,10 @@
         <v>488</v>
       </c>
       <c r="E59" s="133" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="M59" s="133" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="N59" s="34">
         <v>3</v>
@@ -25074,7 +25067,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="135" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B60" s="135" t="s">
         <v>374</v>
@@ -25083,10 +25076,10 @@
         <v>422</v>
       </c>
       <c r="E60" s="135" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="M60" s="135" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="N60" s="34">
         <v>3</v>
@@ -25094,7 +25087,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="136" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B61" s="136" t="s">
         <v>375</v>
@@ -25103,16 +25096,16 @@
         <v>493</v>
       </c>
       <c r="E61" s="136" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F61" s="136" t="s">
         <v>766</v>
       </c>
       <c r="G61" s="136" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M61" s="136" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N61" s="34">
         <v>3</v>
@@ -25120,7 +25113,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="136" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B62" s="136" t="s">
         <v>375</v>
@@ -25129,30 +25122,30 @@
         <v>493</v>
       </c>
       <c r="E62" s="136" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F62" s="136" t="s">
         <v>766</v>
       </c>
       <c r="M62" s="136" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="136" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B63" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D63" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E63" s="136" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="M63" s="136" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="N63" s="34">
         <v>3</v>
@@ -25160,19 +25153,19 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="136" t="s">
+        <v>984</v>
+      </c>
+      <c r="B64" s="136" t="s">
         <v>986</v>
-      </c>
-      <c r="B64" s="136" t="s">
-        <v>988</v>
       </c>
       <c r="D64" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E64" s="136" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="M64" s="136" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N64" s="34">
         <v>3</v>
@@ -25180,53 +25173,53 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="136" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B65" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D65" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E65" s="136" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="M65" s="136" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="136" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B66" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D66" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E66" s="136" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="M66" s="136" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="136" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B67" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D67" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E67" s="136" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="M67" s="136" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="N67" s="34">
         <v>3</v>
@@ -25234,19 +25227,19 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="136" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B68" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D68" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E68" s="136" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="M68" s="136" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="N68" s="34">
         <v>3</v>
@@ -25254,19 +25247,19 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="136" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B69" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D69" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E69" s="136" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="M69" s="137" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="N69" s="138">
         <v>3</v>
@@ -25276,19 +25269,19 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="136" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B70" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D70" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E70" s="136" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="M70" s="136" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N70" s="34">
         <v>3</v>
@@ -25296,19 +25289,19 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="136" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B71" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D71" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E71" s="136" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="M71" s="136" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="N71" s="34">
         <v>3</v>
@@ -25316,19 +25309,19 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="136" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B72" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D72" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E72" s="136" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="M72" s="136" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N72" s="34">
         <v>3</v>
@@ -25336,19 +25329,19 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="136" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B73" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D73" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E73" s="136" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="M73" s="136" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="N73" s="34">
         <v>3</v>
@@ -25356,53 +25349,53 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="136" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B74" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D74" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E74" s="136" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="M74" s="136" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="136" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B75" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D75" s="136" t="s">
         <v>382</v>
       </c>
       <c r="E75" s="136" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="M75" s="136" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="136" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B76" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D76" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E76" s="136" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="M76" s="136" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="N76" s="34">
         <v>3</v>
@@ -25410,19 +25403,19 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="136" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B77" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D77" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E77" s="136" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="M77" s="136" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="N77" s="34">
         <v>3</v>
@@ -25430,19 +25423,19 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="136" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B78" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D78" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E78" s="136" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="M78" s="136" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="N78" s="34">
         <v>4</v>
@@ -25450,19 +25443,19 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="136" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B79" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D79" s="136" t="s">
         <v>422</v>
       </c>
       <c r="E79" s="136" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="M79" s="136" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="N79" s="34">
         <v>3</v>
@@ -25470,36 +25463,36 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="136" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B80" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D80" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E80" s="136" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="M80" s="136" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="136" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B81" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D81" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E81" s="136" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="M81" s="136" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="N81" s="34">
         <v>3</v>
@@ -25507,19 +25500,19 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="136" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B82" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D82" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E82" s="136" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="M82" s="136" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -25527,16 +25520,16 @@
         <v>483</v>
       </c>
       <c r="B83" s="136" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D83" s="136" t="s">
         <v>488</v>
       </c>
       <c r="E83" s="136" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="M83" s="136" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
@@ -26702,10 +26695,10 @@
     </row>
     <row r="19" spans="1:15" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="105" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -27212,7 +27205,7 @@
         <v>278</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -27465,19 +27458,19 @@
         <v>794</v>
       </c>
       <c r="K61" s="77" t="s">
+        <v>934</v>
+      </c>
+      <c r="L61" s="77" t="s">
+        <v>935</v>
+      </c>
+      <c r="M61" s="77" t="s">
         <v>936</v>
       </c>
-      <c r="L61" s="77" t="s">
+      <c r="N61" s="77" t="s">
         <v>937</v>
       </c>
-      <c r="M61" s="77" t="s">
+      <c r="O61" s="75" t="s">
         <v>938</v>
-      </c>
-      <c r="N61" s="77" t="s">
-        <v>939</v>
-      </c>
-      <c r="O61" s="75" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1035">
   <si>
     <t>Fishing</t>
   </si>
@@ -3741,6 +3741,12 @@
   </si>
   <si>
     <t>attack of opportunity</t>
+  </si>
+  <si>
+    <t>Make Injuries recalculate stats</t>
+  </si>
+  <si>
+    <t>bullets hitting random targets</t>
   </si>
 </sst>
 </file>
@@ -3840,7 +3846,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -4593,11 +4599,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4915,6 +4943,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4934,24 +4980,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4998,6 +5026,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5300,10 +5334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5318,29 +5352,29 @@
       <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="145" t="s">
         <v>803</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="141"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="147"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="116">
         <v>1</v>
       </c>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="148" t="s">
         <v>804</v>
       </c>
-      <c r="C3" s="143"/>
+      <c r="C3" s="149"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="117">
         <v>2</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="139" t="s">
         <v>805</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="140"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="117"/>
@@ -5391,10 +5425,10 @@
       <c r="A10" s="117">
         <v>3</v>
       </c>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="141" t="s">
         <v>806</v>
       </c>
-      <c r="C10" s="149"/>
+      <c r="C10" s="142"/>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="117"/>
@@ -5409,10 +5443,10 @@
       <c r="A12" s="117">
         <v>4</v>
       </c>
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="143" t="s">
         <v>807</v>
       </c>
-      <c r="C12" s="151"/>
+      <c r="C12" s="144"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="117"/>
@@ -5427,10 +5461,10 @@
       <c r="A14" s="117">
         <v>5</v>
       </c>
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="143" t="s">
         <v>808</v>
       </c>
-      <c r="C14" s="151"/>
+      <c r="C14" s="144"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="117"/>
@@ -5445,10 +5479,10 @@
       <c r="A16" s="118">
         <v>6</v>
       </c>
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="150" t="s">
         <v>812</v>
       </c>
-      <c r="C16" s="145"/>
+      <c r="C16" s="151"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="117"/>
@@ -5463,36 +5497,36 @@
       <c r="A18" s="118">
         <v>7</v>
       </c>
-      <c r="B18" s="144" t="s">
+      <c r="B18" s="150" t="s">
         <v>942</v>
       </c>
-      <c r="C18" s="145"/>
+      <c r="C18" s="151"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="134">
         <v>8</v>
       </c>
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="150" t="s">
         <v>943</v>
       </c>
-      <c r="C19" s="145"/>
+      <c r="C19" s="151"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="139" t="s">
+      <c r="A21" s="145" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="140"/>
-      <c r="C21" s="141"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="147"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="116">
         <v>1</v>
       </c>
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="148" t="s">
         <v>813</v>
       </c>
-      <c r="C22" s="143"/>
+      <c r="C22" s="149"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="117"/>
@@ -5568,20 +5602,20 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="139" t="s">
+      <c r="A32" s="145" t="s">
         <v>815</v>
       </c>
-      <c r="B32" s="140"/>
-      <c r="C32" s="141"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="147"/>
     </row>
     <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="116">
         <v>1</v>
       </c>
-      <c r="B33" s="142" t="s">
+      <c r="B33" s="148" t="s">
         <v>803</v>
       </c>
-      <c r="C33" s="143"/>
+      <c r="C33" s="149"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="117"/>
@@ -5594,17 +5628,21 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="117"/>
-      <c r="B35" s="123"/>
-      <c r="C35" s="124"/>
+      <c r="B35" s="123" t="s">
+        <v>810</v>
+      </c>
+      <c r="C35" s="124" t="s">
+        <v>1034</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="117">
         <v>2</v>
       </c>
-      <c r="B36" s="146" t="s">
+      <c r="B36" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="147"/>
+      <c r="C36" s="140"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="117"/>
@@ -5624,1063 +5662,1031 @@
       <c r="A39" s="117">
         <v>2</v>
       </c>
-      <c r="B39" s="146" t="s">
+      <c r="B39" s="139" t="s">
         <v>939</v>
       </c>
-      <c r="C39" s="147"/>
+      <c r="C39" s="140"/>
     </row>
     <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="117"/>
-      <c r="B40" s="119" t="s">
-        <v>809</v>
+      <c r="B40" s="119">
+        <v>1</v>
       </c>
       <c r="C40" s="120" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="117"/>
-      <c r="B41" s="121" t="s">
-        <v>810</v>
-      </c>
-      <c r="C41" s="132" t="s">
+      <c r="B41" s="167">
+        <v>2</v>
+      </c>
+      <c r="C41" s="168" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="117"/>
+      <c r="B42" s="121">
+        <v>3</v>
+      </c>
+      <c r="C42" s="132" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="139" t="s">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="145" t="s">
         <v>820</v>
       </c>
-      <c r="B43" s="140"/>
-      <c r="C43" s="141"/>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="116">
-        <v>1</v>
-      </c>
-      <c r="B44" s="142" t="s">
+      <c r="B44" s="146"/>
+      <c r="C44" s="147"/>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="116">
+        <v>1</v>
+      </c>
+      <c r="B45" s="148" t="s">
         <v>821</v>
       </c>
-      <c r="C44" s="143"/>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="117"/>
-      <c r="B45" s="119" t="s">
+      <c r="C45" s="149"/>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="117"/>
+      <c r="B46" s="119" t="s">
         <v>809</v>
       </c>
-      <c r="C45" s="120" t="s">
+      <c r="C46" s="120" t="s">
         <v>547</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="117"/>
-      <c r="B46" s="123" t="s">
-        <v>810</v>
-      </c>
-      <c r="C46" s="124" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="117"/>
       <c r="B47" s="123" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C47" s="124" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="117"/>
-      <c r="B48" s="121" t="s">
+      <c r="B48" s="123" t="s">
+        <v>814</v>
+      </c>
+      <c r="C48" s="124" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="117"/>
+      <c r="B49" s="121" t="s">
         <v>816</v>
       </c>
-      <c r="C48" s="122" t="s">
+      <c r="C49" s="122" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="139" t="s">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="145" t="s">
         <v>825</v>
       </c>
-      <c r="B50" s="140"/>
-      <c r="C50" s="141"/>
-    </row>
-    <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="116">
-        <v>1</v>
-      </c>
-      <c r="B51" s="142" t="s">
+      <c r="B51" s="146"/>
+      <c r="C51" s="147"/>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="116">
+        <v>1</v>
+      </c>
+      <c r="B52" s="148" t="s">
         <v>826</v>
       </c>
-      <c r="C51" s="143"/>
-    </row>
-    <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="117"/>
-      <c r="B52" s="119" t="s">
+      <c r="C52" s="149"/>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="117"/>
+      <c r="B53" s="119" t="s">
         <v>809</v>
       </c>
-      <c r="C52" s="120" t="s">
+      <c r="C53" s="120" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="125"/>
-      <c r="B53" s="121" t="s">
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="125"/>
+      <c r="B54" s="121" t="s">
         <v>810</v>
       </c>
-      <c r="C53" s="122" t="s">
+      <c r="C54" s="122" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="116">
-        <v>1</v>
-      </c>
-      <c r="B54" s="142" t="s">
+    <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="116">
+        <v>1</v>
+      </c>
+      <c r="B55" s="148" t="s">
         <v>828</v>
       </c>
-      <c r="C54" s="143"/>
-    </row>
-    <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="117"/>
-      <c r="B55" s="119" t="s">
+      <c r="C55" s="149"/>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="117"/>
+      <c r="B56" s="119" t="s">
         <v>809</v>
       </c>
-      <c r="C55" s="120" t="s">
+      <c r="C56" s="120" t="s">
         <v>829</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="117"/>
-      <c r="B56" s="123" t="s">
-        <v>810</v>
-      </c>
-      <c r="C56" s="124" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="117"/>
       <c r="B57" s="123" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C57" s="124" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="117"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="122"/>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="139" t="s">
+      <c r="B58" s="123" t="s">
+        <v>814</v>
+      </c>
+      <c r="C58" s="124" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="117"/>
+      <c r="B59" s="121"/>
+      <c r="C59" s="122"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="145" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="140"/>
-      <c r="C60" s="141"/>
-    </row>
-    <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="116">
-        <v>1</v>
-      </c>
-      <c r="B61" s="142" t="s">
+      <c r="B61" s="146"/>
+      <c r="C61" s="147"/>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="116">
+        <v>1</v>
+      </c>
+      <c r="B62" s="148" t="s">
         <v>833</v>
       </c>
-      <c r="C61" s="143"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="139" t="s">
+      <c r="C62" s="149"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="145" t="s">
         <v>811</v>
       </c>
-      <c r="B63" s="140"/>
-      <c r="C63" s="141"/>
-    </row>
-    <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="116">
-        <v>1</v>
-      </c>
-      <c r="B64" s="148" t="s">
+      <c r="B64" s="146"/>
+      <c r="C64" s="147"/>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="116">
+        <v>1</v>
+      </c>
+      <c r="B65" s="141" t="s">
         <v>804</v>
       </c>
-      <c r="C64" s="149"/>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="117">
-        <v>2</v>
-      </c>
-      <c r="B65" s="152" t="s">
-        <v>805</v>
-      </c>
-      <c r="C65" s="153"/>
+      <c r="C65" s="142"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="117">
-        <v>3</v>
-      </c>
-      <c r="B66" s="150" t="s">
-        <v>806</v>
-      </c>
-      <c r="C66" s="151"/>
+        <v>2</v>
+      </c>
+      <c r="B66" s="152" t="s">
+        <v>805</v>
+      </c>
+      <c r="C66" s="153"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="117">
-        <v>4</v>
-      </c>
-      <c r="B67" s="150" t="s">
-        <v>807</v>
-      </c>
-      <c r="C67" s="151"/>
+        <v>3</v>
+      </c>
+      <c r="B67" s="143" t="s">
+        <v>806</v>
+      </c>
+      <c r="C67" s="144"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="117">
+        <v>4</v>
+      </c>
+      <c r="B68" s="143" t="s">
+        <v>807</v>
+      </c>
+      <c r="C68" s="144"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="117">
         <v>5</v>
       </c>
-      <c r="B68" s="150" t="s">
+      <c r="B69" s="143" t="s">
         <v>808</v>
       </c>
-      <c r="C68" s="151"/>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="118">
+      <c r="C69" s="144"/>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="118">
         <v>6</v>
       </c>
-      <c r="B69" s="144" t="s">
+      <c r="B70" s="150" t="s">
         <v>812</v>
       </c>
-      <c r="C69" s="145"/>
-    </row>
-    <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="139" t="s">
+      <c r="C70" s="151"/>
+    </row>
+    <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="145" t="s">
         <v>834</v>
       </c>
-      <c r="B71" s="140"/>
-      <c r="C71" s="141"/>
-    </row>
-    <row r="72" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="116">
-        <v>1</v>
-      </c>
-      <c r="B72" s="148" t="s">
+      <c r="B72" s="146"/>
+      <c r="C72" s="147"/>
+    </row>
+    <row r="73" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="116">
+        <v>1</v>
+      </c>
+      <c r="B73" s="141" t="s">
         <v>804</v>
       </c>
-      <c r="C72" s="149"/>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="117">
-        <v>2</v>
-      </c>
-      <c r="B73" s="152" t="s">
-        <v>805</v>
-      </c>
-      <c r="C73" s="153"/>
+      <c r="C73" s="142"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="117">
-        <v>3</v>
-      </c>
-      <c r="B74" s="150" t="s">
-        <v>806</v>
-      </c>
-      <c r="C74" s="151"/>
+        <v>2</v>
+      </c>
+      <c r="B74" s="152" t="s">
+        <v>805</v>
+      </c>
+      <c r="C74" s="153"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="117">
-        <v>4</v>
-      </c>
-      <c r="B75" s="150" t="s">
-        <v>807</v>
-      </c>
-      <c r="C75" s="151"/>
+        <v>3</v>
+      </c>
+      <c r="B75" s="143" t="s">
+        <v>806</v>
+      </c>
+      <c r="C75" s="144"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="117">
+        <v>4</v>
+      </c>
+      <c r="B76" s="143" t="s">
+        <v>807</v>
+      </c>
+      <c r="C76" s="144"/>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="117">
         <v>5</v>
       </c>
-      <c r="B76" s="150" t="s">
+      <c r="B77" s="143" t="s">
         <v>808</v>
       </c>
-      <c r="C76" s="151"/>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="118">
+      <c r="C77" s="144"/>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="118">
         <v>6</v>
       </c>
-      <c r="B77" s="144" t="s">
+      <c r="B78" s="150" t="s">
         <v>812</v>
       </c>
-      <c r="C77" s="145"/>
-    </row>
-    <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="139" t="s">
+      <c r="C78" s="151"/>
+    </row>
+    <row r="79" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="145" t="s">
         <v>835</v>
       </c>
-      <c r="B79" s="140"/>
-      <c r="C79" s="141"/>
-    </row>
-    <row r="80" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="116">
-        <v>1</v>
-      </c>
-      <c r="B80" s="148" t="s">
+      <c r="B80" s="146"/>
+      <c r="C80" s="147"/>
+    </row>
+    <row r="81" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="116">
+        <v>1</v>
+      </c>
+      <c r="B81" s="141" t="s">
         <v>804</v>
       </c>
-      <c r="C80" s="149"/>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="117">
-        <v>2</v>
-      </c>
-      <c r="B81" s="152" t="s">
-        <v>805</v>
-      </c>
-      <c r="C81" s="153"/>
+      <c r="C81" s="142"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="117">
-        <v>3</v>
-      </c>
-      <c r="B82" s="150" t="s">
-        <v>806</v>
-      </c>
-      <c r="C82" s="151"/>
+        <v>2</v>
+      </c>
+      <c r="B82" s="152" t="s">
+        <v>805</v>
+      </c>
+      <c r="C82" s="153"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="117">
-        <v>4</v>
-      </c>
-      <c r="B83" s="150" t="s">
-        <v>807</v>
-      </c>
-      <c r="C83" s="151"/>
+        <v>3</v>
+      </c>
+      <c r="B83" s="143" t="s">
+        <v>806</v>
+      </c>
+      <c r="C83" s="144"/>
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="117">
+        <v>4</v>
+      </c>
+      <c r="B84" s="143" t="s">
+        <v>807</v>
+      </c>
+      <c r="C84" s="144"/>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="117">
         <v>5</v>
       </c>
-      <c r="B84" s="150" t="s">
+      <c r="B85" s="143" t="s">
         <v>808</v>
       </c>
-      <c r="C84" s="151"/>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="118">
+      <c r="C85" s="144"/>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="118">
         <v>6</v>
       </c>
-      <c r="B85" s="144" t="s">
+      <c r="B86" s="150" t="s">
         <v>812</v>
       </c>
-      <c r="C85" s="145"/>
-    </row>
-    <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="139" t="s">
+      <c r="C86" s="151"/>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="145" t="s">
         <v>885</v>
       </c>
-      <c r="B87" s="140"/>
-      <c r="C87" s="141"/>
-    </row>
-    <row r="88" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="116">
-        <v>1</v>
-      </c>
-      <c r="B88" s="142" t="s">
+      <c r="B88" s="146"/>
+      <c r="C88" s="147"/>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="116">
+        <v>1</v>
+      </c>
+      <c r="B89" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="C88" s="143"/>
-    </row>
-    <row r="89" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="125"/>
-      <c r="B89" s="119" t="s">
+      <c r="C89" s="149"/>
+    </row>
+    <row r="90" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="125"/>
+      <c r="B90" s="119" t="s">
         <v>809</v>
       </c>
-      <c r="C89" s="120" t="s">
+      <c r="C90" s="120" t="s">
         <v>862</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="125"/>
-      <c r="B90" s="128" t="s">
-        <v>810</v>
-      </c>
-      <c r="C90" s="129" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="125"/>
       <c r="B91" s="128" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C91" s="129" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="125"/>
       <c r="B92" s="128" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C92" s="129" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="125"/>
       <c r="B93" s="128" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C93" s="129" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="125"/>
       <c r="B94" s="128" t="s">
-        <v>846</v>
+        <v>817</v>
       </c>
       <c r="C94" s="129" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="125"/>
       <c r="B95" s="128" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C95" s="129" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="125"/>
       <c r="B96" s="128" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C96" s="129" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="125"/>
       <c r="B97" s="128" t="s">
+        <v>850</v>
+      </c>
+      <c r="C97" s="129" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="125"/>
+      <c r="B98" s="128" t="s">
         <v>851</v>
       </c>
-      <c r="C97" s="129" t="s">
+      <c r="C98" s="129" t="s">
         <v>870</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="117"/>
-      <c r="B98" s="123" t="s">
-        <v>852</v>
-      </c>
-      <c r="C98" s="124" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="117"/>
       <c r="B99" s="123" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C99" s="124" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="117"/>
       <c r="B100" s="123" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C100" s="124" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="117"/>
       <c r="B101" s="123" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C101" s="124" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="117"/>
       <c r="B102" s="123" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C102" s="124" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="117"/>
       <c r="B103" s="123" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C103" s="124" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="117"/>
       <c r="B104" s="123" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C104" s="124" t="s">
-        <v>35</v>
+        <v>876</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="117"/>
       <c r="B105" s="123" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C105" s="124" t="s">
-        <v>877</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="117"/>
       <c r="B106" s="123" t="s">
-        <v>860</v>
-      </c>
-      <c r="C106" s="124"/>
+        <v>859</v>
+      </c>
+      <c r="C106" s="124" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="117"/>
-      <c r="B107" s="121" t="s">
+      <c r="B107" s="123" t="s">
+        <v>860</v>
+      </c>
+      <c r="C107" s="124"/>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="117"/>
+      <c r="B108" s="121" t="s">
         <v>861</v>
       </c>
-      <c r="C107" s="122"/>
-    </row>
-    <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="117">
+      <c r="C108" s="122"/>
+    </row>
+    <row r="109" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="117">
         <v>2</v>
       </c>
-      <c r="B108" s="146" t="s">
+      <c r="B109" s="139" t="s">
         <v>836</v>
       </c>
-      <c r="C108" s="147"/>
-    </row>
-    <row r="109" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="117"/>
-      <c r="B109" s="119" t="s">
+      <c r="C109" s="140"/>
+    </row>
+    <row r="110" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="117"/>
+      <c r="B110" s="119" t="s">
         <v>809</v>
       </c>
-      <c r="C109" s="120" t="s">
+      <c r="C110" s="120" t="s">
         <v>849</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="117"/>
-      <c r="B110" s="123" t="s">
-        <v>810</v>
-      </c>
-      <c r="C110" s="124" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="117"/>
       <c r="B111" s="123" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C111" s="124" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="117"/>
       <c r="B112" s="123" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C112" s="124" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="117"/>
       <c r="B113" s="123" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C113" s="124" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="117"/>
-      <c r="B114" s="126" t="s">
-        <v>846</v>
-      </c>
-      <c r="C114" s="127" t="s">
-        <v>882</v>
+      <c r="B114" s="123" t="s">
+        <v>817</v>
+      </c>
+      <c r="C114" s="124" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="117"/>
       <c r="B115" s="126" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C115" s="127" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="117"/>
-      <c r="B116" s="121" t="s">
+      <c r="B116" s="126" t="s">
+        <v>848</v>
+      </c>
+      <c r="C116" s="127" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="117"/>
+      <c r="B117" s="121" t="s">
         <v>850</v>
       </c>
-      <c r="C116" s="122" t="s">
+      <c r="C117" s="122" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="117">
+    <row r="118" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="117">
         <v>3</v>
       </c>
-      <c r="B117" s="148" t="s">
+      <c r="B118" s="141" t="s">
         <v>837</v>
       </c>
-      <c r="C117" s="149"/>
-    </row>
-    <row r="118" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="117"/>
-      <c r="B118" s="119" t="s">
+      <c r="C118" s="142"/>
+    </row>
+    <row r="119" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="117"/>
+      <c r="B119" s="119" t="s">
         <v>809</v>
       </c>
-      <c r="C118" s="120" t="s">
+      <c r="C119" s="120" t="s">
         <v>843</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="117"/>
-      <c r="B119" s="123" t="s">
-        <v>810</v>
-      </c>
-      <c r="C119" s="124" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="117"/>
       <c r="B120" s="123" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C120" s="124" t="s">
-        <v>89</v>
+        <v>844</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="117"/>
-      <c r="B121" s="126" t="s">
-        <v>816</v>
-      </c>
-      <c r="C121" s="127" t="s">
-        <v>845</v>
+      <c r="B121" s="123" t="s">
+        <v>814</v>
+      </c>
+      <c r="C121" s="124" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="117"/>
       <c r="B122" s="126" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C122" s="127" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="117"/>
-      <c r="B123" s="121"/>
-      <c r="C123" s="122"/>
-    </row>
-    <row r="124" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="116">
+      <c r="B123" s="126" t="s">
+        <v>817</v>
+      </c>
+      <c r="C123" s="127" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="117"/>
+      <c r="B124" s="121"/>
+      <c r="C124" s="122"/>
+    </row>
+    <row r="125" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="116">
         <v>4</v>
       </c>
-      <c r="B124" s="150" t="s">
+      <c r="B125" s="143" t="s">
         <v>838</v>
       </c>
-      <c r="C124" s="151"/>
-    </row>
-    <row r="125" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="125"/>
-      <c r="B125" s="119" t="s">
+      <c r="C125" s="144"/>
+    </row>
+    <row r="126" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="125"/>
+      <c r="B126" s="119" t="s">
         <v>809</v>
       </c>
-      <c r="C125" s="120" t="s">
+      <c r="C126" s="120" t="s">
         <v>839</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="117"/>
-      <c r="B126" s="123" t="s">
-        <v>810</v>
-      </c>
-      <c r="C126" s="124" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="117"/>
       <c r="B127" s="123" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C127" s="124" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="117"/>
-      <c r="B128" s="121" t="s">
+      <c r="B128" s="123" t="s">
+        <v>814</v>
+      </c>
+      <c r="C128" s="124" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="117"/>
+      <c r="B129" s="121" t="s">
         <v>816</v>
       </c>
-      <c r="C128" s="122" t="s">
+      <c r="C129" s="122" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="139" t="s">
+    <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="145" t="s">
         <v>886</v>
       </c>
-      <c r="B130" s="140"/>
-      <c r="C130" s="141"/>
-    </row>
-    <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="116">
-        <v>1</v>
-      </c>
-      <c r="B131" s="142" t="s">
+      <c r="B131" s="146"/>
+      <c r="C131" s="147"/>
+    </row>
+    <row r="132" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="116">
+        <v>1</v>
+      </c>
+      <c r="B132" s="148" t="s">
         <v>887</v>
       </c>
-      <c r="C131" s="143"/>
-    </row>
-    <row r="132" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="125"/>
-      <c r="B132" s="119" t="s">
+      <c r="C132" s="149"/>
+    </row>
+    <row r="133" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="125"/>
+      <c r="B133" s="119" t="s">
         <v>809</v>
       </c>
-      <c r="C132" s="120" t="s">
+      <c r="C133" s="120" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="125"/>
-      <c r="B133" s="128" t="s">
-        <v>810</v>
-      </c>
-      <c r="C133" s="129" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="125"/>
       <c r="B134" s="128" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C134" s="129" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="125"/>
       <c r="B135" s="128" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C135" s="129" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="125"/>
       <c r="B136" s="128" t="s">
-        <v>817</v>
-      </c>
-      <c r="C136" s="129"/>
+        <v>816</v>
+      </c>
+      <c r="C136" s="129" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="125"/>
       <c r="B137" s="128" t="s">
-        <v>846</v>
+        <v>817</v>
       </c>
       <c r="C137" s="129"/>
     </row>
     <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="125"/>
       <c r="B138" s="128" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C138" s="129"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="125"/>
       <c r="B139" s="128" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C139" s="129"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="125"/>
       <c r="B140" s="128" t="s">
+        <v>850</v>
+      </c>
+      <c r="C140" s="129"/>
+    </row>
+    <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="125"/>
+      <c r="B141" s="128" t="s">
         <v>851</v>
       </c>
-      <c r="C140" s="129"/>
-    </row>
-    <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="117"/>
-      <c r="B141" s="123" t="s">
-        <v>852</v>
-      </c>
-      <c r="C141" s="124"/>
+      <c r="C141" s="129"/>
     </row>
     <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="117"/>
       <c r="B142" s="123" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C142" s="124"/>
     </row>
     <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="117"/>
       <c r="B143" s="123" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C143" s="124"/>
     </row>
     <row r="144" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="117"/>
       <c r="B144" s="123" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C144" s="124"/>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="117"/>
       <c r="B145" s="123" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C145" s="124"/>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="117"/>
       <c r="B146" s="123" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C146" s="124"/>
     </row>
     <row r="147" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="117"/>
       <c r="B147" s="123" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C147" s="124"/>
     </row>
     <row r="148" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="117"/>
       <c r="B148" s="123" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C148" s="124"/>
     </row>
     <row r="149" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="117"/>
       <c r="B149" s="123" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C149" s="124"/>
     </row>
     <row r="150" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="117"/>
-      <c r="B150" s="121" t="s">
+      <c r="B150" s="123" t="s">
+        <v>860</v>
+      </c>
+      <c r="C150" s="124"/>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="117"/>
+      <c r="B151" s="121" t="s">
         <v>861</v>
       </c>
-      <c r="C150" s="122"/>
-    </row>
-    <row r="151" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="117">
+      <c r="C151" s="122"/>
+    </row>
+    <row r="152" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="117">
         <v>2</v>
       </c>
-      <c r="B151" s="146" t="s">
+      <c r="B152" s="139" t="s">
         <v>888</v>
       </c>
-      <c r="C151" s="147"/>
-    </row>
-    <row r="152" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="117"/>
-      <c r="B152" s="119" t="s">
+      <c r="C152" s="140"/>
+    </row>
+    <row r="153" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="117"/>
+      <c r="B153" s="119" t="s">
         <v>809</v>
       </c>
-      <c r="C152" s="120" t="s">
+      <c r="C153" s="120" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="117"/>
-      <c r="B153" s="123" t="s">
-        <v>810</v>
-      </c>
-      <c r="C153" s="124" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="117"/>
       <c r="B154" s="123" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C154" s="124" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="117"/>
       <c r="B155" s="123" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C155" s="124" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="117"/>
       <c r="B156" s="123" t="s">
-        <v>817</v>
-      </c>
-      <c r="C156" s="124"/>
+        <v>816</v>
+      </c>
+      <c r="C156" s="124" t="s">
+        <v>892</v>
+      </c>
     </row>
     <row r="157" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="117"/>
-      <c r="B157" s="126" t="s">
-        <v>846</v>
-      </c>
-      <c r="C157" s="127"/>
+      <c r="B157" s="123" t="s">
+        <v>817</v>
+      </c>
+      <c r="C157" s="124"/>
     </row>
     <row r="158" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="117"/>
       <c r="B158" s="126" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C158" s="127"/>
     </row>
     <row r="159" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="117"/>
-      <c r="B159" s="121" t="s">
+      <c r="B159" s="126" t="s">
+        <v>848</v>
+      </c>
+      <c r="C159" s="127"/>
+    </row>
+    <row r="160" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="117"/>
+      <c r="B160" s="121" t="s">
         <v>850</v>
       </c>
-      <c r="C159" s="122"/>
-    </row>
-    <row r="160" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="117">
+      <c r="C160" s="122"/>
+    </row>
+    <row r="161" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="117">
         <v>3</v>
       </c>
-      <c r="B160" s="148" t="s">
+      <c r="B161" s="141" t="s">
         <v>889</v>
       </c>
-      <c r="C160" s="149"/>
-    </row>
-    <row r="161" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="117"/>
-      <c r="B161" s="119" t="s">
+      <c r="C161" s="142"/>
+    </row>
+    <row r="162" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="117"/>
+      <c r="B162" s="119" t="s">
         <v>809</v>
       </c>
-      <c r="C161" s="120" t="s">
+      <c r="C162" s="120" t="s">
         <v>894</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="117"/>
-      <c r="B162" s="123" t="s">
-        <v>810</v>
-      </c>
-      <c r="C162" s="124" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="117"/>
       <c r="B163" s="123" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C163" s="124" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="117"/>
-      <c r="B164" s="126" t="s">
-        <v>816</v>
-      </c>
-      <c r="C164" s="127" t="s">
-        <v>896</v>
+      <c r="B164" s="123" t="s">
+        <v>814</v>
+      </c>
+      <c r="C164" s="124" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="117"/>
       <c r="B165" s="126" t="s">
-        <v>817</v>
-      </c>
-      <c r="C165" s="127"/>
+        <v>816</v>
+      </c>
+      <c r="C165" s="127" t="s">
+        <v>896</v>
+      </c>
     </row>
     <row r="166" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="117"/>
-      <c r="B166" s="121" t="s">
+      <c r="B166" s="126" t="s">
+        <v>817</v>
+      </c>
+      <c r="C166" s="127"/>
+    </row>
+    <row r="167" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="117"/>
+      <c r="B167" s="121" t="s">
         <v>846</v>
       </c>
-      <c r="C166" s="122"/>
+      <c r="C167" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B39:C39"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B16:C16"/>
@@ -6692,6 +6698,47 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="B132:C132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -5043,16 +5043,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5070,16 +5076,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5433,8 +5433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5449,29 +5449,29 @@
       <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="146" t="s">
         <v>782</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="146"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="148"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="149" t="s">
         <v>783</v>
       </c>
-      <c r="C3" s="148"/>
+      <c r="C3" s="150"/>
     </row>
     <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="116">
         <v>2</v>
       </c>
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="140" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="150"/>
+      <c r="C4" s="141"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="116"/>
@@ -5522,10 +5522,10 @@
       <c r="A10" s="116">
         <v>3</v>
       </c>
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="142" t="s">
         <v>785</v>
       </c>
-      <c r="C10" s="152"/>
+      <c r="C10" s="143"/>
     </row>
     <row r="11" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="116"/>
@@ -5540,10 +5540,10 @@
       <c r="A12" s="116">
         <v>4</v>
       </c>
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="144" t="s">
         <v>786</v>
       </c>
-      <c r="C12" s="141"/>
+      <c r="C12" s="145"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="116"/>
@@ -5558,10 +5558,10 @@
       <c r="A14" s="116">
         <v>5</v>
       </c>
-      <c r="B14" s="140" t="s">
+      <c r="B14" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="C14" s="141"/>
+      <c r="C14" s="145"/>
     </row>
     <row r="15" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="116"/>
@@ -5576,10 +5576,10 @@
       <c r="A16" s="117">
         <v>6</v>
       </c>
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="151" t="s">
         <v>791</v>
       </c>
-      <c r="C16" s="143"/>
+      <c r="C16" s="152"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="116"/>
@@ -5594,45 +5594,45 @@
       <c r="A18" s="117">
         <v>7</v>
       </c>
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="151" t="s">
         <v>916</v>
       </c>
-      <c r="C18" s="143"/>
+      <c r="C18" s="152"/>
     </row>
     <row r="19" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="132">
         <v>8</v>
       </c>
-      <c r="B19" s="142" t="s">
+      <c r="B19" s="151" t="s">
         <v>1004</v>
       </c>
-      <c r="C19" s="143"/>
+      <c r="C19" s="152"/>
     </row>
     <row r="20" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="132">
         <v>9</v>
       </c>
-      <c r="B20" s="142" t="s">
+      <c r="B20" s="151" t="s">
         <v>917</v>
       </c>
-      <c r="C20" s="143"/>
+      <c r="C20" s="152"/>
     </row>
     <row r="21" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="144" t="s">
+      <c r="A22" s="146" t="s">
         <v>183</v>
       </c>
-      <c r="B22" s="145"/>
-      <c r="C22" s="146"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="148"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="115">
         <v>1</v>
       </c>
-      <c r="B23" s="147" t="s">
+      <c r="B23" s="149" t="s">
         <v>792</v>
       </c>
-      <c r="C23" s="148"/>
+      <c r="C23" s="150"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="116"/>
@@ -5681,20 +5681,20 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="146" t="s">
         <v>794</v>
       </c>
-      <c r="B30" s="145"/>
-      <c r="C30" s="146"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="148"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="115">
         <v>1</v>
       </c>
-      <c r="B31" s="147" t="s">
+      <c r="B31" s="149" t="s">
         <v>782</v>
       </c>
-      <c r="C31" s="148"/>
+      <c r="C31" s="150"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="116"/>
@@ -5718,10 +5718,10 @@
       <c r="A34" s="116">
         <v>2</v>
       </c>
-      <c r="B34" s="149" t="s">
+      <c r="B34" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="150"/>
+      <c r="C34" s="141"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="116"/>
@@ -5741,10 +5741,10 @@
       <c r="A37" s="116">
         <v>3</v>
       </c>
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="140" t="s">
         <v>1005</v>
       </c>
-      <c r="C37" s="150"/>
+      <c r="C37" s="141"/>
     </row>
     <row r="38" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="116"/>
@@ -5766,20 +5766,20 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="144" t="s">
+      <c r="A41" s="146" t="s">
         <v>799</v>
       </c>
-      <c r="B41" s="145"/>
-      <c r="C41" s="146"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="148"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="115">
         <v>1</v>
       </c>
-      <c r="B42" s="147" t="s">
+      <c r="B42" s="149" t="s">
         <v>800</v>
       </c>
-      <c r="C42" s="148"/>
+      <c r="C42" s="150"/>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="116"/>
@@ -5819,20 +5819,20 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="144" t="s">
+      <c r="A48" s="146" t="s">
         <v>804</v>
       </c>
-      <c r="B48" s="145"/>
-      <c r="C48" s="146"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="148"/>
     </row>
     <row r="49" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="115">
         <v>1</v>
       </c>
-      <c r="B49" s="147" t="s">
+      <c r="B49" s="149" t="s">
         <v>805</v>
       </c>
-      <c r="C49" s="148"/>
+      <c r="C49" s="150"/>
     </row>
     <row r="50" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="116"/>
@@ -5856,10 +5856,10 @@
       <c r="A52" s="115">
         <v>1</v>
       </c>
-      <c r="B52" s="147" t="s">
+      <c r="B52" s="149" t="s">
         <v>807</v>
       </c>
-      <c r="C52" s="148"/>
+      <c r="C52" s="150"/>
     </row>
     <row r="53" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="116"/>
@@ -5895,37 +5895,37 @@
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="144" t="s">
+      <c r="A58" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="B58" s="145"/>
-      <c r="C58" s="146"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="148"/>
     </row>
     <row r="59" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="115">
         <v>1</v>
       </c>
-      <c r="B59" s="147" t="s">
+      <c r="B59" s="149" t="s">
         <v>812</v>
       </c>
-      <c r="C59" s="148"/>
+      <c r="C59" s="150"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="144" t="s">
+      <c r="A61" s="146" t="s">
         <v>790</v>
       </c>
-      <c r="B61" s="145"/>
-      <c r="C61" s="146"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="148"/>
     </row>
     <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="115">
         <v>1</v>
       </c>
-      <c r="B62" s="151" t="s">
+      <c r="B62" s="142" t="s">
         <v>783</v>
       </c>
-      <c r="C62" s="152"/>
+      <c r="C62" s="143"/>
     </row>
     <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="116">
@@ -5940,54 +5940,54 @@
       <c r="A64" s="116">
         <v>3</v>
       </c>
-      <c r="B64" s="140" t="s">
+      <c r="B64" s="144" t="s">
         <v>785</v>
       </c>
-      <c r="C64" s="141"/>
+      <c r="C64" s="145"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="116">
         <v>4</v>
       </c>
-      <c r="B65" s="140" t="s">
+      <c r="B65" s="144" t="s">
         <v>786</v>
       </c>
-      <c r="C65" s="141"/>
+      <c r="C65" s="145"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="116">
         <v>5</v>
       </c>
-      <c r="B66" s="140" t="s">
+      <c r="B66" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="C66" s="141"/>
+      <c r="C66" s="145"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="117">
         <v>6</v>
       </c>
-      <c r="B67" s="142" t="s">
+      <c r="B67" s="151" t="s">
         <v>791</v>
       </c>
-      <c r="C67" s="143"/>
+      <c r="C67" s="152"/>
     </row>
     <row r="68" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="144" t="s">
+      <c r="A69" s="146" t="s">
         <v>813</v>
       </c>
-      <c r="B69" s="145"/>
-      <c r="C69" s="146"/>
+      <c r="B69" s="147"/>
+      <c r="C69" s="148"/>
     </row>
     <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="115">
         <v>1</v>
       </c>
-      <c r="B70" s="151" t="s">
+      <c r="B70" s="142" t="s">
         <v>783</v>
       </c>
-      <c r="C70" s="152"/>
+      <c r="C70" s="143"/>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="116">
@@ -6002,52 +6002,52 @@
       <c r="A72" s="116">
         <v>3</v>
       </c>
-      <c r="B72" s="140" t="s">
+      <c r="B72" s="144" t="s">
         <v>785</v>
       </c>
-      <c r="C72" s="141"/>
+      <c r="C72" s="145"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="116">
         <v>4</v>
       </c>
-      <c r="B73" s="140" t="s">
+      <c r="B73" s="144" t="s">
         <v>786</v>
       </c>
-      <c r="C73" s="141"/>
+      <c r="C73" s="145"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="116">
         <v>5</v>
       </c>
-      <c r="B74" s="140" t="s">
+      <c r="B74" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="C74" s="141"/>
+      <c r="C74" s="145"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="117">
         <v>6</v>
       </c>
-      <c r="B75" s="142" t="s">
+      <c r="B75" s="151" t="s">
         <v>791</v>
       </c>
-      <c r="C75" s="143"/>
+      <c r="C75" s="152"/>
     </row>
     <row r="76" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="144" t="s">
+      <c r="A77" s="146" t="s">
         <v>1005</v>
       </c>
-      <c r="B77" s="145"/>
-      <c r="C77" s="146"/>
+      <c r="B77" s="147"/>
+      <c r="C77" s="148"/>
     </row>
     <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="115">
         <v>1</v>
       </c>
-      <c r="B78" s="151"/>
-      <c r="C78" s="152"/>
+      <c r="B78" s="142"/>
+      <c r="C78" s="143"/>
     </row>
     <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="116"/>
@@ -6056,40 +6056,40 @@
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="116"/>
-      <c r="B80" s="140"/>
-      <c r="C80" s="141"/>
+      <c r="B80" s="144"/>
+      <c r="C80" s="145"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="116"/>
-      <c r="B81" s="140"/>
-      <c r="C81" s="141"/>
+      <c r="B81" s="144"/>
+      <c r="C81" s="145"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="116"/>
-      <c r="B82" s="140"/>
-      <c r="C82" s="141"/>
+      <c r="B82" s="144"/>
+      <c r="C82" s="145"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="117"/>
-      <c r="B83" s="142"/>
-      <c r="C83" s="143"/>
+      <c r="B83" s="151"/>
+      <c r="C83" s="152"/>
     </row>
     <row r="84" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="144" t="s">
+      <c r="A85" s="146" t="s">
         <v>814</v>
       </c>
-      <c r="B85" s="145"/>
-      <c r="C85" s="146"/>
+      <c r="B85" s="147"/>
+      <c r="C85" s="148"/>
     </row>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="115">
         <v>1</v>
       </c>
-      <c r="B86" s="151" t="s">
+      <c r="B86" s="142" t="s">
         <v>783</v>
       </c>
-      <c r="C86" s="152"/>
+      <c r="C86" s="143"/>
     </row>
     <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="116">
@@ -6104,54 +6104,54 @@
       <c r="A88" s="116">
         <v>3</v>
       </c>
-      <c r="B88" s="140" t="s">
+      <c r="B88" s="144" t="s">
         <v>785</v>
       </c>
-      <c r="C88" s="141"/>
+      <c r="C88" s="145"/>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="116">
         <v>4</v>
       </c>
-      <c r="B89" s="140" t="s">
+      <c r="B89" s="144" t="s">
         <v>786</v>
       </c>
-      <c r="C89" s="141"/>
+      <c r="C89" s="145"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="116">
         <v>5</v>
       </c>
-      <c r="B90" s="140" t="s">
+      <c r="B90" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="C90" s="141"/>
+      <c r="C90" s="145"/>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="117">
         <v>6</v>
       </c>
-      <c r="B91" s="142" t="s">
+      <c r="B91" s="151" t="s">
         <v>791</v>
       </c>
-      <c r="C91" s="143"/>
+      <c r="C91" s="152"/>
     </row>
     <row r="92" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="144" t="s">
+      <c r="A93" s="146" t="s">
         <v>864</v>
       </c>
-      <c r="B93" s="145"/>
-      <c r="C93" s="146"/>
+      <c r="B93" s="147"/>
+      <c r="C93" s="148"/>
     </row>
     <row r="94" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="115">
         <v>1</v>
       </c>
-      <c r="B94" s="147" t="s">
+      <c r="B94" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="148"/>
+      <c r="C94" s="150"/>
     </row>
     <row r="95" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="124"/>
@@ -6324,10 +6324,10 @@
       <c r="A114" s="116">
         <v>2</v>
       </c>
-      <c r="B114" s="149" t="s">
+      <c r="B114" s="140" t="s">
         <v>815</v>
       </c>
-      <c r="C114" s="150"/>
+      <c r="C114" s="141"/>
     </row>
     <row r="115" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="116"/>
@@ -6405,10 +6405,10 @@
       <c r="A123" s="116">
         <v>3</v>
       </c>
-      <c r="B123" s="151" t="s">
+      <c r="B123" s="142" t="s">
         <v>816</v>
       </c>
-      <c r="C123" s="152"/>
+      <c r="C123" s="143"/>
     </row>
     <row r="124" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="116"/>
@@ -6464,10 +6464,10 @@
       <c r="A130" s="115">
         <v>4</v>
       </c>
-      <c r="B130" s="140" t="s">
+      <c r="B130" s="144" t="s">
         <v>817</v>
       </c>
-      <c r="C130" s="141"/>
+      <c r="C130" s="145"/>
     </row>
     <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="124"/>
@@ -6507,20 +6507,20 @@
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="136" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="144" t="s">
+      <c r="A136" s="146" t="s">
         <v>865</v>
       </c>
-      <c r="B136" s="145"/>
-      <c r="C136" s="146"/>
+      <c r="B136" s="147"/>
+      <c r="C136" s="148"/>
     </row>
     <row r="137" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="115">
         <v>1</v>
       </c>
-      <c r="B137" s="147" t="s">
+      <c r="B137" s="149" t="s">
         <v>866</v>
       </c>
-      <c r="C137" s="148"/>
+      <c r="C137" s="150"/>
     </row>
     <row r="138" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="124"/>
@@ -6667,10 +6667,10 @@
       <c r="A157" s="116">
         <v>2</v>
       </c>
-      <c r="B157" s="149" t="s">
+      <c r="B157" s="140" t="s">
         <v>867</v>
       </c>
-      <c r="C157" s="150"/>
+      <c r="C157" s="141"/>
     </row>
     <row r="158" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="116"/>
@@ -6740,10 +6740,10 @@
       <c r="A166" s="116">
         <v>3</v>
       </c>
-      <c r="B166" s="151" t="s">
+      <c r="B166" s="142" t="s">
         <v>868</v>
       </c>
-      <c r="C166" s="152"/>
+      <c r="C166" s="143"/>
     </row>
     <row r="167" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="116"/>
@@ -6797,12 +6797,44 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="B114:C114"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
@@ -6819,44 +6851,12 @@
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="B137:C137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -5043,22 +5043,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5076,10 +5070,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5433,8 +5433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5449,29 +5449,29 @@
       <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="144" t="s">
         <v>782</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="148"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="146"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="147" t="s">
         <v>783</v>
       </c>
-      <c r="C3" s="150"/>
+      <c r="C3" s="148"/>
     </row>
     <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="116">
         <v>2</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="149" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="141"/>
+      <c r="C4" s="150"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="116"/>
@@ -5522,10 +5522,10 @@
       <c r="A10" s="116">
         <v>3</v>
       </c>
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="151" t="s">
         <v>785</v>
       </c>
-      <c r="C10" s="143"/>
+      <c r="C10" s="152"/>
     </row>
     <row r="11" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="116"/>
@@ -5540,10 +5540,10 @@
       <c r="A12" s="116">
         <v>4</v>
       </c>
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="140" t="s">
         <v>786</v>
       </c>
-      <c r="C12" s="145"/>
+      <c r="C12" s="141"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="116"/>
@@ -5558,10 +5558,10 @@
       <c r="A14" s="116">
         <v>5</v>
       </c>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="140" t="s">
         <v>787</v>
       </c>
-      <c r="C14" s="145"/>
+      <c r="C14" s="141"/>
     </row>
     <row r="15" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="116"/>
@@ -5576,10 +5576,10 @@
       <c r="A16" s="117">
         <v>6</v>
       </c>
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="142" t="s">
         <v>791</v>
       </c>
-      <c r="C16" s="152"/>
+      <c r="C16" s="143"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="116"/>
@@ -5594,45 +5594,45 @@
       <c r="A18" s="117">
         <v>7</v>
       </c>
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="142" t="s">
         <v>916</v>
       </c>
-      <c r="C18" s="152"/>
+      <c r="C18" s="143"/>
     </row>
     <row r="19" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="132">
         <v>8</v>
       </c>
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="142" t="s">
         <v>1004</v>
       </c>
-      <c r="C19" s="152"/>
+      <c r="C19" s="143"/>
     </row>
     <row r="20" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="132">
         <v>9</v>
       </c>
-      <c r="B20" s="151" t="s">
+      <c r="B20" s="142" t="s">
         <v>917</v>
       </c>
-      <c r="C20" s="152"/>
+      <c r="C20" s="143"/>
     </row>
     <row r="21" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="146" t="s">
+      <c r="A22" s="144" t="s">
         <v>183</v>
       </c>
-      <c r="B22" s="147"/>
-      <c r="C22" s="148"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="146"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="115">
         <v>1</v>
       </c>
-      <c r="B23" s="149" t="s">
+      <c r="B23" s="147" t="s">
         <v>792</v>
       </c>
-      <c r="C23" s="150"/>
+      <c r="C23" s="148"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="116"/>
@@ -5681,20 +5681,20 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="146" t="s">
+      <c r="A30" s="144" t="s">
         <v>794</v>
       </c>
-      <c r="B30" s="147"/>
-      <c r="C30" s="148"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="146"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="115">
         <v>1</v>
       </c>
-      <c r="B31" s="149" t="s">
+      <c r="B31" s="147" t="s">
         <v>782</v>
       </c>
-      <c r="C31" s="150"/>
+      <c r="C31" s="148"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="116"/>
@@ -5718,10 +5718,10 @@
       <c r="A34" s="116">
         <v>2</v>
       </c>
-      <c r="B34" s="140" t="s">
+      <c r="B34" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="141"/>
+      <c r="C34" s="150"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="116"/>
@@ -5741,10 +5741,10 @@
       <c r="A37" s="116">
         <v>3</v>
       </c>
-      <c r="B37" s="140" t="s">
+      <c r="B37" s="149" t="s">
         <v>1005</v>
       </c>
-      <c r="C37" s="141"/>
+      <c r="C37" s="150"/>
     </row>
     <row r="38" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="116"/>
@@ -5766,20 +5766,20 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="146" t="s">
+      <c r="A41" s="144" t="s">
         <v>799</v>
       </c>
-      <c r="B41" s="147"/>
-      <c r="C41" s="148"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="146"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="115">
         <v>1</v>
       </c>
-      <c r="B42" s="149" t="s">
+      <c r="B42" s="147" t="s">
         <v>800</v>
       </c>
-      <c r="C42" s="150"/>
+      <c r="C42" s="148"/>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="116"/>
@@ -5819,20 +5819,20 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="146" t="s">
+      <c r="A48" s="144" t="s">
         <v>804</v>
       </c>
-      <c r="B48" s="147"/>
-      <c r="C48" s="148"/>
+      <c r="B48" s="145"/>
+      <c r="C48" s="146"/>
     </row>
     <row r="49" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="115">
         <v>1</v>
       </c>
-      <c r="B49" s="149" t="s">
+      <c r="B49" s="147" t="s">
         <v>805</v>
       </c>
-      <c r="C49" s="150"/>
+      <c r="C49" s="148"/>
     </row>
     <row r="50" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="116"/>
@@ -5856,10 +5856,10 @@
       <c r="A52" s="115">
         <v>1</v>
       </c>
-      <c r="B52" s="149" t="s">
+      <c r="B52" s="147" t="s">
         <v>807</v>
       </c>
-      <c r="C52" s="150"/>
+      <c r="C52" s="148"/>
     </row>
     <row r="53" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="116"/>
@@ -5895,37 +5895,37 @@
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="146" t="s">
+      <c r="A58" s="144" t="s">
         <v>188</v>
       </c>
-      <c r="B58" s="147"/>
-      <c r="C58" s="148"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="146"/>
     </row>
     <row r="59" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="115">
         <v>1</v>
       </c>
-      <c r="B59" s="149" t="s">
+      <c r="B59" s="147" t="s">
         <v>812</v>
       </c>
-      <c r="C59" s="150"/>
+      <c r="C59" s="148"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="146" t="s">
+      <c r="A61" s="144" t="s">
         <v>790</v>
       </c>
-      <c r="B61" s="147"/>
-      <c r="C61" s="148"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="146"/>
     </row>
     <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="115">
         <v>1</v>
       </c>
-      <c r="B62" s="142" t="s">
+      <c r="B62" s="151" t="s">
         <v>783</v>
       </c>
-      <c r="C62" s="143"/>
+      <c r="C62" s="152"/>
     </row>
     <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="116">
@@ -5940,54 +5940,54 @@
       <c r="A64" s="116">
         <v>3</v>
       </c>
-      <c r="B64" s="144" t="s">
+      <c r="B64" s="140" t="s">
         <v>785</v>
       </c>
-      <c r="C64" s="145"/>
+      <c r="C64" s="141"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="116">
         <v>4</v>
       </c>
-      <c r="B65" s="144" t="s">
+      <c r="B65" s="140" t="s">
         <v>786</v>
       </c>
-      <c r="C65" s="145"/>
+      <c r="C65" s="141"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="116">
         <v>5</v>
       </c>
-      <c r="B66" s="144" t="s">
+      <c r="B66" s="140" t="s">
         <v>787</v>
       </c>
-      <c r="C66" s="145"/>
+      <c r="C66" s="141"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="117">
         <v>6</v>
       </c>
-      <c r="B67" s="151" t="s">
+      <c r="B67" s="142" t="s">
         <v>791</v>
       </c>
-      <c r="C67" s="152"/>
+      <c r="C67" s="143"/>
     </row>
     <row r="68" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="146" t="s">
+      <c r="A69" s="144" t="s">
         <v>813</v>
       </c>
-      <c r="B69" s="147"/>
-      <c r="C69" s="148"/>
+      <c r="B69" s="145"/>
+      <c r="C69" s="146"/>
     </row>
     <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="115">
         <v>1</v>
       </c>
-      <c r="B70" s="142" t="s">
+      <c r="B70" s="151" t="s">
         <v>783</v>
       </c>
-      <c r="C70" s="143"/>
+      <c r="C70" s="152"/>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="116">
@@ -6002,52 +6002,52 @@
       <c r="A72" s="116">
         <v>3</v>
       </c>
-      <c r="B72" s="144" t="s">
+      <c r="B72" s="140" t="s">
         <v>785</v>
       </c>
-      <c r="C72" s="145"/>
+      <c r="C72" s="141"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="116">
         <v>4</v>
       </c>
-      <c r="B73" s="144" t="s">
+      <c r="B73" s="140" t="s">
         <v>786</v>
       </c>
-      <c r="C73" s="145"/>
+      <c r="C73" s="141"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="116">
         <v>5</v>
       </c>
-      <c r="B74" s="144" t="s">
+      <c r="B74" s="140" t="s">
         <v>787</v>
       </c>
-      <c r="C74" s="145"/>
+      <c r="C74" s="141"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="117">
         <v>6</v>
       </c>
-      <c r="B75" s="151" t="s">
+      <c r="B75" s="142" t="s">
         <v>791</v>
       </c>
-      <c r="C75" s="152"/>
+      <c r="C75" s="143"/>
     </row>
     <row r="76" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="146" t="s">
+      <c r="A77" s="144" t="s">
         <v>1005</v>
       </c>
-      <c r="B77" s="147"/>
-      <c r="C77" s="148"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="146"/>
     </row>
     <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="115">
         <v>1</v>
       </c>
-      <c r="B78" s="142"/>
-      <c r="C78" s="143"/>
+      <c r="B78" s="151"/>
+      <c r="C78" s="152"/>
     </row>
     <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="116"/>
@@ -6056,40 +6056,40 @@
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="116"/>
-      <c r="B80" s="144"/>
-      <c r="C80" s="145"/>
+      <c r="B80" s="140"/>
+      <c r="C80" s="141"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="116"/>
-      <c r="B81" s="144"/>
-      <c r="C81" s="145"/>
+      <c r="B81" s="140"/>
+      <c r="C81" s="141"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="116"/>
-      <c r="B82" s="144"/>
-      <c r="C82" s="145"/>
+      <c r="B82" s="140"/>
+      <c r="C82" s="141"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="117"/>
-      <c r="B83" s="151"/>
-      <c r="C83" s="152"/>
+      <c r="B83" s="142"/>
+      <c r="C83" s="143"/>
     </row>
     <row r="84" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="146" t="s">
+      <c r="A85" s="144" t="s">
         <v>814</v>
       </c>
-      <c r="B85" s="147"/>
-      <c r="C85" s="148"/>
+      <c r="B85" s="145"/>
+      <c r="C85" s="146"/>
     </row>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="115">
         <v>1</v>
       </c>
-      <c r="B86" s="142" t="s">
+      <c r="B86" s="151" t="s">
         <v>783</v>
       </c>
-      <c r="C86" s="143"/>
+      <c r="C86" s="152"/>
     </row>
     <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="116">
@@ -6104,54 +6104,54 @@
       <c r="A88" s="116">
         <v>3</v>
       </c>
-      <c r="B88" s="144" t="s">
+      <c r="B88" s="140" t="s">
         <v>785</v>
       </c>
-      <c r="C88" s="145"/>
+      <c r="C88" s="141"/>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="116">
         <v>4</v>
       </c>
-      <c r="B89" s="144" t="s">
+      <c r="B89" s="140" t="s">
         <v>786</v>
       </c>
-      <c r="C89" s="145"/>
+      <c r="C89" s="141"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="116">
         <v>5</v>
       </c>
-      <c r="B90" s="144" t="s">
+      <c r="B90" s="140" t="s">
         <v>787</v>
       </c>
-      <c r="C90" s="145"/>
+      <c r="C90" s="141"/>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="117">
         <v>6</v>
       </c>
-      <c r="B91" s="151" t="s">
+      <c r="B91" s="142" t="s">
         <v>791</v>
       </c>
-      <c r="C91" s="152"/>
+      <c r="C91" s="143"/>
     </row>
     <row r="92" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="146" t="s">
+      <c r="A93" s="144" t="s">
         <v>864</v>
       </c>
-      <c r="B93" s="147"/>
-      <c r="C93" s="148"/>
+      <c r="B93" s="145"/>
+      <c r="C93" s="146"/>
     </row>
     <row r="94" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="115">
         <v>1</v>
       </c>
-      <c r="B94" s="149" t="s">
+      <c r="B94" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="150"/>
+      <c r="C94" s="148"/>
     </row>
     <row r="95" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="124"/>
@@ -6324,10 +6324,10 @@
       <c r="A114" s="116">
         <v>2</v>
       </c>
-      <c r="B114" s="140" t="s">
+      <c r="B114" s="149" t="s">
         <v>815</v>
       </c>
-      <c r="C114" s="141"/>
+      <c r="C114" s="150"/>
     </row>
     <row r="115" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="116"/>
@@ -6405,10 +6405,10 @@
       <c r="A123" s="116">
         <v>3</v>
       </c>
-      <c r="B123" s="142" t="s">
+      <c r="B123" s="151" t="s">
         <v>816</v>
       </c>
-      <c r="C123" s="143"/>
+      <c r="C123" s="152"/>
     </row>
     <row r="124" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="116"/>
@@ -6464,10 +6464,10 @@
       <c r="A130" s="115">
         <v>4</v>
       </c>
-      <c r="B130" s="144" t="s">
+      <c r="B130" s="140" t="s">
         <v>817</v>
       </c>
-      <c r="C130" s="145"/>
+      <c r="C130" s="141"/>
     </row>
     <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="124"/>
@@ -6507,20 +6507,20 @@
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="136" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="146" t="s">
+      <c r="A136" s="144" t="s">
         <v>865</v>
       </c>
-      <c r="B136" s="147"/>
-      <c r="C136" s="148"/>
+      <c r="B136" s="145"/>
+      <c r="C136" s="146"/>
     </row>
     <row r="137" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="115">
         <v>1</v>
       </c>
-      <c r="B137" s="149" t="s">
+      <c r="B137" s="147" t="s">
         <v>866</v>
       </c>
-      <c r="C137" s="150"/>
+      <c r="C137" s="148"/>
     </row>
     <row r="138" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="124"/>
@@ -6667,10 +6667,10 @@
       <c r="A157" s="116">
         <v>2</v>
       </c>
-      <c r="B157" s="140" t="s">
+      <c r="B157" s="149" t="s">
         <v>867</v>
       </c>
-      <c r="C157" s="141"/>
+      <c r="C157" s="150"/>
     </row>
     <row r="158" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="116"/>
@@ -6740,10 +6740,10 @@
       <c r="A166" s="116">
         <v>3</v>
       </c>
-      <c r="B166" s="142" t="s">
+      <c r="B166" s="151" t="s">
         <v>868</v>
       </c>
-      <c r="C166" s="143"/>
+      <c r="C166" s="152"/>
     </row>
     <row r="167" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="116"/>
@@ -6797,6 +6797,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B83:C83"/>
@@ -6813,50 +6857,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="B137:C137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" firstSheet="12" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="TODO - Quick Battle" sheetId="37" r:id="rId1"/>
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="1079">
   <si>
     <t>Fishing</t>
   </si>
@@ -3874,6 +3874,12 @@
   </si>
   <si>
     <t>Fires a dart at target that if hits, does DoT damage as well as initial damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
+  </si>
+  <si>
+    <t>shield wall</t>
   </si>
 </sst>
 </file>
@@ -5433,8 +5439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5637,10 +5643,10 @@
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="116"/>
       <c r="B24" s="122" t="s">
-        <v>789</v>
+        <v>1077</v>
       </c>
       <c r="C24" s="123" t="s">
-        <v>635</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5654,12 +5660,8 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="116"/>
-      <c r="B26" s="122" t="s">
-        <v>795</v>
-      </c>
-      <c r="C26" s="123" t="s">
-        <v>675</v>
-      </c>
+      <c r="B26" s="122"/>
+      <c r="C26" s="123"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="116"/>
@@ -9501,8 +9503,8 @@
   <dimension ref="A1:X300"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24088,7 +24090,7 @@
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" activeCellId="1" sqref="A18:XFD20 A21:XFD21"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25458,8 +25460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" firstSheet="12" activeTab="23"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716"/>
   </bookViews>
   <sheets>
     <sheet name="TODO - Quick Battle" sheetId="37" r:id="rId1"/>
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="1077">
   <si>
     <t>Fishing</t>
   </si>
@@ -3273,9 +3273,6 @@
     <t>Bottlenecks</t>
   </si>
   <si>
-    <t>Pull</t>
-  </si>
-  <si>
     <t>Weenomancer</t>
   </si>
   <si>
@@ -3649,9 +3646,6 @@
   </si>
   <si>
     <t>Soul Farmer</t>
-  </si>
-  <si>
-    <t>attack of opportunity</t>
   </si>
   <si>
     <t>bullets hitting random targets</t>
@@ -4730,7 +4724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5049,16 +5043,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5076,16 +5076,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5132,6 +5126,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5439,8 +5451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5455,29 +5467,29 @@
       <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="146" t="s">
         <v>782</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="146"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="148"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="149" t="s">
         <v>783</v>
       </c>
-      <c r="C3" s="148"/>
+      <c r="C3" s="150"/>
     </row>
     <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="116">
         <v>2</v>
       </c>
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="140" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="150"/>
+      <c r="C4" s="141"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="116"/>
@@ -5512,7 +5524,7 @@
         <v>795</v>
       </c>
       <c r="C8" s="123" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="9" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
@@ -5528,10 +5540,10 @@
       <c r="A10" s="116">
         <v>3</v>
       </c>
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="142" t="s">
         <v>785</v>
       </c>
-      <c r="C10" s="152"/>
+      <c r="C10" s="143"/>
     </row>
     <row r="11" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="116"/>
@@ -5539,17 +5551,17 @@
         <v>788</v>
       </c>
       <c r="C11" s="119" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="12" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="116">
         <v>4</v>
       </c>
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="144" t="s">
         <v>786</v>
       </c>
-      <c r="C12" s="141"/>
+      <c r="C12" s="145"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="116"/>
@@ -5557,17 +5569,17 @@
         <v>788</v>
       </c>
       <c r="C13" s="119" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="14" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="116">
         <v>5</v>
       </c>
-      <c r="B14" s="140" t="s">
+      <c r="B14" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="C14" s="141"/>
+      <c r="C14" s="145"/>
     </row>
     <row r="15" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="116"/>
@@ -5575,17 +5587,17 @@
         <v>788</v>
       </c>
       <c r="C15" s="119" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="16" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="117">
         <v>6</v>
       </c>
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="151" t="s">
         <v>791</v>
       </c>
-      <c r="C16" s="143"/>
+      <c r="C16" s="152"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="116"/>
@@ -5593,68 +5605,68 @@
         <v>788</v>
       </c>
       <c r="C17" s="119" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="18" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="117">
         <v>7</v>
       </c>
-      <c r="B18" s="142" t="s">
-        <v>916</v>
-      </c>
-      <c r="C18" s="143"/>
+      <c r="B18" s="151" t="s">
+        <v>915</v>
+      </c>
+      <c r="C18" s="152"/>
     </row>
     <row r="19" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="132">
         <v>8</v>
       </c>
-      <c r="B19" s="142" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C19" s="143"/>
+      <c r="B19" s="151" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C19" s="152"/>
     </row>
     <row r="20" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="132">
         <v>9</v>
       </c>
-      <c r="B20" s="142" t="s">
-        <v>917</v>
-      </c>
-      <c r="C20" s="143"/>
+      <c r="B20" s="151" t="s">
+        <v>916</v>
+      </c>
+      <c r="C20" s="152"/>
     </row>
     <row r="21" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="144" t="s">
+      <c r="A22" s="146" t="s">
         <v>183</v>
       </c>
-      <c r="B22" s="145"/>
-      <c r="C22" s="146"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="148"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="115">
         <v>1</v>
       </c>
-      <c r="B23" s="147" t="s">
+      <c r="B23" s="149" t="s">
         <v>792</v>
       </c>
-      <c r="C23" s="148"/>
+      <c r="C23" s="150"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="116"/>
-      <c r="B24" s="122" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C24" s="123" t="s">
-        <v>1078</v>
+      <c r="B24" s="168" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C24" s="169" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="116"/>
-      <c r="B25" s="122" t="s">
+      <c r="B25" s="168" t="s">
         <v>793</v>
       </c>
-      <c r="C25" s="123" t="s">
+      <c r="C25" s="169" t="s">
         <v>797</v>
       </c>
     </row>
@@ -5665,65 +5677,53 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="116"/>
-      <c r="B27" s="125" t="s">
-        <v>796</v>
-      </c>
-      <c r="C27" s="126" t="s">
-        <v>658</v>
-      </c>
+      <c r="B27" s="125"/>
+      <c r="C27" s="126"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="116"/>
-      <c r="B28" s="125" t="s">
-        <v>829</v>
-      </c>
-      <c r="C28" s="126" t="s">
-        <v>876</v>
-      </c>
+      <c r="B28" s="125"/>
+      <c r="C28" s="126"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="146" t="s">
         <v>794</v>
       </c>
-      <c r="B30" s="145"/>
-      <c r="C30" s="146"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="148"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="115">
         <v>1</v>
       </c>
-      <c r="B31" s="147" t="s">
+      <c r="B31" s="149" t="s">
         <v>782</v>
       </c>
-      <c r="C31" s="148"/>
+      <c r="C31" s="150"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="116"/>
-      <c r="B32" s="122" t="s">
-        <v>788</v>
-      </c>
-      <c r="C32" s="123" t="s">
-        <v>1002</v>
-      </c>
+      <c r="B32" s="122"/>
+      <c r="C32" s="123"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="116"/>
-      <c r="B33" s="122" t="s">
+      <c r="B33" s="168" t="s">
         <v>789</v>
       </c>
-      <c r="C33" s="123" t="s">
-        <v>1003</v>
+      <c r="C33" s="169" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="116">
         <v>2</v>
       </c>
-      <c r="B34" s="149" t="s">
+      <c r="B34" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="150"/>
+      <c r="C34" s="141"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="116"/>
@@ -5743,45 +5743,45 @@
       <c r="A37" s="116">
         <v>3</v>
       </c>
-      <c r="B37" s="149" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C37" s="150"/>
+      <c r="B37" s="140" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C37" s="141"/>
     </row>
     <row r="38" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="116"/>
-      <c r="B38" s="118" t="s">
+      <c r="B38" s="170" t="s">
         <v>788</v>
       </c>
-      <c r="C38" s="119" t="s">
-        <v>1006</v>
+      <c r="C38" s="171" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="116"/>
-      <c r="B39" s="120" t="s">
+      <c r="B39" s="172" t="s">
         <v>789</v>
       </c>
-      <c r="C39" s="121" t="s">
-        <v>1007</v>
+      <c r="C39" s="173" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="144" t="s">
+      <c r="A41" s="146" t="s">
         <v>799</v>
       </c>
-      <c r="B41" s="145"/>
-      <c r="C41" s="146"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="148"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="115">
         <v>1</v>
       </c>
-      <c r="B42" s="147" t="s">
+      <c r="B42" s="149" t="s">
         <v>800</v>
       </c>
-      <c r="C42" s="148"/>
+      <c r="C42" s="150"/>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="116"/>
@@ -5821,20 +5821,20 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="144" t="s">
+      <c r="A48" s="146" t="s">
         <v>804</v>
       </c>
-      <c r="B48" s="145"/>
-      <c r="C48" s="146"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="148"/>
     </row>
     <row r="49" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="115">
         <v>1</v>
       </c>
-      <c r="B49" s="147" t="s">
+      <c r="B49" s="149" t="s">
         <v>805</v>
       </c>
-      <c r="C49" s="148"/>
+      <c r="C49" s="150"/>
     </row>
     <row r="50" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="116"/>
@@ -5858,10 +5858,10 @@
       <c r="A52" s="115">
         <v>1</v>
       </c>
-      <c r="B52" s="147" t="s">
+      <c r="B52" s="149" t="s">
         <v>807</v>
       </c>
-      <c r="C52" s="148"/>
+      <c r="C52" s="150"/>
     </row>
     <row r="53" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="116"/>
@@ -5897,37 +5897,37 @@
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="144" t="s">
+      <c r="A58" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="B58" s="145"/>
-      <c r="C58" s="146"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="148"/>
     </row>
     <row r="59" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="115">
         <v>1</v>
       </c>
-      <c r="B59" s="147" t="s">
+      <c r="B59" s="149" t="s">
         <v>812</v>
       </c>
-      <c r="C59" s="148"/>
+      <c r="C59" s="150"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="144" t="s">
+      <c r="A61" s="146" t="s">
         <v>790</v>
       </c>
-      <c r="B61" s="145"/>
-      <c r="C61" s="146"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="148"/>
     </row>
     <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="115">
         <v>1</v>
       </c>
-      <c r="B62" s="151" t="s">
+      <c r="B62" s="142" t="s">
         <v>783</v>
       </c>
-      <c r="C62" s="152"/>
+      <c r="C62" s="143"/>
     </row>
     <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="116">
@@ -5942,54 +5942,54 @@
       <c r="A64" s="116">
         <v>3</v>
       </c>
-      <c r="B64" s="140" t="s">
+      <c r="B64" s="144" t="s">
         <v>785</v>
       </c>
-      <c r="C64" s="141"/>
+      <c r="C64" s="145"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="116">
         <v>4</v>
       </c>
-      <c r="B65" s="140" t="s">
+      <c r="B65" s="144" t="s">
         <v>786</v>
       </c>
-      <c r="C65" s="141"/>
+      <c r="C65" s="145"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="116">
         <v>5</v>
       </c>
-      <c r="B66" s="140" t="s">
+      <c r="B66" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="C66" s="141"/>
+      <c r="C66" s="145"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="117">
         <v>6</v>
       </c>
-      <c r="B67" s="142" t="s">
+      <c r="B67" s="151" t="s">
         <v>791</v>
       </c>
-      <c r="C67" s="143"/>
+      <c r="C67" s="152"/>
     </row>
     <row r="68" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="144" t="s">
+      <c r="A69" s="146" t="s">
         <v>813</v>
       </c>
-      <c r="B69" s="145"/>
-      <c r="C69" s="146"/>
+      <c r="B69" s="147"/>
+      <c r="C69" s="148"/>
     </row>
     <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="115">
         <v>1</v>
       </c>
-      <c r="B70" s="151" t="s">
+      <c r="B70" s="142" t="s">
         <v>783</v>
       </c>
-      <c r="C70" s="152"/>
+      <c r="C70" s="143"/>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="116">
@@ -6004,52 +6004,52 @@
       <c r="A72" s="116">
         <v>3</v>
       </c>
-      <c r="B72" s="140" t="s">
+      <c r="B72" s="144" t="s">
         <v>785</v>
       </c>
-      <c r="C72" s="141"/>
+      <c r="C72" s="145"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="116">
         <v>4</v>
       </c>
-      <c r="B73" s="140" t="s">
+      <c r="B73" s="144" t="s">
         <v>786</v>
       </c>
-      <c r="C73" s="141"/>
+      <c r="C73" s="145"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="116">
         <v>5</v>
       </c>
-      <c r="B74" s="140" t="s">
+      <c r="B74" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="C74" s="141"/>
+      <c r="C74" s="145"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="117">
         <v>6</v>
       </c>
-      <c r="B75" s="142" t="s">
+      <c r="B75" s="151" t="s">
         <v>791</v>
       </c>
-      <c r="C75" s="143"/>
+      <c r="C75" s="152"/>
     </row>
     <row r="76" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="144" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B77" s="145"/>
-      <c r="C77" s="146"/>
+      <c r="A77" s="146" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B77" s="147"/>
+      <c r="C77" s="148"/>
     </row>
     <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="115">
         <v>1</v>
       </c>
-      <c r="B78" s="151"/>
-      <c r="C78" s="152"/>
+      <c r="B78" s="142"/>
+      <c r="C78" s="143"/>
     </row>
     <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="116"/>
@@ -6058,40 +6058,40 @@
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="116"/>
-      <c r="B80" s="140"/>
-      <c r="C80" s="141"/>
+      <c r="B80" s="144"/>
+      <c r="C80" s="145"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="116"/>
-      <c r="B81" s="140"/>
-      <c r="C81" s="141"/>
+      <c r="B81" s="144"/>
+      <c r="C81" s="145"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="116"/>
-      <c r="B82" s="140"/>
-      <c r="C82" s="141"/>
+      <c r="B82" s="144"/>
+      <c r="C82" s="145"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="117"/>
-      <c r="B83" s="142"/>
-      <c r="C83" s="143"/>
+      <c r="B83" s="151"/>
+      <c r="C83" s="152"/>
     </row>
     <row r="84" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="144" t="s">
+      <c r="A85" s="146" t="s">
         <v>814</v>
       </c>
-      <c r="B85" s="145"/>
-      <c r="C85" s="146"/>
+      <c r="B85" s="147"/>
+      <c r="C85" s="148"/>
     </row>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="115">
         <v>1</v>
       </c>
-      <c r="B86" s="151" t="s">
+      <c r="B86" s="142" t="s">
         <v>783</v>
       </c>
-      <c r="C86" s="152"/>
+      <c r="C86" s="143"/>
     </row>
     <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="116">
@@ -6106,54 +6106,54 @@
       <c r="A88" s="116">
         <v>3</v>
       </c>
-      <c r="B88" s="140" t="s">
+      <c r="B88" s="144" t="s">
         <v>785</v>
       </c>
-      <c r="C88" s="141"/>
+      <c r="C88" s="145"/>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="116">
         <v>4</v>
       </c>
-      <c r="B89" s="140" t="s">
+      <c r="B89" s="144" t="s">
         <v>786</v>
       </c>
-      <c r="C89" s="141"/>
+      <c r="C89" s="145"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="116">
         <v>5</v>
       </c>
-      <c r="B90" s="140" t="s">
+      <c r="B90" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="C90" s="141"/>
+      <c r="C90" s="145"/>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="117">
         <v>6</v>
       </c>
-      <c r="B91" s="142" t="s">
+      <c r="B91" s="151" t="s">
         <v>791</v>
       </c>
-      <c r="C91" s="143"/>
+      <c r="C91" s="152"/>
     </row>
     <row r="92" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="144" t="s">
+      <c r="A93" s="146" t="s">
         <v>864</v>
       </c>
-      <c r="B93" s="145"/>
-      <c r="C93" s="146"/>
+      <c r="B93" s="147"/>
+      <c r="C93" s="148"/>
     </row>
     <row r="94" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="115">
         <v>1</v>
       </c>
-      <c r="B94" s="147" t="s">
+      <c r="B94" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="148"/>
+      <c r="C94" s="150"/>
     </row>
     <row r="95" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="124"/>
@@ -6326,10 +6326,10 @@
       <c r="A114" s="116">
         <v>2</v>
       </c>
-      <c r="B114" s="149" t="s">
+      <c r="B114" s="140" t="s">
         <v>815</v>
       </c>
-      <c r="C114" s="150"/>
+      <c r="C114" s="141"/>
     </row>
     <row r="115" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="116"/>
@@ -6407,10 +6407,10 @@
       <c r="A123" s="116">
         <v>3</v>
       </c>
-      <c r="B123" s="151" t="s">
+      <c r="B123" s="142" t="s">
         <v>816</v>
       </c>
-      <c r="C123" s="152"/>
+      <c r="C123" s="143"/>
     </row>
     <row r="124" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="116"/>
@@ -6466,10 +6466,10 @@
       <c r="A130" s="115">
         <v>4</v>
       </c>
-      <c r="B130" s="140" t="s">
+      <c r="B130" s="144" t="s">
         <v>817</v>
       </c>
-      <c r="C130" s="141"/>
+      <c r="C130" s="145"/>
     </row>
     <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="124"/>
@@ -6509,20 +6509,20 @@
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="136" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="144" t="s">
+      <c r="A136" s="146" t="s">
         <v>865</v>
       </c>
-      <c r="B136" s="145"/>
-      <c r="C136" s="146"/>
+      <c r="B136" s="147"/>
+      <c r="C136" s="148"/>
     </row>
     <row r="137" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="115">
         <v>1</v>
       </c>
-      <c r="B137" s="147" t="s">
+      <c r="B137" s="149" t="s">
         <v>866</v>
       </c>
-      <c r="C137" s="148"/>
+      <c r="C137" s="150"/>
     </row>
     <row r="138" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="124"/>
@@ -6669,10 +6669,10 @@
       <c r="A157" s="116">
         <v>2</v>
       </c>
-      <c r="B157" s="149" t="s">
+      <c r="B157" s="140" t="s">
         <v>867</v>
       </c>
-      <c r="C157" s="150"/>
+      <c r="C157" s="141"/>
     </row>
     <row r="158" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="116"/>
@@ -6742,10 +6742,10 @@
       <c r="A166" s="116">
         <v>3</v>
       </c>
-      <c r="B166" s="151" t="s">
+      <c r="B166" s="142" t="s">
         <v>868</v>
       </c>
-      <c r="C166" s="152"/>
+      <c r="C166" s="143"/>
     </row>
     <row r="167" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="116"/>
@@ -6799,12 +6799,44 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="B114:C114"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
@@ -6821,44 +6853,12 @@
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="B137:C137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -8917,7 +8917,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13158,7 +13158,7 @@
         <v>658</v>
       </c>
       <c r="X54" s="44" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
@@ -13228,7 +13228,7 @@
         <v>658</v>
       </c>
       <c r="X55" s="44" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
@@ -13298,7 +13298,7 @@
         <v>658</v>
       </c>
       <c r="X56" s="44" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
@@ -13368,7 +13368,7 @@
         <v>658</v>
       </c>
       <c r="X57" s="44" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
@@ -13438,7 +13438,7 @@
         <v>658</v>
       </c>
       <c r="X58" s="44" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
@@ -22211,7 +22211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" workbookViewId="0">
+    <sheetView topLeftCell="B31" workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
@@ -22521,10 +22521,10 @@
     </row>
     <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="83" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
@@ -22535,7 +22535,7 @@
       <c r="I16" s="43"/>
       <c r="J16" s="44"/>
       <c r="K16" s="89" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="L16" s="87"/>
     </row>
@@ -22803,7 +22803,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="83" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="43"/>
@@ -22815,7 +22815,7 @@
       <c r="I30" s="43"/>
       <c r="J30" s="44"/>
       <c r="K30" s="89" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="L30" s="87">
         <v>3</v>
@@ -22903,7 +22903,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="83" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="43"/>
@@ -22915,13 +22915,13 @@
       <c r="I35" s="43"/>
       <c r="J35" s="44"/>
       <c r="K35" s="89" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L35" s="87"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="83" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="43"/>
@@ -22933,7 +22933,7 @@
       <c r="I36" s="43"/>
       <c r="J36" s="44"/>
       <c r="K36" s="89" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L36" s="87"/>
     </row>
@@ -22977,10 +22977,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="83" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C39" s="43" t="s">
         <v>745</v>
@@ -22993,7 +22993,7 @@
       <c r="I39" s="43"/>
       <c r="J39" s="44"/>
       <c r="K39" s="89" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="L39" s="87"/>
     </row>
@@ -23093,7 +23093,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="83" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="43"/>
@@ -23111,7 +23111,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="83" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="43"/>
@@ -23123,7 +23123,7 @@
       <c r="I46" s="43"/>
       <c r="J46" s="44"/>
       <c r="K46" s="89" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="L46" s="87">
         <v>3</v>
@@ -23131,10 +23131,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="83" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C47" s="43" t="s">
         <v>745</v>
@@ -23147,7 +23147,7 @@
       <c r="I47" s="43"/>
       <c r="J47" s="44"/>
       <c r="K47" s="89" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="L47" s="87"/>
     </row>
@@ -23811,7 +23811,7 @@
       <c r="I81" s="43"/>
       <c r="J81" s="44"/>
       <c r="K81" s="89" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L81" s="87"/>
     </row>
@@ -24089,8 +24089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24169,7 +24169,7 @@
         <v>372</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F3" s="129"/>
       <c r="G3" s="31"/>
@@ -24196,7 +24196,7 @@
         <v>382</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F4" s="129"/>
       <c r="G4" s="31"/>
@@ -24287,7 +24287,7 @@
         <v>492</v>
       </c>
       <c r="E8" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F8" s="133" t="s">
         <v>745</v>
@@ -24695,7 +24695,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="129" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B28" s="129" t="s">
         <v>582</v>
@@ -24704,12 +24704,12 @@
         <v>488</v>
       </c>
       <c r="M28" s="129" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="129" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B29" s="129" t="s">
         <v>582</v>
@@ -24719,7 +24719,7 @@
       </c>
       <c r="L29" s="32"/>
       <c r="M29" s="129" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="N29"/>
     </row>
@@ -24734,22 +24734,22 @@
         <v>488</v>
       </c>
       <c r="M30" s="129" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="129" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="129" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="129" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B33" s="129" t="s">
         <v>582</v>
@@ -24758,15 +24758,15 @@
         <v>488</v>
       </c>
       <c r="E33" s="129" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="M33" s="129" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="129" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B34" s="129" t="s">
         <v>374</v>
@@ -24775,10 +24775,10 @@
         <v>488</v>
       </c>
       <c r="E34" s="129" t="s">
+        <v>893</v>
+      </c>
+      <c r="M34" s="129" t="s">
         <v>894</v>
-      </c>
-      <c r="M34" s="129" t="s">
-        <v>895</v>
       </c>
       <c r="N34" s="34">
         <v>5</v>
@@ -24786,7 +24786,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="129" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B35" s="129" t="s">
         <v>374</v>
@@ -24795,15 +24795,15 @@
         <v>488</v>
       </c>
       <c r="E35" s="129" t="s">
+        <v>896</v>
+      </c>
+      <c r="M35" s="129" t="s">
         <v>897</v>
-      </c>
-      <c r="M35" s="129" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="129" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B36" s="129" t="s">
         <v>374</v>
@@ -24812,15 +24812,15 @@
         <v>488</v>
       </c>
       <c r="E36" s="129" t="s">
+        <v>899</v>
+      </c>
+      <c r="M36" s="129" t="s">
         <v>900</v>
-      </c>
-      <c r="M36" s="129" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="129" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B37" s="129" t="s">
         <v>374</v>
@@ -24829,15 +24829,15 @@
         <v>488</v>
       </c>
       <c r="E37" s="129" t="s">
+        <v>902</v>
+      </c>
+      <c r="M37" s="129" t="s">
         <v>903</v>
-      </c>
-      <c r="M37" s="129" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="129" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B38" s="129" t="s">
         <v>374</v>
@@ -24846,10 +24846,10 @@
         <v>488</v>
       </c>
       <c r="E38" s="129" t="s">
+        <v>905</v>
+      </c>
+      <c r="M38" s="129" t="s">
         <v>906</v>
-      </c>
-      <c r="M38" s="129" t="s">
-        <v>907</v>
       </c>
       <c r="N38" s="34">
         <v>5</v>
@@ -24866,12 +24866,12 @@
         <v>488</v>
       </c>
       <c r="M39" s="130" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="130" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B40" s="130" t="s">
         <v>582</v>
@@ -24880,41 +24880,41 @@
         <v>488</v>
       </c>
       <c r="M40" s="130" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="130" t="s">
+        <v>924</v>
+      </c>
+      <c r="B41" s="130" t="s">
         <v>925</v>
-      </c>
-      <c r="B41" s="130" t="s">
-        <v>926</v>
       </c>
       <c r="D41" s="130" t="s">
         <v>488</v>
       </c>
       <c r="E41" s="130" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="M41" s="130" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="130" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B42" s="130" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D42" s="130" t="s">
         <v>488</v>
       </c>
       <c r="E42" s="130" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M42" s="130" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="N42" s="34">
         <v>3</v>
@@ -24922,7 +24922,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="131" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B43" s="131" t="s">
         <v>374</v>
@@ -24931,10 +24931,10 @@
         <v>488</v>
       </c>
       <c r="E43" s="131" t="s">
+        <v>932</v>
+      </c>
+      <c r="M43" s="131" t="s">
         <v>933</v>
-      </c>
-      <c r="M43" s="131" t="s">
-        <v>934</v>
       </c>
       <c r="N43" s="34">
         <v>3</v>
@@ -24942,7 +24942,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="131" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B44" s="131" t="s">
         <v>374</v>
@@ -24951,10 +24951,10 @@
         <v>488</v>
       </c>
       <c r="E44" s="131" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="M44" s="131" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="N44" s="34">
         <v>3</v>
@@ -24962,7 +24962,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="131" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B45" s="131" t="s">
         <v>374</v>
@@ -24971,10 +24971,10 @@
         <v>488</v>
       </c>
       <c r="E45" s="131" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M45" s="131" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="N45" s="34">
         <v>3</v>
@@ -24982,7 +24982,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="133" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B46" s="133" t="s">
         <v>374</v>
@@ -24991,10 +24991,10 @@
         <v>422</v>
       </c>
       <c r="E46" s="133" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M46" s="133" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N46" s="34">
         <v>3</v>
@@ -25002,7 +25002,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="134" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B47" s="134" t="s">
         <v>375</v>
@@ -25011,16 +25011,16 @@
         <v>492</v>
       </c>
       <c r="E47" s="134" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F47" s="134" t="s">
         <v>745</v>
       </c>
       <c r="G47" s="134" t="s">
+        <v>945</v>
+      </c>
+      <c r="M47" s="134" t="s">
         <v>946</v>
-      </c>
-      <c r="M47" s="134" t="s">
-        <v>947</v>
       </c>
       <c r="N47" s="34">
         <v>3</v>
@@ -25028,7 +25028,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="134" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B48" s="134" t="s">
         <v>375</v>
@@ -25037,30 +25037,30 @@
         <v>492</v>
       </c>
       <c r="E48" s="134" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F48" s="134" t="s">
         <v>745</v>
       </c>
       <c r="M48" s="134" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="134" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B49" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D49" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E49" s="134" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M49" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="N49" s="34">
         <v>3</v>
@@ -25068,19 +25068,19 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="134" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B50" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D50" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E50" s="134" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="M50" s="134" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N50" s="34">
         <v>3</v>
@@ -25088,53 +25088,53 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="134" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B51" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D51" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E51" s="134" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M51" s="134" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="134" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B52" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D52" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E52" s="134" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="M52" s="134" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="134" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B53" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D53" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E53" s="134" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="M53" s="134" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="N53" s="34">
         <v>3</v>
@@ -25142,19 +25142,19 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="134" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B54" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D54" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E54" s="134" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="M54" s="134" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="N54" s="34">
         <v>3</v>
@@ -25162,19 +25162,19 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="134" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B55" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D55" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E55" s="134" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="M55" s="135" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="N55" s="136">
         <v>3</v>
@@ -25184,19 +25184,19 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="134" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B56" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D56" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E56" s="134" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="M56" s="134" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="N56" s="34">
         <v>3</v>
@@ -25204,19 +25204,19 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="134" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B57" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D57" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E57" s="134" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M57" s="134" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N57" s="34">
         <v>3</v>
@@ -25224,19 +25224,19 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="134" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B58" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D58" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E58" s="134" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="M58" s="134" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="N58" s="34">
         <v>3</v>
@@ -25244,19 +25244,19 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="134" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B59" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D59" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E59" s="134" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="M59" s="134" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N59" s="34">
         <v>3</v>
@@ -25264,53 +25264,53 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="134" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B60" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D60" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E60" s="134" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="M60" s="134" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="134" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B61" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D61" s="134" t="s">
         <v>382</v>
       </c>
       <c r="E61" s="134" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="M61" s="134" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="134" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B62" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D62" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E62" s="134" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="M62" s="134" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="N62" s="34">
         <v>3</v>
@@ -25318,19 +25318,19 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="134" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B63" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D63" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E63" s="134" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="M63" s="134" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="N63" s="34">
         <v>3</v>
@@ -25338,19 +25338,19 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="134" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B64" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D64" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E64" s="134" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M64" s="134" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="N64" s="34">
         <v>4</v>
@@ -25358,19 +25358,19 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="134" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B65" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D65" s="134" t="s">
         <v>422</v>
       </c>
       <c r="E65" s="134" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="M65" s="134" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="N65" s="34">
         <v>3</v>
@@ -25378,36 +25378,36 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="134" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B66" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D66" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E66" s="134" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="M66" s="134" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="134" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B67" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D67" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E67" s="134" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="M67" s="134" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="N67" s="34">
         <v>3</v>
@@ -25415,19 +25415,19 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="134" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B68" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D68" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E68" s="134" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="M68" s="134" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -25435,16 +25435,16 @@
         <v>483</v>
       </c>
       <c r="B69" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D69" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E69" s="134" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="M69" s="134" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -25460,7 +25460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -25499,34 +25499,34 @@
         <v>363</v>
       </c>
       <c r="B1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E1" s="137" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="G1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="H1" t="s">
         <v>376</v>
       </c>
       <c r="I1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="J1" t="s">
         <v>491</v>
       </c>
       <c r="K1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="L1" t="s">
         <v>364</v>
@@ -25535,7 +25535,7 @@
         <v>236</v>
       </c>
       <c r="N1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="O1" s="3">
         <v>1</v>
@@ -25690,25 +25690,25 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="137" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C2" s="137" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D2" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="137" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F2" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G2" s="137" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="H2" s="137">
         <v>3</v>
@@ -25721,25 +25721,25 @@
       </c>
       <c r="K2" s="137"/>
       <c r="L2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="M2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="N2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="T2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="X2" t="s">
         <v>1018</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
         <v>1019</v>
-      </c>
-      <c r="X2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
@@ -25747,22 +25747,22 @@
         <v>501</v>
       </c>
       <c r="B3" s="137" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D3" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="137" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F3" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G3" s="137" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="H3" s="137">
         <v>5</v>
@@ -25775,13 +25775,13 @@
       </c>
       <c r="K3" s="137"/>
       <c r="L3" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="M3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="N3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="O3" s="138"/>
       <c r="P3" s="138"/>
@@ -25790,25 +25790,25 @@
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B4" s="137" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D4" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="137" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F4" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G4" s="137" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H4" s="137">
         <v>4</v>
@@ -25821,19 +25821,19 @@
       </c>
       <c r="K4" s="137"/>
       <c r="L4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AD4" t="s">
         <v>1022</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.25">
@@ -25841,20 +25841,20 @@
         <v>493</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C5" s="137" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D5" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="137" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F5" s="137"/>
       <c r="G5" s="137" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H5" s="137">
         <v>4</v>
@@ -25869,13 +25869,13 @@
         <v>247</v>
       </c>
       <c r="L5" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="M5" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="N5" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="U5" s="138">
         <v>0.18</v>
@@ -25895,20 +25895,20 @@
         <v>497</v>
       </c>
       <c r="B6" s="137" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C6" s="137" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D6" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="137" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F6" s="137"/>
       <c r="G6" s="137" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="H6" s="137">
         <v>3</v>
@@ -25917,19 +25917,19 @@
         <v>1</v>
       </c>
       <c r="J6" s="137" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="K6" s="137" t="s">
         <v>246</v>
       </c>
       <c r="L6" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="M6" s="139" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="N6" s="137" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="T6" s="138"/>
       <c r="X6" s="138"/>
@@ -25940,10 +25940,10 @@
         <v>558</v>
       </c>
       <c r="B7" s="137" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D7" s="137" t="s">
         <v>33</v>
@@ -25953,7 +25953,7 @@
       </c>
       <c r="F7" s="137"/>
       <c r="G7" s="137" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H7" s="137">
         <v>4</v>
@@ -25965,46 +25965,46 @@
         <v>3</v>
       </c>
       <c r="K7" s="137" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="L7" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="M7" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="R7" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="V7" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="Z7" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AD7" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B8" s="137" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C8" s="137" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D8" s="137" t="s">
         <v>1050</v>
       </c>
-      <c r="B8" s="137" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C8" s="137" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D8" s="137" t="s">
-        <v>1052</v>
-      </c>
       <c r="E8" s="137" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F8" s="137"/>
       <c r="G8" s="137" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="H8" s="137">
         <v>0</v>
@@ -26017,10 +26017,10 @@
       </c>
       <c r="K8" s="137"/>
       <c r="L8" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="M8" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="W8">
         <v>2</v>
@@ -26037,22 +26037,22 @@
         <v>490</v>
       </c>
       <c r="B9" s="137" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C9" s="137" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D9" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="137" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F9" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G9" s="137" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H9" s="137">
         <v>4</v>
@@ -26067,10 +26067,10 @@
         <v>246</v>
       </c>
       <c r="L9" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M9" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
@@ -26078,20 +26078,20 @@
         <v>496</v>
       </c>
       <c r="B10" s="137" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D10" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="137" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F10" s="137"/>
       <c r="G10" s="137" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="H10" s="137">
         <v>4</v>
@@ -26106,13 +26106,13 @@
         <v>246</v>
       </c>
       <c r="L10" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="M10" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="N10" s="139" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
@@ -26120,10 +26120,10 @@
         <v>565</v>
       </c>
       <c r="B11" s="137" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>33</v>
@@ -26133,7 +26133,7 @@
       </c>
       <c r="F11" s="137"/>
       <c r="G11" s="137" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H11" s="137">
         <v>1</v>
@@ -26148,25 +26148,25 @@
         <v>246</v>
       </c>
       <c r="L11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N11" s="139" t="s">
+        <v>1072</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="X11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AC11" t="s">
         <v>1073</v>
       </c>
-      <c r="M11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N11" s="139" t="s">
-        <v>1074</v>
-      </c>
-      <c r="S11" t="s">
-        <v>1057</v>
-      </c>
-      <c r="X11" t="s">
-        <v>1057</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>1075</v>
-      </c>
       <c r="AH11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
@@ -27647,10 +27647,10 @@
     </row>
     <row r="19" spans="1:15" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="104" t="s">
+        <v>941</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>942</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>943</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -28157,7 +28157,7 @@
         <v>278</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -28410,19 +28410,19 @@
         <v>773</v>
       </c>
       <c r="K61" s="76" t="s">
+        <v>910</v>
+      </c>
+      <c r="L61" s="76" t="s">
         <v>911</v>
       </c>
-      <c r="L61" s="76" t="s">
+      <c r="M61" s="76" t="s">
         <v>912</v>
       </c>
-      <c r="M61" s="76" t="s">
+      <c r="N61" s="76" t="s">
         <v>913</v>
       </c>
-      <c r="N61" s="76" t="s">
+      <c r="O61" s="74" t="s">
         <v>914</v>
-      </c>
-      <c r="O61" s="74" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="1075">
   <si>
     <t>Fishing</t>
   </si>
@@ -3868,12 +3868,6 @@
   </si>
   <si>
     <t>Fires a dart at target that if hits, does DoT damage as well as initial damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a </t>
-  </si>
-  <si>
-    <t>shield wall</t>
   </si>
 </sst>
 </file>
@@ -3923,7 +3917,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3963,6 +3957,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4724,7 +4724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5043,22 +5043,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5076,10 +5088,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5127,22 +5145,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -5451,8 +5457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5467,29 +5473,29 @@
       <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="150" t="s">
         <v>782</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="148"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="152"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="153" t="s">
         <v>783</v>
       </c>
-      <c r="C3" s="150"/>
+      <c r="C3" s="154"/>
     </row>
     <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="116">
         <v>2</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="155" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="141"/>
+      <c r="C4" s="156"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="116"/>
@@ -5540,10 +5546,10 @@
       <c r="A10" s="116">
         <v>3</v>
       </c>
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="157" t="s">
         <v>785</v>
       </c>
-      <c r="C10" s="143"/>
+      <c r="C10" s="158"/>
     </row>
     <row r="11" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="116"/>
@@ -5558,10 +5564,10 @@
       <c r="A12" s="116">
         <v>4</v>
       </c>
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="146" t="s">
         <v>786</v>
       </c>
-      <c r="C12" s="145"/>
+      <c r="C12" s="147"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="116"/>
@@ -5576,10 +5582,10 @@
       <c r="A14" s="116">
         <v>5</v>
       </c>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="146" t="s">
         <v>787</v>
       </c>
-      <c r="C14" s="145"/>
+      <c r="C14" s="147"/>
     </row>
     <row r="15" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="116"/>
@@ -5594,10 +5600,10 @@
       <c r="A16" s="117">
         <v>6</v>
       </c>
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="148" t="s">
         <v>791</v>
       </c>
-      <c r="C16" s="152"/>
+      <c r="C16" s="149"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="116"/>
@@ -5612,61 +5618,57 @@
       <c r="A18" s="117">
         <v>7</v>
       </c>
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="148" t="s">
         <v>915</v>
       </c>
-      <c r="C18" s="152"/>
+      <c r="C18" s="149"/>
     </row>
     <row r="19" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="132">
         <v>8</v>
       </c>
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="148" t="s">
         <v>1002</v>
       </c>
-      <c r="C19" s="152"/>
+      <c r="C19" s="149"/>
     </row>
     <row r="20" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="132">
         <v>9</v>
       </c>
-      <c r="B20" s="151" t="s">
+      <c r="B20" s="148" t="s">
         <v>916</v>
       </c>
-      <c r="C20" s="152"/>
+      <c r="C20" s="149"/>
     </row>
     <row r="21" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="146" t="s">
+      <c r="A22" s="150" t="s">
         <v>183</v>
       </c>
-      <c r="B22" s="147"/>
-      <c r="C22" s="148"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="152"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="115">
         <v>1</v>
       </c>
-      <c r="B23" s="149" t="s">
+      <c r="B23" s="153" t="s">
         <v>792</v>
       </c>
-      <c r="C23" s="150"/>
+      <c r="C23" s="154"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="116"/>
-      <c r="B24" s="168" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C24" s="169" t="s">
-        <v>1076</v>
-      </c>
+      <c r="B24" s="174"/>
+      <c r="C24" s="175"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="116"/>
-      <c r="B25" s="168" t="s">
+      <c r="B25" s="140" t="s">
         <v>793</v>
       </c>
-      <c r="C25" s="169" t="s">
+      <c r="C25" s="141" t="s">
         <v>797</v>
       </c>
     </row>
@@ -5687,20 +5689,20 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="146" t="s">
+      <c r="A30" s="150" t="s">
         <v>794</v>
       </c>
-      <c r="B30" s="147"/>
-      <c r="C30" s="148"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="152"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="115">
         <v>1</v>
       </c>
-      <c r="B31" s="149" t="s">
+      <c r="B31" s="153" t="s">
         <v>782</v>
       </c>
-      <c r="C31" s="150"/>
+      <c r="C31" s="154"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="116"/>
@@ -5709,10 +5711,10 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="116"/>
-      <c r="B33" s="168" t="s">
+      <c r="B33" s="140" t="s">
         <v>789</v>
       </c>
-      <c r="C33" s="169" t="s">
+      <c r="C33" s="141" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -5720,10 +5722,10 @@
       <c r="A34" s="116">
         <v>2</v>
       </c>
-      <c r="B34" s="140" t="s">
+      <c r="B34" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="141"/>
+      <c r="C34" s="156"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="116"/>
@@ -5743,45 +5745,45 @@
       <c r="A37" s="116">
         <v>3</v>
       </c>
-      <c r="B37" s="140" t="s">
+      <c r="B37" s="155" t="s">
         <v>1003</v>
       </c>
-      <c r="C37" s="141"/>
+      <c r="C37" s="156"/>
     </row>
     <row r="38" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="116"/>
-      <c r="B38" s="170" t="s">
+      <c r="B38" s="142" t="s">
         <v>788</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="143" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="116"/>
-      <c r="B39" s="172" t="s">
+      <c r="B39" s="144" t="s">
         <v>789</v>
       </c>
-      <c r="C39" s="173" t="s">
+      <c r="C39" s="145" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="146" t="s">
+      <c r="A41" s="150" t="s">
         <v>799</v>
       </c>
-      <c r="B41" s="147"/>
-      <c r="C41" s="148"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="152"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="115">
         <v>1</v>
       </c>
-      <c r="B42" s="149" t="s">
+      <c r="B42" s="153" t="s">
         <v>800</v>
       </c>
-      <c r="C42" s="150"/>
+      <c r="C42" s="154"/>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="116"/>
@@ -5821,20 +5823,20 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="146" t="s">
+      <c r="A48" s="150" t="s">
         <v>804</v>
       </c>
-      <c r="B48" s="147"/>
-      <c r="C48" s="148"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="152"/>
     </row>
     <row r="49" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="115">
         <v>1</v>
       </c>
-      <c r="B49" s="149" t="s">
+      <c r="B49" s="153" t="s">
         <v>805</v>
       </c>
-      <c r="C49" s="150"/>
+      <c r="C49" s="154"/>
     </row>
     <row r="50" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="116"/>
@@ -5858,10 +5860,10 @@
       <c r="A52" s="115">
         <v>1</v>
       </c>
-      <c r="B52" s="149" t="s">
+      <c r="B52" s="153" t="s">
         <v>807</v>
       </c>
-      <c r="C52" s="150"/>
+      <c r="C52" s="154"/>
     </row>
     <row r="53" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="116"/>
@@ -5897,263 +5899,263 @@
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="146" t="s">
+      <c r="A58" s="150" t="s">
         <v>188</v>
       </c>
-      <c r="B58" s="147"/>
-      <c r="C58" s="148"/>
+      <c r="B58" s="151"/>
+      <c r="C58" s="152"/>
     </row>
     <row r="59" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="115">
         <v>1</v>
       </c>
-      <c r="B59" s="149" t="s">
+      <c r="B59" s="153" t="s">
         <v>812</v>
       </c>
-      <c r="C59" s="150"/>
+      <c r="C59" s="154"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="146" t="s">
+      <c r="A61" s="150" t="s">
         <v>790</v>
       </c>
-      <c r="B61" s="147"/>
-      <c r="C61" s="148"/>
+      <c r="B61" s="151"/>
+      <c r="C61" s="152"/>
     </row>
     <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="115">
         <v>1</v>
       </c>
-      <c r="B62" s="142" t="s">
+      <c r="B62" s="157" t="s">
         <v>783</v>
       </c>
-      <c r="C62" s="143"/>
+      <c r="C62" s="158"/>
     </row>
     <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="116">
         <v>2</v>
       </c>
-      <c r="B63" s="153" t="s">
+      <c r="B63" s="159" t="s">
         <v>784</v>
       </c>
-      <c r="C63" s="154"/>
+      <c r="C63" s="160"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="116">
         <v>3</v>
       </c>
-      <c r="B64" s="144" t="s">
+      <c r="B64" s="146" t="s">
         <v>785</v>
       </c>
-      <c r="C64" s="145"/>
+      <c r="C64" s="147"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="116">
         <v>4</v>
       </c>
-      <c r="B65" s="144" t="s">
+      <c r="B65" s="146" t="s">
         <v>786</v>
       </c>
-      <c r="C65" s="145"/>
+      <c r="C65" s="147"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="116">
         <v>5</v>
       </c>
-      <c r="B66" s="144" t="s">
+      <c r="B66" s="146" t="s">
         <v>787</v>
       </c>
-      <c r="C66" s="145"/>
+      <c r="C66" s="147"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="117">
         <v>6</v>
       </c>
-      <c r="B67" s="151" t="s">
+      <c r="B67" s="148" t="s">
         <v>791</v>
       </c>
-      <c r="C67" s="152"/>
+      <c r="C67" s="149"/>
     </row>
     <row r="68" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="146" t="s">
+      <c r="A69" s="150" t="s">
         <v>813</v>
       </c>
-      <c r="B69" s="147"/>
-      <c r="C69" s="148"/>
+      <c r="B69" s="151"/>
+      <c r="C69" s="152"/>
     </row>
     <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="115">
         <v>1</v>
       </c>
-      <c r="B70" s="142" t="s">
+      <c r="B70" s="157" t="s">
         <v>783</v>
       </c>
-      <c r="C70" s="143"/>
+      <c r="C70" s="158"/>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="116">
         <v>2</v>
       </c>
-      <c r="B71" s="153" t="s">
+      <c r="B71" s="159" t="s">
         <v>784</v>
       </c>
-      <c r="C71" s="154"/>
+      <c r="C71" s="160"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="116">
         <v>3</v>
       </c>
-      <c r="B72" s="144" t="s">
+      <c r="B72" s="146" t="s">
         <v>785</v>
       </c>
-      <c r="C72" s="145"/>
+      <c r="C72" s="147"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="116">
         <v>4</v>
       </c>
-      <c r="B73" s="144" t="s">
+      <c r="B73" s="146" t="s">
         <v>786</v>
       </c>
-      <c r="C73" s="145"/>
+      <c r="C73" s="147"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="116">
         <v>5</v>
       </c>
-      <c r="B74" s="144" t="s">
+      <c r="B74" s="146" t="s">
         <v>787</v>
       </c>
-      <c r="C74" s="145"/>
+      <c r="C74" s="147"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="117">
         <v>6</v>
       </c>
-      <c r="B75" s="151" t="s">
+      <c r="B75" s="148" t="s">
         <v>791</v>
       </c>
-      <c r="C75" s="152"/>
+      <c r="C75" s="149"/>
     </row>
     <row r="76" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="146" t="s">
+      <c r="A77" s="150" t="s">
         <v>1003</v>
       </c>
-      <c r="B77" s="147"/>
-      <c r="C77" s="148"/>
+      <c r="B77" s="151"/>
+      <c r="C77" s="152"/>
     </row>
     <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="115">
         <v>1</v>
       </c>
-      <c r="B78" s="142"/>
-      <c r="C78" s="143"/>
+      <c r="B78" s="157"/>
+      <c r="C78" s="158"/>
     </row>
     <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="116"/>
-      <c r="B79" s="153"/>
-      <c r="C79" s="154"/>
+      <c r="B79" s="159"/>
+      <c r="C79" s="160"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="116"/>
-      <c r="B80" s="144"/>
-      <c r="C80" s="145"/>
+      <c r="B80" s="146"/>
+      <c r="C80" s="147"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="116"/>
-      <c r="B81" s="144"/>
-      <c r="C81" s="145"/>
+      <c r="B81" s="146"/>
+      <c r="C81" s="147"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="116"/>
-      <c r="B82" s="144"/>
-      <c r="C82" s="145"/>
+      <c r="B82" s="146"/>
+      <c r="C82" s="147"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="117"/>
-      <c r="B83" s="151"/>
-      <c r="C83" s="152"/>
+      <c r="B83" s="148"/>
+      <c r="C83" s="149"/>
     </row>
     <row r="84" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="146" t="s">
+      <c r="A85" s="150" t="s">
         <v>814</v>
       </c>
-      <c r="B85" s="147"/>
-      <c r="C85" s="148"/>
+      <c r="B85" s="151"/>
+      <c r="C85" s="152"/>
     </row>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="115">
         <v>1</v>
       </c>
-      <c r="B86" s="142" t="s">
+      <c r="B86" s="157" t="s">
         <v>783</v>
       </c>
-      <c r="C86" s="143"/>
+      <c r="C86" s="158"/>
     </row>
     <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="116">
         <v>2</v>
       </c>
-      <c r="B87" s="153" t="s">
+      <c r="B87" s="159" t="s">
         <v>784</v>
       </c>
-      <c r="C87" s="154"/>
+      <c r="C87" s="160"/>
     </row>
     <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="116">
         <v>3</v>
       </c>
-      <c r="B88" s="144" t="s">
+      <c r="B88" s="146" t="s">
         <v>785</v>
       </c>
-      <c r="C88" s="145"/>
+      <c r="C88" s="147"/>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="116">
         <v>4</v>
       </c>
-      <c r="B89" s="144" t="s">
+      <c r="B89" s="146" t="s">
         <v>786</v>
       </c>
-      <c r="C89" s="145"/>
+      <c r="C89" s="147"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="116">
         <v>5</v>
       </c>
-      <c r="B90" s="144" t="s">
+      <c r="B90" s="146" t="s">
         <v>787</v>
       </c>
-      <c r="C90" s="145"/>
+      <c r="C90" s="147"/>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="117">
         <v>6</v>
       </c>
-      <c r="B91" s="151" t="s">
+      <c r="B91" s="148" t="s">
         <v>791</v>
       </c>
-      <c r="C91" s="152"/>
+      <c r="C91" s="149"/>
     </row>
     <row r="92" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="146" t="s">
+      <c r="A93" s="150" t="s">
         <v>864</v>
       </c>
-      <c r="B93" s="147"/>
-      <c r="C93" s="148"/>
+      <c r="B93" s="151"/>
+      <c r="C93" s="152"/>
     </row>
     <row r="94" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="115">
         <v>1</v>
       </c>
-      <c r="B94" s="149" t="s">
+      <c r="B94" s="153" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="150"/>
+      <c r="C94" s="154"/>
     </row>
     <row r="95" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="124"/>
@@ -6326,10 +6328,10 @@
       <c r="A114" s="116">
         <v>2</v>
       </c>
-      <c r="B114" s="140" t="s">
+      <c r="B114" s="155" t="s">
         <v>815</v>
       </c>
-      <c r="C114" s="141"/>
+      <c r="C114" s="156"/>
     </row>
     <row r="115" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="116"/>
@@ -6407,10 +6409,10 @@
       <c r="A123" s="116">
         <v>3</v>
       </c>
-      <c r="B123" s="142" t="s">
+      <c r="B123" s="157" t="s">
         <v>816</v>
       </c>
-      <c r="C123" s="143"/>
+      <c r="C123" s="158"/>
     </row>
     <row r="124" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="116"/>
@@ -6466,10 +6468,10 @@
       <c r="A130" s="115">
         <v>4</v>
       </c>
-      <c r="B130" s="144" t="s">
+      <c r="B130" s="146" t="s">
         <v>817</v>
       </c>
-      <c r="C130" s="145"/>
+      <c r="C130" s="147"/>
     </row>
     <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="124"/>
@@ -6509,20 +6511,20 @@
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="136" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="146" t="s">
+      <c r="A136" s="150" t="s">
         <v>865</v>
       </c>
-      <c r="B136" s="147"/>
-      <c r="C136" s="148"/>
+      <c r="B136" s="151"/>
+      <c r="C136" s="152"/>
     </row>
     <row r="137" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="115">
         <v>1</v>
       </c>
-      <c r="B137" s="149" t="s">
+      <c r="B137" s="153" t="s">
         <v>866</v>
       </c>
-      <c r="C137" s="150"/>
+      <c r="C137" s="154"/>
     </row>
     <row r="138" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="124"/>
@@ -6669,10 +6671,10 @@
       <c r="A157" s="116">
         <v>2</v>
       </c>
-      <c r="B157" s="140" t="s">
+      <c r="B157" s="155" t="s">
         <v>867</v>
       </c>
-      <c r="C157" s="141"/>
+      <c r="C157" s="156"/>
     </row>
     <row r="158" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="116"/>
@@ -6742,10 +6744,10 @@
       <c r="A166" s="116">
         <v>3</v>
       </c>
-      <c r="B166" s="142" t="s">
+      <c r="B166" s="157" t="s">
         <v>868</v>
       </c>
-      <c r="C166" s="143"/>
+      <c r="C166" s="158"/>
     </row>
     <row r="167" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="116"/>
@@ -6799,6 +6801,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B83:C83"/>
@@ -6815,50 +6861,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="B137:C137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -8055,31 +8057,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="164" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="161" t="s">
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="167" t="s">
         <v>183</v>
       </c>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="163"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="169"/>
     </row>
     <row r="2" spans="1:22" ht="44.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K2" s="66" t="s">
@@ -22231,17 +22233,17 @@
       <c r="A1" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="170" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="166"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="172"/>
       <c r="K1" s="91" t="s">
         <v>364</v>
       </c>
@@ -24108,15 +24110,15 @@
       <c r="C1" t="s">
         <v>701</v>
       </c>
-      <c r="E1" s="167" t="s">
+      <c r="E1" s="173" t="s">
         <v>365</v>
       </c>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
       <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
@@ -27233,24 +27235,24 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="100"/>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="163" t="s">
         <v>702</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
       <c r="E1" s="101"/>
-      <c r="F1" s="155" t="s">
+      <c r="F1" s="161" t="s">
         <v>350</v>
       </c>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="156"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="162"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
       <c r="R1" s="30"/>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="1073">
   <si>
     <t>Fishing</t>
   </si>
@@ -3021,9 +3021,6 @@
     <t>Finish Trollish</t>
   </si>
   <si>
-    <t>Weapon Abilities</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -3034,9 +3031,6 @@
   </si>
   <si>
     <t>e</t>
-  </si>
-  <si>
-    <t>Area Suppression</t>
   </si>
   <si>
     <t>Implement</t>
@@ -3917,7 +3911,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3957,12 +3951,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4724,7 +4712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5061,16 +5049,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5088,16 +5082,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5144,12 +5132,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5455,10 +5437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C172"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5473,29 +5455,29 @@
       <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="152" t="s">
         <v>782</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="152"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="154"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="155" t="s">
         <v>783</v>
       </c>
-      <c r="C3" s="154"/>
+      <c r="C3" s="156"/>
     </row>
     <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="116">
         <v>2</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="146" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="156"/>
+      <c r="C4" s="147"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="116"/>
@@ -5518,7 +5500,7 @@
     <row r="7" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="116"/>
       <c r="B7" s="122" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C7" s="123" t="s">
         <v>111</v>
@@ -5527,16 +5509,16 @@
     <row r="8" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="116"/>
       <c r="B8" s="122" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C8" s="123" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="116"/>
       <c r="B9" s="120" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C9" s="121" t="s">
         <v>700</v>
@@ -5546,10 +5528,10 @@
       <c r="A10" s="116">
         <v>3</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="148" t="s">
         <v>785</v>
       </c>
-      <c r="C10" s="158"/>
+      <c r="C10" s="149"/>
     </row>
     <row r="11" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="116"/>
@@ -5557,17 +5539,17 @@
         <v>788</v>
       </c>
       <c r="C11" s="119" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="116">
         <v>4</v>
       </c>
-      <c r="B12" s="146" t="s">
+      <c r="B12" s="150" t="s">
         <v>786</v>
       </c>
-      <c r="C12" s="147"/>
+      <c r="C12" s="151"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="116"/>
@@ -5575,17 +5557,17 @@
         <v>788</v>
       </c>
       <c r="C13" s="119" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="14" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="116">
         <v>5</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="150" t="s">
         <v>787</v>
       </c>
-      <c r="C14" s="147"/>
+      <c r="C14" s="151"/>
     </row>
     <row r="15" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="116"/>
@@ -5593,17 +5575,17 @@
         <v>788</v>
       </c>
       <c r="C15" s="119" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="16" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="117">
         <v>6</v>
       </c>
-      <c r="B16" s="148" t="s">
+      <c r="B16" s="157" t="s">
         <v>791</v>
       </c>
-      <c r="C16" s="149"/>
+      <c r="C16" s="158"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="116"/>
@@ -5611,179 +5593,187 @@
         <v>788</v>
       </c>
       <c r="C17" s="119" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="18" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="117">
         <v>7</v>
       </c>
-      <c r="B18" s="148" t="s">
-        <v>915</v>
-      </c>
-      <c r="C18" s="149"/>
+      <c r="B18" s="157" t="s">
+        <v>913</v>
+      </c>
+      <c r="C18" s="158"/>
     </row>
     <row r="19" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="132">
         <v>8</v>
       </c>
-      <c r="B19" s="148" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C19" s="149"/>
+      <c r="B19" s="157" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="158"/>
     </row>
     <row r="20" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="132">
         <v>9</v>
       </c>
-      <c r="B20" s="148" t="s">
-        <v>916</v>
-      </c>
-      <c r="C20" s="149"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="150" t="s">
-        <v>183</v>
-      </c>
-      <c r="B22" s="151"/>
-      <c r="C22" s="152"/>
-    </row>
+      <c r="B20" s="157" t="s">
+        <v>914</v>
+      </c>
+      <c r="C20" s="158"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="115">
-        <v>1</v>
-      </c>
-      <c r="B23" s="153" t="s">
-        <v>792</v>
-      </c>
+      <c r="A23" s="152" t="s">
+        <v>793</v>
+      </c>
+      <c r="B23" s="153"/>
       <c r="C23" s="154"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="116"/>
-      <c r="B24" s="174"/>
-      <c r="C24" s="175"/>
+    <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="115">
+        <v>1</v>
+      </c>
+      <c r="B24" s="155" t="s">
+        <v>782</v>
+      </c>
+      <c r="C24" s="156"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="116"/>
-      <c r="B25" s="140" t="s">
-        <v>793</v>
-      </c>
-      <c r="C25" s="141" t="s">
-        <v>797</v>
-      </c>
+      <c r="B25" s="122"/>
+      <c r="C25" s="123"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="116"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="123"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="116"/>
-      <c r="B27" s="125"/>
-      <c r="C27" s="126"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="140" t="s">
+        <v>789</v>
+      </c>
+      <c r="C26" s="141" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="116">
+        <v>2</v>
+      </c>
+      <c r="B27" s="146" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="147"/>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="116"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="126"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B28" s="118" t="s">
+        <v>788</v>
+      </c>
+      <c r="C28" s="119" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="116"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="121"/>
+    </row>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="150" t="s">
-        <v>794</v>
-      </c>
-      <c r="B30" s="151"/>
-      <c r="C30" s="152"/>
+      <c r="A30" s="116">
+        <v>3</v>
+      </c>
+      <c r="B30" s="146" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C30" s="147"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="115">
-        <v>1</v>
-      </c>
-      <c r="B31" s="153" t="s">
-        <v>782</v>
-      </c>
-      <c r="C31" s="154"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="142" t="s">
+        <v>788</v>
+      </c>
+      <c r="C31" s="143" t="s">
+        <v>1002</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="116"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="123"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="116"/>
-      <c r="B33" s="140" t="s">
+      <c r="B32" s="144" t="s">
         <v>789</v>
       </c>
-      <c r="C33" s="141" t="s">
-        <v>1001</v>
-      </c>
-    </row>
+      <c r="C32" s="145" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="116">
-        <v>2</v>
-      </c>
-      <c r="B34" s="155" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="156"/>
+      <c r="A34" s="152" t="s">
+        <v>797</v>
+      </c>
+      <c r="B34" s="153"/>
+      <c r="C34" s="154"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="116"/>
-      <c r="B35" s="118" t="s">
+      <c r="A35" s="115">
+        <v>1</v>
+      </c>
+      <c r="B35" s="155" t="s">
+        <v>798</v>
+      </c>
+      <c r="C35" s="156"/>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="116"/>
+      <c r="B36" s="118" t="s">
         <v>788</v>
       </c>
-      <c r="C35" s="119" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="116"/>
-      <c r="B36" s="120"/>
-      <c r="C36" s="121"/>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="116">
-        <v>3</v>
-      </c>
-      <c r="B37" s="155" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C37" s="156"/>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="119" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="116"/>
+      <c r="B37" s="122" t="s">
+        <v>789</v>
+      </c>
+      <c r="C37" s="123" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="116"/>
-      <c r="B38" s="142" t="s">
-        <v>788</v>
-      </c>
-      <c r="C38" s="143" t="s">
-        <v>1004</v>
+      <c r="B38" s="122" t="s">
+        <v>792</v>
+      </c>
+      <c r="C38" s="123" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="116"/>
-      <c r="B39" s="144" t="s">
-        <v>789</v>
-      </c>
-      <c r="C39" s="145" t="s">
-        <v>1005</v>
+      <c r="B39" s="120" t="s">
+        <v>794</v>
+      </c>
+      <c r="C39" s="121" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="150" t="s">
-        <v>799</v>
-      </c>
-      <c r="B41" s="151"/>
-      <c r="C41" s="152"/>
+      <c r="A41" s="152" t="s">
+        <v>802</v>
+      </c>
+      <c r="B41" s="153"/>
+      <c r="C41" s="154"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="115">
         <v>1</v>
       </c>
-      <c r="B42" s="153" t="s">
-        <v>800</v>
-      </c>
-      <c r="C42" s="154"/>
+      <c r="B42" s="155" t="s">
+        <v>803</v>
+      </c>
+      <c r="C42" s="156"/>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="116"/>
@@ -5791,502 +5781,508 @@
         <v>788</v>
       </c>
       <c r="C43" s="119" t="s">
-        <v>533</v>
+        <v>804</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="116"/>
-      <c r="B44" s="122" t="s">
+      <c r="A44" s="124"/>
+      <c r="B44" s="120" t="s">
         <v>789</v>
       </c>
-      <c r="C44" s="123" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="116"/>
-      <c r="B45" s="122" t="s">
-        <v>793</v>
-      </c>
-      <c r="C45" s="123" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="121" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="115">
+        <v>1</v>
+      </c>
+      <c r="B45" s="155" t="s">
+        <v>805</v>
+      </c>
+      <c r="C45" s="156"/>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="116"/>
-      <c r="B46" s="120" t="s">
-        <v>795</v>
-      </c>
-      <c r="C46" s="121" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="150" t="s">
-        <v>804</v>
-      </c>
-      <c r="B48" s="151"/>
-      <c r="C48" s="152"/>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="115">
-        <v>1</v>
-      </c>
-      <c r="B49" s="153" t="s">
-        <v>805</v>
-      </c>
-      <c r="C49" s="154"/>
-    </row>
-    <row r="50" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="116"/>
-      <c r="B50" s="118" t="s">
+      <c r="B46" s="118" t="s">
         <v>788</v>
       </c>
-      <c r="C50" s="119" t="s">
+      <c r="C46" s="119" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="124"/>
-      <c r="B51" s="120" t="s">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="116"/>
+      <c r="B47" s="122" t="s">
         <v>789</v>
       </c>
-      <c r="C51" s="121" t="s">
-        <v>811</v>
-      </c>
+      <c r="C47" s="123" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="116"/>
+      <c r="B48" s="122" t="s">
+        <v>792</v>
+      </c>
+      <c r="C48" s="123" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="116"/>
+      <c r="B49" s="120"/>
+      <c r="C49" s="121"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="152" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="153"/>
+      <c r="C51" s="154"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="115">
         <v>1</v>
       </c>
-      <c r="B52" s="153" t="s">
-        <v>807</v>
-      </c>
-      <c r="C52" s="154"/>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="116"/>
-      <c r="B53" s="118" t="s">
-        <v>788</v>
-      </c>
-      <c r="C53" s="119" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="116"/>
-      <c r="B54" s="122" t="s">
-        <v>789</v>
-      </c>
-      <c r="C54" s="123" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="116"/>
-      <c r="B55" s="122" t="s">
-        <v>793</v>
-      </c>
-      <c r="C55" s="123" t="s">
+      <c r="B52" s="155" t="s">
         <v>810</v>
       </c>
+      <c r="C52" s="156"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="152" t="s">
+        <v>790</v>
+      </c>
+      <c r="B54" s="153"/>
+      <c r="C54" s="154"/>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="115">
+        <v>1</v>
+      </c>
+      <c r="B55" s="148" t="s">
+        <v>783</v>
+      </c>
+      <c r="C55" s="149"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="116"/>
-      <c r="B56" s="120"/>
-      <c r="C56" s="121"/>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="150" t="s">
-        <v>188</v>
-      </c>
-      <c r="B58" s="151"/>
-      <c r="C58" s="152"/>
-    </row>
-    <row r="59" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="115">
-        <v>1</v>
-      </c>
-      <c r="B59" s="153" t="s">
-        <v>812</v>
-      </c>
-      <c r="C59" s="154"/>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="150" t="s">
-        <v>790</v>
-      </c>
-      <c r="B61" s="151"/>
-      <c r="C61" s="152"/>
-    </row>
+      <c r="A56" s="116">
+        <v>2</v>
+      </c>
+      <c r="B56" s="159" t="s">
+        <v>784</v>
+      </c>
+      <c r="C56" s="160"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="116">
+        <v>3</v>
+      </c>
+      <c r="B57" s="150" t="s">
+        <v>785</v>
+      </c>
+      <c r="C57" s="151"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="116">
+        <v>4</v>
+      </c>
+      <c r="B58" s="150" t="s">
+        <v>786</v>
+      </c>
+      <c r="C58" s="151"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="116">
+        <v>5</v>
+      </c>
+      <c r="B59" s="150" t="s">
+        <v>787</v>
+      </c>
+      <c r="C59" s="151"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="117">
+        <v>6</v>
+      </c>
+      <c r="B60" s="157" t="s">
+        <v>791</v>
+      </c>
+      <c r="C60" s="158"/>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="115">
-        <v>1</v>
-      </c>
-      <c r="B62" s="157" t="s">
+      <c r="A62" s="152" t="s">
+        <v>811</v>
+      </c>
+      <c r="B62" s="153"/>
+      <c r="C62" s="154"/>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="115">
+        <v>1</v>
+      </c>
+      <c r="B63" s="148" t="s">
         <v>783</v>
       </c>
-      <c r="C62" s="158"/>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="116">
-        <v>2</v>
-      </c>
-      <c r="B63" s="159" t="s">
-        <v>784</v>
-      </c>
-      <c r="C63" s="160"/>
+      <c r="C63" s="149"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="116">
-        <v>3</v>
-      </c>
-      <c r="B64" s="146" t="s">
-        <v>785</v>
-      </c>
-      <c r="C64" s="147"/>
+        <v>2</v>
+      </c>
+      <c r="B64" s="159" t="s">
+        <v>784</v>
+      </c>
+      <c r="C64" s="160"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="116">
-        <v>4</v>
-      </c>
-      <c r="B65" s="146" t="s">
-        <v>786</v>
-      </c>
-      <c r="C65" s="147"/>
+        <v>3</v>
+      </c>
+      <c r="B65" s="150" t="s">
+        <v>785</v>
+      </c>
+      <c r="C65" s="151"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="116">
+        <v>4</v>
+      </c>
+      <c r="B66" s="150" t="s">
+        <v>786</v>
+      </c>
+      <c r="C66" s="151"/>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="116">
         <v>5</v>
       </c>
-      <c r="B66" s="146" t="s">
+      <c r="B67" s="150" t="s">
         <v>787</v>
       </c>
-      <c r="C66" s="147"/>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="117">
+      <c r="C67" s="151"/>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="117">
         <v>6</v>
       </c>
-      <c r="B67" s="148" t="s">
+      <c r="B68" s="157" t="s">
         <v>791</v>
       </c>
-      <c r="C67" s="149"/>
-    </row>
-    <row r="68" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="150" t="s">
-        <v>813</v>
-      </c>
-      <c r="B69" s="151"/>
-      <c r="C69" s="152"/>
-    </row>
+      <c r="C68" s="158"/>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="115">
-        <v>1</v>
-      </c>
-      <c r="B70" s="157" t="s">
+      <c r="A70" s="152" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B70" s="153"/>
+      <c r="C70" s="154"/>
+    </row>
+    <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="115">
+        <v>1</v>
+      </c>
+      <c r="B71" s="148"/>
+      <c r="C71" s="149"/>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="116"/>
+      <c r="B72" s="159"/>
+      <c r="C72" s="160"/>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="116"/>
+      <c r="B73" s="150"/>
+      <c r="C73" s="151"/>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="116"/>
+      <c r="B74" s="150"/>
+      <c r="C74" s="151"/>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="116"/>
+      <c r="B75" s="150"/>
+      <c r="C75" s="151"/>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="117"/>
+      <c r="B76" s="157"/>
+      <c r="C76" s="158"/>
+    </row>
+    <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="152" t="s">
+        <v>812</v>
+      </c>
+      <c r="B78" s="153"/>
+      <c r="C78" s="154"/>
+    </row>
+    <row r="79" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="115">
+        <v>1</v>
+      </c>
+      <c r="B79" s="148" t="s">
         <v>783</v>
       </c>
-      <c r="C70" s="158"/>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="116">
+      <c r="C79" s="149"/>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="116">
         <v>2</v>
       </c>
-      <c r="B71" s="159" t="s">
+      <c r="B80" s="159" t="s">
         <v>784</v>
       </c>
-      <c r="C71" s="160"/>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="116">
+      <c r="C80" s="160"/>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="116">
         <v>3</v>
       </c>
-      <c r="B72" s="146" t="s">
+      <c r="B81" s="150" t="s">
         <v>785</v>
       </c>
-      <c r="C72" s="147"/>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="116">
+      <c r="C81" s="151"/>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="116">
         <v>4</v>
       </c>
-      <c r="B73" s="146" t="s">
+      <c r="B82" s="150" t="s">
         <v>786</v>
       </c>
-      <c r="C73" s="147"/>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="116">
+      <c r="C82" s="151"/>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="116">
         <v>5</v>
       </c>
-      <c r="B74" s="146" t="s">
+      <c r="B83" s="150" t="s">
         <v>787</v>
       </c>
-      <c r="C74" s="147"/>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="117">
+      <c r="C83" s="151"/>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="117">
         <v>6</v>
       </c>
-      <c r="B75" s="148" t="s">
+      <c r="B84" s="157" t="s">
         <v>791</v>
       </c>
-      <c r="C75" s="149"/>
-    </row>
-    <row r="76" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="150" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B77" s="151"/>
-      <c r="C77" s="152"/>
-    </row>
-    <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="115">
-        <v>1</v>
-      </c>
-      <c r="B78" s="157"/>
-      <c r="C78" s="158"/>
-    </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="116"/>
-      <c r="B79" s="159"/>
-      <c r="C79" s="160"/>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="116"/>
-      <c r="B80" s="146"/>
-      <c r="C80" s="147"/>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="116"/>
-      <c r="B81" s="146"/>
-      <c r="C81" s="147"/>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="116"/>
-      <c r="B82" s="146"/>
-      <c r="C82" s="147"/>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="117"/>
-      <c r="B83" s="148"/>
-      <c r="C83" s="149"/>
-    </row>
-    <row r="84" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="150" t="s">
-        <v>814</v>
-      </c>
-      <c r="B85" s="151"/>
-      <c r="C85" s="152"/>
-    </row>
+      <c r="C84" s="158"/>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="115">
-        <v>1</v>
-      </c>
-      <c r="B86" s="157" t="s">
-        <v>783</v>
-      </c>
-      <c r="C86" s="158"/>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="116">
-        <v>2</v>
-      </c>
-      <c r="B87" s="159" t="s">
-        <v>784</v>
-      </c>
-      <c r="C87" s="160"/>
-    </row>
-    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="116">
-        <v>3</v>
-      </c>
-      <c r="B88" s="146" t="s">
-        <v>785</v>
-      </c>
-      <c r="C88" s="147"/>
+      <c r="A86" s="152" t="s">
+        <v>862</v>
+      </c>
+      <c r="B86" s="153"/>
+      <c r="C86" s="154"/>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="115">
+        <v>1</v>
+      </c>
+      <c r="B87" s="155" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="156"/>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="124"/>
+      <c r="B88" s="118" t="s">
+        <v>788</v>
+      </c>
+      <c r="C88" s="119" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="116">
-        <v>4</v>
-      </c>
-      <c r="B89" s="146" t="s">
-        <v>786</v>
-      </c>
-      <c r="C89" s="147"/>
+      <c r="A89" s="124"/>
+      <c r="B89" s="127" t="s">
+        <v>789</v>
+      </c>
+      <c r="C89" s="128" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="116">
-        <v>5</v>
-      </c>
-      <c r="B90" s="146" t="s">
-        <v>787</v>
-      </c>
-      <c r="C90" s="147"/>
+      <c r="A90" s="124"/>
+      <c r="B90" s="127" t="s">
+        <v>792</v>
+      </c>
+      <c r="C90" s="128" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="117">
-        <v>6</v>
-      </c>
-      <c r="B91" s="148" t="s">
-        <v>791</v>
-      </c>
-      <c r="C91" s="149"/>
-    </row>
-    <row r="92" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="150" t="s">
-        <v>864</v>
-      </c>
-      <c r="B93" s="151"/>
-      <c r="C93" s="152"/>
-    </row>
-    <row r="94" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="115">
-        <v>1</v>
-      </c>
-      <c r="B94" s="153" t="s">
-        <v>101</v>
-      </c>
-      <c r="C94" s="154"/>
-    </row>
-    <row r="95" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="124"/>
+      <c r="B91" s="127" t="s">
+        <v>794</v>
+      </c>
+      <c r="C91" s="128" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="124"/>
+      <c r="B92" s="127" t="s">
+        <v>795</v>
+      </c>
+      <c r="C92" s="128" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="124"/>
+      <c r="B93" s="127" t="s">
+        <v>823</v>
+      </c>
+      <c r="C93" s="128" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="124"/>
+      <c r="B94" s="127" t="s">
+        <v>825</v>
+      </c>
+      <c r="C94" s="128" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="124"/>
-      <c r="B95" s="118" t="s">
-        <v>788</v>
-      </c>
-      <c r="C95" s="119" t="s">
-        <v>841</v>
+      <c r="B95" s="127" t="s">
+        <v>827</v>
+      </c>
+      <c r="C95" s="128" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="124"/>
       <c r="B96" s="127" t="s">
-        <v>789</v>
+        <v>828</v>
       </c>
       <c r="C96" s="128" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="124"/>
-      <c r="B97" s="127" t="s">
-        <v>793</v>
-      </c>
-      <c r="C97" s="128" t="s">
-        <v>843</v>
+      <c r="A97" s="116"/>
+      <c r="B97" s="122" t="s">
+        <v>829</v>
+      </c>
+      <c r="C97" s="123" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="124"/>
-      <c r="B98" s="127" t="s">
-        <v>795</v>
-      </c>
-      <c r="C98" s="128" t="s">
-        <v>844</v>
+      <c r="A98" s="116"/>
+      <c r="B98" s="122" t="s">
+        <v>830</v>
+      </c>
+      <c r="C98" s="123" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="124"/>
-      <c r="B99" s="127" t="s">
-        <v>796</v>
-      </c>
-      <c r="C99" s="128" t="s">
-        <v>845</v>
+      <c r="A99" s="116"/>
+      <c r="B99" s="122" t="s">
+        <v>831</v>
+      </c>
+      <c r="C99" s="123" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="124"/>
-      <c r="B100" s="127" t="s">
-        <v>825</v>
-      </c>
-      <c r="C100" s="128" t="s">
-        <v>846</v>
+      <c r="A100" s="116"/>
+      <c r="B100" s="122" t="s">
+        <v>832</v>
+      </c>
+      <c r="C100" s="123" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="124"/>
-      <c r="B101" s="127" t="s">
-        <v>827</v>
-      </c>
-      <c r="C101" s="128" t="s">
-        <v>847</v>
+      <c r="A101" s="116"/>
+      <c r="B101" s="122" t="s">
+        <v>833</v>
+      </c>
+      <c r="C101" s="123" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="124"/>
-      <c r="B102" s="127" t="s">
-        <v>829</v>
-      </c>
-      <c r="C102" s="128" t="s">
-        <v>848</v>
+      <c r="A102" s="116"/>
+      <c r="B102" s="122" t="s">
+        <v>834</v>
+      </c>
+      <c r="C102" s="123" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="124"/>
-      <c r="B103" s="127" t="s">
-        <v>830</v>
-      </c>
-      <c r="C103" s="128" t="s">
-        <v>849</v>
+      <c r="A103" s="116"/>
+      <c r="B103" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="C103" s="123" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="116"/>
       <c r="B104" s="122" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="C104" s="123" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="116"/>
       <c r="B105" s="122" t="s">
-        <v>832</v>
-      </c>
-      <c r="C105" s="123" t="s">
-        <v>851</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="C105" s="123"/>
     </row>
     <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="116"/>
-      <c r="B106" s="122" t="s">
-        <v>833</v>
-      </c>
-      <c r="C106" s="123" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="116"/>
-      <c r="B107" s="122" t="s">
-        <v>834</v>
-      </c>
-      <c r="C107" s="123" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="120" t="s">
+        <v>838</v>
+      </c>
+      <c r="C106" s="121"/>
+    </row>
+    <row r="107" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="116">
+        <v>2</v>
+      </c>
+      <c r="B107" s="146" t="s">
+        <v>813</v>
+      </c>
+      <c r="C107" s="147"/>
+    </row>
+    <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="116"/>
-      <c r="B108" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="C108" s="123" t="s">
-        <v>854</v>
+      <c r="B108" s="118" t="s">
+        <v>788</v>
+      </c>
+      <c r="C108" s="119" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="116"/>
       <c r="B109" s="122" t="s">
-        <v>836</v>
+        <v>789</v>
       </c>
       <c r="C109" s="123" t="s">
         <v>855</v>
@@ -6295,132 +6291,132 @@
     <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="116"/>
       <c r="B110" s="122" t="s">
-        <v>837</v>
+        <v>792</v>
       </c>
       <c r="C110" s="123" t="s">
-        <v>35</v>
+        <v>856</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="116"/>
       <c r="B111" s="122" t="s">
-        <v>838</v>
+        <v>794</v>
       </c>
       <c r="C111" s="123" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="116"/>
       <c r="B112" s="122" t="s">
-        <v>839</v>
-      </c>
-      <c r="C112" s="123"/>
+        <v>795</v>
+      </c>
+      <c r="C112" s="123" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="116"/>
-      <c r="B113" s="120" t="s">
-        <v>840</v>
-      </c>
-      <c r="C113" s="121"/>
-    </row>
-    <row r="114" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="116">
-        <v>2</v>
-      </c>
-      <c r="B114" s="155" t="s">
-        <v>815</v>
-      </c>
-      <c r="C114" s="156"/>
-    </row>
-    <row r="115" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="125" t="s">
+        <v>823</v>
+      </c>
+      <c r="C113" s="126" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="116"/>
+      <c r="B114" s="125" t="s">
+        <v>825</v>
+      </c>
+      <c r="C114" s="126" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="116"/>
-      <c r="B115" s="118" t="s">
+      <c r="B115" s="120" t="s">
+        <v>827</v>
+      </c>
+      <c r="C115" s="121" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="116">
+        <v>3</v>
+      </c>
+      <c r="B116" s="148" t="s">
+        <v>814</v>
+      </c>
+      <c r="C116" s="149"/>
+    </row>
+    <row r="117" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="116"/>
+      <c r="B117" s="118" t="s">
         <v>788</v>
       </c>
-      <c r="C115" s="119" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="116"/>
-      <c r="B116" s="122" t="s">
-        <v>789</v>
-      </c>
-      <c r="C116" s="123" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="116"/>
-      <c r="B117" s="122" t="s">
-        <v>793</v>
-      </c>
-      <c r="C117" s="123" t="s">
-        <v>858</v>
+      <c r="C117" s="119" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="116"/>
       <c r="B118" s="122" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C118" s="123" t="s">
-        <v>859</v>
+        <v>821</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="116"/>
       <c r="B119" s="122" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C119" s="123" t="s">
-        <v>860</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="116"/>
       <c r="B120" s="125" t="s">
-        <v>825</v>
+        <v>794</v>
       </c>
       <c r="C120" s="126" t="s">
-        <v>861</v>
+        <v>822</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="116"/>
       <c r="B121" s="125" t="s">
-        <v>827</v>
+        <v>795</v>
       </c>
       <c r="C121" s="126" t="s">
-        <v>862</v>
+        <v>824</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="116"/>
-      <c r="B122" s="120" t="s">
-        <v>829</v>
-      </c>
-      <c r="C122" s="121" t="s">
-        <v>863</v>
-      </c>
+      <c r="B122" s="120"/>
+      <c r="C122" s="121"/>
     </row>
     <row r="123" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="116">
-        <v>3</v>
-      </c>
-      <c r="B123" s="157" t="s">
-        <v>816</v>
-      </c>
-      <c r="C123" s="158"/>
+      <c r="A123" s="115">
+        <v>4</v>
+      </c>
+      <c r="B123" s="150" t="s">
+        <v>815</v>
+      </c>
+      <c r="C123" s="151"/>
     </row>
     <row r="124" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="116"/>
+      <c r="A124" s="124"/>
       <c r="B124" s="118" t="s">
         <v>788</v>
       </c>
       <c r="C124" s="119" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6429,49 +6425,43 @@
         <v>789</v>
       </c>
       <c r="C125" s="123" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="116"/>
       <c r="B126" s="122" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C126" s="123" t="s">
-        <v>89</v>
+        <v>818</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="116"/>
-      <c r="B127" s="125" t="s">
-        <v>795</v>
-      </c>
-      <c r="C127" s="126" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="116"/>
-      <c r="B128" s="125" t="s">
-        <v>796</v>
-      </c>
-      <c r="C128" s="126" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="116"/>
-      <c r="B129" s="120"/>
-      <c r="C129" s="121"/>
+      <c r="B127" s="120" t="s">
+        <v>794</v>
+      </c>
+      <c r="C127" s="121" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="152" t="s">
+        <v>863</v>
+      </c>
+      <c r="B129" s="153"/>
+      <c r="C129" s="154"/>
     </row>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="115">
-        <v>4</v>
-      </c>
-      <c r="B130" s="146" t="s">
-        <v>817</v>
-      </c>
-      <c r="C130" s="147"/>
+        <v>1</v>
+      </c>
+      <c r="B130" s="155" t="s">
+        <v>864</v>
+      </c>
+      <c r="C130" s="156"/>
     </row>
     <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="124"/>
@@ -6479,380 +6469,281 @@
         <v>788</v>
       </c>
       <c r="C131" s="119" t="s">
-        <v>818</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="116"/>
-      <c r="B132" s="122" t="s">
+      <c r="A132" s="124"/>
+      <c r="B132" s="127" t="s">
         <v>789</v>
       </c>
-      <c r="C132" s="123" t="s">
-        <v>819</v>
+      <c r="C132" s="128" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="116"/>
-      <c r="B133" s="122" t="s">
-        <v>793</v>
-      </c>
-      <c r="C133" s="123" t="s">
-        <v>820</v>
+      <c r="A133" s="124"/>
+      <c r="B133" s="127" t="s">
+        <v>792</v>
+      </c>
+      <c r="C133" s="128" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="116"/>
-      <c r="B134" s="120" t="s">
+      <c r="A134" s="124"/>
+      <c r="B134" s="127" t="s">
+        <v>794</v>
+      </c>
+      <c r="C134" s="128" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="124"/>
+      <c r="B135" s="127" t="s">
         <v>795</v>
       </c>
-      <c r="C134" s="121" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="150" t="s">
-        <v>865</v>
-      </c>
-      <c r="B136" s="151"/>
-      <c r="C136" s="152"/>
-    </row>
-    <row r="137" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="115">
-        <v>1</v>
-      </c>
-      <c r="B137" s="153" t="s">
-        <v>866</v>
-      </c>
-      <c r="C137" s="154"/>
-    </row>
-    <row r="138" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="128"/>
+    </row>
+    <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="124"/>
+      <c r="B136" s="127" t="s">
+        <v>823</v>
+      </c>
+      <c r="C136" s="128"/>
+    </row>
+    <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="124"/>
+      <c r="B137" s="127" t="s">
+        <v>825</v>
+      </c>
+      <c r="C137" s="128"/>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="124"/>
-      <c r="B138" s="118" t="s">
-        <v>788</v>
-      </c>
-      <c r="C138" s="119" t="s">
-        <v>101</v>
-      </c>
+      <c r="B138" s="127" t="s">
+        <v>827</v>
+      </c>
+      <c r="C138" s="128"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="124"/>
       <c r="B139" s="127" t="s">
-        <v>789</v>
-      </c>
-      <c r="C139" s="128" t="s">
-        <v>815</v>
-      </c>
+        <v>828</v>
+      </c>
+      <c r="C139" s="128"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="124"/>
-      <c r="B140" s="127" t="s">
-        <v>793</v>
-      </c>
-      <c r="C140" s="128" t="s">
-        <v>816</v>
-      </c>
+      <c r="A140" s="116"/>
+      <c r="B140" s="122" t="s">
+        <v>829</v>
+      </c>
+      <c r="C140" s="123"/>
     </row>
     <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="124"/>
-      <c r="B141" s="127" t="s">
-        <v>795</v>
-      </c>
-      <c r="C141" s="128" t="s">
-        <v>817</v>
-      </c>
+      <c r="A141" s="116"/>
+      <c r="B141" s="122" t="s">
+        <v>830</v>
+      </c>
+      <c r="C141" s="123"/>
     </row>
     <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="124"/>
-      <c r="B142" s="127" t="s">
-        <v>796</v>
-      </c>
-      <c r="C142" s="128"/>
+      <c r="A142" s="116"/>
+      <c r="B142" s="122" t="s">
+        <v>831</v>
+      </c>
+      <c r="C142" s="123"/>
     </row>
     <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="124"/>
-      <c r="B143" s="127" t="s">
-        <v>825</v>
-      </c>
-      <c r="C143" s="128"/>
+      <c r="A143" s="116"/>
+      <c r="B143" s="122" t="s">
+        <v>832</v>
+      </c>
+      <c r="C143" s="123"/>
     </row>
     <row r="144" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="124"/>
-      <c r="B144" s="127" t="s">
-        <v>827</v>
-      </c>
-      <c r="C144" s="128"/>
+      <c r="A144" s="116"/>
+      <c r="B144" s="122" t="s">
+        <v>833</v>
+      </c>
+      <c r="C144" s="123"/>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="124"/>
-      <c r="B145" s="127" t="s">
-        <v>829</v>
-      </c>
-      <c r="C145" s="128"/>
+      <c r="A145" s="116"/>
+      <c r="B145" s="122" t="s">
+        <v>834</v>
+      </c>
+      <c r="C145" s="123"/>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="124"/>
-      <c r="B146" s="127" t="s">
-        <v>830</v>
-      </c>
-      <c r="C146" s="128"/>
+      <c r="A146" s="116"/>
+      <c r="B146" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="C146" s="123"/>
     </row>
     <row r="147" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="116"/>
       <c r="B147" s="122" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="C147" s="123"/>
     </row>
     <row r="148" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="116"/>
       <c r="B148" s="122" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C148" s="123"/>
     </row>
     <row r="149" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="116"/>
-      <c r="B149" s="122" t="s">
-        <v>833</v>
-      </c>
-      <c r="C149" s="123"/>
-    </row>
-    <row r="150" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="116"/>
-      <c r="B150" s="122" t="s">
-        <v>834</v>
-      </c>
-      <c r="C150" s="123"/>
-    </row>
-    <row r="151" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="120" t="s">
+        <v>838</v>
+      </c>
+      <c r="C149" s="121"/>
+    </row>
+    <row r="150" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="116">
+        <v>2</v>
+      </c>
+      <c r="B150" s="146" t="s">
+        <v>865</v>
+      </c>
+      <c r="C150" s="147"/>
+    </row>
+    <row r="151" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="116"/>
-      <c r="B151" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="C151" s="123"/>
+      <c r="B151" s="118" t="s">
+        <v>788</v>
+      </c>
+      <c r="C151" s="119" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="152" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="116"/>
       <c r="B152" s="122" t="s">
-        <v>836</v>
-      </c>
-      <c r="C152" s="123"/>
+        <v>789</v>
+      </c>
+      <c r="C152" s="123" t="s">
+        <v>867</v>
+      </c>
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="116"/>
       <c r="B153" s="122" t="s">
-        <v>837</v>
-      </c>
-      <c r="C153" s="123"/>
+        <v>792</v>
+      </c>
+      <c r="C153" s="123" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="116"/>
       <c r="B154" s="122" t="s">
-        <v>838</v>
-      </c>
-      <c r="C154" s="123"/>
+        <v>794</v>
+      </c>
+      <c r="C154" s="123" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="116"/>
       <c r="B155" s="122" t="s">
-        <v>839</v>
+        <v>795</v>
       </c>
       <c r="C155" s="123"/>
     </row>
     <row r="156" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="116"/>
-      <c r="B156" s="120" t="s">
-        <v>840</v>
-      </c>
-      <c r="C156" s="121"/>
-    </row>
-    <row r="157" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="116">
-        <v>2</v>
-      </c>
-      <c r="B157" s="155" t="s">
-        <v>867</v>
-      </c>
-      <c r="C157" s="156"/>
-    </row>
-    <row r="158" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="125" t="s">
+        <v>823</v>
+      </c>
+      <c r="C156" s="126"/>
+    </row>
+    <row r="157" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="116"/>
+      <c r="B157" s="125" t="s">
+        <v>825</v>
+      </c>
+      <c r="C157" s="126"/>
+    </row>
+    <row r="158" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="116"/>
-      <c r="B158" s="118" t="s">
+      <c r="B158" s="120" t="s">
+        <v>827</v>
+      </c>
+      <c r="C158" s="121"/>
+    </row>
+    <row r="159" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="116">
+        <v>3</v>
+      </c>
+      <c r="B159" s="148" t="s">
+        <v>866</v>
+      </c>
+      <c r="C159" s="149"/>
+    </row>
+    <row r="160" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="116"/>
+      <c r="B160" s="118" t="s">
         <v>788</v>
       </c>
-      <c r="C158" s="119" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="116"/>
-      <c r="B159" s="122" t="s">
-        <v>789</v>
-      </c>
-      <c r="C159" s="123" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="116"/>
-      <c r="B160" s="122" t="s">
-        <v>793</v>
-      </c>
-      <c r="C160" s="123" t="s">
-        <v>870</v>
+      <c r="C160" s="119" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="116"/>
       <c r="B161" s="122" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C161" s="123" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="116"/>
       <c r="B162" s="122" t="s">
-        <v>796</v>
-      </c>
-      <c r="C162" s="123"/>
+        <v>792</v>
+      </c>
+      <c r="C162" s="123" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="116"/>
       <c r="B163" s="125" t="s">
-        <v>825</v>
-      </c>
-      <c r="C163" s="126"/>
+        <v>794</v>
+      </c>
+      <c r="C163" s="126" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="164" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="116"/>
       <c r="B164" s="125" t="s">
-        <v>827</v>
+        <v>795</v>
       </c>
       <c r="C164" s="126"/>
     </row>
     <row r="165" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="116"/>
       <c r="B165" s="120" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C165" s="121"/>
     </row>
-    <row r="166" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="116">
-        <v>3</v>
-      </c>
-      <c r="B166" s="157" t="s">
-        <v>868</v>
-      </c>
-      <c r="C166" s="158"/>
-    </row>
-    <row r="167" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="116"/>
-      <c r="B167" s="118" t="s">
-        <v>788</v>
-      </c>
-      <c r="C167" s="119" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="116"/>
-      <c r="B168" s="122" t="s">
-        <v>789</v>
-      </c>
-      <c r="C168" s="123" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="116"/>
-      <c r="B169" s="122" t="s">
-        <v>793</v>
-      </c>
-      <c r="C169" s="123" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="116"/>
-      <c r="B170" s="125" t="s">
-        <v>795</v>
-      </c>
-      <c r="C170" s="126" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="116"/>
-      <c r="B171" s="125" t="s">
-        <v>796</v>
-      </c>
-      <c r="C171" s="126"/>
-    </row>
-    <row r="172" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="116"/>
-      <c r="B172" s="120" t="s">
-        <v>825</v>
-      </c>
-      <c r="C172" s="121"/>
-    </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B114:C114"/>
+  <mergeCells count="58">
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B76:C76"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:C12"/>
@@ -6860,7 +6751,51 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="B130:C130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -13160,7 +13095,7 @@
         <v>658</v>
       </c>
       <c r="X54" s="44" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
@@ -13230,7 +13165,7 @@
         <v>658</v>
       </c>
       <c r="X55" s="44" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
@@ -13300,7 +13235,7 @@
         <v>658</v>
       </c>
       <c r="X56" s="44" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
@@ -13370,7 +13305,7 @@
         <v>658</v>
       </c>
       <c r="X57" s="44" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
@@ -13440,7 +13375,7 @@
         <v>658</v>
       </c>
       <c r="X58" s="44" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
@@ -22523,10 +22458,10 @@
     </row>
     <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="83" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
@@ -22537,7 +22472,7 @@
       <c r="I16" s="43"/>
       <c r="J16" s="44"/>
       <c r="K16" s="89" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="L16" s="87"/>
     </row>
@@ -22805,7 +22740,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="83" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="43"/>
@@ -22817,7 +22752,7 @@
       <c r="I30" s="43"/>
       <c r="J30" s="44"/>
       <c r="K30" s="89" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="L30" s="87">
         <v>3</v>
@@ -22905,7 +22840,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="83" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="43"/>
@@ -22917,13 +22852,13 @@
       <c r="I35" s="43"/>
       <c r="J35" s="44"/>
       <c r="K35" s="89" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="L35" s="87"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="83" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="43"/>
@@ -22935,7 +22870,7 @@
       <c r="I36" s="43"/>
       <c r="J36" s="44"/>
       <c r="K36" s="89" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="L36" s="87"/>
     </row>
@@ -22979,10 +22914,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="83" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C39" s="43" t="s">
         <v>745</v>
@@ -22995,7 +22930,7 @@
       <c r="I39" s="43"/>
       <c r="J39" s="44"/>
       <c r="K39" s="89" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="L39" s="87"/>
     </row>
@@ -23095,7 +23030,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="83" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="43"/>
@@ -23113,7 +23048,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="83" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="43"/>
@@ -23125,7 +23060,7 @@
       <c r="I46" s="43"/>
       <c r="J46" s="44"/>
       <c r="K46" s="89" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="L46" s="87">
         <v>3</v>
@@ -23133,10 +23068,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="83" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C47" s="43" t="s">
         <v>745</v>
@@ -23149,7 +23084,7 @@
       <c r="I47" s="43"/>
       <c r="J47" s="44"/>
       <c r="K47" s="89" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="L47" s="87"/>
     </row>
@@ -23813,7 +23748,7 @@
       <c r="I81" s="43"/>
       <c r="J81" s="44"/>
       <c r="K81" s="89" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="L81" s="87"/>
     </row>
@@ -24171,7 +24106,7 @@
         <v>372</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F3" s="129"/>
       <c r="G3" s="31"/>
@@ -24198,7 +24133,7 @@
         <v>382</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F4" s="129"/>
       <c r="G4" s="31"/>
@@ -24289,7 +24224,7 @@
         <v>492</v>
       </c>
       <c r="E8" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F8" s="133" t="s">
         <v>745</v>
@@ -24697,7 +24632,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="129" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B28" s="129" t="s">
         <v>582</v>
@@ -24706,12 +24641,12 @@
         <v>488</v>
       </c>
       <c r="M28" s="129" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="129" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B29" s="129" t="s">
         <v>582</v>
@@ -24721,7 +24656,7 @@
       </c>
       <c r="L29" s="32"/>
       <c r="M29" s="129" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="N29"/>
     </row>
@@ -24736,22 +24671,22 @@
         <v>488</v>
       </c>
       <c r="M30" s="129" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="129" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="129" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="129" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B33" s="129" t="s">
         <v>582</v>
@@ -24760,15 +24695,15 @@
         <v>488</v>
       </c>
       <c r="E33" s="129" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="M33" s="129" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="129" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B34" s="129" t="s">
         <v>374</v>
@@ -24777,10 +24712,10 @@
         <v>488</v>
       </c>
       <c r="E34" s="129" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="M34" s="129" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="N34" s="34">
         <v>5</v>
@@ -24788,7 +24723,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="129" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B35" s="129" t="s">
         <v>374</v>
@@ -24797,15 +24732,15 @@
         <v>488</v>
       </c>
       <c r="E35" s="129" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="M35" s="129" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="129" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B36" s="129" t="s">
         <v>374</v>
@@ -24814,15 +24749,15 @@
         <v>488</v>
       </c>
       <c r="E36" s="129" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="M36" s="129" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="129" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B37" s="129" t="s">
         <v>374</v>
@@ -24831,15 +24766,15 @@
         <v>488</v>
       </c>
       <c r="E37" s="129" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="M37" s="129" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="129" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B38" s="129" t="s">
         <v>374</v>
@@ -24848,10 +24783,10 @@
         <v>488</v>
       </c>
       <c r="E38" s="129" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="M38" s="129" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="N38" s="34">
         <v>5</v>
@@ -24868,12 +24803,12 @@
         <v>488</v>
       </c>
       <c r="M39" s="130" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="130" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B40" s="130" t="s">
         <v>582</v>
@@ -24882,41 +24817,41 @@
         <v>488</v>
       </c>
       <c r="M40" s="130" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="130" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B41" s="130" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D41" s="130" t="s">
         <v>488</v>
       </c>
       <c r="E41" s="130" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="M41" s="130" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="130" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B42" s="130" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D42" s="130" t="s">
         <v>488</v>
       </c>
       <c r="E42" s="130" t="s">
+        <v>926</v>
+      </c>
+      <c r="M42" s="130" t="s">
         <v>928</v>
-      </c>
-      <c r="M42" s="130" t="s">
-        <v>930</v>
       </c>
       <c r="N42" s="34">
         <v>3</v>
@@ -24924,7 +24859,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="131" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B43" s="131" t="s">
         <v>374</v>
@@ -24933,10 +24868,10 @@
         <v>488</v>
       </c>
       <c r="E43" s="131" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="M43" s="131" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="N43" s="34">
         <v>3</v>
@@ -24944,7 +24879,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="131" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B44" s="131" t="s">
         <v>374</v>
@@ -24953,10 +24888,10 @@
         <v>488</v>
       </c>
       <c r="E44" s="131" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="M44" s="131" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="N44" s="34">
         <v>3</v>
@@ -24964,7 +24899,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="131" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B45" s="131" t="s">
         <v>374</v>
@@ -24973,10 +24908,10 @@
         <v>488</v>
       </c>
       <c r="E45" s="131" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="M45" s="131" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="N45" s="34">
         <v>3</v>
@@ -24984,7 +24919,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="133" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B46" s="133" t="s">
         <v>374</v>
@@ -24993,10 +24928,10 @@
         <v>422</v>
       </c>
       <c r="E46" s="133" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="M46" s="133" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="N46" s="34">
         <v>3</v>
@@ -25004,7 +24939,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="134" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B47" s="134" t="s">
         <v>375</v>
@@ -25013,16 +24948,16 @@
         <v>492</v>
       </c>
       <c r="E47" s="134" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F47" s="134" t="s">
         <v>745</v>
       </c>
       <c r="G47" s="134" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="M47" s="134" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="N47" s="34">
         <v>3</v>
@@ -25030,7 +24965,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="134" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B48" s="134" t="s">
         <v>375</v>
@@ -25039,30 +24974,30 @@
         <v>492</v>
       </c>
       <c r="E48" s="134" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F48" s="134" t="s">
         <v>745</v>
       </c>
       <c r="M48" s="134" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="134" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B49" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D49" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E49" s="134" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="M49" s="134" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="N49" s="34">
         <v>3</v>
@@ -25070,19 +25005,19 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="134" t="s">
+        <v>951</v>
+      </c>
+      <c r="B50" s="134" t="s">
         <v>953</v>
-      </c>
-      <c r="B50" s="134" t="s">
-        <v>955</v>
       </c>
       <c r="D50" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E50" s="134" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="M50" s="134" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="N50" s="34">
         <v>3</v>
@@ -25090,53 +25025,53 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="134" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B51" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D51" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E51" s="134" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="M51" s="134" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="134" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B52" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D52" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E52" s="134" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="M52" s="134" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="134" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B53" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D53" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E53" s="134" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M53" s="134" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="N53" s="34">
         <v>3</v>
@@ -25144,19 +25079,19 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="134" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B54" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D54" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E54" s="134" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="M54" s="134" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="N54" s="34">
         <v>3</v>
@@ -25164,19 +25099,19 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="134" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B55" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D55" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E55" s="134" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="M55" s="135" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="N55" s="136">
         <v>3</v>
@@ -25186,19 +25121,19 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="134" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B56" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D56" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E56" s="134" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M56" s="134" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="N56" s="34">
         <v>3</v>
@@ -25206,19 +25141,19 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="134" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B57" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D57" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E57" s="134" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="M57" s="134" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="N57" s="34">
         <v>3</v>
@@ -25226,19 +25161,19 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="134" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B58" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D58" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E58" s="134" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="M58" s="134" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="N58" s="34">
         <v>3</v>
@@ -25246,19 +25181,19 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="134" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B59" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D59" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E59" s="134" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="M59" s="134" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="N59" s="34">
         <v>3</v>
@@ -25266,53 +25201,53 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="134" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B60" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D60" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E60" s="134" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="M60" s="134" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="134" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B61" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D61" s="134" t="s">
         <v>382</v>
       </c>
       <c r="E61" s="134" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M61" s="134" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="134" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B62" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D62" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E62" s="134" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="M62" s="134" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N62" s="34">
         <v>3</v>
@@ -25320,19 +25255,19 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="134" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B63" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D63" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E63" s="134" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M63" s="134" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="N63" s="34">
         <v>3</v>
@@ -25340,19 +25275,19 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="134" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B64" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D64" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E64" s="134" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="M64" s="134" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="N64" s="34">
         <v>4</v>
@@ -25360,19 +25295,19 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="134" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B65" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D65" s="134" t="s">
         <v>422</v>
       </c>
       <c r="E65" s="134" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="M65" s="134" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="N65" s="34">
         <v>3</v>
@@ -25380,36 +25315,36 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="134" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B66" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D66" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E66" s="134" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="M66" s="134" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="134" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B67" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D67" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E67" s="134" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M67" s="134" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="N67" s="34">
         <v>3</v>
@@ -25417,19 +25352,19 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="134" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B68" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D68" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E68" s="134" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="M68" s="134" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -25437,16 +25372,16 @@
         <v>483</v>
       </c>
       <c r="B69" s="134" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D69" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E69" s="134" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M69" s="134" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
   </sheetData>
@@ -25501,34 +25436,34 @@
         <v>363</v>
       </c>
       <c r="B1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E1" s="137" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="G1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H1" t="s">
         <v>376</v>
       </c>
       <c r="I1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="J1" t="s">
         <v>491</v>
       </c>
       <c r="K1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="L1" t="s">
         <v>364</v>
@@ -25537,7 +25472,7 @@
         <v>236</v>
       </c>
       <c r="N1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="O1" s="3">
         <v>1</v>
@@ -25692,25 +25627,25 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="137" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C2" s="137" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D2" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="137" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F2" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G2" s="137" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="H2" s="137">
         <v>3</v>
@@ -25723,25 +25658,25 @@
       </c>
       <c r="K2" s="137"/>
       <c r="L2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="M2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="N2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="T2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="X2" t="s">
         <v>1016</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
         <v>1017</v>
-      </c>
-      <c r="X2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
@@ -25749,22 +25684,22 @@
         <v>501</v>
       </c>
       <c r="B3" s="137" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D3" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="137" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F3" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G3" s="137" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="H3" s="137">
         <v>5</v>
@@ -25777,13 +25712,13 @@
       </c>
       <c r="K3" s="137"/>
       <c r="L3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="M3" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="N3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="O3" s="138"/>
       <c r="P3" s="138"/>
@@ -25792,25 +25727,25 @@
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B4" s="137" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D4" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="137" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F4" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G4" s="137" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="H4" s="137">
         <v>4</v>
@@ -25823,19 +25758,19 @@
       </c>
       <c r="K4" s="137"/>
       <c r="L4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD4" t="s">
         <v>1020</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.25">
@@ -25843,20 +25778,20 @@
         <v>493</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C5" s="137" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D5" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="137" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F5" s="137"/>
       <c r="G5" s="137" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="H5" s="137">
         <v>4</v>
@@ -25871,13 +25806,13 @@
         <v>247</v>
       </c>
       <c r="L5" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="M5" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="N5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="U5" s="138">
         <v>0.18</v>
@@ -25897,20 +25832,20 @@
         <v>497</v>
       </c>
       <c r="B6" s="137" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C6" s="137" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D6" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="137" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F6" s="137"/>
       <c r="G6" s="137" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="H6" s="137">
         <v>3</v>
@@ -25919,19 +25854,19 @@
         <v>1</v>
       </c>
       <c r="J6" s="137" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="K6" s="137" t="s">
         <v>246</v>
       </c>
       <c r="L6" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="M6" s="139" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="N6" s="137" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="T6" s="138"/>
       <c r="X6" s="138"/>
@@ -25942,10 +25877,10 @@
         <v>558</v>
       </c>
       <c r="B7" s="137" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D7" s="137" t="s">
         <v>33</v>
@@ -25955,7 +25890,7 @@
       </c>
       <c r="F7" s="137"/>
       <c r="G7" s="137" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="H7" s="137">
         <v>4</v>
@@ -25967,46 +25902,46 @@
         <v>3</v>
       </c>
       <c r="K7" s="137" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="L7" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="M7" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="R7" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="V7" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="Z7" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="AD7" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B8" s="137" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C8" s="137" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D8" s="137" t="s">
         <v>1048</v>
       </c>
-      <c r="B8" s="137" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C8" s="137" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D8" s="137" t="s">
-        <v>1050</v>
-      </c>
       <c r="E8" s="137" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F8" s="137"/>
       <c r="G8" s="137" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="H8" s="137">
         <v>0</v>
@@ -26019,10 +25954,10 @@
       </c>
       <c r="K8" s="137"/>
       <c r="L8" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="M8" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="W8">
         <v>2</v>
@@ -26039,22 +25974,22 @@
         <v>490</v>
       </c>
       <c r="B9" s="137" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C9" s="137" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D9" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="137" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F9" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G9" s="137" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="H9" s="137">
         <v>4</v>
@@ -26069,10 +26004,10 @@
         <v>246</v>
       </c>
       <c r="L9" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="M9" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
@@ -26080,20 +26015,20 @@
         <v>496</v>
       </c>
       <c r="B10" s="137" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D10" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="137" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F10" s="137"/>
       <c r="G10" s="137" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="H10" s="137">
         <v>4</v>
@@ -26108,13 +26043,13 @@
         <v>246</v>
       </c>
       <c r="L10" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M10" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="N10" s="139" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
@@ -26122,10 +26057,10 @@
         <v>565</v>
       </c>
       <c r="B11" s="137" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>33</v>
@@ -26135,7 +26070,7 @@
       </c>
       <c r="F11" s="137"/>
       <c r="G11" s="137" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="H11" s="137">
         <v>1</v>
@@ -26150,25 +26085,25 @@
         <v>246</v>
       </c>
       <c r="L11" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N11" s="139" t="s">
+        <v>1070</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1053</v>
+      </c>
+      <c r="X11" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AC11" t="s">
         <v>1071</v>
       </c>
-      <c r="M11" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N11" s="139" t="s">
-        <v>1072</v>
-      </c>
-      <c r="S11" t="s">
-        <v>1055</v>
-      </c>
-      <c r="X11" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>1073</v>
-      </c>
       <c r="AH11" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
@@ -27649,10 +27584,10 @@
     </row>
     <row r="19" spans="1:15" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="104" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -28159,7 +28094,7 @@
         <v>278</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -28412,19 +28347,19 @@
         <v>773</v>
       </c>
       <c r="K61" s="76" t="s">
+        <v>908</v>
+      </c>
+      <c r="L61" s="76" t="s">
+        <v>909</v>
+      </c>
+      <c r="M61" s="76" t="s">
         <v>910</v>
       </c>
-      <c r="L61" s="76" t="s">
+      <c r="N61" s="76" t="s">
         <v>911</v>
       </c>
-      <c r="M61" s="76" t="s">
+      <c r="O61" s="74" t="s">
         <v>912</v>
-      </c>
-      <c r="N61" s="76" t="s">
-        <v>913</v>
-      </c>
-      <c r="O61" s="74" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" firstSheet="12" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="TODO - Quick Battle" sheetId="37" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Perks" sheetId="34" r:id="rId22"/>
     <sheet name="Abilities" sheetId="35" r:id="rId23"/>
     <sheet name="Spells" sheetId="39" r:id="rId24"/>
+    <sheet name="Level Guide" sheetId="40" r:id="rId25"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -643,7 +644,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="1085">
   <si>
     <t>Fishing</t>
   </si>
@@ -3862,6 +3863,42 @@
   </si>
   <si>
     <t>Fires a dart at target that if hits, does DoT damage as well as initial damage</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Militia</t>
+  </si>
+  <si>
+    <t>Green Soldier</t>
+  </si>
+  <si>
+    <t>Veteran</t>
+  </si>
+  <si>
+    <t>Experienced</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Demigod</t>
+  </si>
+  <si>
+    <t>Godling</t>
+  </si>
+  <si>
+    <t>Lesser Deity</t>
+  </si>
+  <si>
+    <t>Deity</t>
+  </si>
+  <si>
+    <t>Greater Deity</t>
   </si>
 </sst>
 </file>
@@ -5049,22 +5086,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5082,10 +5113,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5439,7 +5476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -5455,29 +5492,29 @@
       <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="150" t="s">
         <v>782</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="154"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="152"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="153" t="s">
         <v>783</v>
       </c>
-      <c r="C3" s="156"/>
+      <c r="C3" s="154"/>
     </row>
     <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="116">
         <v>2</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="155" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="156"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="116"/>
@@ -5528,10 +5565,10 @@
       <c r="A10" s="116">
         <v>3</v>
       </c>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="157" t="s">
         <v>785</v>
       </c>
-      <c r="C10" s="149"/>
+      <c r="C10" s="158"/>
     </row>
     <row r="11" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="116"/>
@@ -5546,10 +5583,10 @@
       <c r="A12" s="116">
         <v>4</v>
       </c>
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="146" t="s">
         <v>786</v>
       </c>
-      <c r="C12" s="151"/>
+      <c r="C12" s="147"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="116"/>
@@ -5564,10 +5601,10 @@
       <c r="A14" s="116">
         <v>5</v>
       </c>
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="146" t="s">
         <v>787</v>
       </c>
-      <c r="C14" s="151"/>
+      <c r="C14" s="147"/>
     </row>
     <row r="15" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="116"/>
@@ -5582,10 +5619,10 @@
       <c r="A16" s="117">
         <v>6</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="148" t="s">
         <v>791</v>
       </c>
-      <c r="C16" s="158"/>
+      <c r="C16" s="149"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="116"/>
@@ -5600,46 +5637,46 @@
       <c r="A18" s="117">
         <v>7</v>
       </c>
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="148" t="s">
         <v>913</v>
       </c>
-      <c r="C18" s="158"/>
+      <c r="C18" s="149"/>
     </row>
     <row r="19" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="132">
         <v>8</v>
       </c>
-      <c r="B19" s="157" t="s">
+      <c r="B19" s="148" t="s">
         <v>1000</v>
       </c>
-      <c r="C19" s="158"/>
+      <c r="C19" s="149"/>
     </row>
     <row r="20" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="132">
         <v>9</v>
       </c>
-      <c r="B20" s="157" t="s">
+      <c r="B20" s="148" t="s">
         <v>914</v>
       </c>
-      <c r="C20" s="158"/>
+      <c r="C20" s="149"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="152" t="s">
+      <c r="A23" s="150" t="s">
         <v>793</v>
       </c>
-      <c r="B23" s="153"/>
-      <c r="C23" s="154"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="152"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="115">
         <v>1</v>
       </c>
-      <c r="B24" s="155" t="s">
+      <c r="B24" s="153" t="s">
         <v>782</v>
       </c>
-      <c r="C24" s="156"/>
+      <c r="C24" s="154"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="116"/>
@@ -5659,10 +5696,10 @@
       <c r="A27" s="116">
         <v>2</v>
       </c>
-      <c r="B27" s="146" t="s">
+      <c r="B27" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="147"/>
+      <c r="C27" s="156"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="116"/>
@@ -5682,10 +5719,10 @@
       <c r="A30" s="116">
         <v>3</v>
       </c>
-      <c r="B30" s="146" t="s">
+      <c r="B30" s="155" t="s">
         <v>1001</v>
       </c>
-      <c r="C30" s="147"/>
+      <c r="C30" s="156"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="116"/>
@@ -5707,20 +5744,20 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="152" t="s">
+      <c r="A34" s="150" t="s">
         <v>797</v>
       </c>
-      <c r="B34" s="153"/>
-      <c r="C34" s="154"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="152"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="115">
         <v>1</v>
       </c>
-      <c r="B35" s="155" t="s">
+      <c r="B35" s="153" t="s">
         <v>798</v>
       </c>
-      <c r="C35" s="156"/>
+      <c r="C35" s="154"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="116"/>
@@ -5760,20 +5797,20 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="152" t="s">
+      <c r="A41" s="150" t="s">
         <v>802</v>
       </c>
-      <c r="B41" s="153"/>
-      <c r="C41" s="154"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="152"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="115">
         <v>1</v>
       </c>
-      <c r="B42" s="155" t="s">
+      <c r="B42" s="153" t="s">
         <v>803</v>
       </c>
-      <c r="C42" s="156"/>
+      <c r="C42" s="154"/>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="116"/>
@@ -5797,10 +5834,10 @@
       <c r="A45" s="115">
         <v>1</v>
       </c>
-      <c r="B45" s="155" t="s">
+      <c r="B45" s="153" t="s">
         <v>805</v>
       </c>
-      <c r="C45" s="156"/>
+      <c r="C45" s="154"/>
     </row>
     <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="116"/>
@@ -5836,37 +5873,37 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="152" t="s">
+      <c r="A51" s="150" t="s">
         <v>188</v>
       </c>
-      <c r="B51" s="153"/>
-      <c r="C51" s="154"/>
+      <c r="B51" s="151"/>
+      <c r="C51" s="152"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="115">
         <v>1</v>
       </c>
-      <c r="B52" s="155" t="s">
+      <c r="B52" s="153" t="s">
         <v>810</v>
       </c>
-      <c r="C52" s="156"/>
+      <c r="C52" s="154"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="152" t="s">
+      <c r="A54" s="150" t="s">
         <v>790</v>
       </c>
-      <c r="B54" s="153"/>
-      <c r="C54" s="154"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="152"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="115">
         <v>1</v>
       </c>
-      <c r="B55" s="148" t="s">
+      <c r="B55" s="157" t="s">
         <v>783</v>
       </c>
-      <c r="C55" s="149"/>
+      <c r="C55" s="158"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="116">
@@ -5881,54 +5918,54 @@
       <c r="A57" s="116">
         <v>3</v>
       </c>
-      <c r="B57" s="150" t="s">
+      <c r="B57" s="146" t="s">
         <v>785</v>
       </c>
-      <c r="C57" s="151"/>
+      <c r="C57" s="147"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="116">
         <v>4</v>
       </c>
-      <c r="B58" s="150" t="s">
+      <c r="B58" s="146" t="s">
         <v>786</v>
       </c>
-      <c r="C58" s="151"/>
+      <c r="C58" s="147"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="116">
         <v>5</v>
       </c>
-      <c r="B59" s="150" t="s">
+      <c r="B59" s="146" t="s">
         <v>787</v>
       </c>
-      <c r="C59" s="151"/>
+      <c r="C59" s="147"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="117">
         <v>6</v>
       </c>
-      <c r="B60" s="157" t="s">
+      <c r="B60" s="148" t="s">
         <v>791</v>
       </c>
-      <c r="C60" s="158"/>
+      <c r="C60" s="149"/>
     </row>
     <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="152" t="s">
+      <c r="A62" s="150" t="s">
         <v>811</v>
       </c>
-      <c r="B62" s="153"/>
-      <c r="C62" s="154"/>
+      <c r="B62" s="151"/>
+      <c r="C62" s="152"/>
     </row>
     <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="115">
         <v>1</v>
       </c>
-      <c r="B63" s="148" t="s">
+      <c r="B63" s="157" t="s">
         <v>783</v>
       </c>
-      <c r="C63" s="149"/>
+      <c r="C63" s="158"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="116">
@@ -5943,52 +5980,52 @@
       <c r="A65" s="116">
         <v>3</v>
       </c>
-      <c r="B65" s="150" t="s">
+      <c r="B65" s="146" t="s">
         <v>785</v>
       </c>
-      <c r="C65" s="151"/>
+      <c r="C65" s="147"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="116">
         <v>4</v>
       </c>
-      <c r="B66" s="150" t="s">
+      <c r="B66" s="146" t="s">
         <v>786</v>
       </c>
-      <c r="C66" s="151"/>
+      <c r="C66" s="147"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="116">
         <v>5</v>
       </c>
-      <c r="B67" s="150" t="s">
+      <c r="B67" s="146" t="s">
         <v>787</v>
       </c>
-      <c r="C67" s="151"/>
+      <c r="C67" s="147"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="117">
         <v>6</v>
       </c>
-      <c r="B68" s="157" t="s">
+      <c r="B68" s="148" t="s">
         <v>791</v>
       </c>
-      <c r="C68" s="158"/>
+      <c r="C68" s="149"/>
     </row>
     <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="152" t="s">
+      <c r="A70" s="150" t="s">
         <v>1001</v>
       </c>
-      <c r="B70" s="153"/>
-      <c r="C70" s="154"/>
+      <c r="B70" s="151"/>
+      <c r="C70" s="152"/>
     </row>
     <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="115">
         <v>1</v>
       </c>
-      <c r="B71" s="148"/>
-      <c r="C71" s="149"/>
+      <c r="B71" s="157"/>
+      <c r="C71" s="158"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="116"/>
@@ -5997,40 +6034,40 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="116"/>
-      <c r="B73" s="150"/>
-      <c r="C73" s="151"/>
+      <c r="B73" s="146"/>
+      <c r="C73" s="147"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="116"/>
-      <c r="B74" s="150"/>
-      <c r="C74" s="151"/>
+      <c r="B74" s="146"/>
+      <c r="C74" s="147"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="116"/>
-      <c r="B75" s="150"/>
-      <c r="C75" s="151"/>
+      <c r="B75" s="146"/>
+      <c r="C75" s="147"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="117"/>
-      <c r="B76" s="157"/>
-      <c r="C76" s="158"/>
+      <c r="B76" s="148"/>
+      <c r="C76" s="149"/>
     </row>
     <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="152" t="s">
+      <c r="A78" s="150" t="s">
         <v>812</v>
       </c>
-      <c r="B78" s="153"/>
-      <c r="C78" s="154"/>
+      <c r="B78" s="151"/>
+      <c r="C78" s="152"/>
     </row>
     <row r="79" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="115">
         <v>1</v>
       </c>
-      <c r="B79" s="148" t="s">
+      <c r="B79" s="157" t="s">
         <v>783</v>
       </c>
-      <c r="C79" s="149"/>
+      <c r="C79" s="158"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="116">
@@ -6045,54 +6082,54 @@
       <c r="A81" s="116">
         <v>3</v>
       </c>
-      <c r="B81" s="150" t="s">
+      <c r="B81" s="146" t="s">
         <v>785</v>
       </c>
-      <c r="C81" s="151"/>
+      <c r="C81" s="147"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="116">
         <v>4</v>
       </c>
-      <c r="B82" s="150" t="s">
+      <c r="B82" s="146" t="s">
         <v>786</v>
       </c>
-      <c r="C82" s="151"/>
+      <c r="C82" s="147"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="116">
         <v>5</v>
       </c>
-      <c r="B83" s="150" t="s">
+      <c r="B83" s="146" t="s">
         <v>787</v>
       </c>
-      <c r="C83" s="151"/>
+      <c r="C83" s="147"/>
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="117">
         <v>6</v>
       </c>
-      <c r="B84" s="157" t="s">
+      <c r="B84" s="148" t="s">
         <v>791</v>
       </c>
-      <c r="C84" s="158"/>
+      <c r="C84" s="149"/>
     </row>
     <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="152" t="s">
+      <c r="A86" s="150" t="s">
         <v>862</v>
       </c>
-      <c r="B86" s="153"/>
-      <c r="C86" s="154"/>
+      <c r="B86" s="151"/>
+      <c r="C86" s="152"/>
     </row>
     <row r="87" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="115">
         <v>1</v>
       </c>
-      <c r="B87" s="155" t="s">
+      <c r="B87" s="153" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="156"/>
+      <c r="C87" s="154"/>
     </row>
     <row r="88" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="124"/>
@@ -6265,10 +6302,10 @@
       <c r="A107" s="116">
         <v>2</v>
       </c>
-      <c r="B107" s="146" t="s">
+      <c r="B107" s="155" t="s">
         <v>813</v>
       </c>
-      <c r="C107" s="147"/>
+      <c r="C107" s="156"/>
     </row>
     <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="116"/>
@@ -6346,10 +6383,10 @@
       <c r="A116" s="116">
         <v>3</v>
       </c>
-      <c r="B116" s="148" t="s">
+      <c r="B116" s="157" t="s">
         <v>814</v>
       </c>
-      <c r="C116" s="149"/>
+      <c r="C116" s="158"/>
     </row>
     <row r="117" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="116"/>
@@ -6405,10 +6442,10 @@
       <c r="A123" s="115">
         <v>4</v>
       </c>
-      <c r="B123" s="150" t="s">
+      <c r="B123" s="146" t="s">
         <v>815</v>
       </c>
-      <c r="C123" s="151"/>
+      <c r="C123" s="147"/>
     </row>
     <row r="124" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="124"/>
@@ -6448,20 +6485,20 @@
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="129" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="152" t="s">
+      <c r="A129" s="150" t="s">
         <v>863</v>
       </c>
-      <c r="B129" s="153"/>
-      <c r="C129" s="154"/>
+      <c r="B129" s="151"/>
+      <c r="C129" s="152"/>
     </row>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="115">
         <v>1</v>
       </c>
-      <c r="B130" s="155" t="s">
+      <c r="B130" s="153" t="s">
         <v>864</v>
       </c>
-      <c r="C130" s="156"/>
+      <c r="C130" s="154"/>
     </row>
     <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="124"/>
@@ -6608,10 +6645,10 @@
       <c r="A150" s="116">
         <v>2</v>
       </c>
-      <c r="B150" s="146" t="s">
+      <c r="B150" s="155" t="s">
         <v>865</v>
       </c>
-      <c r="C150" s="147"/>
+      <c r="C150" s="156"/>
     </row>
     <row r="151" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="116"/>
@@ -6681,10 +6718,10 @@
       <c r="A159" s="116">
         <v>3</v>
       </c>
-      <c r="B159" s="148" t="s">
+      <c r="B159" s="157" t="s">
         <v>866</v>
       </c>
-      <c r="C159" s="149"/>
+      <c r="C159" s="158"/>
     </row>
     <row r="160" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="116"/>
@@ -6738,6 +6775,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
@@ -6754,48 +6833,6 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="B130:C130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -26430,6 +26467,128 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A37"/>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -5086,16 +5086,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5113,16 +5119,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5492,29 +5492,29 @@
       <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="152" t="s">
         <v>782</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="152"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="154"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="155" t="s">
         <v>783</v>
       </c>
-      <c r="C3" s="154"/>
+      <c r="C3" s="156"/>
     </row>
     <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="116">
         <v>2</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="146" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="156"/>
+      <c r="C4" s="147"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="116"/>
@@ -5565,10 +5565,10 @@
       <c r="A10" s="116">
         <v>3</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="148" t="s">
         <v>785</v>
       </c>
-      <c r="C10" s="158"/>
+      <c r="C10" s="149"/>
     </row>
     <row r="11" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="116"/>
@@ -5583,10 +5583,10 @@
       <c r="A12" s="116">
         <v>4</v>
       </c>
-      <c r="B12" s="146" t="s">
+      <c r="B12" s="150" t="s">
         <v>786</v>
       </c>
-      <c r="C12" s="147"/>
+      <c r="C12" s="151"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="116"/>
@@ -5601,10 +5601,10 @@
       <c r="A14" s="116">
         <v>5</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="150" t="s">
         <v>787</v>
       </c>
-      <c r="C14" s="147"/>
+      <c r="C14" s="151"/>
     </row>
     <row r="15" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="116"/>
@@ -5619,10 +5619,10 @@
       <c r="A16" s="117">
         <v>6</v>
       </c>
-      <c r="B16" s="148" t="s">
+      <c r="B16" s="157" t="s">
         <v>791</v>
       </c>
-      <c r="C16" s="149"/>
+      <c r="C16" s="158"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="116"/>
@@ -5637,46 +5637,46 @@
       <c r="A18" s="117">
         <v>7</v>
       </c>
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="157" t="s">
         <v>913</v>
       </c>
-      <c r="C18" s="149"/>
+      <c r="C18" s="158"/>
     </row>
     <row r="19" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="132">
         <v>8</v>
       </c>
-      <c r="B19" s="148" t="s">
+      <c r="B19" s="157" t="s">
         <v>1000</v>
       </c>
-      <c r="C19" s="149"/>
+      <c r="C19" s="158"/>
     </row>
     <row r="20" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="132">
         <v>9</v>
       </c>
-      <c r="B20" s="148" t="s">
+      <c r="B20" s="157" t="s">
         <v>914</v>
       </c>
-      <c r="C20" s="149"/>
+      <c r="C20" s="158"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="150" t="s">
+      <c r="A23" s="152" t="s">
         <v>793</v>
       </c>
-      <c r="B23" s="151"/>
-      <c r="C23" s="152"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="154"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="115">
         <v>1</v>
       </c>
-      <c r="B24" s="153" t="s">
+      <c r="B24" s="155" t="s">
         <v>782</v>
       </c>
-      <c r="C24" s="154"/>
+      <c r="C24" s="156"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="116"/>
@@ -5696,10 +5696,10 @@
       <c r="A27" s="116">
         <v>2</v>
       </c>
-      <c r="B27" s="155" t="s">
+      <c r="B27" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="156"/>
+      <c r="C27" s="147"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="116"/>
@@ -5719,10 +5719,10 @@
       <c r="A30" s="116">
         <v>3</v>
       </c>
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="146" t="s">
         <v>1001</v>
       </c>
-      <c r="C30" s="156"/>
+      <c r="C30" s="147"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="116"/>
@@ -5744,20 +5744,20 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="152" t="s">
         <v>797</v>
       </c>
-      <c r="B34" s="151"/>
-      <c r="C34" s="152"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="154"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="115">
         <v>1</v>
       </c>
-      <c r="B35" s="153" t="s">
+      <c r="B35" s="155" t="s">
         <v>798</v>
       </c>
-      <c r="C35" s="154"/>
+      <c r="C35" s="156"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="116"/>
@@ -5797,20 +5797,20 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="150" t="s">
+      <c r="A41" s="152" t="s">
         <v>802</v>
       </c>
-      <c r="B41" s="151"/>
-      <c r="C41" s="152"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="154"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="115">
         <v>1</v>
       </c>
-      <c r="B42" s="153" t="s">
+      <c r="B42" s="155" t="s">
         <v>803</v>
       </c>
-      <c r="C42" s="154"/>
+      <c r="C42" s="156"/>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="116"/>
@@ -5834,10 +5834,10 @@
       <c r="A45" s="115">
         <v>1</v>
       </c>
-      <c r="B45" s="153" t="s">
+      <c r="B45" s="155" t="s">
         <v>805</v>
       </c>
-      <c r="C45" s="154"/>
+      <c r="C45" s="156"/>
     </row>
     <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="116"/>
@@ -5873,37 +5873,37 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="150" t="s">
+      <c r="A51" s="152" t="s">
         <v>188</v>
       </c>
-      <c r="B51" s="151"/>
-      <c r="C51" s="152"/>
+      <c r="B51" s="153"/>
+      <c r="C51" s="154"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="115">
         <v>1</v>
       </c>
-      <c r="B52" s="153" t="s">
+      <c r="B52" s="155" t="s">
         <v>810</v>
       </c>
-      <c r="C52" s="154"/>
+      <c r="C52" s="156"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="150" t="s">
+      <c r="A54" s="152" t="s">
         <v>790</v>
       </c>
-      <c r="B54" s="151"/>
-      <c r="C54" s="152"/>
+      <c r="B54" s="153"/>
+      <c r="C54" s="154"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="115">
         <v>1</v>
       </c>
-      <c r="B55" s="157" t="s">
+      <c r="B55" s="148" t="s">
         <v>783</v>
       </c>
-      <c r="C55" s="158"/>
+      <c r="C55" s="149"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="116">
@@ -5918,54 +5918,54 @@
       <c r="A57" s="116">
         <v>3</v>
       </c>
-      <c r="B57" s="146" t="s">
+      <c r="B57" s="150" t="s">
         <v>785</v>
       </c>
-      <c r="C57" s="147"/>
+      <c r="C57" s="151"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="116">
         <v>4</v>
       </c>
-      <c r="B58" s="146" t="s">
+      <c r="B58" s="150" t="s">
         <v>786</v>
       </c>
-      <c r="C58" s="147"/>
+      <c r="C58" s="151"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="116">
         <v>5</v>
       </c>
-      <c r="B59" s="146" t="s">
+      <c r="B59" s="150" t="s">
         <v>787</v>
       </c>
-      <c r="C59" s="147"/>
+      <c r="C59" s="151"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="117">
         <v>6</v>
       </c>
-      <c r="B60" s="148" t="s">
+      <c r="B60" s="157" t="s">
         <v>791</v>
       </c>
-      <c r="C60" s="149"/>
+      <c r="C60" s="158"/>
     </row>
     <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="150" t="s">
+      <c r="A62" s="152" t="s">
         <v>811</v>
       </c>
-      <c r="B62" s="151"/>
-      <c r="C62" s="152"/>
+      <c r="B62" s="153"/>
+      <c r="C62" s="154"/>
     </row>
     <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="115">
         <v>1</v>
       </c>
-      <c r="B63" s="157" t="s">
+      <c r="B63" s="148" t="s">
         <v>783</v>
       </c>
-      <c r="C63" s="158"/>
+      <c r="C63" s="149"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="116">
@@ -5980,52 +5980,52 @@
       <c r="A65" s="116">
         <v>3</v>
       </c>
-      <c r="B65" s="146" t="s">
+      <c r="B65" s="150" t="s">
         <v>785</v>
       </c>
-      <c r="C65" s="147"/>
+      <c r="C65" s="151"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="116">
         <v>4</v>
       </c>
-      <c r="B66" s="146" t="s">
+      <c r="B66" s="150" t="s">
         <v>786</v>
       </c>
-      <c r="C66" s="147"/>
+      <c r="C66" s="151"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="116">
         <v>5</v>
       </c>
-      <c r="B67" s="146" t="s">
+      <c r="B67" s="150" t="s">
         <v>787</v>
       </c>
-      <c r="C67" s="147"/>
+      <c r="C67" s="151"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="117">
         <v>6</v>
       </c>
-      <c r="B68" s="148" t="s">
+      <c r="B68" s="157" t="s">
         <v>791</v>
       </c>
-      <c r="C68" s="149"/>
+      <c r="C68" s="158"/>
     </row>
     <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="150" t="s">
+      <c r="A70" s="152" t="s">
         <v>1001</v>
       </c>
-      <c r="B70" s="151"/>
-      <c r="C70" s="152"/>
+      <c r="B70" s="153"/>
+      <c r="C70" s="154"/>
     </row>
     <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="115">
         <v>1</v>
       </c>
-      <c r="B71" s="157"/>
-      <c r="C71" s="158"/>
+      <c r="B71" s="148"/>
+      <c r="C71" s="149"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="116"/>
@@ -6034,40 +6034,40 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="116"/>
-      <c r="B73" s="146"/>
-      <c r="C73" s="147"/>
+      <c r="B73" s="150"/>
+      <c r="C73" s="151"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="116"/>
-      <c r="B74" s="146"/>
-      <c r="C74" s="147"/>
+      <c r="B74" s="150"/>
+      <c r="C74" s="151"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="116"/>
-      <c r="B75" s="146"/>
-      <c r="C75" s="147"/>
+      <c r="B75" s="150"/>
+      <c r="C75" s="151"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="117"/>
-      <c r="B76" s="148"/>
-      <c r="C76" s="149"/>
+      <c r="B76" s="157"/>
+      <c r="C76" s="158"/>
     </row>
     <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="150" t="s">
+      <c r="A78" s="152" t="s">
         <v>812</v>
       </c>
-      <c r="B78" s="151"/>
-      <c r="C78" s="152"/>
+      <c r="B78" s="153"/>
+      <c r="C78" s="154"/>
     </row>
     <row r="79" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="115">
         <v>1</v>
       </c>
-      <c r="B79" s="157" t="s">
+      <c r="B79" s="148" t="s">
         <v>783</v>
       </c>
-      <c r="C79" s="158"/>
+      <c r="C79" s="149"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="116">
@@ -6082,54 +6082,54 @@
       <c r="A81" s="116">
         <v>3</v>
       </c>
-      <c r="B81" s="146" t="s">
+      <c r="B81" s="150" t="s">
         <v>785</v>
       </c>
-      <c r="C81" s="147"/>
+      <c r="C81" s="151"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="116">
         <v>4</v>
       </c>
-      <c r="B82" s="146" t="s">
+      <c r="B82" s="150" t="s">
         <v>786</v>
       </c>
-      <c r="C82" s="147"/>
+      <c r="C82" s="151"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="116">
         <v>5</v>
       </c>
-      <c r="B83" s="146" t="s">
+      <c r="B83" s="150" t="s">
         <v>787</v>
       </c>
-      <c r="C83" s="147"/>
+      <c r="C83" s="151"/>
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="117">
         <v>6</v>
       </c>
-      <c r="B84" s="148" t="s">
+      <c r="B84" s="157" t="s">
         <v>791</v>
       </c>
-      <c r="C84" s="149"/>
+      <c r="C84" s="158"/>
     </row>
     <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="150" t="s">
+      <c r="A86" s="152" t="s">
         <v>862</v>
       </c>
-      <c r="B86" s="151"/>
-      <c r="C86" s="152"/>
+      <c r="B86" s="153"/>
+      <c r="C86" s="154"/>
     </row>
     <row r="87" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="115">
         <v>1</v>
       </c>
-      <c r="B87" s="153" t="s">
+      <c r="B87" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="154"/>
+      <c r="C87" s="156"/>
     </row>
     <row r="88" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="124"/>
@@ -6302,10 +6302,10 @@
       <c r="A107" s="116">
         <v>2</v>
       </c>
-      <c r="B107" s="155" t="s">
+      <c r="B107" s="146" t="s">
         <v>813</v>
       </c>
-      <c r="C107" s="156"/>
+      <c r="C107" s="147"/>
     </row>
     <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="116"/>
@@ -6383,10 +6383,10 @@
       <c r="A116" s="116">
         <v>3</v>
       </c>
-      <c r="B116" s="157" t="s">
+      <c r="B116" s="148" t="s">
         <v>814</v>
       </c>
-      <c r="C116" s="158"/>
+      <c r="C116" s="149"/>
     </row>
     <row r="117" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="116"/>
@@ -6442,10 +6442,10 @@
       <c r="A123" s="115">
         <v>4</v>
       </c>
-      <c r="B123" s="146" t="s">
+      <c r="B123" s="150" t="s">
         <v>815</v>
       </c>
-      <c r="C123" s="147"/>
+      <c r="C123" s="151"/>
     </row>
     <row r="124" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="124"/>
@@ -6485,20 +6485,20 @@
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="129" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="150" t="s">
+      <c r="A129" s="152" t="s">
         <v>863</v>
       </c>
-      <c r="B129" s="151"/>
-      <c r="C129" s="152"/>
+      <c r="B129" s="153"/>
+      <c r="C129" s="154"/>
     </row>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="115">
         <v>1</v>
       </c>
-      <c r="B130" s="153" t="s">
+      <c r="B130" s="155" t="s">
         <v>864</v>
       </c>
-      <c r="C130" s="154"/>
+      <c r="C130" s="156"/>
     </row>
     <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="124"/>
@@ -6645,10 +6645,10 @@
       <c r="A150" s="116">
         <v>2</v>
       </c>
-      <c r="B150" s="155" t="s">
+      <c r="B150" s="146" t="s">
         <v>865</v>
       </c>
-      <c r="C150" s="156"/>
+      <c r="C150" s="147"/>
     </row>
     <row r="151" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="116"/>
@@ -6718,10 +6718,10 @@
       <c r="A159" s="116">
         <v>3</v>
       </c>
-      <c r="B159" s="157" t="s">
+      <c r="B159" s="148" t="s">
         <v>866</v>
       </c>
-      <c r="C159" s="158"/>
+      <c r="C159" s="149"/>
     </row>
     <row r="160" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="116"/>
@@ -6775,12 +6775,42 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
     <mergeCell ref="B107:C107"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
@@ -6797,42 +6827,12 @@
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="B130:C130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -26472,7 +26472,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" firstSheet="12" activeTab="24"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716"/>
   </bookViews>
   <sheets>
     <sheet name="TODO - Quick Battle" sheetId="37" r:id="rId1"/>
@@ -644,7 +644,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="1086">
   <si>
     <t>Fishing</t>
   </si>
@@ -3899,6 +3899,9 @@
   </si>
   <si>
     <t>Greater Deity</t>
+  </si>
+  <si>
+    <t>blink spell (stealth)</t>
   </si>
 </sst>
 </file>
@@ -5086,22 +5089,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5119,10 +5116,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5476,8 +5479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C165"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5492,29 +5495,29 @@
       <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="150" t="s">
         <v>782</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="154"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="152"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="153" t="s">
         <v>783</v>
       </c>
-      <c r="C3" s="156"/>
+      <c r="C3" s="154"/>
     </row>
     <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="116">
         <v>2</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="155" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="156"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="116"/>
@@ -5565,10 +5568,10 @@
       <c r="A10" s="116">
         <v>3</v>
       </c>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="157" t="s">
         <v>785</v>
       </c>
-      <c r="C10" s="149"/>
+      <c r="C10" s="158"/>
     </row>
     <row r="11" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="116"/>
@@ -5583,10 +5586,10 @@
       <c r="A12" s="116">
         <v>4</v>
       </c>
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="146" t="s">
         <v>786</v>
       </c>
-      <c r="C12" s="151"/>
+      <c r="C12" s="147"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="116"/>
@@ -5601,10 +5604,10 @@
       <c r="A14" s="116">
         <v>5</v>
       </c>
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="146" t="s">
         <v>787</v>
       </c>
-      <c r="C14" s="151"/>
+      <c r="C14" s="147"/>
     </row>
     <row r="15" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="116"/>
@@ -5619,10 +5622,10 @@
       <c r="A16" s="117">
         <v>6</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="148" t="s">
         <v>791</v>
       </c>
-      <c r="C16" s="158"/>
+      <c r="C16" s="149"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="116"/>
@@ -5637,46 +5640,46 @@
       <c r="A18" s="117">
         <v>7</v>
       </c>
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="148" t="s">
         <v>913</v>
       </c>
-      <c r="C18" s="158"/>
+      <c r="C18" s="149"/>
     </row>
     <row r="19" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="132">
         <v>8</v>
       </c>
-      <c r="B19" s="157" t="s">
+      <c r="B19" s="148" t="s">
         <v>1000</v>
       </c>
-      <c r="C19" s="158"/>
+      <c r="C19" s="149"/>
     </row>
     <row r="20" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="132">
         <v>9</v>
       </c>
-      <c r="B20" s="157" t="s">
+      <c r="B20" s="148" t="s">
         <v>914</v>
       </c>
-      <c r="C20" s="158"/>
+      <c r="C20" s="149"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="152" t="s">
+      <c r="A23" s="150" t="s">
         <v>793</v>
       </c>
-      <c r="B23" s="153"/>
-      <c r="C23" s="154"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="152"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="115">
         <v>1</v>
       </c>
-      <c r="B24" s="155" t="s">
+      <c r="B24" s="153" t="s">
         <v>782</v>
       </c>
-      <c r="C24" s="156"/>
+      <c r="C24" s="154"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="116"/>
@@ -5696,10 +5699,10 @@
       <c r="A27" s="116">
         <v>2</v>
       </c>
-      <c r="B27" s="146" t="s">
+      <c r="B27" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="147"/>
+      <c r="C27" s="156"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="116"/>
@@ -5712,17 +5715,21 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="116"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="120" t="s">
+        <v>789</v>
+      </c>
+      <c r="C29" s="121" t="s">
+        <v>1085</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="116">
         <v>3</v>
       </c>
-      <c r="B30" s="146" t="s">
+      <c r="B30" s="155" t="s">
         <v>1001</v>
       </c>
-      <c r="C30" s="147"/>
+      <c r="C30" s="156"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="116"/>
@@ -5744,20 +5751,20 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="152" t="s">
+      <c r="A34" s="150" t="s">
         <v>797</v>
       </c>
-      <c r="B34" s="153"/>
-      <c r="C34" s="154"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="152"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="115">
         <v>1</v>
       </c>
-      <c r="B35" s="155" t="s">
+      <c r="B35" s="153" t="s">
         <v>798</v>
       </c>
-      <c r="C35" s="156"/>
+      <c r="C35" s="154"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="116"/>
@@ -5797,20 +5804,20 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="152" t="s">
+      <c r="A41" s="150" t="s">
         <v>802</v>
       </c>
-      <c r="B41" s="153"/>
-      <c r="C41" s="154"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="152"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="115">
         <v>1</v>
       </c>
-      <c r="B42" s="155" t="s">
+      <c r="B42" s="153" t="s">
         <v>803</v>
       </c>
-      <c r="C42" s="156"/>
+      <c r="C42" s="154"/>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="116"/>
@@ -5834,10 +5841,10 @@
       <c r="A45" s="115">
         <v>1</v>
       </c>
-      <c r="B45" s="155" t="s">
+      <c r="B45" s="153" t="s">
         <v>805</v>
       </c>
-      <c r="C45" s="156"/>
+      <c r="C45" s="154"/>
     </row>
     <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="116"/>
@@ -5873,37 +5880,37 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="152" t="s">
+      <c r="A51" s="150" t="s">
         <v>188</v>
       </c>
-      <c r="B51" s="153"/>
-      <c r="C51" s="154"/>
+      <c r="B51" s="151"/>
+      <c r="C51" s="152"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="115">
         <v>1</v>
       </c>
-      <c r="B52" s="155" t="s">
+      <c r="B52" s="153" t="s">
         <v>810</v>
       </c>
-      <c r="C52" s="156"/>
+      <c r="C52" s="154"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="152" t="s">
+      <c r="A54" s="150" t="s">
         <v>790</v>
       </c>
-      <c r="B54" s="153"/>
-      <c r="C54" s="154"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="152"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="115">
         <v>1</v>
       </c>
-      <c r="B55" s="148" t="s">
+      <c r="B55" s="157" t="s">
         <v>783</v>
       </c>
-      <c r="C55" s="149"/>
+      <c r="C55" s="158"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="116">
@@ -5918,54 +5925,54 @@
       <c r="A57" s="116">
         <v>3</v>
       </c>
-      <c r="B57" s="150" t="s">
+      <c r="B57" s="146" t="s">
         <v>785</v>
       </c>
-      <c r="C57" s="151"/>
+      <c r="C57" s="147"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="116">
         <v>4</v>
       </c>
-      <c r="B58" s="150" t="s">
+      <c r="B58" s="146" t="s">
         <v>786</v>
       </c>
-      <c r="C58" s="151"/>
+      <c r="C58" s="147"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="116">
         <v>5</v>
       </c>
-      <c r="B59" s="150" t="s">
+      <c r="B59" s="146" t="s">
         <v>787</v>
       </c>
-      <c r="C59" s="151"/>
+      <c r="C59" s="147"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="117">
         <v>6</v>
       </c>
-      <c r="B60" s="157" t="s">
+      <c r="B60" s="148" t="s">
         <v>791</v>
       </c>
-      <c r="C60" s="158"/>
+      <c r="C60" s="149"/>
     </row>
     <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="152" t="s">
+      <c r="A62" s="150" t="s">
         <v>811</v>
       </c>
-      <c r="B62" s="153"/>
-      <c r="C62" s="154"/>
+      <c r="B62" s="151"/>
+      <c r="C62" s="152"/>
     </row>
     <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="115">
         <v>1</v>
       </c>
-      <c r="B63" s="148" t="s">
+      <c r="B63" s="157" t="s">
         <v>783</v>
       </c>
-      <c r="C63" s="149"/>
+      <c r="C63" s="158"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="116">
@@ -5980,52 +5987,52 @@
       <c r="A65" s="116">
         <v>3</v>
       </c>
-      <c r="B65" s="150" t="s">
+      <c r="B65" s="146" t="s">
         <v>785</v>
       </c>
-      <c r="C65" s="151"/>
+      <c r="C65" s="147"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="116">
         <v>4</v>
       </c>
-      <c r="B66" s="150" t="s">
+      <c r="B66" s="146" t="s">
         <v>786</v>
       </c>
-      <c r="C66" s="151"/>
+      <c r="C66" s="147"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="116">
         <v>5</v>
       </c>
-      <c r="B67" s="150" t="s">
+      <c r="B67" s="146" t="s">
         <v>787</v>
       </c>
-      <c r="C67" s="151"/>
+      <c r="C67" s="147"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="117">
         <v>6</v>
       </c>
-      <c r="B68" s="157" t="s">
+      <c r="B68" s="148" t="s">
         <v>791</v>
       </c>
-      <c r="C68" s="158"/>
+      <c r="C68" s="149"/>
     </row>
     <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="152" t="s">
+      <c r="A70" s="150" t="s">
         <v>1001</v>
       </c>
-      <c r="B70" s="153"/>
-      <c r="C70" s="154"/>
+      <c r="B70" s="151"/>
+      <c r="C70" s="152"/>
     </row>
     <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="115">
         <v>1</v>
       </c>
-      <c r="B71" s="148"/>
-      <c r="C71" s="149"/>
+      <c r="B71" s="157"/>
+      <c r="C71" s="158"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="116"/>
@@ -6034,40 +6041,40 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="116"/>
-      <c r="B73" s="150"/>
-      <c r="C73" s="151"/>
+      <c r="B73" s="146"/>
+      <c r="C73" s="147"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="116"/>
-      <c r="B74" s="150"/>
-      <c r="C74" s="151"/>
+      <c r="B74" s="146"/>
+      <c r="C74" s="147"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="116"/>
-      <c r="B75" s="150"/>
-      <c r="C75" s="151"/>
+      <c r="B75" s="146"/>
+      <c r="C75" s="147"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="117"/>
-      <c r="B76" s="157"/>
-      <c r="C76" s="158"/>
+      <c r="B76" s="148"/>
+      <c r="C76" s="149"/>
     </row>
     <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="152" t="s">
+      <c r="A78" s="150" t="s">
         <v>812</v>
       </c>
-      <c r="B78" s="153"/>
-      <c r="C78" s="154"/>
+      <c r="B78" s="151"/>
+      <c r="C78" s="152"/>
     </row>
     <row r="79" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="115">
         <v>1</v>
       </c>
-      <c r="B79" s="148" t="s">
+      <c r="B79" s="157" t="s">
         <v>783</v>
       </c>
-      <c r="C79" s="149"/>
+      <c r="C79" s="158"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="116">
@@ -6082,54 +6089,54 @@
       <c r="A81" s="116">
         <v>3</v>
       </c>
-      <c r="B81" s="150" t="s">
+      <c r="B81" s="146" t="s">
         <v>785</v>
       </c>
-      <c r="C81" s="151"/>
+      <c r="C81" s="147"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="116">
         <v>4</v>
       </c>
-      <c r="B82" s="150" t="s">
+      <c r="B82" s="146" t="s">
         <v>786</v>
       </c>
-      <c r="C82" s="151"/>
+      <c r="C82" s="147"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="116">
         <v>5</v>
       </c>
-      <c r="B83" s="150" t="s">
+      <c r="B83" s="146" t="s">
         <v>787</v>
       </c>
-      <c r="C83" s="151"/>
+      <c r="C83" s="147"/>
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="117">
         <v>6</v>
       </c>
-      <c r="B84" s="157" t="s">
+      <c r="B84" s="148" t="s">
         <v>791</v>
       </c>
-      <c r="C84" s="158"/>
+      <c r="C84" s="149"/>
     </row>
     <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="152" t="s">
+      <c r="A86" s="150" t="s">
         <v>862</v>
       </c>
-      <c r="B86" s="153"/>
-      <c r="C86" s="154"/>
+      <c r="B86" s="151"/>
+      <c r="C86" s="152"/>
     </row>
     <row r="87" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="115">
         <v>1</v>
       </c>
-      <c r="B87" s="155" t="s">
+      <c r="B87" s="153" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="156"/>
+      <c r="C87" s="154"/>
     </row>
     <row r="88" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="124"/>
@@ -6302,10 +6309,10 @@
       <c r="A107" s="116">
         <v>2</v>
       </c>
-      <c r="B107" s="146" t="s">
+      <c r="B107" s="155" t="s">
         <v>813</v>
       </c>
-      <c r="C107" s="147"/>
+      <c r="C107" s="156"/>
     </row>
     <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="116"/>
@@ -6383,10 +6390,10 @@
       <c r="A116" s="116">
         <v>3</v>
       </c>
-      <c r="B116" s="148" t="s">
+      <c r="B116" s="157" t="s">
         <v>814</v>
       </c>
-      <c r="C116" s="149"/>
+      <c r="C116" s="158"/>
     </row>
     <row r="117" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="116"/>
@@ -6442,10 +6449,10 @@
       <c r="A123" s="115">
         <v>4</v>
       </c>
-      <c r="B123" s="150" t="s">
+      <c r="B123" s="146" t="s">
         <v>815</v>
       </c>
-      <c r="C123" s="151"/>
+      <c r="C123" s="147"/>
     </row>
     <row r="124" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="124"/>
@@ -6485,20 +6492,20 @@
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="129" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="152" t="s">
+      <c r="A129" s="150" t="s">
         <v>863</v>
       </c>
-      <c r="B129" s="153"/>
-      <c r="C129" s="154"/>
+      <c r="B129" s="151"/>
+      <c r="C129" s="152"/>
     </row>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="115">
         <v>1</v>
       </c>
-      <c r="B130" s="155" t="s">
+      <c r="B130" s="153" t="s">
         <v>864</v>
       </c>
-      <c r="C130" s="156"/>
+      <c r="C130" s="154"/>
     </row>
     <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="124"/>
@@ -6645,10 +6652,10 @@
       <c r="A150" s="116">
         <v>2</v>
       </c>
-      <c r="B150" s="146" t="s">
+      <c r="B150" s="155" t="s">
         <v>865</v>
       </c>
-      <c r="C150" s="147"/>
+      <c r="C150" s="156"/>
     </row>
     <row r="151" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="116"/>
@@ -6718,10 +6725,10 @@
       <c r="A159" s="116">
         <v>3</v>
       </c>
-      <c r="B159" s="148" t="s">
+      <c r="B159" s="157" t="s">
         <v>866</v>
       </c>
-      <c r="C159" s="149"/>
+      <c r="C159" s="158"/>
     </row>
     <row r="160" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="116"/>
@@ -6775,6 +6782,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
@@ -6791,48 +6840,6 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="B130:C130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -26471,7 +26478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -644,7 +644,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="1085">
   <si>
     <t>Fishing</t>
   </si>
@@ -3047,9 +3047,6 @@
   </si>
   <si>
     <t>Tropical</t>
-  </si>
-  <si>
-    <t>Lava</t>
   </si>
   <si>
     <t>Combat Map</t>
@@ -5089,16 +5086,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5116,16 +5119,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5479,8 +5476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5495,29 +5492,29 @@
       <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="152" t="s">
         <v>782</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="152"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="154"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="155" t="s">
         <v>783</v>
       </c>
-      <c r="C3" s="154"/>
+      <c r="C3" s="156"/>
     </row>
     <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="116">
         <v>2</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="146" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="156"/>
+      <c r="C4" s="147"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="116"/>
@@ -5552,7 +5549,7 @@
         <v>794</v>
       </c>
       <c r="C8" s="123" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="9" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
@@ -5568,10 +5565,10 @@
       <c r="A10" s="116">
         <v>3</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="148" t="s">
         <v>785</v>
       </c>
-      <c r="C10" s="158"/>
+      <c r="C10" s="149"/>
     </row>
     <row r="11" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="116"/>
@@ -5579,17 +5576,17 @@
         <v>788</v>
       </c>
       <c r="C11" s="119" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="12" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="116">
         <v>4</v>
       </c>
-      <c r="B12" s="146" t="s">
+      <c r="B12" s="150" t="s">
         <v>786</v>
       </c>
-      <c r="C12" s="147"/>
+      <c r="C12" s="151"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="116"/>
@@ -5597,17 +5594,17 @@
         <v>788</v>
       </c>
       <c r="C13" s="119" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="14" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="116">
         <v>5</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="150" t="s">
         <v>787</v>
       </c>
-      <c r="C14" s="147"/>
+      <c r="C14" s="151"/>
     </row>
     <row r="15" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="116"/>
@@ -5615,17 +5612,17 @@
         <v>788</v>
       </c>
       <c r="C15" s="119" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="16" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="117">
         <v>6</v>
       </c>
-      <c r="B16" s="148" t="s">
+      <c r="B16" s="157" t="s">
         <v>791</v>
       </c>
-      <c r="C16" s="149"/>
+      <c r="C16" s="158"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="116"/>
@@ -5633,53 +5630,53 @@
         <v>788</v>
       </c>
       <c r="C17" s="119" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="18" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="117">
         <v>7</v>
       </c>
-      <c r="B18" s="148" t="s">
-        <v>913</v>
-      </c>
-      <c r="C18" s="149"/>
+      <c r="B18" s="157" t="s">
+        <v>912</v>
+      </c>
+      <c r="C18" s="158"/>
     </row>
     <row r="19" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="132">
         <v>8</v>
       </c>
-      <c r="B19" s="148" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C19" s="149"/>
+      <c r="B19" s="157" t="s">
+        <v>999</v>
+      </c>
+      <c r="C19" s="158"/>
     </row>
     <row r="20" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="132">
         <v>9</v>
       </c>
-      <c r="B20" s="148" t="s">
-        <v>914</v>
-      </c>
-      <c r="C20" s="149"/>
+      <c r="B20" s="157" t="s">
+        <v>913</v>
+      </c>
+      <c r="C20" s="158"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="150" t="s">
+      <c r="A23" s="152" t="s">
         <v>793</v>
       </c>
-      <c r="B23" s="151"/>
-      <c r="C23" s="152"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="154"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="115">
         <v>1</v>
       </c>
-      <c r="B24" s="153" t="s">
+      <c r="B24" s="155" t="s">
         <v>782</v>
       </c>
-      <c r="C24" s="154"/>
+      <c r="C24" s="156"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="116"/>
@@ -5692,17 +5689,17 @@
         <v>789</v>
       </c>
       <c r="C26" s="141" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="116">
         <v>2</v>
       </c>
-      <c r="B27" s="155" t="s">
+      <c r="B27" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="156"/>
+      <c r="C27" s="147"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="116"/>
@@ -5719,17 +5716,17 @@
         <v>789</v>
       </c>
       <c r="C29" s="121" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="116">
         <v>3</v>
       </c>
-      <c r="B30" s="155" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C30" s="156"/>
+      <c r="B30" s="146" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C30" s="147"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="116"/>
@@ -5737,7 +5734,7 @@
         <v>788</v>
       </c>
       <c r="C31" s="143" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5746,25 +5743,25 @@
         <v>789</v>
       </c>
       <c r="C32" s="145" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="152" t="s">
         <v>797</v>
       </c>
-      <c r="B34" s="151"/>
-      <c r="C34" s="152"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="154"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="115">
         <v>1</v>
       </c>
-      <c r="B35" s="153" t="s">
+      <c r="B35" s="155" t="s">
         <v>798</v>
       </c>
-      <c r="C35" s="154"/>
+      <c r="C35" s="156"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="116"/>
@@ -5795,29 +5792,25 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="116"/>
-      <c r="B39" s="120" t="s">
-        <v>794</v>
-      </c>
-      <c r="C39" s="121" t="s">
-        <v>801</v>
-      </c>
+      <c r="B39" s="120"/>
+      <c r="C39" s="121"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="150" t="s">
-        <v>802</v>
-      </c>
-      <c r="B41" s="151"/>
-      <c r="C41" s="152"/>
+      <c r="A41" s="152" t="s">
+        <v>801</v>
+      </c>
+      <c r="B41" s="153"/>
+      <c r="C41" s="154"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="115">
         <v>1</v>
       </c>
-      <c r="B42" s="153" t="s">
-        <v>803</v>
-      </c>
-      <c r="C42" s="154"/>
+      <c r="B42" s="155" t="s">
+        <v>802</v>
+      </c>
+      <c r="C42" s="156"/>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="116"/>
@@ -5825,7 +5818,7 @@
         <v>788</v>
       </c>
       <c r="C43" s="119" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5834,17 +5827,17 @@
         <v>789</v>
       </c>
       <c r="C44" s="121" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="115">
         <v>1</v>
       </c>
-      <c r="B45" s="153" t="s">
-        <v>805</v>
-      </c>
-      <c r="C45" s="154"/>
+      <c r="B45" s="155" t="s">
+        <v>804</v>
+      </c>
+      <c r="C45" s="156"/>
     </row>
     <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="116"/>
@@ -5852,7 +5845,7 @@
         <v>788</v>
       </c>
       <c r="C46" s="119" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5861,7 +5854,7 @@
         <v>789</v>
       </c>
       <c r="C47" s="123" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5870,7 +5863,7 @@
         <v>792</v>
       </c>
       <c r="C48" s="123" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5880,37 +5873,37 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="150" t="s">
+      <c r="A51" s="152" t="s">
         <v>188</v>
       </c>
-      <c r="B51" s="151"/>
-      <c r="C51" s="152"/>
+      <c r="B51" s="153"/>
+      <c r="C51" s="154"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="115">
         <v>1</v>
       </c>
-      <c r="B52" s="153" t="s">
-        <v>810</v>
-      </c>
-      <c r="C52" s="154"/>
+      <c r="B52" s="155" t="s">
+        <v>809</v>
+      </c>
+      <c r="C52" s="156"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="150" t="s">
+      <c r="A54" s="152" t="s">
         <v>790</v>
       </c>
-      <c r="B54" s="151"/>
-      <c r="C54" s="152"/>
+      <c r="B54" s="153"/>
+      <c r="C54" s="154"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="115">
         <v>1</v>
       </c>
-      <c r="B55" s="157" t="s">
+      <c r="B55" s="148" t="s">
         <v>783</v>
       </c>
-      <c r="C55" s="158"/>
+      <c r="C55" s="149"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="116">
@@ -5925,54 +5918,54 @@
       <c r="A57" s="116">
         <v>3</v>
       </c>
-      <c r="B57" s="146" t="s">
+      <c r="B57" s="150" t="s">
         <v>785</v>
       </c>
-      <c r="C57" s="147"/>
+      <c r="C57" s="151"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="116">
         <v>4</v>
       </c>
-      <c r="B58" s="146" t="s">
+      <c r="B58" s="150" t="s">
         <v>786</v>
       </c>
-      <c r="C58" s="147"/>
+      <c r="C58" s="151"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="116">
         <v>5</v>
       </c>
-      <c r="B59" s="146" t="s">
+      <c r="B59" s="150" t="s">
         <v>787</v>
       </c>
-      <c r="C59" s="147"/>
+      <c r="C59" s="151"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="117">
         <v>6</v>
       </c>
-      <c r="B60" s="148" t="s">
+      <c r="B60" s="157" t="s">
         <v>791</v>
       </c>
-      <c r="C60" s="149"/>
+      <c r="C60" s="158"/>
     </row>
     <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="150" t="s">
-        <v>811</v>
-      </c>
-      <c r="B62" s="151"/>
-      <c r="C62" s="152"/>
+      <c r="A62" s="152" t="s">
+        <v>810</v>
+      </c>
+      <c r="B62" s="153"/>
+      <c r="C62" s="154"/>
     </row>
     <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="115">
         <v>1</v>
       </c>
-      <c r="B63" s="157" t="s">
+      <c r="B63" s="148" t="s">
         <v>783</v>
       </c>
-      <c r="C63" s="158"/>
+      <c r="C63" s="149"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="116">
@@ -5987,52 +5980,52 @@
       <c r="A65" s="116">
         <v>3</v>
       </c>
-      <c r="B65" s="146" t="s">
+      <c r="B65" s="150" t="s">
         <v>785</v>
       </c>
-      <c r="C65" s="147"/>
+      <c r="C65" s="151"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="116">
         <v>4</v>
       </c>
-      <c r="B66" s="146" t="s">
+      <c r="B66" s="150" t="s">
         <v>786</v>
       </c>
-      <c r="C66" s="147"/>
+      <c r="C66" s="151"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="116">
         <v>5</v>
       </c>
-      <c r="B67" s="146" t="s">
+      <c r="B67" s="150" t="s">
         <v>787</v>
       </c>
-      <c r="C67" s="147"/>
+      <c r="C67" s="151"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="117">
         <v>6</v>
       </c>
-      <c r="B68" s="148" t="s">
+      <c r="B68" s="157" t="s">
         <v>791</v>
       </c>
-      <c r="C68" s="149"/>
+      <c r="C68" s="158"/>
     </row>
     <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="150" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B70" s="151"/>
-      <c r="C70" s="152"/>
+      <c r="A70" s="152" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B70" s="153"/>
+      <c r="C70" s="154"/>
     </row>
     <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="115">
         <v>1</v>
       </c>
-      <c r="B71" s="157"/>
-      <c r="C71" s="158"/>
+      <c r="B71" s="148"/>
+      <c r="C71" s="149"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="116"/>
@@ -6041,40 +6034,40 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="116"/>
-      <c r="B73" s="146"/>
-      <c r="C73" s="147"/>
+      <c r="B73" s="150"/>
+      <c r="C73" s="151"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="116"/>
-      <c r="B74" s="146"/>
-      <c r="C74" s="147"/>
+      <c r="B74" s="150"/>
+      <c r="C74" s="151"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="116"/>
-      <c r="B75" s="146"/>
-      <c r="C75" s="147"/>
+      <c r="B75" s="150"/>
+      <c r="C75" s="151"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="117"/>
-      <c r="B76" s="148"/>
-      <c r="C76" s="149"/>
+      <c r="B76" s="157"/>
+      <c r="C76" s="158"/>
     </row>
     <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="150" t="s">
-        <v>812</v>
-      </c>
-      <c r="B78" s="151"/>
-      <c r="C78" s="152"/>
+      <c r="A78" s="152" t="s">
+        <v>811</v>
+      </c>
+      <c r="B78" s="153"/>
+      <c r="C78" s="154"/>
     </row>
     <row r="79" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="115">
         <v>1</v>
       </c>
-      <c r="B79" s="157" t="s">
+      <c r="B79" s="148" t="s">
         <v>783</v>
       </c>
-      <c r="C79" s="158"/>
+      <c r="C79" s="149"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="116">
@@ -6089,54 +6082,54 @@
       <c r="A81" s="116">
         <v>3</v>
       </c>
-      <c r="B81" s="146" t="s">
+      <c r="B81" s="150" t="s">
         <v>785</v>
       </c>
-      <c r="C81" s="147"/>
+      <c r="C81" s="151"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="116">
         <v>4</v>
       </c>
-      <c r="B82" s="146" t="s">
+      <c r="B82" s="150" t="s">
         <v>786</v>
       </c>
-      <c r="C82" s="147"/>
+      <c r="C82" s="151"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="116">
         <v>5</v>
       </c>
-      <c r="B83" s="146" t="s">
+      <c r="B83" s="150" t="s">
         <v>787</v>
       </c>
-      <c r="C83" s="147"/>
+      <c r="C83" s="151"/>
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="117">
         <v>6</v>
       </c>
-      <c r="B84" s="148" t="s">
+      <c r="B84" s="157" t="s">
         <v>791</v>
       </c>
-      <c r="C84" s="149"/>
+      <c r="C84" s="158"/>
     </row>
     <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="150" t="s">
-        <v>862</v>
-      </c>
-      <c r="B86" s="151"/>
-      <c r="C86" s="152"/>
+      <c r="A86" s="152" t="s">
+        <v>861</v>
+      </c>
+      <c r="B86" s="153"/>
+      <c r="C86" s="154"/>
     </row>
     <row r="87" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="115">
         <v>1</v>
       </c>
-      <c r="B87" s="153" t="s">
+      <c r="B87" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="154"/>
+      <c r="C87" s="156"/>
     </row>
     <row r="88" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="124"/>
@@ -6144,7 +6137,7 @@
         <v>788</v>
       </c>
       <c r="C88" s="119" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6153,7 +6146,7 @@
         <v>789</v>
       </c>
       <c r="C89" s="128" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6162,7 +6155,7 @@
         <v>792</v>
       </c>
       <c r="C90" s="128" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6171,7 +6164,7 @@
         <v>794</v>
       </c>
       <c r="C91" s="128" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6180,103 +6173,103 @@
         <v>795</v>
       </c>
       <c r="C92" s="128" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="124"/>
       <c r="B93" s="127" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C93" s="128" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="124"/>
       <c r="B94" s="127" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C94" s="128" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="124"/>
       <c r="B95" s="127" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C95" s="128" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="124"/>
       <c r="B96" s="127" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C96" s="128" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="116"/>
       <c r="B97" s="122" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C97" s="123" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="116"/>
       <c r="B98" s="122" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C98" s="123" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="116"/>
       <c r="B99" s="122" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C99" s="123" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="116"/>
       <c r="B100" s="122" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C100" s="123" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="116"/>
       <c r="B101" s="122" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C101" s="123" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="116"/>
       <c r="B102" s="122" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C102" s="123" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="116"/>
       <c r="B103" s="122" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C103" s="123" t="s">
         <v>35</v>
@@ -6285,23 +6278,23 @@
     <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="116"/>
       <c r="B104" s="122" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C104" s="123" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="116"/>
       <c r="B105" s="122" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C105" s="123"/>
     </row>
     <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="116"/>
       <c r="B106" s="120" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C106" s="121"/>
     </row>
@@ -6309,10 +6302,10 @@
       <c r="A107" s="116">
         <v>2</v>
       </c>
-      <c r="B107" s="155" t="s">
-        <v>813</v>
-      </c>
-      <c r="C107" s="156"/>
+      <c r="B107" s="146" t="s">
+        <v>812</v>
+      </c>
+      <c r="C107" s="147"/>
     </row>
     <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="116"/>
@@ -6320,7 +6313,7 @@
         <v>788</v>
       </c>
       <c r="C108" s="119" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6329,7 +6322,7 @@
         <v>789</v>
       </c>
       <c r="C109" s="123" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6338,7 +6331,7 @@
         <v>792</v>
       </c>
       <c r="C110" s="123" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6347,7 +6340,7 @@
         <v>794</v>
       </c>
       <c r="C111" s="123" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6356,44 +6349,44 @@
         <v>795</v>
       </c>
       <c r="C112" s="123" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="116"/>
       <c r="B113" s="125" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C113" s="126" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="116"/>
       <c r="B114" s="125" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C114" s="126" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="116"/>
       <c r="B115" s="120" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C115" s="121" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="116">
         <v>3</v>
       </c>
-      <c r="B116" s="157" t="s">
-        <v>814</v>
-      </c>
-      <c r="C116" s="158"/>
+      <c r="B116" s="148" t="s">
+        <v>813</v>
+      </c>
+      <c r="C116" s="149"/>
     </row>
     <row r="117" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="116"/>
@@ -6401,7 +6394,7 @@
         <v>788</v>
       </c>
       <c r="C117" s="119" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6410,7 +6403,7 @@
         <v>789</v>
       </c>
       <c r="C118" s="123" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6428,7 +6421,7 @@
         <v>794</v>
       </c>
       <c r="C120" s="126" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6437,7 +6430,7 @@
         <v>795</v>
       </c>
       <c r="C121" s="126" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6449,10 +6442,10 @@
       <c r="A123" s="115">
         <v>4</v>
       </c>
-      <c r="B123" s="146" t="s">
-        <v>815</v>
-      </c>
-      <c r="C123" s="147"/>
+      <c r="B123" s="150" t="s">
+        <v>814</v>
+      </c>
+      <c r="C123" s="151"/>
     </row>
     <row r="124" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="124"/>
@@ -6460,7 +6453,7 @@
         <v>788</v>
       </c>
       <c r="C124" s="119" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6469,7 +6462,7 @@
         <v>789</v>
       </c>
       <c r="C125" s="123" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6478,7 +6471,7 @@
         <v>792</v>
       </c>
       <c r="C126" s="123" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6487,25 +6480,25 @@
         <v>794</v>
       </c>
       <c r="C127" s="121" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="129" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="150" t="s">
-        <v>863</v>
-      </c>
-      <c r="B129" s="151"/>
-      <c r="C129" s="152"/>
+      <c r="A129" s="152" t="s">
+        <v>862</v>
+      </c>
+      <c r="B129" s="153"/>
+      <c r="C129" s="154"/>
     </row>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="115">
         <v>1</v>
       </c>
-      <c r="B130" s="153" t="s">
-        <v>864</v>
-      </c>
-      <c r="C130" s="154"/>
+      <c r="B130" s="155" t="s">
+        <v>863</v>
+      </c>
+      <c r="C130" s="156"/>
     </row>
     <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="124"/>
@@ -6522,7 +6515,7 @@
         <v>789</v>
       </c>
       <c r="C132" s="128" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6531,7 +6524,7 @@
         <v>792</v>
       </c>
       <c r="C133" s="128" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6540,7 +6533,7 @@
         <v>794</v>
       </c>
       <c r="C134" s="128" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6553,98 +6546,98 @@
     <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="124"/>
       <c r="B136" s="127" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C136" s="128"/>
     </row>
     <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="124"/>
       <c r="B137" s="127" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C137" s="128"/>
     </row>
     <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="124"/>
       <c r="B138" s="127" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C138" s="128"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="124"/>
       <c r="B139" s="127" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C139" s="128"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="116"/>
       <c r="B140" s="122" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C140" s="123"/>
     </row>
     <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="116"/>
       <c r="B141" s="122" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C141" s="123"/>
     </row>
     <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="116"/>
       <c r="B142" s="122" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C142" s="123"/>
     </row>
     <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="116"/>
       <c r="B143" s="122" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C143" s="123"/>
     </row>
     <row r="144" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="116"/>
       <c r="B144" s="122" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C144" s="123"/>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="116"/>
       <c r="B145" s="122" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C145" s="123"/>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="116"/>
       <c r="B146" s="122" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C146" s="123"/>
     </row>
     <row r="147" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="116"/>
       <c r="B147" s="122" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C147" s="123"/>
     </row>
     <row r="148" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="116"/>
       <c r="B148" s="122" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C148" s="123"/>
     </row>
     <row r="149" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="116"/>
       <c r="B149" s="120" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C149" s="121"/>
     </row>
@@ -6652,10 +6645,10 @@
       <c r="A150" s="116">
         <v>2</v>
       </c>
-      <c r="B150" s="155" t="s">
-        <v>865</v>
-      </c>
-      <c r="C150" s="156"/>
+      <c r="B150" s="146" t="s">
+        <v>864</v>
+      </c>
+      <c r="C150" s="147"/>
     </row>
     <row r="151" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="116"/>
@@ -6672,7 +6665,7 @@
         <v>789</v>
       </c>
       <c r="C152" s="123" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6681,7 +6674,7 @@
         <v>792</v>
       </c>
       <c r="C153" s="123" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6690,7 +6683,7 @@
         <v>794</v>
       </c>
       <c r="C154" s="123" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6703,21 +6696,21 @@
     <row r="156" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="116"/>
       <c r="B156" s="125" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C156" s="126"/>
     </row>
     <row r="157" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="116"/>
       <c r="B157" s="125" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C157" s="126"/>
     </row>
     <row r="158" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="116"/>
       <c r="B158" s="120" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C158" s="121"/>
     </row>
@@ -6725,10 +6718,10 @@
       <c r="A159" s="116">
         <v>3</v>
       </c>
-      <c r="B159" s="157" t="s">
-        <v>866</v>
-      </c>
-      <c r="C159" s="158"/>
+      <c r="B159" s="148" t="s">
+        <v>865</v>
+      </c>
+      <c r="C159" s="149"/>
     </row>
     <row r="160" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="116"/>
@@ -6736,7 +6729,7 @@
         <v>788</v>
       </c>
       <c r="C160" s="119" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6745,7 +6738,7 @@
         <v>789</v>
       </c>
       <c r="C161" s="123" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6754,7 +6747,7 @@
         <v>792</v>
       </c>
       <c r="C162" s="123" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6763,7 +6756,7 @@
         <v>794</v>
       </c>
       <c r="C163" s="126" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6776,18 +6769,48 @@
     <row r="165" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="116"/>
       <c r="B165" s="120" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C165" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
     <mergeCell ref="B107:C107"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
@@ -6804,42 +6827,12 @@
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="B130:C130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -13139,7 +13132,7 @@
         <v>658</v>
       </c>
       <c r="X54" s="44" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
@@ -13209,7 +13202,7 @@
         <v>658</v>
       </c>
       <c r="X55" s="44" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
@@ -13279,7 +13272,7 @@
         <v>658</v>
       </c>
       <c r="X56" s="44" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
@@ -13349,7 +13342,7 @@
         <v>658</v>
       </c>
       <c r="X57" s="44" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
@@ -13419,7 +13412,7 @@
         <v>658</v>
       </c>
       <c r="X58" s="44" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
@@ -22502,10 +22495,10 @@
     </row>
     <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="83" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
@@ -22516,7 +22509,7 @@
       <c r="I16" s="43"/>
       <c r="J16" s="44"/>
       <c r="K16" s="89" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="L16" s="87"/>
     </row>
@@ -22784,7 +22777,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="83" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="43"/>
@@ -22796,7 +22789,7 @@
       <c r="I30" s="43"/>
       <c r="J30" s="44"/>
       <c r="K30" s="89" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L30" s="87">
         <v>3</v>
@@ -22884,7 +22877,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="83" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="43"/>
@@ -22896,13 +22889,13 @@
       <c r="I35" s="43"/>
       <c r="J35" s="44"/>
       <c r="K35" s="89" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="L35" s="87"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="83" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="43"/>
@@ -22914,7 +22907,7 @@
       <c r="I36" s="43"/>
       <c r="J36" s="44"/>
       <c r="K36" s="89" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="L36" s="87"/>
     </row>
@@ -22958,10 +22951,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="83" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B39" s="48" t="s">
         <v>1030</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>1031</v>
       </c>
       <c r="C39" s="43" t="s">
         <v>745</v>
@@ -22974,7 +22967,7 @@
       <c r="I39" s="43"/>
       <c r="J39" s="44"/>
       <c r="K39" s="89" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="L39" s="87"/>
     </row>
@@ -23074,7 +23067,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="83" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="43"/>
@@ -23092,7 +23085,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="83" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="43"/>
@@ -23104,7 +23097,7 @@
       <c r="I46" s="43"/>
       <c r="J46" s="44"/>
       <c r="K46" s="89" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="L46" s="87">
         <v>3</v>
@@ -23112,10 +23105,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="83" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B47" s="48" t="s">
         <v>1028</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>1029</v>
       </c>
       <c r="C47" s="43" t="s">
         <v>745</v>
@@ -23128,7 +23121,7 @@
       <c r="I47" s="43"/>
       <c r="J47" s="44"/>
       <c r="K47" s="89" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="L47" s="87"/>
     </row>
@@ -23792,7 +23785,7 @@
       <c r="I81" s="43"/>
       <c r="J81" s="44"/>
       <c r="K81" s="89" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L81" s="87"/>
     </row>
@@ -24150,7 +24143,7 @@
         <v>372</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F3" s="129"/>
       <c r="G3" s="31"/>
@@ -24177,7 +24170,7 @@
         <v>382</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F4" s="129"/>
       <c r="G4" s="31"/>
@@ -24268,7 +24261,7 @@
         <v>492</v>
       </c>
       <c r="E8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F8" s="133" t="s">
         <v>745</v>
@@ -24676,7 +24669,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="129" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B28" s="129" t="s">
         <v>582</v>
@@ -24685,12 +24678,12 @@
         <v>488</v>
       </c>
       <c r="M28" s="129" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="129" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B29" s="129" t="s">
         <v>582</v>
@@ -24700,7 +24693,7 @@
       </c>
       <c r="L29" s="32"/>
       <c r="M29" s="129" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="N29"/>
     </row>
@@ -24715,22 +24708,22 @@
         <v>488</v>
       </c>
       <c r="M30" s="129" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="129" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="129" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="129" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B33" s="129" t="s">
         <v>582</v>
@@ -24739,15 +24732,15 @@
         <v>488</v>
       </c>
       <c r="E33" s="129" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="M33" s="129" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="129" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B34" s="129" t="s">
         <v>374</v>
@@ -24756,10 +24749,10 @@
         <v>488</v>
       </c>
       <c r="E34" s="129" t="s">
+        <v>890</v>
+      </c>
+      <c r="M34" s="129" t="s">
         <v>891</v>
-      </c>
-      <c r="M34" s="129" t="s">
-        <v>892</v>
       </c>
       <c r="N34" s="34">
         <v>5</v>
@@ -24767,7 +24760,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="129" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B35" s="129" t="s">
         <v>374</v>
@@ -24776,15 +24769,15 @@
         <v>488</v>
       </c>
       <c r="E35" s="129" t="s">
+        <v>893</v>
+      </c>
+      <c r="M35" s="129" t="s">
         <v>894</v>
-      </c>
-      <c r="M35" s="129" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="129" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B36" s="129" t="s">
         <v>374</v>
@@ -24793,15 +24786,15 @@
         <v>488</v>
       </c>
       <c r="E36" s="129" t="s">
+        <v>896</v>
+      </c>
+      <c r="M36" s="129" t="s">
         <v>897</v>
-      </c>
-      <c r="M36" s="129" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="129" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B37" s="129" t="s">
         <v>374</v>
@@ -24810,15 +24803,15 @@
         <v>488</v>
       </c>
       <c r="E37" s="129" t="s">
+        <v>899</v>
+      </c>
+      <c r="M37" s="129" t="s">
         <v>900</v>
-      </c>
-      <c r="M37" s="129" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="129" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B38" s="129" t="s">
         <v>374</v>
@@ -24827,10 +24820,10 @@
         <v>488</v>
       </c>
       <c r="E38" s="129" t="s">
+        <v>902</v>
+      </c>
+      <c r="M38" s="129" t="s">
         <v>903</v>
-      </c>
-      <c r="M38" s="129" t="s">
-        <v>904</v>
       </c>
       <c r="N38" s="34">
         <v>5</v>
@@ -24847,12 +24840,12 @@
         <v>488</v>
       </c>
       <c r="M39" s="130" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="130" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B40" s="130" t="s">
         <v>582</v>
@@ -24861,41 +24854,41 @@
         <v>488</v>
       </c>
       <c r="M40" s="130" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="130" t="s">
+        <v>921</v>
+      </c>
+      <c r="B41" s="130" t="s">
         <v>922</v>
-      </c>
-      <c r="B41" s="130" t="s">
-        <v>923</v>
       </c>
       <c r="D41" s="130" t="s">
         <v>488</v>
       </c>
       <c r="E41" s="130" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="M41" s="130" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="130" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B42" s="130" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D42" s="130" t="s">
         <v>488</v>
       </c>
       <c r="E42" s="130" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="M42" s="130" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="N42" s="34">
         <v>3</v>
@@ -24903,7 +24896,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="131" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B43" s="131" t="s">
         <v>374</v>
@@ -24912,10 +24905,10 @@
         <v>488</v>
       </c>
       <c r="E43" s="131" t="s">
+        <v>929</v>
+      </c>
+      <c r="M43" s="131" t="s">
         <v>930</v>
-      </c>
-      <c r="M43" s="131" t="s">
-        <v>931</v>
       </c>
       <c r="N43" s="34">
         <v>3</v>
@@ -24923,7 +24916,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="131" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B44" s="131" t="s">
         <v>374</v>
@@ -24932,10 +24925,10 @@
         <v>488</v>
       </c>
       <c r="E44" s="131" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M44" s="131" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="N44" s="34">
         <v>3</v>
@@ -24943,7 +24936,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="131" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B45" s="131" t="s">
         <v>374</v>
@@ -24952,10 +24945,10 @@
         <v>488</v>
       </c>
       <c r="E45" s="131" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M45" s="131" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="N45" s="34">
         <v>3</v>
@@ -24963,7 +24956,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="133" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B46" s="133" t="s">
         <v>374</v>
@@ -24972,10 +24965,10 @@
         <v>422</v>
       </c>
       <c r="E46" s="133" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="M46" s="133" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="N46" s="34">
         <v>3</v>
@@ -24983,7 +24976,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="134" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B47" s="134" t="s">
         <v>375</v>
@@ -24992,16 +24985,16 @@
         <v>492</v>
       </c>
       <c r="E47" s="134" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F47" s="134" t="s">
         <v>745</v>
       </c>
       <c r="G47" s="134" t="s">
+        <v>942</v>
+      </c>
+      <c r="M47" s="134" t="s">
         <v>943</v>
-      </c>
-      <c r="M47" s="134" t="s">
-        <v>944</v>
       </c>
       <c r="N47" s="34">
         <v>3</v>
@@ -25009,7 +25002,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="134" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B48" s="134" t="s">
         <v>375</v>
@@ -25018,30 +25011,30 @@
         <v>492</v>
       </c>
       <c r="E48" s="134" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F48" s="134" t="s">
         <v>745</v>
       </c>
       <c r="M48" s="134" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="134" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B49" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D49" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E49" s="134" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="M49" s="134" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="N49" s="34">
         <v>3</v>
@@ -25049,19 +25042,19 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="134" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B50" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D50" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E50" s="134" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M50" s="134" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="N50" s="34">
         <v>3</v>
@@ -25069,53 +25062,53 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="134" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B51" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D51" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E51" s="134" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="M51" s="134" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B52" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D52" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E52" s="134" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="M52" s="134" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="134" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B53" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D53" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E53" s="134" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M53" s="134" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="N53" s="34">
         <v>3</v>
@@ -25123,19 +25116,19 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="134" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B54" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D54" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E54" s="134" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="M54" s="134" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N54" s="34">
         <v>3</v>
@@ -25143,19 +25136,19 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="134" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B55" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D55" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E55" s="134" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M55" s="135" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="N55" s="136">
         <v>3</v>
@@ -25165,19 +25158,19 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="134" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B56" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D56" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E56" s="134" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M56" s="134" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="N56" s="34">
         <v>3</v>
@@ -25185,19 +25178,19 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="134" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B57" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D57" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E57" s="134" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="M57" s="134" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N57" s="34">
         <v>3</v>
@@ -25205,19 +25198,19 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="134" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B58" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D58" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E58" s="134" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M58" s="134" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="N58" s="34">
         <v>3</v>
@@ -25225,19 +25218,19 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="134" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B59" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D59" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E59" s="134" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="M59" s="134" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="N59" s="34">
         <v>3</v>
@@ -25245,53 +25238,53 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="134" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B60" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D60" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E60" s="134" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M60" s="134" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="134" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B61" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D61" s="134" t="s">
         <v>382</v>
       </c>
       <c r="E61" s="134" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M61" s="134" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="134" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B62" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D62" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E62" s="134" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M62" s="134" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="N62" s="34">
         <v>3</v>
@@ -25299,19 +25292,19 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="134" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B63" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D63" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E63" s="134" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M63" s="134" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="N63" s="34">
         <v>3</v>
@@ -25319,19 +25312,19 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="134" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B64" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D64" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E64" s="134" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="M64" s="134" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="N64" s="34">
         <v>4</v>
@@ -25339,19 +25332,19 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="134" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B65" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D65" s="134" t="s">
         <v>422</v>
       </c>
       <c r="E65" s="134" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M65" s="134" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="N65" s="34">
         <v>3</v>
@@ -25359,36 +25352,36 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="134" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B66" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D66" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E66" s="134" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="M66" s="134" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="134" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B67" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D67" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E67" s="134" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M67" s="134" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="N67" s="34">
         <v>3</v>
@@ -25396,19 +25389,19 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="134" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B68" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D68" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E68" s="134" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M68" s="134" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -25416,16 +25409,16 @@
         <v>483</v>
       </c>
       <c r="B69" s="134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D69" s="134" t="s">
         <v>488</v>
       </c>
       <c r="E69" s="134" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M69" s="134" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
@@ -25480,34 +25473,34 @@
         <v>363</v>
       </c>
       <c r="B1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D1" t="s">
         <v>1004</v>
       </c>
-      <c r="C1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1005</v>
-      </c>
       <c r="E1" s="137" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H1" t="s">
         <v>376</v>
       </c>
       <c r="I1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J1" t="s">
         <v>491</v>
       </c>
       <c r="K1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L1" t="s">
         <v>364</v>
@@ -25516,7 +25509,7 @@
         <v>236</v>
       </c>
       <c r="N1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="O1" s="3">
         <v>1</v>
@@ -25671,25 +25664,25 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="137" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B2" s="137" t="s">
         <v>1007</v>
       </c>
-      <c r="B2" s="137" t="s">
-        <v>1008</v>
-      </c>
       <c r="C2" s="137" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D2" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="137" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F2" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G2" s="137" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H2" s="137">
         <v>3</v>
@@ -25702,25 +25695,25 @@
       </c>
       <c r="K2" s="137"/>
       <c r="L2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N2" t="s">
         <v>1010</v>
       </c>
-      <c r="M2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1011</v>
-      </c>
       <c r="T2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="V2" t="s">
         <v>1014</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>1015</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>1016</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
@@ -25728,22 +25721,22 @@
         <v>501</v>
       </c>
       <c r="B3" s="137" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D3" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="137" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F3" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G3" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H3" s="137">
         <v>5</v>
@@ -25756,13 +25749,13 @@
       </c>
       <c r="K3" s="137"/>
       <c r="L3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N3" t="s">
         <v>1056</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1057</v>
       </c>
       <c r="O3" s="138"/>
       <c r="P3" s="138"/>
@@ -25771,25 +25764,25 @@
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B4" s="137" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D4" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="137" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F4" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G4" s="137" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H4" s="137">
         <v>4</v>
@@ -25802,19 +25795,19 @@
       </c>
       <c r="K4" s="137"/>
       <c r="L4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="R4" t="s">
         <v>1018</v>
       </c>
-      <c r="M4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="AD4" t="s">
         <v>1019</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.25">
@@ -25822,20 +25815,20 @@
         <v>493</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C5" s="137" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D5" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="137" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F5" s="137"/>
       <c r="G5" s="137" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H5" s="137">
         <v>4</v>
@@ -25850,13 +25843,13 @@
         <v>247</v>
       </c>
       <c r="L5" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="M5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N5" t="s">
         <v>1059</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1060</v>
       </c>
       <c r="U5" s="138">
         <v>0.18</v>
@@ -25876,20 +25869,20 @@
         <v>497</v>
       </c>
       <c r="B6" s="137" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C6" s="137" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D6" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="137" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F6" s="137"/>
       <c r="G6" s="137" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H6" s="137">
         <v>3</v>
@@ -25898,19 +25891,19 @@
         <v>1</v>
       </c>
       <c r="J6" s="137" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K6" s="137" t="s">
         <v>246</v>
       </c>
       <c r="L6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="M6" s="139" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="N6" s="137" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="T6" s="138"/>
       <c r="X6" s="138"/>
@@ -25921,10 +25914,10 @@
         <v>558</v>
       </c>
       <c r="B7" s="137" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D7" s="137" t="s">
         <v>33</v>
@@ -25934,7 +25927,7 @@
       </c>
       <c r="F7" s="137"/>
       <c r="G7" s="137" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H7" s="137">
         <v>4</v>
@@ -25946,46 +25939,46 @@
         <v>3</v>
       </c>
       <c r="K7" s="137" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="M7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="R7" t="s">
         <v>1052</v>
       </c>
-      <c r="R7" t="s">
-        <v>1053</v>
-      </c>
       <c r="V7" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="Z7" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AD7" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B8" s="137" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C8" s="137" t="s">
         <v>1046</v>
       </c>
-      <c r="B8" s="137" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C8" s="137" t="s">
+      <c r="D8" s="137" t="s">
         <v>1047</v>
       </c>
-      <c r="D8" s="137" t="s">
-        <v>1048</v>
-      </c>
       <c r="E8" s="137" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F8" s="137"/>
       <c r="G8" s="137" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H8" s="137">
         <v>0</v>
@@ -25998,10 +25991,10 @@
       </c>
       <c r="K8" s="137"/>
       <c r="L8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="M8" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="W8">
         <v>2</v>
@@ -26018,22 +26011,22 @@
         <v>490</v>
       </c>
       <c r="B9" s="137" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C9" s="137" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D9" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="137" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F9" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G9" s="137" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H9" s="137">
         <v>4</v>
@@ -26048,10 +26041,10 @@
         <v>246</v>
       </c>
       <c r="L9" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="M9" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
@@ -26059,20 +26052,20 @@
         <v>496</v>
       </c>
       <c r="B10" s="137" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D10" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="137" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F10" s="137"/>
       <c r="G10" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H10" s="137">
         <v>4</v>
@@ -26087,13 +26080,13 @@
         <v>246</v>
       </c>
       <c r="L10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N10" s="139" t="s">
         <v>1066</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1052</v>
-      </c>
-      <c r="N10" s="139" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
@@ -26101,10 +26094,10 @@
         <v>565</v>
       </c>
       <c r="B11" s="137" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>33</v>
@@ -26114,7 +26107,7 @@
       </c>
       <c r="F11" s="137"/>
       <c r="G11" s="137" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H11" s="137">
         <v>1</v>
@@ -26129,25 +26122,25 @@
         <v>246</v>
       </c>
       <c r="L11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N11" s="139" t="s">
         <v>1069</v>
       </c>
-      <c r="M11" t="s">
+      <c r="S11" t="s">
         <v>1052</v>
       </c>
-      <c r="N11" s="139" t="s">
+      <c r="X11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AC11" t="s">
         <v>1070</v>
       </c>
-      <c r="S11" t="s">
-        <v>1053</v>
-      </c>
-      <c r="X11" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>1071</v>
-      </c>
       <c r="AH11" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
@@ -26492,7 +26485,7 @@
         <v>350</v>
       </c>
       <c r="B1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -26500,7 +26493,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -26508,7 +26501,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -26524,7 +26517,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -26532,7 +26525,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -26540,7 +26533,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -26548,7 +26541,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -26556,7 +26549,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -26564,7 +26557,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -26572,7 +26565,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -26580,7 +26573,7 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -26588,7 +26581,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
@@ -27750,10 +27743,10 @@
     </row>
     <row r="19" spans="1:15" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="104" t="s">
+        <v>938</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>940</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -28260,7 +28253,7 @@
         <v>278</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -28513,19 +28506,19 @@
         <v>773</v>
       </c>
       <c r="K61" s="76" t="s">
+        <v>907</v>
+      </c>
+      <c r="L61" s="76" t="s">
         <v>908</v>
       </c>
-      <c r="L61" s="76" t="s">
+      <c r="M61" s="76" t="s">
         <v>909</v>
       </c>
-      <c r="M61" s="76" t="s">
+      <c r="N61" s="76" t="s">
         <v>910</v>
       </c>
-      <c r="N61" s="76" t="s">
+      <c r="O61" s="74" t="s">
         <v>911</v>
-      </c>
-      <c r="O61" s="74" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -644,7 +644,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="1084">
   <si>
     <t>Fishing</t>
   </si>
@@ -3638,9 +3638,6 @@
   </si>
   <si>
     <t>Soul Farmer</t>
-  </si>
-  <si>
-    <t>bullets hitting random targets</t>
   </si>
   <si>
     <t>Spells going by levels</t>
@@ -4749,7 +4746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5068,12 +5065,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -5086,22 +5077,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5119,10 +5104,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5476,8 +5467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:C57"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5492,29 +5483,29 @@
       <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="148" t="s">
         <v>782</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="154"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="150"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="151" t="s">
         <v>783</v>
       </c>
-      <c r="C3" s="156"/>
+      <c r="C3" s="152"/>
     </row>
     <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="116">
         <v>2</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="153" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="154"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="116"/>
@@ -5565,10 +5556,10 @@
       <c r="A10" s="116">
         <v>3</v>
       </c>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="155" t="s">
         <v>785</v>
       </c>
-      <c r="C10" s="149"/>
+      <c r="C10" s="156"/>
     </row>
     <row r="11" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="116"/>
@@ -5583,10 +5574,10 @@
       <c r="A12" s="116">
         <v>4</v>
       </c>
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="144" t="s">
         <v>786</v>
       </c>
-      <c r="C12" s="151"/>
+      <c r="C12" s="145"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="116"/>
@@ -5601,10 +5592,10 @@
       <c r="A14" s="116">
         <v>5</v>
       </c>
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="C14" s="151"/>
+      <c r="C14" s="145"/>
     </row>
     <row r="15" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="116"/>
@@ -5619,10 +5610,10 @@
       <c r="A16" s="117">
         <v>6</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="146" t="s">
         <v>791</v>
       </c>
-      <c r="C16" s="158"/>
+      <c r="C16" s="147"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="116"/>
@@ -5637,46 +5628,46 @@
       <c r="A18" s="117">
         <v>7</v>
       </c>
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="146" t="s">
         <v>912</v>
       </c>
-      <c r="C18" s="158"/>
+      <c r="C18" s="147"/>
     </row>
     <row r="19" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="132">
         <v>8</v>
       </c>
-      <c r="B19" s="157" t="s">
-        <v>999</v>
-      </c>
-      <c r="C19" s="158"/>
+      <c r="B19" s="146" t="s">
+        <v>998</v>
+      </c>
+      <c r="C19" s="147"/>
     </row>
     <row r="20" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="132">
         <v>9</v>
       </c>
-      <c r="B20" s="157" t="s">
+      <c r="B20" s="146" t="s">
         <v>913</v>
       </c>
-      <c r="C20" s="158"/>
+      <c r="C20" s="147"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="152" t="s">
+      <c r="A23" s="148" t="s">
         <v>793</v>
       </c>
-      <c r="B23" s="153"/>
-      <c r="C23" s="154"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="150"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="115">
         <v>1</v>
       </c>
-      <c r="B24" s="155" t="s">
+      <c r="B24" s="151" t="s">
         <v>782</v>
       </c>
-      <c r="C24" s="156"/>
+      <c r="C24" s="152"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="116"/>
@@ -5685,21 +5676,17 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="116"/>
-      <c r="B26" s="140" t="s">
-        <v>789</v>
-      </c>
-      <c r="C26" s="141" t="s">
-        <v>998</v>
-      </c>
+      <c r="B26" s="120"/>
+      <c r="C26" s="121"/>
     </row>
     <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="116">
         <v>2</v>
       </c>
-      <c r="B27" s="146" t="s">
+      <c r="B27" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="147"/>
+      <c r="C27" s="154"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="116"/>
@@ -5716,52 +5703,52 @@
         <v>789</v>
       </c>
       <c r="C29" s="121" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="116">
         <v>3</v>
       </c>
-      <c r="B30" s="146" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C30" s="147"/>
+      <c r="B30" s="153" t="s">
+        <v>999</v>
+      </c>
+      <c r="C30" s="154"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="116"/>
-      <c r="B31" s="142" t="s">
+      <c r="B31" s="140" t="s">
         <v>788</v>
       </c>
-      <c r="C31" s="143" t="s">
-        <v>1001</v>
+      <c r="C31" s="141" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="116"/>
-      <c r="B32" s="144" t="s">
+      <c r="B32" s="142" t="s">
         <v>789</v>
       </c>
-      <c r="C32" s="145" t="s">
-        <v>1002</v>
+      <c r="C32" s="143" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="152" t="s">
+      <c r="A34" s="148" t="s">
         <v>797</v>
       </c>
-      <c r="B34" s="153"/>
-      <c r="C34" s="154"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="150"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="115">
         <v>1</v>
       </c>
-      <c r="B35" s="155" t="s">
+      <c r="B35" s="151" t="s">
         <v>798</v>
       </c>
-      <c r="C35" s="156"/>
+      <c r="C35" s="152"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="116"/>
@@ -5797,20 +5784,20 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="152" t="s">
+      <c r="A41" s="148" t="s">
         <v>801</v>
       </c>
-      <c r="B41" s="153"/>
-      <c r="C41" s="154"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="150"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="115">
         <v>1</v>
       </c>
-      <c r="B42" s="155" t="s">
+      <c r="B42" s="151" t="s">
         <v>802</v>
       </c>
-      <c r="C42" s="156"/>
+      <c r="C42" s="152"/>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="116"/>
@@ -5834,10 +5821,10 @@
       <c r="A45" s="115">
         <v>1</v>
       </c>
-      <c r="B45" s="155" t="s">
+      <c r="B45" s="151" t="s">
         <v>804</v>
       </c>
-      <c r="C45" s="156"/>
+      <c r="C45" s="152"/>
     </row>
     <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="116"/>
@@ -5873,263 +5860,263 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="152" t="s">
+      <c r="A51" s="148" t="s">
         <v>188</v>
       </c>
-      <c r="B51" s="153"/>
-      <c r="C51" s="154"/>
+      <c r="B51" s="149"/>
+      <c r="C51" s="150"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="115">
         <v>1</v>
       </c>
-      <c r="B52" s="155" t="s">
+      <c r="B52" s="151" t="s">
         <v>809</v>
       </c>
-      <c r="C52" s="156"/>
+      <c r="C52" s="152"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="152" t="s">
+      <c r="A54" s="148" t="s">
         <v>790</v>
       </c>
-      <c r="B54" s="153"/>
-      <c r="C54" s="154"/>
+      <c r="B54" s="149"/>
+      <c r="C54" s="150"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="115">
         <v>1</v>
       </c>
-      <c r="B55" s="148" t="s">
+      <c r="B55" s="155" t="s">
         <v>783</v>
       </c>
-      <c r="C55" s="149"/>
+      <c r="C55" s="156"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="116">
         <v>2</v>
       </c>
-      <c r="B56" s="159" t="s">
+      <c r="B56" s="157" t="s">
         <v>784</v>
       </c>
-      <c r="C56" s="160"/>
+      <c r="C56" s="158"/>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="116">
         <v>3</v>
       </c>
-      <c r="B57" s="150" t="s">
+      <c r="B57" s="144" t="s">
         <v>785</v>
       </c>
-      <c r="C57" s="151"/>
+      <c r="C57" s="145"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="116">
         <v>4</v>
       </c>
-      <c r="B58" s="150" t="s">
+      <c r="B58" s="144" t="s">
         <v>786</v>
       </c>
-      <c r="C58" s="151"/>
+      <c r="C58" s="145"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="116">
         <v>5</v>
       </c>
-      <c r="B59" s="150" t="s">
+      <c r="B59" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="C59" s="151"/>
+      <c r="C59" s="145"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="117">
         <v>6</v>
       </c>
-      <c r="B60" s="157" t="s">
+      <c r="B60" s="146" t="s">
         <v>791</v>
       </c>
-      <c r="C60" s="158"/>
+      <c r="C60" s="147"/>
     </row>
     <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="152" t="s">
+      <c r="A62" s="148" t="s">
         <v>810</v>
       </c>
-      <c r="B62" s="153"/>
-      <c r="C62" s="154"/>
+      <c r="B62" s="149"/>
+      <c r="C62" s="150"/>
     </row>
     <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="115">
         <v>1</v>
       </c>
-      <c r="B63" s="148" t="s">
+      <c r="B63" s="155" t="s">
         <v>783</v>
       </c>
-      <c r="C63" s="149"/>
+      <c r="C63" s="156"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="116">
         <v>2</v>
       </c>
-      <c r="B64" s="159" t="s">
+      <c r="B64" s="157" t="s">
         <v>784</v>
       </c>
-      <c r="C64" s="160"/>
+      <c r="C64" s="158"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="116">
         <v>3</v>
       </c>
-      <c r="B65" s="150" t="s">
+      <c r="B65" s="144" t="s">
         <v>785</v>
       </c>
-      <c r="C65" s="151"/>
+      <c r="C65" s="145"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="116">
         <v>4</v>
       </c>
-      <c r="B66" s="150" t="s">
+      <c r="B66" s="144" t="s">
         <v>786</v>
       </c>
-      <c r="C66" s="151"/>
+      <c r="C66" s="145"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="116">
         <v>5</v>
       </c>
-      <c r="B67" s="150" t="s">
+      <c r="B67" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="C67" s="151"/>
+      <c r="C67" s="145"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="117">
         <v>6</v>
       </c>
-      <c r="B68" s="157" t="s">
+      <c r="B68" s="146" t="s">
         <v>791</v>
       </c>
-      <c r="C68" s="158"/>
+      <c r="C68" s="147"/>
     </row>
     <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="152" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B70" s="153"/>
-      <c r="C70" s="154"/>
+      <c r="A70" s="148" t="s">
+        <v>999</v>
+      </c>
+      <c r="B70" s="149"/>
+      <c r="C70" s="150"/>
     </row>
     <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="115">
         <v>1</v>
       </c>
-      <c r="B71" s="148"/>
-      <c r="C71" s="149"/>
+      <c r="B71" s="155"/>
+      <c r="C71" s="156"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="116"/>
-      <c r="B72" s="159"/>
-      <c r="C72" s="160"/>
+      <c r="B72" s="157"/>
+      <c r="C72" s="158"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="116"/>
-      <c r="B73" s="150"/>
-      <c r="C73" s="151"/>
+      <c r="B73" s="144"/>
+      <c r="C73" s="145"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="116"/>
-      <c r="B74" s="150"/>
-      <c r="C74" s="151"/>
+      <c r="B74" s="144"/>
+      <c r="C74" s="145"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="116"/>
-      <c r="B75" s="150"/>
-      <c r="C75" s="151"/>
+      <c r="B75" s="144"/>
+      <c r="C75" s="145"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="117"/>
-      <c r="B76" s="157"/>
-      <c r="C76" s="158"/>
+      <c r="B76" s="146"/>
+      <c r="C76" s="147"/>
     </row>
     <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="152" t="s">
+      <c r="A78" s="148" t="s">
         <v>811</v>
       </c>
-      <c r="B78" s="153"/>
-      <c r="C78" s="154"/>
+      <c r="B78" s="149"/>
+      <c r="C78" s="150"/>
     </row>
     <row r="79" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="115">
         <v>1</v>
       </c>
-      <c r="B79" s="148" t="s">
+      <c r="B79" s="155" t="s">
         <v>783</v>
       </c>
-      <c r="C79" s="149"/>
+      <c r="C79" s="156"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="116">
         <v>2</v>
       </c>
-      <c r="B80" s="159" t="s">
+      <c r="B80" s="157" t="s">
         <v>784</v>
       </c>
-      <c r="C80" s="160"/>
+      <c r="C80" s="158"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="116">
         <v>3</v>
       </c>
-      <c r="B81" s="150" t="s">
+      <c r="B81" s="144" t="s">
         <v>785</v>
       </c>
-      <c r="C81" s="151"/>
+      <c r="C81" s="145"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="116">
         <v>4</v>
       </c>
-      <c r="B82" s="150" t="s">
+      <c r="B82" s="144" t="s">
         <v>786</v>
       </c>
-      <c r="C82" s="151"/>
+      <c r="C82" s="145"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="116">
         <v>5</v>
       </c>
-      <c r="B83" s="150" t="s">
+      <c r="B83" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="C83" s="151"/>
+      <c r="C83" s="145"/>
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="117">
         <v>6</v>
       </c>
-      <c r="B84" s="157" t="s">
+      <c r="B84" s="146" t="s">
         <v>791</v>
       </c>
-      <c r="C84" s="158"/>
+      <c r="C84" s="147"/>
     </row>
     <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="152" t="s">
+      <c r="A86" s="148" t="s">
         <v>861</v>
       </c>
-      <c r="B86" s="153"/>
-      <c r="C86" s="154"/>
+      <c r="B86" s="149"/>
+      <c r="C86" s="150"/>
     </row>
     <row r="87" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="115">
         <v>1</v>
       </c>
-      <c r="B87" s="155" t="s">
+      <c r="B87" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="156"/>
+      <c r="C87" s="152"/>
     </row>
     <row r="88" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="124"/>
@@ -6302,10 +6289,10 @@
       <c r="A107" s="116">
         <v>2</v>
       </c>
-      <c r="B107" s="146" t="s">
+      <c r="B107" s="153" t="s">
         <v>812</v>
       </c>
-      <c r="C107" s="147"/>
+      <c r="C107" s="154"/>
     </row>
     <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="116"/>
@@ -6383,10 +6370,10 @@
       <c r="A116" s="116">
         <v>3</v>
       </c>
-      <c r="B116" s="148" t="s">
+      <c r="B116" s="155" t="s">
         <v>813</v>
       </c>
-      <c r="C116" s="149"/>
+      <c r="C116" s="156"/>
     </row>
     <row r="117" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="116"/>
@@ -6442,10 +6429,10 @@
       <c r="A123" s="115">
         <v>4</v>
       </c>
-      <c r="B123" s="150" t="s">
+      <c r="B123" s="144" t="s">
         <v>814</v>
       </c>
-      <c r="C123" s="151"/>
+      <c r="C123" s="145"/>
     </row>
     <row r="124" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="124"/>
@@ -6485,20 +6472,20 @@
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="129" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="152" t="s">
+      <c r="A129" s="148" t="s">
         <v>862</v>
       </c>
-      <c r="B129" s="153"/>
-      <c r="C129" s="154"/>
+      <c r="B129" s="149"/>
+      <c r="C129" s="150"/>
     </row>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="115">
         <v>1</v>
       </c>
-      <c r="B130" s="155" t="s">
+      <c r="B130" s="151" t="s">
         <v>863</v>
       </c>
-      <c r="C130" s="156"/>
+      <c r="C130" s="152"/>
     </row>
     <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="124"/>
@@ -6645,10 +6632,10 @@
       <c r="A150" s="116">
         <v>2</v>
       </c>
-      <c r="B150" s="146" t="s">
+      <c r="B150" s="153" t="s">
         <v>864</v>
       </c>
-      <c r="C150" s="147"/>
+      <c r="C150" s="154"/>
     </row>
     <row r="151" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="116"/>
@@ -6718,10 +6705,10 @@
       <c r="A159" s="116">
         <v>3</v>
       </c>
-      <c r="B159" s="148" t="s">
+      <c r="B159" s="155" t="s">
         <v>865</v>
       </c>
-      <c r="C159" s="149"/>
+      <c r="C159" s="156"/>
     </row>
     <row r="160" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="116"/>
@@ -6775,6 +6762,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
@@ -6791,48 +6820,6 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="B130:C130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -8029,31 +8016,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="162" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="167" t="s">
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="165" t="s">
         <v>183</v>
       </c>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="169"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="167"/>
     </row>
     <row r="2" spans="1:22" ht="44.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K2" s="66" t="s">
@@ -22205,17 +22192,17 @@
       <c r="A1" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="168" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="172"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="170"/>
       <c r="K1" s="91" t="s">
         <v>364</v>
       </c>
@@ -22951,10 +22938,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="83" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B39" s="48" t="s">
         <v>1029</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>1030</v>
       </c>
       <c r="C39" s="43" t="s">
         <v>745</v>
@@ -22967,7 +22954,7 @@
       <c r="I39" s="43"/>
       <c r="J39" s="44"/>
       <c r="K39" s="89" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="L39" s="87"/>
     </row>
@@ -23105,10 +23092,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="83" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B47" s="48" t="s">
         <v>1027</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>1028</v>
       </c>
       <c r="C47" s="43" t="s">
         <v>745</v>
@@ -23121,7 +23108,7 @@
       <c r="I47" s="43"/>
       <c r="J47" s="44"/>
       <c r="K47" s="89" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L47" s="87"/>
     </row>
@@ -24082,15 +24069,15 @@
       <c r="C1" t="s">
         <v>701</v>
       </c>
-      <c r="E1" s="173" t="s">
+      <c r="E1" s="171" t="s">
         <v>365</v>
       </c>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
       <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
@@ -25473,34 +25460,34 @@
         <v>363</v>
       </c>
       <c r="B1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1" t="s">
         <v>1003</v>
       </c>
-      <c r="C1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1004</v>
-      </c>
       <c r="E1" s="137" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H1" t="s">
         <v>376</v>
       </c>
       <c r="I1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J1" t="s">
         <v>491</v>
       </c>
       <c r="K1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L1" t="s">
         <v>364</v>
@@ -25509,7 +25496,7 @@
         <v>236</v>
       </c>
       <c r="N1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="O1" s="3">
         <v>1</v>
@@ -25664,25 +25651,25 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="137" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B2" s="137" t="s">
         <v>1006</v>
       </c>
-      <c r="B2" s="137" t="s">
-        <v>1007</v>
-      </c>
       <c r="C2" s="137" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D2" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="137" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F2" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G2" s="137" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H2" s="137">
         <v>3</v>
@@ -25695,25 +25682,25 @@
       </c>
       <c r="K2" s="137"/>
       <c r="L2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N2" t="s">
         <v>1009</v>
       </c>
-      <c r="M2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1010</v>
-      </c>
       <c r="T2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="V2" t="s">
         <v>1013</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>1014</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>1015</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
@@ -25721,22 +25708,22 @@
         <v>501</v>
       </c>
       <c r="B3" s="137" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D3" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="137" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F3" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G3" s="137" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H3" s="137">
         <v>5</v>
@@ -25749,13 +25736,13 @@
       </c>
       <c r="K3" s="137"/>
       <c r="L3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="M3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N3" t="s">
         <v>1055</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1056</v>
       </c>
       <c r="O3" s="138"/>
       <c r="P3" s="138"/>
@@ -25764,25 +25751,25 @@
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B4" s="137" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D4" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="137" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F4" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G4" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H4" s="137">
         <v>4</v>
@@ -25795,19 +25782,19 @@
       </c>
       <c r="K4" s="137"/>
       <c r="L4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="R4" t="s">
         <v>1017</v>
       </c>
-      <c r="M4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="AD4" t="s">
         <v>1018</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.25">
@@ -25815,20 +25802,20 @@
         <v>493</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C5" s="137" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D5" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="137" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F5" s="137"/>
       <c r="G5" s="137" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H5" s="137">
         <v>4</v>
@@ -25843,13 +25830,13 @@
         <v>247</v>
       </c>
       <c r="L5" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="M5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N5" t="s">
         <v>1058</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1059</v>
       </c>
       <c r="U5" s="138">
         <v>0.18</v>
@@ -25869,20 +25856,20 @@
         <v>497</v>
       </c>
       <c r="B6" s="137" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C6" s="137" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D6" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="137" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F6" s="137"/>
       <c r="G6" s="137" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H6" s="137">
         <v>3</v>
@@ -25891,19 +25878,19 @@
         <v>1</v>
       </c>
       <c r="J6" s="137" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K6" s="137" t="s">
         <v>246</v>
       </c>
       <c r="L6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="M6" s="139" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="N6" s="137" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="T6" s="138"/>
       <c r="X6" s="138"/>
@@ -25914,10 +25901,10 @@
         <v>558</v>
       </c>
       <c r="B7" s="137" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D7" s="137" t="s">
         <v>33</v>
@@ -25927,7 +25914,7 @@
       </c>
       <c r="F7" s="137"/>
       <c r="G7" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H7" s="137">
         <v>4</v>
@@ -25939,46 +25926,46 @@
         <v>3</v>
       </c>
       <c r="K7" s="137" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="M7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R7" t="s">
         <v>1051</v>
       </c>
-      <c r="R7" t="s">
-        <v>1052</v>
-      </c>
       <c r="V7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="Z7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AD7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B8" s="137" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C8" s="137" t="s">
         <v>1045</v>
       </c>
-      <c r="B8" s="137" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C8" s="137" t="s">
+      <c r="D8" s="137" t="s">
         <v>1046</v>
       </c>
-      <c r="D8" s="137" t="s">
-        <v>1047</v>
-      </c>
       <c r="E8" s="137" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F8" s="137"/>
       <c r="G8" s="137" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H8" s="137">
         <v>0</v>
@@ -25991,10 +25978,10 @@
       </c>
       <c r="K8" s="137"/>
       <c r="L8" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="M8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="W8">
         <v>2</v>
@@ -26011,22 +25998,22 @@
         <v>490</v>
       </c>
       <c r="B9" s="137" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C9" s="137" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D9" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="137" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F9" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G9" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H9" s="137">
         <v>4</v>
@@ -26041,10 +26028,10 @@
         <v>246</v>
       </c>
       <c r="L9" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="M9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
@@ -26052,20 +26039,20 @@
         <v>496</v>
       </c>
       <c r="B10" s="137" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D10" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="137" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F10" s="137"/>
       <c r="G10" s="137" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H10" s="137">
         <v>4</v>
@@ -26080,13 +26067,13 @@
         <v>246</v>
       </c>
       <c r="L10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N10" s="139" t="s">
         <v>1065</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1051</v>
-      </c>
-      <c r="N10" s="139" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
@@ -26094,10 +26081,10 @@
         <v>565</v>
       </c>
       <c r="B11" s="137" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>33</v>
@@ -26107,7 +26094,7 @@
       </c>
       <c r="F11" s="137"/>
       <c r="G11" s="137" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H11" s="137">
         <v>1</v>
@@ -26122,25 +26109,25 @@
         <v>246</v>
       </c>
       <c r="L11" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N11" s="139" t="s">
         <v>1068</v>
       </c>
-      <c r="M11" t="s">
+      <c r="S11" t="s">
         <v>1051</v>
       </c>
-      <c r="N11" s="139" t="s">
+      <c r="X11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AC11" t="s">
         <v>1069</v>
       </c>
-      <c r="S11" t="s">
-        <v>1052</v>
-      </c>
-      <c r="X11" t="s">
-        <v>1052</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>1070</v>
-      </c>
       <c r="AH11" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
@@ -26485,7 +26472,7 @@
         <v>350</v>
       </c>
       <c r="B1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -26493,7 +26480,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -26501,7 +26488,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -26517,7 +26504,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -26525,7 +26512,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -26533,7 +26520,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -26541,7 +26528,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -26549,7 +26536,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -26557,7 +26544,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -26565,7 +26552,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -26573,7 +26560,7 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -26581,7 +26568,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>
@@ -27329,24 +27316,24 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="100"/>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="161" t="s">
         <v>702</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
       <c r="E1" s="101"/>
-      <c r="F1" s="161" t="s">
+      <c r="F1" s="159" t="s">
         <v>350</v>
       </c>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="162"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="160"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
       <c r="R1" s="30"/>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -5077,16 +5077,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5104,16 +5110,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5467,8 +5467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5483,29 +5483,29 @@
       <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="150" t="s">
         <v>782</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="150"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="152"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="153" t="s">
         <v>783</v>
       </c>
-      <c r="C3" s="152"/>
+      <c r="C3" s="154"/>
     </row>
     <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="116">
         <v>2</v>
       </c>
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="144" t="s">
         <v>784</v>
       </c>
-      <c r="C4" s="154"/>
+      <c r="C4" s="145"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="116"/>
@@ -5556,10 +5556,10 @@
       <c r="A10" s="116">
         <v>3</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="146" t="s">
         <v>785</v>
       </c>
-      <c r="C10" s="156"/>
+      <c r="C10" s="147"/>
     </row>
     <row r="11" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="116"/>
@@ -5574,10 +5574,10 @@
       <c r="A12" s="116">
         <v>4</v>
       </c>
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="148" t="s">
         <v>786</v>
       </c>
-      <c r="C12" s="145"/>
+      <c r="C12" s="149"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="116"/>
@@ -5592,10 +5592,10 @@
       <c r="A14" s="116">
         <v>5</v>
       </c>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="148" t="s">
         <v>787</v>
       </c>
-      <c r="C14" s="145"/>
+      <c r="C14" s="149"/>
     </row>
     <row r="15" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="116"/>
@@ -5610,10 +5610,10 @@
       <c r="A16" s="117">
         <v>6</v>
       </c>
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="155" t="s">
         <v>791</v>
       </c>
-      <c r="C16" s="147"/>
+      <c r="C16" s="156"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="116"/>
@@ -5628,46 +5628,46 @@
       <c r="A18" s="117">
         <v>7</v>
       </c>
-      <c r="B18" s="146" t="s">
+      <c r="B18" s="155" t="s">
         <v>912</v>
       </c>
-      <c r="C18" s="147"/>
+      <c r="C18" s="156"/>
     </row>
     <row r="19" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="132">
         <v>8</v>
       </c>
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="155" t="s">
         <v>998</v>
       </c>
-      <c r="C19" s="147"/>
+      <c r="C19" s="156"/>
     </row>
     <row r="20" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="132">
         <v>9</v>
       </c>
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="155" t="s">
         <v>913</v>
       </c>
-      <c r="C20" s="147"/>
+      <c r="C20" s="156"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="148" t="s">
+      <c r="A23" s="150" t="s">
         <v>793</v>
       </c>
-      <c r="B23" s="149"/>
-      <c r="C23" s="150"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="152"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="115">
         <v>1</v>
       </c>
-      <c r="B24" s="151" t="s">
+      <c r="B24" s="153" t="s">
         <v>782</v>
       </c>
-      <c r="C24" s="152"/>
+      <c r="C24" s="154"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="116"/>
@@ -5683,10 +5683,10 @@
       <c r="A27" s="116">
         <v>2</v>
       </c>
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="154"/>
+      <c r="C27" s="145"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="116"/>
@@ -5710,10 +5710,10 @@
       <c r="A30" s="116">
         <v>3</v>
       </c>
-      <c r="B30" s="153" t="s">
+      <c r="B30" s="144" t="s">
         <v>999</v>
       </c>
-      <c r="C30" s="154"/>
+      <c r="C30" s="145"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="116"/>
@@ -5735,20 +5735,20 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="150" t="s">
         <v>797</v>
       </c>
-      <c r="B34" s="149"/>
-      <c r="C34" s="150"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="152"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="115">
         <v>1</v>
       </c>
-      <c r="B35" s="151" t="s">
+      <c r="B35" s="153" t="s">
         <v>798</v>
       </c>
-      <c r="C35" s="152"/>
+      <c r="C35" s="154"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="116"/>
@@ -5784,20 +5784,20 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="148" t="s">
+      <c r="A41" s="150" t="s">
         <v>801</v>
       </c>
-      <c r="B41" s="149"/>
-      <c r="C41" s="150"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="152"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="115">
         <v>1</v>
       </c>
-      <c r="B42" s="151" t="s">
+      <c r="B42" s="153" t="s">
         <v>802</v>
       </c>
-      <c r="C42" s="152"/>
+      <c r="C42" s="154"/>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="116"/>
@@ -5821,10 +5821,10 @@
       <c r="A45" s="115">
         <v>1</v>
       </c>
-      <c r="B45" s="151" t="s">
+      <c r="B45" s="153" t="s">
         <v>804</v>
       </c>
-      <c r="C45" s="152"/>
+      <c r="C45" s="154"/>
     </row>
     <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="116"/>
@@ -5860,37 +5860,37 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="148" t="s">
+      <c r="A51" s="150" t="s">
         <v>188</v>
       </c>
-      <c r="B51" s="149"/>
-      <c r="C51" s="150"/>
+      <c r="B51" s="151"/>
+      <c r="C51" s="152"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="115">
         <v>1</v>
       </c>
-      <c r="B52" s="151" t="s">
+      <c r="B52" s="153" t="s">
         <v>809</v>
       </c>
-      <c r="C52" s="152"/>
+      <c r="C52" s="154"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="148" t="s">
+      <c r="A54" s="150" t="s">
         <v>790</v>
       </c>
-      <c r="B54" s="149"/>
-      <c r="C54" s="150"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="152"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="115">
         <v>1</v>
       </c>
-      <c r="B55" s="155" t="s">
+      <c r="B55" s="146" t="s">
         <v>783</v>
       </c>
-      <c r="C55" s="156"/>
+      <c r="C55" s="147"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="116">
@@ -5905,54 +5905,54 @@
       <c r="A57" s="116">
         <v>3</v>
       </c>
-      <c r="B57" s="144" t="s">
+      <c r="B57" s="148" t="s">
         <v>785</v>
       </c>
-      <c r="C57" s="145"/>
+      <c r="C57" s="149"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="116">
         <v>4</v>
       </c>
-      <c r="B58" s="144" t="s">
+      <c r="B58" s="148" t="s">
         <v>786</v>
       </c>
-      <c r="C58" s="145"/>
+      <c r="C58" s="149"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="116">
         <v>5</v>
       </c>
-      <c r="B59" s="144" t="s">
+      <c r="B59" s="148" t="s">
         <v>787</v>
       </c>
-      <c r="C59" s="145"/>
+      <c r="C59" s="149"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="117">
         <v>6</v>
       </c>
-      <c r="B60" s="146" t="s">
+      <c r="B60" s="155" t="s">
         <v>791</v>
       </c>
-      <c r="C60" s="147"/>
+      <c r="C60" s="156"/>
     </row>
     <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="148" t="s">
+      <c r="A62" s="150" t="s">
         <v>810</v>
       </c>
-      <c r="B62" s="149"/>
-      <c r="C62" s="150"/>
+      <c r="B62" s="151"/>
+      <c r="C62" s="152"/>
     </row>
     <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="115">
         <v>1</v>
       </c>
-      <c r="B63" s="155" t="s">
+      <c r="B63" s="146" t="s">
         <v>783</v>
       </c>
-      <c r="C63" s="156"/>
+      <c r="C63" s="147"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="116">
@@ -5967,52 +5967,52 @@
       <c r="A65" s="116">
         <v>3</v>
       </c>
-      <c r="B65" s="144" t="s">
+      <c r="B65" s="148" t="s">
         <v>785</v>
       </c>
-      <c r="C65" s="145"/>
+      <c r="C65" s="149"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="116">
         <v>4</v>
       </c>
-      <c r="B66" s="144" t="s">
+      <c r="B66" s="148" t="s">
         <v>786</v>
       </c>
-      <c r="C66" s="145"/>
+      <c r="C66" s="149"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="116">
         <v>5</v>
       </c>
-      <c r="B67" s="144" t="s">
+      <c r="B67" s="148" t="s">
         <v>787</v>
       </c>
-      <c r="C67" s="145"/>
+      <c r="C67" s="149"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="117">
         <v>6</v>
       </c>
-      <c r="B68" s="146" t="s">
+      <c r="B68" s="155" t="s">
         <v>791</v>
       </c>
-      <c r="C68" s="147"/>
+      <c r="C68" s="156"/>
     </row>
     <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="148" t="s">
+      <c r="A70" s="150" t="s">
         <v>999</v>
       </c>
-      <c r="B70" s="149"/>
-      <c r="C70" s="150"/>
+      <c r="B70" s="151"/>
+      <c r="C70" s="152"/>
     </row>
     <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="115">
         <v>1</v>
       </c>
-      <c r="B71" s="155"/>
-      <c r="C71" s="156"/>
+      <c r="B71" s="146"/>
+      <c r="C71" s="147"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="116"/>
@@ -6021,40 +6021,40 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="116"/>
-      <c r="B73" s="144"/>
-      <c r="C73" s="145"/>
+      <c r="B73" s="148"/>
+      <c r="C73" s="149"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="116"/>
-      <c r="B74" s="144"/>
-      <c r="C74" s="145"/>
+      <c r="B74" s="148"/>
+      <c r="C74" s="149"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="116"/>
-      <c r="B75" s="144"/>
-      <c r="C75" s="145"/>
+      <c r="B75" s="148"/>
+      <c r="C75" s="149"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="117"/>
-      <c r="B76" s="146"/>
-      <c r="C76" s="147"/>
+      <c r="B76" s="155"/>
+      <c r="C76" s="156"/>
     </row>
     <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="148" t="s">
+      <c r="A78" s="150" t="s">
         <v>811</v>
       </c>
-      <c r="B78" s="149"/>
-      <c r="C78" s="150"/>
+      <c r="B78" s="151"/>
+      <c r="C78" s="152"/>
     </row>
     <row r="79" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="115">
         <v>1</v>
       </c>
-      <c r="B79" s="155" t="s">
+      <c r="B79" s="146" t="s">
         <v>783</v>
       </c>
-      <c r="C79" s="156"/>
+      <c r="C79" s="147"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="116">
@@ -6069,54 +6069,54 @@
       <c r="A81" s="116">
         <v>3</v>
       </c>
-      <c r="B81" s="144" t="s">
+      <c r="B81" s="148" t="s">
         <v>785</v>
       </c>
-      <c r="C81" s="145"/>
+      <c r="C81" s="149"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="116">
         <v>4</v>
       </c>
-      <c r="B82" s="144" t="s">
+      <c r="B82" s="148" t="s">
         <v>786</v>
       </c>
-      <c r="C82" s="145"/>
+      <c r="C82" s="149"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="116">
         <v>5</v>
       </c>
-      <c r="B83" s="144" t="s">
+      <c r="B83" s="148" t="s">
         <v>787</v>
       </c>
-      <c r="C83" s="145"/>
+      <c r="C83" s="149"/>
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="117">
         <v>6</v>
       </c>
-      <c r="B84" s="146" t="s">
+      <c r="B84" s="155" t="s">
         <v>791</v>
       </c>
-      <c r="C84" s="147"/>
+      <c r="C84" s="156"/>
     </row>
     <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="148" t="s">
+      <c r="A86" s="150" t="s">
         <v>861</v>
       </c>
-      <c r="B86" s="149"/>
-      <c r="C86" s="150"/>
+      <c r="B86" s="151"/>
+      <c r="C86" s="152"/>
     </row>
     <row r="87" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="115">
         <v>1</v>
       </c>
-      <c r="B87" s="151" t="s">
+      <c r="B87" s="153" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="152"/>
+      <c r="C87" s="154"/>
     </row>
     <row r="88" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="124"/>
@@ -6289,10 +6289,10 @@
       <c r="A107" s="116">
         <v>2</v>
       </c>
-      <c r="B107" s="153" t="s">
+      <c r="B107" s="144" t="s">
         <v>812</v>
       </c>
-      <c r="C107" s="154"/>
+      <c r="C107" s="145"/>
     </row>
     <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="116"/>
@@ -6370,10 +6370,10 @@
       <c r="A116" s="116">
         <v>3</v>
       </c>
-      <c r="B116" s="155" t="s">
+      <c r="B116" s="146" t="s">
         <v>813</v>
       </c>
-      <c r="C116" s="156"/>
+      <c r="C116" s="147"/>
     </row>
     <row r="117" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="116"/>
@@ -6429,10 +6429,10 @@
       <c r="A123" s="115">
         <v>4</v>
       </c>
-      <c r="B123" s="144" t="s">
+      <c r="B123" s="148" t="s">
         <v>814</v>
       </c>
-      <c r="C123" s="145"/>
+      <c r="C123" s="149"/>
     </row>
     <row r="124" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="124"/>
@@ -6472,20 +6472,20 @@
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="129" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="148" t="s">
+      <c r="A129" s="150" t="s">
         <v>862</v>
       </c>
-      <c r="B129" s="149"/>
-      <c r="C129" s="150"/>
+      <c r="B129" s="151"/>
+      <c r="C129" s="152"/>
     </row>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="115">
         <v>1</v>
       </c>
-      <c r="B130" s="151" t="s">
+      <c r="B130" s="153" t="s">
         <v>863</v>
       </c>
-      <c r="C130" s="152"/>
+      <c r="C130" s="154"/>
     </row>
     <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="124"/>
@@ -6632,10 +6632,10 @@
       <c r="A150" s="116">
         <v>2</v>
       </c>
-      <c r="B150" s="153" t="s">
+      <c r="B150" s="144" t="s">
         <v>864</v>
       </c>
-      <c r="C150" s="154"/>
+      <c r="C150" s="145"/>
     </row>
     <row r="151" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="116"/>
@@ -6705,10 +6705,10 @@
       <c r="A159" s="116">
         <v>3</v>
       </c>
-      <c r="B159" s="155" t="s">
+      <c r="B159" s="146" t="s">
         <v>865</v>
       </c>
-      <c r="C159" s="156"/>
+      <c r="C159" s="147"/>
     </row>
     <row r="160" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="116"/>
@@ -6762,12 +6762,42 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
     <mergeCell ref="B107:C107"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
@@ -6784,42 +6814,12 @@
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="B130:C130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -26459,7 +26459,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -5230,16 +5230,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5257,16 +5263,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5636,29 +5636,29 @@
       <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="153" t="s">
         <v>781</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="153"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="155"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="156" t="s">
         <v>782</v>
       </c>
-      <c r="C3" s="155"/>
+      <c r="C3" s="157"/>
     </row>
     <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="116">
         <v>2</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="147" t="s">
         <v>783</v>
       </c>
-      <c r="C4" s="157"/>
+      <c r="C4" s="148"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="116"/>
@@ -5709,10 +5709,10 @@
       <c r="A10" s="116">
         <v>3</v>
       </c>
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="149" t="s">
         <v>784</v>
       </c>
-      <c r="C10" s="159"/>
+      <c r="C10" s="150"/>
     </row>
     <row r="11" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="116"/>
@@ -5727,10 +5727,10 @@
       <c r="A12" s="116">
         <v>4</v>
       </c>
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="151" t="s">
         <v>785</v>
       </c>
-      <c r="C12" s="148"/>
+      <c r="C12" s="152"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="116"/>
@@ -5745,10 +5745,10 @@
       <c r="A14" s="116">
         <v>5</v>
       </c>
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="151" t="s">
         <v>786</v>
       </c>
-      <c r="C14" s="148"/>
+      <c r="C14" s="152"/>
     </row>
     <row r="15" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="116"/>
@@ -5763,10 +5763,10 @@
       <c r="A16" s="117">
         <v>6</v>
       </c>
-      <c r="B16" s="149" t="s">
+      <c r="B16" s="158" t="s">
         <v>790</v>
       </c>
-      <c r="C16" s="150"/>
+      <c r="C16" s="159"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="116"/>
@@ -5781,46 +5781,46 @@
       <c r="A18" s="117">
         <v>7</v>
       </c>
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="158" t="s">
         <v>911</v>
       </c>
-      <c r="C18" s="150"/>
+      <c r="C18" s="159"/>
     </row>
     <row r="19" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="132">
         <v>8</v>
       </c>
-      <c r="B19" s="149" t="s">
+      <c r="B19" s="158" t="s">
         <v>996</v>
       </c>
-      <c r="C19" s="150"/>
+      <c r="C19" s="159"/>
     </row>
     <row r="20" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="132">
         <v>9</v>
       </c>
-      <c r="B20" s="149" t="s">
+      <c r="B20" s="158" t="s">
         <v>912</v>
       </c>
-      <c r="C20" s="150"/>
+      <c r="C20" s="159"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="151" t="s">
+      <c r="A23" s="153" t="s">
         <v>792</v>
       </c>
-      <c r="B23" s="152"/>
-      <c r="C23" s="153"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="155"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="115">
         <v>1</v>
       </c>
-      <c r="B24" s="154" t="s">
+      <c r="B24" s="156" t="s">
         <v>781</v>
       </c>
-      <c r="C24" s="155"/>
+      <c r="C24" s="157"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="116"/>
@@ -5836,10 +5836,10 @@
       <c r="A27" s="116">
         <v>2</v>
       </c>
-      <c r="B27" s="156" t="s">
+      <c r="B27" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="157"/>
+      <c r="C27" s="148"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="116"/>
@@ -5863,10 +5863,10 @@
       <c r="A30" s="116">
         <v>3</v>
       </c>
-      <c r="B30" s="156" t="s">
+      <c r="B30" s="147" t="s">
         <v>997</v>
       </c>
-      <c r="C30" s="157"/>
+      <c r="C30" s="148"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="116"/>
@@ -5888,20 +5888,20 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="151" t="s">
+      <c r="A34" s="153" t="s">
         <v>796</v>
       </c>
-      <c r="B34" s="152"/>
-      <c r="C34" s="153"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="155"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="115">
         <v>1</v>
       </c>
-      <c r="B35" s="154" t="s">
+      <c r="B35" s="156" t="s">
         <v>797</v>
       </c>
-      <c r="C35" s="155"/>
+      <c r="C35" s="157"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="116"/>
@@ -5937,20 +5937,20 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="151" t="s">
+      <c r="A41" s="153" t="s">
         <v>800</v>
       </c>
-      <c r="B41" s="152"/>
-      <c r="C41" s="153"/>
+      <c r="B41" s="154"/>
+      <c r="C41" s="155"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="115">
         <v>1</v>
       </c>
-      <c r="B42" s="154" t="s">
+      <c r="B42" s="156" t="s">
         <v>801</v>
       </c>
-      <c r="C42" s="155"/>
+      <c r="C42" s="157"/>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="116"/>
@@ -5974,10 +5974,10 @@
       <c r="A45" s="115">
         <v>1</v>
       </c>
-      <c r="B45" s="154" t="s">
+      <c r="B45" s="156" t="s">
         <v>803</v>
       </c>
-      <c r="C45" s="155"/>
+      <c r="C45" s="157"/>
     </row>
     <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="116"/>
@@ -6013,37 +6013,37 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="151" t="s">
+      <c r="A51" s="153" t="s">
         <v>188</v>
       </c>
-      <c r="B51" s="152"/>
-      <c r="C51" s="153"/>
+      <c r="B51" s="154"/>
+      <c r="C51" s="155"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="115">
         <v>1</v>
       </c>
-      <c r="B52" s="154" t="s">
+      <c r="B52" s="156" t="s">
         <v>808</v>
       </c>
-      <c r="C52" s="155"/>
+      <c r="C52" s="157"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="151" t="s">
+      <c r="A54" s="153" t="s">
         <v>789</v>
       </c>
-      <c r="B54" s="152"/>
-      <c r="C54" s="153"/>
+      <c r="B54" s="154"/>
+      <c r="C54" s="155"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="115">
         <v>1</v>
       </c>
-      <c r="B55" s="158" t="s">
+      <c r="B55" s="149" t="s">
         <v>782</v>
       </c>
-      <c r="C55" s="159"/>
+      <c r="C55" s="150"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="116">
@@ -6058,54 +6058,54 @@
       <c r="A57" s="116">
         <v>3</v>
       </c>
-      <c r="B57" s="147" t="s">
+      <c r="B57" s="151" t="s">
         <v>784</v>
       </c>
-      <c r="C57" s="148"/>
+      <c r="C57" s="152"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="116">
         <v>4</v>
       </c>
-      <c r="B58" s="147" t="s">
+      <c r="B58" s="151" t="s">
         <v>785</v>
       </c>
-      <c r="C58" s="148"/>
+      <c r="C58" s="152"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="116">
         <v>5</v>
       </c>
-      <c r="B59" s="147" t="s">
+      <c r="B59" s="151" t="s">
         <v>786</v>
       </c>
-      <c r="C59" s="148"/>
+      <c r="C59" s="152"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="117">
         <v>6</v>
       </c>
-      <c r="B60" s="149" t="s">
+      <c r="B60" s="158" t="s">
         <v>790</v>
       </c>
-      <c r="C60" s="150"/>
+      <c r="C60" s="159"/>
     </row>
     <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="151" t="s">
+      <c r="A62" s="153" t="s">
         <v>809</v>
       </c>
-      <c r="B62" s="152"/>
-      <c r="C62" s="153"/>
+      <c r="B62" s="154"/>
+      <c r="C62" s="155"/>
     </row>
     <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="115">
         <v>1</v>
       </c>
-      <c r="B63" s="158" t="s">
+      <c r="B63" s="149" t="s">
         <v>782</v>
       </c>
-      <c r="C63" s="159"/>
+      <c r="C63" s="150"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="116">
@@ -6120,52 +6120,52 @@
       <c r="A65" s="116">
         <v>3</v>
       </c>
-      <c r="B65" s="147" t="s">
+      <c r="B65" s="151" t="s">
         <v>784</v>
       </c>
-      <c r="C65" s="148"/>
+      <c r="C65" s="152"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="116">
         <v>4</v>
       </c>
-      <c r="B66" s="147" t="s">
+      <c r="B66" s="151" t="s">
         <v>785</v>
       </c>
-      <c r="C66" s="148"/>
+      <c r="C66" s="152"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="116">
         <v>5</v>
       </c>
-      <c r="B67" s="147" t="s">
+      <c r="B67" s="151" t="s">
         <v>786</v>
       </c>
-      <c r="C67" s="148"/>
+      <c r="C67" s="152"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="117">
         <v>6</v>
       </c>
-      <c r="B68" s="149" t="s">
+      <c r="B68" s="158" t="s">
         <v>790</v>
       </c>
-      <c r="C68" s="150"/>
+      <c r="C68" s="159"/>
     </row>
     <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="151" t="s">
+      <c r="A70" s="153" t="s">
         <v>997</v>
       </c>
-      <c r="B70" s="152"/>
-      <c r="C70" s="153"/>
+      <c r="B70" s="154"/>
+      <c r="C70" s="155"/>
     </row>
     <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="115">
         <v>1</v>
       </c>
-      <c r="B71" s="158"/>
-      <c r="C71" s="159"/>
+      <c r="B71" s="149"/>
+      <c r="C71" s="150"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="116"/>
@@ -6174,40 +6174,40 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="116"/>
-      <c r="B73" s="147"/>
-      <c r="C73" s="148"/>
+      <c r="B73" s="151"/>
+      <c r="C73" s="152"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="116"/>
-      <c r="B74" s="147"/>
-      <c r="C74" s="148"/>
+      <c r="B74" s="151"/>
+      <c r="C74" s="152"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="116"/>
-      <c r="B75" s="147"/>
-      <c r="C75" s="148"/>
+      <c r="B75" s="151"/>
+      <c r="C75" s="152"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="117"/>
-      <c r="B76" s="149"/>
-      <c r="C76" s="150"/>
+      <c r="B76" s="158"/>
+      <c r="C76" s="159"/>
     </row>
     <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="151" t="s">
+      <c r="A78" s="153" t="s">
         <v>810</v>
       </c>
-      <c r="B78" s="152"/>
-      <c r="C78" s="153"/>
+      <c r="B78" s="154"/>
+      <c r="C78" s="155"/>
     </row>
     <row r="79" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="115">
         <v>1</v>
       </c>
-      <c r="B79" s="158" t="s">
+      <c r="B79" s="149" t="s">
         <v>782</v>
       </c>
-      <c r="C79" s="159"/>
+      <c r="C79" s="150"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="116">
@@ -6222,54 +6222,54 @@
       <c r="A81" s="116">
         <v>3</v>
       </c>
-      <c r="B81" s="147" t="s">
+      <c r="B81" s="151" t="s">
         <v>784</v>
       </c>
-      <c r="C81" s="148"/>
+      <c r="C81" s="152"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="116">
         <v>4</v>
       </c>
-      <c r="B82" s="147" t="s">
+      <c r="B82" s="151" t="s">
         <v>785</v>
       </c>
-      <c r="C82" s="148"/>
+      <c r="C82" s="152"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="116">
         <v>5</v>
       </c>
-      <c r="B83" s="147" t="s">
+      <c r="B83" s="151" t="s">
         <v>786</v>
       </c>
-      <c r="C83" s="148"/>
+      <c r="C83" s="152"/>
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="117">
         <v>6</v>
       </c>
-      <c r="B84" s="149" t="s">
+      <c r="B84" s="158" t="s">
         <v>790</v>
       </c>
-      <c r="C84" s="150"/>
+      <c r="C84" s="159"/>
     </row>
     <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="151" t="s">
+      <c r="A86" s="153" t="s">
         <v>860</v>
       </c>
-      <c r="B86" s="152"/>
-      <c r="C86" s="153"/>
+      <c r="B86" s="154"/>
+      <c r="C86" s="155"/>
     </row>
     <row r="87" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="115">
         <v>1</v>
       </c>
-      <c r="B87" s="154" t="s">
+      <c r="B87" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="155"/>
+      <c r="C87" s="157"/>
     </row>
     <row r="88" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="124"/>
@@ -6442,10 +6442,10 @@
       <c r="A107" s="116">
         <v>2</v>
       </c>
-      <c r="B107" s="156" t="s">
+      <c r="B107" s="147" t="s">
         <v>811</v>
       </c>
-      <c r="C107" s="157"/>
+      <c r="C107" s="148"/>
     </row>
     <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="116"/>
@@ -6523,10 +6523,10 @@
       <c r="A116" s="116">
         <v>3</v>
       </c>
-      <c r="B116" s="158" t="s">
+      <c r="B116" s="149" t="s">
         <v>812</v>
       </c>
-      <c r="C116" s="159"/>
+      <c r="C116" s="150"/>
     </row>
     <row r="117" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="116"/>
@@ -6582,10 +6582,10 @@
       <c r="A123" s="115">
         <v>4</v>
       </c>
-      <c r="B123" s="147" t="s">
+      <c r="B123" s="151" t="s">
         <v>813</v>
       </c>
-      <c r="C123" s="148"/>
+      <c r="C123" s="152"/>
     </row>
     <row r="124" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="124"/>
@@ -6625,20 +6625,20 @@
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="129" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="151" t="s">
+      <c r="A129" s="153" t="s">
         <v>861</v>
       </c>
-      <c r="B129" s="152"/>
-      <c r="C129" s="153"/>
+      <c r="B129" s="154"/>
+      <c r="C129" s="155"/>
     </row>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="115">
         <v>1</v>
       </c>
-      <c r="B130" s="154" t="s">
+      <c r="B130" s="156" t="s">
         <v>862</v>
       </c>
-      <c r="C130" s="155"/>
+      <c r="C130" s="157"/>
     </row>
     <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="124"/>
@@ -6785,10 +6785,10 @@
       <c r="A150" s="116">
         <v>2</v>
       </c>
-      <c r="B150" s="156" t="s">
+      <c r="B150" s="147" t="s">
         <v>863</v>
       </c>
-      <c r="C150" s="157"/>
+      <c r="C150" s="148"/>
     </row>
     <row r="151" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="116"/>
@@ -6858,10 +6858,10 @@
       <c r="A159" s="116">
         <v>3</v>
       </c>
-      <c r="B159" s="158" t="s">
+      <c r="B159" s="149" t="s">
         <v>864</v>
       </c>
-      <c r="C159" s="159"/>
+      <c r="C159" s="150"/>
     </row>
     <row r="160" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="116"/>
@@ -6915,12 +6915,42 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
     <mergeCell ref="B107:C107"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
@@ -6937,42 +6967,12 @@
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="B130:C130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -25553,7 +25553,7 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26262,7 +26262,7 @@
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="136" t="s">
         <v>1082</v>
       </c>
       <c r="B12" s="137" t="s">

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" firstSheet="13" activeTab="23"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="TODO - Quick Battle" sheetId="37" r:id="rId1"/>
@@ -644,7 +644,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="1176">
   <si>
     <t>Fishing</t>
   </si>
@@ -4040,6 +4040,138 @@
   </si>
   <si>
     <t>Restores Target Stamina</t>
+  </si>
+  <si>
+    <t>Holy Dampening</t>
+  </si>
+  <si>
+    <t>Target damag received is lowered by 20%</t>
+  </si>
+  <si>
+    <t>Increases amount</t>
+  </si>
+  <si>
+    <t>Healing Dawn</t>
+  </si>
+  <si>
+    <t>Heal 4 random nearby allies</t>
+  </si>
+  <si>
+    <t>Increases healing</t>
+  </si>
+  <si>
+    <t>Increases number heaed</t>
+  </si>
+  <si>
+    <t>Shield Ward</t>
+  </si>
+  <si>
+    <t>Target gains a ward that produces a shield when damaged</t>
+  </si>
+  <si>
+    <t>Minor Shield</t>
+  </si>
+  <si>
+    <t>Target gains a shield</t>
+  </si>
+  <si>
+    <t>Reassuring Touch</t>
+  </si>
+  <si>
+    <t>Target gains morale</t>
+  </si>
+  <si>
+    <t>Nearby allies gain morale</t>
+  </si>
+  <si>
+    <t>Prayer of Morale</t>
+  </si>
+  <si>
+    <t>Healing Beacon</t>
+  </si>
+  <si>
+    <t>Target receives buff that doubles heals received.  Nearby allies receive small % of heals</t>
+  </si>
+  <si>
+    <t>Caster receives buff.  Each turn, caster heals all adjacent allies</t>
+  </si>
+  <si>
+    <t>Prayer of Battle</t>
+  </si>
+  <si>
+    <t>Nearby allies gain parry, block, and melee skill</t>
+  </si>
+  <si>
+    <t>Champion's Boon</t>
+  </si>
+  <si>
+    <t>Ally gains a boon that buffs target with constitution on each attack</t>
+  </si>
+  <si>
+    <t>Holy Emanation</t>
+  </si>
+  <si>
+    <t>Regrowth</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>Grass 3</t>
+  </si>
+  <si>
+    <t>Heals target and gives target a HoT</t>
+  </si>
+  <si>
+    <t>Rejuvenation</t>
+  </si>
+  <si>
+    <t>Grass 1</t>
+  </si>
+  <si>
+    <t>Nourish</t>
+  </si>
+  <si>
+    <t>Grass 2</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>Lifebloom</t>
+  </si>
+  <si>
+    <t>Grass 4</t>
+  </si>
+  <si>
+    <t>HoT.  When HoT expires, it heals target</t>
+  </si>
+  <si>
+    <t>Swiftmend</t>
+  </si>
+  <si>
+    <t>Grass 5</t>
+  </si>
+  <si>
+    <t>Drastically heals target.  Consumes HoTs on target for 1/2 HoT remaining.  Can only use on target with HoT</t>
+  </si>
+  <si>
+    <t>Immunity</t>
+  </si>
+  <si>
+    <t>Light 7</t>
+  </si>
+  <si>
+    <t>Target is immune to all damage and negative effects for duration</t>
+  </si>
+  <si>
+    <t>Shelter</t>
+  </si>
+  <si>
+    <t>Caster and adjacent allies gain shields</t>
   </si>
 </sst>
 </file>
@@ -4890,7 +5022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5228,6 +5360,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5636,29 +5771,29 @@
       <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="154" t="s">
         <v>781</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="155"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="156"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="157" t="s">
         <v>782</v>
       </c>
-      <c r="C3" s="157"/>
+      <c r="C3" s="158"/>
     </row>
     <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="116">
         <v>2</v>
       </c>
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="148" t="s">
         <v>783</v>
       </c>
-      <c r="C4" s="148"/>
+      <c r="C4" s="149"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="116"/>
@@ -5709,10 +5844,10 @@
       <c r="A10" s="116">
         <v>3</v>
       </c>
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="150" t="s">
         <v>784</v>
       </c>
-      <c r="C10" s="150"/>
+      <c r="C10" s="151"/>
     </row>
     <row r="11" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="116"/>
@@ -5727,10 +5862,10 @@
       <c r="A12" s="116">
         <v>4</v>
       </c>
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="152" t="s">
         <v>785</v>
       </c>
-      <c r="C12" s="152"/>
+      <c r="C12" s="153"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="116"/>
@@ -5745,10 +5880,10 @@
       <c r="A14" s="116">
         <v>5</v>
       </c>
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="152" t="s">
         <v>786</v>
       </c>
-      <c r="C14" s="152"/>
+      <c r="C14" s="153"/>
     </row>
     <row r="15" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="116"/>
@@ -5763,10 +5898,10 @@
       <c r="A16" s="117">
         <v>6</v>
       </c>
-      <c r="B16" s="158" t="s">
+      <c r="B16" s="159" t="s">
         <v>790</v>
       </c>
-      <c r="C16" s="159"/>
+      <c r="C16" s="160"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="116"/>
@@ -5781,46 +5916,46 @@
       <c r="A18" s="117">
         <v>7</v>
       </c>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="159" t="s">
         <v>911</v>
       </c>
-      <c r="C18" s="159"/>
+      <c r="C18" s="160"/>
     </row>
     <row r="19" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="132">
         <v>8</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="159" t="s">
         <v>996</v>
       </c>
-      <c r="C19" s="159"/>
+      <c r="C19" s="160"/>
     </row>
     <row r="20" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="132">
         <v>9</v>
       </c>
-      <c r="B20" s="158" t="s">
+      <c r="B20" s="159" t="s">
         <v>912</v>
       </c>
-      <c r="C20" s="159"/>
+      <c r="C20" s="160"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="153" t="s">
+      <c r="A23" s="154" t="s">
         <v>792</v>
       </c>
-      <c r="B23" s="154"/>
-      <c r="C23" s="155"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="156"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="115">
         <v>1</v>
       </c>
-      <c r="B24" s="156" t="s">
+      <c r="B24" s="157" t="s">
         <v>781</v>
       </c>
-      <c r="C24" s="157"/>
+      <c r="C24" s="158"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="116"/>
@@ -5836,10 +5971,10 @@
       <c r="A27" s="116">
         <v>2</v>
       </c>
-      <c r="B27" s="147" t="s">
+      <c r="B27" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="148"/>
+      <c r="C27" s="149"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="116"/>
@@ -5863,10 +5998,10 @@
       <c r="A30" s="116">
         <v>3</v>
       </c>
-      <c r="B30" s="147" t="s">
+      <c r="B30" s="148" t="s">
         <v>997</v>
       </c>
-      <c r="C30" s="148"/>
+      <c r="C30" s="149"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="116"/>
@@ -5888,20 +6023,20 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="153" t="s">
+      <c r="A34" s="154" t="s">
         <v>796</v>
       </c>
-      <c r="B34" s="154"/>
-      <c r="C34" s="155"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="156"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="115">
         <v>1</v>
       </c>
-      <c r="B35" s="156" t="s">
+      <c r="B35" s="157" t="s">
         <v>797</v>
       </c>
-      <c r="C35" s="157"/>
+      <c r="C35" s="158"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="116"/>
@@ -5937,20 +6072,20 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="153" t="s">
+      <c r="A41" s="154" t="s">
         <v>800</v>
       </c>
-      <c r="B41" s="154"/>
-      <c r="C41" s="155"/>
+      <c r="B41" s="155"/>
+      <c r="C41" s="156"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="115">
         <v>1</v>
       </c>
-      <c r="B42" s="156" t="s">
+      <c r="B42" s="157" t="s">
         <v>801</v>
       </c>
-      <c r="C42" s="157"/>
+      <c r="C42" s="158"/>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="116"/>
@@ -5974,10 +6109,10 @@
       <c r="A45" s="115">
         <v>1</v>
       </c>
-      <c r="B45" s="156" t="s">
+      <c r="B45" s="157" t="s">
         <v>803</v>
       </c>
-      <c r="C45" s="157"/>
+      <c r="C45" s="158"/>
     </row>
     <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="116"/>
@@ -6013,263 +6148,263 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="153" t="s">
+      <c r="A51" s="154" t="s">
         <v>188</v>
       </c>
-      <c r="B51" s="154"/>
-      <c r="C51" s="155"/>
+      <c r="B51" s="155"/>
+      <c r="C51" s="156"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="115">
         <v>1</v>
       </c>
-      <c r="B52" s="156" t="s">
+      <c r="B52" s="157" t="s">
         <v>808</v>
       </c>
-      <c r="C52" s="157"/>
+      <c r="C52" s="158"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="153" t="s">
+      <c r="A54" s="154" t="s">
         <v>789</v>
       </c>
-      <c r="B54" s="154"/>
-      <c r="C54" s="155"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="156"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="115">
         <v>1</v>
       </c>
-      <c r="B55" s="149" t="s">
+      <c r="B55" s="150" t="s">
         <v>782</v>
       </c>
-      <c r="C55" s="150"/>
+      <c r="C55" s="151"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="116">
         <v>2</v>
       </c>
-      <c r="B56" s="160" t="s">
+      <c r="B56" s="161" t="s">
         <v>783</v>
       </c>
-      <c r="C56" s="161"/>
+      <c r="C56" s="162"/>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="116">
         <v>3</v>
       </c>
-      <c r="B57" s="151" t="s">
+      <c r="B57" s="152" t="s">
         <v>784</v>
       </c>
-      <c r="C57" s="152"/>
+      <c r="C57" s="153"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="116">
         <v>4</v>
       </c>
-      <c r="B58" s="151" t="s">
+      <c r="B58" s="152" t="s">
         <v>785</v>
       </c>
-      <c r="C58" s="152"/>
+      <c r="C58" s="153"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="116">
         <v>5</v>
       </c>
-      <c r="B59" s="151" t="s">
+      <c r="B59" s="152" t="s">
         <v>786</v>
       </c>
-      <c r="C59" s="152"/>
+      <c r="C59" s="153"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="117">
         <v>6</v>
       </c>
-      <c r="B60" s="158" t="s">
+      <c r="B60" s="159" t="s">
         <v>790</v>
       </c>
-      <c r="C60" s="159"/>
+      <c r="C60" s="160"/>
     </row>
     <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="153" t="s">
+      <c r="A62" s="154" t="s">
         <v>809</v>
       </c>
-      <c r="B62" s="154"/>
-      <c r="C62" s="155"/>
+      <c r="B62" s="155"/>
+      <c r="C62" s="156"/>
     </row>
     <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="115">
         <v>1</v>
       </c>
-      <c r="B63" s="149" t="s">
+      <c r="B63" s="150" t="s">
         <v>782</v>
       </c>
-      <c r="C63" s="150"/>
+      <c r="C63" s="151"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="116">
         <v>2</v>
       </c>
-      <c r="B64" s="160" t="s">
+      <c r="B64" s="161" t="s">
         <v>783</v>
       </c>
-      <c r="C64" s="161"/>
+      <c r="C64" s="162"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="116">
         <v>3</v>
       </c>
-      <c r="B65" s="151" t="s">
+      <c r="B65" s="152" t="s">
         <v>784</v>
       </c>
-      <c r="C65" s="152"/>
+      <c r="C65" s="153"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="116">
         <v>4</v>
       </c>
-      <c r="B66" s="151" t="s">
+      <c r="B66" s="152" t="s">
         <v>785</v>
       </c>
-      <c r="C66" s="152"/>
+      <c r="C66" s="153"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="116">
         <v>5</v>
       </c>
-      <c r="B67" s="151" t="s">
+      <c r="B67" s="152" t="s">
         <v>786</v>
       </c>
-      <c r="C67" s="152"/>
+      <c r="C67" s="153"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="117">
         <v>6</v>
       </c>
-      <c r="B68" s="158" t="s">
+      <c r="B68" s="159" t="s">
         <v>790</v>
       </c>
-      <c r="C68" s="159"/>
+      <c r="C68" s="160"/>
     </row>
     <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="153" t="s">
+      <c r="A70" s="154" t="s">
         <v>997</v>
       </c>
-      <c r="B70" s="154"/>
-      <c r="C70" s="155"/>
+      <c r="B70" s="155"/>
+      <c r="C70" s="156"/>
     </row>
     <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="115">
         <v>1</v>
       </c>
-      <c r="B71" s="149"/>
-      <c r="C71" s="150"/>
+      <c r="B71" s="150"/>
+      <c r="C71" s="151"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="116"/>
-      <c r="B72" s="160"/>
-      <c r="C72" s="161"/>
+      <c r="B72" s="161"/>
+      <c r="C72" s="162"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="116"/>
-      <c r="B73" s="151"/>
-      <c r="C73" s="152"/>
+      <c r="B73" s="152"/>
+      <c r="C73" s="153"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="116"/>
-      <c r="B74" s="151"/>
-      <c r="C74" s="152"/>
+      <c r="B74" s="152"/>
+      <c r="C74" s="153"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="116"/>
-      <c r="B75" s="151"/>
-      <c r="C75" s="152"/>
+      <c r="B75" s="152"/>
+      <c r="C75" s="153"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="117"/>
-      <c r="B76" s="158"/>
-      <c r="C76" s="159"/>
+      <c r="B76" s="159"/>
+      <c r="C76" s="160"/>
     </row>
     <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="153" t="s">
+      <c r="A78" s="154" t="s">
         <v>810</v>
       </c>
-      <c r="B78" s="154"/>
-      <c r="C78" s="155"/>
+      <c r="B78" s="155"/>
+      <c r="C78" s="156"/>
     </row>
     <row r="79" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="115">
         <v>1</v>
       </c>
-      <c r="B79" s="149" t="s">
+      <c r="B79" s="150" t="s">
         <v>782</v>
       </c>
-      <c r="C79" s="150"/>
+      <c r="C79" s="151"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="116">
         <v>2</v>
       </c>
-      <c r="B80" s="160" t="s">
+      <c r="B80" s="161" t="s">
         <v>783</v>
       </c>
-      <c r="C80" s="161"/>
+      <c r="C80" s="162"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="116">
         <v>3</v>
       </c>
-      <c r="B81" s="151" t="s">
+      <c r="B81" s="152" t="s">
         <v>784</v>
       </c>
-      <c r="C81" s="152"/>
+      <c r="C81" s="153"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="116">
         <v>4</v>
       </c>
-      <c r="B82" s="151" t="s">
+      <c r="B82" s="152" t="s">
         <v>785</v>
       </c>
-      <c r="C82" s="152"/>
+      <c r="C82" s="153"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="116">
         <v>5</v>
       </c>
-      <c r="B83" s="151" t="s">
+      <c r="B83" s="152" t="s">
         <v>786</v>
       </c>
-      <c r="C83" s="152"/>
+      <c r="C83" s="153"/>
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="117">
         <v>6</v>
       </c>
-      <c r="B84" s="158" t="s">
+      <c r="B84" s="159" t="s">
         <v>790</v>
       </c>
-      <c r="C84" s="159"/>
+      <c r="C84" s="160"/>
     </row>
     <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="153" t="s">
+      <c r="A86" s="154" t="s">
         <v>860</v>
       </c>
-      <c r="B86" s="154"/>
-      <c r="C86" s="155"/>
+      <c r="B86" s="155"/>
+      <c r="C86" s="156"/>
     </row>
     <row r="87" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="115">
         <v>1</v>
       </c>
-      <c r="B87" s="156" t="s">
+      <c r="B87" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="157"/>
+      <c r="C87" s="158"/>
     </row>
     <row r="88" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="124"/>
@@ -6442,10 +6577,10 @@
       <c r="A107" s="116">
         <v>2</v>
       </c>
-      <c r="B107" s="147" t="s">
+      <c r="B107" s="148" t="s">
         <v>811</v>
       </c>
-      <c r="C107" s="148"/>
+      <c r="C107" s="149"/>
     </row>
     <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="116"/>
@@ -6523,10 +6658,10 @@
       <c r="A116" s="116">
         <v>3</v>
       </c>
-      <c r="B116" s="149" t="s">
+      <c r="B116" s="150" t="s">
         <v>812</v>
       </c>
-      <c r="C116" s="150"/>
+      <c r="C116" s="151"/>
     </row>
     <row r="117" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="116"/>
@@ -6582,10 +6717,10 @@
       <c r="A123" s="115">
         <v>4</v>
       </c>
-      <c r="B123" s="151" t="s">
+      <c r="B123" s="152" t="s">
         <v>813</v>
       </c>
-      <c r="C123" s="152"/>
+      <c r="C123" s="153"/>
     </row>
     <row r="124" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="124"/>
@@ -6625,20 +6760,20 @@
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="129" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="153" t="s">
+      <c r="A129" s="154" t="s">
         <v>861</v>
       </c>
-      <c r="B129" s="154"/>
-      <c r="C129" s="155"/>
+      <c r="B129" s="155"/>
+      <c r="C129" s="156"/>
     </row>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="115">
         <v>1</v>
       </c>
-      <c r="B130" s="156" t="s">
+      <c r="B130" s="157" t="s">
         <v>862</v>
       </c>
-      <c r="C130" s="157"/>
+      <c r="C130" s="158"/>
     </row>
     <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="124"/>
@@ -6785,10 +6920,10 @@
       <c r="A150" s="116">
         <v>2</v>
       </c>
-      <c r="B150" s="147" t="s">
+      <c r="B150" s="148" t="s">
         <v>863</v>
       </c>
-      <c r="C150" s="148"/>
+      <c r="C150" s="149"/>
     </row>
     <row r="151" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="116"/>
@@ -6858,10 +6993,10 @@
       <c r="A159" s="116">
         <v>3</v>
       </c>
-      <c r="B159" s="149" t="s">
+      <c r="B159" s="150" t="s">
         <v>864</v>
       </c>
-      <c r="C159" s="150"/>
+      <c r="C159" s="151"/>
     </row>
     <row r="160" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="116"/>
@@ -6983,8 +7118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7168,7 +7303,9 @@
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
@@ -7698,7 +7835,7 @@
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8169,31 +8306,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="166" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="168" t="s">
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="169" t="s">
         <v>183</v>
       </c>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="171"/>
     </row>
     <row r="2" spans="1:22" ht="44.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K2" s="66" t="s">
@@ -22325,8 +22462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22345,17 +22482,17 @@
       <c r="A1" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="172" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="174"/>
       <c r="K1" s="91" t="s">
         <v>364</v>
       </c>
@@ -24203,7 +24340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -24222,15 +24359,15 @@
       <c r="C1" t="s">
         <v>700</v>
       </c>
-      <c r="E1" s="174" t="s">
+      <c r="E1" s="175" t="s">
         <v>365</v>
       </c>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
       <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
@@ -25550,10 +25687,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL40"/>
+  <dimension ref="A1:BL44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26785,158 +26922,580 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="137"/>
+      <c r="A27" s="146" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B27" s="137" t="s">
+        <v>1083</v>
+      </c>
       <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
+      <c r="D27" s="137" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E27" s="137" t="s">
+        <v>1085</v>
+      </c>
       <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
+      <c r="G27" s="137" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H27" s="137">
+        <v>3</v>
+      </c>
+      <c r="I27" s="137">
+        <v>1</v>
+      </c>
+      <c r="J27" s="137">
+        <v>3</v>
+      </c>
       <c r="K27" s="137"/>
+      <c r="L27" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1134</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="137"/>
+      <c r="A28" s="146" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B28" s="137" t="s">
+        <v>1083</v>
+      </c>
       <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
+      <c r="D28" s="137" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E28" s="137" t="s">
+        <v>1085</v>
+      </c>
       <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
+      <c r="G28" s="137" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H28" s="137">
+        <v>0</v>
+      </c>
+      <c r="I28" s="137">
+        <v>1</v>
+      </c>
       <c r="J28" s="137"/>
       <c r="K28" s="137"/>
+      <c r="L28" t="s">
+        <v>1136</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1137</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1138</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="137"/>
+      <c r="A29" s="146" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B29" s="137" t="s">
+        <v>1083</v>
+      </c>
       <c r="C29" s="137"/>
-      <c r="D29" s="137"/>
+      <c r="D29" s="137" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E29" s="137" t="s">
+        <v>1085</v>
+      </c>
       <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
+      <c r="G29" s="137" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H29" s="137">
+        <v>3</v>
+      </c>
+      <c r="I29" s="137">
+        <v>1</v>
+      </c>
+      <c r="J29" s="137">
+        <v>3</v>
+      </c>
       <c r="K29" s="137"/>
+      <c r="L29" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1107</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1128</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="137"/>
+      <c r="A30" s="146" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B30" s="137" t="s">
+        <v>1004</v>
+      </c>
       <c r="C30" s="137"/>
-      <c r="D30" s="137"/>
+      <c r="D30" s="137" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E30" s="137" t="s">
+        <v>1085</v>
+      </c>
       <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
+      <c r="G30" s="137" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H30" s="137">
+        <v>3</v>
+      </c>
+      <c r="I30" s="137">
+        <v>1</v>
+      </c>
+      <c r="J30" s="137">
+        <v>3</v>
+      </c>
       <c r="K30" s="137"/>
+      <c r="L30" t="s">
+        <v>1142</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="137"/>
+      <c r="A31" s="146" t="s">
+        <v>888</v>
+      </c>
+      <c r="B31" s="137" t="s">
+        <v>1004</v>
+      </c>
       <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
+      <c r="D31" s="137" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E31" s="137" t="s">
+        <v>1085</v>
+      </c>
       <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
+      <c r="G31" s="137" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H31" s="137">
+        <v>3</v>
+      </c>
+      <c r="I31" s="137">
+        <v>1</v>
+      </c>
+      <c r="J31" s="137">
+        <v>4</v>
+      </c>
       <c r="K31" s="137"/>
+      <c r="L31" t="s">
+        <v>1142</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="137"/>
+      <c r="A32" s="146" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B32" s="137" t="s">
+        <v>1083</v>
+      </c>
       <c r="C32" s="137"/>
-      <c r="D32" s="137"/>
+      <c r="D32" s="137" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E32" s="137" t="s">
+        <v>1085</v>
+      </c>
       <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
+      <c r="G32" s="137" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H32" s="137">
+        <v>1</v>
+      </c>
+      <c r="I32" s="137">
+        <v>0</v>
+      </c>
       <c r="J32" s="137"/>
       <c r="K32" s="137"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="137"/>
+      <c r="L32" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="146" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B33" s="137" t="s">
+        <v>1083</v>
+      </c>
       <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
+      <c r="D33" s="137" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E33" s="137" t="s">
+        <v>1085</v>
+      </c>
       <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="137"/>
+      <c r="G33" s="137" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H33" s="137">
+        <v>0</v>
+      </c>
+      <c r="I33" s="137">
+        <v>0</v>
+      </c>
       <c r="J33" s="137"/>
       <c r="K33" s="137"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="137"/>
+      <c r="L33" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="146" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B34" s="137" t="s">
+        <v>1083</v>
+      </c>
       <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
+      <c r="D34" s="137" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E34" s="137" t="s">
+        <v>1085</v>
+      </c>
       <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
+      <c r="G34" s="137" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H34" s="137">
+        <v>3</v>
+      </c>
+      <c r="I34" s="137">
+        <v>2</v>
+      </c>
+      <c r="J34" s="137">
+        <v>4</v>
+      </c>
       <c r="K34" s="137"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="137"/>
+      <c r="L34" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="146" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B35" s="137" t="s">
+        <v>1083</v>
+      </c>
       <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
+      <c r="D35" s="137" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E35" s="137" t="s">
+        <v>1085</v>
+      </c>
       <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
+      <c r="G35" s="137" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H35" s="137">
+        <v>0</v>
+      </c>
+      <c r="I35" s="137">
+        <v>2</v>
+      </c>
+      <c r="J35" s="137">
+        <v>4</v>
+      </c>
       <c r="K35" s="137"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="137"/>
+      <c r="L35" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="146" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B36" s="137" t="s">
+        <v>1083</v>
+      </c>
       <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
+      <c r="D36" s="137" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E36" s="137" t="s">
+        <v>1085</v>
+      </c>
       <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
+      <c r="G36" s="137" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H36" s="137">
+        <v>0</v>
+      </c>
+      <c r="I36" s="137">
+        <v>1</v>
+      </c>
+      <c r="J36" s="137">
+        <v>3</v>
+      </c>
       <c r="K36" s="137"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="137"/>
+      <c r="L36" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="146" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B37" s="137" t="s">
+        <v>1083</v>
+      </c>
       <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
+      <c r="D37" s="137" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E37" s="137" t="s">
+        <v>1085</v>
+      </c>
       <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="137"/>
+      <c r="G37" s="137" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H37" s="137">
+        <v>3</v>
+      </c>
+      <c r="I37" s="137">
+        <v>1</v>
+      </c>
+      <c r="J37" s="137">
+        <v>3</v>
+      </c>
       <c r="K37" s="137"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="137"/>
+      <c r="L37" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="146" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B38" s="137" t="s">
+        <v>1156</v>
+      </c>
       <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
+      <c r="D38" s="137" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E38" s="137" t="s">
+        <v>1085</v>
+      </c>
       <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
+      <c r="G38" s="137" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H38" s="137">
+        <v>3</v>
+      </c>
+      <c r="I38" s="137">
+        <v>1</v>
+      </c>
+      <c r="J38" s="137">
+        <v>3</v>
+      </c>
       <c r="K38" s="137"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="137"/>
+      <c r="L38" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="146" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B39" s="137" t="s">
+        <v>1156</v>
+      </c>
       <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
+      <c r="D39" s="137" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E39" s="137" t="s">
+        <v>1085</v>
+      </c>
       <c r="F39" s="137"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="137"/>
-      <c r="J39" s="137"/>
+      <c r="G39" s="137" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H39" s="137">
+        <v>3</v>
+      </c>
+      <c r="I39" s="137">
+        <v>0</v>
+      </c>
+      <c r="J39" s="137">
+        <v>3</v>
+      </c>
       <c r="K39" s="137"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="137"/>
+      <c r="L39" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="146" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B40" s="137" t="s">
+        <v>1156</v>
+      </c>
       <c r="C40" s="137"/>
-      <c r="D40" s="137"/>
+      <c r="D40" s="137" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E40" s="137" t="s">
+        <v>1085</v>
+      </c>
       <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="137"/>
+      <c r="G40" s="137" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H40" s="137">
+        <v>3</v>
+      </c>
+      <c r="I40" s="137">
+        <v>1</v>
+      </c>
+      <c r="J40" s="137">
+        <v>6</v>
+      </c>
       <c r="K40" s="137"/>
+      <c r="L40" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="146" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B41" s="147" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D41" s="147" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E41" s="137" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G41" s="147" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H41" s="147">
+        <v>3</v>
+      </c>
+      <c r="I41" s="147">
+        <v>1</v>
+      </c>
+      <c r="J41" s="147">
+        <v>5</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="146" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B42" s="147" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D42" s="147" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E42" s="137" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G42" s="147" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H42" s="147">
+        <v>3</v>
+      </c>
+      <c r="I42" s="147">
+        <v>1</v>
+      </c>
+      <c r="J42" s="147">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="146" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B43" s="147" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D43" s="147" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E43" s="137" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G43" s="147" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H43" s="147">
+        <v>2</v>
+      </c>
+      <c r="I43" s="147">
+        <v>1</v>
+      </c>
+      <c r="J43" s="147">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="146" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B44" s="147" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D44" s="147" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E44" s="137" t="s">
+        <v>422</v>
+      </c>
+      <c r="G44" s="147" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H44" s="147">
+        <v>0</v>
+      </c>
+      <c r="I44" s="147">
+        <v>1</v>
+      </c>
+      <c r="J44" s="147">
+        <v>4</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1175</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27805,24 +28364,24 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="100"/>
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="165" t="s">
         <v>701</v>
       </c>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
       <c r="E1" s="101"/>
-      <c r="F1" s="162" t="s">
+      <c r="F1" s="163" t="s">
         <v>350</v>
       </c>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="164"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
       <c r="R1" s="30"/>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" firstSheet="13" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="TODO - Quick Battle" sheetId="37" r:id="rId1"/>
@@ -3961,9 +3961,6 @@
     <t>Remove all buffs on target, caster gains a Ghost DoT for each buff removed</t>
   </si>
   <si>
-    <t>Quick Shield</t>
-  </si>
-  <si>
     <t>Shield target with a massive, short duration shield</t>
   </si>
   <si>
@@ -4172,6 +4169,9 @@
   </si>
   <si>
     <t>Caster and adjacent allies gain shields</t>
+  </si>
+  <si>
+    <t>Quick Barrier</t>
   </si>
 </sst>
 </file>
@@ -5365,22 +5365,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5398,10 +5392,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5771,29 +5771,29 @@
       <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="152" t="s">
         <v>781</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="156"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="154"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="155" t="s">
         <v>782</v>
       </c>
-      <c r="C3" s="158"/>
+      <c r="C3" s="156"/>
     </row>
     <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="116">
         <v>2</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="157" t="s">
         <v>783</v>
       </c>
-      <c r="C4" s="149"/>
+      <c r="C4" s="158"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="116"/>
@@ -5844,10 +5844,10 @@
       <c r="A10" s="116">
         <v>3</v>
       </c>
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="159" t="s">
         <v>784</v>
       </c>
-      <c r="C10" s="151"/>
+      <c r="C10" s="160"/>
     </row>
     <row r="11" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="116"/>
@@ -5862,10 +5862,10 @@
       <c r="A12" s="116">
         <v>4</v>
       </c>
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="148" t="s">
         <v>785</v>
       </c>
-      <c r="C12" s="153"/>
+      <c r="C12" s="149"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="116"/>
@@ -5880,10 +5880,10 @@
       <c r="A14" s="116">
         <v>5</v>
       </c>
-      <c r="B14" s="152" t="s">
+      <c r="B14" s="148" t="s">
         <v>786</v>
       </c>
-      <c r="C14" s="153"/>
+      <c r="C14" s="149"/>
     </row>
     <row r="15" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="116"/>
@@ -5898,10 +5898,10 @@
       <c r="A16" s="117">
         <v>6</v>
       </c>
-      <c r="B16" s="159" t="s">
+      <c r="B16" s="150" t="s">
         <v>790</v>
       </c>
-      <c r="C16" s="160"/>
+      <c r="C16" s="151"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="116"/>
@@ -5916,46 +5916,46 @@
       <c r="A18" s="117">
         <v>7</v>
       </c>
-      <c r="B18" s="159" t="s">
+      <c r="B18" s="150" t="s">
         <v>911</v>
       </c>
-      <c r="C18" s="160"/>
+      <c r="C18" s="151"/>
     </row>
     <row r="19" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="132">
         <v>8</v>
       </c>
-      <c r="B19" s="159" t="s">
+      <c r="B19" s="150" t="s">
         <v>996</v>
       </c>
-      <c r="C19" s="160"/>
+      <c r="C19" s="151"/>
     </row>
     <row r="20" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="132">
         <v>9</v>
       </c>
-      <c r="B20" s="159" t="s">
+      <c r="B20" s="150" t="s">
         <v>912</v>
       </c>
-      <c r="C20" s="160"/>
+      <c r="C20" s="151"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="154" t="s">
+      <c r="A23" s="152" t="s">
         <v>792</v>
       </c>
-      <c r="B23" s="155"/>
-      <c r="C23" s="156"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="154"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="115">
         <v>1</v>
       </c>
-      <c r="B24" s="157" t="s">
+      <c r="B24" s="155" t="s">
         <v>781</v>
       </c>
-      <c r="C24" s="158"/>
+      <c r="C24" s="156"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="116"/>
@@ -5971,10 +5971,10 @@
       <c r="A27" s="116">
         <v>2</v>
       </c>
-      <c r="B27" s="148" t="s">
+      <c r="B27" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="149"/>
+      <c r="C27" s="158"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="116"/>
@@ -5998,10 +5998,10 @@
       <c r="A30" s="116">
         <v>3</v>
       </c>
-      <c r="B30" s="148" t="s">
+      <c r="B30" s="157" t="s">
         <v>997</v>
       </c>
-      <c r="C30" s="149"/>
+      <c r="C30" s="158"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="116"/>
@@ -6023,20 +6023,20 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="154" t="s">
+      <c r="A34" s="152" t="s">
         <v>796</v>
       </c>
-      <c r="B34" s="155"/>
-      <c r="C34" s="156"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="154"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="115">
         <v>1</v>
       </c>
-      <c r="B35" s="157" t="s">
+      <c r="B35" s="155" t="s">
         <v>797</v>
       </c>
-      <c r="C35" s="158"/>
+      <c r="C35" s="156"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="116"/>
@@ -6072,20 +6072,20 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="154" t="s">
+      <c r="A41" s="152" t="s">
         <v>800</v>
       </c>
-      <c r="B41" s="155"/>
-      <c r="C41" s="156"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="154"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="115">
         <v>1</v>
       </c>
-      <c r="B42" s="157" t="s">
+      <c r="B42" s="155" t="s">
         <v>801</v>
       </c>
-      <c r="C42" s="158"/>
+      <c r="C42" s="156"/>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="116"/>
@@ -6109,10 +6109,10 @@
       <c r="A45" s="115">
         <v>1</v>
       </c>
-      <c r="B45" s="157" t="s">
+      <c r="B45" s="155" t="s">
         <v>803</v>
       </c>
-      <c r="C45" s="158"/>
+      <c r="C45" s="156"/>
     </row>
     <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="116"/>
@@ -6148,37 +6148,37 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="154" t="s">
+      <c r="A51" s="152" t="s">
         <v>188</v>
       </c>
-      <c r="B51" s="155"/>
-      <c r="C51" s="156"/>
+      <c r="B51" s="153"/>
+      <c r="C51" s="154"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="115">
         <v>1</v>
       </c>
-      <c r="B52" s="157" t="s">
+      <c r="B52" s="155" t="s">
         <v>808</v>
       </c>
-      <c r="C52" s="158"/>
+      <c r="C52" s="156"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="154" t="s">
+      <c r="A54" s="152" t="s">
         <v>789</v>
       </c>
-      <c r="B54" s="155"/>
-      <c r="C54" s="156"/>
+      <c r="B54" s="153"/>
+      <c r="C54" s="154"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="115">
         <v>1</v>
       </c>
-      <c r="B55" s="150" t="s">
+      <c r="B55" s="159" t="s">
         <v>782</v>
       </c>
-      <c r="C55" s="151"/>
+      <c r="C55" s="160"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="116">
@@ -6193,54 +6193,54 @@
       <c r="A57" s="116">
         <v>3</v>
       </c>
-      <c r="B57" s="152" t="s">
+      <c r="B57" s="148" t="s">
         <v>784</v>
       </c>
-      <c r="C57" s="153"/>
+      <c r="C57" s="149"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="116">
         <v>4</v>
       </c>
-      <c r="B58" s="152" t="s">
+      <c r="B58" s="148" t="s">
         <v>785</v>
       </c>
-      <c r="C58" s="153"/>
+      <c r="C58" s="149"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="116">
         <v>5</v>
       </c>
-      <c r="B59" s="152" t="s">
+      <c r="B59" s="148" t="s">
         <v>786</v>
       </c>
-      <c r="C59" s="153"/>
+      <c r="C59" s="149"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="117">
         <v>6</v>
       </c>
-      <c r="B60" s="159" t="s">
+      <c r="B60" s="150" t="s">
         <v>790</v>
       </c>
-      <c r="C60" s="160"/>
+      <c r="C60" s="151"/>
     </row>
     <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="154" t="s">
+      <c r="A62" s="152" t="s">
         <v>809</v>
       </c>
-      <c r="B62" s="155"/>
-      <c r="C62" s="156"/>
+      <c r="B62" s="153"/>
+      <c r="C62" s="154"/>
     </row>
     <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="115">
         <v>1</v>
       </c>
-      <c r="B63" s="150" t="s">
+      <c r="B63" s="159" t="s">
         <v>782</v>
       </c>
-      <c r="C63" s="151"/>
+      <c r="C63" s="160"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="116">
@@ -6255,52 +6255,52 @@
       <c r="A65" s="116">
         <v>3</v>
       </c>
-      <c r="B65" s="152" t="s">
+      <c r="B65" s="148" t="s">
         <v>784</v>
       </c>
-      <c r="C65" s="153"/>
+      <c r="C65" s="149"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="116">
         <v>4</v>
       </c>
-      <c r="B66" s="152" t="s">
+      <c r="B66" s="148" t="s">
         <v>785</v>
       </c>
-      <c r="C66" s="153"/>
+      <c r="C66" s="149"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="116">
         <v>5</v>
       </c>
-      <c r="B67" s="152" t="s">
+      <c r="B67" s="148" t="s">
         <v>786</v>
       </c>
-      <c r="C67" s="153"/>
+      <c r="C67" s="149"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="117">
         <v>6</v>
       </c>
-      <c r="B68" s="159" t="s">
+      <c r="B68" s="150" t="s">
         <v>790</v>
       </c>
-      <c r="C68" s="160"/>
+      <c r="C68" s="151"/>
     </row>
     <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="154" t="s">
+      <c r="A70" s="152" t="s">
         <v>997</v>
       </c>
-      <c r="B70" s="155"/>
-      <c r="C70" s="156"/>
+      <c r="B70" s="153"/>
+      <c r="C70" s="154"/>
     </row>
     <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="115">
         <v>1</v>
       </c>
-      <c r="B71" s="150"/>
-      <c r="C71" s="151"/>
+      <c r="B71" s="159"/>
+      <c r="C71" s="160"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="116"/>
@@ -6309,40 +6309,40 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="116"/>
-      <c r="B73" s="152"/>
-      <c r="C73" s="153"/>
+      <c r="B73" s="148"/>
+      <c r="C73" s="149"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="116"/>
-      <c r="B74" s="152"/>
-      <c r="C74" s="153"/>
+      <c r="B74" s="148"/>
+      <c r="C74" s="149"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="116"/>
-      <c r="B75" s="152"/>
-      <c r="C75" s="153"/>
+      <c r="B75" s="148"/>
+      <c r="C75" s="149"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="117"/>
-      <c r="B76" s="159"/>
-      <c r="C76" s="160"/>
+      <c r="B76" s="150"/>
+      <c r="C76" s="151"/>
     </row>
     <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="154" t="s">
+      <c r="A78" s="152" t="s">
         <v>810</v>
       </c>
-      <c r="B78" s="155"/>
-      <c r="C78" s="156"/>
+      <c r="B78" s="153"/>
+      <c r="C78" s="154"/>
     </row>
     <row r="79" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="115">
         <v>1</v>
       </c>
-      <c r="B79" s="150" t="s">
+      <c r="B79" s="159" t="s">
         <v>782</v>
       </c>
-      <c r="C79" s="151"/>
+      <c r="C79" s="160"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="116">
@@ -6357,54 +6357,54 @@
       <c r="A81" s="116">
         <v>3</v>
       </c>
-      <c r="B81" s="152" t="s">
+      <c r="B81" s="148" t="s">
         <v>784</v>
       </c>
-      <c r="C81" s="153"/>
+      <c r="C81" s="149"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="116">
         <v>4</v>
       </c>
-      <c r="B82" s="152" t="s">
+      <c r="B82" s="148" t="s">
         <v>785</v>
       </c>
-      <c r="C82" s="153"/>
+      <c r="C82" s="149"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="116">
         <v>5</v>
       </c>
-      <c r="B83" s="152" t="s">
+      <c r="B83" s="148" t="s">
         <v>786</v>
       </c>
-      <c r="C83" s="153"/>
+      <c r="C83" s="149"/>
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="117">
         <v>6</v>
       </c>
-      <c r="B84" s="159" t="s">
+      <c r="B84" s="150" t="s">
         <v>790</v>
       </c>
-      <c r="C84" s="160"/>
+      <c r="C84" s="151"/>
     </row>
     <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="154" t="s">
+      <c r="A86" s="152" t="s">
         <v>860</v>
       </c>
-      <c r="B86" s="155"/>
-      <c r="C86" s="156"/>
+      <c r="B86" s="153"/>
+      <c r="C86" s="154"/>
     </row>
     <row r="87" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="115">
         <v>1</v>
       </c>
-      <c r="B87" s="157" t="s">
+      <c r="B87" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="158"/>
+      <c r="C87" s="156"/>
     </row>
     <row r="88" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="124"/>
@@ -6577,10 +6577,10 @@
       <c r="A107" s="116">
         <v>2</v>
       </c>
-      <c r="B107" s="148" t="s">
+      <c r="B107" s="157" t="s">
         <v>811</v>
       </c>
-      <c r="C107" s="149"/>
+      <c r="C107" s="158"/>
     </row>
     <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="116"/>
@@ -6658,10 +6658,10 @@
       <c r="A116" s="116">
         <v>3</v>
       </c>
-      <c r="B116" s="150" t="s">
+      <c r="B116" s="159" t="s">
         <v>812</v>
       </c>
-      <c r="C116" s="151"/>
+      <c r="C116" s="160"/>
     </row>
     <row r="117" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="116"/>
@@ -6717,10 +6717,10 @@
       <c r="A123" s="115">
         <v>4</v>
       </c>
-      <c r="B123" s="152" t="s">
+      <c r="B123" s="148" t="s">
         <v>813</v>
       </c>
-      <c r="C123" s="153"/>
+      <c r="C123" s="149"/>
     </row>
     <row r="124" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="124"/>
@@ -6760,20 +6760,20 @@
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="129" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="154" t="s">
+      <c r="A129" s="152" t="s">
         <v>861</v>
       </c>
-      <c r="B129" s="155"/>
-      <c r="C129" s="156"/>
+      <c r="B129" s="153"/>
+      <c r="C129" s="154"/>
     </row>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="115">
         <v>1</v>
       </c>
-      <c r="B130" s="157" t="s">
+      <c r="B130" s="155" t="s">
         <v>862</v>
       </c>
-      <c r="C130" s="158"/>
+      <c r="C130" s="156"/>
     </row>
     <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="124"/>
@@ -6920,10 +6920,10 @@
       <c r="A150" s="116">
         <v>2</v>
       </c>
-      <c r="B150" s="148" t="s">
+      <c r="B150" s="157" t="s">
         <v>863</v>
       </c>
-      <c r="C150" s="149"/>
+      <c r="C150" s="158"/>
     </row>
     <row r="151" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="116"/>
@@ -6993,10 +6993,10 @@
       <c r="A159" s="116">
         <v>3</v>
       </c>
-      <c r="B159" s="150" t="s">
+      <c r="B159" s="159" t="s">
         <v>864</v>
       </c>
-      <c r="C159" s="151"/>
+      <c r="C159" s="160"/>
     </row>
     <row r="160" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="116"/>
@@ -7050,6 +7050,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
@@ -7066,48 +7108,6 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="B130:C130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -7118,7 +7118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -24340,7 +24340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -25689,8 +25689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26595,8 +26595,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="146" t="s">
-        <v>1105</v>
+      <c r="A17" s="136" t="s">
+        <v>1175</v>
       </c>
       <c r="B17" s="137" t="s">
         <v>1083</v>
@@ -26623,18 +26623,18 @@
       </c>
       <c r="K17" s="137"/>
       <c r="L17" t="s">
+        <v>1105</v>
+      </c>
+      <c r="M17" t="s">
         <v>1106</v>
       </c>
-      <c r="M17" t="s">
-        <v>1107</v>
-      </c>
       <c r="N17" s="144" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="146" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B18" s="137" t="s">
         <v>1083</v>
@@ -26659,12 +26659,12 @@
       <c r="J18" s="137"/>
       <c r="K18" s="137"/>
       <c r="L18" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="146" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B19" s="137" t="s">
         <v>1083</v>
@@ -26678,7 +26678,7 @@
       </c>
       <c r="F19" s="137"/>
       <c r="G19" s="137" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H19" s="137">
         <v>1</v>
@@ -26689,12 +26689,12 @@
       <c r="J19" s="137"/>
       <c r="K19" s="137"/>
       <c r="L19" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="146" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B20" s="137" t="s">
         <v>1083</v>
@@ -26710,7 +26710,7 @@
       </c>
       <c r="F20" s="137"/>
       <c r="G20" s="137" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H20" s="137">
         <v>4</v>
@@ -26721,7 +26721,7 @@
       <c r="J20" s="137"/>
       <c r="K20" s="137"/>
       <c r="L20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="M20" t="s">
         <v>1048</v>
@@ -26729,7 +26729,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="146" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B21" s="137" t="s">
         <v>1083</v>
@@ -26754,18 +26754,18 @@
       <c r="J21" s="137"/>
       <c r="K21" s="137"/>
       <c r="L21" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="M21" t="s">
         <v>1092</v>
       </c>
       <c r="N21" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="146" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B22" s="137" t="s">
         <v>1083</v>
@@ -26790,12 +26790,12 @@
       <c r="J22" s="137"/>
       <c r="K22" s="137"/>
       <c r="L22" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="146" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B23" s="137" t="s">
         <v>1083</v>
@@ -26820,12 +26820,12 @@
       <c r="J23" s="137"/>
       <c r="K23" s="137"/>
       <c r="L23" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="146" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B24" s="137" t="s">
         <v>1083</v>
@@ -26839,7 +26839,7 @@
       </c>
       <c r="F24" s="137"/>
       <c r="G24" s="137" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H24" s="137">
         <v>3</v>
@@ -26850,12 +26850,12 @@
       <c r="J24" s="137"/>
       <c r="K24" s="137"/>
       <c r="L24" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="146" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B25" s="137" t="s">
         <v>1083</v>
@@ -26882,18 +26882,18 @@
       </c>
       <c r="K25" s="137"/>
       <c r="L25" t="s">
+        <v>1125</v>
+      </c>
+      <c r="M25" t="s">
         <v>1126</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>1127</v>
-      </c>
-      <c r="N25" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="146" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B26" s="137" t="s">
         <v>1083</v>
@@ -26918,12 +26918,12 @@
       <c r="J26" s="137"/>
       <c r="K26" s="137"/>
       <c r="L26" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="146" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B27" s="137" t="s">
         <v>1083</v>
@@ -26950,15 +26950,15 @@
       </c>
       <c r="K27" s="137"/>
       <c r="L27" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M27" t="s">
         <v>1133</v>
-      </c>
-      <c r="M27" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="146" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B28" s="137" t="s">
         <v>1083</v>
@@ -26983,18 +26983,18 @@
       <c r="J28" s="137"/>
       <c r="K28" s="137"/>
       <c r="L28" t="s">
+        <v>1135</v>
+      </c>
+      <c r="M28" t="s">
         <v>1136</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>1137</v>
-      </c>
-      <c r="N28" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="146" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B29" s="137" t="s">
         <v>1083</v>
@@ -27021,18 +27021,18 @@
       </c>
       <c r="K29" s="137"/>
       <c r="L29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="M29" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="N29" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="146" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B30" s="137" t="s">
         <v>1004</v>
@@ -27059,10 +27059,10 @@
       </c>
       <c r="K30" s="137"/>
       <c r="L30" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="M30" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -27094,12 +27094,12 @@
       </c>
       <c r="K31" s="137"/>
       <c r="L31" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="146" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B32" s="137" t="s">
         <v>1083</v>
@@ -27124,12 +27124,12 @@
       <c r="J32" s="137"/>
       <c r="K32" s="137"/>
       <c r="L32" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="146" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B33" s="137" t="s">
         <v>1083</v>
@@ -27154,12 +27154,12 @@
       <c r="J33" s="137"/>
       <c r="K33" s="137"/>
       <c r="L33" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="146" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B34" s="137" t="s">
         <v>1083</v>
@@ -27173,7 +27173,7 @@
       </c>
       <c r="F34" s="137"/>
       <c r="G34" s="137" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H34" s="137">
         <v>3</v>
@@ -27186,12 +27186,12 @@
       </c>
       <c r="K34" s="137"/>
       <c r="L34" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="146" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B35" s="137" t="s">
         <v>1083</v>
@@ -27205,7 +27205,7 @@
       </c>
       <c r="F35" s="137"/>
       <c r="G35" s="137" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H35" s="137">
         <v>0</v>
@@ -27218,12 +27218,12 @@
       </c>
       <c r="K35" s="137"/>
       <c r="L35" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="146" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B36" s="137" t="s">
         <v>1083</v>
@@ -27250,12 +27250,12 @@
       </c>
       <c r="K36" s="137"/>
       <c r="L36" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="146" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B37" s="137" t="s">
         <v>1083</v>
@@ -27282,26 +27282,26 @@
       </c>
       <c r="K37" s="137"/>
       <c r="L37" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="146" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B38" s="137" t="s">
         <v>1155</v>
-      </c>
-      <c r="B38" s="137" t="s">
-        <v>1156</v>
       </c>
       <c r="C38" s="137"/>
       <c r="D38" s="137" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E38" s="137" t="s">
         <v>1085</v>
       </c>
       <c r="F38" s="137"/>
       <c r="G38" s="137" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H38" s="137">
         <v>3</v>
@@ -27314,26 +27314,26 @@
       </c>
       <c r="K38" s="137"/>
       <c r="L38" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="146" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B39" s="137" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C39" s="137"/>
       <c r="D39" s="137" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E39" s="137" t="s">
         <v>1085</v>
       </c>
       <c r="F39" s="137"/>
       <c r="G39" s="137" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H39" s="137">
         <v>3</v>
@@ -27351,21 +27351,21 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="146" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B40" s="137" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C40" s="137"/>
       <c r="D40" s="137" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E40" s="137" t="s">
         <v>1085</v>
       </c>
       <c r="F40" s="137"/>
       <c r="G40" s="137" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H40" s="137">
         <v>3</v>
@@ -27378,24 +27378,24 @@
       </c>
       <c r="K40" s="137"/>
       <c r="L40" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="146" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B41" s="147" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D41" s="147" t="s">
         <v>1156</v>
-      </c>
-      <c r="D41" s="147" t="s">
-        <v>1157</v>
       </c>
       <c r="E41" s="137" t="s">
         <v>1085</v>
       </c>
       <c r="G41" s="147" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H41" s="147">
         <v>3</v>
@@ -27407,24 +27407,24 @@
         <v>5</v>
       </c>
       <c r="L41" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="146" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B42" s="147" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D42" s="147" t="s">
         <v>1156</v>
-      </c>
-      <c r="D42" s="147" t="s">
-        <v>1157</v>
       </c>
       <c r="E42" s="137" t="s">
         <v>1085</v>
       </c>
       <c r="G42" s="147" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H42" s="147">
         <v>3</v>
@@ -27436,12 +27436,12 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="146" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B43" s="147" t="s">
         <v>1083</v>
@@ -27453,7 +27453,7 @@
         <v>1085</v>
       </c>
       <c r="G43" s="147" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H43" s="147">
         <v>2</v>
@@ -27465,12 +27465,12 @@
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B44" s="147" t="s">
         <v>1083</v>
@@ -27494,7 +27494,7 @@
         <v>4</v>
       </c>
       <c r="L44" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
   </sheetData>

--- a/Spreadsheets/Spreadsheet.xlsx
+++ b/Spreadsheets/Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" firstSheet="13" activeTab="23"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716"/>
   </bookViews>
   <sheets>
     <sheet name="TODO - Quick Battle" sheetId="37" r:id="rId1"/>
@@ -644,7 +644,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="1175">
   <si>
     <t>Fishing</t>
   </si>
@@ -3638,9 +3638,6 @@
   </si>
   <si>
     <t>Spells</t>
-  </si>
-  <si>
-    <t>taking turns</t>
   </si>
   <si>
     <t>interrupts</t>
@@ -5022,7 +5019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5341,12 +5338,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -5365,16 +5356,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5392,16 +5389,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5753,10 +5744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5790,10 +5781,10 @@
       <c r="A4" s="116">
         <v>2</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="146" t="s">
         <v>783</v>
       </c>
-      <c r="C4" s="158"/>
+      <c r="C4" s="147"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="116"/>
@@ -5844,10 +5835,10 @@
       <c r="A10" s="116">
         <v>3</v>
       </c>
-      <c r="B10" s="159" t="s">
+      <c r="B10" s="148" t="s">
         <v>784</v>
       </c>
-      <c r="C10" s="160"/>
+      <c r="C10" s="149"/>
     </row>
     <row r="11" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="116"/>
@@ -5862,10 +5853,10 @@
       <c r="A12" s="116">
         <v>4</v>
       </c>
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="150" t="s">
         <v>785</v>
       </c>
-      <c r="C12" s="149"/>
+      <c r="C12" s="151"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="116"/>
@@ -5880,10 +5871,10 @@
       <c r="A14" s="116">
         <v>5</v>
       </c>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="150" t="s">
         <v>786</v>
       </c>
-      <c r="C14" s="149"/>
+      <c r="C14" s="151"/>
     </row>
     <row r="15" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="116"/>
@@ -5898,10 +5889,10 @@
       <c r="A16" s="117">
         <v>6</v>
       </c>
-      <c r="B16" s="150" t="s">
+      <c r="B16" s="157" t="s">
         <v>790</v>
       </c>
-      <c r="C16" s="151"/>
+      <c r="C16" s="158"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="116"/>
@@ -5916,28 +5907,28 @@
       <c r="A18" s="117">
         <v>7</v>
       </c>
-      <c r="B18" s="150" t="s">
+      <c r="B18" s="157" t="s">
         <v>911</v>
       </c>
-      <c r="C18" s="151"/>
+      <c r="C18" s="158"/>
     </row>
     <row r="19" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="132">
         <v>8</v>
       </c>
-      <c r="B19" s="150" t="s">
+      <c r="B19" s="157" t="s">
         <v>996</v>
       </c>
-      <c r="C19" s="151"/>
+      <c r="C19" s="158"/>
     </row>
     <row r="20" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="132">
         <v>9</v>
       </c>
-      <c r="B20" s="150" t="s">
+      <c r="B20" s="157" t="s">
         <v>912</v>
       </c>
-      <c r="C20" s="151"/>
+      <c r="C20" s="158"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5971,10 +5962,10 @@
       <c r="A27" s="116">
         <v>2</v>
       </c>
-      <c r="B27" s="157" t="s">
+      <c r="B27" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="158"/>
+      <c r="C27" s="147"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="116"/>
@@ -5991,1110 +5982,1059 @@
         <v>788</v>
       </c>
       <c r="C29" s="121" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="116">
         <v>3</v>
       </c>
-      <c r="B30" s="157" t="s">
+      <c r="B30" s="146" t="s">
         <v>997</v>
       </c>
-      <c r="C30" s="158"/>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="147"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="116"/>
       <c r="B31" s="140" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C31" s="141" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="116"/>
-      <c r="B32" s="142" t="s">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="152" t="s">
+        <v>796</v>
+      </c>
+      <c r="B33" s="153"/>
+      <c r="C33" s="154"/>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="115">
+        <v>1</v>
+      </c>
+      <c r="B34" s="155" t="s">
+        <v>797</v>
+      </c>
+      <c r="C34" s="156"/>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="116"/>
+      <c r="B35" s="118" t="s">
+        <v>787</v>
+      </c>
+      <c r="C35" s="119" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="116"/>
+      <c r="B36" s="122" t="s">
         <v>788</v>
       </c>
-      <c r="C32" s="143" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="152" t="s">
-        <v>796</v>
-      </c>
-      <c r="B34" s="153"/>
-      <c r="C34" s="154"/>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="115">
-        <v>1</v>
-      </c>
-      <c r="B35" s="155" t="s">
-        <v>797</v>
-      </c>
-      <c r="C35" s="156"/>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="116"/>
-      <c r="B36" s="118" t="s">
-        <v>787</v>
-      </c>
-      <c r="C36" s="119" t="s">
-        <v>532</v>
+      <c r="C36" s="123" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="116"/>
       <c r="B37" s="122" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C37" s="123" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="116"/>
-      <c r="B38" s="122" t="s">
-        <v>791</v>
-      </c>
-      <c r="C38" s="123" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="116"/>
-      <c r="B39" s="120"/>
-      <c r="C39" s="121"/>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="121"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="152" t="s">
+        <v>800</v>
+      </c>
+      <c r="B40" s="153"/>
+      <c r="C40" s="154"/>
+    </row>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="152" t="s">
-        <v>800</v>
-      </c>
-      <c r="B41" s="153"/>
-      <c r="C41" s="154"/>
+      <c r="A41" s="115">
+        <v>1</v>
+      </c>
+      <c r="B41" s="155" t="s">
+        <v>801</v>
+      </c>
+      <c r="C41" s="156"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="115">
-        <v>1</v>
-      </c>
-      <c r="B42" s="155" t="s">
-        <v>801</v>
-      </c>
-      <c r="C42" s="156"/>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="116"/>
-      <c r="B43" s="118" t="s">
+      <c r="A42" s="116"/>
+      <c r="B42" s="118" t="s">
         <v>787</v>
       </c>
-      <c r="C43" s="119" t="s">
+      <c r="C42" s="119" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="124"/>
-      <c r="B44" s="120" t="s">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="124"/>
+      <c r="B43" s="120" t="s">
         <v>788</v>
       </c>
-      <c r="C44" s="121" t="s">
+      <c r="C43" s="121" t="s">
         <v>807</v>
       </c>
     </row>
+    <row r="44" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="115">
+        <v>1</v>
+      </c>
+      <c r="B44" s="155" t="s">
+        <v>803</v>
+      </c>
+      <c r="C44" s="156"/>
+    </row>
     <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="115">
-        <v>1</v>
-      </c>
-      <c r="B45" s="155" t="s">
-        <v>803</v>
-      </c>
-      <c r="C45" s="156"/>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="116"/>
+      <c r="B45" s="118" t="s">
+        <v>787</v>
+      </c>
+      <c r="C45" s="119" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="116"/>
-      <c r="B46" s="118" t="s">
-        <v>787</v>
-      </c>
-      <c r="C46" s="119" t="s">
-        <v>804</v>
+      <c r="B46" s="122" t="s">
+        <v>788</v>
+      </c>
+      <c r="C46" s="123" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="116"/>
       <c r="B47" s="122" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C47" s="123" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="116"/>
-      <c r="B48" s="122" t="s">
-        <v>791</v>
-      </c>
-      <c r="C48" s="123" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="116"/>
-      <c r="B49" s="120"/>
-      <c r="C49" s="121"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="121"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="152" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" s="153"/>
+      <c r="C50" s="154"/>
+    </row>
     <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="152" t="s">
-        <v>188</v>
-      </c>
-      <c r="B51" s="153"/>
-      <c r="C51" s="154"/>
-    </row>
-    <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="115">
-        <v>1</v>
-      </c>
-      <c r="B52" s="155" t="s">
+      <c r="A51" s="115">
+        <v>1</v>
+      </c>
+      <c r="B51" s="155" t="s">
         <v>808</v>
       </c>
-      <c r="C52" s="156"/>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C51" s="156"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="152" t="s">
+        <v>789</v>
+      </c>
+      <c r="B53" s="153"/>
+      <c r="C53" s="154"/>
+    </row>
     <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="152" t="s">
-        <v>789</v>
-      </c>
-      <c r="B54" s="153"/>
-      <c r="C54" s="154"/>
-    </row>
-    <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="115">
-        <v>1</v>
+      <c r="A54" s="115">
+        <v>1</v>
+      </c>
+      <c r="B54" s="148" t="s">
+        <v>782</v>
+      </c>
+      <c r="C54" s="149"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="116">
+        <v>2</v>
       </c>
       <c r="B55" s="159" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C55" s="160"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="116">
-        <v>2</v>
-      </c>
-      <c r="B56" s="161" t="s">
-        <v>783</v>
-      </c>
-      <c r="C56" s="162"/>
+        <v>3</v>
+      </c>
+      <c r="B56" s="150" t="s">
+        <v>784</v>
+      </c>
+      <c r="C56" s="151"/>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="116">
-        <v>3</v>
-      </c>
-      <c r="B57" s="148" t="s">
-        <v>784</v>
-      </c>
-      <c r="C57" s="149"/>
+        <v>4</v>
+      </c>
+      <c r="B57" s="150" t="s">
+        <v>785</v>
+      </c>
+      <c r="C57" s="151"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="116">
-        <v>4</v>
-      </c>
-      <c r="B58" s="148" t="s">
-        <v>785</v>
-      </c>
-      <c r="C58" s="149"/>
+        <v>5</v>
+      </c>
+      <c r="B58" s="150" t="s">
+        <v>786</v>
+      </c>
+      <c r="C58" s="151"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="116">
-        <v>5</v>
-      </c>
-      <c r="B59" s="148" t="s">
-        <v>786</v>
-      </c>
-      <c r="C59" s="149"/>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="117">
+      <c r="A59" s="117">
         <v>6</v>
       </c>
-      <c r="B60" s="150" t="s">
+      <c r="B59" s="157" t="s">
         <v>790</v>
       </c>
-      <c r="C60" s="151"/>
-    </row>
-    <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C59" s="158"/>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="152" t="s">
+        <v>809</v>
+      </c>
+      <c r="B61" s="153"/>
+      <c r="C61" s="154"/>
+    </row>
     <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="152" t="s">
-        <v>809</v>
-      </c>
-      <c r="B62" s="153"/>
-      <c r="C62" s="154"/>
-    </row>
-    <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="115">
-        <v>1</v>
+      <c r="A62" s="115">
+        <v>1</v>
+      </c>
+      <c r="B62" s="148" t="s">
+        <v>782</v>
+      </c>
+      <c r="C62" s="149"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="116">
+        <v>2</v>
       </c>
       <c r="B63" s="159" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C63" s="160"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="116">
-        <v>2</v>
-      </c>
-      <c r="B64" s="161" t="s">
-        <v>783</v>
-      </c>
-      <c r="C64" s="162"/>
+        <v>3</v>
+      </c>
+      <c r="B64" s="150" t="s">
+        <v>784</v>
+      </c>
+      <c r="C64" s="151"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="116">
-        <v>3</v>
-      </c>
-      <c r="B65" s="148" t="s">
-        <v>784</v>
-      </c>
-      <c r="C65" s="149"/>
+        <v>4</v>
+      </c>
+      <c r="B65" s="150" t="s">
+        <v>785</v>
+      </c>
+      <c r="C65" s="151"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="116">
-        <v>4</v>
-      </c>
-      <c r="B66" s="148" t="s">
-        <v>785</v>
-      </c>
-      <c r="C66" s="149"/>
+        <v>5</v>
+      </c>
+      <c r="B66" s="150" t="s">
+        <v>786</v>
+      </c>
+      <c r="C66" s="151"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="116">
-        <v>5</v>
-      </c>
-      <c r="B67" s="148" t="s">
-        <v>786</v>
-      </c>
-      <c r="C67" s="149"/>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="117">
+      <c r="A67" s="117">
         <v>6</v>
       </c>
-      <c r="B68" s="150" t="s">
+      <c r="B67" s="157" t="s">
         <v>790</v>
       </c>
-      <c r="C68" s="151"/>
-    </row>
-    <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C67" s="158"/>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="152" t="s">
+        <v>997</v>
+      </c>
+      <c r="B69" s="153"/>
+      <c r="C69" s="154"/>
+    </row>
     <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="152" t="s">
-        <v>997</v>
-      </c>
-      <c r="B70" s="153"/>
-      <c r="C70" s="154"/>
-    </row>
-    <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="115">
-        <v>1</v>
-      </c>
+      <c r="A70" s="115">
+        <v>1</v>
+      </c>
+      <c r="B70" s="148"/>
+      <c r="C70" s="149"/>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="116"/>
       <c r="B71" s="159"/>
       <c r="C71" s="160"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="116"/>
-      <c r="B72" s="161"/>
-      <c r="C72" s="162"/>
+      <c r="B72" s="150"/>
+      <c r="C72" s="151"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="116"/>
-      <c r="B73" s="148"/>
-      <c r="C73" s="149"/>
+      <c r="B73" s="150"/>
+      <c r="C73" s="151"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="116"/>
-      <c r="B74" s="148"/>
-      <c r="C74" s="149"/>
+      <c r="B74" s="150"/>
+      <c r="C74" s="151"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="116"/>
-      <c r="B75" s="148"/>
-      <c r="C75" s="149"/>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="117"/>
-      <c r="B76" s="150"/>
-      <c r="C76" s="151"/>
-    </row>
-    <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A75" s="117"/>
+      <c r="B75" s="157"/>
+      <c r="C75" s="158"/>
+    </row>
+    <row r="76" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="152" t="s">
+        <v>810</v>
+      </c>
+      <c r="B77" s="153"/>
+      <c r="C77" s="154"/>
+    </row>
     <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="152" t="s">
-        <v>810</v>
-      </c>
-      <c r="B78" s="153"/>
-      <c r="C78" s="154"/>
-    </row>
-    <row r="79" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="115">
-        <v>1</v>
+      <c r="A78" s="115">
+        <v>1</v>
+      </c>
+      <c r="B78" s="148" t="s">
+        <v>782</v>
+      </c>
+      <c r="C78" s="149"/>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="116">
+        <v>2</v>
       </c>
       <c r="B79" s="159" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C79" s="160"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="116">
-        <v>2</v>
-      </c>
-      <c r="B80" s="161" t="s">
-        <v>783</v>
-      </c>
-      <c r="C80" s="162"/>
+        <v>3</v>
+      </c>
+      <c r="B80" s="150" t="s">
+        <v>784</v>
+      </c>
+      <c r="C80" s="151"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="116">
-        <v>3</v>
-      </c>
-      <c r="B81" s="148" t="s">
-        <v>784</v>
-      </c>
-      <c r="C81" s="149"/>
+        <v>4</v>
+      </c>
+      <c r="B81" s="150" t="s">
+        <v>785</v>
+      </c>
+      <c r="C81" s="151"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="116">
-        <v>4</v>
-      </c>
-      <c r="B82" s="148" t="s">
-        <v>785</v>
-      </c>
-      <c r="C82" s="149"/>
+        <v>5</v>
+      </c>
+      <c r="B82" s="150" t="s">
+        <v>786</v>
+      </c>
+      <c r="C82" s="151"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="116">
-        <v>5</v>
-      </c>
-      <c r="B83" s="148" t="s">
-        <v>786</v>
-      </c>
-      <c r="C83" s="149"/>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="117">
+      <c r="A83" s="117">
         <v>6</v>
       </c>
-      <c r="B84" s="150" t="s">
+      <c r="B83" s="157" t="s">
         <v>790</v>
       </c>
-      <c r="C84" s="151"/>
-    </row>
-    <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C83" s="158"/>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="152" t="s">
+        <v>860</v>
+      </c>
+      <c r="B85" s="153"/>
+      <c r="C85" s="154"/>
+    </row>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="152" t="s">
-        <v>860</v>
-      </c>
-      <c r="B86" s="153"/>
-      <c r="C86" s="154"/>
+      <c r="A86" s="115">
+        <v>1</v>
+      </c>
+      <c r="B86" s="155" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" s="156"/>
     </row>
     <row r="87" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="115">
-        <v>1</v>
-      </c>
-      <c r="B87" s="155" t="s">
-        <v>101</v>
-      </c>
-      <c r="C87" s="156"/>
-    </row>
-    <row r="88" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="124"/>
+      <c r="B87" s="118" t="s">
+        <v>787</v>
+      </c>
+      <c r="C87" s="119" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="124"/>
-      <c r="B88" s="118" t="s">
-        <v>787</v>
-      </c>
-      <c r="C88" s="119" t="s">
-        <v>837</v>
+      <c r="B88" s="127" t="s">
+        <v>788</v>
+      </c>
+      <c r="C88" s="128" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="124"/>
       <c r="B89" s="127" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C89" s="128" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="124"/>
       <c r="B90" s="127" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C90" s="128" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="124"/>
       <c r="B91" s="127" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C91" s="128" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="124"/>
       <c r="B92" s="127" t="s">
-        <v>794</v>
+        <v>821</v>
       </c>
       <c r="C92" s="128" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="124"/>
       <c r="B93" s="127" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C93" s="128" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="124"/>
       <c r="B94" s="127" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C94" s="128" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="124"/>
       <c r="B95" s="127" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C95" s="128" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="124"/>
-      <c r="B96" s="127" t="s">
-        <v>826</v>
-      </c>
-      <c r="C96" s="128" t="s">
-        <v>845</v>
+      <c r="A96" s="116"/>
+      <c r="B96" s="122" t="s">
+        <v>827</v>
+      </c>
+      <c r="C96" s="123" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="116"/>
       <c r="B97" s="122" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C97" s="123" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="116"/>
       <c r="B98" s="122" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C98" s="123" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="116"/>
       <c r="B99" s="122" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C99" s="123" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="116"/>
       <c r="B100" s="122" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C100" s="123" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="116"/>
       <c r="B101" s="122" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C101" s="123" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="116"/>
       <c r="B102" s="122" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C102" s="123" t="s">
-        <v>851</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="116"/>
       <c r="B103" s="122" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C103" s="123" t="s">
-        <v>35</v>
+        <v>852</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="116"/>
       <c r="B104" s="122" t="s">
-        <v>834</v>
-      </c>
-      <c r="C104" s="123" t="s">
-        <v>852</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="C104" s="123"/>
     </row>
     <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="116"/>
-      <c r="B105" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="C105" s="123"/>
-    </row>
-    <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="116"/>
-      <c r="B106" s="120" t="s">
+      <c r="B105" s="120" t="s">
         <v>836</v>
       </c>
-      <c r="C106" s="121"/>
+      <c r="C105" s="121"/>
+    </row>
+    <row r="106" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="116">
+        <v>2</v>
+      </c>
+      <c r="B106" s="146" t="s">
+        <v>811</v>
+      </c>
+      <c r="C106" s="147"/>
     </row>
     <row r="107" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="116">
-        <v>2</v>
-      </c>
-      <c r="B107" s="157" t="s">
-        <v>811</v>
-      </c>
-      <c r="C107" s="158"/>
-    </row>
-    <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="116"/>
+      <c r="B107" s="118" t="s">
+        <v>787</v>
+      </c>
+      <c r="C107" s="119" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="116"/>
-      <c r="B108" s="118" t="s">
-        <v>787</v>
-      </c>
-      <c r="C108" s="119" t="s">
-        <v>824</v>
+      <c r="B108" s="122" t="s">
+        <v>788</v>
+      </c>
+      <c r="C108" s="123" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="116"/>
       <c r="B109" s="122" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C109" s="123" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="116"/>
       <c r="B110" s="122" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C110" s="123" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="116"/>
       <c r="B111" s="122" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C111" s="123" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="116"/>
-      <c r="B112" s="122" t="s">
-        <v>794</v>
-      </c>
-      <c r="C112" s="123" t="s">
-        <v>856</v>
+      <c r="B112" s="125" t="s">
+        <v>821</v>
+      </c>
+      <c r="C112" s="126" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="116"/>
       <c r="B113" s="125" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C113" s="126" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="116"/>
-      <c r="B114" s="125" t="s">
-        <v>823</v>
-      </c>
-      <c r="C114" s="126" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="116"/>
-      <c r="B115" s="120" t="s">
+      <c r="B114" s="120" t="s">
         <v>825</v>
       </c>
-      <c r="C115" s="121" t="s">
+      <c r="C114" s="121" t="s">
         <v>859</v>
       </c>
     </row>
+    <row r="115" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="116">
+        <v>3</v>
+      </c>
+      <c r="B115" s="148" t="s">
+        <v>812</v>
+      </c>
+      <c r="C115" s="149"/>
+    </row>
     <row r="116" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="116">
-        <v>3</v>
-      </c>
-      <c r="B116" s="159" t="s">
-        <v>812</v>
-      </c>
-      <c r="C116" s="160"/>
-    </row>
-    <row r="117" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="116"/>
+      <c r="B116" s="118" t="s">
+        <v>787</v>
+      </c>
+      <c r="C116" s="119" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="116"/>
-      <c r="B117" s="118" t="s">
-        <v>787</v>
-      </c>
-      <c r="C117" s="119" t="s">
-        <v>818</v>
+      <c r="B117" s="122" t="s">
+        <v>788</v>
+      </c>
+      <c r="C117" s="123" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="116"/>
       <c r="B118" s="122" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C118" s="123" t="s">
-        <v>819</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="116"/>
-      <c r="B119" s="122" t="s">
-        <v>791</v>
-      </c>
-      <c r="C119" s="123" t="s">
-        <v>89</v>
+      <c r="B119" s="125" t="s">
+        <v>793</v>
+      </c>
+      <c r="C119" s="126" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="116"/>
       <c r="B120" s="125" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C120" s="126" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="116"/>
-      <c r="B121" s="125" t="s">
-        <v>794</v>
-      </c>
-      <c r="C121" s="126" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="116"/>
-      <c r="B122" s="120"/>
-      <c r="C122" s="121"/>
+      <c r="B121" s="120"/>
+      <c r="C121" s="121"/>
+    </row>
+    <row r="122" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="115">
+        <v>4</v>
+      </c>
+      <c r="B122" s="150" t="s">
+        <v>813</v>
+      </c>
+      <c r="C122" s="151"/>
     </row>
     <row r="123" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="115">
-        <v>4</v>
-      </c>
-      <c r="B123" s="148" t="s">
-        <v>813</v>
-      </c>
-      <c r="C123" s="149"/>
-    </row>
-    <row r="124" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="124"/>
-      <c r="B124" s="118" t="s">
+      <c r="A123" s="124"/>
+      <c r="B123" s="118" t="s">
         <v>787</v>
       </c>
-      <c r="C124" s="119" t="s">
+      <c r="C123" s="119" t="s">
         <v>814</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="116"/>
+      <c r="B124" s="122" t="s">
+        <v>788</v>
+      </c>
+      <c r="C124" s="123" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="116"/>
       <c r="B125" s="122" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C125" s="123" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="116"/>
-      <c r="B126" s="122" t="s">
-        <v>791</v>
-      </c>
-      <c r="C126" s="123" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="116"/>
-      <c r="B127" s="120" t="s">
+      <c r="B126" s="120" t="s">
         <v>793</v>
       </c>
-      <c r="C127" s="121" t="s">
+      <c r="C126" s="121" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="152" t="s">
+        <v>861</v>
+      </c>
+      <c r="B128" s="153"/>
+      <c r="C128" s="154"/>
+    </row>
     <row r="129" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="152" t="s">
-        <v>861</v>
-      </c>
-      <c r="B129" s="153"/>
-      <c r="C129" s="154"/>
+      <c r="A129" s="115">
+        <v>1</v>
+      </c>
+      <c r="B129" s="155" t="s">
+        <v>862</v>
+      </c>
+      <c r="C129" s="156"/>
     </row>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="115">
-        <v>1</v>
-      </c>
-      <c r="B130" s="155" t="s">
-        <v>862</v>
-      </c>
-      <c r="C130" s="156"/>
-    </row>
-    <row r="131" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="124"/>
+      <c r="B130" s="118" t="s">
+        <v>787</v>
+      </c>
+      <c r="C130" s="119" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="124"/>
-      <c r="B131" s="118" t="s">
-        <v>787</v>
-      </c>
-      <c r="C131" s="119" t="s">
-        <v>101</v>
+      <c r="B131" s="127" t="s">
+        <v>788</v>
+      </c>
+      <c r="C131" s="128" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="124"/>
       <c r="B132" s="127" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C132" s="128" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="124"/>
       <c r="B133" s="127" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C133" s="128" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="124"/>
       <c r="B134" s="127" t="s">
-        <v>793</v>
-      </c>
-      <c r="C134" s="128" t="s">
-        <v>813</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="C134" s="128"/>
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="124"/>
       <c r="B135" s="127" t="s">
-        <v>794</v>
+        <v>821</v>
       </c>
       <c r="C135" s="128"/>
     </row>
     <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="124"/>
       <c r="B136" s="127" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C136" s="128"/>
     </row>
     <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="124"/>
       <c r="B137" s="127" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C137" s="128"/>
     </row>
     <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="124"/>
       <c r="B138" s="127" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C138" s="128"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="124"/>
-      <c r="B139" s="127" t="s">
-        <v>826</v>
-      </c>
-      <c r="C139" s="128"/>
+      <c r="A139" s="116"/>
+      <c r="B139" s="122" t="s">
+        <v>827</v>
+      </c>
+      <c r="C139" s="123"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="116"/>
       <c r="B140" s="122" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C140" s="123"/>
     </row>
     <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="116"/>
       <c r="B141" s="122" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C141" s="123"/>
     </row>
     <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="116"/>
       <c r="B142" s="122" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C142" s="123"/>
     </row>
     <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="116"/>
       <c r="B143" s="122" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C143" s="123"/>
     </row>
     <row r="144" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="116"/>
       <c r="B144" s="122" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C144" s="123"/>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="116"/>
       <c r="B145" s="122" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C145" s="123"/>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="116"/>
       <c r="B146" s="122" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C146" s="123"/>
     </row>
     <row r="147" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="116"/>
       <c r="B147" s="122" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C147" s="123"/>
     </row>
     <row r="148" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="116"/>
-      <c r="B148" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="C148" s="123"/>
-    </row>
-    <row r="149" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="116"/>
-      <c r="B149" s="120" t="s">
+      <c r="B148" s="120" t="s">
         <v>836</v>
       </c>
-      <c r="C149" s="121"/>
+      <c r="C148" s="121"/>
+    </row>
+    <row r="149" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="116">
+        <v>2</v>
+      </c>
+      <c r="B149" s="146" t="s">
+        <v>863</v>
+      </c>
+      <c r="C149" s="147"/>
     </row>
     <row r="150" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="116">
-        <v>2</v>
-      </c>
-      <c r="B150" s="157" t="s">
-        <v>863</v>
-      </c>
-      <c r="C150" s="158"/>
-    </row>
-    <row r="151" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="116"/>
+      <c r="B150" s="118" t="s">
+        <v>787</v>
+      </c>
+      <c r="C150" s="119" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="116"/>
-      <c r="B151" s="118" t="s">
-        <v>787</v>
-      </c>
-      <c r="C151" s="119" t="s">
-        <v>241</v>
+      <c r="B151" s="122" t="s">
+        <v>788</v>
+      </c>
+      <c r="C151" s="123" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="116"/>
       <c r="B152" s="122" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C152" s="123" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="116"/>
       <c r="B153" s="122" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C153" s="123" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="116"/>
       <c r="B154" s="122" t="s">
-        <v>793</v>
-      </c>
-      <c r="C154" s="123" t="s">
-        <v>867</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="C154" s="123"/>
     </row>
     <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="116"/>
-      <c r="B155" s="122" t="s">
-        <v>794</v>
-      </c>
-      <c r="C155" s="123"/>
+      <c r="B155" s="125" t="s">
+        <v>821</v>
+      </c>
+      <c r="C155" s="126"/>
     </row>
     <row r="156" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="116"/>
       <c r="B156" s="125" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C156" s="126"/>
     </row>
     <row r="157" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="116"/>
-      <c r="B157" s="125" t="s">
-        <v>823</v>
-      </c>
-      <c r="C157" s="126"/>
-    </row>
-    <row r="158" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="116"/>
-      <c r="B158" s="120" t="s">
+      <c r="B157" s="120" t="s">
         <v>825</v>
       </c>
-      <c r="C158" s="121"/>
+      <c r="C157" s="121"/>
+    </row>
+    <row r="158" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="116">
+        <v>3</v>
+      </c>
+      <c r="B158" s="148" t="s">
+        <v>864</v>
+      </c>
+      <c r="C158" s="149"/>
     </row>
     <row r="159" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="116">
-        <v>3</v>
-      </c>
-      <c r="B159" s="159" t="s">
-        <v>864</v>
-      </c>
-      <c r="C159" s="160"/>
-    </row>
-    <row r="160" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="116"/>
+      <c r="B159" s="118" t="s">
+        <v>787</v>
+      </c>
+      <c r="C159" s="119" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="116"/>
-      <c r="B160" s="118" t="s">
-        <v>787</v>
-      </c>
-      <c r="C160" s="119" t="s">
-        <v>869</v>
+      <c r="B160" s="122" t="s">
+        <v>788</v>
+      </c>
+      <c r="C160" s="123" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="116"/>
       <c r="B161" s="122" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C161" s="123" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="116"/>
-      <c r="B162" s="122" t="s">
-        <v>791</v>
-      </c>
-      <c r="C162" s="123" t="s">
-        <v>870</v>
+      <c r="B162" s="125" t="s">
+        <v>793</v>
+      </c>
+      <c r="C162" s="126" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="116"/>
       <c r="B163" s="125" t="s">
-        <v>793</v>
-      </c>
-      <c r="C163" s="126" t="s">
-        <v>871</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="C163" s="126"/>
     </row>
     <row r="164" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="116"/>
-      <c r="B164" s="125" t="s">
-        <v>794</v>
-      </c>
-      <c r="C164" s="126"/>
-    </row>
-    <row r="165" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="116"/>
-      <c r="B165" s="120" t="s">
+      <c r="B164" s="120" t="s">
         <v>821</v>
       </c>
-      <c r="C165" s="121"/>
+      <c r="C164" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B16:C16"/>
@@ -7108,6 +7048,48 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="B129:C129"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -8306,31 +8288,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="164" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="169" t="s">
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="167" t="s">
         <v>183</v>
       </c>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="171"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="169"/>
     </row>
     <row r="2" spans="1:22" ht="44.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K2" s="66" t="s">
@@ -22482,17 +22464,17 @@
       <c r="A1" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="170" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="174"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="172"/>
       <c r="K1" s="91" t="s">
         <v>364</v>
       </c>
@@ -23228,10 +23210,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="83" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B39" s="48" t="s">
         <v>1026</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>1027</v>
       </c>
       <c r="C39" s="43" t="s">
         <v>744</v>
@@ -23244,7 +23226,7 @@
       <c r="I39" s="43"/>
       <c r="J39" s="44"/>
       <c r="K39" s="89" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="L39" s="87"/>
     </row>
@@ -23382,10 +23364,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="83" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B47" s="48" t="s">
         <v>1024</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>1025</v>
       </c>
       <c r="C47" s="43" t="s">
         <v>744</v>
@@ -23398,7 +23380,7 @@
       <c r="I47" s="43"/>
       <c r="J47" s="44"/>
       <c r="K47" s="89" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L47" s="87"/>
     </row>
@@ -24359,15 +24341,15 @@
       <c r="C1" t="s">
         <v>700</v>
       </c>
-      <c r="E1" s="175" t="s">
+      <c r="E1" s="173" t="s">
         <v>365</v>
       </c>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
       <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
@@ -25425,7 +25407,7 @@
         <v>983</v>
       </c>
       <c r="M55" s="134" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="N55" s="34">
         <v>3</v>
@@ -25689,7 +25671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -25723,48 +25705,48 @@
     <col min="31" max="64" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+    <row r="1" spans="1:64" s="143" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="143" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="143" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1" s="143" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D1" s="143" t="s">
         <v>1000</v>
       </c>
-      <c r="C1" s="145" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D1" s="145" t="s">
+      <c r="E1" s="143" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F1" s="143" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G1" s="143" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H1" s="143" t="s">
+        <v>376</v>
+      </c>
+      <c r="I1" s="143" t="s">
         <v>1001</v>
       </c>
-      <c r="E1" s="145" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F1" s="145" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G1" s="145" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H1" s="145" t="s">
-        <v>376</v>
-      </c>
-      <c r="I1" s="145" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J1" s="145" t="s">
+      <c r="J1" s="143" t="s">
         <v>491</v>
       </c>
-      <c r="K1" s="145" t="s">
-        <v>1040</v>
-      </c>
-      <c r="L1" s="145" t="s">
+      <c r="K1" s="143" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L1" s="143" t="s">
         <v>364</v>
       </c>
-      <c r="M1" s="145" t="s">
+      <c r="M1" s="143" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="145" t="s">
-        <v>1050</v>
+      <c r="N1" s="143" t="s">
+        <v>1049</v>
       </c>
       <c r="O1" s="3">
         <v>1</v>
@@ -25918,26 +25900,26 @@
       </c>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="144" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B2" s="137" t="s">
         <v>1003</v>
       </c>
-      <c r="B2" s="137" t="s">
-        <v>1004</v>
-      </c>
       <c r="C2" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D2" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="137" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F2" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G2" s="137" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H2" s="137">
         <v>3</v>
@@ -25950,48 +25932,48 @@
       </c>
       <c r="K2" s="137"/>
       <c r="L2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N2" t="s">
         <v>1006</v>
       </c>
-      <c r="M2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1007</v>
-      </c>
       <c r="T2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="V2" t="s">
         <v>1010</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>1011</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>1012</v>
       </c>
-      <c r="Z2" t="s">
-        <v>1013</v>
-      </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="144" t="s">
         <v>501</v>
       </c>
       <c r="B3" s="137" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D3" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="137" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F3" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G3" s="137" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H3" s="137">
         <v>5</v>
@@ -26004,13 +25986,13 @@
       </c>
       <c r="K3" s="137"/>
       <c r="L3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="M3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N3" t="s">
         <v>1052</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1053</v>
       </c>
       <c r="O3" s="138"/>
       <c r="P3" s="138"/>
@@ -26018,26 +26000,26 @@
       <c r="R3" s="138"/>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
-        <v>1008</v>
+      <c r="A4" s="144" t="s">
+        <v>1007</v>
       </c>
       <c r="B4" s="137" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D4" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="137" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F4" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G4" s="137" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H4" s="137">
         <v>4</v>
@@ -26050,40 +26032,40 @@
       </c>
       <c r="K4" s="137"/>
       <c r="L4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="R4" t="s">
         <v>1014</v>
       </c>
-      <c r="M4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="AD4" t="s">
         <v>1015</v>
       </c>
-      <c r="AD4" t="s">
-        <v>1016</v>
-      </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="144" t="s">
         <v>493</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C5" s="137" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D5" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="137" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F5" s="137"/>
       <c r="G5" s="137" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H5" s="137">
         <v>4</v>
@@ -26098,13 +26080,13 @@
         <v>247</v>
       </c>
       <c r="L5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="M5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N5" t="s">
         <v>1055</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1056</v>
       </c>
       <c r="U5" s="138">
         <v>0.18</v>
@@ -26120,24 +26102,24 @@
       </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="144" t="s">
         <v>497</v>
       </c>
       <c r="B6" s="137" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C6" s="137" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D6" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="137" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F6" s="137"/>
       <c r="G6" s="137" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H6" s="137">
         <v>3</v>
@@ -26146,33 +26128,33 @@
         <v>1</v>
       </c>
       <c r="J6" s="137" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="K6" s="137" t="s">
         <v>246</v>
       </c>
       <c r="L6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M6" s="139" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="N6" s="137" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="T6" s="138"/>
       <c r="X6" s="138"/>
       <c r="AB6" s="138"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="144" t="s">
         <v>557</v>
       </c>
       <c r="B7" s="137" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D7" s="137" t="s">
         <v>33</v>
@@ -26182,7 +26164,7 @@
       </c>
       <c r="F7" s="137"/>
       <c r="G7" s="137" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H7" s="137">
         <v>4</v>
@@ -26194,46 +26176,46 @@
         <v>3</v>
       </c>
       <c r="K7" s="137" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="V7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A8" s="144" t="s">
         <v>1041</v>
       </c>
-      <c r="L7" t="s">
-        <v>1068</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1048</v>
-      </c>
-      <c r="R7" t="s">
-        <v>1049</v>
-      </c>
-      <c r="V7" t="s">
-        <v>1049</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A8" s="146" t="s">
+      <c r="B8" s="137" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C8" s="137" t="s">
         <v>1042</v>
       </c>
-      <c r="B8" s="137" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C8" s="137" t="s">
+      <c r="D8" s="137" t="s">
         <v>1043</v>
       </c>
-      <c r="D8" s="137" t="s">
-        <v>1044</v>
-      </c>
       <c r="E8" s="137" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F8" s="137"/>
       <c r="G8" s="137" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H8" s="137">
         <v>0</v>
@@ -26246,10 +26228,10 @@
       </c>
       <c r="K8" s="137"/>
       <c r="L8" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="W8">
         <v>2</v>
@@ -26262,26 +26244,26 @@
       </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="144" t="s">
         <v>490</v>
       </c>
       <c r="B9" s="137" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C9" s="137" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D9" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="137" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F9" s="137" t="s">
         <v>278</v>
       </c>
       <c r="G9" s="137" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H9" s="137">
         <v>4</v>
@@ -26296,31 +26278,31 @@
         <v>246</v>
       </c>
       <c r="L9" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="M9" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="144" t="s">
         <v>496</v>
       </c>
       <c r="B10" s="137" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D10" s="137" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="137" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F10" s="137"/>
       <c r="G10" s="137" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H10" s="137">
         <v>4</v>
@@ -26335,24 +26317,24 @@
         <v>246</v>
       </c>
       <c r="L10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N10" s="139" t="s">
         <v>1062</v>
       </c>
-      <c r="M10" t="s">
-        <v>1048</v>
-      </c>
-      <c r="N10" s="139" t="s">
-        <v>1063</v>
-      </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="144" t="s">
         <v>564</v>
       </c>
       <c r="B11" s="137" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>33</v>
@@ -26362,7 +26344,7 @@
       </c>
       <c r="F11" s="137"/>
       <c r="G11" s="137" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H11" s="137">
         <v>1</v>
@@ -26377,44 +26359,44 @@
         <v>246</v>
       </c>
       <c r="L11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N11" s="139" t="s">
         <v>1065</v>
       </c>
-      <c r="M11" t="s">
+      <c r="S11" t="s">
         <v>1048</v>
       </c>
-      <c r="N11" s="139" t="s">
+      <c r="X11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AC11" t="s">
         <v>1066</v>
       </c>
-      <c r="S11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="X11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>1067</v>
-      </c>
       <c r="AH11" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="136" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B12" s="137" t="s">
         <v>1082</v>
-      </c>
-      <c r="B12" s="137" t="s">
-        <v>1083</v>
       </c>
       <c r="C12" s="137"/>
       <c r="D12" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E12" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E12" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F12" s="137"/>
       <c r="G12" s="137" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H12" s="137">
         <v>2</v>
@@ -26425,32 +26407,32 @@
       <c r="J12" s="137"/>
       <c r="K12" s="137"/>
       <c r="L12" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N12" t="s">
         <v>1087</v>
-      </c>
-      <c r="M12" t="s">
-        <v>1048</v>
-      </c>
-      <c r="N12" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="136" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B13" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C13" s="137"/>
       <c r="D13" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E13" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E13" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F13" s="137"/>
       <c r="G13" s="137" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H13" s="137">
         <v>1</v>
@@ -26461,34 +26443,34 @@
       <c r="J13" s="137"/>
       <c r="K13" s="137"/>
       <c r="L13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="M13" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="N13" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="144" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B14" s="137" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C14" s="137" t="s">
         <v>1093</v>
       </c>
-      <c r="B14" s="137" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C14" s="137" t="s">
-        <v>1094</v>
-      </c>
       <c r="D14" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E14" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E14" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F14" s="137"/>
       <c r="G14" s="137" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H14" s="137">
         <v>3</v>
@@ -26500,37 +26482,37 @@
         <v>3</v>
       </c>
       <c r="K14" s="137" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L14" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N14" s="142" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A15" s="144" t="s">
         <v>1095</v>
       </c>
-      <c r="M14" t="s">
-        <v>1048</v>
-      </c>
-      <c r="N14" s="144" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A15" s="146" t="s">
-        <v>1096</v>
-      </c>
       <c r="B15" s="137" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D15" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E15" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E15" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F15" s="137"/>
       <c r="G15" s="137" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H15" s="137">
         <v>3</v>
@@ -26542,37 +26524,37 @@
         <v>6</v>
       </c>
       <c r="K15" s="137" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M15" t="s">
         <v>1098</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" s="142" t="s">
         <v>1099</v>
       </c>
-      <c r="N15" s="144" t="s">
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A16" s="144" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A16" s="146" t="s">
-        <v>1101</v>
-      </c>
       <c r="B16" s="137" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C16" s="137" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D16" s="137" t="s">
         <v>1083</v>
       </c>
-      <c r="C16" s="137" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D16" s="137" t="s">
+      <c r="E16" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E16" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F16" s="137"/>
       <c r="G16" s="137" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H16" s="137">
         <v>3</v>
@@ -26585,32 +26567,32 @@
         <v>247</v>
       </c>
       <c r="L16" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="M16" t="s">
-        <v>1048</v>
-      </c>
-      <c r="N16" s="144" t="s">
-        <v>1092</v>
+        <v>1047</v>
+      </c>
+      <c r="N16" s="142" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="136" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B17" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C17" s="137"/>
       <c r="D17" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E17" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E17" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F17" s="137"/>
       <c r="G17" s="137" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H17" s="137">
         <v>2</v>
@@ -26623,32 +26605,32 @@
       </c>
       <c r="K17" s="137"/>
       <c r="L17" t="s">
+        <v>1104</v>
+      </c>
+      <c r="M17" t="s">
         <v>1105</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" s="142" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="144" t="s">
         <v>1106</v>
       </c>
-      <c r="N17" s="144" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="146" t="s">
-        <v>1107</v>
-      </c>
       <c r="B18" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C18" s="137"/>
       <c r="D18" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E18" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E18" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F18" s="137"/>
       <c r="G18" s="137" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H18" s="137">
         <v>3</v>
@@ -26659,26 +26641,26 @@
       <c r="J18" s="137"/>
       <c r="K18" s="137"/>
       <c r="L18" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="144" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="146" t="s">
-        <v>1109</v>
-      </c>
       <c r="B19" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C19" s="137"/>
       <c r="D19" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E19" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E19" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F19" s="137"/>
       <c r="G19" s="137" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H19" s="137">
         <v>1</v>
@@ -26689,28 +26671,28 @@
       <c r="J19" s="137"/>
       <c r="K19" s="137"/>
       <c r="L19" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="144" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="146" t="s">
-        <v>1112</v>
-      </c>
       <c r="B20" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C20" s="137" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D20" s="137" t="s">
         <v>375</v>
       </c>
       <c r="E20" s="137" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F20" s="137"/>
       <c r="G20" s="137" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H20" s="137">
         <v>4</v>
@@ -26721,29 +26703,29 @@
       <c r="J20" s="137"/>
       <c r="K20" s="137"/>
       <c r="L20" t="s">
+        <v>1113</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="144" t="s">
         <v>1114</v>
       </c>
-      <c r="M20" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="146" t="s">
-        <v>1115</v>
-      </c>
       <c r="B21" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C21" s="137"/>
       <c r="D21" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E21" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E21" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F21" s="137"/>
       <c r="G21" s="137" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H21" s="137">
         <v>4</v>
@@ -26754,32 +26736,32 @@
       <c r="J21" s="137"/>
       <c r="K21" s="137"/>
       <c r="L21" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N21" t="s">
         <v>1116</v>
       </c>
-      <c r="M21" t="s">
-        <v>1092</v>
-      </c>
-      <c r="N21" t="s">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="144" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="146" t="s">
-        <v>1118</v>
-      </c>
       <c r="B22" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C22" s="137"/>
       <c r="D22" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E22" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E22" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F22" s="137"/>
       <c r="G22" s="137" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H22" s="137">
         <v>3</v>
@@ -26790,26 +26772,26 @@
       <c r="J22" s="137"/>
       <c r="K22" s="137"/>
       <c r="L22" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="144" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="146" t="s">
-        <v>1120</v>
-      </c>
       <c r="B23" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C23" s="137"/>
       <c r="D23" s="137" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E23" s="137" t="s">
         <v>422</v>
       </c>
       <c r="F23" s="137"/>
       <c r="G23" s="137" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H23" s="137">
         <v>3</v>
@@ -26820,26 +26802,26 @@
       <c r="J23" s="137"/>
       <c r="K23" s="137"/>
       <c r="L23" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="144" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="146" t="s">
-        <v>1122</v>
-      </c>
       <c r="B24" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C24" s="137"/>
       <c r="D24" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E24" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E24" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F24" s="137"/>
       <c r="G24" s="137" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H24" s="137">
         <v>3</v>
@@ -26850,26 +26832,26 @@
       <c r="J24" s="137"/>
       <c r="K24" s="137"/>
       <c r="L24" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="146" t="s">
-        <v>1128</v>
+      <c r="A25" s="144" t="s">
+        <v>1127</v>
       </c>
       <c r="B25" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C25" s="137"/>
       <c r="D25" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E25" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E25" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F25" s="137"/>
       <c r="G25" s="137" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H25" s="137">
         <v>3</v>
@@ -26882,32 +26864,32 @@
       </c>
       <c r="K25" s="137"/>
       <c r="L25" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M25" t="s">
         <v>1125</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>1126</v>
       </c>
-      <c r="N25" t="s">
-        <v>1127</v>
-      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="146" t="s">
-        <v>1129</v>
+      <c r="A26" s="144" t="s">
+        <v>1128</v>
       </c>
       <c r="B26" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C26" s="137"/>
       <c r="D26" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E26" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E26" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F26" s="137"/>
       <c r="G26" s="137" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H26" s="137">
         <v>1</v>
@@ -26918,26 +26900,26 @@
       <c r="J26" s="137"/>
       <c r="K26" s="137"/>
       <c r="L26" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="144" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="146" t="s">
-        <v>1131</v>
-      </c>
       <c r="B27" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C27" s="137"/>
       <c r="D27" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E27" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E27" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F27" s="137"/>
       <c r="G27" s="137" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H27" s="137">
         <v>3</v>
@@ -26950,29 +26932,29 @@
       </c>
       <c r="K27" s="137"/>
       <c r="L27" t="s">
+        <v>1131</v>
+      </c>
+      <c r="M27" t="s">
         <v>1132</v>
       </c>
-      <c r="M27" t="s">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="144" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="146" t="s">
-        <v>1134</v>
-      </c>
       <c r="B28" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C28" s="137"/>
       <c r="D28" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E28" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E28" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F28" s="137"/>
       <c r="G28" s="137" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H28" s="137">
         <v>0</v>
@@ -26983,32 +26965,32 @@
       <c r="J28" s="137"/>
       <c r="K28" s="137"/>
       <c r="L28" t="s">
+        <v>1134</v>
+      </c>
+      <c r="M28" t="s">
         <v>1135</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>1136</v>
       </c>
-      <c r="N28" t="s">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="144" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="146" t="s">
-        <v>1138</v>
-      </c>
       <c r="B29" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C29" s="137"/>
       <c r="D29" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E29" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E29" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F29" s="137"/>
       <c r="G29" s="137" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H29" s="137">
         <v>3</v>
@@ -27021,32 +27003,32 @@
       </c>
       <c r="K29" s="137"/>
       <c r="L29" t="s">
+        <v>1138</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="144" t="s">
         <v>1139</v>
       </c>
-      <c r="M29" t="s">
-        <v>1106</v>
-      </c>
-      <c r="N29" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="146" t="s">
-        <v>1140</v>
-      </c>
       <c r="B30" s="137" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C30" s="137"/>
       <c r="D30" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E30" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E30" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F30" s="137"/>
       <c r="G30" s="137" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H30" s="137">
         <v>3</v>
@@ -27059,29 +27041,29 @@
       </c>
       <c r="K30" s="137"/>
       <c r="L30" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="M30" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="146" t="s">
+      <c r="A31" s="144" t="s">
         <v>888</v>
       </c>
       <c r="B31" s="137" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C31" s="137"/>
       <c r="D31" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E31" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E31" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F31" s="137"/>
       <c r="G31" s="137" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H31" s="137">
         <v>3</v>
@@ -27094,26 +27076,26 @@
       </c>
       <c r="K31" s="137"/>
       <c r="L31" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="144" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="146" t="s">
-        <v>1142</v>
-      </c>
       <c r="B32" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C32" s="137"/>
       <c r="D32" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E32" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E32" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F32" s="137"/>
       <c r="G32" s="137" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H32" s="137">
         <v>1</v>
@@ -27124,26 +27106,26 @@
       <c r="J32" s="137"/>
       <c r="K32" s="137"/>
       <c r="L32" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="146" t="s">
-        <v>1145</v>
+      <c r="A33" s="144" t="s">
+        <v>1144</v>
       </c>
       <c r="B33" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C33" s="137"/>
       <c r="D33" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E33" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E33" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F33" s="137"/>
       <c r="G33" s="137" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H33" s="137">
         <v>0</v>
@@ -27154,26 +27136,26 @@
       <c r="J33" s="137"/>
       <c r="K33" s="137"/>
       <c r="L33" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="146" t="s">
-        <v>1146</v>
+      <c r="A34" s="144" t="s">
+        <v>1145</v>
       </c>
       <c r="B34" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C34" s="137"/>
       <c r="D34" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E34" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E34" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F34" s="137"/>
       <c r="G34" s="137" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H34" s="137">
         <v>3</v>
@@ -27186,26 +27168,26 @@
       </c>
       <c r="K34" s="137"/>
       <c r="L34" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="146" t="s">
-        <v>1153</v>
+      <c r="A35" s="144" t="s">
+        <v>1152</v>
       </c>
       <c r="B35" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C35" s="137"/>
       <c r="D35" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E35" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E35" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F35" s="137"/>
       <c r="G35" s="137" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H35" s="137">
         <v>0</v>
@@ -27218,26 +27200,26 @@
       </c>
       <c r="K35" s="137"/>
       <c r="L35" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="144" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="146" t="s">
-        <v>1149</v>
-      </c>
       <c r="B36" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C36" s="137"/>
       <c r="D36" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E36" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E36" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F36" s="137"/>
       <c r="G36" s="137" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H36" s="137">
         <v>0</v>
@@ -27250,26 +27232,26 @@
       </c>
       <c r="K36" s="137"/>
       <c r="L36" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="144" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="146" t="s">
-        <v>1151</v>
-      </c>
       <c r="B37" s="137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C37" s="137"/>
       <c r="D37" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E37" s="137" t="s">
         <v>1084</v>
-      </c>
-      <c r="E37" s="137" t="s">
-        <v>1085</v>
       </c>
       <c r="F37" s="137"/>
       <c r="G37" s="137" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H37" s="137">
         <v>3</v>
@@ -27282,26 +27264,26 @@
       </c>
       <c r="K37" s="137"/>
       <c r="L37" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="146" t="s">
+      <c r="A38" s="144" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B38" s="137" t="s">
         <v>1154</v>
-      </c>
-      <c r="B38" s="137" t="s">
-        <v>1155</v>
       </c>
       <c r="C38" s="137"/>
       <c r="D38" s="137" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E38" s="137" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F38" s="137"/>
       <c r="G38" s="137" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H38" s="137">
         <v>3</v>
@@ -27314,26 +27296,26 @@
       </c>
       <c r="K38" s="137"/>
       <c r="L38" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="144" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="146" t="s">
-        <v>1159</v>
-      </c>
       <c r="B39" s="137" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C39" s="137"/>
       <c r="D39" s="137" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E39" s="137" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F39" s="137"/>
       <c r="G39" s="137" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H39" s="137">
         <v>3</v>
@@ -27350,22 +27332,22 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="146" t="s">
-        <v>1161</v>
+      <c r="A40" s="144" t="s">
+        <v>1160</v>
       </c>
       <c r="B40" s="137" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C40" s="137"/>
       <c r="D40" s="137" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E40" s="137" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F40" s="137"/>
       <c r="G40" s="137" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H40" s="137">
         <v>3</v>
@@ -27378,123 +27360,123 @@
       </c>
       <c r="K40" s="137"/>
       <c r="L40" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="144" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="146" t="s">
+      <c r="B41" s="145" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D41" s="145" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E41" s="137" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G41" s="145" t="s">
         <v>1164</v>
       </c>
-      <c r="B41" s="147" t="s">
+      <c r="H41" s="145">
+        <v>3</v>
+      </c>
+      <c r="I41" s="145">
+        <v>1</v>
+      </c>
+      <c r="J41" s="145">
+        <v>5</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="144" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B42" s="145" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D42" s="145" t="s">
         <v>1155</v>
       </c>
-      <c r="D41" s="147" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E41" s="137" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G41" s="147" t="s">
-        <v>1165</v>
-      </c>
-      <c r="H41" s="147">
+      <c r="E42" s="137" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G42" s="145" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H42" s="145">
         <v>3</v>
       </c>
-      <c r="I41" s="147">
-        <v>1</v>
-      </c>
-      <c r="J41" s="147">
-        <v>5</v>
-      </c>
-      <c r="L41" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="146" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B42" s="147" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D42" s="147" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E42" s="137" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G42" s="147" t="s">
+      <c r="I42" s="145">
+        <v>1</v>
+      </c>
+      <c r="J42" s="145">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
         <v>1168</v>
       </c>
-      <c r="H42" s="147">
-        <v>3</v>
-      </c>
-      <c r="I42" s="147">
-        <v>1</v>
-      </c>
-      <c r="J42" s="147">
-        <v>0</v>
-      </c>
-      <c r="L42" t="s">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="144" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="146" t="s">
+      <c r="B43" s="145" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D43" s="145" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E43" s="137" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G43" s="145" t="s">
         <v>1170</v>
       </c>
-      <c r="B43" s="147" t="s">
+      <c r="H43" s="145">
+        <v>2</v>
+      </c>
+      <c r="I43" s="145">
+        <v>1</v>
+      </c>
+      <c r="J43" s="145">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="144" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B44" s="145" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D44" s="145" t="s">
         <v>1083</v>
-      </c>
-      <c r="D43" s="147" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E43" s="137" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G43" s="147" t="s">
-        <v>1171</v>
-      </c>
-      <c r="H43" s="147">
-        <v>2</v>
-      </c>
-      <c r="I43" s="147">
-        <v>1</v>
-      </c>
-      <c r="J43" s="147">
-        <v>1</v>
-      </c>
-      <c r="L43" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="146" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B44" s="147" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D44" s="147" t="s">
-        <v>1084</v>
       </c>
       <c r="E44" s="137" t="s">
         <v>422</v>
       </c>
-      <c r="G44" s="147" t="s">
-        <v>1102</v>
-      </c>
-      <c r="H44" s="147">
+      <c r="G44" s="145" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H44" s="145">
         <v>0</v>
       </c>
-      <c r="I44" s="147">
-        <v>1</v>
-      </c>
-      <c r="J44" s="147">
+      <c r="I44" s="145">
+        <v>1</v>
+      </c>
+      <c r="J44" s="145">
         <v>4</v>
       </c>
       <c r="L44" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
   </sheetData>
@@ -27520,7 +27502,7 @@
         <v>350</v>
       </c>
       <c r="B1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -27528,7 +27510,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -27536,7 +27518,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -27552,7 +27534,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -27560,7 +27542,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -27568,7 +27550,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -27576,7 +27558,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -27584,7 +27566,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -27592,7 +27574,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -27600,7 +27582,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -27608,7 +27590,7 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -27616,7 +27598,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
   </sheetData>
@@ -28364,24 +28346,24 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="100"/>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="163" t="s">
         <v>701</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
       <c r="E1" s="101"/>
-      <c r="F1" s="163" t="s">
+      <c r="F1" s="161" t="s">
         <v>350</v>
       </c>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="164"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="162"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
       <c r="R1" s="30"/>
